--- a/iceKnives32/Offline Documents (Periodic)/iceKnives32.xlsx
+++ b/iceKnives32/Offline Documents (Periodic)/iceKnives32.xlsx
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="2788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="2824">
   <si>
     <t>[]</t>
   </si>
@@ -5157,6 +5157,9 @@
     <t>Gas</t>
   </si>
   <si>
+    <t>Maze</t>
+  </si>
+  <si>
     <t>Filter</t>
   </si>
   <si>
@@ -5172,6 +5175,9 @@
     <t>Build</t>
   </si>
   <si>
+    <t>Upper</t>
+  </si>
+  <si>
     <t>Data</t>
   </si>
   <si>
@@ -5187,6 +5193,9 @@
     <t>Dynamic</t>
   </si>
   <si>
+    <t>Until</t>
+  </si>
+  <si>
     <t>Grid</t>
   </si>
   <si>
@@ -5202,6 +5211,9 @@
     <t>Structure</t>
   </si>
   <si>
+    <t>Column</t>
+  </si>
+  <si>
     <t>Information</t>
   </si>
   <si>
@@ -5217,6 +5229,9 @@
     <t>Tip</t>
   </si>
   <si>
+    <t>Revise</t>
+  </si>
+  <si>
     <t>Paragraph</t>
   </si>
   <si>
@@ -5232,6 +5247,9 @@
     <t>Device</t>
   </si>
   <si>
+    <t>Limit</t>
+  </si>
+  <si>
     <t>Socket</t>
   </si>
   <si>
@@ -5247,6 +5265,9 @@
     <t>Count</t>
   </si>
   <si>
+    <t>Repeat</t>
+  </si>
+  <si>
     <t>Tape</t>
   </si>
   <si>
@@ -5265,6 +5286,9 @@
     <t>Energy</t>
   </si>
   <si>
+    <t>Valve</t>
+  </si>
+  <si>
     <t>Channel</t>
   </si>
   <si>
@@ -5280,6 +5304,9 @@
     <t>Machine</t>
   </si>
   <si>
+    <t>Important</t>
+  </si>
+  <si>
     <t>Standard</t>
   </si>
   <si>
@@ -5295,6 +5322,9 @@
     <t>Straight</t>
   </si>
   <si>
+    <t>Rational</t>
+  </si>
+  <si>
     <t>Diary</t>
   </si>
   <si>
@@ -5310,6 +5340,9 @@
     <t>Touch</t>
   </si>
   <si>
+    <t>Contrast</t>
+  </si>
+  <si>
     <t>Code</t>
   </si>
   <si>
@@ -5325,6 +5358,9 @@
     <t>Term</t>
   </si>
   <si>
+    <t>Above</t>
+  </si>
+  <si>
     <t>Message</t>
   </si>
   <si>
@@ -5343,6 +5379,9 @@
     <t>Set</t>
   </si>
   <si>
+    <t>Complete</t>
+  </si>
+  <si>
     <t>Property</t>
   </si>
   <si>
@@ -5358,6 +5397,9 @@
     <t>Instrument</t>
   </si>
   <si>
+    <t>Create</t>
+  </si>
+  <si>
     <t>Card</t>
   </si>
   <si>
@@ -5373,6 +5415,9 @@
     <t>Clock</t>
   </si>
   <si>
+    <t>Below</t>
+  </si>
+  <si>
     <t>Frame</t>
   </si>
   <si>
@@ -5388,6 +5433,9 @@
     <t>Star</t>
   </si>
   <si>
+    <t>Proportion</t>
+  </si>
+  <si>
     <t>Hash</t>
   </si>
   <si>
@@ -5403,6 +5451,9 @@
     <t>Belt</t>
   </si>
   <si>
+    <t>Secret</t>
+  </si>
+  <si>
     <t>Tier</t>
   </si>
   <si>
@@ -5421,6 +5472,9 @@
     <t>Panel</t>
   </si>
   <si>
+    <t>About</t>
+  </si>
+  <si>
     <t>Sort</t>
   </si>
   <si>
@@ -5439,6 +5493,9 @@
     <t>Thread</t>
   </si>
   <si>
+    <t>Quotient</t>
+  </si>
+  <si>
     <t>Space</t>
   </si>
   <si>
@@ -5454,6 +5511,9 @@
     <t>Pair</t>
   </si>
   <si>
+    <t>Record</t>
+  </si>
+  <si>
     <t>Register</t>
   </si>
   <si>
@@ -5472,6 +5532,9 @@
     <t>Boundary</t>
   </si>
   <si>
+    <t>Ledger</t>
+  </si>
+  <si>
     <t>Spell</t>
   </si>
   <si>
@@ -5487,6 +5550,9 @@
     <t>Ready</t>
   </si>
   <si>
+    <t>Rather</t>
+  </si>
+  <si>
     <t>View</t>
   </si>
   <si>
@@ -5502,6 +5568,9 @@
     <t>Index</t>
   </si>
   <si>
+    <t>Row</t>
+  </si>
+  <si>
     <t>Span</t>
   </si>
   <si>
@@ -5517,6 +5586,9 @@
     <t>Plate</t>
   </si>
   <si>
+    <t>Still</t>
+  </si>
+  <si>
     <t>Bracket</t>
   </si>
   <si>
@@ -5532,6 +5604,9 @@
     <t>Check</t>
   </si>
   <si>
+    <t>Lower</t>
+  </si>
+  <si>
     <t>Grade</t>
   </si>
   <si>
@@ -5547,6 +5622,9 @@
     <t>Band</t>
   </si>
   <si>
+    <t>Coast</t>
+  </si>
+  <si>
     <t>Category</t>
   </si>
   <si>
@@ -5583,6 +5661,12 @@
     <t>"538"</t>
   </si>
   <si>
+    <t>!629!</t>
+  </si>
+  <si>
+    <t>'3932'</t>
+  </si>
+  <si>
     <t>{584}</t>
   </si>
   <si>
@@ -5601,6 +5685,24 @@
     <t>"551"</t>
   </si>
   <si>
+    <t>!664!</t>
+  </si>
+  <si>
+    <t>'4068'</t>
+  </si>
+  <si>
+    <t>'2078'</t>
+  </si>
+  <si>
+    <t>'2176'</t>
+  </si>
+  <si>
+    <t>'4254'</t>
+  </si>
+  <si>
+    <t>'4255'</t>
+  </si>
+  <si>
     <t>{53}</t>
   </si>
   <si>
@@ -5625,6 +5727,21 @@
     <t>'322'</t>
   </si>
   <si>
+    <t>'1942'</t>
+  </si>
+  <si>
+    <t>'1990'</t>
+  </si>
+  <si>
+    <t>'1984'</t>
+  </si>
+  <si>
+    <t>'1948'</t>
+  </si>
+  <si>
+    <t>'362'</t>
+  </si>
+  <si>
     <t>[set/chain/f/];</t>
   </si>
   <si>
@@ -6075,9 +6192,6 @@
     <t>Volume</t>
   </si>
   <si>
-    <t>Ledger</t>
-  </si>
-  <si>
     <t>Creation</t>
   </si>
   <si>
@@ -6465,9 +6579,6 @@
     <t>Watch</t>
   </si>
   <si>
-    <t>Limit</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -7321,9 +7432,6 @@
   </si>
   <si>
     <t>Colour</t>
-  </si>
-  <si>
-    <t>About</t>
   </si>
   <si>
     <t>Survey</t>
@@ -11639,7 +11747,7 @@
         <v>1613</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>18</v>
+        <v>1614</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>19</v>
@@ -11650,25 +11758,25 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>1012</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>18</v>
+        <v>1620</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>19</v>
@@ -11679,25 +11787,25 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>1027</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>18</v>
+        <v>1626</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>19</v>
@@ -11708,25 +11816,25 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1624</v>
+        <v>1627</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1625</v>
+        <v>1628</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>747</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1628</v>
+        <v>1631</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>18</v>
+        <v>1632</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>19</v>
@@ -11737,25 +11845,25 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1629</v>
+        <v>1633</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1630</v>
+        <v>1634</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>456</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1631</v>
+        <v>1635</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1632</v>
+        <v>1636</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>1633</v>
+        <v>1637</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>18</v>
+        <v>1638</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>19</v>
@@ -11766,25 +11874,25 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1634</v>
+        <v>1639</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1635</v>
+        <v>1640</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>124</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1636</v>
+        <v>1641</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1637</v>
+        <v>1642</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1638</v>
+        <v>1643</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>18</v>
+        <v>1644</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>19</v>
@@ -11795,25 +11903,25 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1639</v>
+        <v>1645</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1640</v>
+        <v>1646</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>360</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1641</v>
+        <v>1647</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>1642</v>
+        <v>1648</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1643</v>
+        <v>1649</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>18</v>
+        <v>1650</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>19</v>
@@ -11824,25 +11932,25 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1644</v>
+        <v>1651</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1645</v>
+        <v>1652</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1646</v>
+        <v>1653</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1647</v>
+        <v>1654</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>1648</v>
+        <v>1655</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1649</v>
+        <v>1656</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>18</v>
+        <v>1657</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>19</v>
@@ -11853,25 +11961,25 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1650</v>
+        <v>1658</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1651</v>
+        <v>1659</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>488</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1652</v>
+        <v>1660</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>1653</v>
+        <v>1661</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1654</v>
+        <v>1662</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>18</v>
+        <v>1663</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>19</v>
@@ -11882,25 +11990,25 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1655</v>
+        <v>1664</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1656</v>
+        <v>1665</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1119</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1657</v>
+        <v>1666</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1658</v>
+        <v>1667</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>1659</v>
+        <v>1668</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>18</v>
+        <v>1669</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>19</v>
@@ -11911,25 +12019,25 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1660</v>
+        <v>1670</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1661</v>
+        <v>1671</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>470</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1662</v>
+        <v>1672</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1663</v>
+        <v>1673</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1664</v>
+        <v>1674</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>18</v>
+        <v>1675</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>19</v>
@@ -11940,25 +12048,25 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1665</v>
+        <v>1676</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1666</v>
+        <v>1677</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>211</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1667</v>
+        <v>1678</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1668</v>
+        <v>1679</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1669</v>
+        <v>1680</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>18</v>
+        <v>1681</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>19</v>
@@ -11969,25 +12077,25 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1670</v>
+        <v>1682</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1671</v>
+        <v>1683</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1672</v>
+        <v>1684</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1673</v>
+        <v>1685</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1674</v>
+        <v>1686</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1675</v>
+        <v>1687</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>18</v>
+        <v>1688</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>19</v>
@@ -11998,25 +12106,25 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1676</v>
+        <v>1689</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1677</v>
+        <v>1690</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>625</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1678</v>
+        <v>1691</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1679</v>
+        <v>1692</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>1680</v>
+        <v>1693</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>18</v>
+        <v>1694</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>19</v>
@@ -12027,25 +12135,25 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1681</v>
+        <v>1695</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1682</v>
+        <v>1696</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>768</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1683</v>
+        <v>1697</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>1684</v>
+        <v>1698</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1685</v>
+        <v>1699</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>18</v>
+        <v>1700</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>19</v>
@@ -12056,25 +12164,25 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1686</v>
+        <v>1701</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1687</v>
+        <v>1702</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>845</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1688</v>
+        <v>1703</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1689</v>
+        <v>1704</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>1690</v>
+        <v>1705</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>18</v>
+        <v>1706</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>19</v>
@@ -12085,25 +12193,25 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1691</v>
+        <v>1707</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1692</v>
+        <v>1708</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>1311</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1693</v>
+        <v>1709</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>1694</v>
+        <v>1710</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>1695</v>
+        <v>1711</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>18</v>
+        <v>1712</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>19</v>
@@ -12114,25 +12222,25 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1696</v>
+        <v>1713</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1697</v>
+        <v>1714</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1698</v>
+        <v>1715</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1699</v>
+        <v>1716</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>1700</v>
+        <v>1717</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1701</v>
+        <v>1718</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>18</v>
+        <v>1719</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>19</v>
@@ -12143,25 +12251,25 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1702</v>
+        <v>1720</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1703</v>
+        <v>1721</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1704</v>
+        <v>1722</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1705</v>
+        <v>1723</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>1706</v>
+        <v>1724</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1707</v>
+        <v>1725</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>18</v>
+        <v>1726</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>19</v>
@@ -12172,25 +12280,25 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1708</v>
+        <v>1727</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1709</v>
+        <v>1728</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>932</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1710</v>
+        <v>1729</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>1711</v>
+        <v>1730</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>1712</v>
+        <v>1731</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>18</v>
+        <v>1732</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>19</v>
@@ -12201,25 +12309,25 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1713</v>
+        <v>1733</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>1717</v>
+        <v>1737</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1718</v>
+        <v>1738</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>18</v>
+        <v>1739</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>19</v>
@@ -12230,25 +12338,25 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1719</v>
+        <v>1740</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1720</v>
+        <v>1741</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>472</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1721</v>
+        <v>1742</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>1722</v>
+        <v>1743</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>1723</v>
+        <v>1744</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>18</v>
+        <v>1745</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>19</v>
@@ -12259,25 +12367,25 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1724</v>
+        <v>1746</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1725</v>
+        <v>1747</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>424</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1726</v>
+        <v>1748</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>1727</v>
+        <v>1749</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>1728</v>
+        <v>1750</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>18</v>
+        <v>1751</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>19</v>
@@ -12288,25 +12396,25 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1729</v>
+        <v>1752</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1730</v>
+        <v>1753</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>925</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1731</v>
+        <v>1754</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>1732</v>
+        <v>1755</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1733</v>
+        <v>1756</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>18</v>
+        <v>1757</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>19</v>
@@ -12317,25 +12425,25 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1734</v>
+        <v>1758</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1735</v>
+        <v>1759</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>1383</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1736</v>
+        <v>1760</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>1737</v>
+        <v>1761</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>1738</v>
+        <v>1762</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>18</v>
+        <v>1763</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>19</v>
@@ -12346,25 +12454,25 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1739</v>
+        <v>1764</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1740</v>
+        <v>1765</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>429</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1741</v>
+        <v>1766</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>1742</v>
+        <v>1767</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>1743</v>
+        <v>1768</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>18</v>
+        <v>1769</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>19</v>
@@ -12375,25 +12483,25 @@
         <v>45</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1744</v>
+        <v>1770</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1745</v>
+        <v>1771</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>373</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>1747</v>
+        <v>1773</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>1749</v>
+        <v>1775</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>335</v>
@@ -12404,28 +12512,28 @@
         <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1750</v>
+        <v>1776</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1752</v>
+        <v>1778</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>1753</v>
+        <v>1779</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1754</v>
+        <v>1780</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>1755</v>
+        <v>1781</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>61</v>
+        <v>1782</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>19</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="31">
@@ -12433,28 +12541,28 @@
         <v>62</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1756</v>
+        <v>1784</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1757</v>
+        <v>1785</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1758</v>
+        <v>1786</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>1759</v>
+        <v>1787</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>1760</v>
+        <v>1788</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>1761</v>
+        <v>1789</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>61</v>
+        <v>1790</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>19</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="32">
@@ -12483,7 +12591,7 @@
         <v>61</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>19</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="33">
@@ -12512,7 +12620,7 @@
         <v>61</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>19</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="34">
@@ -12541,7 +12649,7 @@
         <v>61</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>19</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="35">
@@ -12570,7 +12678,7 @@
         <v>61</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>19</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="36">
@@ -12578,28 +12686,28 @@
         <v>67</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1762</v>
+        <v>1796</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1763</v>
+        <v>1797</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1764</v>
+        <v>1798</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>1765</v>
+        <v>1799</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>1766</v>
+        <v>1800</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>1767</v>
+        <v>1801</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>1768</v>
+        <v>1802</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>1769</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="37">
@@ -12628,7 +12736,7 @@
         <v>61</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>19</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="38">
@@ -12657,7 +12765,7 @@
         <v>61</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>19</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="39">
@@ -12686,7 +12794,7 @@
         <v>61</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>19</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="40">
@@ -12715,7 +12823,7 @@
         <v>61</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>19</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="41">
@@ -12744,7 +12852,7 @@
         <v>61</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>19</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="42">
@@ -12778,36 +12886,36 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1770</v>
+        <v>1809</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1773</v>
+        <v>1812</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>1774</v>
+        <v>1813</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>1775</v>
+        <v>1814</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>1776</v>
+        <v>1815</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>1777</v>
+        <v>1816</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1778</v>
+        <v>1817</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.25" right="0.25" top="0.75"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup fitToHeight="0" paperSize="9" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -12829,7 +12937,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1779</v>
+        <v>1818</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -12858,28 +12966,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1780</v>
+        <v>1819</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1781</v>
+        <v>1820</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1782</v>
+        <v>1821</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1783</v>
+        <v>1822</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1784</v>
+        <v>1823</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1785</v>
+        <v>1824</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1786</v>
+        <v>1825</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>1787</v>
+        <v>1826</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>19</v>
@@ -12890,13 +12998,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1788</v>
+        <v>1827</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1789</v>
+        <v>1828</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1790</v>
+        <v>1829</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>18</v>
@@ -12919,13 +13027,13 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1791</v>
+        <v>1830</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1792</v>
+        <v>1831</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1793</v>
+        <v>1832</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -12948,13 +13056,13 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1794</v>
+        <v>1833</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1795</v>
+        <v>1834</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1796</v>
+        <v>1835</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>18</v>
@@ -12977,13 +13085,13 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1797</v>
+        <v>1836</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1798</v>
+        <v>1837</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1799</v>
+        <v>1838</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>18</v>
@@ -13006,13 +13114,13 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1800</v>
+        <v>1839</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1801</v>
+        <v>1840</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1802</v>
+        <v>1841</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>18</v>
@@ -13035,13 +13143,13 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1803</v>
+        <v>1842</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1804</v>
+        <v>1843</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1805</v>
+        <v>1844</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>18</v>
@@ -13064,13 +13172,13 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1806</v>
+        <v>1845</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1807</v>
+        <v>1846</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1808</v>
+        <v>1847</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>18</v>
@@ -13093,13 +13201,13 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1809</v>
+        <v>1848</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1810</v>
+        <v>1849</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1811</v>
+        <v>1850</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>18</v>
@@ -13122,13 +13230,13 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1812</v>
+        <v>1851</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1813</v>
+        <v>1852</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1814</v>
+        <v>1853</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>18</v>
@@ -13151,13 +13259,13 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1815</v>
+        <v>1854</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1816</v>
+        <v>1855</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1817</v>
+        <v>1856</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>18</v>
@@ -13180,13 +13288,13 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1818</v>
+        <v>1857</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1819</v>
+        <v>1858</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1820</v>
+        <v>1859</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>18</v>
@@ -13209,13 +13317,13 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1821</v>
+        <v>1860</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1822</v>
+        <v>1861</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1823</v>
+        <v>1862</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>18</v>
@@ -13238,13 +13346,13 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1824</v>
+        <v>1863</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1825</v>
+        <v>1864</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1826</v>
+        <v>1865</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>18</v>
@@ -13267,13 +13375,13 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1827</v>
+        <v>1866</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1828</v>
+        <v>1867</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1829</v>
+        <v>1868</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>18</v>
@@ -13296,13 +13404,13 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1830</v>
+        <v>1869</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1831</v>
+        <v>1870</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1832</v>
+        <v>1871</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>18</v>
@@ -13325,13 +13433,13 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1833</v>
+        <v>1872</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1834</v>
+        <v>1873</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1835</v>
+        <v>1874</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>18</v>
@@ -13354,13 +13462,13 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1836</v>
+        <v>1875</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1837</v>
+        <v>1876</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1838</v>
+        <v>1877</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>18</v>
@@ -13383,13 +13491,13 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1839</v>
+        <v>1878</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1840</v>
+        <v>1879</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1841</v>
+        <v>1880</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>18</v>
@@ -13412,13 +13520,13 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1842</v>
+        <v>1881</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1843</v>
+        <v>1882</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1844</v>
+        <v>1883</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>18</v>
@@ -13441,13 +13549,13 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1845</v>
+        <v>1884</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1846</v>
+        <v>1885</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1847</v>
+        <v>1886</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>18</v>
@@ -13470,13 +13578,13 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1848</v>
+        <v>1887</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1849</v>
+        <v>1888</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1850</v>
+        <v>1889</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>18</v>
@@ -13499,13 +13607,13 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1851</v>
+        <v>1890</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1852</v>
+        <v>1891</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>1853</v>
+        <v>1892</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>18</v>
@@ -13528,13 +13636,13 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1854</v>
+        <v>1893</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1855</v>
+        <v>1894</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>1856</v>
+        <v>1895</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>18</v>
@@ -13557,13 +13665,13 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1857</v>
+        <v>1896</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1858</v>
+        <v>1897</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>1859</v>
+        <v>1898</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>18</v>
@@ -13586,13 +13694,13 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1860</v>
+        <v>1899</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1861</v>
+        <v>1900</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>1862</v>
+        <v>1901</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>18</v>
@@ -13615,13 +13723,13 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1863</v>
+        <v>1902</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1864</v>
+        <v>1903</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>1865</v>
+        <v>1904</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>18</v>
@@ -13644,25 +13752,25 @@
         <v>45</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1866</v>
+        <v>1905</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1867</v>
+        <v>1906</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>1868</v>
+        <v>1907</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1869</v>
+        <v>1908</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>1870</v>
+        <v>1909</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1871</v>
+        <v>1910</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>1872</v>
+        <v>1911</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>19</v>
@@ -14047,31 +14155,31 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1873</v>
+        <v>1912</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1874</v>
+        <v>1913</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1875</v>
+        <v>1914</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1876</v>
+        <v>1915</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>1877</v>
+        <v>1916</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>1878</v>
+        <v>1917</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>1879</v>
+        <v>1918</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>1880</v>
+        <v>1919</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1881</v>
+        <v>1920</v>
       </c>
     </row>
   </sheetData>
@@ -14096,7 +14204,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1882</v>
+        <v>1921</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -14120,61 +14228,61 @@
         <v>7</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>1883</v>
+        <v>1922</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>1884</v>
+        <v>1923</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>1885</v>
+        <v>1924</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>1886</v>
+        <v>1925</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>1887</v>
+        <v>1926</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>1888</v>
+        <v>1927</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>1889</v>
+        <v>1928</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>1890</v>
+        <v>1929</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>1891</v>
+        <v>1930</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>1892</v>
+        <v>1931</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>1893</v>
+        <v>1932</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>1894</v>
+        <v>1933</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>1895</v>
+        <v>1934</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>1896</v>
+        <v>1935</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>1897</v>
+        <v>1936</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>1898</v>
+        <v>1937</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>1899</v>
+        <v>1938</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>1900</v>
+        <v>1939</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>1901</v>
+        <v>1940</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>8</v>
@@ -14182,88 +14290,88 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1779</v>
+        <v>1818</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1902</v>
+        <v>1941</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1903</v>
+        <v>1942</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1904</v>
+        <v>1943</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1905</v>
+        <v>1944</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1906</v>
+        <v>1945</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1907</v>
+        <v>1946</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>1908</v>
+        <v>1947</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>1909</v>
+        <v>1948</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>1910</v>
+        <v>1949</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>1911</v>
+        <v>1950</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>1912</v>
+        <v>1951</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>1913</v>
+        <v>1952</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>1914</v>
+        <v>1953</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>1915</v>
+        <v>1954</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>1916</v>
+        <v>1955</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>1917</v>
+        <v>1956</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>1918</v>
+        <v>1957</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>1919</v>
+        <v>1958</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>1920</v>
+        <v>1739</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>1921</v>
+        <v>1959</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>1922</v>
+        <v>1960</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>1923</v>
+        <v>1961</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>1924</v>
+        <v>1962</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>1925</v>
+        <v>1963</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>1926</v>
+        <v>1964</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>1927</v>
+        <v>1965</v>
       </c>
       <c r="AB2" s="11" t="s">
-        <v>1928</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="3">
@@ -14271,85 +14379,85 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1929</v>
+        <v>1967</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1930</v>
+        <v>1968</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1931</v>
+        <v>1969</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1932</v>
+        <v>1970</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>1933</v>
+        <v>1971</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>1934</v>
+        <v>1972</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>1935</v>
+        <v>1973</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>1936</v>
+        <v>1974</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>1667</v>
+        <v>1678</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>1937</v>
+        <v>1975</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>1938</v>
+        <v>1976</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>1939</v>
+        <v>1977</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>1940</v>
+        <v>1978</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>1655</v>
+        <v>1664</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>1720</v>
+        <v>1741</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>1941</v>
+        <v>1979</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>1942</v>
+        <v>1980</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>1943</v>
+        <v>1981</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>1944</v>
+        <v>1982</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>1945</v>
+        <v>1983</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>1946</v>
+        <v>1984</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>1947</v>
+        <v>1985</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>1948</v>
+        <v>1986</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>1682</v>
+        <v>1696</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>1949</v>
+        <v>1987</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>1745</v>
+        <v>1771</v>
       </c>
       <c r="AB3" s="11" t="s">
-        <v>1950</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="4">
@@ -14357,85 +14465,85 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1951</v>
+        <v>1989</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1952</v>
+        <v>1990</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1953</v>
+        <v>1991</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1954</v>
+        <v>1992</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>1955</v>
+        <v>1993</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1643</v>
+        <v>1649</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>1956</v>
+        <v>1994</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>1957</v>
+        <v>1995</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>1689</v>
+        <v>1704</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>1958</v>
+        <v>1996</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>1959</v>
+        <v>1997</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>1960</v>
+        <v>1998</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>1961</v>
+        <v>1999</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>1962</v>
+        <v>2000</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>1963</v>
+        <v>2001</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>1964</v>
+        <v>2002</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>1678</v>
+        <v>1691</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>1965</v>
+        <v>2003</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>1966</v>
+        <v>2004</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>1967</v>
+        <v>2005</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>1968</v>
+        <v>2006</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>1969</v>
+        <v>2007</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>1970</v>
+        <v>2008</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>1971</v>
+        <v>2009</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>1972</v>
+        <v>2010</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>1973</v>
+        <v>2011</v>
       </c>
       <c r="AB4" s="11" t="s">
-        <v>1974</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="5">
@@ -14443,85 +14551,85 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1975</v>
+        <v>2013</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1976</v>
+        <v>2014</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1977</v>
+        <v>2015</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1978</v>
+        <v>2016</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1979</v>
+        <v>2017</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>1980</v>
+        <v>2018</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>1726</v>
+        <v>1748</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>1981</v>
+        <v>2019</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>1982</v>
+        <v>2020</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>1983</v>
+        <v>2021</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>1733</v>
+        <v>1756</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>1611</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>1984</v>
+        <v>2022</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>1985</v>
+        <v>2023</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>1986</v>
+        <v>2024</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>1987</v>
+        <v>2025</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>1988</v>
+        <v>2026</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>1989</v>
+        <v>2027</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>1990</v>
+        <v>2028</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>1991</v>
+        <v>2029</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>1624</v>
+        <v>1627</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>1992</v>
+        <v>2030</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>1993</v>
+        <v>2031</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>1994</v>
+        <v>2032</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>1995</v>
+        <v>2033</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>1996</v>
+        <v>2034</v>
       </c>
       <c r="AB5" s="11" t="s">
-        <v>1997</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="6">
@@ -14529,85 +14637,85 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1998</v>
+        <v>2036</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1999</v>
+        <v>2037</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>2000</v>
+        <v>2038</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>2001</v>
+        <v>2039</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>2002</v>
+        <v>2040</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>2003</v>
+        <v>2041</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>2004</v>
+        <v>2042</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>2005</v>
+        <v>2043</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>2006</v>
+        <v>2044</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>2007</v>
+        <v>2045</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>2008</v>
+        <v>2046</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>2009</v>
+        <v>2047</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>2010</v>
+        <v>2048</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>1676</v>
+        <v>1689</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>2011</v>
+        <v>2049</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>2012</v>
+        <v>2050</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>2013</v>
+        <v>2051</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>2014</v>
+        <v>2052</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>2015</v>
+        <v>2053</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>2016</v>
+        <v>2054</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>2017</v>
+        <v>2055</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>2018</v>
+        <v>2056</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>2019</v>
+        <v>2057</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>2020</v>
+        <v>2058</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>2021</v>
+        <v>2059</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>1680</v>
+        <v>1693</v>
       </c>
       <c r="AB6" s="11" t="s">
-        <v>2022</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="7">
@@ -14615,85 +14723,85 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>2023</v>
+        <v>2061</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>2024</v>
+        <v>2062</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>2025</v>
+        <v>2063</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>2026</v>
+        <v>2064</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>2027</v>
+        <v>2065</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>2028</v>
+        <v>2066</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>1719</v>
+        <v>1740</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>2029</v>
+        <v>2067</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>2030</v>
+        <v>2068</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>1664</v>
+        <v>1674</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>2031</v>
+        <v>2069</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>1658</v>
+        <v>1667</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>1737</v>
+        <v>1761</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>2032</v>
+        <v>2070</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>2033</v>
+        <v>2071</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>1740</v>
+        <v>1765</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>2034</v>
+        <v>2072</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>2035</v>
+        <v>2073</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>2036</v>
+        <v>2074</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>2037</v>
+        <v>2075</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>2038</v>
+        <v>2076</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>2039</v>
+        <v>2077</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>2040</v>
+        <v>2078</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>2041</v>
+        <v>2079</v>
       </c>
       <c r="AB7" s="11" t="s">
-        <v>2042</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="8">
@@ -14701,85 +14809,85 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>2043</v>
+        <v>2081</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2044</v>
+        <v>2082</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>2045</v>
+        <v>2083</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>2046</v>
+        <v>2084</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>2047</v>
+        <v>2085</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>2048</v>
+        <v>2086</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>2049</v>
+        <v>2087</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>2050</v>
+        <v>1644</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>2051</v>
+        <v>2088</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>1653</v>
+        <v>1661</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>2052</v>
+        <v>2089</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>2053</v>
+        <v>2090</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>1702</v>
+        <v>1720</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>2054</v>
+        <v>2091</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>2055</v>
+        <v>2092</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>1642</v>
+        <v>1648</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>2056</v>
+        <v>2093</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>2057</v>
+        <v>2094</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>2058</v>
+        <v>2095</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>2059</v>
+        <v>2096</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>2060</v>
+        <v>2097</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>2061</v>
+        <v>2098</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>2062</v>
+        <v>2099</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>2063</v>
+        <v>2100</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>2064</v>
+        <v>2101</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>2065</v>
+        <v>2102</v>
       </c>
       <c r="AB8" s="11" t="s">
-        <v>2066</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="9">
@@ -14787,85 +14895,85 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>2067</v>
+        <v>2104</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>2068</v>
+        <v>2105</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>2069</v>
+        <v>2106</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>2070</v>
+        <v>2107</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>2071</v>
+        <v>2108</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>2072</v>
+        <v>2109</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>2073</v>
+        <v>2110</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>2074</v>
+        <v>2111</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>2075</v>
+        <v>2112</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>2076</v>
+        <v>2113</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>2077</v>
+        <v>2114</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>2078</v>
+        <v>2115</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>2079</v>
+        <v>2116</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>2080</v>
+        <v>2117</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>2081</v>
+        <v>2118</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>1657</v>
+        <v>1666</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>2082</v>
+        <v>2119</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>2083</v>
+        <v>2120</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>2084</v>
+        <v>2121</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>2085</v>
+        <v>2122</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>2086</v>
+        <v>2123</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>2087</v>
+        <v>2124</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>2088</v>
+        <v>2125</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>2089</v>
+        <v>2126</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>2090</v>
+        <v>2127</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>2091</v>
+        <v>2128</v>
       </c>
       <c r="AB9" s="11" t="s">
-        <v>2092</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="10">
@@ -14873,85 +14981,85 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>2093</v>
+        <v>2130</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>2094</v>
+        <v>2131</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>2095</v>
+        <v>2132</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>2096</v>
+        <v>2133</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>2097</v>
+        <v>2134</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>2098</v>
+        <v>2135</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>2099</v>
+        <v>2136</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>2100</v>
+        <v>2137</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>2101</v>
+        <v>2138</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>2102</v>
+        <v>2139</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>2103</v>
+        <v>2140</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>2104</v>
+        <v>2141</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>2105</v>
+        <v>2142</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>2106</v>
+        <v>2143</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>2107</v>
+        <v>2144</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>2108</v>
+        <v>2145</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>2109</v>
+        <v>2146</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>2110</v>
+        <v>2147</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>1711</v>
+        <v>1730</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>2111</v>
+        <v>2148</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>2112</v>
+        <v>2149</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>2113</v>
+        <v>2150</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>2114</v>
+        <v>2151</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>2115</v>
+        <v>2152</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>2116</v>
+        <v>2153</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>2117</v>
+        <v>2154</v>
       </c>
       <c r="AB10" s="11" t="s">
-        <v>1950</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="11">
@@ -14959,85 +15067,85 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>2118</v>
+        <v>2155</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>2119</v>
+        <v>2156</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>2120</v>
+        <v>2157</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>2121</v>
+        <v>2158</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>2122</v>
+        <v>2159</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>2123</v>
+        <v>2160</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>2124</v>
+        <v>2161</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>2125</v>
+        <v>2162</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>2126</v>
+        <v>2163</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>2127</v>
+        <v>2164</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>1710</v>
+        <v>1729</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>2128</v>
+        <v>2165</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>2129</v>
+        <v>2166</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>2130</v>
+        <v>2167</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>2131</v>
+        <v>2168</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>2132</v>
+        <v>2169</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>2133</v>
+        <v>2170</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>2134</v>
+        <v>2171</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>2135</v>
+        <v>2172</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>2136</v>
+        <v>2173</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>2137</v>
+        <v>2174</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>2138</v>
+        <v>2175</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>2139</v>
+        <v>2176</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>2140</v>
+        <v>2177</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>2141</v>
+        <v>2178</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>2142</v>
+        <v>2179</v>
       </c>
       <c r="AB11" s="11" t="s">
-        <v>1974</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="12">
@@ -15045,85 +15153,85 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>2143</v>
+        <v>2180</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>2144</v>
+        <v>2181</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>2145</v>
+        <v>2182</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>2146</v>
+        <v>2183</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>2147</v>
+        <v>2184</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>2148</v>
+        <v>2185</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>2149</v>
+        <v>2186</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>2150</v>
+        <v>2187</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>2151</v>
+        <v>2188</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>1738</v>
+        <v>1762</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>2152</v>
+        <v>2189</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>2153</v>
+        <v>2190</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>1631</v>
+        <v>1635</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>2154</v>
+        <v>2191</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>2155</v>
+        <v>2192</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>1743</v>
+        <v>1768</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>2156</v>
+        <v>2193</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>2157</v>
+        <v>2194</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>2158</v>
+        <v>2195</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>2159</v>
+        <v>2196</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>2160</v>
+        <v>2197</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>2161</v>
+        <v>2198</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>2162</v>
+        <v>2199</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>2163</v>
+        <v>2200</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>2164</v>
+        <v>2201</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>2165</v>
+        <v>2202</v>
       </c>
       <c r="AB12" s="11" t="s">
-        <v>2166</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="13">
@@ -15131,85 +15239,85 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>2167</v>
+        <v>2204</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>2168</v>
+        <v>2205</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>2169</v>
+        <v>2206</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>2170</v>
+        <v>2207</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>2171</v>
+        <v>2208</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>2172</v>
+        <v>2209</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>2173</v>
+        <v>2210</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>2174</v>
+        <v>2211</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>2175</v>
+        <v>2212</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>1683</v>
+        <v>1697</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>2176</v>
+        <v>2213</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>2177</v>
+        <v>2214</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>2178</v>
+        <v>2215</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>2179</v>
+        <v>2216</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>2180</v>
+        <v>2217</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>2181</v>
+        <v>2218</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>2182</v>
+        <v>2219</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>1644</v>
+        <v>1651</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>2183</v>
+        <v>2220</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>2184</v>
+        <v>2221</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>2185</v>
+        <v>2222</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>2186</v>
+        <v>2223</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>2187</v>
+        <v>2224</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>2188</v>
+        <v>2225</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>2189</v>
+        <v>2226</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>2190</v>
+        <v>2227</v>
       </c>
       <c r="AB13" s="11" t="s">
-        <v>2191</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="14">
@@ -15217,85 +15325,85 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>2192</v>
+        <v>2229</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>2193</v>
+        <v>2230</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>2194</v>
+        <v>2231</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>2195</v>
+        <v>2232</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>2196</v>
+        <v>2233</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>2197</v>
+        <v>2234</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>2198</v>
+        <v>2235</v>
       </c>
       <c r="I14" s="5" t="s">
+        <v>1711</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>1758</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>2236</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>2237</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>2238</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>2239</v>
+      </c>
+      <c r="O14" s="5" t="s">
         <v>1695</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>1734</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>2199</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>2200</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>2201</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>2202</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>1681</v>
-      </c>
       <c r="P14" s="5" t="s">
-        <v>1739</v>
+        <v>1764</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>2203</v>
+        <v>2240</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>2204</v>
+        <v>2241</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>2205</v>
+        <v>2242</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>2206</v>
+        <v>2243</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>2207</v>
+        <v>2244</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>2208</v>
+        <v>2245</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>2209</v>
+        <v>2246</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>2210</v>
+        <v>2247</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>2211</v>
+        <v>2248</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>2212</v>
+        <v>2249</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>2213</v>
+        <v>2250</v>
       </c>
       <c r="AB14" s="11" t="s">
-        <v>2214</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="15">
@@ -15303,85 +15411,85 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>2215</v>
+        <v>2252</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>2216</v>
+        <v>2253</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>2217</v>
+        <v>2254</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>2218</v>
+        <v>2255</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>1613</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>2219</v>
+        <v>2256</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>2220</v>
+        <v>2257</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>2221</v>
+        <v>2258</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>1694</v>
+        <v>1710</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>2222</v>
+        <v>2259</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>2223</v>
+        <v>2260</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>1697</v>
+        <v>1714</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>2224</v>
+        <v>2261</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>1679</v>
+        <v>1692</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>2225</v>
+        <v>2262</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>2226</v>
+        <v>2263</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>1634</v>
+        <v>1639</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>2227</v>
+        <v>2264</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>2228</v>
+        <v>2265</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>2229</v>
+        <v>2266</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>2230</v>
+        <v>2267</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>2231</v>
+        <v>2268</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>2232</v>
+        <v>2269</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>2233</v>
+        <v>2270</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>1687</v>
+        <v>1702</v>
       </c>
       <c r="AB15" s="11" t="s">
-        <v>2234</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="16">
@@ -15389,85 +15497,85 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>2235</v>
+        <v>2272</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>2236</v>
+        <v>2273</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>2237</v>
+        <v>2274</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>2238</v>
+        <v>2275</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>2239</v>
+        <v>2276</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>2240</v>
+        <v>2277</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>2241</v>
+        <v>2278</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>2242</v>
+        <v>2279</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>2243</v>
+        <v>2280</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>2244</v>
+        <v>2281</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>2245</v>
+        <v>2282</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>2246</v>
+        <v>2283</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>2247</v>
+        <v>2284</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>1638</v>
+        <v>1643</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>2248</v>
+        <v>2285</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>2249</v>
+        <v>2286</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>2250</v>
+        <v>2287</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>2251</v>
+        <v>2288</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>2252</v>
+        <v>2289</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>2253</v>
+        <v>2290</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>2254</v>
+        <v>2291</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>2255</v>
+        <v>2292</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>2256</v>
+        <v>2293</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>2257</v>
+        <v>2294</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>2258</v>
+        <v>2295</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>2259</v>
+        <v>2296</v>
       </c>
       <c r="AB16" s="11" t="s">
-        <v>2260</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="17">
@@ -15475,85 +15583,85 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>2261</v>
+        <v>2298</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>2262</v>
+        <v>2299</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>2263</v>
+        <v>2300</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>2264</v>
+        <v>2301</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>2265</v>
+        <v>2302</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>2266</v>
+        <v>2303</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>2267</v>
+        <v>2304</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>2268</v>
+        <v>2305</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>1674</v>
+        <v>1686</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>1712</v>
+        <v>1731</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>2269</v>
+        <v>2306</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>2270</v>
+        <v>2307</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>2271</v>
+        <v>2308</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>2272</v>
+        <v>2309</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>2273</v>
+        <v>2310</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>2274</v>
+        <v>2311</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>1736</v>
+        <v>1760</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>2275</v>
+        <v>2312</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>2276</v>
+        <v>2313</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>2277</v>
+        <v>2314</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>2278</v>
+        <v>2315</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>2279</v>
+        <v>2316</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>2280</v>
+        <v>2317</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>1723</v>
+        <v>1744</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>2281</v>
+        <v>2318</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>2282</v>
+        <v>2319</v>
       </c>
       <c r="AB17" s="11" t="s">
-        <v>2283</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="18">
@@ -15561,85 +15669,85 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>2284</v>
+        <v>2321</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>2285</v>
+        <v>2322</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>2286</v>
+        <v>2323</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>2287</v>
+        <v>2324</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1707</v>
+        <v>1725</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>1663</v>
+        <v>1673</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>2288</v>
+        <v>2325</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>2289</v>
+        <v>2326</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>2290</v>
+        <v>2327</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>2291</v>
+        <v>2328</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>2292</v>
+        <v>2329</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>1665</v>
+        <v>1676</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>2293</v>
+        <v>2330</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>2294</v>
+        <v>2331</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>2295</v>
+        <v>2332</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>2296</v>
+        <v>2333</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>2297</v>
+        <v>2334</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>2298</v>
+        <v>2335</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>2299</v>
+        <v>2336</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>2300</v>
+        <v>2337</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>2301</v>
+        <v>2338</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>2302</v>
+        <v>2339</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>2303</v>
+        <v>2340</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>2304</v>
+        <v>2341</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>2305</v>
+        <v>2342</v>
       </c>
       <c r="AB18" s="11" t="s">
-        <v>2042</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="19">
@@ -15647,85 +15755,85 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>2306</v>
+        <v>2343</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>2307</v>
+        <v>2344</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>2308</v>
+        <v>2345</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>2309</v>
+        <v>2346</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>2310</v>
+        <v>2347</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>2311</v>
+        <v>2348</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>2312</v>
+        <v>2349</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>1686</v>
+        <v>1701</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>2313</v>
+        <v>2350</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>1675</v>
+        <v>1687</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>1650</v>
+        <v>1658</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>2314</v>
+        <v>2351</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>1669</v>
+        <v>1680</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>2315</v>
+        <v>2352</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>2316</v>
+        <v>2353</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>2317</v>
+        <v>2354</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>2318</v>
+        <v>2355</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>2319</v>
+        <v>2356</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>2320</v>
+        <v>2357</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>2321</v>
+        <v>2358</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>2322</v>
+        <v>2359</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>2323</v>
+        <v>2360</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>2324</v>
+        <v>2361</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>2325</v>
+        <v>2362</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>2326</v>
+        <v>2363</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>2327</v>
+        <v>2364</v>
       </c>
       <c r="AB19" s="11" t="s">
-        <v>2328</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="20">
@@ -15733,85 +15841,85 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>2329</v>
+        <v>2366</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>2330</v>
+        <v>2367</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>2331</v>
+        <v>2368</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>2332</v>
+        <v>2369</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>2333</v>
+        <v>2370</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>2334</v>
+        <v>2371</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>2335</v>
+        <v>2372</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>2336</v>
+        <v>1719</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>1742</v>
+        <v>1767</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>1640</v>
+        <v>1646</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>2337</v>
+        <v>2373</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>2338</v>
+        <v>2374</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>2339</v>
+        <v>2375</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>2340</v>
+        <v>2376</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>2341</v>
+        <v>2377</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>2342</v>
+        <v>2378</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>2343</v>
+        <v>2379</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>2344</v>
+        <v>2380</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>2345</v>
+        <v>2381</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>2346</v>
+        <v>2382</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>2347</v>
+        <v>2383</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>2348</v>
+        <v>2384</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>2349</v>
+        <v>2385</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>2350</v>
+        <v>2386</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>2351</v>
+        <v>2387</v>
       </c>
       <c r="AB20" s="11" t="s">
-        <v>2352</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="21">
@@ -15819,85 +15927,85 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>2353</v>
+        <v>2389</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>2354</v>
+        <v>2390</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>2355</v>
+        <v>2391</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>2356</v>
+        <v>2392</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>2357</v>
+        <v>2393</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1725</v>
+        <v>1747</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>2358</v>
+        <v>2394</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>2359</v>
+        <v>2395</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>2360</v>
+        <v>2396</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>2361</v>
+        <v>2397</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>2362</v>
+        <v>2398</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>2363</v>
+        <v>2399</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>2364</v>
+        <v>2400</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>2365</v>
+        <v>2401</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>2366</v>
+        <v>2402</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>2367</v>
+        <v>2403</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>2368</v>
+        <v>2404</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>2369</v>
+        <v>2405</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>2370</v>
+        <v>2406</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>2371</v>
+        <v>2407</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>2372</v>
+        <v>2408</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>2373</v>
+        <v>2409</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>2374</v>
+        <v>2410</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>2375</v>
+        <v>2411</v>
       </c>
       <c r="AA21" s="5" t="s">
         <v>1601</v>
       </c>
       <c r="AB21" s="11" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="22">
@@ -15905,85 +16013,85 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>2377</v>
+        <v>2413</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>2378</v>
+        <v>2414</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>2379</v>
+        <v>2415</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>2380</v>
+        <v>2416</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>2381</v>
+        <v>2417</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>2382</v>
+        <v>2418</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>2383</v>
+        <v>2419</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>2384</v>
+        <v>2420</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>2385</v>
+        <v>2421</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>2386</v>
+        <v>2422</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>2387</v>
+        <v>2423</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>2388</v>
+        <v>2424</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>1727</v>
+        <v>1749</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>2389</v>
+        <v>2425</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>2390</v>
+        <v>2426</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>2391</v>
+        <v>2427</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>2392</v>
+        <v>2428</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>2393</v>
+        <v>2429</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>2394</v>
+        <v>2430</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>2395</v>
+        <v>2431</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>2396</v>
+        <v>2432</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>2397</v>
+        <v>2433</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>2398</v>
+        <v>2434</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>1730</v>
+        <v>1753</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>2399</v>
+        <v>2435</v>
       </c>
       <c r="AB22" s="11" t="s">
-        <v>2400</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="23">
@@ -15991,85 +16099,85 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>2401</v>
+        <v>2437</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>2402</v>
+        <v>2438</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>2403</v>
+        <v>2439</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>2404</v>
+        <v>2440</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>2405</v>
+        <v>2441</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>2406</v>
+        <v>2442</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>2407</v>
+        <v>2443</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>2408</v>
+        <v>2444</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>2409</v>
+        <v>2445</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>2410</v>
+        <v>2446</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>2411</v>
+        <v>2447</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>2412</v>
+        <v>2448</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>2413</v>
+        <v>2449</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>2414</v>
+        <v>2450</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>2415</v>
+        <v>2451</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>2416</v>
+        <v>2452</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>2417</v>
+        <v>2453</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>2418</v>
+        <v>2454</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>2419</v>
+        <v>2455</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>2420</v>
+        <v>2456</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>1731</v>
+        <v>1754</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>2421</v>
+        <v>2457</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>2422</v>
+        <v>2458</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>2423</v>
+        <v>2459</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>2424</v>
+        <v>2460</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>2425</v>
+        <v>2461</v>
       </c>
       <c r="AB23" s="11" t="s">
-        <v>2426</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="24">
@@ -16077,85 +16185,85 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>2427</v>
+        <v>2463</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>2428</v>
+        <v>2464</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>2429</v>
+        <v>2465</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>2430</v>
+        <v>2466</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>2431</v>
+        <v>2467</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>2432</v>
+        <v>2468</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>1690</v>
+        <v>1705</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>2433</v>
+        <v>2469</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>2434</v>
+        <v>2470</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>2435</v>
+        <v>2471</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>2436</v>
+        <v>2472</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>2437</v>
+        <v>2473</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>2438</v>
+        <v>2474</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>2439</v>
+        <v>2475</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>2440</v>
+        <v>2476</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>2441</v>
+        <v>2477</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>2442</v>
+        <v>2478</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>2443</v>
+        <v>2479</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>2444</v>
+        <v>2480</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>2445</v>
+        <v>2481</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>2446</v>
+        <v>2482</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>2447</v>
+        <v>2483</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>2448</v>
+        <v>2484</v>
       </c>
       <c r="Y24" s="5" t="s">
-        <v>2449</v>
+        <v>2485</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>2450</v>
+        <v>2486</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>2451</v>
+        <v>2487</v>
       </c>
       <c r="AB24" s="11" t="s">
-        <v>2452</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="25">
@@ -16163,85 +16271,85 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>2453</v>
+        <v>2489</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>2454</v>
+        <v>2490</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>2455</v>
+        <v>2491</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>2456</v>
+        <v>2492</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>2457</v>
+        <v>2493</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>2458</v>
+        <v>2494</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>2459</v>
+        <v>2495</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>2460</v>
+        <v>2496</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>2461</v>
+        <v>2497</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>2462</v>
+        <v>2498</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>2463</v>
+        <v>2499</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>2464</v>
+        <v>2500</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>2465</v>
+        <v>2501</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>2466</v>
+        <v>2502</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>2467</v>
+        <v>2503</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>1685</v>
+        <v>1699</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>2468</v>
+        <v>2504</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>2469</v>
+        <v>2505</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>1652</v>
+        <v>1660</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>2470</v>
+        <v>2506</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>2471</v>
+        <v>2507</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>2472</v>
+        <v>2508</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>2473</v>
+        <v>2509</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>2474</v>
+        <v>2510</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>2475</v>
+        <v>2511</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>2476</v>
+        <v>2512</v>
       </c>
       <c r="AB25" s="11" t="s">
-        <v>2092</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="26">
@@ -16249,85 +16357,85 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>2477</v>
+        <v>2513</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>2478</v>
+        <v>2514</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>2479</v>
+        <v>2515</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>2480</v>
+        <v>2516</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>2481</v>
+        <v>2517</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>2482</v>
+        <v>2518</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>2483</v>
+        <v>2519</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>2484</v>
+        <v>2520</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>2485</v>
+        <v>2521</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>2486</v>
+        <v>2522</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>2487</v>
+        <v>2523</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>1630</v>
+        <v>1634</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>2488</v>
+        <v>2524</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>1717</v>
+        <v>1737</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>2489</v>
+        <v>2525</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>1747</v>
+        <v>1773</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>2490</v>
+        <v>2526</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>2491</v>
+        <v>2527</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>2492</v>
+        <v>2528</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>2493</v>
+        <v>2529</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>2494</v>
+        <v>2530</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>2495</v>
+        <v>2531</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>2496</v>
+        <v>2532</v>
       </c>
       <c r="Y26" s="5" t="s">
-        <v>2497</v>
+        <v>2533</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>2498</v>
+        <v>2534</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>2499</v>
+        <v>2535</v>
       </c>
       <c r="AB26" s="11" t="s">
-        <v>2500</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="27">
@@ -16335,85 +16443,85 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>2501</v>
+        <v>2537</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>2502</v>
+        <v>2538</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>2503</v>
+        <v>2539</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>2504</v>
+        <v>2540</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>2505</v>
+        <v>2541</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>2506</v>
+        <v>2542</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>2507</v>
+        <v>2543</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>2508</v>
+        <v>2544</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>2509</v>
+        <v>2545</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>2510</v>
+        <v>2546</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>2511</v>
+        <v>2547</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>2512</v>
+        <v>2548</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>2513</v>
+        <v>2549</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>2514</v>
+        <v>2550</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>2515</v>
+        <v>2551</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>2516</v>
+        <v>2552</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>2517</v>
+        <v>2553</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>2518</v>
+        <v>2554</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>2519</v>
+        <v>2555</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>2520</v>
+        <v>2556</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>2521</v>
+        <v>2557</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>2522</v>
+        <v>2558</v>
       </c>
       <c r="Y27" s="5" t="s">
-        <v>2523</v>
+        <v>2559</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>2524</v>
+        <v>2560</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>2525</v>
+        <v>2561</v>
       </c>
       <c r="AB27" s="11" t="s">
-        <v>2526</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="28">
@@ -16421,85 +16529,85 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>2527</v>
+        <v>2563</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>2528</v>
+        <v>2564</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>2529</v>
+        <v>2565</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>2530</v>
+        <v>2566</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>2531</v>
+        <v>2567</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>2532</v>
+        <v>2568</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>1708</v>
+        <v>1727</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>2533</v>
+        <v>2569</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>2534</v>
+        <v>2570</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>2535</v>
+        <v>2571</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>2536</v>
+        <v>2572</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>2537</v>
+        <v>2573</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>2538</v>
+        <v>2574</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>2539</v>
+        <v>2575</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>2540</v>
+        <v>2576</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>2541</v>
+        <v>2577</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>2542</v>
+        <v>2578</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>2543</v>
+        <v>2579</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>2544</v>
+        <v>2580</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>2545</v>
+        <v>2581</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>2546</v>
+        <v>2582</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>2547</v>
+        <v>2583</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>2548</v>
+        <v>2584</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>2549</v>
+        <v>2585</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>2550</v>
+        <v>2586</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>2551</v>
+        <v>2587</v>
       </c>
       <c r="AB28" s="11" t="s">
-        <v>2552</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="29">
@@ -16507,85 +16615,85 @@
         <v>45</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>2553</v>
+        <v>2589</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>2554</v>
+        <v>2590</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>2555</v>
+        <v>2591</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>2556</v>
+        <v>2592</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>2557</v>
+        <v>2593</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>2558</v>
+        <v>2594</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>2559</v>
+        <v>2595</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>2560</v>
+        <v>2596</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>2561</v>
+        <v>2597</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>2562</v>
+        <v>2598</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>2563</v>
+        <v>2599</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>2564</v>
+        <v>2600</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>2565</v>
+        <v>2601</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>2566</v>
+        <v>2602</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>2567</v>
+        <v>2603</v>
       </c>
       <c r="Q29" s="8" t="s">
-        <v>2568</v>
+        <v>2604</v>
       </c>
       <c r="R29" s="8" t="s">
-        <v>2569</v>
+        <v>2605</v>
       </c>
       <c r="S29" s="8" t="s">
-        <v>2570</v>
+        <v>2606</v>
       </c>
       <c r="T29" s="8" t="s">
-        <v>2571</v>
+        <v>2607</v>
       </c>
       <c r="U29" s="8" t="s">
-        <v>2572</v>
+        <v>2608</v>
       </c>
       <c r="V29" s="8" t="s">
-        <v>2573</v>
+        <v>2609</v>
       </c>
       <c r="W29" s="8" t="s">
-        <v>2574</v>
+        <v>2610</v>
       </c>
       <c r="X29" s="8" t="s">
-        <v>2338</v>
+        <v>2374</v>
       </c>
       <c r="Y29" s="8" t="s">
-        <v>2575</v>
+        <v>2611</v>
       </c>
       <c r="Z29" s="8" t="s">
-        <v>2576</v>
+        <v>2612</v>
       </c>
       <c r="AA29" s="8" t="s">
-        <v>2577</v>
+        <v>2613</v>
       </c>
       <c r="AB29" s="11" t="s">
-        <v>2578</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="30">
@@ -16593,85 +16701,85 @@
         <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>2579</v>
+        <v>2615</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>2580</v>
+        <v>2616</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>2581</v>
+        <v>2617</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>2582</v>
+        <v>2618</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>2583</v>
+        <v>2619</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>2584</v>
+        <v>2620</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>2585</v>
+        <v>2621</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>2586</v>
+        <v>2622</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>2587</v>
+        <v>2623</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>2588</v>
+        <v>2624</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>2589</v>
+        <v>2625</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>2590</v>
+        <v>2626</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>2591</v>
+        <v>2627</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>2592</v>
+        <v>2628</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>2593</v>
+        <v>2629</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>2594</v>
+        <v>2630</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>2595</v>
+        <v>2631</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>2596</v>
+        <v>2632</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>2597</v>
+        <v>2633</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>2598</v>
+        <v>2634</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>2599</v>
+        <v>2635</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>2600</v>
+        <v>2636</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>2601</v>
+        <v>2637</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>2602</v>
+        <v>2638</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>2603</v>
+        <v>2639</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>2604</v>
+        <v>2640</v>
       </c>
       <c r="AB30" s="3" t="s">
-        <v>2605</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="31">
@@ -16679,85 +16787,85 @@
         <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2606</v>
+        <v>2642</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>2607</v>
+        <v>2643</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>2608</v>
+        <v>2644</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>2609</v>
+        <v>2645</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>2610</v>
+        <v>2646</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>2611</v>
+        <v>2647</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>2612</v>
+        <v>2648</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>2613</v>
+        <v>2649</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>2614</v>
+        <v>2650</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>2615</v>
+        <v>2651</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>2616</v>
+        <v>2652</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>2617</v>
+        <v>2653</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>2618</v>
+        <v>2654</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>2619</v>
+        <v>2655</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>2620</v>
+        <v>2656</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>2621</v>
+        <v>2657</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>2622</v>
+        <v>2658</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>2623</v>
+        <v>2659</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>2624</v>
+        <v>2660</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>2625</v>
+        <v>2661</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>2626</v>
+        <v>2662</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>2627</v>
+        <v>2663</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>2628</v>
+        <v>2664</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>2629</v>
+        <v>2665</v>
       </c>
       <c r="Z31" s="2" t="s">
-        <v>2630</v>
+        <v>2666</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>2631</v>
+        <v>2667</v>
       </c>
       <c r="AB31" s="3" t="s">
-        <v>2632</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="32">
@@ -16843,7 +16951,7 @@
         <v>161</v>
       </c>
       <c r="AB32" s="11" t="s">
-        <v>2633</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="33">
@@ -16929,7 +17037,7 @@
         <v>161</v>
       </c>
       <c r="AB33" s="11" t="s">
-        <v>2634</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="34">
@@ -17015,7 +17123,7 @@
         <v>161</v>
       </c>
       <c r="AB34" s="11" t="s">
-        <v>2635</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="35">
@@ -17101,7 +17209,7 @@
         <v>161</v>
       </c>
       <c r="AB35" s="11" t="s">
-        <v>2636</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="36">
@@ -17109,85 +17217,85 @@
         <v>67</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>2637</v>
+        <v>2673</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>2638</v>
+        <v>2674</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2639</v>
+        <v>2675</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1765</v>
+        <v>1799</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>2640</v>
+        <v>2676</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>2641</v>
+        <v>2677</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>2642</v>
+        <v>2678</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>2643</v>
+        <v>2679</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>2644</v>
+        <v>2680</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>2645</v>
+        <v>2681</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>2646</v>
+        <v>2682</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>2647</v>
+        <v>2683</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>2648</v>
+        <v>2684</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>2649</v>
+        <v>2685</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>2650</v>
+        <v>2686</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>2651</v>
+        <v>2687</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>2652</v>
+        <v>2688</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>2653</v>
+        <v>2689</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>2654</v>
+        <v>2690</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>2655</v>
+        <v>2691</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>2656</v>
+        <v>2692</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>2657</v>
+        <v>2693</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>2658</v>
+        <v>2694</v>
       </c>
       <c r="Y36" s="2" t="s">
-        <v>2659</v>
+        <v>2695</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>2660</v>
+        <v>2696</v>
       </c>
       <c r="AA36" s="2" t="s">
-        <v>2661</v>
+        <v>2697</v>
       </c>
       <c r="AB36" s="3" t="s">
-        <v>2662</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="37">
@@ -17273,7 +17381,7 @@
         <v>161</v>
       </c>
       <c r="AB37" s="11" t="s">
-        <v>2663</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="38">
@@ -17359,7 +17467,7 @@
         <v>161</v>
       </c>
       <c r="AB38" s="11" t="s">
-        <v>2664</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="39">
@@ -17445,7 +17553,7 @@
         <v>161</v>
       </c>
       <c r="AB39" s="11" t="s">
-        <v>2665</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="40">
@@ -17531,7 +17639,7 @@
         <v>161</v>
       </c>
       <c r="AB40" s="11" t="s">
-        <v>2666</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="41">
@@ -17617,7 +17725,7 @@
         <v>161</v>
       </c>
       <c r="AB41" s="11" t="s">
-        <v>2667</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="42">
@@ -17708,88 +17816,88 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2668</v>
+        <v>2704</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2669</v>
+        <v>2705</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2670</v>
+        <v>2706</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>2671</v>
+        <v>2707</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>2672</v>
+        <v>2708</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>2673</v>
+        <v>2709</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>2674</v>
+        <v>2710</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>2675</v>
+        <v>2711</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>2676</v>
+        <v>2712</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>2677</v>
+        <v>2713</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>2678</v>
+        <v>2714</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>2679</v>
+        <v>2715</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>2680</v>
+        <v>2716</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>2681</v>
+        <v>2717</v>
       </c>
       <c r="O43" s="10" t="s">
-        <v>2682</v>
+        <v>2718</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>2683</v>
+        <v>2719</v>
       </c>
       <c r="Q43" s="8" t="s">
-        <v>2684</v>
+        <v>2720</v>
       </c>
       <c r="R43" s="8" t="s">
-        <v>2685</v>
+        <v>2721</v>
       </c>
       <c r="S43" s="8" t="s">
-        <v>2686</v>
+        <v>2722</v>
       </c>
       <c r="T43" s="8" t="s">
-        <v>2687</v>
+        <v>2723</v>
       </c>
       <c r="U43" s="8" t="s">
-        <v>2688</v>
+        <v>2724</v>
       </c>
       <c r="V43" s="8" t="s">
-        <v>2689</v>
+        <v>2725</v>
       </c>
       <c r="W43" s="8" t="s">
-        <v>2690</v>
+        <v>2726</v>
       </c>
       <c r="X43" s="8" t="s">
-        <v>2691</v>
+        <v>2727</v>
       </c>
       <c r="Y43" s="8" t="s">
-        <v>2692</v>
+        <v>2728</v>
       </c>
       <c r="Z43" s="8" t="s">
-        <v>2693</v>
+        <v>2729</v>
       </c>
       <c r="AA43" s="8" t="s">
-        <v>2694</v>
+        <v>2730</v>
       </c>
       <c r="AB43" s="11" t="s">
-        <v>2214</v>
+        <v>2251</v>
       </c>
     </row>
   </sheetData>
@@ -17815,7 +17923,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2695</v>
+        <v>2731</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -17829,16 +17937,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2696</v>
+        <v>2732</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2697</v>
+        <v>2733</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2698</v>
+        <v>2734</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>2699</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="3">
@@ -17846,10 +17954,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2700</v>
+        <v>2736</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2701</v>
+        <v>2737</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>19</v>
@@ -17860,10 +17968,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2702</v>
+        <v>2738</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>2703</v>
+        <v>2739</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>19</v>
@@ -17874,10 +17982,10 @@
         <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2704</v>
+        <v>2740</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2705</v>
+        <v>2741</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>19</v>
@@ -17888,10 +17996,10 @@
         <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2706</v>
+        <v>2742</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>2707</v>
+        <v>2743</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>19</v>
@@ -17902,10 +18010,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>2708</v>
+        <v>2744</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2709</v>
+        <v>2745</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>19</v>
@@ -17916,10 +18024,10 @@
         <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>2710</v>
+        <v>2746</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2711</v>
+        <v>2747</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>19</v>
@@ -17930,10 +18038,10 @@
         <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>2712</v>
+        <v>2748</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>2713</v>
+        <v>2749</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>19</v>
@@ -17944,10 +18052,10 @@
         <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2714</v>
+        <v>2750</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>2715</v>
+        <v>2751</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>19</v>
@@ -17958,10 +18066,10 @@
         <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>2716</v>
+        <v>2752</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>2717</v>
+        <v>2753</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>19</v>
@@ -17972,10 +18080,10 @@
         <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>2718</v>
+        <v>2754</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>2719</v>
+        <v>2755</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>19</v>
@@ -17986,10 +18094,10 @@
         <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2720</v>
+        <v>2756</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>2721</v>
+        <v>2757</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>19</v>
@@ -18000,10 +18108,10 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2722</v>
+        <v>2758</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>2723</v>
+        <v>2759</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>19</v>
@@ -18014,10 +18122,10 @@
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>2724</v>
+        <v>2760</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>2725</v>
+        <v>2761</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>19</v>
@@ -18028,10 +18136,10 @@
         <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>2726</v>
+        <v>2762</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>2727</v>
+        <v>2763</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>19</v>
@@ -18042,10 +18150,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>2728</v>
+        <v>2764</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>2729</v>
+        <v>2765</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>19</v>
@@ -18056,10 +18164,10 @@
         <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>2730</v>
+        <v>2766</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>2731</v>
+        <v>2767</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>19</v>
@@ -18070,10 +18178,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>2732</v>
+        <v>2768</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>2733</v>
+        <v>2769</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>19</v>
@@ -18084,10 +18192,10 @@
         <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>2734</v>
+        <v>2770</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>2735</v>
+        <v>2771</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>19</v>
@@ -18098,10 +18206,10 @@
         <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>2736</v>
+        <v>2772</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>2737</v>
+        <v>2773</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>19</v>
@@ -18112,10 +18220,10 @@
         <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>2738</v>
+        <v>2774</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>2739</v>
+        <v>2775</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>19</v>
@@ -18126,10 +18234,10 @@
         <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>2740</v>
+        <v>2776</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>2741</v>
+        <v>2777</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>19</v>
@@ -18140,10 +18248,10 @@
         <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>2742</v>
+        <v>2778</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>2743</v>
+        <v>2779</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>19</v>
@@ -18154,10 +18262,10 @@
         <v>41</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>2744</v>
+        <v>2780</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>2745</v>
+        <v>2781</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>19</v>
@@ -18168,10 +18276,10 @@
         <v>42</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>2746</v>
+        <v>2782</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>2747</v>
+        <v>2783</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>19</v>
@@ -18182,10 +18290,10 @@
         <v>43</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>2748</v>
+        <v>2784</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>2749</v>
+        <v>2785</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>19</v>
@@ -18196,10 +18304,10 @@
         <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>2750</v>
+        <v>2786</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>2751</v>
+        <v>2787</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>19</v>
@@ -18210,13 +18318,13 @@
         <v>45</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>2752</v>
+        <v>2788</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>2753</v>
+        <v>2789</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>2754</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="30">
@@ -18224,13 +18332,13 @@
         <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>2755</v>
+        <v>2791</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>2756</v>
+        <v>2792</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>2757</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="31">
@@ -18238,13 +18346,13 @@
         <v>62</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>2758</v>
+        <v>2794</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>2759</v>
+        <v>2795</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>2760</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="32">
@@ -18252,13 +18360,13 @@
         <v>63</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>2761</v>
+        <v>2797</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>2762</v>
+        <v>2798</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>2763</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="33">
@@ -18266,13 +18374,13 @@
         <v>64</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>2764</v>
+        <v>2800</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>2765</v>
+        <v>2801</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>2766</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="34">
@@ -18280,13 +18388,13 @@
         <v>65</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>2767</v>
+        <v>2803</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>2768</v>
+        <v>2804</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>2769</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="35">
@@ -18300,7 +18408,7 @@
         <v>56</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>2770</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="36">
@@ -18308,13 +18416,13 @@
         <v>67</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>2771</v>
+        <v>2807</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>2772</v>
+        <v>2808</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>2773</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="37">
@@ -18322,13 +18430,13 @@
         <v>76</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>2774</v>
+        <v>2810</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>2775</v>
+        <v>2811</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>2776</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="38">
@@ -18336,13 +18444,13 @@
         <v>77</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>2777</v>
+        <v>2813</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>2778</v>
+        <v>2814</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>2779</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="39">
@@ -18356,7 +18464,7 @@
         <v>56</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>2780</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="40">
@@ -18370,7 +18478,7 @@
         <v>56</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>2781</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="41">
@@ -18378,10 +18486,10 @@
         <v>80</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>2782</v>
+        <v>2818</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>2783</v>
+        <v>2819</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>295</v>
@@ -18403,16 +18511,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2784</v>
+        <v>2820</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2785</v>
+        <v>2821</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2786</v>
+        <v>2822</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>2787</v>
+        <v>2823</v>
       </c>
     </row>
   </sheetData>

--- a/iceKnives32/Offline Documents (Periodic)/iceKnives32.xlsx
+++ b/iceKnives32/Offline Documents (Periodic)/iceKnives32.xlsx
@@ -3060,7 +3060,7 @@
     <t>label</t>
   </si>
   <si>
-    <t>star</t>
+    <t>pot</t>
   </si>
   <si>
     <t>lap</t>

--- a/iceKnives32/Offline Documents (Periodic)/iceKnives32.xlsx
+++ b/iceKnives32/Offline Documents (Periodic)/iceKnives32.xlsx
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="2824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="2891">
   <si>
     <t>[]</t>
   </si>
@@ -5104,6 +5104,207 @@
   </si>
   <si>
     <t>[ai]</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>hallmark</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>elastic</t>
+  </si>
+  <si>
+    <t>kits</t>
+  </si>
+  <si>
+    <t>sun.ai</t>
+  </si>
+  <si>
+    <t>planet</t>
+  </si>
+  <si>
+    <t>clamp</t>
+  </si>
+  <si>
+    <t>stable</t>
+  </si>
+  <si>
+    <t>motion</t>
+  </si>
+  <si>
+    <t>wonder</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>pol.io</t>
+  </si>
+  <si>
+    <t>satellite</t>
+  </si>
+  <si>
+    <t>breeze</t>
+  </si>
+  <si>
+    <t>brace</t>
+  </si>
+  <si>
+    <t>dual</t>
+  </si>
+  <si>
+    <t>grant</t>
+  </si>
+  <si>
+    <t>devices</t>
+  </si>
+  <si>
+    <t>tha.ml</t>
+  </si>
+  <si>
+    <t>asteroid</t>
+  </si>
+  <si>
+    <t>bunch</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>alarm</t>
+  </si>
+  <si>
+    <t>terminals</t>
+  </si>
+  <si>
+    <t>sma.sh</t>
+  </si>
+  <si>
+    <t>comet</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>leaf</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>terminate</t>
+  </si>
+  <si>
+    <t>operations</t>
+  </si>
+  <si>
+    <t>fst.op</t>
+  </si>
+  <si>
+    <t>meteor</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>organ</t>
+  </si>
+  <si>
+    <t>lay</t>
+  </si>
+  <si>
+    <t>finish</t>
+  </si>
+  <si>
+    <t>registers</t>
+  </si>
+  <si>
+    <t>cap.ex</t>
+  </si>
+  <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t>modulus</t>
+  </si>
+  <si>
+    <t>unions</t>
+  </si>
+  <si>
+    <t>con.ty</t>
+  </si>
+  <si>
+    <t>lava</t>
+  </si>
+  <si>
+    <t>addresses</t>
+  </si>
+  <si>
+    <t>shr.mq</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>systems</t>
+  </si>
+  <si>
+    <t>dna.db</t>
+  </si>
+  <si>
+    <t>vapour</t>
+  </si>
+  <si>
+    <t>clones</t>
+  </si>
+  <si>
+    <t>met.al</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>engines</t>
+  </si>
+  <si>
+    <t>cor.ph</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>machines</t>
+  </si>
+  <si>
+    <t>est.fx</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
+    <t>electrics</t>
+  </si>
+  <si>
+    <t>fan.zi</t>
+  </si>
+  <si>
+    <t>appendices</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>sky</t>
   </si>
   <si>
     <t>[set/packet/cosy/];</t>
@@ -8824,7 +9025,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -8845,6 +9046,9 @@
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
@@ -10461,25 +10665,25 @@
         <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>1597</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>1598</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>1599</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>1600</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>18</v>
+        <v>1601</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>18</v>
+        <v>1602</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>1603</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>19</v>
@@ -10490,25 +10694,25 @@
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>1604</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>1605</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>1606</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>1607</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>18</v>
+        <v>1608</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>18</v>
+        <v>1609</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>1610</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>19</v>
@@ -10519,25 +10723,25 @@
         <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>1611</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>1612</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>18</v>
+        <v>1613</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>1614</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>18</v>
+        <v>1615</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>18</v>
+        <v>1616</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>1617</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>19</v>
@@ -10548,25 +10752,25 @@
         <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>1618</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>1619</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>1620</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>18</v>
+        <v>1621</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>18</v>
+        <v>1622</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>18</v>
+        <v>1623</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>1624</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>19</v>
@@ -10577,25 +10781,25 @@
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>1625</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>1626</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>18</v>
+        <v>1627</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>18</v>
+        <v>1628</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>18</v>
+        <v>1629</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>18</v>
+        <v>1630</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>18</v>
+        <v>1631</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>19</v>
@@ -10606,25 +10810,25 @@
         <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>1632</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>18</v>
+        <v>1633</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>18</v>
+        <v>1634</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>18</v>
+        <v>1635</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>18</v>
+        <v>1636</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>18</v>
+        <v>1637</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>18</v>
+        <v>1638</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>19</v>
@@ -10635,7 +10839,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>1639</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>18</v>
@@ -10647,13 +10851,13 @@
         <v>18</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>18</v>
+        <v>1640</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>18</v>
+        <v>1641</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>18</v>
+        <v>1642</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>19</v>
@@ -10664,7 +10868,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>18</v>
+        <v>1643</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>18</v>
@@ -10679,10 +10883,10 @@
         <v>18</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>18</v>
+        <v>1644</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>1645</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>19</v>
@@ -10693,7 +10897,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>18</v>
+        <v>1646</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
@@ -10708,10 +10912,10 @@
         <v>18</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>18</v>
+        <v>1647</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>18</v>
+        <v>1648</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>19</v>
@@ -10722,7 +10926,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>18</v>
+        <v>1649</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>18</v>
@@ -10737,10 +10941,10 @@
         <v>18</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>18</v>
+        <v>1650</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>1651</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>19</v>
@@ -10751,7 +10955,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>18</v>
+        <v>1652</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>18</v>
@@ -10766,10 +10970,10 @@
         <v>18</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>18</v>
+        <v>1653</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>1654</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>19</v>
@@ -10780,7 +10984,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>1655</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -10795,10 +10999,10 @@
         <v>18</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>18</v>
+        <v>1656</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>18</v>
+        <v>1657</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>19</v>
@@ -10809,7 +11013,7 @@
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>18</v>
+        <v>1658</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>18</v>
@@ -10824,10 +11028,10 @@
         <v>18</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>18</v>
+        <v>1659</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>18</v>
+        <v>1660</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>19</v>
@@ -10853,7 +11057,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>18</v>
+        <v>1661</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>18</v>
@@ -11157,7 +11361,7 @@
         <v>43</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>18</v>
+        <v>1662</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>18</v>
@@ -11186,7 +11390,7 @@
         <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>18</v>
+        <v>1663</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>18</v>
@@ -11618,7 +11822,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1597</v>
+        <v>1664</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>91</v>
@@ -11642,7 +11846,7 @@
         <v>97</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1598</v>
+        <v>1665</v>
       </c>
     </row>
   </sheetData>
@@ -11667,8 +11871,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
-        <v>1599</v>
+      <c r="A1" s="8" t="s">
+        <v>1666</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -11696,31 +11900,31 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>1600</v>
+      <c r="A2" s="8" t="s">
+        <v>1667</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1601</v>
+        <v>1668</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1602</v>
+        <v>1669</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1603</v>
+        <v>1670</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1604</v>
+        <v>1671</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1605</v>
+        <v>1672</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1606</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>1607</v>
-      </c>
-      <c r="I2" s="9" t="s">
+        <v>1673</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>1674</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>303</v>
       </c>
     </row>
@@ -11729,25 +11933,25 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1608</v>
+        <v>1675</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1609</v>
+        <v>1676</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1610</v>
+        <v>1677</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1611</v>
+        <v>1678</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>1612</v>
+        <v>1679</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>1613</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>1614</v>
+        <v>1680</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>1681</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>19</v>
@@ -11758,25 +11962,25 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1615</v>
+        <v>1682</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1616</v>
+        <v>1683</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>1012</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1617</v>
+        <v>1684</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>1618</v>
+        <v>1685</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1619</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>1620</v>
+        <v>1686</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>1687</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>19</v>
@@ -11787,25 +11991,25 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1621</v>
+        <v>1688</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1622</v>
+        <v>1689</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>1027</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1623</v>
+        <v>1690</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1624</v>
+        <v>1691</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>1625</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>1626</v>
+        <v>1692</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>1693</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>19</v>
@@ -11816,25 +12020,25 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1627</v>
+        <v>1694</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1628</v>
+        <v>1695</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>747</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1629</v>
+        <v>1696</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>1630</v>
+        <v>1697</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1631</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>1632</v>
+        <v>1698</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>1699</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>19</v>
@@ -11845,25 +12049,25 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1633</v>
+        <v>1700</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1634</v>
+        <v>1701</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>456</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1635</v>
+        <v>1702</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1636</v>
+        <v>1703</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>1637</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>1638</v>
+        <v>1704</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>1705</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>19</v>
@@ -11874,25 +12078,25 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1639</v>
+        <v>1706</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1640</v>
+        <v>1707</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>124</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1641</v>
+        <v>1708</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1642</v>
+        <v>1709</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1643</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>1644</v>
+        <v>1710</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>1711</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>19</v>
@@ -11903,25 +12107,25 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1645</v>
+        <v>1712</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1646</v>
+        <v>1713</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>360</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1647</v>
+        <v>1714</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>1648</v>
+        <v>1715</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1649</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>1650</v>
+        <v>1716</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>1717</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>19</v>
@@ -11932,25 +12136,25 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1651</v>
+        <v>1718</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1652</v>
+        <v>1719</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1653</v>
+        <v>1720</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1654</v>
+        <v>1721</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>1655</v>
+        <v>1722</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1656</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>1657</v>
+        <v>1723</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>1724</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>19</v>
@@ -11961,25 +12165,25 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1658</v>
+        <v>1725</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1659</v>
+        <v>1726</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>488</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1660</v>
+        <v>1727</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>1661</v>
+        <v>1728</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1662</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>1663</v>
+        <v>1729</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>1730</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>19</v>
@@ -11990,25 +12194,25 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1664</v>
+        <v>1731</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1665</v>
+        <v>1732</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1119</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1666</v>
+        <v>1733</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1667</v>
+        <v>1734</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>1668</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>1669</v>
+        <v>1735</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>1736</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>19</v>
@@ -12019,25 +12223,25 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1670</v>
+        <v>1737</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1671</v>
+        <v>1738</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>470</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1672</v>
+        <v>1739</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1673</v>
+        <v>1740</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1674</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>1675</v>
+        <v>1741</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>1742</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>19</v>
@@ -12048,25 +12252,25 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1676</v>
+        <v>1743</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1677</v>
+        <v>1744</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>211</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1678</v>
+        <v>1745</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1679</v>
+        <v>1746</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1680</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>1681</v>
+        <v>1747</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>1748</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>19</v>
@@ -12077,25 +12281,25 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1682</v>
+        <v>1749</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1683</v>
+        <v>1750</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1684</v>
+        <v>1751</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1685</v>
+        <v>1752</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1686</v>
+        <v>1753</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1687</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>1688</v>
+        <v>1754</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>1755</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>19</v>
@@ -12106,25 +12310,25 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1689</v>
+        <v>1756</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1690</v>
+        <v>1757</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>625</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1691</v>
+        <v>1758</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1692</v>
+        <v>1759</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>1693</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>1694</v>
+        <v>1760</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>1761</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>19</v>
@@ -12135,25 +12339,25 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1695</v>
+        <v>1762</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1696</v>
+        <v>1763</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>768</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1697</v>
+        <v>1764</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>1698</v>
+        <v>1765</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1699</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>1700</v>
+        <v>1766</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>1767</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>19</v>
@@ -12164,25 +12368,25 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1701</v>
+        <v>1768</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1702</v>
+        <v>1769</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>845</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1703</v>
+        <v>1770</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1704</v>
+        <v>1771</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>1705</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>1706</v>
+        <v>1772</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>1773</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>19</v>
@@ -12193,25 +12397,25 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1707</v>
+        <v>1774</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1708</v>
+        <v>1775</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>1311</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1709</v>
+        <v>1776</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>1710</v>
+        <v>1777</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>1711</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>1712</v>
+        <v>1778</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>1779</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>19</v>
@@ -12222,25 +12426,25 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1713</v>
+        <v>1780</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1714</v>
+        <v>1781</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1715</v>
+        <v>1782</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1716</v>
+        <v>1783</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>1717</v>
+        <v>1784</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1718</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>1719</v>
+        <v>1785</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>1786</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>19</v>
@@ -12251,25 +12455,25 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1720</v>
+        <v>1787</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1721</v>
+        <v>1788</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1722</v>
+        <v>1789</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1723</v>
+        <v>1790</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>1724</v>
+        <v>1791</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1725</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>1726</v>
+        <v>1792</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>1793</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>19</v>
@@ -12280,25 +12484,25 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1727</v>
+        <v>1794</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1728</v>
+        <v>1795</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>932</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1729</v>
+        <v>1796</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>1730</v>
+        <v>1797</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>1731</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>1732</v>
+        <v>1798</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>1799</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>19</v>
@@ -12309,25 +12513,25 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1733</v>
+        <v>1800</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1734</v>
+        <v>1801</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1735</v>
+        <v>1802</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1736</v>
+        <v>1803</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>1737</v>
+        <v>1804</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1738</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>1739</v>
+        <v>1805</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>1806</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>19</v>
@@ -12338,25 +12542,25 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1740</v>
+        <v>1807</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1741</v>
+        <v>1808</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>472</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1742</v>
+        <v>1809</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>1743</v>
+        <v>1810</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>1744</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>1745</v>
+        <v>1811</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>1812</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>19</v>
@@ -12367,25 +12571,25 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1746</v>
+        <v>1813</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1747</v>
+        <v>1814</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>424</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1748</v>
+        <v>1815</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>1749</v>
+        <v>1816</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>1750</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>1751</v>
+        <v>1817</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>1818</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>19</v>
@@ -12396,25 +12600,25 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1752</v>
+        <v>1819</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1753</v>
+        <v>1820</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>925</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1754</v>
+        <v>1821</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>1755</v>
+        <v>1822</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1756</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>1757</v>
+        <v>1823</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>1824</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>19</v>
@@ -12425,25 +12629,25 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1758</v>
+        <v>1825</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1759</v>
+        <v>1826</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>1383</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1760</v>
+        <v>1827</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>1761</v>
+        <v>1828</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>1762</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>1763</v>
+        <v>1829</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>1830</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>19</v>
@@ -12454,25 +12658,25 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1764</v>
+        <v>1831</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1765</v>
+        <v>1832</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>429</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1766</v>
+        <v>1833</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>1767</v>
+        <v>1834</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>1768</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>1769</v>
+        <v>1835</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>1836</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>19</v>
@@ -12483,27 +12687,27 @@
         <v>45</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1770</v>
+        <v>1837</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1771</v>
+        <v>1838</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>373</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1772</v>
+        <v>1839</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>1773</v>
+        <v>1840</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1774</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>1775</v>
-      </c>
-      <c r="I29" s="9" t="s">
+        <v>1841</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>1842</v>
+      </c>
+      <c r="I29" s="10" t="s">
         <v>335</v>
       </c>
     </row>
@@ -12512,28 +12716,28 @@
         <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1776</v>
+        <v>1843</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1777</v>
+        <v>1844</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1778</v>
+        <v>1845</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>1779</v>
+        <v>1846</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1780</v>
+        <v>1847</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>1781</v>
+        <v>1848</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>1782</v>
+        <v>1849</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>1783</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="31">
@@ -12541,28 +12745,28 @@
         <v>62</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1784</v>
+        <v>1851</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1785</v>
+        <v>1852</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1786</v>
+        <v>1853</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>1787</v>
+        <v>1854</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>1788</v>
+        <v>1855</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>1789</v>
+        <v>1856</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>1790</v>
+        <v>1857</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>1791</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="32">
@@ -12591,7 +12795,7 @@
         <v>61</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>1792</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="33">
@@ -12620,7 +12824,7 @@
         <v>61</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>1793</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="34">
@@ -12649,7 +12853,7 @@
         <v>61</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>1794</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="35">
@@ -12678,7 +12882,7 @@
         <v>61</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>1795</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="36">
@@ -12686,28 +12890,28 @@
         <v>67</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1796</v>
+        <v>1863</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1797</v>
+        <v>1864</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1798</v>
+        <v>1865</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>1799</v>
+        <v>1866</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>1800</v>
+        <v>1867</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>1801</v>
+        <v>1868</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>1802</v>
+        <v>1869</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>1803</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="37">
@@ -12736,7 +12940,7 @@
         <v>61</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>1804</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="38">
@@ -12765,7 +12969,7 @@
         <v>61</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>1805</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="39">
@@ -12794,7 +12998,7 @@
         <v>61</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>1806</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="40">
@@ -12823,7 +13027,7 @@
         <v>61</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>1807</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="41">
@@ -12852,7 +13056,7 @@
         <v>61</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>1808</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="42">
@@ -12886,31 +13090,31 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1809</v>
+        <v>1876</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1810</v>
+        <v>1877</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1811</v>
+        <v>1878</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1812</v>
+        <v>1879</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>1813</v>
+        <v>1880</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>1814</v>
+        <v>1881</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>1815</v>
+        <v>1882</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>1816</v>
+        <v>1883</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1817</v>
+        <v>1884</v>
       </c>
     </row>
   </sheetData>
@@ -12937,7 +13141,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1818</v>
+        <v>1885</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -12966,28 +13170,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1819</v>
+        <v>1886</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1820</v>
+        <v>1887</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1821</v>
+        <v>1888</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1822</v>
+        <v>1889</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1823</v>
+        <v>1890</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1824</v>
+        <v>1891</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1825</v>
+        <v>1892</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>1826</v>
+        <v>1893</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>19</v>
@@ -12998,13 +13202,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1827</v>
+        <v>1894</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1828</v>
+        <v>1895</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1829</v>
+        <v>1896</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>18</v>
@@ -13027,13 +13231,13 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1830</v>
+        <v>1897</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1831</v>
+        <v>1898</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1832</v>
+        <v>1899</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -13056,13 +13260,13 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1833</v>
+        <v>1900</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1834</v>
+        <v>1901</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1835</v>
+        <v>1902</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>18</v>
@@ -13085,13 +13289,13 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1836</v>
+        <v>1903</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1837</v>
+        <v>1904</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1838</v>
+        <v>1905</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>18</v>
@@ -13114,13 +13318,13 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1839</v>
+        <v>1906</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1840</v>
+        <v>1907</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1841</v>
+        <v>1908</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>18</v>
@@ -13143,13 +13347,13 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1842</v>
+        <v>1909</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1843</v>
+        <v>1910</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1844</v>
+        <v>1911</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>18</v>
@@ -13172,13 +13376,13 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1845</v>
+        <v>1912</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1846</v>
+        <v>1913</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1847</v>
+        <v>1914</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>18</v>
@@ -13201,13 +13405,13 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1848</v>
+        <v>1915</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1849</v>
+        <v>1916</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1850</v>
+        <v>1917</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>18</v>
@@ -13230,13 +13434,13 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1851</v>
+        <v>1918</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1852</v>
+        <v>1919</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1853</v>
+        <v>1920</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>18</v>
@@ -13259,13 +13463,13 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1854</v>
+        <v>1921</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1855</v>
+        <v>1922</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1856</v>
+        <v>1923</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>18</v>
@@ -13288,13 +13492,13 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1857</v>
+        <v>1924</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1858</v>
+        <v>1925</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1859</v>
+        <v>1926</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>18</v>
@@ -13317,13 +13521,13 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1860</v>
+        <v>1927</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1861</v>
+        <v>1928</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1862</v>
+        <v>1929</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>18</v>
@@ -13346,13 +13550,13 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1863</v>
+        <v>1930</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1864</v>
+        <v>1931</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1865</v>
+        <v>1932</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>18</v>
@@ -13375,13 +13579,13 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1866</v>
+        <v>1933</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1867</v>
+        <v>1934</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1868</v>
+        <v>1935</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>18</v>
@@ -13404,13 +13608,13 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1869</v>
+        <v>1936</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1870</v>
+        <v>1937</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1871</v>
+        <v>1938</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>18</v>
@@ -13433,13 +13637,13 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1872</v>
+        <v>1939</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1873</v>
+        <v>1940</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1874</v>
+        <v>1941</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>18</v>
@@ -13462,13 +13666,13 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1875</v>
+        <v>1942</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1876</v>
+        <v>1943</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1877</v>
+        <v>1944</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>18</v>
@@ -13491,13 +13695,13 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1878</v>
+        <v>1945</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1879</v>
+        <v>1946</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1880</v>
+        <v>1947</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>18</v>
@@ -13520,13 +13724,13 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1881</v>
+        <v>1948</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1882</v>
+        <v>1949</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1883</v>
+        <v>1950</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>18</v>
@@ -13549,13 +13753,13 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1884</v>
+        <v>1951</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1885</v>
+        <v>1952</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1886</v>
+        <v>1953</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>18</v>
@@ -13578,13 +13782,13 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1887</v>
+        <v>1954</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1888</v>
+        <v>1955</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1889</v>
+        <v>1956</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>18</v>
@@ -13607,13 +13811,13 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1890</v>
+        <v>1957</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1891</v>
+        <v>1958</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>1892</v>
+        <v>1959</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>18</v>
@@ -13636,13 +13840,13 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1893</v>
+        <v>1960</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1894</v>
+        <v>1961</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>1895</v>
+        <v>1962</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>18</v>
@@ -13665,13 +13869,13 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1896</v>
+        <v>1963</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1897</v>
+        <v>1964</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>1898</v>
+        <v>1965</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>18</v>
@@ -13694,13 +13898,13 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1899</v>
+        <v>1966</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1900</v>
+        <v>1967</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>1901</v>
+        <v>1968</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>18</v>
@@ -13723,13 +13927,13 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1902</v>
+        <v>1969</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1903</v>
+        <v>1970</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>1904</v>
+        <v>1971</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>18</v>
@@ -13752,25 +13956,25 @@
         <v>45</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1905</v>
+        <v>1972</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1906</v>
+        <v>1973</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>1907</v>
+        <v>1974</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1908</v>
+        <v>1975</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>1909</v>
+        <v>1976</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1910</v>
+        <v>1977</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>1911</v>
+        <v>1978</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>19</v>
@@ -14155,31 +14359,31 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1912</v>
+        <v>1979</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1913</v>
+        <v>1980</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1914</v>
+        <v>1981</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1915</v>
+        <v>1982</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>1916</v>
+        <v>1983</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>1917</v>
+        <v>1984</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>1918</v>
+        <v>1985</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>1919</v>
+        <v>1986</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1920</v>
+        <v>1987</v>
       </c>
     </row>
   </sheetData>
@@ -14204,7 +14408,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1921</v>
+        <v>1988</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -14227,62 +14431,62 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>1922</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>1923</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>1924</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>1925</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>1926</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>1927</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>1928</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>1929</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>1930</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>1931</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>1932</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>1933</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>1934</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>1935</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>1936</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>1937</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>1938</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>1939</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>1940</v>
+      <c r="I1" s="9" t="s">
+        <v>1989</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>1990</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>1991</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>1992</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>1993</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>1994</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>1995</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>1996</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>1997</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>1998</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>1999</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>2000</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>2001</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>2002</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>2003</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>2004</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>2005</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>2006</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>2007</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>8</v>
@@ -14290,88 +14494,88 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1818</v>
+        <v>1885</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1941</v>
+        <v>2008</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1942</v>
+        <v>2009</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1943</v>
+        <v>2010</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1944</v>
+        <v>2011</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1945</v>
+        <v>2012</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1946</v>
+        <v>2013</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>1947</v>
+        <v>2014</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>1948</v>
+        <v>2015</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>1949</v>
+        <v>2016</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>1950</v>
+        <v>2017</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>1951</v>
+        <v>2018</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>1952</v>
+        <v>2019</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>1953</v>
+        <v>2020</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>1954</v>
+        <v>2021</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>1955</v>
+        <v>2022</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>1956</v>
+        <v>2023</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>1957</v>
+        <v>2024</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>1958</v>
+        <v>2025</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>1739</v>
+        <v>1806</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>1959</v>
+        <v>2026</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>1960</v>
+        <v>2027</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>1961</v>
+        <v>2028</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>1962</v>
+        <v>2029</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>1963</v>
+        <v>2030</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>1964</v>
+        <v>2031</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>1965</v>
-      </c>
-      <c r="AB2" s="11" t="s">
-        <v>1966</v>
+        <v>2032</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>2033</v>
       </c>
     </row>
     <row r="3">
@@ -14379,85 +14583,85 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1967</v>
+        <v>2034</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1968</v>
+        <v>2035</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1969</v>
+        <v>2036</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1970</v>
+        <v>2037</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>1971</v>
+        <v>2038</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>1972</v>
+        <v>2039</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>1973</v>
+        <v>2040</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>1974</v>
+        <v>2041</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>1678</v>
+        <v>1745</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>1975</v>
+        <v>2042</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>1976</v>
+        <v>2043</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>1977</v>
+        <v>2044</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>1978</v>
+        <v>2045</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>1664</v>
+        <v>1731</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>1741</v>
+        <v>1808</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>1979</v>
+        <v>2046</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>1980</v>
+        <v>2047</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>1981</v>
+        <v>2048</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>1982</v>
+        <v>2049</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>1983</v>
+        <v>2050</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>1984</v>
+        <v>2051</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>1985</v>
+        <v>2052</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>1986</v>
+        <v>2053</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>1696</v>
+        <v>1763</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>1987</v>
+        <v>2054</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>1771</v>
-      </c>
-      <c r="AB3" s="11" t="s">
-        <v>1988</v>
+        <v>1838</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>2055</v>
       </c>
     </row>
     <row r="4">
@@ -14465,85 +14669,85 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1989</v>
+        <v>2056</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1990</v>
+        <v>2057</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1991</v>
+        <v>2058</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1992</v>
+        <v>2059</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>1993</v>
+        <v>2060</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1649</v>
+        <v>1716</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>1994</v>
+        <v>2061</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>1995</v>
+        <v>2062</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>1704</v>
+        <v>1771</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>1996</v>
+        <v>2063</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>1997</v>
+        <v>2064</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>1998</v>
+        <v>2065</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>1999</v>
+        <v>2066</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>2000</v>
+        <v>2067</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>2001</v>
+        <v>2068</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>2002</v>
+        <v>2069</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>1691</v>
+        <v>1758</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>2003</v>
+        <v>2070</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>2004</v>
+        <v>2071</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>2005</v>
+        <v>2072</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>2006</v>
+        <v>2073</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>2007</v>
+        <v>2074</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>2008</v>
+        <v>2075</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>2009</v>
+        <v>2076</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>2010</v>
+        <v>2077</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>2011</v>
-      </c>
-      <c r="AB4" s="11" t="s">
-        <v>2012</v>
+        <v>2078</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>2079</v>
       </c>
     </row>
     <row r="5">
@@ -14551,85 +14755,85 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2013</v>
+        <v>2080</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>2014</v>
+        <v>2081</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>2015</v>
+        <v>2082</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>2016</v>
+        <v>2083</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>2017</v>
+        <v>2084</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>2018</v>
+        <v>2085</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>1748</v>
+        <v>1815</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>2019</v>
+        <v>2086</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>2020</v>
+        <v>2087</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>2021</v>
+        <v>2088</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>1756</v>
+        <v>1823</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>1611</v>
+        <v>1678</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>2022</v>
+        <v>2089</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>2023</v>
+        <v>2090</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>2024</v>
+        <v>2091</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>2025</v>
+        <v>2092</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>2026</v>
+        <v>2093</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>2027</v>
+        <v>2094</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>2028</v>
+        <v>2095</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>2029</v>
+        <v>2096</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>1627</v>
+        <v>1694</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>2030</v>
+        <v>2097</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>2031</v>
+        <v>2098</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>2032</v>
+        <v>2099</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>2033</v>
+        <v>2100</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>2034</v>
-      </c>
-      <c r="AB5" s="11" t="s">
-        <v>2035</v>
+        <v>2101</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>2102</v>
       </c>
     </row>
     <row r="6">
@@ -14637,85 +14841,85 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>2036</v>
+        <v>2103</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>2037</v>
+        <v>2104</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>2038</v>
+        <v>2105</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>2039</v>
+        <v>2106</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>2040</v>
+        <v>2107</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>2041</v>
+        <v>2108</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>2042</v>
+        <v>2109</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>2043</v>
+        <v>2110</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>2044</v>
+        <v>2111</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>2045</v>
+        <v>2112</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>2046</v>
+        <v>2113</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>2047</v>
+        <v>2114</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>2048</v>
+        <v>2115</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>1689</v>
+        <v>1756</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>2049</v>
+        <v>2116</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>2050</v>
+        <v>2117</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>2051</v>
+        <v>2118</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>2052</v>
+        <v>2119</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>2053</v>
+        <v>2120</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>2054</v>
+        <v>2121</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>2055</v>
+        <v>2122</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>2056</v>
+        <v>2123</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>2057</v>
+        <v>2124</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>2058</v>
+        <v>2125</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>2059</v>
+        <v>2126</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>1693</v>
-      </c>
-      <c r="AB6" s="11" t="s">
-        <v>2060</v>
+        <v>1760</v>
+      </c>
+      <c r="AB6" s="12" t="s">
+        <v>2127</v>
       </c>
     </row>
     <row r="7">
@@ -14723,85 +14927,85 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>2061</v>
+        <v>2128</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>2062</v>
+        <v>2129</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>2063</v>
+        <v>2130</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>2064</v>
+        <v>2131</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>2065</v>
+        <v>2132</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>2066</v>
+        <v>2133</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>1740</v>
+        <v>1807</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>2067</v>
+        <v>2134</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>2068</v>
+        <v>2135</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>1674</v>
+        <v>1741</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>2069</v>
+        <v>2136</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>1667</v>
+        <v>1734</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>1761</v>
+        <v>1828</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>2070</v>
+        <v>2137</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>2071</v>
+        <v>2138</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>1765</v>
+        <v>1832</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>2072</v>
+        <v>2139</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>2073</v>
+        <v>2140</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>1624</v>
+        <v>1691</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>2074</v>
+        <v>2141</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>2075</v>
+        <v>2142</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>2076</v>
+        <v>2143</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>1619</v>
+        <v>1686</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>2077</v>
+        <v>2144</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>2078</v>
+        <v>2145</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>2079</v>
-      </c>
-      <c r="AB7" s="11" t="s">
-        <v>2080</v>
+        <v>2146</v>
+      </c>
+      <c r="AB7" s="12" t="s">
+        <v>2147</v>
       </c>
     </row>
     <row r="8">
@@ -14809,85 +15013,85 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>2081</v>
+        <v>2148</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2082</v>
+        <v>2149</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>2083</v>
+        <v>2150</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>2084</v>
+        <v>2151</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>2085</v>
+        <v>2152</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>2086</v>
+        <v>2153</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>2087</v>
+        <v>2154</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>1644</v>
+        <v>1711</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>2088</v>
+        <v>2155</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>1661</v>
+        <v>1728</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>2089</v>
+        <v>2156</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>2090</v>
+        <v>2157</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>1720</v>
+        <v>1787</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>2091</v>
+        <v>2158</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>2092</v>
+        <v>2159</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>1648</v>
+        <v>1715</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>2093</v>
+        <v>2160</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>2094</v>
+        <v>2161</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>2095</v>
+        <v>2162</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>2096</v>
+        <v>2163</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>2097</v>
+        <v>2164</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>2098</v>
+        <v>2165</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>2099</v>
+        <v>2166</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>2100</v>
+        <v>2167</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>2101</v>
+        <v>2168</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>2102</v>
-      </c>
-      <c r="AB8" s="11" t="s">
-        <v>2103</v>
+        <v>2169</v>
+      </c>
+      <c r="AB8" s="12" t="s">
+        <v>2170</v>
       </c>
     </row>
     <row r="9">
@@ -14895,85 +15099,85 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>2104</v>
+        <v>2171</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>2105</v>
+        <v>2172</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>2106</v>
+        <v>2173</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>2107</v>
+        <v>2174</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>2108</v>
+        <v>2175</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>2109</v>
+        <v>2176</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>2110</v>
+        <v>2177</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>2111</v>
+        <v>2178</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>2112</v>
+        <v>2179</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>2113</v>
+        <v>2180</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>2114</v>
+        <v>2181</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>2115</v>
+        <v>2182</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>2116</v>
+        <v>2183</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>2117</v>
+        <v>2184</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>2118</v>
+        <v>2185</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>1666</v>
+        <v>1733</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>2119</v>
+        <v>2186</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>2120</v>
+        <v>2187</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>2121</v>
+        <v>2188</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>2122</v>
+        <v>2189</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>2123</v>
+        <v>2190</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>2124</v>
+        <v>2191</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>2125</v>
+        <v>2192</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>2126</v>
+        <v>2193</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>2127</v>
+        <v>2194</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>2128</v>
-      </c>
-      <c r="AB9" s="11" t="s">
-        <v>2129</v>
+        <v>2195</v>
+      </c>
+      <c r="AB9" s="12" t="s">
+        <v>2196</v>
       </c>
     </row>
     <row r="10">
@@ -14981,85 +15185,85 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>2130</v>
+        <v>2197</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>2131</v>
+        <v>2198</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>2132</v>
+        <v>2199</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>2133</v>
+        <v>2200</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>2134</v>
+        <v>2201</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>2135</v>
+        <v>2202</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>2136</v>
+        <v>2203</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>2137</v>
+        <v>2204</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>2138</v>
+        <v>2205</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>2139</v>
+        <v>2206</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>2140</v>
+        <v>2207</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>2141</v>
+        <v>2208</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>2142</v>
+        <v>2209</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>2143</v>
+        <v>2210</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>2144</v>
+        <v>2211</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>2145</v>
+        <v>2212</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>2146</v>
+        <v>2213</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>2147</v>
+        <v>2214</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>1730</v>
+        <v>1797</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>2148</v>
+        <v>2215</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>2149</v>
+        <v>2216</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>2150</v>
+        <v>2217</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>2151</v>
+        <v>2218</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>2152</v>
+        <v>2219</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>2153</v>
+        <v>2220</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>2154</v>
-      </c>
-      <c r="AB10" s="11" t="s">
-        <v>1988</v>
+        <v>2221</v>
+      </c>
+      <c r="AB10" s="12" t="s">
+        <v>2055</v>
       </c>
     </row>
     <row r="11">
@@ -15067,85 +15271,85 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>2155</v>
+        <v>2222</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>2156</v>
+        <v>2223</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>2157</v>
+        <v>2224</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>2158</v>
+        <v>2225</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>2159</v>
+        <v>2226</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>2160</v>
+        <v>2227</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>2161</v>
+        <v>2228</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>2162</v>
+        <v>2229</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>2163</v>
+        <v>2230</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>2164</v>
+        <v>2231</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>1729</v>
+        <v>1796</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>2165</v>
+        <v>2232</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>2166</v>
+        <v>2233</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>2167</v>
+        <v>2234</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>2168</v>
+        <v>2235</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>2169</v>
+        <v>2236</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>2170</v>
+        <v>2237</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>2171</v>
+        <v>2238</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>2172</v>
+        <v>2239</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>2173</v>
+        <v>2240</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>2174</v>
+        <v>2241</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>2175</v>
+        <v>2242</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>2176</v>
+        <v>2243</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>2177</v>
+        <v>2244</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>2178</v>
+        <v>2245</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>2179</v>
-      </c>
-      <c r="AB11" s="11" t="s">
-        <v>2012</v>
+        <v>2246</v>
+      </c>
+      <c r="AB11" s="12" t="s">
+        <v>2079</v>
       </c>
     </row>
     <row r="12">
@@ -15153,85 +15357,85 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>2180</v>
+        <v>2247</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>2181</v>
+        <v>2248</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>2182</v>
+        <v>2249</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>2183</v>
+        <v>2250</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>2184</v>
+        <v>2251</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>2185</v>
+        <v>2252</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>2186</v>
+        <v>2253</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>2187</v>
+        <v>2254</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>2188</v>
+        <v>2255</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>1762</v>
+        <v>1829</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>2189</v>
+        <v>2256</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>2190</v>
+        <v>2257</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>1635</v>
+        <v>1702</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>2191</v>
+        <v>2258</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>2192</v>
+        <v>2259</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>1768</v>
+        <v>1835</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>2193</v>
+        <v>2260</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>2194</v>
+        <v>2261</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>2195</v>
+        <v>2262</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>2196</v>
+        <v>2263</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>2197</v>
+        <v>2264</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>2198</v>
+        <v>2265</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>2199</v>
+        <v>2266</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>2200</v>
+        <v>2267</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>2201</v>
+        <v>2268</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>2202</v>
-      </c>
-      <c r="AB12" s="11" t="s">
-        <v>2203</v>
+        <v>2269</v>
+      </c>
+      <c r="AB12" s="12" t="s">
+        <v>2270</v>
       </c>
     </row>
     <row r="13">
@@ -15239,85 +15443,85 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>2204</v>
+        <v>2271</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>2205</v>
+        <v>2272</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>2206</v>
+        <v>2273</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>2207</v>
+        <v>2274</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>2208</v>
+        <v>2275</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>2209</v>
+        <v>2276</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>2210</v>
+        <v>2277</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>2211</v>
+        <v>2278</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>2212</v>
+        <v>2279</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>1697</v>
+        <v>1764</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>2213</v>
+        <v>2280</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>2214</v>
+        <v>2281</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>2215</v>
+        <v>2282</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>2216</v>
+        <v>2283</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>2217</v>
+        <v>2284</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>2218</v>
+        <v>2285</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>2219</v>
+        <v>2286</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>1651</v>
+        <v>1718</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>2220</v>
+        <v>2287</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>2221</v>
+        <v>2288</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>2222</v>
+        <v>2289</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>2223</v>
+        <v>2290</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>2224</v>
+        <v>2291</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>2225</v>
+        <v>2292</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>2226</v>
+        <v>2293</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>2227</v>
-      </c>
-      <c r="AB13" s="11" t="s">
-        <v>2228</v>
+        <v>2294</v>
+      </c>
+      <c r="AB13" s="12" t="s">
+        <v>2295</v>
       </c>
     </row>
     <row r="14">
@@ -15325,85 +15529,85 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>2229</v>
+        <v>2296</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>2230</v>
+        <v>2297</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>2231</v>
+        <v>2298</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>2232</v>
+        <v>2299</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>2233</v>
+        <v>2300</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>2234</v>
+        <v>2301</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>2235</v>
+        <v>2302</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>1711</v>
+        <v>1778</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>1758</v>
+        <v>1825</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>2236</v>
+        <v>2303</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>2237</v>
+        <v>2304</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>2238</v>
+        <v>2305</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>2239</v>
+        <v>2306</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>1695</v>
+        <v>1762</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>1764</v>
+        <v>1831</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>2240</v>
+        <v>2307</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>2241</v>
+        <v>2308</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>2242</v>
+        <v>2309</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>2243</v>
+        <v>2310</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>2244</v>
+        <v>2311</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>2245</v>
+        <v>2312</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>2246</v>
+        <v>2313</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>2247</v>
+        <v>2314</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>2248</v>
+        <v>2315</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>2249</v>
+        <v>2316</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>2250</v>
-      </c>
-      <c r="AB14" s="11" t="s">
-        <v>2251</v>
+        <v>2317</v>
+      </c>
+      <c r="AB14" s="12" t="s">
+        <v>2318</v>
       </c>
     </row>
     <row r="15">
@@ -15411,85 +15615,85 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>2252</v>
+        <v>2319</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>2253</v>
+        <v>2320</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>2254</v>
+        <v>2321</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>2255</v>
+        <v>2322</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1613</v>
+        <v>1680</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>2256</v>
+        <v>2323</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>2257</v>
+        <v>2324</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>1630</v>
+        <v>1697</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>2258</v>
+        <v>2325</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>1710</v>
+        <v>1777</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>2259</v>
+        <v>2326</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>2260</v>
+        <v>2327</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>1714</v>
+        <v>1781</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>2261</v>
+        <v>2328</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>1692</v>
+        <v>1759</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>2262</v>
+        <v>2329</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>2263</v>
+        <v>2330</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>1639</v>
+        <v>1706</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>2264</v>
+        <v>2331</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>2265</v>
+        <v>2332</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>2266</v>
+        <v>2333</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>2267</v>
+        <v>2334</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>2268</v>
+        <v>2335</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>2269</v>
+        <v>2336</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>2270</v>
+        <v>2337</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>1702</v>
-      </c>
-      <c r="AB15" s="11" t="s">
-        <v>2271</v>
+        <v>1769</v>
+      </c>
+      <c r="AB15" s="12" t="s">
+        <v>2338</v>
       </c>
     </row>
     <row r="16">
@@ -15497,85 +15701,85 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>2272</v>
+        <v>2339</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>2273</v>
+        <v>2340</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>2274</v>
+        <v>2341</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>2275</v>
+        <v>2342</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>2276</v>
+        <v>2343</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>2277</v>
+        <v>2344</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>2278</v>
+        <v>2345</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>2279</v>
+        <v>2346</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>2280</v>
+        <v>2347</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>2281</v>
+        <v>2348</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>2282</v>
+        <v>2349</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>2283</v>
+        <v>2350</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>2284</v>
+        <v>2351</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>1643</v>
+        <v>1710</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>2285</v>
+        <v>2352</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>2286</v>
+        <v>2353</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>2287</v>
+        <v>2354</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>2288</v>
+        <v>2355</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>2289</v>
+        <v>2356</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>2290</v>
+        <v>2357</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>2291</v>
+        <v>2358</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>2292</v>
+        <v>2359</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>2293</v>
+        <v>2360</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>2294</v>
+        <v>2361</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>2295</v>
+        <v>2362</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>2296</v>
-      </c>
-      <c r="AB16" s="11" t="s">
-        <v>2297</v>
+        <v>2363</v>
+      </c>
+      <c r="AB16" s="12" t="s">
+        <v>2364</v>
       </c>
     </row>
     <row r="17">
@@ -15583,85 +15787,85 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>2298</v>
+        <v>2365</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>2299</v>
+        <v>2366</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>2300</v>
+        <v>2367</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>2301</v>
+        <v>2368</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>2302</v>
+        <v>2369</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>2303</v>
+        <v>2370</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>2304</v>
+        <v>2371</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>2305</v>
+        <v>2372</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>1686</v>
+        <v>1753</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>1731</v>
+        <v>1798</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>2306</v>
+        <v>2373</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>2307</v>
+        <v>2374</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>2308</v>
+        <v>2375</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>2309</v>
+        <v>2376</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>2310</v>
+        <v>2377</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>2311</v>
+        <v>2378</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>1760</v>
+        <v>1827</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>2312</v>
+        <v>2379</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>2313</v>
+        <v>2380</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>2314</v>
+        <v>2381</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>2315</v>
+        <v>2382</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>2316</v>
+        <v>2383</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>2317</v>
+        <v>2384</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>1744</v>
+        <v>1811</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>2318</v>
+        <v>2385</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>2319</v>
-      </c>
-      <c r="AB17" s="11" t="s">
-        <v>2320</v>
+        <v>2386</v>
+      </c>
+      <c r="AB17" s="12" t="s">
+        <v>2387</v>
       </c>
     </row>
     <row r="18">
@@ -15669,85 +15873,85 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>2321</v>
+        <v>2388</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>2322</v>
+        <v>2389</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>2323</v>
+        <v>2390</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>2324</v>
+        <v>2391</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1725</v>
+        <v>1792</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>1673</v>
+        <v>1740</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>2325</v>
+        <v>2392</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>2326</v>
+        <v>2393</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>2327</v>
+        <v>2394</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>2328</v>
+        <v>2395</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>2329</v>
+        <v>2396</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>1676</v>
+        <v>1743</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>2330</v>
+        <v>2397</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>2331</v>
+        <v>2398</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>2332</v>
+        <v>2399</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>2333</v>
+        <v>2400</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>2334</v>
+        <v>2401</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>1734</v>
+        <v>1801</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>2335</v>
+        <v>2402</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>2336</v>
+        <v>2403</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>2337</v>
+        <v>2404</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>2338</v>
+        <v>2405</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>2339</v>
+        <v>2406</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>2340</v>
+        <v>2407</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>2341</v>
+        <v>2408</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>2342</v>
-      </c>
-      <c r="AB18" s="11" t="s">
-        <v>2080</v>
+        <v>2409</v>
+      </c>
+      <c r="AB18" s="12" t="s">
+        <v>2147</v>
       </c>
     </row>
     <row r="19">
@@ -15755,85 +15959,85 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>2343</v>
+        <v>2410</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>2344</v>
+        <v>2411</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>2345</v>
+        <v>2412</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>2346</v>
+        <v>2413</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>2347</v>
+        <v>2414</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>2348</v>
+        <v>2415</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>2349</v>
+        <v>2416</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>1701</v>
+        <v>1768</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>2350</v>
+        <v>2417</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>1687</v>
+        <v>1754</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>1658</v>
+        <v>1725</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>2351</v>
+        <v>2418</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>1680</v>
+        <v>1747</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>2352</v>
+        <v>2419</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>2353</v>
+        <v>2420</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>2354</v>
+        <v>2421</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>2355</v>
+        <v>2422</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>2356</v>
+        <v>2423</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>2357</v>
+        <v>2424</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>2358</v>
+        <v>2425</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>2359</v>
+        <v>2426</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>2360</v>
+        <v>2427</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>2361</v>
+        <v>2428</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>2362</v>
+        <v>2429</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>2363</v>
+        <v>2430</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>2364</v>
-      </c>
-      <c r="AB19" s="11" t="s">
-        <v>2365</v>
+        <v>2431</v>
+      </c>
+      <c r="AB19" s="12" t="s">
+        <v>2432</v>
       </c>
     </row>
     <row r="20">
@@ -15841,85 +16045,85 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>2366</v>
+        <v>2433</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>2367</v>
+        <v>2434</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>2368</v>
+        <v>2435</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>2369</v>
+        <v>2436</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>2370</v>
+        <v>2437</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>2371</v>
+        <v>2438</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>2372</v>
+        <v>2439</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>1719</v>
+        <v>1786</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>1767</v>
+        <v>1834</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>1646</v>
+        <v>1713</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>2373</v>
+        <v>2440</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>2374</v>
+        <v>2441</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>2375</v>
+        <v>2442</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>2376</v>
+        <v>2443</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>2377</v>
+        <v>2444</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>2378</v>
+        <v>2445</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>2379</v>
+        <v>2446</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>2380</v>
+        <v>2447</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>2381</v>
+        <v>2448</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>2382</v>
+        <v>2449</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>2383</v>
+        <v>2450</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>2384</v>
+        <v>2451</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>1625</v>
+        <v>1692</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>2385</v>
+        <v>2452</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>2386</v>
+        <v>2453</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>2387</v>
-      </c>
-      <c r="AB20" s="11" t="s">
-        <v>2388</v>
+        <v>2454</v>
+      </c>
+      <c r="AB20" s="12" t="s">
+        <v>2455</v>
       </c>
     </row>
     <row r="21">
@@ -15927,85 +16131,85 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>2389</v>
+        <v>2456</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>2390</v>
+        <v>2457</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>2391</v>
+        <v>2458</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>2392</v>
+        <v>2459</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>2393</v>
+        <v>2460</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1747</v>
+        <v>1814</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>2394</v>
+        <v>2461</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>2395</v>
+        <v>2462</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>2396</v>
+        <v>2463</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>2397</v>
+        <v>2464</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>2398</v>
+        <v>2465</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>1772</v>
+        <v>1839</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>2399</v>
+        <v>2466</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>2400</v>
+        <v>2467</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>2401</v>
+        <v>2468</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>2402</v>
+        <v>2469</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>2403</v>
+        <v>2470</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>2404</v>
+        <v>2471</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>2405</v>
+        <v>2472</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>2406</v>
+        <v>2473</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>2407</v>
+        <v>2474</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>2408</v>
+        <v>2475</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>2409</v>
+        <v>2476</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>2410</v>
+        <v>2477</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>2411</v>
+        <v>2478</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>1601</v>
-      </c>
-      <c r="AB21" s="11" t="s">
-        <v>2412</v>
+        <v>1668</v>
+      </c>
+      <c r="AB21" s="12" t="s">
+        <v>2479</v>
       </c>
     </row>
     <row r="22">
@@ -16013,85 +16217,85 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>2413</v>
+        <v>2480</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>2414</v>
+        <v>2481</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>2415</v>
+        <v>2482</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>2416</v>
+        <v>2483</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>2417</v>
+        <v>2484</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>2418</v>
+        <v>2485</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>2419</v>
+        <v>2486</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>2420</v>
+        <v>2487</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>2421</v>
+        <v>2488</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>2422</v>
+        <v>2489</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>2423</v>
+        <v>2490</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>2424</v>
+        <v>2491</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>1749</v>
+        <v>1816</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>1629</v>
+        <v>1696</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>2425</v>
+        <v>2492</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>2426</v>
+        <v>2493</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>2427</v>
+        <v>2494</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>2428</v>
+        <v>2495</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>2429</v>
+        <v>2496</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>2430</v>
+        <v>2497</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>2431</v>
+        <v>2498</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>2432</v>
+        <v>2499</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>2433</v>
+        <v>2500</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>2434</v>
+        <v>2501</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>1753</v>
+        <v>1820</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>2435</v>
-      </c>
-      <c r="AB22" s="11" t="s">
-        <v>2436</v>
+        <v>2502</v>
+      </c>
+      <c r="AB22" s="12" t="s">
+        <v>2503</v>
       </c>
     </row>
     <row r="23">
@@ -16099,85 +16303,85 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>2437</v>
+        <v>2504</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>2438</v>
+        <v>2505</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>2439</v>
+        <v>2506</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>2440</v>
+        <v>2507</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>2441</v>
+        <v>2508</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>2442</v>
+        <v>2509</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>2443</v>
+        <v>2510</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>2444</v>
+        <v>2511</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>2445</v>
+        <v>2512</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>2446</v>
+        <v>2513</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>2447</v>
+        <v>2514</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>2448</v>
+        <v>2515</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>2449</v>
+        <v>2516</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>2450</v>
+        <v>2517</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>2451</v>
+        <v>2518</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>2452</v>
+        <v>2519</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>2453</v>
+        <v>2520</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>2454</v>
+        <v>2521</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>2455</v>
+        <v>2522</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>2456</v>
+        <v>2523</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>1754</v>
+        <v>1821</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>2457</v>
+        <v>2524</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>2458</v>
+        <v>2525</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>2459</v>
+        <v>2526</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>2460</v>
+        <v>2527</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>2461</v>
-      </c>
-      <c r="AB23" s="11" t="s">
-        <v>2462</v>
+        <v>2528</v>
+      </c>
+      <c r="AB23" s="12" t="s">
+        <v>2529</v>
       </c>
     </row>
     <row r="24">
@@ -16185,85 +16389,85 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>2463</v>
+        <v>2530</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>2464</v>
+        <v>2531</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>2465</v>
+        <v>2532</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>2466</v>
+        <v>2533</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>2467</v>
+        <v>2534</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>2468</v>
+        <v>2535</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>1705</v>
+        <v>1772</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>2469</v>
+        <v>2536</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>2470</v>
+        <v>2537</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>2471</v>
+        <v>2538</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>2472</v>
+        <v>2539</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>2473</v>
+        <v>2540</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>2474</v>
+        <v>2541</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>2475</v>
+        <v>2542</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>2476</v>
+        <v>2543</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>2477</v>
+        <v>2544</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>2478</v>
+        <v>2545</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>2479</v>
+        <v>2546</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>2480</v>
+        <v>2547</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>2481</v>
+        <v>2548</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>2482</v>
+        <v>2549</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>2483</v>
+        <v>2550</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>2484</v>
+        <v>2551</v>
       </c>
       <c r="Y24" s="5" t="s">
-        <v>2485</v>
+        <v>2552</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>2486</v>
+        <v>2553</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>2487</v>
-      </c>
-      <c r="AB24" s="11" t="s">
-        <v>2488</v>
+        <v>2554</v>
+      </c>
+      <c r="AB24" s="12" t="s">
+        <v>2555</v>
       </c>
     </row>
     <row r="25">
@@ -16271,85 +16475,85 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>2489</v>
+        <v>2556</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>2490</v>
+        <v>2557</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>2491</v>
+        <v>2558</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>2492</v>
+        <v>2559</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>2493</v>
+        <v>2560</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>2494</v>
+        <v>2561</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>2495</v>
+        <v>2562</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>2496</v>
+        <v>2563</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>2497</v>
+        <v>2564</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>2498</v>
+        <v>2565</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>2499</v>
+        <v>2566</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>2500</v>
+        <v>2567</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>2501</v>
+        <v>2568</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>2502</v>
+        <v>2569</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>2503</v>
+        <v>2570</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>1699</v>
+        <v>1766</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>2504</v>
+        <v>2571</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>2505</v>
+        <v>2572</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>1660</v>
+        <v>1727</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>2506</v>
+        <v>2573</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>2507</v>
+        <v>2574</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>2508</v>
+        <v>2575</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>2509</v>
+        <v>2576</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>2510</v>
+        <v>2577</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>2511</v>
+        <v>2578</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>2512</v>
-      </c>
-      <c r="AB25" s="11" t="s">
-        <v>2129</v>
+        <v>2579</v>
+      </c>
+      <c r="AB25" s="12" t="s">
+        <v>2196</v>
       </c>
     </row>
     <row r="26">
@@ -16357,85 +16561,85 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>2513</v>
+        <v>2580</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>2514</v>
+        <v>2581</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>2515</v>
+        <v>2582</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>2516</v>
+        <v>2583</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>2517</v>
+        <v>2584</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>2518</v>
+        <v>2585</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>2519</v>
+        <v>2586</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>2520</v>
+        <v>2587</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>2521</v>
+        <v>2588</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>2522</v>
+        <v>2589</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>2523</v>
+        <v>2590</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>1634</v>
+        <v>1701</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>2524</v>
+        <v>2591</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>1737</v>
+        <v>1804</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>2525</v>
+        <v>2592</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>1773</v>
+        <v>1840</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>2526</v>
+        <v>2593</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>2527</v>
+        <v>2594</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>2528</v>
+        <v>2595</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>2529</v>
+        <v>2596</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>2530</v>
+        <v>2597</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>2531</v>
+        <v>2598</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>2532</v>
+        <v>2599</v>
       </c>
       <c r="Y26" s="5" t="s">
-        <v>2533</v>
+        <v>2600</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>2534</v>
+        <v>2601</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>2535</v>
-      </c>
-      <c r="AB26" s="11" t="s">
-        <v>2536</v>
+        <v>2602</v>
+      </c>
+      <c r="AB26" s="12" t="s">
+        <v>2603</v>
       </c>
     </row>
     <row r="27">
@@ -16443,85 +16647,85 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>2537</v>
+        <v>2604</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>2538</v>
+        <v>2605</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>2539</v>
+        <v>2606</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>2540</v>
+        <v>2607</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>2541</v>
+        <v>2608</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>2542</v>
+        <v>2609</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>2543</v>
+        <v>2610</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>2544</v>
+        <v>2611</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>2545</v>
+        <v>2612</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>2546</v>
+        <v>2613</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>2547</v>
+        <v>2614</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>2548</v>
+        <v>2615</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>2549</v>
+        <v>2616</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>2550</v>
+        <v>2617</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>2551</v>
+        <v>2618</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>2552</v>
+        <v>2619</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>2553</v>
+        <v>2620</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>2554</v>
+        <v>2621</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>2555</v>
+        <v>2622</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>2556</v>
+        <v>2623</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>1615</v>
+        <v>1682</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>2557</v>
+        <v>2624</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>2558</v>
+        <v>2625</v>
       </c>
       <c r="Y27" s="5" t="s">
-        <v>2559</v>
+        <v>2626</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>2560</v>
+        <v>2627</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>2561</v>
-      </c>
-      <c r="AB27" s="11" t="s">
-        <v>2562</v>
+        <v>2628</v>
+      </c>
+      <c r="AB27" s="12" t="s">
+        <v>2629</v>
       </c>
     </row>
     <row r="28">
@@ -16529,171 +16733,171 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>2563</v>
+        <v>2630</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>2564</v>
+        <v>2631</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>2565</v>
+        <v>2632</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>2566</v>
+        <v>2633</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>2567</v>
+        <v>2634</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>2568</v>
+        <v>2635</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>1727</v>
+        <v>1794</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>2569</v>
+        <v>2636</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>2570</v>
+        <v>2637</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>2571</v>
+        <v>2638</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>2572</v>
+        <v>2639</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>2573</v>
+        <v>2640</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>2574</v>
+        <v>2641</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>2575</v>
+        <v>2642</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>2576</v>
+        <v>2643</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>2577</v>
+        <v>2644</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>2578</v>
+        <v>2645</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>2579</v>
+        <v>2646</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>2580</v>
+        <v>2647</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>2581</v>
+        <v>2648</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>2582</v>
+        <v>2649</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>2583</v>
+        <v>2650</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>2584</v>
+        <v>2651</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>2585</v>
+        <v>2652</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>2586</v>
+        <v>2653</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>2587</v>
-      </c>
-      <c r="AB28" s="11" t="s">
-        <v>2588</v>
+        <v>2654</v>
+      </c>
+      <c r="AB28" s="12" t="s">
+        <v>2655</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>2589</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>2590</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>2591</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>2592</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>2593</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>2594</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>2595</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>2596</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>2597</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>2598</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>2599</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>2600</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>2601</v>
-      </c>
-      <c r="O29" s="8" t="s">
-        <v>2602</v>
-      </c>
-      <c r="P29" s="8" t="s">
-        <v>2603</v>
-      </c>
-      <c r="Q29" s="8" t="s">
-        <v>2604</v>
-      </c>
-      <c r="R29" s="8" t="s">
-        <v>2605</v>
-      </c>
-      <c r="S29" s="8" t="s">
-        <v>2606</v>
-      </c>
-      <c r="T29" s="8" t="s">
-        <v>2607</v>
-      </c>
-      <c r="U29" s="8" t="s">
-        <v>2608</v>
-      </c>
-      <c r="V29" s="8" t="s">
-        <v>2609</v>
-      </c>
-      <c r="W29" s="8" t="s">
-        <v>2610</v>
-      </c>
-      <c r="X29" s="8" t="s">
-        <v>2374</v>
-      </c>
-      <c r="Y29" s="8" t="s">
-        <v>2611</v>
-      </c>
-      <c r="Z29" s="8" t="s">
-        <v>2612</v>
-      </c>
-      <c r="AA29" s="8" t="s">
-        <v>2613</v>
-      </c>
-      <c r="AB29" s="11" t="s">
-        <v>2614</v>
+      <c r="B29" s="9" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>2657</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>2658</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>2659</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>2660</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>2661</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>2662</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>2663</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>2664</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>2665</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>2666</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>2667</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>2668</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>2669</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>2670</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>2671</v>
+      </c>
+      <c r="R29" s="9" t="s">
+        <v>2672</v>
+      </c>
+      <c r="S29" s="9" t="s">
+        <v>2673</v>
+      </c>
+      <c r="T29" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="U29" s="9" t="s">
+        <v>2675</v>
+      </c>
+      <c r="V29" s="9" t="s">
+        <v>2676</v>
+      </c>
+      <c r="W29" s="9" t="s">
+        <v>2677</v>
+      </c>
+      <c r="X29" s="9" t="s">
+        <v>2441</v>
+      </c>
+      <c r="Y29" s="9" t="s">
+        <v>2678</v>
+      </c>
+      <c r="Z29" s="9" t="s">
+        <v>2679</v>
+      </c>
+      <c r="AA29" s="9" t="s">
+        <v>2680</v>
+      </c>
+      <c r="AB29" s="12" t="s">
+        <v>2681</v>
       </c>
     </row>
     <row r="30">
@@ -16701,85 +16905,85 @@
         <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>2615</v>
+        <v>2682</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>2616</v>
+        <v>2683</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>2617</v>
+        <v>2684</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>2618</v>
+        <v>2685</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>2619</v>
+        <v>2686</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>2620</v>
+        <v>2687</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>2621</v>
+        <v>2688</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>2622</v>
+        <v>2689</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>2623</v>
+        <v>2690</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>2624</v>
+        <v>2691</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>2625</v>
+        <v>2692</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>2626</v>
+        <v>2693</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>2627</v>
+        <v>2694</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>2628</v>
+        <v>2695</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>2629</v>
+        <v>2696</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>2630</v>
+        <v>2697</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>2631</v>
+        <v>2698</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>2632</v>
+        <v>2699</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>2633</v>
+        <v>2700</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>2634</v>
+        <v>2701</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>2635</v>
+        <v>2702</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>2636</v>
+        <v>2703</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>2637</v>
+        <v>2704</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>2638</v>
+        <v>2705</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>2639</v>
+        <v>2706</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>2640</v>
+        <v>2707</v>
       </c>
       <c r="AB30" s="3" t="s">
-        <v>2641</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="31">
@@ -16787,85 +16991,85 @@
         <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2642</v>
+        <v>2709</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>2643</v>
+        <v>2710</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>2644</v>
+        <v>2711</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>2645</v>
+        <v>2712</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>2646</v>
+        <v>2713</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>2647</v>
+        <v>2714</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>2648</v>
+        <v>2715</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>2649</v>
+        <v>2716</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>2650</v>
+        <v>2717</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>2651</v>
+        <v>2718</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>2652</v>
+        <v>2719</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>2653</v>
+        <v>2720</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>2654</v>
+        <v>2721</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>2655</v>
+        <v>2722</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>2656</v>
+        <v>2723</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>2657</v>
+        <v>2724</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>2658</v>
+        <v>2725</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>2659</v>
+        <v>2726</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>2660</v>
+        <v>2727</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>2661</v>
+        <v>2728</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>2662</v>
+        <v>2729</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>2663</v>
+        <v>2730</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>2664</v>
+        <v>2731</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>2665</v>
+        <v>2732</v>
       </c>
       <c r="Z31" s="2" t="s">
-        <v>2666</v>
+        <v>2733</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>2667</v>
+        <v>2734</v>
       </c>
       <c r="AB31" s="3" t="s">
-        <v>2668</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="32">
@@ -16893,65 +17097,65 @@
       <c r="H32" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="K32" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="L32" s="8" t="s">
+      <c r="L32" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="M32" s="8" t="s">
+      <c r="M32" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N32" s="10" t="s">
+      <c r="N32" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="O32" s="10" t="s">
+      <c r="O32" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="P32" s="8" t="s">
+      <c r="P32" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="Q32" s="8" t="s">
+      <c r="Q32" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="R32" s="8" t="s">
+      <c r="R32" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="S32" s="8" t="s">
+      <c r="S32" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="T32" s="8" t="s">
+      <c r="T32" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="U32" s="8" t="s">
+      <c r="U32" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="V32" s="8" t="s">
+      <c r="V32" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="W32" s="8" t="s">
+      <c r="W32" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="X32" s="8" t="s">
+      <c r="X32" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="Y32" s="8" t="s">
+      <c r="Y32" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="Z32" s="8" t="s">
+      <c r="Z32" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="AA32" s="8" t="s">
+      <c r="AA32" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="AB32" s="11" t="s">
-        <v>2669</v>
+      <c r="AB32" s="12" t="s">
+        <v>2736</v>
       </c>
     </row>
     <row r="33">
@@ -16979,65 +17183,65 @@
       <c r="H33" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="I33" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="J33" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="K33" s="8" t="s">
+      <c r="K33" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="L33" s="8" t="s">
+      <c r="L33" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="M33" s="8" t="s">
+      <c r="M33" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N33" s="10" t="s">
+      <c r="N33" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="O33" s="10" t="s">
+      <c r="O33" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="P33" s="8" t="s">
+      <c r="P33" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="Q33" s="8" t="s">
+      <c r="Q33" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="R33" s="8" t="s">
+      <c r="R33" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="S33" s="8" t="s">
+      <c r="S33" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="T33" s="8" t="s">
+      <c r="T33" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="U33" s="8" t="s">
+      <c r="U33" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="V33" s="8" t="s">
+      <c r="V33" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="W33" s="8" t="s">
+      <c r="W33" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="X33" s="8" t="s">
+      <c r="X33" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="Y33" s="8" t="s">
+      <c r="Y33" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="Z33" s="8" t="s">
+      <c r="Z33" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="AA33" s="8" t="s">
+      <c r="AA33" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="AB33" s="11" t="s">
-        <v>2670</v>
+      <c r="AB33" s="12" t="s">
+        <v>2737</v>
       </c>
     </row>
     <row r="34">
@@ -17065,65 +17269,65 @@
       <c r="H34" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="I34" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="J34" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="K34" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="L34" s="8" t="s">
+      <c r="L34" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="M34" s="8" t="s">
+      <c r="M34" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N34" s="10" t="s">
+      <c r="N34" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="O34" s="10" t="s">
+      <c r="O34" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="P34" s="8" t="s">
+      <c r="P34" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="Q34" s="8" t="s">
+      <c r="Q34" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="R34" s="8" t="s">
+      <c r="R34" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="S34" s="8" t="s">
+      <c r="S34" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="T34" s="8" t="s">
+      <c r="T34" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="U34" s="8" t="s">
+      <c r="U34" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="V34" s="8" t="s">
+      <c r="V34" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="W34" s="8" t="s">
+      <c r="W34" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="X34" s="8" t="s">
+      <c r="X34" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="Y34" s="8" t="s">
+      <c r="Y34" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="Z34" s="8" t="s">
+      <c r="Z34" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="AA34" s="8" t="s">
+      <c r="AA34" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="AB34" s="11" t="s">
-        <v>2671</v>
+      <c r="AB34" s="12" t="s">
+        <v>2738</v>
       </c>
     </row>
     <row r="35">
@@ -17151,65 +17355,65 @@
       <c r="H35" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I35" s="8" t="s">
+      <c r="I35" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="J35" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="K35" s="8" t="s">
+      <c r="K35" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="L35" s="8" t="s">
+      <c r="L35" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="M35" s="8" t="s">
+      <c r="M35" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N35" s="10" t="s">
+      <c r="N35" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="O35" s="10" t="s">
+      <c r="O35" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="P35" s="8" t="s">
+      <c r="P35" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="Q35" s="8" t="s">
+      <c r="Q35" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="R35" s="8" t="s">
+      <c r="R35" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="S35" s="8" t="s">
+      <c r="S35" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="T35" s="8" t="s">
+      <c r="T35" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="U35" s="8" t="s">
+      <c r="U35" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="V35" s="8" t="s">
+      <c r="V35" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="W35" s="8" t="s">
+      <c r="W35" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="X35" s="8" t="s">
+      <c r="X35" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="Y35" s="8" t="s">
+      <c r="Y35" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="Z35" s="8" t="s">
+      <c r="Z35" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="AA35" s="8" t="s">
+      <c r="AA35" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="AB35" s="11" t="s">
-        <v>2672</v>
+      <c r="AB35" s="12" t="s">
+        <v>2739</v>
       </c>
     </row>
     <row r="36">
@@ -17217,85 +17421,85 @@
         <v>67</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>2673</v>
+        <v>2740</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>2674</v>
+        <v>2741</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2675</v>
+        <v>2742</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1799</v>
+        <v>1866</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>2676</v>
+        <v>2743</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>2677</v>
+        <v>2744</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>2678</v>
+        <v>2745</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>2679</v>
+        <v>2746</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>2680</v>
+        <v>2747</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>2681</v>
+        <v>2748</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>2682</v>
+        <v>2749</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>2683</v>
+        <v>2750</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>2684</v>
+        <v>2751</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>2685</v>
+        <v>2752</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>2686</v>
+        <v>2753</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>2687</v>
+        <v>2754</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>2688</v>
+        <v>2755</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>2689</v>
+        <v>2756</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>2690</v>
+        <v>2757</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>2691</v>
+        <v>2758</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>2692</v>
+        <v>2759</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>2693</v>
+        <v>2760</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>2694</v>
+        <v>2761</v>
       </c>
       <c r="Y36" s="2" t="s">
-        <v>2695</v>
+        <v>2762</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>2696</v>
+        <v>2763</v>
       </c>
       <c r="AA36" s="2" t="s">
-        <v>2697</v>
+        <v>2764</v>
       </c>
       <c r="AB36" s="3" t="s">
-        <v>2698</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="37">
@@ -17323,65 +17527,65 @@
       <c r="H37" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I37" s="8" t="s">
+      <c r="I37" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="J37" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="K37" s="8" t="s">
+      <c r="K37" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="L37" s="8" t="s">
+      <c r="L37" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="M37" s="8" t="s">
+      <c r="M37" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N37" s="10" t="s">
+      <c r="N37" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="O37" s="10" t="s">
+      <c r="O37" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="P37" s="8" t="s">
+      <c r="P37" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="Q37" s="8" t="s">
+      <c r="Q37" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="R37" s="8" t="s">
+      <c r="R37" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="S37" s="8" t="s">
+      <c r="S37" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="T37" s="8" t="s">
+      <c r="T37" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="U37" s="8" t="s">
+      <c r="U37" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="V37" s="8" t="s">
+      <c r="V37" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="W37" s="8" t="s">
+      <c r="W37" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="X37" s="8" t="s">
+      <c r="X37" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="Y37" s="8" t="s">
+      <c r="Y37" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="Z37" s="8" t="s">
+      <c r="Z37" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="AA37" s="8" t="s">
+      <c r="AA37" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="AB37" s="11" t="s">
-        <v>2699</v>
+      <c r="AB37" s="12" t="s">
+        <v>2766</v>
       </c>
     </row>
     <row r="38">
@@ -17409,65 +17613,65 @@
       <c r="H38" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="I38" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="J38" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="K38" s="8" t="s">
+      <c r="K38" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="L38" s="8" t="s">
+      <c r="L38" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="M38" s="8" t="s">
+      <c r="M38" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N38" s="10" t="s">
+      <c r="N38" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="O38" s="10" t="s">
+      <c r="O38" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="P38" s="8" t="s">
+      <c r="P38" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="Q38" s="8" t="s">
+      <c r="Q38" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="R38" s="8" t="s">
+      <c r="R38" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="S38" s="8" t="s">
+      <c r="S38" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="T38" s="8" t="s">
+      <c r="T38" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="U38" s="8" t="s">
+      <c r="U38" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="V38" s="8" t="s">
+      <c r="V38" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="W38" s="8" t="s">
+      <c r="W38" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="X38" s="8" t="s">
+      <c r="X38" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="Y38" s="8" t="s">
+      <c r="Y38" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="Z38" s="8" t="s">
+      <c r="Z38" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="AA38" s="8" t="s">
+      <c r="AA38" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="AB38" s="11" t="s">
-        <v>2700</v>
+      <c r="AB38" s="12" t="s">
+        <v>2767</v>
       </c>
     </row>
     <row r="39">
@@ -17495,65 +17699,65 @@
       <c r="H39" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I39" s="8" t="s">
+      <c r="I39" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="J39" s="8" t="s">
+      <c r="J39" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="K39" s="8" t="s">
+      <c r="K39" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="L39" s="8" t="s">
+      <c r="L39" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="M39" s="8" t="s">
+      <c r="M39" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N39" s="10" t="s">
+      <c r="N39" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="O39" s="10" t="s">
+      <c r="O39" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="P39" s="8" t="s">
+      <c r="P39" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="Q39" s="8" t="s">
+      <c r="Q39" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="R39" s="8" t="s">
+      <c r="R39" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="S39" s="8" t="s">
+      <c r="S39" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="T39" s="8" t="s">
+      <c r="T39" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="U39" s="8" t="s">
+      <c r="U39" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="V39" s="8" t="s">
+      <c r="V39" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="W39" s="8" t="s">
+      <c r="W39" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="X39" s="8" t="s">
+      <c r="X39" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="Y39" s="8" t="s">
+      <c r="Y39" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="Z39" s="8" t="s">
+      <c r="Z39" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="AA39" s="8" t="s">
+      <c r="AA39" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="AB39" s="11" t="s">
-        <v>2701</v>
+      <c r="AB39" s="12" t="s">
+        <v>2768</v>
       </c>
     </row>
     <row r="40">
@@ -17581,65 +17785,65 @@
       <c r="H40" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I40" s="8" t="s">
+      <c r="I40" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="J40" s="8" t="s">
+      <c r="J40" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="K40" s="8" t="s">
+      <c r="K40" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="L40" s="8" t="s">
+      <c r="L40" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="M40" s="8" t="s">
+      <c r="M40" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N40" s="10" t="s">
+      <c r="N40" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="O40" s="10" t="s">
+      <c r="O40" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="P40" s="8" t="s">
+      <c r="P40" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="Q40" s="8" t="s">
+      <c r="Q40" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="R40" s="8" t="s">
+      <c r="R40" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="S40" s="8" t="s">
+      <c r="S40" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="T40" s="8" t="s">
+      <c r="T40" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="U40" s="8" t="s">
+      <c r="U40" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="V40" s="8" t="s">
+      <c r="V40" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="W40" s="8" t="s">
+      <c r="W40" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="X40" s="8" t="s">
+      <c r="X40" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="Y40" s="8" t="s">
+      <c r="Y40" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="Z40" s="8" t="s">
+      <c r="Z40" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="AA40" s="8" t="s">
+      <c r="AA40" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="AB40" s="11" t="s">
-        <v>2702</v>
+      <c r="AB40" s="12" t="s">
+        <v>2769</v>
       </c>
     </row>
     <row r="41">
@@ -17667,65 +17871,65 @@
       <c r="H41" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I41" s="8" t="s">
+      <c r="I41" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="J41" s="8" t="s">
+      <c r="J41" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="K41" s="8" t="s">
+      <c r="K41" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="L41" s="8" t="s">
+      <c r="L41" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="M41" s="8" t="s">
+      <c r="M41" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N41" s="10" t="s">
+      <c r="N41" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="O41" s="10" t="s">
+      <c r="O41" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="P41" s="8" t="s">
+      <c r="P41" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="Q41" s="8" t="s">
+      <c r="Q41" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="R41" s="8" t="s">
+      <c r="R41" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="S41" s="8" t="s">
+      <c r="S41" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="T41" s="8" t="s">
+      <c r="T41" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="U41" s="8" t="s">
+      <c r="U41" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="V41" s="8" t="s">
+      <c r="V41" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="W41" s="8" t="s">
+      <c r="W41" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="X41" s="8" t="s">
+      <c r="X41" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="Y41" s="8" t="s">
+      <c r="Y41" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="Z41" s="8" t="s">
+      <c r="Z41" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="AA41" s="8" t="s">
+      <c r="AA41" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="AB41" s="11" t="s">
-        <v>2703</v>
+      <c r="AB41" s="12" t="s">
+        <v>2770</v>
       </c>
     </row>
     <row r="42">
@@ -17753,151 +17957,151 @@
       <c r="H42" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I42" s="8" t="s">
+      <c r="I42" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="J42" s="8" t="s">
+      <c r="J42" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="K42" s="8" t="s">
+      <c r="K42" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="L42" s="8" t="s">
+      <c r="L42" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="M42" s="8" t="s">
+      <c r="M42" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N42" s="10" t="s">
+      <c r="N42" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="O42" s="10" t="s">
+      <c r="O42" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="P42" s="8" t="s">
+      <c r="P42" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="Q42" s="8" t="s">
+      <c r="Q42" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="R42" s="8" t="s">
+      <c r="R42" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="S42" s="8" t="s">
+      <c r="S42" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="T42" s="8" t="s">
+      <c r="T42" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="U42" s="8" t="s">
+      <c r="U42" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="V42" s="8" t="s">
+      <c r="V42" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="W42" s="8" t="s">
+      <c r="W42" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="X42" s="8" t="s">
+      <c r="X42" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="Y42" s="8" t="s">
+      <c r="Y42" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="Z42" s="8" t="s">
+      <c r="Z42" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="AA42" s="8" t="s">
+      <c r="AA42" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="AB42" s="11" t="s">
+      <c r="AB42" s="12" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2704</v>
+        <v>2771</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2705</v>
+        <v>2772</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2706</v>
+        <v>2773</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>2707</v>
+        <v>2774</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>2708</v>
+        <v>2775</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>2709</v>
+        <v>2776</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>2710</v>
+        <v>2777</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>2711</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>2712</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>2713</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>2714</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>2715</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>2716</v>
-      </c>
-      <c r="N43" s="10" t="s">
-        <v>2717</v>
-      </c>
-      <c r="O43" s="10" t="s">
-        <v>2718</v>
-      </c>
-      <c r="P43" s="8" t="s">
-        <v>2719</v>
-      </c>
-      <c r="Q43" s="8" t="s">
-        <v>2720</v>
-      </c>
-      <c r="R43" s="8" t="s">
-        <v>2721</v>
-      </c>
-      <c r="S43" s="8" t="s">
-        <v>2722</v>
-      </c>
-      <c r="T43" s="8" t="s">
-        <v>2723</v>
-      </c>
-      <c r="U43" s="8" t="s">
-        <v>2724</v>
-      </c>
-      <c r="V43" s="8" t="s">
-        <v>2725</v>
-      </c>
-      <c r="W43" s="8" t="s">
-        <v>2726</v>
-      </c>
-      <c r="X43" s="8" t="s">
-        <v>2727</v>
-      </c>
-      <c r="Y43" s="8" t="s">
-        <v>2728</v>
-      </c>
-      <c r="Z43" s="8" t="s">
-        <v>2729</v>
-      </c>
-      <c r="AA43" s="8" t="s">
-        <v>2730</v>
-      </c>
-      <c r="AB43" s="11" t="s">
-        <v>2251</v>
+        <v>2778</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>2779</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>2780</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>2781</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>2782</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>2783</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>2784</v>
+      </c>
+      <c r="O43" s="11" t="s">
+        <v>2785</v>
+      </c>
+      <c r="P43" s="9" t="s">
+        <v>2786</v>
+      </c>
+      <c r="Q43" s="9" t="s">
+        <v>2787</v>
+      </c>
+      <c r="R43" s="9" t="s">
+        <v>2788</v>
+      </c>
+      <c r="S43" s="9" t="s">
+        <v>2789</v>
+      </c>
+      <c r="T43" s="9" t="s">
+        <v>2790</v>
+      </c>
+      <c r="U43" s="9" t="s">
+        <v>2791</v>
+      </c>
+      <c r="V43" s="9" t="s">
+        <v>2792</v>
+      </c>
+      <c r="W43" s="9" t="s">
+        <v>2793</v>
+      </c>
+      <c r="X43" s="9" t="s">
+        <v>2794</v>
+      </c>
+      <c r="Y43" s="9" t="s">
+        <v>2795</v>
+      </c>
+      <c r="Z43" s="9" t="s">
+        <v>2796</v>
+      </c>
+      <c r="AA43" s="9" t="s">
+        <v>2797</v>
+      </c>
+      <c r="AB43" s="12" t="s">
+        <v>2318</v>
       </c>
     </row>
   </sheetData>
@@ -17923,7 +18127,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2731</v>
+        <v>2798</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -17937,16 +18141,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2732</v>
+        <v>2799</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2733</v>
+        <v>2800</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2734</v>
+        <v>2801</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>2735</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="3">
@@ -17954,10 +18158,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2736</v>
+        <v>2803</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2737</v>
+        <v>2804</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>19</v>
@@ -17968,10 +18172,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2738</v>
+        <v>2805</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>2739</v>
+        <v>2806</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>19</v>
@@ -17982,10 +18186,10 @@
         <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2740</v>
+        <v>2807</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2741</v>
+        <v>2808</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>19</v>
@@ -17996,10 +18200,10 @@
         <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2742</v>
+        <v>2809</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>2743</v>
+        <v>2810</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>19</v>
@@ -18010,10 +18214,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>2744</v>
+        <v>2811</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2745</v>
+        <v>2812</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>19</v>
@@ -18024,10 +18228,10 @@
         <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>2746</v>
+        <v>2813</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2747</v>
+        <v>2814</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>19</v>
@@ -18038,10 +18242,10 @@
         <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>2748</v>
+        <v>2815</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>2749</v>
+        <v>2816</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>19</v>
@@ -18052,10 +18256,10 @@
         <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2750</v>
+        <v>2817</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>2751</v>
+        <v>2818</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>19</v>
@@ -18066,10 +18270,10 @@
         <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>2752</v>
+        <v>2819</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>2753</v>
+        <v>2820</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>19</v>
@@ -18080,10 +18284,10 @@
         <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>2754</v>
+        <v>2821</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>2755</v>
+        <v>2822</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>19</v>
@@ -18094,10 +18298,10 @@
         <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2756</v>
+        <v>2823</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>2757</v>
+        <v>2824</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>19</v>
@@ -18108,10 +18312,10 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2758</v>
+        <v>2825</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>2759</v>
+        <v>2826</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>19</v>
@@ -18122,10 +18326,10 @@
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>2760</v>
+        <v>2827</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>2761</v>
+        <v>2828</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>19</v>
@@ -18136,10 +18340,10 @@
         <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>2762</v>
+        <v>2829</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>2763</v>
+        <v>2830</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>19</v>
@@ -18150,10 +18354,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>2764</v>
+        <v>2831</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>2765</v>
+        <v>2832</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>19</v>
@@ -18164,10 +18368,10 @@
         <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>2766</v>
+        <v>2833</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>2767</v>
+        <v>2834</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>19</v>
@@ -18178,10 +18382,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>2768</v>
+        <v>2835</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>2769</v>
+        <v>2836</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>19</v>
@@ -18192,10 +18396,10 @@
         <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>2770</v>
+        <v>2837</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>2771</v>
+        <v>2838</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>19</v>
@@ -18206,10 +18410,10 @@
         <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>2772</v>
+        <v>2839</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>2773</v>
+        <v>2840</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>19</v>
@@ -18220,10 +18424,10 @@
         <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>2774</v>
+        <v>2841</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>2775</v>
+        <v>2842</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>19</v>
@@ -18234,10 +18438,10 @@
         <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>2776</v>
+        <v>2843</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>2777</v>
+        <v>2844</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>19</v>
@@ -18248,10 +18452,10 @@
         <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>2778</v>
+        <v>2845</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>2779</v>
+        <v>2846</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>19</v>
@@ -18262,10 +18466,10 @@
         <v>41</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>2780</v>
+        <v>2847</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>2781</v>
+        <v>2848</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>19</v>
@@ -18276,10 +18480,10 @@
         <v>42</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>2782</v>
+        <v>2849</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>2783</v>
+        <v>2850</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>19</v>
@@ -18290,10 +18494,10 @@
         <v>43</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>2784</v>
+        <v>2851</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>2785</v>
+        <v>2852</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>19</v>
@@ -18304,10 +18508,10 @@
         <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>2786</v>
+        <v>2853</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>2787</v>
+        <v>2854</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>19</v>
@@ -18318,13 +18522,13 @@
         <v>45</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>2788</v>
+        <v>2855</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>2789</v>
+        <v>2856</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>2790</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="30">
@@ -18332,13 +18536,13 @@
         <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>2791</v>
+        <v>2858</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>2792</v>
+        <v>2859</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>2793</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="31">
@@ -18346,13 +18550,13 @@
         <v>62</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>2794</v>
+        <v>2861</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>2795</v>
+        <v>2862</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>2796</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="32">
@@ -18360,13 +18564,13 @@
         <v>63</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>2797</v>
+        <v>2864</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>2798</v>
+        <v>2865</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>2799</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="33">
@@ -18374,13 +18578,13 @@
         <v>64</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>2800</v>
+        <v>2867</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>2801</v>
+        <v>2868</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>2802</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="34">
@@ -18388,13 +18592,13 @@
         <v>65</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>2803</v>
+        <v>2870</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>2804</v>
+        <v>2871</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>2805</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="35">
@@ -18408,7 +18612,7 @@
         <v>56</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>2806</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="36">
@@ -18416,13 +18620,13 @@
         <v>67</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>2807</v>
+        <v>2874</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>2808</v>
+        <v>2875</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>2809</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="37">
@@ -18430,13 +18634,13 @@
         <v>76</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>2810</v>
+        <v>2877</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>2811</v>
+        <v>2878</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>2812</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="38">
@@ -18444,13 +18648,13 @@
         <v>77</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>2813</v>
+        <v>2880</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>2814</v>
+        <v>2881</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>2815</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="39">
@@ -18464,7 +18668,7 @@
         <v>56</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>2816</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="40">
@@ -18478,7 +18682,7 @@
         <v>56</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>2817</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="41">
@@ -18486,10 +18690,10 @@
         <v>80</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>2818</v>
+        <v>2885</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>2819</v>
+        <v>2886</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>295</v>
@@ -18511,16 +18715,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2820</v>
+        <v>2887</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2821</v>
+        <v>2888</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2822</v>
+        <v>2889</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>2823</v>
+        <v>2890</v>
       </c>
     </row>
   </sheetData>
@@ -23077,6 +23281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -24334,6 +24539,9 @@
       </c>
     </row>
   </sheetData>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>

--- a/iceKnives32/Offline Documents (Periodic)/iceKnives32.xlsx
+++ b/iceKnives32/Offline Documents (Periodic)/iceKnives32.xlsx
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="2891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="2893">
   <si>
     <t>[]</t>
   </si>
@@ -5127,6 +5127,9 @@
     <t>sun.ai</t>
   </si>
   <si>
+    <t>'166'</t>
+  </si>
+  <si>
     <t>planet</t>
   </si>
   <si>
@@ -5146,6 +5149,9 @@
   </si>
   <si>
     <t>pol.io</t>
+  </si>
+  <si>
+    <t>'171'</t>
   </si>
   <si>
     <t>satellite</t>
@@ -10593,6 +10599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10686,7 +10693,7 @@
         <v>1603</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>19</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="4">
@@ -10694,28 +10701,28 @@
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>19</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="5">
@@ -10723,28 +10730,28 @@
         <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>19</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6">
@@ -10752,28 +10759,28 @@
         <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>19</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7">
@@ -10781,28 +10788,28 @@
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>19</v>
+        <v>688</v>
       </c>
     </row>
     <row r="8">
@@ -10810,28 +10817,28 @@
         <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>19</v>
+        <v>725</v>
       </c>
     </row>
     <row r="9">
@@ -10839,7 +10846,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>18</v>
@@ -10851,13 +10858,13 @@
         <v>18</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>19</v>
@@ -10868,7 +10875,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>18</v>
@@ -10883,10 +10890,10 @@
         <v>18</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>19</v>
@@ -10897,7 +10904,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
@@ -10912,10 +10919,10 @@
         <v>18</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>19</v>
@@ -10926,7 +10933,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>18</v>
@@ -10941,10 +10948,10 @@
         <v>18</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>19</v>
@@ -10955,7 +10962,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>18</v>
@@ -10970,10 +10977,10 @@
         <v>18</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>19</v>
@@ -10984,7 +10991,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -10999,10 +11006,10 @@
         <v>18</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>19</v>
@@ -11013,7 +11020,7 @@
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>18</v>
@@ -11028,10 +11035,10 @@
         <v>18</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>19</v>
@@ -11057,7 +11064,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>18</v>
@@ -11361,7 +11368,7 @@
         <v>43</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>18</v>
@@ -11390,7 +11397,7 @@
         <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>18</v>
@@ -11822,7 +11829,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>91</v>
@@ -11846,10 +11853,13 @@
         <v>97</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
     </row>
   </sheetData>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -11872,7 +11882,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -11901,28 +11911,28 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>303</v>
@@ -11933,25 +11943,25 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>19</v>
@@ -11962,25 +11972,25 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>1012</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>19</v>
@@ -11991,25 +12001,25 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>1027</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>19</v>
@@ -12020,25 +12030,25 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>747</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>19</v>
@@ -12049,25 +12059,25 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>456</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>19</v>
@@ -12078,25 +12088,25 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>124</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>19</v>
@@ -12107,25 +12117,25 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>360</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>19</v>
@@ -12136,25 +12146,25 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>19</v>
@@ -12165,25 +12175,25 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>488</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>19</v>
@@ -12194,25 +12204,25 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1119</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>19</v>
@@ -12223,25 +12233,25 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>470</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>19</v>
@@ -12252,25 +12262,25 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>211</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>19</v>
@@ -12281,25 +12291,25 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>19</v>
@@ -12310,25 +12320,25 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>625</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>19</v>
@@ -12339,25 +12349,25 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>768</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>1767</v>
+        <v>1769</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>19</v>
@@ -12368,25 +12378,25 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>845</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>19</v>
@@ -12397,25 +12407,25 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>1311</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>19</v>
@@ -12426,25 +12436,25 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>1784</v>
+        <v>1786</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>19</v>
@@ -12455,25 +12465,25 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1787</v>
+        <v>1789</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>1793</v>
+        <v>1795</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>19</v>
@@ -12484,25 +12494,25 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1794</v>
+        <v>1796</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1795</v>
+        <v>1797</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>932</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>1797</v>
+        <v>1799</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>1798</v>
+        <v>1800</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>1799</v>
+        <v>1801</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>19</v>
@@ -12513,25 +12523,25 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1803</v>
+        <v>1805</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1805</v>
+        <v>1807</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>1806</v>
+        <v>1808</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>19</v>
@@ -12542,25 +12552,25 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1807</v>
+        <v>1809</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1808</v>
+        <v>1810</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>472</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1809</v>
+        <v>1811</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>1810</v>
+        <v>1812</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>19</v>
@@ -12571,25 +12581,25 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1813</v>
+        <v>1815</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>424</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1815</v>
+        <v>1817</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>1816</v>
+        <v>1818</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>19</v>
@@ -12600,25 +12610,25 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>925</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>1822</v>
+        <v>1824</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1823</v>
+        <v>1825</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>1824</v>
+        <v>1826</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>19</v>
@@ -12629,25 +12639,25 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>1383</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>1828</v>
+        <v>1830</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>1829</v>
+        <v>1831</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>1830</v>
+        <v>1832</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>19</v>
@@ -12658,25 +12668,25 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1831</v>
+        <v>1833</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>429</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>1834</v>
+        <v>1836</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>19</v>
@@ -12687,25 +12697,25 @@
         <v>45</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1837</v>
+        <v>1839</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>373</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>335</v>
@@ -12716,28 +12726,28 @@
         <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1843</v>
+        <v>1845</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1845</v>
+        <v>1847</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>1850</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="31">
@@ -12745,28 +12755,28 @@
         <v>62</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1852</v>
+        <v>1854</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1853</v>
+        <v>1855</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>1854</v>
+        <v>1856</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>1855</v>
+        <v>1857</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>1857</v>
+        <v>1859</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>1858</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="32">
@@ -12795,7 +12805,7 @@
         <v>61</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>1859</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="33">
@@ -12824,7 +12834,7 @@
         <v>61</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>1860</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="34">
@@ -12853,7 +12863,7 @@
         <v>61</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>1861</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="35">
@@ -12882,7 +12892,7 @@
         <v>61</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>1862</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="36">
@@ -12890,28 +12900,28 @@
         <v>67</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1863</v>
+        <v>1865</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1864</v>
+        <v>1866</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>1867</v>
+        <v>1869</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>1868</v>
+        <v>1870</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>1869</v>
+        <v>1871</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="37">
@@ -12940,7 +12950,7 @@
         <v>61</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>1871</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="38">
@@ -12969,7 +12979,7 @@
         <v>61</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="39">
@@ -12998,7 +13008,7 @@
         <v>61</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>1873</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="40">
@@ -13027,7 +13037,7 @@
         <v>61</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>1874</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="41">
@@ -13056,7 +13066,7 @@
         <v>61</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="42">
@@ -13090,31 +13100,31 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1876</v>
+        <v>1878</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1877</v>
+        <v>1879</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1878</v>
+        <v>1880</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>1880</v>
+        <v>1882</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>1882</v>
+        <v>1884</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>1883</v>
+        <v>1885</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1884</v>
+        <v>1886</v>
       </c>
     </row>
   </sheetData>
@@ -13141,7 +13151,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1885</v>
+        <v>1887</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -13170,28 +13180,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1886</v>
+        <v>1888</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1887</v>
+        <v>1889</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1888</v>
+        <v>1890</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1889</v>
+        <v>1891</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1890</v>
+        <v>1892</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1891</v>
+        <v>1893</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1892</v>
+        <v>1894</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>19</v>
@@ -13202,13 +13212,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1896</v>
+        <v>1898</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>18</v>
@@ -13231,13 +13241,13 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1897</v>
+        <v>1899</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1898</v>
+        <v>1900</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1899</v>
+        <v>1901</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -13260,13 +13270,13 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1900</v>
+        <v>1902</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1902</v>
+        <v>1904</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>18</v>
@@ -13289,13 +13299,13 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1903</v>
+        <v>1905</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1904</v>
+        <v>1906</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1905</v>
+        <v>1907</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>18</v>
@@ -13318,13 +13328,13 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1906</v>
+        <v>1908</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1907</v>
+        <v>1909</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1908</v>
+        <v>1910</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>18</v>
@@ -13347,13 +13357,13 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1909</v>
+        <v>1911</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1910</v>
+        <v>1912</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1911</v>
+        <v>1913</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>18</v>
@@ -13376,13 +13386,13 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1912</v>
+        <v>1914</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1913</v>
+        <v>1915</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1914</v>
+        <v>1916</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>18</v>
@@ -13405,13 +13415,13 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1915</v>
+        <v>1917</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1917</v>
+        <v>1919</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>18</v>
@@ -13434,13 +13444,13 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1918</v>
+        <v>1920</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1919</v>
+        <v>1921</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1920</v>
+        <v>1922</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>18</v>
@@ -13463,13 +13473,13 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1921</v>
+        <v>1923</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1922</v>
+        <v>1924</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1923</v>
+        <v>1925</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>18</v>
@@ -13492,13 +13502,13 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1925</v>
+        <v>1927</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>18</v>
@@ -13521,13 +13531,13 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1928</v>
+        <v>1930</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1929</v>
+        <v>1931</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>18</v>
@@ -13550,13 +13560,13 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1931</v>
+        <v>1933</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>18</v>
@@ -13579,13 +13589,13 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1934</v>
+        <v>1936</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>18</v>
@@ -13608,13 +13618,13 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1936</v>
+        <v>1938</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1938</v>
+        <v>1940</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>18</v>
@@ -13637,13 +13647,13 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1939</v>
+        <v>1941</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1940</v>
+        <v>1942</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1941</v>
+        <v>1943</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>18</v>
@@ -13666,13 +13676,13 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1942</v>
+        <v>1944</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1943</v>
+        <v>1945</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1944</v>
+        <v>1946</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>18</v>
@@ -13695,13 +13705,13 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1945</v>
+        <v>1947</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1946</v>
+        <v>1948</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1947</v>
+        <v>1949</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>18</v>
@@ -13724,13 +13734,13 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1948</v>
+        <v>1950</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1950</v>
+        <v>1952</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>18</v>
@@ -13753,13 +13763,13 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1951</v>
+        <v>1953</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1952</v>
+        <v>1954</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>18</v>
@@ -13782,13 +13792,13 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1954</v>
+        <v>1956</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>18</v>
@@ -13811,13 +13821,13 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>1959</v>
+        <v>1961</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>18</v>
@@ -13840,13 +13850,13 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1960</v>
+        <v>1962</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1961</v>
+        <v>1963</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>1962</v>
+        <v>1964</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>18</v>
@@ -13869,13 +13879,13 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1963</v>
+        <v>1965</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1964</v>
+        <v>1966</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>18</v>
@@ -13898,13 +13908,13 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1967</v>
+        <v>1969</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>1968</v>
+        <v>1970</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>18</v>
@@ -13927,13 +13937,13 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1969</v>
+        <v>1971</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1970</v>
+        <v>1972</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>1971</v>
+        <v>1973</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>18</v>
@@ -13956,25 +13966,25 @@
         <v>45</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1972</v>
+        <v>1974</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1973</v>
+        <v>1975</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>1974</v>
+        <v>1976</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1975</v>
+        <v>1977</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>1976</v>
+        <v>1978</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1977</v>
+        <v>1979</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>1978</v>
+        <v>1980</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>19</v>
@@ -14359,31 +14369,31 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1979</v>
+        <v>1981</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1980</v>
+        <v>1982</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1982</v>
+        <v>1984</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>1984</v>
+        <v>1986</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1987</v>
+        <v>1989</v>
       </c>
     </row>
   </sheetData>
@@ -14408,7 +14418,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1988</v>
+        <v>1990</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -14432,61 +14442,61 @@
         <v>7</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>1989</v>
+        <v>1991</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="Y1" s="9" t="s">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>8</v>
@@ -14494,88 +14504,88 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1885</v>
+        <v>1887</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>1806</v>
+        <v>1808</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>2027</v>
+        <v>2029</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>2029</v>
+        <v>2031</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>2030</v>
+        <v>2032</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>2031</v>
+        <v>2033</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>2032</v>
+        <v>2034</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>2033</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="3">
@@ -14583,85 +14593,85 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2034</v>
+        <v>2036</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>2035</v>
+        <v>2037</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>2036</v>
+        <v>2038</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>2037</v>
+        <v>2039</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>2038</v>
+        <v>2040</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>2039</v>
+        <v>2041</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>2040</v>
+        <v>2042</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>2041</v>
+        <v>2043</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>2042</v>
+        <v>2044</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>2044</v>
+        <v>2046</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>2045</v>
+        <v>2047</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>1808</v>
+        <v>1810</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>2046</v>
+        <v>2048</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>2047</v>
+        <v>2049</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>2048</v>
+        <v>2050</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>2049</v>
+        <v>2051</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>2050</v>
+        <v>2052</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>2052</v>
+        <v>2054</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>2054</v>
+        <v>2056</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="AB3" s="12" t="s">
-        <v>2055</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="4">
@@ -14669,85 +14679,85 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2056</v>
+        <v>2058</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>2057</v>
+        <v>2059</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>2058</v>
+        <v>2060</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>2059</v>
+        <v>2061</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>2060</v>
+        <v>2062</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>2061</v>
+        <v>2063</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>2062</v>
+        <v>2064</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>2063</v>
+        <v>2065</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>2064</v>
+        <v>2066</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>2065</v>
+        <v>2067</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>2067</v>
+        <v>2069</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>2068</v>
+        <v>2070</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>2069</v>
+        <v>2071</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>2070</v>
+        <v>2072</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>2071</v>
+        <v>2073</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>2072</v>
+        <v>2074</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>2073</v>
+        <v>2075</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>2074</v>
+        <v>2076</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>2075</v>
+        <v>2077</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>2076</v>
+        <v>2078</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>2077</v>
+        <v>2079</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>2078</v>
+        <v>2080</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>2079</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="5">
@@ -14755,85 +14765,85 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2080</v>
+        <v>2082</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>2081</v>
+        <v>2083</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>2082</v>
+        <v>2084</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>2083</v>
+        <v>2085</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>2085</v>
+        <v>2087</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>1815</v>
+        <v>1817</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>2086</v>
+        <v>2088</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>2087</v>
+        <v>2089</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>2088</v>
+        <v>2090</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>1823</v>
+        <v>1825</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>2089</v>
+        <v>2091</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>2090</v>
+        <v>2092</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>2091</v>
+        <v>2093</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>2092</v>
+        <v>2094</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>2093</v>
+        <v>2095</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>2094</v>
+        <v>2096</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>2096</v>
+        <v>2098</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>2097</v>
+        <v>2099</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>2098</v>
+        <v>2100</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>2099</v>
+        <v>2101</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>2100</v>
+        <v>2102</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>2101</v>
+        <v>2103</v>
       </c>
       <c r="AB5" s="12" t="s">
-        <v>2102</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="6">
@@ -14841,85 +14851,85 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>2103</v>
+        <v>2105</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>2104</v>
+        <v>2106</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>2105</v>
+        <v>2107</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>2106</v>
+        <v>2108</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>2107</v>
+        <v>2109</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>2108</v>
+        <v>2110</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>2109</v>
+        <v>2111</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>2110</v>
+        <v>2112</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>2111</v>
+        <v>2113</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>2112</v>
+        <v>2114</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>2113</v>
+        <v>2115</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>2114</v>
+        <v>2116</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>2115</v>
+        <v>2117</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>2116</v>
+        <v>2118</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>2117</v>
+        <v>2119</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>2118</v>
+        <v>2120</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>2119</v>
+        <v>2121</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>2120</v>
+        <v>2122</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>2121</v>
+        <v>2123</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>2122</v>
+        <v>2124</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>2123</v>
+        <v>2125</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>2124</v>
+        <v>2126</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>2125</v>
+        <v>2127</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>2126</v>
+        <v>2128</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="AB6" s="12" t="s">
-        <v>2127</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="7">
@@ -14927,85 +14937,85 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>2128</v>
+        <v>2130</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>2129</v>
+        <v>2131</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>2130</v>
+        <v>2132</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>2131</v>
+        <v>2133</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>2132</v>
+        <v>2134</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>2133</v>
+        <v>2135</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>1807</v>
+        <v>1809</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>2134</v>
+        <v>2136</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>2135</v>
+        <v>2137</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>2136</v>
+        <v>2138</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>1828</v>
+        <v>1830</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>2137</v>
+        <v>2139</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>2138</v>
+        <v>2140</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>2139</v>
+        <v>2141</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>2140</v>
+        <v>2142</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>2141</v>
+        <v>2143</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>2142</v>
+        <v>2144</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>2143</v>
+        <v>2145</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>2144</v>
+        <v>2146</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>2145</v>
+        <v>2147</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>2146</v>
+        <v>2148</v>
       </c>
       <c r="AB7" s="12" t="s">
-        <v>2147</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="8">
@@ -15013,85 +15023,85 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>2148</v>
+        <v>2150</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2149</v>
+        <v>2151</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>2150</v>
+        <v>2152</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>2151</v>
+        <v>2153</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>2152</v>
+        <v>2154</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>2153</v>
+        <v>2155</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>2154</v>
+        <v>2156</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>2155</v>
+        <v>2157</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>2156</v>
+        <v>2158</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>2157</v>
+        <v>2159</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>1787</v>
+        <v>1789</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>2158</v>
+        <v>2160</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>2159</v>
+        <v>2161</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>2160</v>
+        <v>2162</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>2161</v>
+        <v>2163</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>2162</v>
+        <v>2164</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>2163</v>
+        <v>2165</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>2164</v>
+        <v>2166</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>2165</v>
+        <v>2167</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>2166</v>
+        <v>2168</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>2167</v>
+        <v>2169</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>2168</v>
+        <v>2170</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>2169</v>
+        <v>2171</v>
       </c>
       <c r="AB8" s="12" t="s">
-        <v>2170</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="9">
@@ -15099,85 +15109,85 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>2171</v>
+        <v>2173</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>2172</v>
+        <v>2174</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>2173</v>
+        <v>2175</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>2174</v>
+        <v>2176</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>2175</v>
+        <v>2177</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>2176</v>
+        <v>2178</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>2177</v>
+        <v>2179</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>2178</v>
+        <v>2180</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>2179</v>
+        <v>2181</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>2180</v>
+        <v>2182</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>2181</v>
+        <v>2183</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>2182</v>
+        <v>2184</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>2183</v>
+        <v>2185</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>2184</v>
+        <v>2186</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>2185</v>
+        <v>2187</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>2186</v>
+        <v>2188</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>2187</v>
+        <v>2189</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>2188</v>
+        <v>2190</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>2189</v>
+        <v>2191</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>2190</v>
+        <v>2192</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>2191</v>
+        <v>2193</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>2192</v>
+        <v>2194</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>2193</v>
+        <v>2195</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>2194</v>
+        <v>2196</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>2195</v>
+        <v>2197</v>
       </c>
       <c r="AB9" s="12" t="s">
-        <v>2196</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="10">
@@ -15185,85 +15195,85 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>2197</v>
+        <v>2199</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>2198</v>
+        <v>2200</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>2199</v>
+        <v>2201</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>2200</v>
+        <v>2202</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>2201</v>
+        <v>2203</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>2202</v>
+        <v>2204</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>2203</v>
+        <v>2205</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>2204</v>
+        <v>2206</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>2205</v>
+        <v>2207</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>2206</v>
+        <v>2208</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>2207</v>
+        <v>2209</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>2208</v>
+        <v>2210</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>2209</v>
+        <v>2211</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>2210</v>
+        <v>2212</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>2211</v>
+        <v>2213</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>2213</v>
+        <v>2215</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>2214</v>
+        <v>2216</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>1797</v>
+        <v>1799</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>2218</v>
+        <v>2220</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>2219</v>
+        <v>2221</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>2220</v>
+        <v>2222</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>2221</v>
+        <v>2223</v>
       </c>
       <c r="AB10" s="12" t="s">
-        <v>2055</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="11">
@@ -15271,85 +15281,85 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>2222</v>
+        <v>2224</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>2223</v>
+        <v>2225</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>2224</v>
+        <v>2226</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>2225</v>
+        <v>2227</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>2227</v>
+        <v>2229</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>2228</v>
+        <v>2230</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>2229</v>
+        <v>2231</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>2230</v>
+        <v>2232</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>2231</v>
+        <v>2233</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>2233</v>
+        <v>2235</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>2234</v>
+        <v>2236</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>2235</v>
+        <v>2237</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>2236</v>
+        <v>2238</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>2237</v>
+        <v>2239</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>2238</v>
+        <v>2240</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>2239</v>
+        <v>2241</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>2240</v>
+        <v>2242</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>2241</v>
+        <v>2243</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>2242</v>
+        <v>2244</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>2243</v>
+        <v>2245</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>2244</v>
+        <v>2246</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>2245</v>
+        <v>2247</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>2246</v>
+        <v>2248</v>
       </c>
       <c r="AB11" s="12" t="s">
-        <v>2079</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="12">
@@ -15357,85 +15367,85 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>2247</v>
+        <v>2249</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>2248</v>
+        <v>2250</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>2250</v>
+        <v>2252</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>2251</v>
+        <v>2253</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>2252</v>
+        <v>2254</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>2253</v>
+        <v>2255</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>2254</v>
+        <v>2256</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>2255</v>
+        <v>2257</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>1829</v>
+        <v>1831</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>2256</v>
+        <v>2258</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>2257</v>
+        <v>2259</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>2258</v>
+        <v>2260</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>2259</v>
+        <v>2261</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>2260</v>
+        <v>2262</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>2261</v>
+        <v>2263</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>2262</v>
+        <v>2264</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>2263</v>
+        <v>2265</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>2264</v>
+        <v>2266</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>2265</v>
+        <v>2267</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>2266</v>
+        <v>2268</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>2267</v>
+        <v>2269</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>2268</v>
+        <v>2270</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>2269</v>
+        <v>2271</v>
       </c>
       <c r="AB12" s="12" t="s">
-        <v>2270</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="13">
@@ -15443,85 +15453,85 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>2271</v>
+        <v>2273</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>2272</v>
+        <v>2274</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>2273</v>
+        <v>2275</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>2274</v>
+        <v>2276</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>2275</v>
+        <v>2277</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>2277</v>
+        <v>2279</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>2279</v>
+        <v>2281</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>2280</v>
+        <v>2282</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>2281</v>
+        <v>2283</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>2282</v>
+        <v>2284</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>2283</v>
+        <v>2285</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>2284</v>
+        <v>2286</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>2285</v>
+        <v>2287</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>2286</v>
+        <v>2288</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>2287</v>
+        <v>2289</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>2288</v>
+        <v>2290</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>2289</v>
+        <v>2291</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>2290</v>
+        <v>2292</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>2291</v>
+        <v>2293</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>2292</v>
+        <v>2294</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>2293</v>
+        <v>2295</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>2294</v>
+        <v>2296</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>2295</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="14">
@@ -15529,85 +15539,85 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>2296</v>
+        <v>2298</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>2297</v>
+        <v>2299</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>2298</v>
+        <v>2300</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>2299</v>
+        <v>2301</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>2300</v>
+        <v>2302</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>2301</v>
+        <v>2303</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>2302</v>
+        <v>2304</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>2303</v>
+        <v>2305</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>2304</v>
+        <v>2306</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>2305</v>
+        <v>2307</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>1831</v>
+        <v>1833</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>2307</v>
+        <v>2309</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>2308</v>
+        <v>2310</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>2309</v>
+        <v>2311</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>2310</v>
+        <v>2312</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>2312</v>
+        <v>2314</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>2313</v>
+        <v>2315</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>2314</v>
+        <v>2316</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>2317</v>
+        <v>2319</v>
       </c>
       <c r="AB14" s="12" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="15">
@@ -15615,85 +15625,85 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>2319</v>
+        <v>2321</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>2323</v>
+        <v>2325</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>2324</v>
+        <v>2326</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>2325</v>
+        <v>2327</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>2326</v>
+        <v>2328</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>2327</v>
+        <v>2329</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>2328</v>
+        <v>2330</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>2329</v>
+        <v>2331</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>2332</v>
+        <v>2334</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>2333</v>
+        <v>2335</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>2334</v>
+        <v>2336</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>2335</v>
+        <v>2337</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>2336</v>
+        <v>2338</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>2337</v>
+        <v>2339</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="AB15" s="12" t="s">
-        <v>2338</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="16">
@@ -15701,85 +15711,85 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>2339</v>
+        <v>2341</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>2340</v>
+        <v>2342</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>2341</v>
+        <v>2343</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>2342</v>
+        <v>2344</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>2343</v>
+        <v>2345</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>2344</v>
+        <v>2346</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>2345</v>
+        <v>2347</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>2346</v>
+        <v>2348</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>2347</v>
+        <v>2349</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>2348</v>
+        <v>2350</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>2349</v>
+        <v>2351</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>2350</v>
+        <v>2352</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>2351</v>
+        <v>2353</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>2352</v>
+        <v>2354</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>2353</v>
+        <v>2355</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>2354</v>
+        <v>2356</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>2355</v>
+        <v>2357</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>2356</v>
+        <v>2358</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>2357</v>
+        <v>2359</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>2358</v>
+        <v>2360</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>2359</v>
+        <v>2361</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>2360</v>
+        <v>2362</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>2361</v>
+        <v>2363</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>2362</v>
+        <v>2364</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>2363</v>
+        <v>2365</v>
       </c>
       <c r="AB16" s="12" t="s">
-        <v>2364</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="17">
@@ -15787,85 +15797,85 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>2365</v>
+        <v>2367</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>2367</v>
+        <v>2369</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>2368</v>
+        <v>2370</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>2369</v>
+        <v>2371</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>2370</v>
+        <v>2372</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>2371</v>
+        <v>2373</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>2372</v>
+        <v>2374</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>1798</v>
+        <v>1800</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>2373</v>
+        <v>2375</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>2374</v>
+        <v>2376</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>2375</v>
+        <v>2377</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>2377</v>
+        <v>2379</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>2378</v>
+        <v>2380</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>2379</v>
+        <v>2381</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>2380</v>
+        <v>2382</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>2381</v>
+        <v>2383</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>2382</v>
+        <v>2384</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>2383</v>
+        <v>2385</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>2384</v>
+        <v>2386</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>2385</v>
+        <v>2387</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>2386</v>
+        <v>2388</v>
       </c>
       <c r="AB17" s="12" t="s">
-        <v>2387</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="18">
@@ -15873,85 +15883,85 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>2389</v>
+        <v>2391</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>2390</v>
+        <v>2392</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>2391</v>
+        <v>2393</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>2392</v>
+        <v>2394</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>2393</v>
+        <v>2395</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>2394</v>
+        <v>2396</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>2396</v>
+        <v>2398</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>2397</v>
+        <v>2399</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>2398</v>
+        <v>2400</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>2399</v>
+        <v>2401</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>2400</v>
+        <v>2402</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>2401</v>
+        <v>2403</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>2402</v>
+        <v>2404</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>2403</v>
+        <v>2405</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>2404</v>
+        <v>2406</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>2405</v>
+        <v>2407</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>2406</v>
+        <v>2408</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>2407</v>
+        <v>2409</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>2408</v>
+        <v>2410</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>2409</v>
+        <v>2411</v>
       </c>
       <c r="AB18" s="12" t="s">
-        <v>2147</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="19">
@@ -15959,85 +15969,85 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>2410</v>
+        <v>2412</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>2411</v>
+        <v>2413</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>2412</v>
+        <v>2414</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>2413</v>
+        <v>2415</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>2414</v>
+        <v>2416</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>2415</v>
+        <v>2417</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>2416</v>
+        <v>2418</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>2417</v>
+        <v>2419</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>2418</v>
+        <v>2420</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>2419</v>
+        <v>2421</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>2420</v>
+        <v>2422</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>2422</v>
+        <v>2424</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>2426</v>
+        <v>2428</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>2427</v>
+        <v>2429</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>2429</v>
+        <v>2431</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>2430</v>
+        <v>2432</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>2431</v>
+        <v>2433</v>
       </c>
       <c r="AB19" s="12" t="s">
-        <v>2432</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="20">
@@ -16045,85 +16055,85 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>2433</v>
+        <v>2435</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>2434</v>
+        <v>2436</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>2435</v>
+        <v>2437</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>2437</v>
+        <v>2439</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>2438</v>
+        <v>2440</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>2439</v>
+        <v>2441</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>1834</v>
+        <v>1836</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>2440</v>
+        <v>2442</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>2441</v>
+        <v>2443</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>2442</v>
+        <v>2444</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>2443</v>
+        <v>2445</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>2444</v>
+        <v>2446</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>2445</v>
+        <v>2447</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>2446</v>
+        <v>2448</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>2447</v>
+        <v>2449</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>2450</v>
+        <v>2452</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>2451</v>
+        <v>2453</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>2452</v>
+        <v>2454</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>2453</v>
+        <v>2455</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>2454</v>
+        <v>2456</v>
       </c>
       <c r="AB20" s="12" t="s">
-        <v>2455</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="21">
@@ -16131,85 +16141,85 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>2456</v>
+        <v>2458</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>2457</v>
+        <v>2459</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>2459</v>
+        <v>2461</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>2460</v>
+        <v>2462</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>2461</v>
+        <v>2463</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>2462</v>
+        <v>2464</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>2463</v>
+        <v>2465</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>2464</v>
+        <v>2466</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>2465</v>
+        <v>2467</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>2466</v>
+        <v>2468</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>2467</v>
+        <v>2469</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>2468</v>
+        <v>2470</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>2469</v>
+        <v>2471</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>2471</v>
+        <v>2473</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>2472</v>
+        <v>2474</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>2473</v>
+        <v>2475</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>2474</v>
+        <v>2476</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>2475</v>
+        <v>2477</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>2476</v>
+        <v>2478</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>2477</v>
+        <v>2479</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>2478</v>
+        <v>2480</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="AB21" s="12" t="s">
-        <v>2479</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="22">
@@ -16217,85 +16227,85 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>2480</v>
+        <v>2482</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>2481</v>
+        <v>2483</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>2482</v>
+        <v>2484</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>2484</v>
+        <v>2486</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>2485</v>
+        <v>2487</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>2486</v>
+        <v>2488</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>2487</v>
+        <v>2489</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>2488</v>
+        <v>2490</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>2489</v>
+        <v>2491</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>2490</v>
+        <v>2492</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>2491</v>
+        <v>2493</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>1816</v>
+        <v>1818</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>2492</v>
+        <v>2494</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>2493</v>
+        <v>2495</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>2494</v>
+        <v>2496</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>2495</v>
+        <v>2497</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>2496</v>
+        <v>2498</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>2497</v>
+        <v>2499</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>2499</v>
+        <v>2501</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>2500</v>
+        <v>2502</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>2501</v>
+        <v>2503</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>2502</v>
+        <v>2504</v>
       </c>
       <c r="AB22" s="12" t="s">
-        <v>2503</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="23">
@@ -16303,85 +16313,85 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>2504</v>
+        <v>2506</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>2505</v>
+        <v>2507</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>2506</v>
+        <v>2508</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>2507</v>
+        <v>2509</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>2508</v>
+        <v>2510</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>2509</v>
+        <v>2511</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>2510</v>
+        <v>2512</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>2511</v>
+        <v>2513</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>2512</v>
+        <v>2514</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>2513</v>
+        <v>2515</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>2514</v>
+        <v>2516</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>2515</v>
+        <v>2517</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>2516</v>
+        <v>2518</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>2517</v>
+        <v>2519</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>2518</v>
+        <v>2520</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>2519</v>
+        <v>2521</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>2520</v>
+        <v>2522</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>2521</v>
+        <v>2523</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>2522</v>
+        <v>2524</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>2523</v>
+        <v>2525</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>2524</v>
+        <v>2526</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>2525</v>
+        <v>2527</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>2526</v>
+        <v>2528</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>2527</v>
+        <v>2529</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>2528</v>
+        <v>2530</v>
       </c>
       <c r="AB23" s="12" t="s">
-        <v>2529</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="24">
@@ -16389,85 +16399,85 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>2530</v>
+        <v>2532</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>2531</v>
+        <v>2533</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>2532</v>
+        <v>2534</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>2533</v>
+        <v>2535</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>2534</v>
+        <v>2536</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>2535</v>
+        <v>2537</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>2536</v>
+        <v>2538</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>2537</v>
+        <v>2539</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>2538</v>
+        <v>2540</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>2539</v>
+        <v>2541</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>2540</v>
+        <v>2542</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>2541</v>
+        <v>2543</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>2542</v>
+        <v>2544</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>2543</v>
+        <v>2545</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>2544</v>
+        <v>2546</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>2545</v>
+        <v>2547</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>2546</v>
+        <v>2548</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>2547</v>
+        <v>2549</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>2548</v>
+        <v>2550</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>2549</v>
+        <v>2551</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>2550</v>
+        <v>2552</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="Y24" s="5" t="s">
-        <v>2552</v>
+        <v>2554</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>2553</v>
+        <v>2555</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>2554</v>
+        <v>2556</v>
       </c>
       <c r="AB24" s="12" t="s">
-        <v>2555</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="25">
@@ -16475,85 +16485,85 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>2557</v>
+        <v>2559</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>2558</v>
+        <v>2560</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>2559</v>
+        <v>2561</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>2560</v>
+        <v>2562</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>2561</v>
+        <v>2563</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>2562</v>
+        <v>2564</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>2563</v>
+        <v>2565</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>2564</v>
+        <v>2566</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>2565</v>
+        <v>2567</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>2566</v>
+        <v>2568</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>2567</v>
+        <v>2569</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>2568</v>
+        <v>2570</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>2569</v>
+        <v>2571</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>2570</v>
+        <v>2572</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>2571</v>
+        <v>2573</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>2572</v>
+        <v>2574</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>2573</v>
+        <v>2575</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>2574</v>
+        <v>2576</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>2575</v>
+        <v>2577</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>2576</v>
+        <v>2578</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>2577</v>
+        <v>2579</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>2578</v>
+        <v>2580</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>2579</v>
+        <v>2581</v>
       </c>
       <c r="AB25" s="12" t="s">
-        <v>2196</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="26">
@@ -16561,85 +16571,85 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>2580</v>
+        <v>2582</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>2581</v>
+        <v>2583</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>2582</v>
+        <v>2584</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>2583</v>
+        <v>2585</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>2584</v>
+        <v>2586</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>2585</v>
+        <v>2587</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>2586</v>
+        <v>2588</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>2587</v>
+        <v>2589</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>2588</v>
+        <v>2590</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>2589</v>
+        <v>2591</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>2590</v>
+        <v>2592</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>2591</v>
+        <v>2593</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>2592</v>
+        <v>2594</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>2593</v>
+        <v>2595</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>2594</v>
+        <v>2596</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>2595</v>
+        <v>2597</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>2596</v>
+        <v>2598</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>2597</v>
+        <v>2599</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>2598</v>
+        <v>2600</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>2599</v>
+        <v>2601</v>
       </c>
       <c r="Y26" s="5" t="s">
-        <v>2600</v>
+        <v>2602</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>2601</v>
+        <v>2603</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>2602</v>
+        <v>2604</v>
       </c>
       <c r="AB26" s="12" t="s">
-        <v>2603</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="27">
@@ -16647,85 +16657,85 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>2604</v>
+        <v>2606</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>2605</v>
+        <v>2607</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>2606</v>
+        <v>2608</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>2607</v>
+        <v>2609</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>2608</v>
+        <v>2610</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>2609</v>
+        <v>2611</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>2610</v>
+        <v>2612</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>2611</v>
+        <v>2613</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>2612</v>
+        <v>2614</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>2613</v>
+        <v>2615</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>2614</v>
+        <v>2616</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>2615</v>
+        <v>2617</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>2616</v>
+        <v>2618</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>2617</v>
+        <v>2619</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>2618</v>
+        <v>2620</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>2619</v>
+        <v>2621</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>2620</v>
+        <v>2622</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>2621</v>
+        <v>2623</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>2622</v>
+        <v>2624</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>2623</v>
+        <v>2625</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>2624</v>
+        <v>2626</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>2625</v>
+        <v>2627</v>
       </c>
       <c r="Y27" s="5" t="s">
-        <v>2626</v>
+        <v>2628</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>2627</v>
+        <v>2629</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>2628</v>
+        <v>2630</v>
       </c>
       <c r="AB27" s="12" t="s">
-        <v>2629</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="28">
@@ -16733,85 +16743,85 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>2630</v>
+        <v>2632</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>2631</v>
+        <v>2633</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>2633</v>
+        <v>2635</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>2634</v>
+        <v>2636</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>2635</v>
+        <v>2637</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>1794</v>
+        <v>1796</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>2636</v>
+        <v>2638</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>2637</v>
+        <v>2639</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>2638</v>
+        <v>2640</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>2639</v>
+        <v>2641</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>2640</v>
+        <v>2642</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>2641</v>
+        <v>2643</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>2642</v>
+        <v>2644</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>2643</v>
+        <v>2645</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>2644</v>
+        <v>2646</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>2645</v>
+        <v>2647</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>2646</v>
+        <v>2648</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>2647</v>
+        <v>2649</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>2648</v>
+        <v>2650</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>2649</v>
+        <v>2651</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>2650</v>
+        <v>2652</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>2651</v>
+        <v>2653</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>2652</v>
+        <v>2654</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>2653</v>
+        <v>2655</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>2654</v>
+        <v>2656</v>
       </c>
       <c r="AB28" s="12" t="s">
-        <v>2655</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="29">
@@ -16819,85 +16829,85 @@
         <v>45</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>2656</v>
+        <v>2658</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>2657</v>
+        <v>2659</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>2658</v>
+        <v>2660</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>2659</v>
+        <v>2661</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>2660</v>
+        <v>2662</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>2661</v>
+        <v>2663</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>2662</v>
+        <v>2664</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>2663</v>
+        <v>2665</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>2664</v>
+        <v>2666</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>2665</v>
+        <v>2667</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>2666</v>
+        <v>2668</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>2667</v>
+        <v>2669</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>2668</v>
+        <v>2670</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>2669</v>
+        <v>2671</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>2670</v>
+        <v>2672</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>2671</v>
+        <v>2673</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>2672</v>
+        <v>2674</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>2673</v>
+        <v>2675</v>
       </c>
       <c r="T29" s="9" t="s">
-        <v>2674</v>
+        <v>2676</v>
       </c>
       <c r="U29" s="9" t="s">
-        <v>2675</v>
+        <v>2677</v>
       </c>
       <c r="V29" s="9" t="s">
-        <v>2676</v>
+        <v>2678</v>
       </c>
       <c r="W29" s="9" t="s">
-        <v>2677</v>
+        <v>2679</v>
       </c>
       <c r="X29" s="9" t="s">
-        <v>2441</v>
+        <v>2443</v>
       </c>
       <c r="Y29" s="9" t="s">
-        <v>2678</v>
+        <v>2680</v>
       </c>
       <c r="Z29" s="9" t="s">
-        <v>2679</v>
+        <v>2681</v>
       </c>
       <c r="AA29" s="9" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="AB29" s="12" t="s">
-        <v>2681</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="30">
@@ -16905,85 +16915,85 @@
         <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>2682</v>
+        <v>2684</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>2683</v>
+        <v>2685</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>2684</v>
+        <v>2686</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>2685</v>
+        <v>2687</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>2686</v>
+        <v>2688</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>2687</v>
+        <v>2689</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>2688</v>
+        <v>2690</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>2689</v>
+        <v>2691</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>2690</v>
+        <v>2692</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>2691</v>
+        <v>2693</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>2692</v>
+        <v>2694</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>2693</v>
+        <v>2695</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>2694</v>
+        <v>2696</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>2695</v>
+        <v>2697</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>2696</v>
+        <v>2698</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>2697</v>
+        <v>2699</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>2698</v>
+        <v>2700</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>2699</v>
+        <v>2701</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>2701</v>
+        <v>2703</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>2702</v>
+        <v>2704</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>2703</v>
+        <v>2705</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>2704</v>
+        <v>2706</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>2705</v>
+        <v>2707</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>2706</v>
+        <v>2708</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>2707</v>
+        <v>2709</v>
       </c>
       <c r="AB30" s="3" t="s">
-        <v>2708</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="31">
@@ -16991,85 +17001,85 @@
         <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2709</v>
+        <v>2711</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>2710</v>
+        <v>2712</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>2711</v>
+        <v>2713</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>2712</v>
+        <v>2714</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>2713</v>
+        <v>2715</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>2714</v>
+        <v>2716</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>2715</v>
+        <v>2717</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>2716</v>
+        <v>2718</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>2717</v>
+        <v>2719</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>2718</v>
+        <v>2720</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>2719</v>
+        <v>2721</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>2720</v>
+        <v>2722</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>2721</v>
+        <v>2723</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>2722</v>
+        <v>2724</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>2723</v>
+        <v>2725</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>2724</v>
+        <v>2726</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>2725</v>
+        <v>2727</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>2726</v>
+        <v>2728</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>2727</v>
+        <v>2729</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>2728</v>
+        <v>2730</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>2729</v>
+        <v>2731</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>2730</v>
+        <v>2732</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>2731</v>
+        <v>2733</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>2732</v>
+        <v>2734</v>
       </c>
       <c r="Z31" s="2" t="s">
-        <v>2733</v>
+        <v>2735</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>2734</v>
+        <v>2736</v>
       </c>
       <c r="AB31" s="3" t="s">
-        <v>2735</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="32">
@@ -17155,7 +17165,7 @@
         <v>161</v>
       </c>
       <c r="AB32" s="12" t="s">
-        <v>2736</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="33">
@@ -17241,7 +17251,7 @@
         <v>161</v>
       </c>
       <c r="AB33" s="12" t="s">
-        <v>2737</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="34">
@@ -17327,7 +17337,7 @@
         <v>161</v>
       </c>
       <c r="AB34" s="12" t="s">
-        <v>2738</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="35">
@@ -17413,7 +17423,7 @@
         <v>161</v>
       </c>
       <c r="AB35" s="12" t="s">
-        <v>2739</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="36">
@@ -17421,85 +17431,85 @@
         <v>67</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>2740</v>
+        <v>2742</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>2741</v>
+        <v>2743</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2742</v>
+        <v>2744</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>2743</v>
+        <v>2745</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>2744</v>
+        <v>2746</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>2745</v>
+        <v>2747</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>2746</v>
+        <v>2748</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>2747</v>
+        <v>2749</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>2748</v>
+        <v>2750</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>2749</v>
+        <v>2751</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>2750</v>
+        <v>2752</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>2751</v>
+        <v>2753</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>2752</v>
+        <v>2754</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>2753</v>
+        <v>2755</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>2754</v>
+        <v>2756</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>2755</v>
+        <v>2757</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>2756</v>
+        <v>2758</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>2757</v>
+        <v>2759</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>2758</v>
+        <v>2760</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>2759</v>
+        <v>2761</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>2760</v>
+        <v>2762</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>2761</v>
+        <v>2763</v>
       </c>
       <c r="Y36" s="2" t="s">
-        <v>2762</v>
+        <v>2764</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>2763</v>
+        <v>2765</v>
       </c>
       <c r="AA36" s="2" t="s">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="AB36" s="3" t="s">
-        <v>2765</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="37">
@@ -17585,7 +17595,7 @@
         <v>161</v>
       </c>
       <c r="AB37" s="12" t="s">
-        <v>2766</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="38">
@@ -17671,7 +17681,7 @@
         <v>161</v>
       </c>
       <c r="AB38" s="12" t="s">
-        <v>2767</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="39">
@@ -17757,7 +17767,7 @@
         <v>161</v>
       </c>
       <c r="AB39" s="12" t="s">
-        <v>2768</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="40">
@@ -17843,7 +17853,7 @@
         <v>161</v>
       </c>
       <c r="AB40" s="12" t="s">
-        <v>2769</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="41">
@@ -17929,7 +17939,7 @@
         <v>161</v>
       </c>
       <c r="AB41" s="12" t="s">
-        <v>2770</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="42">
@@ -18020,88 +18030,88 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2771</v>
+        <v>2773</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2772</v>
+        <v>2774</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2773</v>
+        <v>2775</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>2774</v>
+        <v>2776</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>2775</v>
+        <v>2777</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>2776</v>
+        <v>2778</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>2777</v>
+        <v>2779</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>2778</v>
+        <v>2780</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>2779</v>
+        <v>2781</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>2780</v>
+        <v>2782</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>2781</v>
+        <v>2783</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>2783</v>
+        <v>2785</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>2784</v>
+        <v>2786</v>
       </c>
       <c r="O43" s="11" t="s">
-        <v>2785</v>
+        <v>2787</v>
       </c>
       <c r="P43" s="9" t="s">
-        <v>2786</v>
+        <v>2788</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>2787</v>
+        <v>2789</v>
       </c>
       <c r="R43" s="9" t="s">
-        <v>2788</v>
+        <v>2790</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>2789</v>
+        <v>2791</v>
       </c>
       <c r="T43" s="9" t="s">
-        <v>2790</v>
+        <v>2792</v>
       </c>
       <c r="U43" s="9" t="s">
-        <v>2791</v>
+        <v>2793</v>
       </c>
       <c r="V43" s="9" t="s">
-        <v>2792</v>
+        <v>2794</v>
       </c>
       <c r="W43" s="9" t="s">
-        <v>2793</v>
+        <v>2795</v>
       </c>
       <c r="X43" s="9" t="s">
-        <v>2794</v>
+        <v>2796</v>
       </c>
       <c r="Y43" s="9" t="s">
-        <v>2795</v>
+        <v>2797</v>
       </c>
       <c r="Z43" s="9" t="s">
-        <v>2796</v>
+        <v>2798</v>
       </c>
       <c r="AA43" s="9" t="s">
-        <v>2797</v>
+        <v>2799</v>
       </c>
       <c r="AB43" s="12" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
     </row>
   </sheetData>
@@ -18127,7 +18137,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2798</v>
+        <v>2800</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -18141,16 +18151,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2799</v>
+        <v>2801</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2800</v>
+        <v>2802</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2801</v>
+        <v>2803</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>2802</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="3">
@@ -18158,10 +18168,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2803</v>
+        <v>2805</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2804</v>
+        <v>2806</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>19</v>
@@ -18172,10 +18182,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2805</v>
+        <v>2807</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>2806</v>
+        <v>2808</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>19</v>
@@ -18186,10 +18196,10 @@
         <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2807</v>
+        <v>2809</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2808</v>
+        <v>2810</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>19</v>
@@ -18200,10 +18210,10 @@
         <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2809</v>
+        <v>2811</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>2810</v>
+        <v>2812</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>19</v>
@@ -18214,10 +18224,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>2811</v>
+        <v>2813</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2812</v>
+        <v>2814</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>19</v>
@@ -18228,10 +18238,10 @@
         <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>2813</v>
+        <v>2815</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2814</v>
+        <v>2816</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>19</v>
@@ -18242,10 +18252,10 @@
         <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>2815</v>
+        <v>2817</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>2816</v>
+        <v>2818</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>19</v>
@@ -18256,10 +18266,10 @@
         <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2817</v>
+        <v>2819</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>2818</v>
+        <v>2820</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>19</v>
@@ -18270,10 +18280,10 @@
         <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>2819</v>
+        <v>2821</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>2820</v>
+        <v>2822</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>19</v>
@@ -18284,10 +18294,10 @@
         <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>2821</v>
+        <v>2823</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>2822</v>
+        <v>2824</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>19</v>
@@ -18298,10 +18308,10 @@
         <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2823</v>
+        <v>2825</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>2824</v>
+        <v>2826</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>19</v>
@@ -18312,10 +18322,10 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2825</v>
+        <v>2827</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>2826</v>
+        <v>2828</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>19</v>
@@ -18326,10 +18336,10 @@
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>2827</v>
+        <v>2829</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>2828</v>
+        <v>2830</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>19</v>
@@ -18340,10 +18350,10 @@
         <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>2830</v>
+        <v>2832</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>19</v>
@@ -18354,10 +18364,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>2831</v>
+        <v>2833</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>2832</v>
+        <v>2834</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>19</v>
@@ -18368,10 +18378,10 @@
         <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>2833</v>
+        <v>2835</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>2834</v>
+        <v>2836</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>19</v>
@@ -18382,10 +18392,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>2835</v>
+        <v>2837</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>2836</v>
+        <v>2838</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>19</v>
@@ -18396,10 +18406,10 @@
         <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>2837</v>
+        <v>2839</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>2838</v>
+        <v>2840</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>19</v>
@@ -18410,10 +18420,10 @@
         <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>2839</v>
+        <v>2841</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>2840</v>
+        <v>2842</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>19</v>
@@ -18424,10 +18434,10 @@
         <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>2841</v>
+        <v>2843</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>2842</v>
+        <v>2844</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>19</v>
@@ -18438,10 +18448,10 @@
         <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>2843</v>
+        <v>2845</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>2844</v>
+        <v>2846</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>19</v>
@@ -18452,10 +18462,10 @@
         <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>2845</v>
+        <v>2847</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>2846</v>
+        <v>2848</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>19</v>
@@ -18466,10 +18476,10 @@
         <v>41</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>2847</v>
+        <v>2849</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>2848</v>
+        <v>2850</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>19</v>
@@ -18480,10 +18490,10 @@
         <v>42</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>2849</v>
+        <v>2851</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>2850</v>
+        <v>2852</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>19</v>
@@ -18494,10 +18504,10 @@
         <v>43</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>2851</v>
+        <v>2853</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>2852</v>
+        <v>2854</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>19</v>
@@ -18508,10 +18518,10 @@
         <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>2853</v>
+        <v>2855</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>2854</v>
+        <v>2856</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>19</v>
@@ -18522,13 +18532,13 @@
         <v>45</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>2855</v>
+        <v>2857</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>2856</v>
+        <v>2858</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>2857</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="30">
@@ -18536,13 +18546,13 @@
         <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>2858</v>
+        <v>2860</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>2859</v>
+        <v>2861</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>2860</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="31">
@@ -18550,13 +18560,13 @@
         <v>62</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>2861</v>
+        <v>2863</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>2862</v>
+        <v>2864</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>2863</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="32">
@@ -18564,13 +18574,13 @@
         <v>63</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>2864</v>
+        <v>2866</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>2865</v>
+        <v>2867</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>2866</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="33">
@@ -18578,13 +18588,13 @@
         <v>64</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>2867</v>
+        <v>2869</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>2868</v>
+        <v>2870</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>2869</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="34">
@@ -18592,13 +18602,13 @@
         <v>65</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>2870</v>
+        <v>2872</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>2871</v>
+        <v>2873</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>2872</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="35">
@@ -18612,7 +18622,7 @@
         <v>56</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>2873</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="36">
@@ -18620,13 +18630,13 @@
         <v>67</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>2874</v>
+        <v>2876</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>2875</v>
+        <v>2877</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>2876</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="37">
@@ -18634,13 +18644,13 @@
         <v>76</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>2877</v>
+        <v>2879</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>2878</v>
+        <v>2880</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>2879</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="38">
@@ -18648,13 +18658,13 @@
         <v>77</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>2880</v>
+        <v>2882</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>2881</v>
+        <v>2883</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>2882</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="39">
@@ -18668,7 +18678,7 @@
         <v>56</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>2883</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="40">
@@ -18682,7 +18692,7 @@
         <v>56</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>2884</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="41">
@@ -18690,10 +18700,10 @@
         <v>80</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>2885</v>
+        <v>2887</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>2886</v>
+        <v>2888</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>295</v>
@@ -18715,16 +18725,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2887</v>
+        <v>2889</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2888</v>
+        <v>2890</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2889</v>
+        <v>2891</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>2890</v>
+        <v>2892</v>
       </c>
     </row>
   </sheetData>

--- a/iceKnives32/Offline Documents (Periodic)/iceKnives32.xlsx
+++ b/iceKnives32/Offline Documents (Periodic)/iceKnives32.xlsx
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="2893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="2902">
   <si>
     <t>[]</t>
   </si>
@@ -5241,6 +5241,15 @@
     <t>stone</t>
   </si>
   <si>
+    <t>flow</t>
+  </si>
+  <si>
+    <t>distil</t>
+  </si>
+  <si>
+    <t>friction</t>
+  </si>
+  <si>
     <t>modulus</t>
   </si>
   <si>
@@ -5250,6 +5259,9 @@
     <t>con.ty</t>
   </si>
   <si>
+    <t>'185'</t>
+  </si>
+  <si>
     <t>lava</t>
   </si>
   <si>
@@ -5304,7 +5316,22 @@
     <t>fan.zi</t>
   </si>
   <si>
+    <t>fibre</t>
+  </si>
+  <si>
     <t>appendices</t>
+  </si>
+  <si>
+    <t>oxide</t>
+  </si>
+  <si>
+    <t>chambers</t>
+  </si>
+  <si>
+    <t>acid</t>
+  </si>
+  <si>
+    <t>slides</t>
   </si>
   <si>
     <t>fire</t>
@@ -10849,25 +10876,25 @@
         <v>1641</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>1642</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>18</v>
+        <v>1643</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>18</v>
+        <v>1644</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>1642</v>
+        <v>1645</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>1643</v>
+        <v>1646</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>1644</v>
+        <v>1647</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>19</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="10">
@@ -10875,7 +10902,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1645</v>
+        <v>1649</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>18</v>
@@ -10890,10 +10917,10 @@
         <v>18</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>1646</v>
+        <v>1650</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>1647</v>
+        <v>1651</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>19</v>
@@ -10904,7 +10931,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1648</v>
+        <v>1652</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
@@ -10919,10 +10946,10 @@
         <v>18</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>1649</v>
+        <v>1653</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>1650</v>
+        <v>1654</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>19</v>
@@ -10933,7 +10960,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1651</v>
+        <v>1655</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>18</v>
@@ -10948,10 +10975,10 @@
         <v>18</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>1652</v>
+        <v>1656</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>1653</v>
+        <v>1657</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>19</v>
@@ -10962,7 +10989,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1654</v>
+        <v>1658</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>18</v>
@@ -10977,10 +11004,10 @@
         <v>18</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>1655</v>
+        <v>1659</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>1656</v>
+        <v>1660</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>19</v>
@@ -10991,7 +11018,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1657</v>
+        <v>1661</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -11006,10 +11033,10 @@
         <v>18</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>1658</v>
+        <v>1662</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>1659</v>
+        <v>1663</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>19</v>
@@ -11020,7 +11047,7 @@
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1660</v>
+        <v>1664</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>18</v>
@@ -11035,10 +11062,10 @@
         <v>18</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>1661</v>
+        <v>1665</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>1662</v>
+        <v>1666</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>19</v>
@@ -11049,7 +11076,7 @@
         <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>18</v>
+        <v>1667</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>18</v>
@@ -11064,7 +11091,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>1663</v>
+        <v>1668</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>18</v>
@@ -11078,7 +11105,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>18</v>
+        <v>1669</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
@@ -11093,7 +11120,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>18</v>
+        <v>1670</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>18</v>
@@ -11107,7 +11134,7 @@
         <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>18</v>
+        <v>1671</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>18</v>
@@ -11122,7 +11149,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>18</v>
+        <v>1672</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>18</v>
@@ -11368,7 +11395,7 @@
         <v>43</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1664</v>
+        <v>1673</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>18</v>
@@ -11397,7 +11424,7 @@
         <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1665</v>
+        <v>1674</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>18</v>
@@ -11829,7 +11856,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1666</v>
+        <v>1675</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>91</v>
@@ -11853,7 +11880,7 @@
         <v>97</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1667</v>
+        <v>1676</v>
       </c>
     </row>
   </sheetData>
@@ -11882,7 +11909,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>1668</v>
+        <v>1677</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -11911,28 +11938,28 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>1669</v>
+        <v>1678</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1670</v>
+        <v>1679</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1671</v>
+        <v>1680</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1672</v>
+        <v>1681</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1673</v>
+        <v>1682</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1674</v>
+        <v>1683</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1675</v>
+        <v>1684</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>1676</v>
+        <v>1685</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>303</v>
@@ -11943,25 +11970,25 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1677</v>
+        <v>1686</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1678</v>
+        <v>1687</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1679</v>
+        <v>1688</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1680</v>
+        <v>1689</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>1681</v>
+        <v>1690</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>1682</v>
+        <v>1691</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>1683</v>
+        <v>1692</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>19</v>
@@ -11972,25 +11999,25 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1684</v>
+        <v>1693</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1685</v>
+        <v>1694</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>1012</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1686</v>
+        <v>1695</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>1687</v>
+        <v>1696</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1688</v>
+        <v>1697</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>1689</v>
+        <v>1698</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>19</v>
@@ -12001,25 +12028,25 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1690</v>
+        <v>1699</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1691</v>
+        <v>1700</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>1027</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1692</v>
+        <v>1701</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1693</v>
+        <v>1702</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>1694</v>
+        <v>1703</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>1695</v>
+        <v>1704</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>19</v>
@@ -12030,25 +12057,25 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1696</v>
+        <v>1705</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1697</v>
+        <v>1706</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>747</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1698</v>
+        <v>1707</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>1699</v>
+        <v>1708</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1700</v>
+        <v>1709</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>1701</v>
+        <v>1710</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>19</v>
@@ -12059,25 +12086,25 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1702</v>
+        <v>1711</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1703</v>
+        <v>1712</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>456</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1704</v>
+        <v>1713</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1705</v>
+        <v>1714</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>1706</v>
+        <v>1715</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>1707</v>
+        <v>1716</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>19</v>
@@ -12088,25 +12115,25 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1708</v>
+        <v>1717</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1709</v>
+        <v>1718</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>124</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1710</v>
+        <v>1719</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1711</v>
+        <v>1720</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1712</v>
+        <v>1721</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>1713</v>
+        <v>1722</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>19</v>
@@ -12117,25 +12144,25 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1714</v>
+        <v>1723</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1715</v>
+        <v>1724</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>360</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1716</v>
+        <v>1725</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>1717</v>
+        <v>1726</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1718</v>
+        <v>1727</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>1719</v>
+        <v>1728</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>19</v>
@@ -12146,25 +12173,25 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1720</v>
+        <v>1729</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1721</v>
+        <v>1730</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1722</v>
+        <v>1731</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1723</v>
+        <v>1732</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>1724</v>
+        <v>1733</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1725</v>
+        <v>1734</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>1726</v>
+        <v>1735</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>19</v>
@@ -12175,25 +12202,25 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1727</v>
+        <v>1736</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1728</v>
+        <v>1737</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>488</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1729</v>
+        <v>1738</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>1730</v>
+        <v>1739</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1731</v>
+        <v>1740</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>1732</v>
+        <v>1741</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>19</v>
@@ -12204,25 +12231,25 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1733</v>
+        <v>1742</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1734</v>
+        <v>1743</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1119</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1735</v>
+        <v>1744</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1736</v>
+        <v>1745</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>1737</v>
+        <v>1746</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>1738</v>
+        <v>1747</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>19</v>
@@ -12233,25 +12260,25 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1739</v>
+        <v>1748</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1740</v>
+        <v>1749</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>470</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1741</v>
+        <v>1750</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1742</v>
+        <v>1751</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1743</v>
+        <v>1752</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>1744</v>
+        <v>1753</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>19</v>
@@ -12262,25 +12289,25 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1745</v>
+        <v>1754</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1746</v>
+        <v>1755</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>211</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1747</v>
+        <v>1756</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1748</v>
+        <v>1757</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1749</v>
+        <v>1758</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>1750</v>
+        <v>1759</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>19</v>
@@ -12291,25 +12318,25 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1751</v>
+        <v>1760</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1752</v>
+        <v>1761</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1753</v>
+        <v>1762</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1754</v>
+        <v>1763</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1755</v>
+        <v>1764</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1756</v>
+        <v>1765</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>1757</v>
+        <v>1766</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>19</v>
@@ -12320,25 +12347,25 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1758</v>
+        <v>1767</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1759</v>
+        <v>1768</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>625</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1760</v>
+        <v>1769</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1761</v>
+        <v>1770</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>1762</v>
+        <v>1771</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>1763</v>
+        <v>1772</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>19</v>
@@ -12349,25 +12376,25 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1764</v>
+        <v>1773</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1765</v>
+        <v>1774</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>768</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1766</v>
+        <v>1775</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>1767</v>
+        <v>1776</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1768</v>
+        <v>1777</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>1769</v>
+        <v>1778</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>19</v>
@@ -12378,25 +12405,25 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1770</v>
+        <v>1779</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1771</v>
+        <v>1780</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>845</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1772</v>
+        <v>1781</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1773</v>
+        <v>1782</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>1774</v>
+        <v>1783</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>1775</v>
+        <v>1784</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>19</v>
@@ -12407,25 +12434,25 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1776</v>
+        <v>1785</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1777</v>
+        <v>1786</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>1311</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1778</v>
+        <v>1787</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>1779</v>
+        <v>1788</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>1780</v>
+        <v>1789</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>1781</v>
+        <v>1790</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>19</v>
@@ -12436,25 +12463,25 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1782</v>
+        <v>1791</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>19</v>
@@ -12465,25 +12492,25 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1789</v>
+        <v>1798</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1791</v>
+        <v>1800</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1792</v>
+        <v>1801</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>1793</v>
+        <v>1802</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1794</v>
+        <v>1803</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>1795</v>
+        <v>1804</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>19</v>
@@ -12494,25 +12521,25 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1796</v>
+        <v>1805</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1797</v>
+        <v>1806</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>932</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1798</v>
+        <v>1807</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>1799</v>
+        <v>1808</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>1800</v>
+        <v>1809</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>1801</v>
+        <v>1810</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>19</v>
@@ -12523,25 +12550,25 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1802</v>
+        <v>1811</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1803</v>
+        <v>1812</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1804</v>
+        <v>1813</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1805</v>
+        <v>1814</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>1806</v>
+        <v>1815</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1807</v>
+        <v>1816</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>1808</v>
+        <v>1817</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>19</v>
@@ -12552,25 +12579,25 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1809</v>
+        <v>1818</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1810</v>
+        <v>1819</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>472</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1811</v>
+        <v>1820</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>1812</v>
+        <v>1821</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>1813</v>
+        <v>1822</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>1814</v>
+        <v>1823</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>19</v>
@@ -12581,25 +12608,25 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1815</v>
+        <v>1824</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1816</v>
+        <v>1825</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>424</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1817</v>
+        <v>1826</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>1818</v>
+        <v>1827</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>1819</v>
+        <v>1828</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>1820</v>
+        <v>1829</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>19</v>
@@ -12610,25 +12637,25 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1821</v>
+        <v>1830</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1822</v>
+        <v>1831</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>925</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1823</v>
+        <v>1832</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>1824</v>
+        <v>1833</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1825</v>
+        <v>1834</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>1826</v>
+        <v>1835</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>19</v>
@@ -12639,25 +12666,25 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1827</v>
+        <v>1836</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1828</v>
+        <v>1837</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>1383</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1829</v>
+        <v>1838</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>1830</v>
+        <v>1839</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>1831</v>
+        <v>1840</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>1832</v>
+        <v>1841</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>19</v>
@@ -12668,25 +12695,25 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1833</v>
+        <v>1842</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1834</v>
+        <v>1843</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>429</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1835</v>
+        <v>1844</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>1836</v>
+        <v>1845</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>1837</v>
+        <v>1846</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>1838</v>
+        <v>1847</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>19</v>
@@ -12697,25 +12724,25 @@
         <v>45</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1839</v>
+        <v>1848</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1840</v>
+        <v>1849</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>373</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1841</v>
+        <v>1850</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>1842</v>
+        <v>1851</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1843</v>
+        <v>1852</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>1844</v>
+        <v>1853</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>335</v>
@@ -12726,28 +12753,28 @@
         <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1845</v>
+        <v>1854</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1846</v>
+        <v>1855</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1847</v>
+        <v>1856</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>1848</v>
+        <v>1857</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1849</v>
+        <v>1858</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>1850</v>
+        <v>1859</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>1851</v>
+        <v>1860</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>1852</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="31">
@@ -12755,28 +12782,28 @@
         <v>62</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1853</v>
+        <v>1862</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1854</v>
+        <v>1863</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1855</v>
+        <v>1864</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>1856</v>
+        <v>1865</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>1857</v>
+        <v>1866</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>1858</v>
+        <v>1867</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>1859</v>
+        <v>1868</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>1860</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="32">
@@ -12805,7 +12832,7 @@
         <v>61</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>1861</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="33">
@@ -12834,7 +12861,7 @@
         <v>61</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>1862</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="34">
@@ -12863,7 +12890,7 @@
         <v>61</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>1863</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="35">
@@ -12892,7 +12919,7 @@
         <v>61</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>1864</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="36">
@@ -12900,28 +12927,28 @@
         <v>67</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1865</v>
+        <v>1874</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1866</v>
+        <v>1875</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1867</v>
+        <v>1876</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>1868</v>
+        <v>1877</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>1869</v>
+        <v>1878</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>1870</v>
+        <v>1879</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>1871</v>
+        <v>1880</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>1872</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="37">
@@ -12950,7 +12977,7 @@
         <v>61</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>1873</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="38">
@@ -12979,7 +13006,7 @@
         <v>61</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>1874</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="39">
@@ -13008,7 +13035,7 @@
         <v>61</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>1875</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="40">
@@ -13037,7 +13064,7 @@
         <v>61</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>1876</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="41">
@@ -13066,7 +13093,7 @@
         <v>61</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>1877</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="42">
@@ -13100,31 +13127,31 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1878</v>
+        <v>1887</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1879</v>
+        <v>1888</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1880</v>
+        <v>1889</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1881</v>
+        <v>1890</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>1882</v>
+        <v>1891</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>1883</v>
+        <v>1892</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>1884</v>
+        <v>1893</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>1885</v>
+        <v>1894</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1886</v>
+        <v>1895</v>
       </c>
     </row>
   </sheetData>
@@ -13151,7 +13178,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1887</v>
+        <v>1896</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -13180,28 +13207,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1888</v>
+        <v>1897</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1889</v>
+        <v>1898</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1890</v>
+        <v>1899</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1891</v>
+        <v>1900</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1892</v>
+        <v>1901</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1893</v>
+        <v>1902</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1894</v>
+        <v>1903</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>1895</v>
+        <v>1904</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>19</v>
@@ -13212,13 +13239,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1896</v>
+        <v>1905</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1897</v>
+        <v>1906</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1898</v>
+        <v>1907</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>18</v>
@@ -13241,13 +13268,13 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1899</v>
+        <v>1908</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1900</v>
+        <v>1909</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1901</v>
+        <v>1910</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -13270,13 +13297,13 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1902</v>
+        <v>1911</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1903</v>
+        <v>1912</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1904</v>
+        <v>1913</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>18</v>
@@ -13299,13 +13326,13 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1905</v>
+        <v>1914</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1906</v>
+        <v>1915</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1907</v>
+        <v>1916</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>18</v>
@@ -13328,13 +13355,13 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1908</v>
+        <v>1917</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1909</v>
+        <v>1918</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1910</v>
+        <v>1919</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>18</v>
@@ -13357,13 +13384,13 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1911</v>
+        <v>1920</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1912</v>
+        <v>1921</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1913</v>
+        <v>1922</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>18</v>
@@ -13386,13 +13413,13 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1914</v>
+        <v>1923</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1915</v>
+        <v>1924</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1916</v>
+        <v>1925</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>18</v>
@@ -13415,13 +13442,13 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1917</v>
+        <v>1926</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1918</v>
+        <v>1927</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1919</v>
+        <v>1928</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>18</v>
@@ -13444,13 +13471,13 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1920</v>
+        <v>1929</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1921</v>
+        <v>1930</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1922</v>
+        <v>1931</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>18</v>
@@ -13473,13 +13500,13 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1923</v>
+        <v>1932</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1924</v>
+        <v>1933</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1925</v>
+        <v>1934</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>18</v>
@@ -13502,13 +13529,13 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1926</v>
+        <v>1935</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1927</v>
+        <v>1936</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1928</v>
+        <v>1937</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>18</v>
@@ -13531,13 +13558,13 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1929</v>
+        <v>1938</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1930</v>
+        <v>1939</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1931</v>
+        <v>1940</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>18</v>
@@ -13560,13 +13587,13 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1932</v>
+        <v>1941</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1933</v>
+        <v>1942</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1934</v>
+        <v>1943</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>18</v>
@@ -13589,13 +13616,13 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1935</v>
+        <v>1944</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1936</v>
+        <v>1945</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1937</v>
+        <v>1946</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>18</v>
@@ -13618,13 +13645,13 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1938</v>
+        <v>1947</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1939</v>
+        <v>1948</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1940</v>
+        <v>1949</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>18</v>
@@ -13647,13 +13674,13 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1941</v>
+        <v>1950</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1942</v>
+        <v>1951</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1943</v>
+        <v>1952</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>18</v>
@@ -13676,13 +13703,13 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1944</v>
+        <v>1953</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1945</v>
+        <v>1954</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1946</v>
+        <v>1955</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>18</v>
@@ -13705,13 +13732,13 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1947</v>
+        <v>1956</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1948</v>
+        <v>1957</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1949</v>
+        <v>1958</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>18</v>
@@ -13734,13 +13761,13 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1950</v>
+        <v>1959</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1951</v>
+        <v>1960</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1952</v>
+        <v>1961</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>18</v>
@@ -13763,13 +13790,13 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1953</v>
+        <v>1962</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1954</v>
+        <v>1963</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1955</v>
+        <v>1964</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>18</v>
@@ -13792,13 +13819,13 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1956</v>
+        <v>1965</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1957</v>
+        <v>1966</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1958</v>
+        <v>1967</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>18</v>
@@ -13821,13 +13848,13 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1959</v>
+        <v>1968</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1960</v>
+        <v>1969</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>1961</v>
+        <v>1970</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>18</v>
@@ -13850,13 +13877,13 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1962</v>
+        <v>1971</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1963</v>
+        <v>1972</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>1964</v>
+        <v>1973</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>18</v>
@@ -13879,13 +13906,13 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1965</v>
+        <v>1974</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1966</v>
+        <v>1975</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>1967</v>
+        <v>1976</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>18</v>
@@ -13908,13 +13935,13 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1968</v>
+        <v>1977</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1969</v>
+        <v>1978</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>1970</v>
+        <v>1979</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>18</v>
@@ -13937,13 +13964,13 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1971</v>
+        <v>1980</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1972</v>
+        <v>1981</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>1973</v>
+        <v>1982</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>18</v>
@@ -13966,25 +13993,25 @@
         <v>45</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1974</v>
+        <v>1983</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1975</v>
+        <v>1984</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>1976</v>
+        <v>1985</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1977</v>
+        <v>1986</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>1978</v>
+        <v>1987</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1979</v>
+        <v>1988</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>1980</v>
+        <v>1989</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>19</v>
@@ -14369,31 +14396,31 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1981</v>
+        <v>1990</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1982</v>
+        <v>1991</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1983</v>
+        <v>1992</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1984</v>
+        <v>1993</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>1985</v>
+        <v>1994</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>1986</v>
+        <v>1995</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>1987</v>
+        <v>1996</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>1988</v>
+        <v>1997</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1989</v>
+        <v>1998</v>
       </c>
     </row>
   </sheetData>
@@ -14418,7 +14445,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1990</v>
+        <v>1999</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -14442,61 +14469,61 @@
         <v>7</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>1991</v>
+        <v>2000</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>1992</v>
+        <v>2001</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>1993</v>
+        <v>2002</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>1994</v>
+        <v>2003</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>1995</v>
+        <v>2004</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>1996</v>
+        <v>2005</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>1997</v>
+        <v>2006</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>1998</v>
+        <v>2007</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>1999</v>
+        <v>2008</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>2000</v>
+        <v>2009</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>2002</v>
+        <v>2011</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>2003</v>
+        <v>2012</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>2004</v>
+        <v>2013</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>2005</v>
+        <v>2014</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>2006</v>
+        <v>2015</v>
       </c>
       <c r="Y1" s="9" t="s">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>2009</v>
+        <v>2018</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>8</v>
@@ -14504,88 +14531,88 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1887</v>
+        <v>1896</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>2011</v>
+        <v>2020</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>2013</v>
+        <v>2022</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>2016</v>
+        <v>2025</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>2017</v>
+        <v>2026</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>2018</v>
+        <v>2027</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>2019</v>
+        <v>2028</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>2020</v>
+        <v>2029</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>2021</v>
+        <v>2030</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>2022</v>
+        <v>2031</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>2023</v>
+        <v>2032</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>2024</v>
+        <v>2033</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>2025</v>
+        <v>2034</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>2026</v>
+        <v>2035</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>2027</v>
+        <v>2036</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>1808</v>
+        <v>1817</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>2028</v>
+        <v>2037</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>2029</v>
+        <v>2038</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>2030</v>
+        <v>2039</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>2031</v>
+        <v>2040</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>2032</v>
+        <v>2041</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>2033</v>
+        <v>2042</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>2034</v>
+        <v>2043</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>2035</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="3">
@@ -14593,85 +14620,85 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2036</v>
+        <v>2045</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>2037</v>
+        <v>2046</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>2038</v>
+        <v>2047</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>2039</v>
+        <v>2048</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>2040</v>
+        <v>2049</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>2041</v>
+        <v>2050</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>2042</v>
+        <v>2051</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>2043</v>
+        <v>2052</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>1747</v>
+        <v>1756</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>2044</v>
+        <v>2053</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>2045</v>
+        <v>2054</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>2046</v>
+        <v>2055</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>2047</v>
+        <v>2056</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>1733</v>
+        <v>1742</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>1810</v>
+        <v>1819</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>2048</v>
+        <v>2057</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>2049</v>
+        <v>2058</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>2050</v>
+        <v>2059</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>2051</v>
+        <v>2060</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>2052</v>
+        <v>2061</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>2053</v>
+        <v>2062</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>2054</v>
+        <v>2063</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>2055</v>
+        <v>2064</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>1765</v>
+        <v>1774</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>2056</v>
+        <v>2065</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>1840</v>
+        <v>1849</v>
       </c>
       <c r="AB3" s="12" t="s">
-        <v>2057</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="4">
@@ -14679,85 +14706,85 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2058</v>
+        <v>2067</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>2059</v>
+        <v>2068</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>2060</v>
+        <v>2069</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>2061</v>
+        <v>2070</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>2062</v>
+        <v>2071</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1718</v>
+        <v>1727</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>2063</v>
+        <v>2072</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>2064</v>
+        <v>2073</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>1773</v>
+        <v>1782</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>2065</v>
+        <v>2074</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>2066</v>
+        <v>2075</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>2067</v>
+        <v>2076</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>2068</v>
+        <v>2077</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>2069</v>
+        <v>2078</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>2070</v>
+        <v>2079</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>2071</v>
+        <v>2080</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>1760</v>
+        <v>1769</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>2072</v>
+        <v>2081</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>2073</v>
+        <v>2082</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>2074</v>
+        <v>2083</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>2075</v>
+        <v>2084</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>2076</v>
+        <v>2085</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>2077</v>
+        <v>2086</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>2078</v>
+        <v>2087</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>2079</v>
+        <v>2088</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>2080</v>
+        <v>2089</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>2081</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="5">
@@ -14765,85 +14792,85 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2082</v>
+        <v>2091</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>2083</v>
+        <v>2092</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>2084</v>
+        <v>2093</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>2085</v>
+        <v>2094</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>2086</v>
+        <v>2095</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>2087</v>
+        <v>2096</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>1817</v>
+        <v>1826</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>2088</v>
+        <v>2097</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>2089</v>
+        <v>2098</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>2090</v>
+        <v>2099</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>1825</v>
+        <v>1834</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>1680</v>
+        <v>1689</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>2091</v>
+        <v>2100</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>2092</v>
+        <v>2101</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>2093</v>
+        <v>2102</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>2094</v>
+        <v>2103</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>2095</v>
+        <v>2104</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>2096</v>
+        <v>2105</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>2097</v>
+        <v>2106</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>2098</v>
+        <v>2107</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>1696</v>
+        <v>1705</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>2099</v>
+        <v>2108</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>2100</v>
+        <v>2109</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>2101</v>
+        <v>2110</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>2102</v>
+        <v>2111</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>2103</v>
+        <v>2112</v>
       </c>
       <c r="AB5" s="12" t="s">
-        <v>2104</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="6">
@@ -14851,85 +14878,85 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>2105</v>
+        <v>2114</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>2106</v>
+        <v>2115</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>2107</v>
+        <v>2116</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>2108</v>
+        <v>2117</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>2109</v>
+        <v>2118</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>2110</v>
+        <v>2119</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>2111</v>
+        <v>2120</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>2112</v>
+        <v>2121</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>2113</v>
+        <v>2122</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>2114</v>
+        <v>2123</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>2115</v>
+        <v>2124</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>2116</v>
+        <v>2125</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>2117</v>
+        <v>2126</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>1758</v>
+        <v>1767</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>2118</v>
+        <v>2127</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>2119</v>
+        <v>2128</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>2120</v>
+        <v>2129</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>2121</v>
+        <v>2130</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>2122</v>
+        <v>2131</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>2123</v>
+        <v>2132</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>2124</v>
+        <v>2133</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>2125</v>
+        <v>2134</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>2126</v>
+        <v>2135</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>2127</v>
+        <v>2136</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>2128</v>
+        <v>2137</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>1762</v>
+        <v>1771</v>
       </c>
       <c r="AB6" s="12" t="s">
-        <v>2129</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="7">
@@ -14937,85 +14964,85 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>2130</v>
+        <v>2139</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>2131</v>
+        <v>2140</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>2132</v>
+        <v>2141</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>2133</v>
+        <v>2142</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>2134</v>
+        <v>2143</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>2135</v>
+        <v>2144</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>1809</v>
+        <v>1818</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>2136</v>
+        <v>2145</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>2137</v>
+        <v>2146</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>1743</v>
+        <v>1752</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>2138</v>
+        <v>2147</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>1736</v>
+        <v>1745</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>1830</v>
+        <v>1839</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>2139</v>
+        <v>2148</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>2140</v>
+        <v>2149</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>1834</v>
+        <v>1843</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>2141</v>
+        <v>2150</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>2142</v>
+        <v>2151</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>1693</v>
+        <v>1702</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>2143</v>
+        <v>2152</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>2144</v>
+        <v>2153</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>2145</v>
+        <v>2154</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>1688</v>
+        <v>1697</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>2146</v>
+        <v>2155</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>2147</v>
+        <v>2156</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>2148</v>
+        <v>2157</v>
       </c>
       <c r="AB7" s="12" t="s">
-        <v>2149</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="8">
@@ -15023,85 +15050,85 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>2150</v>
+        <v>2159</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2151</v>
+        <v>2160</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>2152</v>
+        <v>2161</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>2153</v>
+        <v>2162</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>2154</v>
+        <v>2163</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>2155</v>
+        <v>2164</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>2156</v>
+        <v>2165</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>1713</v>
+        <v>1722</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>2157</v>
+        <v>2166</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>1730</v>
+        <v>1739</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>2158</v>
+        <v>2167</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>2159</v>
+        <v>2168</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>1789</v>
+        <v>1798</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>2160</v>
+        <v>2169</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>2161</v>
+        <v>2170</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>1717</v>
+        <v>1726</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>2162</v>
+        <v>2171</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>2163</v>
+        <v>2172</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>2164</v>
+        <v>2173</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>2165</v>
+        <v>2174</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>2166</v>
+        <v>2175</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>2167</v>
+        <v>2176</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>2168</v>
+        <v>2177</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>2169</v>
+        <v>2178</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>2170</v>
+        <v>2179</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>2171</v>
+        <v>2180</v>
       </c>
       <c r="AB8" s="12" t="s">
-        <v>2172</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="9">
@@ -15109,85 +15136,85 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>2173</v>
+        <v>2182</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>2174</v>
+        <v>2183</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>2175</v>
+        <v>2184</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>2176</v>
+        <v>2185</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>2177</v>
+        <v>2186</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>2178</v>
+        <v>2187</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>2179</v>
+        <v>2188</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>2180</v>
+        <v>2189</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>2181</v>
+        <v>2190</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>2182</v>
+        <v>2191</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>2183</v>
+        <v>2192</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>2184</v>
+        <v>2193</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>2185</v>
+        <v>2194</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>2186</v>
+        <v>2195</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>2187</v>
+        <v>2196</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>1735</v>
+        <v>1744</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>2188</v>
+        <v>2197</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>2189</v>
+        <v>2198</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>2190</v>
+        <v>2199</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>2191</v>
+        <v>2200</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>2192</v>
+        <v>2201</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>2193</v>
+        <v>2202</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>2194</v>
+        <v>2203</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>2195</v>
+        <v>2204</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>2196</v>
+        <v>2205</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>2197</v>
+        <v>2206</v>
       </c>
       <c r="AB9" s="12" t="s">
-        <v>2198</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="10">
@@ -15195,85 +15222,85 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>2199</v>
+        <v>2208</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>2200</v>
+        <v>2209</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>2201</v>
+        <v>2210</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>2202</v>
+        <v>2211</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>2203</v>
+        <v>2212</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>2204</v>
+        <v>2213</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>2205</v>
+        <v>2214</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>2206</v>
+        <v>2215</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>2207</v>
+        <v>2216</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>2208</v>
+        <v>2217</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>2209</v>
+        <v>2218</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>2210</v>
+        <v>2219</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>2211</v>
+        <v>2220</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>2212</v>
+        <v>2221</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>2213</v>
+        <v>2222</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>2214</v>
+        <v>2223</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>2215</v>
+        <v>2224</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>2216</v>
+        <v>2225</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>1799</v>
+        <v>1808</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>2217</v>
+        <v>2226</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>2218</v>
+        <v>2227</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>2219</v>
+        <v>2228</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>2220</v>
+        <v>2229</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>2221</v>
+        <v>2230</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>2222</v>
+        <v>2231</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>2223</v>
+        <v>2232</v>
       </c>
       <c r="AB10" s="12" t="s">
-        <v>2057</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="11">
@@ -15281,85 +15308,85 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>2224</v>
+        <v>2233</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>2225</v>
+        <v>2234</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>2226</v>
+        <v>2235</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>2227</v>
+        <v>2236</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>2228</v>
+        <v>2237</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>2229</v>
+        <v>2238</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>2230</v>
+        <v>2239</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>2231</v>
+        <v>2240</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>2232</v>
+        <v>2241</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>2233</v>
+        <v>2242</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>1798</v>
+        <v>1807</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>2234</v>
+        <v>2243</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>2235</v>
+        <v>2244</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>2236</v>
+        <v>2245</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>2237</v>
+        <v>2246</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>2238</v>
+        <v>2247</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>2239</v>
+        <v>2248</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>2240</v>
+        <v>2249</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>2241</v>
+        <v>2250</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>2242</v>
+        <v>2251</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>2243</v>
+        <v>2252</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>2244</v>
+        <v>2253</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>2245</v>
+        <v>2254</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>2246</v>
+        <v>2255</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>2247</v>
+        <v>2256</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>2248</v>
+        <v>2257</v>
       </c>
       <c r="AB11" s="12" t="s">
-        <v>2081</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="12">
@@ -15367,85 +15394,85 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>2249</v>
+        <v>2258</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>2250</v>
+        <v>2259</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>2251</v>
+        <v>2260</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>2252</v>
+        <v>2261</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>2253</v>
+        <v>2262</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>2254</v>
+        <v>2263</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>2255</v>
+        <v>2264</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>2256</v>
+        <v>2265</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>2257</v>
+        <v>2266</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>1831</v>
+        <v>1840</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>2258</v>
+        <v>2267</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>2259</v>
+        <v>2268</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>1704</v>
+        <v>1713</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>2260</v>
+        <v>2269</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>2261</v>
+        <v>2270</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>1837</v>
+        <v>1846</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>2262</v>
+        <v>2271</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>2263</v>
+        <v>2272</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>2264</v>
+        <v>2273</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>2265</v>
+        <v>2274</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>2266</v>
+        <v>2275</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>2267</v>
+        <v>2276</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>2268</v>
+        <v>2277</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>2269</v>
+        <v>2278</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>2270</v>
+        <v>2279</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>2271</v>
+        <v>2280</v>
       </c>
       <c r="AB12" s="12" t="s">
-        <v>2272</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="13">
@@ -15453,85 +15480,85 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>2273</v>
+        <v>2282</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>2274</v>
+        <v>2283</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>2275</v>
+        <v>2284</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>2276</v>
+        <v>2285</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>2277</v>
+        <v>2286</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>2278</v>
+        <v>2287</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>2279</v>
+        <v>2288</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>2280</v>
+        <v>2289</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>2281</v>
+        <v>2290</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>1766</v>
+        <v>1775</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>2282</v>
+        <v>2291</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>2283</v>
+        <v>2292</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>2284</v>
+        <v>2293</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>2285</v>
+        <v>2294</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>2286</v>
+        <v>2295</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>2287</v>
+        <v>2296</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>2288</v>
+        <v>2297</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>1720</v>
+        <v>1729</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>2289</v>
+        <v>2298</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>2290</v>
+        <v>2299</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>2291</v>
+        <v>2300</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>2292</v>
+        <v>2301</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>2293</v>
+        <v>2302</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>2294</v>
+        <v>2303</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>2295</v>
+        <v>2304</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>2296</v>
+        <v>2305</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>2297</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="14">
@@ -15539,85 +15566,85 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>2298</v>
+        <v>2307</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>2299</v>
+        <v>2308</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>2300</v>
+        <v>2309</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>2301</v>
+        <v>2310</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>2302</v>
+        <v>2311</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>2303</v>
+        <v>2312</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>2304</v>
+        <v>2313</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>1780</v>
+        <v>1789</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>1827</v>
+        <v>1836</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>2305</v>
+        <v>2314</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>2306</v>
+        <v>2315</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>2307</v>
+        <v>2316</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>2308</v>
+        <v>2317</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>1764</v>
+        <v>1773</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>1833</v>
+        <v>1842</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>2309</v>
+        <v>2318</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>2310</v>
+        <v>2319</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>2311</v>
+        <v>2320</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>2312</v>
+        <v>2321</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>2313</v>
+        <v>2322</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>2314</v>
+        <v>2323</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>2315</v>
+        <v>2324</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>2316</v>
+        <v>2325</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>2317</v>
+        <v>2326</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>2318</v>
+        <v>2327</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>2319</v>
+        <v>2328</v>
       </c>
       <c r="AB14" s="12" t="s">
-        <v>2320</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="15">
@@ -15625,85 +15652,85 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>2321</v>
+        <v>2330</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>2322</v>
+        <v>2331</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>2323</v>
+        <v>2332</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>2324</v>
+        <v>2333</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1682</v>
+        <v>1691</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>2325</v>
+        <v>2334</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>2326</v>
+        <v>2335</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>1699</v>
+        <v>1708</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>2327</v>
+        <v>2336</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>1779</v>
+        <v>1788</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>2328</v>
+        <v>2337</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>2329</v>
+        <v>2338</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>2330</v>
+        <v>2339</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>1761</v>
+        <v>1770</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>2331</v>
+        <v>2340</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>2332</v>
+        <v>2341</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>1708</v>
+        <v>1717</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>2333</v>
+        <v>2342</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>2334</v>
+        <v>2343</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>2335</v>
+        <v>2344</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>2336</v>
+        <v>2345</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>2337</v>
+        <v>2346</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>2338</v>
+        <v>2347</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>2339</v>
+        <v>2348</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>1771</v>
+        <v>1780</v>
       </c>
       <c r="AB15" s="12" t="s">
-        <v>2340</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="16">
@@ -15711,85 +15738,85 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>2341</v>
+        <v>2350</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>2342</v>
+        <v>2351</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>2343</v>
+        <v>2352</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>2344</v>
+        <v>2353</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>2345</v>
+        <v>2354</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>2346</v>
+        <v>2355</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>2347</v>
+        <v>2356</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>2348</v>
+        <v>2357</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>2349</v>
+        <v>2358</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>2350</v>
+        <v>2359</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>2351</v>
+        <v>2360</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>2352</v>
+        <v>2361</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>2353</v>
+        <v>2362</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>1712</v>
+        <v>1721</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>2354</v>
+        <v>2363</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>2355</v>
+        <v>2364</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>2356</v>
+        <v>2365</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>2357</v>
+        <v>2366</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>2358</v>
+        <v>2367</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>2359</v>
+        <v>2368</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>2360</v>
+        <v>2369</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>2361</v>
+        <v>2370</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>2362</v>
+        <v>2371</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>2363</v>
+        <v>2372</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>2364</v>
+        <v>2373</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>2365</v>
+        <v>2374</v>
       </c>
       <c r="AB16" s="12" t="s">
-        <v>2366</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="17">
@@ -15797,85 +15824,85 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>2367</v>
+        <v>2376</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>2368</v>
+        <v>2377</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>2369</v>
+        <v>2378</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>2370</v>
+        <v>2379</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>2371</v>
+        <v>2380</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>2372</v>
+        <v>2381</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>2373</v>
+        <v>2382</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>2374</v>
+        <v>2383</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>1755</v>
+        <v>1764</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>1800</v>
+        <v>1809</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>2375</v>
+        <v>2384</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>2376</v>
+        <v>2385</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>2377</v>
+        <v>2386</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>2378</v>
+        <v>2387</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>2379</v>
+        <v>2388</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>2380</v>
+        <v>2389</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>1829</v>
+        <v>1838</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>2381</v>
+        <v>2390</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>2382</v>
+        <v>2391</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>2383</v>
+        <v>2392</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>2384</v>
+        <v>2393</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>2385</v>
+        <v>2394</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>2386</v>
+        <v>2395</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>1813</v>
+        <v>1822</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>2387</v>
+        <v>2396</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>2388</v>
+        <v>2397</v>
       </c>
       <c r="AB17" s="12" t="s">
-        <v>2389</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="18">
@@ -15883,85 +15910,85 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>2390</v>
+        <v>2399</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>2391</v>
+        <v>2400</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>2392</v>
+        <v>2401</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>2393</v>
+        <v>2402</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1794</v>
+        <v>1803</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>1742</v>
+        <v>1751</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>2394</v>
+        <v>2403</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>2395</v>
+        <v>2404</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>2396</v>
+        <v>2405</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>2397</v>
+        <v>2406</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>2398</v>
+        <v>2407</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>1745</v>
+        <v>1754</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>2399</v>
+        <v>2408</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>2400</v>
+        <v>2409</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>2401</v>
+        <v>2410</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>2402</v>
+        <v>2411</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>2403</v>
+        <v>2412</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>1803</v>
+        <v>1812</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>2404</v>
+        <v>2413</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>2405</v>
+        <v>2414</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>2406</v>
+        <v>2415</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>2407</v>
+        <v>2416</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>2408</v>
+        <v>2417</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>2409</v>
+        <v>2418</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>2410</v>
+        <v>2419</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>2411</v>
+        <v>2420</v>
       </c>
       <c r="AB18" s="12" t="s">
-        <v>2149</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="19">
@@ -15969,85 +15996,85 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>2412</v>
+        <v>2421</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>2413</v>
+        <v>2422</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>2414</v>
+        <v>2423</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>2415</v>
+        <v>2424</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>2416</v>
+        <v>2425</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>2417</v>
+        <v>2426</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>2418</v>
+        <v>2427</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>1770</v>
+        <v>1779</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>2419</v>
+        <v>2428</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>1756</v>
+        <v>1765</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>1727</v>
+        <v>1736</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>2420</v>
+        <v>2429</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>1749</v>
+        <v>1758</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>2421</v>
+        <v>2430</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>2422</v>
+        <v>2431</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>2423</v>
+        <v>2432</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>2424</v>
+        <v>2433</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>2425</v>
+        <v>2434</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>2426</v>
+        <v>2435</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>2427</v>
+        <v>2436</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>2428</v>
+        <v>2437</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>2429</v>
+        <v>2438</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>2430</v>
+        <v>2439</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>2431</v>
+        <v>2440</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>2432</v>
+        <v>2441</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>2433</v>
+        <v>2442</v>
       </c>
       <c r="AB19" s="12" t="s">
-        <v>2434</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="20">
@@ -16055,85 +16082,85 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>2435</v>
+        <v>2444</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>2436</v>
+        <v>2445</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>2437</v>
+        <v>2446</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>2438</v>
+        <v>2447</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>2439</v>
+        <v>2448</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>2440</v>
+        <v>2449</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>2441</v>
+        <v>2450</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>1836</v>
+        <v>1845</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>1715</v>
+        <v>1724</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>2442</v>
+        <v>2451</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>2443</v>
+        <v>2452</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>2444</v>
+        <v>2453</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>2445</v>
+        <v>2454</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>2446</v>
+        <v>2455</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>2447</v>
+        <v>2456</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>2448</v>
+        <v>2457</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>2449</v>
+        <v>2458</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>2450</v>
+        <v>2459</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>2451</v>
+        <v>2460</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>2452</v>
+        <v>2461</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>2453</v>
+        <v>2462</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>1694</v>
+        <v>1703</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>2454</v>
+        <v>2463</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>2455</v>
+        <v>2464</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>2456</v>
+        <v>2465</v>
       </c>
       <c r="AB20" s="12" t="s">
-        <v>2457</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="21">
@@ -16141,85 +16168,85 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>2458</v>
+        <v>2467</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>2459</v>
+        <v>2468</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>2460</v>
+        <v>2469</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>2461</v>
+        <v>2470</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>2462</v>
+        <v>2471</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1816</v>
+        <v>1825</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>2463</v>
+        <v>2472</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>2464</v>
+        <v>2473</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>2465</v>
+        <v>2474</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>2466</v>
+        <v>2475</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>2467</v>
+        <v>2476</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>1841</v>
+        <v>1850</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>2468</v>
+        <v>2477</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>2469</v>
+        <v>2478</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>2470</v>
+        <v>2479</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>2471</v>
+        <v>2480</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>2472</v>
+        <v>2481</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>2473</v>
+        <v>2482</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>2474</v>
+        <v>2483</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>2475</v>
+        <v>2484</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>2476</v>
+        <v>2485</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>2477</v>
+        <v>2486</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>2478</v>
+        <v>2487</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>2479</v>
+        <v>2488</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>2480</v>
+        <v>2489</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>1670</v>
+        <v>1679</v>
       </c>
       <c r="AB21" s="12" t="s">
-        <v>2481</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="22">
@@ -16227,85 +16254,85 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>2482</v>
+        <v>2491</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>2483</v>
+        <v>2492</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>2484</v>
+        <v>2493</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>2485</v>
+        <v>2494</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>2486</v>
+        <v>2495</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>2487</v>
+        <v>2496</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>2488</v>
+        <v>2497</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>2489</v>
+        <v>2498</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>2490</v>
+        <v>2499</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>2491</v>
+        <v>2500</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>2492</v>
+        <v>2501</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>2493</v>
+        <v>2502</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>1818</v>
+        <v>1827</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>1698</v>
+        <v>1707</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>2494</v>
+        <v>2503</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>2495</v>
+        <v>2504</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>2496</v>
+        <v>2505</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>2497</v>
+        <v>2506</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>2498</v>
+        <v>2507</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>2499</v>
+        <v>2508</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>2500</v>
+        <v>2509</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>2501</v>
+        <v>2510</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>2502</v>
+        <v>2511</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>2503</v>
+        <v>2512</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>1822</v>
+        <v>1831</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>2504</v>
+        <v>2513</v>
       </c>
       <c r="AB22" s="12" t="s">
-        <v>2505</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="23">
@@ -16313,85 +16340,85 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>2506</v>
+        <v>2515</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>2507</v>
+        <v>2516</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>2508</v>
+        <v>2517</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>2509</v>
+        <v>2518</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>2510</v>
+        <v>2519</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>2511</v>
+        <v>2520</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>2512</v>
+        <v>2521</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>2513</v>
+        <v>2522</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>2514</v>
+        <v>2523</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>2515</v>
+        <v>2524</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>2516</v>
+        <v>2525</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>2517</v>
+        <v>2526</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>2518</v>
+        <v>2527</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>2519</v>
+        <v>2528</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>2520</v>
+        <v>2529</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>2521</v>
+        <v>2530</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>2522</v>
+        <v>2531</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>2523</v>
+        <v>2532</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>2524</v>
+        <v>2533</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>2525</v>
+        <v>2534</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>1823</v>
+        <v>1832</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>2526</v>
+        <v>2535</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>2527</v>
+        <v>2536</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>2528</v>
+        <v>2537</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>2529</v>
+        <v>2538</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>2530</v>
+        <v>2539</v>
       </c>
       <c r="AB23" s="12" t="s">
-        <v>2531</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="24">
@@ -16399,85 +16426,85 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>2532</v>
+        <v>2541</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>2533</v>
+        <v>2542</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>2534</v>
+        <v>2543</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>2535</v>
+        <v>2544</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>2536</v>
+        <v>2545</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>2537</v>
+        <v>2546</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>1774</v>
+        <v>1783</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>2538</v>
+        <v>2547</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>2539</v>
+        <v>2548</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>2540</v>
+        <v>2549</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>2541</v>
+        <v>2550</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>2542</v>
+        <v>2551</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>2543</v>
+        <v>2552</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>2544</v>
+        <v>2553</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>2545</v>
+        <v>2554</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>2546</v>
+        <v>2555</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>2547</v>
+        <v>2556</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>2548</v>
+        <v>2557</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>2549</v>
+        <v>2558</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>2550</v>
+        <v>2559</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>2551</v>
+        <v>2560</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>2552</v>
+        <v>2561</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>2553</v>
+        <v>2562</v>
       </c>
       <c r="Y24" s="5" t="s">
-        <v>2554</v>
+        <v>2563</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>2555</v>
+        <v>2564</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>2556</v>
+        <v>2565</v>
       </c>
       <c r="AB24" s="12" t="s">
-        <v>2557</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="25">
@@ -16485,85 +16512,85 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>2558</v>
+        <v>2567</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>2559</v>
+        <v>2568</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>2560</v>
+        <v>2569</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>2561</v>
+        <v>2570</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>2562</v>
+        <v>2571</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>2563</v>
+        <v>2572</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>2564</v>
+        <v>2573</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>2565</v>
+        <v>2574</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>2566</v>
+        <v>2575</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>2567</v>
+        <v>2576</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>2568</v>
+        <v>2577</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>2569</v>
+        <v>2578</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>2570</v>
+        <v>2579</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>2571</v>
+        <v>2580</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>2572</v>
+        <v>2581</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>1768</v>
+        <v>1777</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>2573</v>
+        <v>2582</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>2574</v>
+        <v>2583</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>1729</v>
+        <v>1738</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>2575</v>
+        <v>2584</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>2576</v>
+        <v>2585</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>2577</v>
+        <v>2586</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>2578</v>
+        <v>2587</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>2579</v>
+        <v>2588</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>2580</v>
+        <v>2589</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>2581</v>
+        <v>2590</v>
       </c>
       <c r="AB25" s="12" t="s">
-        <v>2198</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="26">
@@ -16571,85 +16598,85 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>2582</v>
+        <v>2591</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>2583</v>
+        <v>2592</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>2584</v>
+        <v>2593</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>2585</v>
+        <v>2594</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>2586</v>
+        <v>2595</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>2587</v>
+        <v>2596</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>2588</v>
+        <v>2597</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>2589</v>
+        <v>2598</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>2590</v>
+        <v>2599</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>2591</v>
+        <v>2600</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>2592</v>
+        <v>2601</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>1703</v>
+        <v>1712</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>2593</v>
+        <v>2602</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>1806</v>
+        <v>1815</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>2594</v>
+        <v>2603</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>1842</v>
+        <v>1851</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>2595</v>
+        <v>2604</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>2596</v>
+        <v>2605</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>2597</v>
+        <v>2606</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>2598</v>
+        <v>2607</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>2599</v>
+        <v>2608</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>2600</v>
+        <v>2609</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>2601</v>
+        <v>2610</v>
       </c>
       <c r="Y26" s="5" t="s">
-        <v>2602</v>
+        <v>2611</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>2603</v>
+        <v>2612</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>2604</v>
+        <v>2613</v>
       </c>
       <c r="AB26" s="12" t="s">
-        <v>2605</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="27">
@@ -16657,85 +16684,85 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>2606</v>
+        <v>2615</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>2607</v>
+        <v>2616</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>2608</v>
+        <v>2617</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>2609</v>
+        <v>2618</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>2610</v>
+        <v>2619</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>2611</v>
+        <v>2620</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>2612</v>
+        <v>2621</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>2613</v>
+        <v>2622</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>2614</v>
+        <v>2623</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>2615</v>
+        <v>2624</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>2616</v>
+        <v>2625</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>2617</v>
+        <v>2626</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>2618</v>
+        <v>2627</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>2619</v>
+        <v>2628</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>2620</v>
+        <v>2629</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>2621</v>
+        <v>2630</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>2622</v>
+        <v>2631</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>2623</v>
+        <v>2632</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>2624</v>
+        <v>2633</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>2625</v>
+        <v>2634</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>1684</v>
+        <v>1693</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>2626</v>
+        <v>2635</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>2627</v>
+        <v>2636</v>
       </c>
       <c r="Y27" s="5" t="s">
-        <v>2628</v>
+        <v>2637</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>2629</v>
+        <v>2638</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>2630</v>
+        <v>2639</v>
       </c>
       <c r="AB27" s="12" t="s">
-        <v>2631</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="28">
@@ -16743,85 +16770,85 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>2632</v>
+        <v>2641</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>2633</v>
+        <v>2642</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>2634</v>
+        <v>2643</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>2635</v>
+        <v>2644</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>2636</v>
+        <v>2645</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>2637</v>
+        <v>2646</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>1796</v>
+        <v>1805</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>2638</v>
+        <v>2647</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>2639</v>
+        <v>2648</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>2640</v>
+        <v>2649</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>2641</v>
+        <v>2650</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>2642</v>
+        <v>2651</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>2643</v>
+        <v>2652</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>2644</v>
+        <v>2653</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>2645</v>
+        <v>2654</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>2646</v>
+        <v>2655</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>2647</v>
+        <v>2656</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>2648</v>
+        <v>2657</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>2649</v>
+        <v>2658</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>2650</v>
+        <v>2659</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>2651</v>
+        <v>2660</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>2652</v>
+        <v>2661</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>2653</v>
+        <v>2662</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>2654</v>
+        <v>2663</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>2655</v>
+        <v>2664</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>2656</v>
+        <v>2665</v>
       </c>
       <c r="AB28" s="12" t="s">
-        <v>2657</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="29">
@@ -16829,85 +16856,85 @@
         <v>45</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>2658</v>
+        <v>2667</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>2659</v>
+        <v>2668</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>2660</v>
+        <v>2669</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>2661</v>
+        <v>2670</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>2662</v>
+        <v>2671</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>2663</v>
+        <v>2672</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>2664</v>
+        <v>2673</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>2665</v>
+        <v>2674</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>2666</v>
+        <v>2675</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>2667</v>
+        <v>2676</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>2668</v>
+        <v>2677</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>2669</v>
+        <v>2678</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>2670</v>
+        <v>2679</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>2671</v>
+        <v>2680</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>2672</v>
+        <v>2681</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>2673</v>
+        <v>2682</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>2674</v>
+        <v>2683</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>2675</v>
+        <v>2684</v>
       </c>
       <c r="T29" s="9" t="s">
-        <v>2676</v>
+        <v>2685</v>
       </c>
       <c r="U29" s="9" t="s">
-        <v>2677</v>
+        <v>2686</v>
       </c>
       <c r="V29" s="9" t="s">
-        <v>2678</v>
+        <v>2687</v>
       </c>
       <c r="W29" s="9" t="s">
-        <v>2679</v>
+        <v>2688</v>
       </c>
       <c r="X29" s="9" t="s">
-        <v>2443</v>
+        <v>2452</v>
       </c>
       <c r="Y29" s="9" t="s">
-        <v>2680</v>
+        <v>2689</v>
       </c>
       <c r="Z29" s="9" t="s">
-        <v>2681</v>
+        <v>2690</v>
       </c>
       <c r="AA29" s="9" t="s">
-        <v>2682</v>
+        <v>2691</v>
       </c>
       <c r="AB29" s="12" t="s">
-        <v>2683</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="30">
@@ -16915,85 +16942,85 @@
         <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>2684</v>
+        <v>2693</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>2685</v>
+        <v>2694</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>2686</v>
+        <v>2695</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>2687</v>
+        <v>2696</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>2688</v>
+        <v>2697</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>2689</v>
+        <v>2698</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>2690</v>
+        <v>2699</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>2691</v>
+        <v>2700</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>2692</v>
+        <v>2701</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>2693</v>
+        <v>2702</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>2694</v>
+        <v>2703</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>2695</v>
+        <v>2704</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>2696</v>
+        <v>2705</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>2697</v>
+        <v>2706</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>2698</v>
+        <v>2707</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>2699</v>
+        <v>2708</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>2700</v>
+        <v>2709</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>2701</v>
+        <v>2710</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>2702</v>
+        <v>2711</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>2703</v>
+        <v>2712</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>2704</v>
+        <v>2713</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>2705</v>
+        <v>2714</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>2706</v>
+        <v>2715</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>2707</v>
+        <v>2716</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>2708</v>
+        <v>2717</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>2709</v>
+        <v>2718</v>
       </c>
       <c r="AB30" s="3" t="s">
-        <v>2710</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="31">
@@ -17001,85 +17028,85 @@
         <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2711</v>
+        <v>2720</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>2712</v>
+        <v>2721</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>2713</v>
+        <v>2722</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>2714</v>
+        <v>2723</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>2715</v>
+        <v>2724</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>2716</v>
+        <v>2725</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>2717</v>
+        <v>2726</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>2718</v>
+        <v>2727</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>2719</v>
+        <v>2728</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>2720</v>
+        <v>2729</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>2721</v>
+        <v>2730</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>2722</v>
+        <v>2731</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>2723</v>
+        <v>2732</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>2724</v>
+        <v>2733</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>2725</v>
+        <v>2734</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>2726</v>
+        <v>2735</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>2727</v>
+        <v>2736</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>2728</v>
+        <v>2737</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>2729</v>
+        <v>2738</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>2730</v>
+        <v>2739</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>2731</v>
+        <v>2740</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>2732</v>
+        <v>2741</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>2733</v>
+        <v>2742</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>2734</v>
+        <v>2743</v>
       </c>
       <c r="Z31" s="2" t="s">
-        <v>2735</v>
+        <v>2744</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>2736</v>
+        <v>2745</v>
       </c>
       <c r="AB31" s="3" t="s">
-        <v>2737</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="32">
@@ -17165,7 +17192,7 @@
         <v>161</v>
       </c>
       <c r="AB32" s="12" t="s">
-        <v>2738</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="33">
@@ -17251,7 +17278,7 @@
         <v>161</v>
       </c>
       <c r="AB33" s="12" t="s">
-        <v>2739</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="34">
@@ -17337,7 +17364,7 @@
         <v>161</v>
       </c>
       <c r="AB34" s="12" t="s">
-        <v>2740</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="35">
@@ -17423,7 +17450,7 @@
         <v>161</v>
       </c>
       <c r="AB35" s="12" t="s">
-        <v>2741</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="36">
@@ -17431,85 +17458,85 @@
         <v>67</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>2742</v>
+        <v>2751</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>2743</v>
+        <v>2752</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2744</v>
+        <v>2753</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1868</v>
+        <v>1877</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>2745</v>
+        <v>2754</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>2746</v>
+        <v>2755</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>2747</v>
+        <v>2756</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>2748</v>
+        <v>2757</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>2749</v>
+        <v>2758</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>2750</v>
+        <v>2759</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>2751</v>
+        <v>2760</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>2752</v>
+        <v>2761</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>2753</v>
+        <v>2762</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>2754</v>
+        <v>2763</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>2755</v>
+        <v>2764</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>2756</v>
+        <v>2765</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>2757</v>
+        <v>2766</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>2758</v>
+        <v>2767</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>2759</v>
+        <v>2768</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>2760</v>
+        <v>2769</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>2761</v>
+        <v>2770</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>2762</v>
+        <v>2771</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>2763</v>
+        <v>2772</v>
       </c>
       <c r="Y36" s="2" t="s">
-        <v>2764</v>
+        <v>2773</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>2765</v>
+        <v>2774</v>
       </c>
       <c r="AA36" s="2" t="s">
-        <v>2766</v>
+        <v>2775</v>
       </c>
       <c r="AB36" s="3" t="s">
-        <v>2767</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="37">
@@ -17595,7 +17622,7 @@
         <v>161</v>
       </c>
       <c r="AB37" s="12" t="s">
-        <v>2768</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="38">
@@ -17681,7 +17708,7 @@
         <v>161</v>
       </c>
       <c r="AB38" s="12" t="s">
-        <v>2769</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="39">
@@ -17767,7 +17794,7 @@
         <v>161</v>
       </c>
       <c r="AB39" s="12" t="s">
-        <v>2770</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="40">
@@ -17853,7 +17880,7 @@
         <v>161</v>
       </c>
       <c r="AB40" s="12" t="s">
-        <v>2771</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="41">
@@ -17939,7 +17966,7 @@
         <v>161</v>
       </c>
       <c r="AB41" s="12" t="s">
-        <v>2772</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="42">
@@ -18030,88 +18057,88 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2773</v>
+        <v>2782</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2774</v>
+        <v>2783</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2775</v>
+        <v>2784</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>2776</v>
+        <v>2785</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>2777</v>
+        <v>2786</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>2778</v>
+        <v>2787</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>2779</v>
+        <v>2788</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>2780</v>
+        <v>2789</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>2781</v>
+        <v>2790</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>2782</v>
+        <v>2791</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>2783</v>
+        <v>2792</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>2784</v>
+        <v>2793</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>2785</v>
+        <v>2794</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>2786</v>
+        <v>2795</v>
       </c>
       <c r="O43" s="11" t="s">
-        <v>2787</v>
+        <v>2796</v>
       </c>
       <c r="P43" s="9" t="s">
-        <v>2788</v>
+        <v>2797</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>2789</v>
+        <v>2798</v>
       </c>
       <c r="R43" s="9" t="s">
-        <v>2790</v>
+        <v>2799</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>2791</v>
+        <v>2800</v>
       </c>
       <c r="T43" s="9" t="s">
-        <v>2792</v>
+        <v>2801</v>
       </c>
       <c r="U43" s="9" t="s">
-        <v>2793</v>
+        <v>2802</v>
       </c>
       <c r="V43" s="9" t="s">
-        <v>2794</v>
+        <v>2803</v>
       </c>
       <c r="W43" s="9" t="s">
-        <v>2795</v>
+        <v>2804</v>
       </c>
       <c r="X43" s="9" t="s">
-        <v>2796</v>
+        <v>2805</v>
       </c>
       <c r="Y43" s="9" t="s">
-        <v>2797</v>
+        <v>2806</v>
       </c>
       <c r="Z43" s="9" t="s">
-        <v>2798</v>
+        <v>2807</v>
       </c>
       <c r="AA43" s="9" t="s">
-        <v>2799</v>
+        <v>2808</v>
       </c>
       <c r="AB43" s="12" t="s">
-        <v>2320</v>
+        <v>2329</v>
       </c>
     </row>
   </sheetData>
@@ -18137,7 +18164,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2800</v>
+        <v>2809</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -18151,16 +18178,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2801</v>
+        <v>2810</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2802</v>
+        <v>2811</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2803</v>
+        <v>2812</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>2804</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="3">
@@ -18168,10 +18195,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2805</v>
+        <v>2814</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2806</v>
+        <v>2815</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>19</v>
@@ -18182,10 +18209,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2807</v>
+        <v>2816</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>2808</v>
+        <v>2817</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>19</v>
@@ -18196,10 +18223,10 @@
         <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2809</v>
+        <v>2818</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2810</v>
+        <v>2819</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>19</v>
@@ -18210,10 +18237,10 @@
         <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2811</v>
+        <v>2820</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>2812</v>
+        <v>2821</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>19</v>
@@ -18224,10 +18251,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>2813</v>
+        <v>2822</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2814</v>
+        <v>2823</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>19</v>
@@ -18238,10 +18265,10 @@
         <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>2815</v>
+        <v>2824</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2816</v>
+        <v>2825</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>19</v>
@@ -18252,10 +18279,10 @@
         <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>2817</v>
+        <v>2826</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>2818</v>
+        <v>2827</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>19</v>
@@ -18266,10 +18293,10 @@
         <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2819</v>
+        <v>2828</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>2820</v>
+        <v>2829</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>19</v>
@@ -18280,10 +18307,10 @@
         <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>2821</v>
+        <v>2830</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>2822</v>
+        <v>2831</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>19</v>
@@ -18294,10 +18321,10 @@
         <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>2823</v>
+        <v>2832</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>2824</v>
+        <v>2833</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>19</v>
@@ -18308,10 +18335,10 @@
         <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2825</v>
+        <v>2834</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>2826</v>
+        <v>2835</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>19</v>
@@ -18322,10 +18349,10 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2827</v>
+        <v>2836</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>2828</v>
+        <v>2837</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>19</v>
@@ -18336,10 +18363,10 @@
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>2829</v>
+        <v>2838</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>2830</v>
+        <v>2839</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>19</v>
@@ -18350,10 +18377,10 @@
         <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>2831</v>
+        <v>2840</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>2832</v>
+        <v>2841</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>19</v>
@@ -18364,10 +18391,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>2833</v>
+        <v>2842</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>2834</v>
+        <v>2843</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>19</v>
@@ -18378,10 +18405,10 @@
         <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>2835</v>
+        <v>2844</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>2836</v>
+        <v>2845</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>19</v>
@@ -18392,10 +18419,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>2837</v>
+        <v>2846</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>2838</v>
+        <v>2847</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>19</v>
@@ -18406,10 +18433,10 @@
         <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>2839</v>
+        <v>2848</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>2840</v>
+        <v>2849</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>19</v>
@@ -18420,10 +18447,10 @@
         <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>2841</v>
+        <v>2850</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>2842</v>
+        <v>2851</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>19</v>
@@ -18434,10 +18461,10 @@
         <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>2843</v>
+        <v>2852</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>2844</v>
+        <v>2853</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>19</v>
@@ -18448,10 +18475,10 @@
         <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>2845</v>
+        <v>2854</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>2846</v>
+        <v>2855</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>19</v>
@@ -18462,10 +18489,10 @@
         <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>2847</v>
+        <v>2856</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>2848</v>
+        <v>2857</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>19</v>
@@ -18476,10 +18503,10 @@
         <v>41</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>2849</v>
+        <v>2858</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>2850</v>
+        <v>2859</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>19</v>
@@ -18490,10 +18517,10 @@
         <v>42</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>2851</v>
+        <v>2860</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>2852</v>
+        <v>2861</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>19</v>
@@ -18504,10 +18531,10 @@
         <v>43</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>2853</v>
+        <v>2862</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>2854</v>
+        <v>2863</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>19</v>
@@ -18518,10 +18545,10 @@
         <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>2855</v>
+        <v>2864</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>2856</v>
+        <v>2865</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>19</v>
@@ -18532,13 +18559,13 @@
         <v>45</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>2857</v>
+        <v>2866</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>2858</v>
+        <v>2867</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>2859</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="30">
@@ -18546,13 +18573,13 @@
         <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>2860</v>
+        <v>2869</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>2861</v>
+        <v>2870</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>2862</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="31">
@@ -18560,13 +18587,13 @@
         <v>62</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>2863</v>
+        <v>2872</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>2864</v>
+        <v>2873</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>2865</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="32">
@@ -18574,13 +18601,13 @@
         <v>63</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>2866</v>
+        <v>2875</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>2867</v>
+        <v>2876</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>2868</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="33">
@@ -18588,13 +18615,13 @@
         <v>64</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>2869</v>
+        <v>2878</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>2870</v>
+        <v>2879</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>2871</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="34">
@@ -18602,13 +18629,13 @@
         <v>65</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>2872</v>
+        <v>2881</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>2873</v>
+        <v>2882</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>2874</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="35">
@@ -18622,7 +18649,7 @@
         <v>56</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>2875</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="36">
@@ -18630,13 +18657,13 @@
         <v>67</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>2876</v>
+        <v>2885</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>2877</v>
+        <v>2886</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>2878</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="37">
@@ -18644,13 +18671,13 @@
         <v>76</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>2879</v>
+        <v>2888</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>2880</v>
+        <v>2889</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>2881</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="38">
@@ -18658,13 +18685,13 @@
         <v>77</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>2882</v>
+        <v>2891</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>2883</v>
+        <v>2892</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>2884</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="39">
@@ -18678,7 +18705,7 @@
         <v>56</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>2885</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="40">
@@ -18692,7 +18719,7 @@
         <v>56</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>2886</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="41">
@@ -18700,10 +18727,10 @@
         <v>80</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>2887</v>
+        <v>2896</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>2888</v>
+        <v>2897</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>295</v>
@@ -18725,16 +18752,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2889</v>
+        <v>2898</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2890</v>
+        <v>2899</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2891</v>
+        <v>2900</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>2892</v>
+        <v>2901</v>
       </c>
     </row>
   </sheetData>

--- a/iceKnives32/Offline Documents (Periodic)/iceKnives32.xlsx
+++ b/iceKnives32/Offline Documents (Periodic)/iceKnives32.xlsx
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="2902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="2910">
   <si>
     <t>[]</t>
   </si>
@@ -5332,6 +5332,30 @@
   </si>
   <si>
     <t>slides</t>
+  </si>
+  <si>
+    <t>smoke</t>
+  </si>
+  <si>
+    <t>quartz</t>
+  </si>
+  <si>
+    <t>crystal</t>
+  </si>
+  <si>
+    <t>steam</t>
+  </si>
+  <si>
+    <t>rainbow</t>
+  </si>
+  <si>
+    <t>magma</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>soil</t>
   </si>
   <si>
     <t>fire</t>
@@ -11163,7 +11187,7 @@
         <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>18</v>
+        <v>1673</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>18</v>
@@ -11192,7 +11216,7 @@
         <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>18</v>
+        <v>1674</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>18</v>
@@ -11221,7 +11245,7 @@
         <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>18</v>
+        <v>1675</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>18</v>
@@ -11250,7 +11274,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>18</v>
+        <v>1676</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>18</v>
@@ -11279,7 +11303,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>18</v>
+        <v>1677</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>18</v>
@@ -11308,7 +11332,7 @@
         <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>18</v>
+        <v>1678</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>18</v>
@@ -11337,7 +11361,7 @@
         <v>41</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>18</v>
+        <v>1679</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>18</v>
@@ -11366,7 +11390,7 @@
         <v>42</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>18</v>
+        <v>1680</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>18</v>
@@ -11395,7 +11419,7 @@
         <v>43</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1673</v>
+        <v>1681</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>18</v>
@@ -11424,7 +11448,7 @@
         <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1674</v>
+        <v>1682</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>18</v>
@@ -11856,7 +11880,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1675</v>
+        <v>1683</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>91</v>
@@ -11880,7 +11904,7 @@
         <v>97</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1676</v>
+        <v>1684</v>
       </c>
     </row>
   </sheetData>
@@ -11909,7 +11933,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>1677</v>
+        <v>1685</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -11938,28 +11962,28 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>1678</v>
+        <v>1686</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1679</v>
+        <v>1687</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1684</v>
+        <v>1692</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>303</v>
@@ -11970,25 +11994,25 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1686</v>
+        <v>1694</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1687</v>
+        <v>1695</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1688</v>
+        <v>1696</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1689</v>
+        <v>1697</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>1690</v>
+        <v>1698</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>1691</v>
+        <v>1699</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>1692</v>
+        <v>1700</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>19</v>
@@ -11999,25 +12023,25 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1693</v>
+        <v>1701</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1694</v>
+        <v>1702</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>1012</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1695</v>
+        <v>1703</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>1696</v>
+        <v>1704</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1697</v>
+        <v>1705</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>1698</v>
+        <v>1706</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>19</v>
@@ -12028,25 +12052,25 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1699</v>
+        <v>1707</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1700</v>
+        <v>1708</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>1027</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1701</v>
+        <v>1709</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1702</v>
+        <v>1710</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>1703</v>
+        <v>1711</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>1704</v>
+        <v>1712</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>19</v>
@@ -12057,25 +12081,25 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1705</v>
+        <v>1713</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1706</v>
+        <v>1714</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>747</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1707</v>
+        <v>1715</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>1708</v>
+        <v>1716</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1709</v>
+        <v>1717</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>1710</v>
+        <v>1718</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>19</v>
@@ -12086,25 +12110,25 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1711</v>
+        <v>1719</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1712</v>
+        <v>1720</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>456</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1713</v>
+        <v>1721</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1714</v>
+        <v>1722</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>1715</v>
+        <v>1723</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>1716</v>
+        <v>1724</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>19</v>
@@ -12115,25 +12139,25 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1717</v>
+        <v>1725</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1718</v>
+        <v>1726</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>124</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1719</v>
+        <v>1727</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1720</v>
+        <v>1728</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1721</v>
+        <v>1729</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>1722</v>
+        <v>1730</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>19</v>
@@ -12144,25 +12168,25 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1723</v>
+        <v>1731</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1724</v>
+        <v>1732</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>360</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1725</v>
+        <v>1733</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>1726</v>
+        <v>1734</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1727</v>
+        <v>1735</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>1728</v>
+        <v>1736</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>19</v>
@@ -12173,25 +12197,25 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1729</v>
+        <v>1737</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1730</v>
+        <v>1738</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1731</v>
+        <v>1739</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>1733</v>
+        <v>1741</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>1735</v>
+        <v>1743</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>19</v>
@@ -12202,25 +12226,25 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1737</v>
+        <v>1745</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>488</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1738</v>
+        <v>1746</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>1739</v>
+        <v>1747</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>1741</v>
+        <v>1749</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>19</v>
@@ -12231,25 +12255,25 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1742</v>
+        <v>1750</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1119</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>19</v>
@@ -12260,25 +12284,25 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>470</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1750</v>
+        <v>1758</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1752</v>
+        <v>1760</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>19</v>
@@ -12289,25 +12313,25 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>211</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1757</v>
+        <v>1765</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1758</v>
+        <v>1766</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>1759</v>
+        <v>1767</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>19</v>
@@ -12318,25 +12342,25 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1760</v>
+        <v>1768</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1761</v>
+        <v>1769</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1762</v>
+        <v>1770</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1763</v>
+        <v>1771</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1764</v>
+        <v>1772</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1765</v>
+        <v>1773</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>1766</v>
+        <v>1774</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>19</v>
@@ -12347,25 +12371,25 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1767</v>
+        <v>1775</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1768</v>
+        <v>1776</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>625</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1769</v>
+        <v>1777</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1770</v>
+        <v>1778</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>1771</v>
+        <v>1779</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>1772</v>
+        <v>1780</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>19</v>
@@ -12376,25 +12400,25 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1773</v>
+        <v>1781</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1774</v>
+        <v>1782</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>768</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1775</v>
+        <v>1783</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>1776</v>
+        <v>1784</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1777</v>
+        <v>1785</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>1778</v>
+        <v>1786</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>19</v>
@@ -12405,25 +12429,25 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1779</v>
+        <v>1787</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1780</v>
+        <v>1788</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>845</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1781</v>
+        <v>1789</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1782</v>
+        <v>1790</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>1783</v>
+        <v>1791</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>1784</v>
+        <v>1792</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>19</v>
@@ -12434,25 +12458,25 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1785</v>
+        <v>1793</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1786</v>
+        <v>1794</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>1311</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1787</v>
+        <v>1795</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>1788</v>
+        <v>1796</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>1789</v>
+        <v>1797</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>1790</v>
+        <v>1798</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>19</v>
@@ -12463,25 +12487,25 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1791</v>
+        <v>1799</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1792</v>
+        <v>1800</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1793</v>
+        <v>1801</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1794</v>
+        <v>1802</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>1795</v>
+        <v>1803</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1796</v>
+        <v>1804</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>1797</v>
+        <v>1805</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>19</v>
@@ -12492,25 +12516,25 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1798</v>
+        <v>1806</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1799</v>
+        <v>1807</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1800</v>
+        <v>1808</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1801</v>
+        <v>1809</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1803</v>
+        <v>1811</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>19</v>
@@ -12521,25 +12545,25 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1805</v>
+        <v>1813</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1806</v>
+        <v>1814</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>932</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>1808</v>
+        <v>1816</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>1809</v>
+        <v>1817</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>1810</v>
+        <v>1818</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>19</v>
@@ -12550,25 +12574,25 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1811</v>
+        <v>1819</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1812</v>
+        <v>1820</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1813</v>
+        <v>1821</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1814</v>
+        <v>1822</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>1815</v>
+        <v>1823</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1816</v>
+        <v>1824</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>1817</v>
+        <v>1825</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>19</v>
@@ -12579,25 +12603,25 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1818</v>
+        <v>1826</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1819</v>
+        <v>1827</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>472</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1820</v>
+        <v>1828</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>1821</v>
+        <v>1829</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>1823</v>
+        <v>1831</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>19</v>
@@ -12608,25 +12632,25 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1824</v>
+        <v>1832</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1825</v>
+        <v>1833</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>424</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1826</v>
+        <v>1834</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>1828</v>
+        <v>1836</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>1829</v>
+        <v>1837</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>19</v>
@@ -12637,25 +12661,25 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1831</v>
+        <v>1839</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>925</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1832</v>
+        <v>1840</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>1833</v>
+        <v>1841</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1834</v>
+        <v>1842</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>1835</v>
+        <v>1843</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>19</v>
@@ -12666,25 +12690,25 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1836</v>
+        <v>1844</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1837</v>
+        <v>1845</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>1383</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1838</v>
+        <v>1846</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>1839</v>
+        <v>1847</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>1840</v>
+        <v>1848</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>1841</v>
+        <v>1849</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>19</v>
@@ -12695,25 +12719,25 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1842</v>
+        <v>1850</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1843</v>
+        <v>1851</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>429</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1844</v>
+        <v>1852</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>1845</v>
+        <v>1853</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>1846</v>
+        <v>1854</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>1847</v>
+        <v>1855</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>19</v>
@@ -12724,25 +12748,25 @@
         <v>45</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1848</v>
+        <v>1856</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1849</v>
+        <v>1857</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>373</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1850</v>
+        <v>1858</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1852</v>
+        <v>1860</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>1853</v>
+        <v>1861</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>335</v>
@@ -12753,28 +12777,28 @@
         <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1854</v>
+        <v>1862</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1855</v>
+        <v>1863</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1856</v>
+        <v>1864</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>1857</v>
+        <v>1865</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1858</v>
+        <v>1866</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>1859</v>
+        <v>1867</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>1860</v>
+        <v>1868</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>1861</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="31">
@@ -12782,28 +12806,28 @@
         <v>62</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1862</v>
+        <v>1870</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1863</v>
+        <v>1871</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1864</v>
+        <v>1872</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>1865</v>
+        <v>1873</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>1866</v>
+        <v>1874</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>1867</v>
+        <v>1875</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>1868</v>
+        <v>1876</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>1869</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="32">
@@ -12832,7 +12856,7 @@
         <v>61</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>1870</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="33">
@@ -12861,7 +12885,7 @@
         <v>61</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>1871</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="34">
@@ -12890,7 +12914,7 @@
         <v>61</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>1872</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="35">
@@ -12919,7 +12943,7 @@
         <v>61</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>1873</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="36">
@@ -12927,28 +12951,28 @@
         <v>67</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1874</v>
+        <v>1882</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1875</v>
+        <v>1883</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1876</v>
+        <v>1884</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>1877</v>
+        <v>1885</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>1878</v>
+        <v>1886</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>1879</v>
+        <v>1887</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>1880</v>
+        <v>1888</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>1881</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="37">
@@ -12977,7 +13001,7 @@
         <v>61</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>1882</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="38">
@@ -13006,7 +13030,7 @@
         <v>61</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>1883</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="39">
@@ -13035,7 +13059,7 @@
         <v>61</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>1884</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="40">
@@ -13064,7 +13088,7 @@
         <v>61</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>1885</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="41">
@@ -13093,7 +13117,7 @@
         <v>61</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>1886</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="42">
@@ -13127,31 +13151,31 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1887</v>
+        <v>1895</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1888</v>
+        <v>1896</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1889</v>
+        <v>1897</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1890</v>
+        <v>1898</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>1891</v>
+        <v>1899</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>1892</v>
+        <v>1900</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>1893</v>
+        <v>1901</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>1894</v>
+        <v>1902</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1895</v>
+        <v>1903</v>
       </c>
     </row>
   </sheetData>
@@ -13178,7 +13202,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1896</v>
+        <v>1904</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -13207,28 +13231,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1897</v>
+        <v>1905</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1898</v>
+        <v>1906</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1899</v>
+        <v>1907</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1900</v>
+        <v>1908</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1901</v>
+        <v>1909</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1902</v>
+        <v>1910</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1903</v>
+        <v>1911</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>1904</v>
+        <v>1912</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>19</v>
@@ -13239,13 +13263,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1905</v>
+        <v>1913</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1906</v>
+        <v>1914</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1907</v>
+        <v>1915</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>18</v>
@@ -13268,13 +13292,13 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1908</v>
+        <v>1916</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1909</v>
+        <v>1917</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1910</v>
+        <v>1918</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -13297,13 +13321,13 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1911</v>
+        <v>1919</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1912</v>
+        <v>1920</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1913</v>
+        <v>1921</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>18</v>
@@ -13326,13 +13350,13 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1914</v>
+        <v>1922</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1915</v>
+        <v>1923</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1916</v>
+        <v>1924</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>18</v>
@@ -13355,13 +13379,13 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1917</v>
+        <v>1925</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1918</v>
+        <v>1926</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1919</v>
+        <v>1927</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>18</v>
@@ -13384,13 +13408,13 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1920</v>
+        <v>1928</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1921</v>
+        <v>1929</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1922</v>
+        <v>1930</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>18</v>
@@ -13413,13 +13437,13 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1923</v>
+        <v>1931</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1924</v>
+        <v>1932</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1925</v>
+        <v>1933</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>18</v>
@@ -13442,13 +13466,13 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1926</v>
+        <v>1934</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1927</v>
+        <v>1935</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1928</v>
+        <v>1936</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>18</v>
@@ -13471,13 +13495,13 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1929</v>
+        <v>1937</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1930</v>
+        <v>1938</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1931</v>
+        <v>1939</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>18</v>
@@ -13500,13 +13524,13 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1932</v>
+        <v>1940</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1933</v>
+        <v>1941</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1934</v>
+        <v>1942</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>18</v>
@@ -13529,13 +13553,13 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1935</v>
+        <v>1943</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1936</v>
+        <v>1944</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1937</v>
+        <v>1945</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>18</v>
@@ -13558,13 +13582,13 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1938</v>
+        <v>1946</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1939</v>
+        <v>1947</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1940</v>
+        <v>1948</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>18</v>
@@ -13587,13 +13611,13 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1941</v>
+        <v>1949</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1942</v>
+        <v>1950</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1943</v>
+        <v>1951</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>18</v>
@@ -13616,13 +13640,13 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1944</v>
+        <v>1952</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1945</v>
+        <v>1953</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1946</v>
+        <v>1954</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>18</v>
@@ -13645,13 +13669,13 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1947</v>
+        <v>1955</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1948</v>
+        <v>1956</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1949</v>
+        <v>1957</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>18</v>
@@ -13674,13 +13698,13 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1950</v>
+        <v>1958</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1951</v>
+        <v>1959</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1952</v>
+        <v>1960</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>18</v>
@@ -13703,13 +13727,13 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1953</v>
+        <v>1961</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1954</v>
+        <v>1962</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1955</v>
+        <v>1963</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>18</v>
@@ -13732,13 +13756,13 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1956</v>
+        <v>1964</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1957</v>
+        <v>1965</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1958</v>
+        <v>1966</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>18</v>
@@ -13761,13 +13785,13 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1959</v>
+        <v>1967</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1960</v>
+        <v>1968</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1961</v>
+        <v>1969</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>18</v>
@@ -13790,13 +13814,13 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1962</v>
+        <v>1970</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1963</v>
+        <v>1971</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1964</v>
+        <v>1972</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>18</v>
@@ -13819,13 +13843,13 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1965</v>
+        <v>1973</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1966</v>
+        <v>1974</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1967</v>
+        <v>1975</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>18</v>
@@ -13848,13 +13872,13 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1968</v>
+        <v>1976</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1969</v>
+        <v>1977</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>1970</v>
+        <v>1978</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>18</v>
@@ -13877,13 +13901,13 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1971</v>
+        <v>1979</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1972</v>
+        <v>1980</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>1973</v>
+        <v>1981</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>18</v>
@@ -13906,13 +13930,13 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1974</v>
+        <v>1982</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1975</v>
+        <v>1983</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>1976</v>
+        <v>1984</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>18</v>
@@ -13935,13 +13959,13 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1977</v>
+        <v>1985</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1978</v>
+        <v>1986</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>1979</v>
+        <v>1987</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>18</v>
@@ -13964,13 +13988,13 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1981</v>
+        <v>1989</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>1982</v>
+        <v>1990</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>18</v>
@@ -13993,25 +14017,25 @@
         <v>45</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1983</v>
+        <v>1991</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1984</v>
+        <v>1992</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>1985</v>
+        <v>1993</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1986</v>
+        <v>1994</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>1987</v>
+        <v>1995</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1988</v>
+        <v>1996</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>1989</v>
+        <v>1997</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>19</v>
@@ -14396,31 +14420,31 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1990</v>
+        <v>1998</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1991</v>
+        <v>1999</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1992</v>
+        <v>2000</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>1994</v>
+        <v>2002</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>1997</v>
+        <v>2005</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1998</v>
+        <v>2006</v>
       </c>
     </row>
   </sheetData>
@@ -14445,7 +14469,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1999</v>
+        <v>2007</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -14469,61 +14493,61 @@
         <v>7</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>2004</v>
+        <v>2012</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>2005</v>
+        <v>2013</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>2008</v>
+        <v>2016</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="Y1" s="9" t="s">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>2017</v>
+        <v>2025</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>2018</v>
+        <v>2026</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>8</v>
@@ -14531,88 +14555,88 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1896</v>
+        <v>1904</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2019</v>
+        <v>2027</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>2021</v>
+        <v>2029</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>2022</v>
+        <v>2030</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>2023</v>
+        <v>2031</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>2024</v>
+        <v>2032</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>2025</v>
+        <v>2033</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>2026</v>
+        <v>2034</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>2027</v>
+        <v>2035</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>2028</v>
+        <v>2036</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>2029</v>
+        <v>2037</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>2030</v>
+        <v>2038</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>2031</v>
+        <v>2039</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>2032</v>
+        <v>2040</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>2033</v>
+        <v>2041</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>2034</v>
+        <v>2042</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>2035</v>
+        <v>2043</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>2036</v>
+        <v>2044</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>1817</v>
+        <v>1825</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>2037</v>
+        <v>2045</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>2038</v>
+        <v>2046</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>2039</v>
+        <v>2047</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>2040</v>
+        <v>2048</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>2041</v>
+        <v>2049</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>2042</v>
+        <v>2050</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>2043</v>
+        <v>2051</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>2044</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="3">
@@ -14620,85 +14644,85 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2045</v>
+        <v>2053</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>2046</v>
+        <v>2054</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>2047</v>
+        <v>2055</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>2048</v>
+        <v>2056</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>2049</v>
+        <v>2057</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>2050</v>
+        <v>2058</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>2051</v>
+        <v>2059</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>2052</v>
+        <v>2060</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>2053</v>
+        <v>2061</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>2054</v>
+        <v>2062</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>2055</v>
+        <v>2063</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>2056</v>
+        <v>2064</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>1742</v>
+        <v>1750</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>1819</v>
+        <v>1827</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>2057</v>
+        <v>2065</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>2058</v>
+        <v>2066</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>2059</v>
+        <v>2067</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>2060</v>
+        <v>2068</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>2061</v>
+        <v>2069</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>2062</v>
+        <v>2070</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>2063</v>
+        <v>2071</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>2064</v>
+        <v>2072</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>1774</v>
+        <v>1782</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>2065</v>
+        <v>2073</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>1849</v>
+        <v>1857</v>
       </c>
       <c r="AB3" s="12" t="s">
-        <v>2066</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="4">
@@ -14706,85 +14730,85 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2067</v>
+        <v>2075</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>2068</v>
+        <v>2076</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>2069</v>
+        <v>2077</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>2070</v>
+        <v>2078</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>2071</v>
+        <v>2079</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1727</v>
+        <v>1735</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>2072</v>
+        <v>2080</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>2073</v>
+        <v>2081</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>1782</v>
+        <v>1790</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>2074</v>
+        <v>2082</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>2075</v>
+        <v>2083</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>2076</v>
+        <v>2084</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>2077</v>
+        <v>2085</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>2078</v>
+        <v>2086</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>2079</v>
+        <v>2087</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>2080</v>
+        <v>2088</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>1769</v>
+        <v>1777</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>2081</v>
+        <v>2089</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>2082</v>
+        <v>2090</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>2083</v>
+        <v>2091</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>2084</v>
+        <v>2092</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>2085</v>
+        <v>2093</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>2086</v>
+        <v>2094</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>2087</v>
+        <v>2095</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>2088</v>
+        <v>2096</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>2089</v>
+        <v>2097</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>2090</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="5">
@@ -14792,85 +14816,85 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2091</v>
+        <v>2099</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>2092</v>
+        <v>2100</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>2093</v>
+        <v>2101</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>2094</v>
+        <v>2102</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>2095</v>
+        <v>2103</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>2096</v>
+        <v>2104</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>1826</v>
+        <v>1834</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>2097</v>
+        <v>2105</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>2098</v>
+        <v>2106</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>2099</v>
+        <v>2107</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>1834</v>
+        <v>1842</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>1689</v>
+        <v>1697</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>2100</v>
+        <v>2108</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>2101</v>
+        <v>2109</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>2102</v>
+        <v>2110</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>2103</v>
+        <v>2111</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>2104</v>
+        <v>2112</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>2105</v>
+        <v>2113</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>2106</v>
+        <v>2114</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>2107</v>
+        <v>2115</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>1705</v>
+        <v>1713</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>2108</v>
+        <v>2116</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>2109</v>
+        <v>2117</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>2110</v>
+        <v>2118</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>2111</v>
+        <v>2119</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>2112</v>
+        <v>2120</v>
       </c>
       <c r="AB5" s="12" t="s">
-        <v>2113</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="6">
@@ -14878,85 +14902,85 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>2114</v>
+        <v>2122</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>2115</v>
+        <v>2123</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>2116</v>
+        <v>2124</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>2117</v>
+        <v>2125</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>2118</v>
+        <v>2126</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>2119</v>
+        <v>2127</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>2120</v>
+        <v>2128</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>2121</v>
+        <v>2129</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>2122</v>
+        <v>2130</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>2123</v>
+        <v>2131</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>2124</v>
+        <v>2132</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>2125</v>
+        <v>2133</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>2126</v>
+        <v>2134</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>1767</v>
+        <v>1775</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>2127</v>
+        <v>2135</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>2128</v>
+        <v>2136</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>2129</v>
+        <v>2137</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>2130</v>
+        <v>2138</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>2131</v>
+        <v>2139</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>2132</v>
+        <v>2140</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>2133</v>
+        <v>2141</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>2134</v>
+        <v>2142</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>2135</v>
+        <v>2143</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>2136</v>
+        <v>2144</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>2137</v>
+        <v>2145</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>1771</v>
+        <v>1779</v>
       </c>
       <c r="AB6" s="12" t="s">
-        <v>2138</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="7">
@@ -14964,85 +14988,85 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>2139</v>
+        <v>2147</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>2140</v>
+        <v>2148</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>2141</v>
+        <v>2149</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>2142</v>
+        <v>2150</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>2143</v>
+        <v>2151</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>2144</v>
+        <v>2152</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>1818</v>
+        <v>1826</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>2145</v>
+        <v>2153</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>2146</v>
+        <v>2154</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>1752</v>
+        <v>1760</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>2147</v>
+        <v>2155</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>1839</v>
+        <v>1847</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>2148</v>
+        <v>2156</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>2149</v>
+        <v>2157</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>1843</v>
+        <v>1851</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>2150</v>
+        <v>2158</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>2151</v>
+        <v>2159</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>1702</v>
+        <v>1710</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>2152</v>
+        <v>2160</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>2153</v>
+        <v>2161</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>2154</v>
+        <v>2162</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>1697</v>
+        <v>1705</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>2155</v>
+        <v>2163</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>2156</v>
+        <v>2164</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>2157</v>
+        <v>2165</v>
       </c>
       <c r="AB7" s="12" t="s">
-        <v>2158</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="8">
@@ -15050,85 +15074,85 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>2159</v>
+        <v>2167</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2160</v>
+        <v>2168</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>2161</v>
+        <v>2169</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>2162</v>
+        <v>2170</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>2163</v>
+        <v>2171</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>2164</v>
+        <v>2172</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>2165</v>
+        <v>2173</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>1722</v>
+        <v>1730</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>2166</v>
+        <v>2174</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>1739</v>
+        <v>1747</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>2167</v>
+        <v>2175</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>2168</v>
+        <v>2176</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>1798</v>
+        <v>1806</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>2169</v>
+        <v>2177</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>2170</v>
+        <v>2178</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>1726</v>
+        <v>1734</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>2171</v>
+        <v>2179</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>2172</v>
+        <v>2180</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>2173</v>
+        <v>2181</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>2174</v>
+        <v>2182</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>2175</v>
+        <v>2183</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>2176</v>
+        <v>2184</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>2177</v>
+        <v>2185</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>2178</v>
+        <v>2186</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>2179</v>
+        <v>2187</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>2180</v>
+        <v>2188</v>
       </c>
       <c r="AB8" s="12" t="s">
-        <v>2181</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="9">
@@ -15136,85 +15160,85 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>2182</v>
+        <v>2190</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>2183</v>
+        <v>2191</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>2184</v>
+        <v>2192</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>2185</v>
+        <v>2193</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>2186</v>
+        <v>2194</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>2187</v>
+        <v>2195</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>2188</v>
+        <v>2196</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>2189</v>
+        <v>2197</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>2190</v>
+        <v>2198</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>2191</v>
+        <v>2199</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>2192</v>
+        <v>2200</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>2193</v>
+        <v>2201</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>2194</v>
+        <v>2202</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>2195</v>
+        <v>2203</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>2196</v>
+        <v>2204</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>2197</v>
+        <v>2205</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>2198</v>
+        <v>2206</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>2199</v>
+        <v>2207</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>2200</v>
+        <v>2208</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>2201</v>
+        <v>2209</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>2202</v>
+        <v>2210</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>2203</v>
+        <v>2211</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>2204</v>
+        <v>2212</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>2205</v>
+        <v>2213</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>2206</v>
+        <v>2214</v>
       </c>
       <c r="AB9" s="12" t="s">
-        <v>2207</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="10">
@@ -15222,85 +15246,85 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>2208</v>
+        <v>2216</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>2209</v>
+        <v>2217</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>2210</v>
+        <v>2218</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>2211</v>
+        <v>2219</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>2212</v>
+        <v>2220</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>2213</v>
+        <v>2221</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>2214</v>
+        <v>2222</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>2215</v>
+        <v>2223</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>2216</v>
+        <v>2224</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>2217</v>
+        <v>2225</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>2218</v>
+        <v>2226</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>2219</v>
+        <v>2227</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>2220</v>
+        <v>2228</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>2221</v>
+        <v>2229</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>2222</v>
+        <v>2230</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>2223</v>
+        <v>2231</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>2224</v>
+        <v>2232</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>2225</v>
+        <v>2233</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>1808</v>
+        <v>1816</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>2226</v>
+        <v>2234</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>2227</v>
+        <v>2235</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>2228</v>
+        <v>2236</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>2229</v>
+        <v>2237</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>2230</v>
+        <v>2238</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>2231</v>
+        <v>2239</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>2232</v>
+        <v>2240</v>
       </c>
       <c r="AB10" s="12" t="s">
-        <v>2066</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="11">
@@ -15308,85 +15332,85 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>2233</v>
+        <v>2241</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>2234</v>
+        <v>2242</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>2235</v>
+        <v>2243</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>2236</v>
+        <v>2244</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>2237</v>
+        <v>2245</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>2238</v>
+        <v>2246</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>2239</v>
+        <v>2247</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>2240</v>
+        <v>2248</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>2241</v>
+        <v>2249</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>2242</v>
+        <v>2250</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>2243</v>
+        <v>2251</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>2244</v>
+        <v>2252</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>2245</v>
+        <v>2253</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>2246</v>
+        <v>2254</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>2247</v>
+        <v>2255</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>2248</v>
+        <v>2256</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>2249</v>
+        <v>2257</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>2250</v>
+        <v>2258</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>2251</v>
+        <v>2259</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>2252</v>
+        <v>2260</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>2253</v>
+        <v>2261</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>2254</v>
+        <v>2262</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>2255</v>
+        <v>2263</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>2256</v>
+        <v>2264</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>2257</v>
+        <v>2265</v>
       </c>
       <c r="AB11" s="12" t="s">
-        <v>2090</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="12">
@@ -15394,85 +15418,85 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>2258</v>
+        <v>2266</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>2259</v>
+        <v>2267</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>2260</v>
+        <v>2268</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>2261</v>
+        <v>2269</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>2262</v>
+        <v>2270</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>2263</v>
+        <v>2271</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>2264</v>
+        <v>2272</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>2265</v>
+        <v>2273</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>2266</v>
+        <v>2274</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>1840</v>
+        <v>1848</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>2267</v>
+        <v>2275</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>2268</v>
+        <v>2276</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>1713</v>
+        <v>1721</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>2269</v>
+        <v>2277</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>2270</v>
+        <v>2278</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>1846</v>
+        <v>1854</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>2271</v>
+        <v>2279</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>2272</v>
+        <v>2280</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>2273</v>
+        <v>2281</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>2274</v>
+        <v>2282</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>2275</v>
+        <v>2283</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>2276</v>
+        <v>2284</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>2277</v>
+        <v>2285</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>2278</v>
+        <v>2286</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>2279</v>
+        <v>2287</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>2280</v>
+        <v>2288</v>
       </c>
       <c r="AB12" s="12" t="s">
-        <v>2281</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="13">
@@ -15480,85 +15504,85 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>2282</v>
+        <v>2290</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>2283</v>
+        <v>2291</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>2284</v>
+        <v>2292</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>2285</v>
+        <v>2293</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>2286</v>
+        <v>2294</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>2287</v>
+        <v>2295</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>2288</v>
+        <v>2296</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>2289</v>
+        <v>2297</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>2290</v>
+        <v>2298</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>1775</v>
+        <v>1783</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>2291</v>
+        <v>2299</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>2292</v>
+        <v>2300</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>2293</v>
+        <v>2301</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>2294</v>
+        <v>2302</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>2295</v>
+        <v>2303</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>2296</v>
+        <v>2304</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>2297</v>
+        <v>2305</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>1729</v>
+        <v>1737</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>2298</v>
+        <v>2306</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>2299</v>
+        <v>2307</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>2300</v>
+        <v>2308</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>2301</v>
+        <v>2309</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>2302</v>
+        <v>2310</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>2303</v>
+        <v>2311</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>2304</v>
+        <v>2312</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>2305</v>
+        <v>2313</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>2306</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="14">
@@ -15566,85 +15590,85 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>2307</v>
+        <v>2315</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>2308</v>
+        <v>2316</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>2309</v>
+        <v>2317</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>2310</v>
+        <v>2318</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>2311</v>
+        <v>2319</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>2312</v>
+        <v>2320</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>2313</v>
+        <v>2321</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>1789</v>
+        <v>1797</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>1836</v>
+        <v>1844</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>2314</v>
+        <v>2322</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>2315</v>
+        <v>2323</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>2316</v>
+        <v>2324</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>2317</v>
+        <v>2325</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>1773</v>
+        <v>1781</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>1842</v>
+        <v>1850</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>2318</v>
+        <v>2326</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>2319</v>
+        <v>2327</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>2320</v>
+        <v>2328</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>2321</v>
+        <v>2329</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>2322</v>
+        <v>2330</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>2323</v>
+        <v>2331</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>2324</v>
+        <v>2332</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>2325</v>
+        <v>2333</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>2326</v>
+        <v>2334</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>2327</v>
+        <v>2335</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>2328</v>
+        <v>2336</v>
       </c>
       <c r="AB14" s="12" t="s">
-        <v>2329</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="15">
@@ -15652,85 +15676,85 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>2330</v>
+        <v>2338</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>2331</v>
+        <v>2339</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>2332</v>
+        <v>2340</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>2333</v>
+        <v>2341</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1691</v>
+        <v>1699</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>2334</v>
+        <v>2342</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>2335</v>
+        <v>2343</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>1708</v>
+        <v>1716</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>2336</v>
+        <v>2344</v>
       </c>
       <c r="K15" s="5" t="s">
+        <v>1796</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>2345</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>2346</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>1800</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>2347</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>1778</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>2348</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>2349</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>1725</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>2350</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>2351</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>2352</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>2353</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>2354</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>2355</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>2356</v>
+      </c>
+      <c r="AA15" s="5" t="s">
         <v>1788</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>2337</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>2338</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>1792</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>2339</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>1770</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>2340</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>2341</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>1717</v>
-      </c>
-      <c r="T15" s="5" t="s">
-        <v>2342</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>2343</v>
-      </c>
-      <c r="V15" s="5" t="s">
-        <v>2344</v>
-      </c>
-      <c r="W15" s="5" t="s">
-        <v>2345</v>
-      </c>
-      <c r="X15" s="5" t="s">
-        <v>2346</v>
-      </c>
-      <c r="Y15" s="5" t="s">
-        <v>2347</v>
-      </c>
-      <c r="Z15" s="5" t="s">
-        <v>2348</v>
-      </c>
-      <c r="AA15" s="5" t="s">
-        <v>1780</v>
-      </c>
       <c r="AB15" s="12" t="s">
-        <v>2349</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="16">
@@ -15738,85 +15762,85 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>2350</v>
+        <v>2358</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>2351</v>
+        <v>2359</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>2352</v>
+        <v>2360</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>2353</v>
+        <v>2361</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>2354</v>
+        <v>2362</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>2355</v>
+        <v>2363</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>2356</v>
+        <v>2364</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>2357</v>
+        <v>2365</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>2358</v>
+        <v>2366</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>2359</v>
+        <v>2367</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>2360</v>
+        <v>2368</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>2361</v>
+        <v>2369</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>2362</v>
+        <v>2370</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>1721</v>
+        <v>1729</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>2363</v>
+        <v>2371</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>2364</v>
+        <v>2372</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>2365</v>
+        <v>2373</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>2366</v>
+        <v>2374</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>2367</v>
+        <v>2375</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>2368</v>
+        <v>2376</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>2369</v>
+        <v>2377</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>2370</v>
+        <v>2378</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>2371</v>
+        <v>2379</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>2372</v>
+        <v>2380</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>2373</v>
+        <v>2381</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>2374</v>
+        <v>2382</v>
       </c>
       <c r="AB16" s="12" t="s">
-        <v>2375</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="17">
@@ -15824,85 +15848,85 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>2376</v>
+        <v>2384</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>2377</v>
+        <v>2385</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>2378</v>
+        <v>2386</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>2379</v>
+        <v>2387</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>2380</v>
+        <v>2388</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>2381</v>
+        <v>2389</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>2382</v>
+        <v>2390</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>2383</v>
+        <v>2391</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>1764</v>
+        <v>1772</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>1809</v>
+        <v>1817</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>2384</v>
+        <v>2392</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>2385</v>
+        <v>2393</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>2386</v>
+        <v>2394</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>2387</v>
+        <v>2395</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>2388</v>
+        <v>2396</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>2389</v>
+        <v>2397</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>1838</v>
+        <v>1846</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>2390</v>
+        <v>2398</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>2391</v>
+        <v>2399</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>2392</v>
+        <v>2400</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>2393</v>
+        <v>2401</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>2394</v>
+        <v>2402</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>2395</v>
+        <v>2403</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>2396</v>
+        <v>2404</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>2397</v>
+        <v>2405</v>
       </c>
       <c r="AB17" s="12" t="s">
-        <v>2398</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="18">
@@ -15910,85 +15934,85 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>2399</v>
+        <v>2407</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>2400</v>
+        <v>2408</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>2401</v>
+        <v>2409</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>2402</v>
+        <v>2410</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1803</v>
+        <v>1811</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>2403</v>
+        <v>2411</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>2404</v>
+        <v>2412</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>2405</v>
+        <v>2413</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>2406</v>
+        <v>2414</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>2407</v>
+        <v>2415</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>2408</v>
+        <v>2416</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>2409</v>
+        <v>2417</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>2410</v>
+        <v>2418</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>2411</v>
+        <v>2419</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>2412</v>
+        <v>2420</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>1812</v>
+        <v>1820</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>2413</v>
+        <v>2421</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>2414</v>
+        <v>2422</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>2415</v>
+        <v>2423</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>2416</v>
+        <v>2424</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>2417</v>
+        <v>2425</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>2418</v>
+        <v>2426</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>2419</v>
+        <v>2427</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>2420</v>
+        <v>2428</v>
       </c>
       <c r="AB18" s="12" t="s">
-        <v>2158</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="19">
@@ -15996,85 +16020,85 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>2421</v>
+        <v>2429</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>2422</v>
+        <v>2430</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>2423</v>
+        <v>2431</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>2424</v>
+        <v>2432</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>2425</v>
+        <v>2433</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>2426</v>
+        <v>2434</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>2427</v>
+        <v>2435</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>1779</v>
+        <v>1787</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>2428</v>
+        <v>2436</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>1765</v>
+        <v>1773</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>2429</v>
+        <v>2437</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>1758</v>
+        <v>1766</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>2430</v>
+        <v>2438</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>2431</v>
+        <v>2439</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>2432</v>
+        <v>2440</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>2433</v>
+        <v>2441</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>2434</v>
+        <v>2442</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>2435</v>
+        <v>2443</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>2436</v>
+        <v>2444</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>2437</v>
+        <v>2445</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>2438</v>
+        <v>2446</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>2439</v>
+        <v>2447</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>2440</v>
+        <v>2448</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>2441</v>
+        <v>2449</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>2442</v>
+        <v>2450</v>
       </c>
       <c r="AB19" s="12" t="s">
-        <v>2443</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="20">
@@ -16082,85 +16106,85 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>2444</v>
+        <v>2452</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>2445</v>
+        <v>2453</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>2446</v>
+        <v>2454</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>2447</v>
+        <v>2455</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>2448</v>
+        <v>2456</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>2449</v>
+        <v>2457</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>2450</v>
+        <v>2458</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>1797</v>
+        <v>1805</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>1845</v>
+        <v>1853</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>1724</v>
+        <v>1732</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>2451</v>
+        <v>2459</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>2452</v>
+        <v>2460</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>2453</v>
+        <v>2461</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>2454</v>
+        <v>2462</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>2455</v>
+        <v>2463</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>2456</v>
+        <v>2464</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>2457</v>
+        <v>2465</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>2458</v>
+        <v>2466</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>2459</v>
+        <v>2467</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>2460</v>
+        <v>2468</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>2461</v>
+        <v>2469</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>2462</v>
+        <v>2470</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>1703</v>
+        <v>1711</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>2463</v>
+        <v>2471</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>2464</v>
+        <v>2472</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>2465</v>
+        <v>2473</v>
       </c>
       <c r="AB20" s="12" t="s">
-        <v>2466</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="21">
@@ -16168,85 +16192,85 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>2467</v>
+        <v>2475</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>2468</v>
+        <v>2476</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>2469</v>
+        <v>2477</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>2470</v>
+        <v>2478</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>2471</v>
+        <v>2479</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1825</v>
+        <v>1833</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>2472</v>
+        <v>2480</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>2473</v>
+        <v>2481</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>2474</v>
+        <v>2482</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>2475</v>
+        <v>2483</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>2476</v>
+        <v>2484</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>1850</v>
+        <v>1858</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>2477</v>
+        <v>2485</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>2478</v>
+        <v>2486</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>2479</v>
+        <v>2487</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>2480</v>
+        <v>2488</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>2481</v>
+        <v>2489</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>2482</v>
+        <v>2490</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>2483</v>
+        <v>2491</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>2484</v>
+        <v>2492</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>2485</v>
+        <v>2493</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>2486</v>
+        <v>2494</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>2487</v>
+        <v>2495</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>2488</v>
+        <v>2496</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>2489</v>
+        <v>2497</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>1679</v>
+        <v>1687</v>
       </c>
       <c r="AB21" s="12" t="s">
-        <v>2490</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="22">
@@ -16254,85 +16278,85 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>2491</v>
+        <v>2499</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>2492</v>
+        <v>2500</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>2493</v>
+        <v>2501</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>2494</v>
+        <v>2502</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>2495</v>
+        <v>2503</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>2496</v>
+        <v>2504</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>2497</v>
+        <v>2505</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>2498</v>
+        <v>2506</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>2499</v>
+        <v>2507</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>2500</v>
+        <v>2508</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>2501</v>
+        <v>2509</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>2502</v>
+        <v>2510</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>1707</v>
+        <v>1715</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>2503</v>
+        <v>2511</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>2504</v>
+        <v>2512</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>2505</v>
+        <v>2513</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>2506</v>
+        <v>2514</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>2507</v>
+        <v>2515</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>2508</v>
+        <v>2516</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>2509</v>
+        <v>2517</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>2510</v>
+        <v>2518</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>2511</v>
+        <v>2519</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>2512</v>
+        <v>2520</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>1831</v>
+        <v>1839</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>2513</v>
+        <v>2521</v>
       </c>
       <c r="AB22" s="12" t="s">
-        <v>2514</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="23">
@@ -16340,85 +16364,85 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>2515</v>
+        <v>2523</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>2516</v>
+        <v>2524</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>2517</v>
+        <v>2525</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>2518</v>
+        <v>2526</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>2519</v>
+        <v>2527</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>2520</v>
+        <v>2528</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>2521</v>
+        <v>2529</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>2522</v>
+        <v>2530</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>2523</v>
+        <v>2531</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>2524</v>
+        <v>2532</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>2525</v>
+        <v>2533</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>2526</v>
+        <v>2534</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>2527</v>
+        <v>2535</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>2528</v>
+        <v>2536</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>2529</v>
+        <v>2537</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>2530</v>
+        <v>2538</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>2531</v>
+        <v>2539</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>2532</v>
+        <v>2540</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>2533</v>
+        <v>2541</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>2534</v>
+        <v>2542</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>1832</v>
+        <v>1840</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>2535</v>
+        <v>2543</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>2536</v>
+        <v>2544</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>2537</v>
+        <v>2545</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>2538</v>
+        <v>2546</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>2539</v>
+        <v>2547</v>
       </c>
       <c r="AB23" s="12" t="s">
-        <v>2540</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="24">
@@ -16426,85 +16450,85 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>2541</v>
+        <v>2549</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>2542</v>
+        <v>2550</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>2543</v>
+        <v>2551</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>2544</v>
+        <v>2552</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>2545</v>
+        <v>2553</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>2546</v>
+        <v>2554</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>1783</v>
+        <v>1791</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>2547</v>
+        <v>2555</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>2548</v>
+        <v>2556</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>2549</v>
+        <v>2557</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>2550</v>
+        <v>2558</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>2551</v>
+        <v>2559</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>2552</v>
+        <v>2560</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>2553</v>
+        <v>2561</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>2554</v>
+        <v>2562</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>2555</v>
+        <v>2563</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>2556</v>
+        <v>2564</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>2557</v>
+        <v>2565</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>2558</v>
+        <v>2566</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>2559</v>
+        <v>2567</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>2560</v>
+        <v>2568</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>2561</v>
+        <v>2569</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>2562</v>
+        <v>2570</v>
       </c>
       <c r="Y24" s="5" t="s">
-        <v>2563</v>
+        <v>2571</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>2564</v>
+        <v>2572</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>2565</v>
+        <v>2573</v>
       </c>
       <c r="AB24" s="12" t="s">
-        <v>2566</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="25">
@@ -16512,85 +16536,85 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>2567</v>
+        <v>2575</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>2568</v>
+        <v>2576</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>2569</v>
+        <v>2577</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>2570</v>
+        <v>2578</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>2571</v>
+        <v>2579</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>2572</v>
+        <v>2580</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>2573</v>
+        <v>2581</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>2574</v>
+        <v>2582</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>2575</v>
+        <v>2583</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>2576</v>
+        <v>2584</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>2577</v>
+        <v>2585</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>2578</v>
+        <v>2586</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>2579</v>
+        <v>2587</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>2580</v>
+        <v>2588</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>2581</v>
+        <v>2589</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>1777</v>
+        <v>1785</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>2582</v>
+        <v>2590</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>2583</v>
+        <v>2591</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>1738</v>
+        <v>1746</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>2584</v>
+        <v>2592</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>2585</v>
+        <v>2593</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>2586</v>
+        <v>2594</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>2587</v>
+        <v>2595</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>2588</v>
+        <v>2596</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>2589</v>
+        <v>2597</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>2590</v>
+        <v>2598</v>
       </c>
       <c r="AB25" s="12" t="s">
-        <v>2207</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="26">
@@ -16598,85 +16622,85 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>2591</v>
+        <v>2599</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>2592</v>
+        <v>2600</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>2593</v>
+        <v>2601</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>2594</v>
+        <v>2602</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>2595</v>
+        <v>2603</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>2596</v>
+        <v>2604</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>2597</v>
+        <v>2605</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>2598</v>
+        <v>2606</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>2599</v>
+        <v>2607</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>2600</v>
+        <v>2608</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>2601</v>
+        <v>2609</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>1712</v>
+        <v>1720</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>2602</v>
+        <v>2610</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>1815</v>
+        <v>1823</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>2603</v>
+        <v>2611</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>2604</v>
+        <v>2612</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>2605</v>
+        <v>2613</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>2606</v>
+        <v>2614</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>2607</v>
+        <v>2615</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>2608</v>
+        <v>2616</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>2609</v>
+        <v>2617</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>2610</v>
+        <v>2618</v>
       </c>
       <c r="Y26" s="5" t="s">
-        <v>2611</v>
+        <v>2619</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>2612</v>
+        <v>2620</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>2613</v>
+        <v>2621</v>
       </c>
       <c r="AB26" s="12" t="s">
-        <v>2614</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="27">
@@ -16684,85 +16708,85 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>2615</v>
+        <v>2623</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>2616</v>
+        <v>2624</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>2617</v>
+        <v>2625</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>2618</v>
+        <v>2626</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>2619</v>
+        <v>2627</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>2620</v>
+        <v>2628</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>2621</v>
+        <v>2629</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>2622</v>
+        <v>2630</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>2623</v>
+        <v>2631</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>2624</v>
+        <v>2632</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>2625</v>
+        <v>2633</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>2626</v>
+        <v>2634</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>2627</v>
+        <v>2635</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>2628</v>
+        <v>2636</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>2629</v>
+        <v>2637</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>2630</v>
+        <v>2638</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>2631</v>
+        <v>2639</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>2632</v>
+        <v>2640</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>2633</v>
+        <v>2641</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>2634</v>
+        <v>2642</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>1693</v>
+        <v>1701</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>2635</v>
+        <v>2643</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>2636</v>
+        <v>2644</v>
       </c>
       <c r="Y27" s="5" t="s">
-        <v>2637</v>
+        <v>2645</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>2638</v>
+        <v>2646</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>2639</v>
+        <v>2647</v>
       </c>
       <c r="AB27" s="12" t="s">
-        <v>2640</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="28">
@@ -16770,85 +16794,85 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>2641</v>
+        <v>2649</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>2642</v>
+        <v>2650</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>2643</v>
+        <v>2651</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>2644</v>
+        <v>2652</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>2645</v>
+        <v>2653</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>2646</v>
+        <v>2654</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>1805</v>
+        <v>1813</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>2647</v>
+        <v>2655</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>2648</v>
+        <v>2656</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>2649</v>
+        <v>2657</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>2650</v>
+        <v>2658</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>2651</v>
+        <v>2659</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>2652</v>
+        <v>2660</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>2653</v>
+        <v>2661</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>2654</v>
+        <v>2662</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>2655</v>
+        <v>2663</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>2656</v>
+        <v>2664</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>2657</v>
+        <v>2665</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>2658</v>
+        <v>2666</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>2659</v>
+        <v>2667</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>2660</v>
+        <v>2668</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>2661</v>
+        <v>2669</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>2662</v>
+        <v>2670</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>2663</v>
+        <v>2671</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>2664</v>
+        <v>2672</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>2665</v>
+        <v>2673</v>
       </c>
       <c r="AB28" s="12" t="s">
-        <v>2666</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="29">
@@ -16856,85 +16880,85 @@
         <v>45</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>2667</v>
+        <v>2675</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>2668</v>
+        <v>2676</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>2669</v>
+        <v>2677</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>2670</v>
+        <v>2678</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>2671</v>
+        <v>2679</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>2672</v>
+        <v>2680</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>2673</v>
+        <v>2681</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>2674</v>
+        <v>2682</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>2675</v>
+        <v>2683</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>2676</v>
+        <v>2684</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>2677</v>
+        <v>2685</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>2678</v>
+        <v>2686</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>2679</v>
+        <v>2687</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>2680</v>
+        <v>2688</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>2681</v>
+        <v>2689</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>2682</v>
+        <v>2690</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>2683</v>
+        <v>2691</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>2684</v>
+        <v>2692</v>
       </c>
       <c r="T29" s="9" t="s">
-        <v>2685</v>
+        <v>2693</v>
       </c>
       <c r="U29" s="9" t="s">
-        <v>2686</v>
+        <v>2694</v>
       </c>
       <c r="V29" s="9" t="s">
-        <v>2687</v>
+        <v>2695</v>
       </c>
       <c r="W29" s="9" t="s">
-        <v>2688</v>
+        <v>2696</v>
       </c>
       <c r="X29" s="9" t="s">
-        <v>2452</v>
+        <v>2460</v>
       </c>
       <c r="Y29" s="9" t="s">
-        <v>2689</v>
+        <v>2697</v>
       </c>
       <c r="Z29" s="9" t="s">
-        <v>2690</v>
+        <v>2698</v>
       </c>
       <c r="AA29" s="9" t="s">
-        <v>2691</v>
+        <v>2699</v>
       </c>
       <c r="AB29" s="12" t="s">
-        <v>2692</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="30">
@@ -16942,85 +16966,85 @@
         <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>2693</v>
+        <v>2701</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>2694</v>
+        <v>2702</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>2695</v>
+        <v>2703</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>2696</v>
+        <v>2704</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>2697</v>
+        <v>2705</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>2698</v>
+        <v>2706</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>2699</v>
+        <v>2707</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>2700</v>
+        <v>2708</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>2701</v>
+        <v>2709</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>2702</v>
+        <v>2710</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>2703</v>
+        <v>2711</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>2704</v>
+        <v>2712</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>2705</v>
+        <v>2713</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>2706</v>
+        <v>2714</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>2707</v>
+        <v>2715</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>2708</v>
+        <v>2716</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>2709</v>
+        <v>2717</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>2710</v>
+        <v>2718</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>2711</v>
+        <v>2719</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>2712</v>
+        <v>2720</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>2713</v>
+        <v>2721</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>2714</v>
+        <v>2722</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>2715</v>
+        <v>2723</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>2716</v>
+        <v>2724</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>2717</v>
+        <v>2725</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>2718</v>
+        <v>2726</v>
       </c>
       <c r="AB30" s="3" t="s">
-        <v>2719</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="31">
@@ -17028,85 +17052,85 @@
         <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2720</v>
+        <v>2728</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>2721</v>
+        <v>2729</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>2722</v>
+        <v>2730</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>2723</v>
+        <v>2731</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>2724</v>
+        <v>2732</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>2725</v>
+        <v>2733</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>2726</v>
+        <v>2734</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>2727</v>
+        <v>2735</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>2728</v>
+        <v>2736</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>2729</v>
+        <v>2737</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>2730</v>
+        <v>2738</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>2731</v>
+        <v>2739</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>2732</v>
+        <v>2740</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>2733</v>
+        <v>2741</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>2734</v>
+        <v>2742</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>2735</v>
+        <v>2743</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>2736</v>
+        <v>2744</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>2737</v>
+        <v>2745</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>2738</v>
+        <v>2746</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>2739</v>
+        <v>2747</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>2740</v>
+        <v>2748</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>2741</v>
+        <v>2749</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>2742</v>
+        <v>2750</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>2743</v>
+        <v>2751</v>
       </c>
       <c r="Z31" s="2" t="s">
-        <v>2744</v>
+        <v>2752</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>2745</v>
+        <v>2753</v>
       </c>
       <c r="AB31" s="3" t="s">
-        <v>2746</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="32">
@@ -17192,7 +17216,7 @@
         <v>161</v>
       </c>
       <c r="AB32" s="12" t="s">
-        <v>2747</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="33">
@@ -17278,7 +17302,7 @@
         <v>161</v>
       </c>
       <c r="AB33" s="12" t="s">
-        <v>2748</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="34">
@@ -17364,7 +17388,7 @@
         <v>161</v>
       </c>
       <c r="AB34" s="12" t="s">
-        <v>2749</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="35">
@@ -17450,7 +17474,7 @@
         <v>161</v>
       </c>
       <c r="AB35" s="12" t="s">
-        <v>2750</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="36">
@@ -17458,85 +17482,85 @@
         <v>67</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>2751</v>
+        <v>2759</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>2752</v>
+        <v>2760</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2753</v>
+        <v>2761</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1877</v>
+        <v>1885</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>2754</v>
+        <v>2762</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>2755</v>
+        <v>2763</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>2756</v>
+        <v>2764</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>2757</v>
+        <v>2765</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>2758</v>
+        <v>2766</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>2759</v>
+        <v>2767</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>2760</v>
+        <v>2768</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>2761</v>
+        <v>2769</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>2762</v>
+        <v>2770</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>2763</v>
+        <v>2771</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>2764</v>
+        <v>2772</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>2765</v>
+        <v>2773</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>2766</v>
+        <v>2774</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>2767</v>
+        <v>2775</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>2768</v>
+        <v>2776</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>2769</v>
+        <v>2777</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>2770</v>
+        <v>2778</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>2771</v>
+        <v>2779</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>2772</v>
+        <v>2780</v>
       </c>
       <c r="Y36" s="2" t="s">
-        <v>2773</v>
+        <v>2781</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>2774</v>
+        <v>2782</v>
       </c>
       <c r="AA36" s="2" t="s">
-        <v>2775</v>
+        <v>2783</v>
       </c>
       <c r="AB36" s="3" t="s">
-        <v>2776</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="37">
@@ -17622,7 +17646,7 @@
         <v>161</v>
       </c>
       <c r="AB37" s="12" t="s">
-        <v>2777</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="38">
@@ -17708,7 +17732,7 @@
         <v>161</v>
       </c>
       <c r="AB38" s="12" t="s">
-        <v>2778</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="39">
@@ -17794,7 +17818,7 @@
         <v>161</v>
       </c>
       <c r="AB39" s="12" t="s">
-        <v>2779</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="40">
@@ -17880,7 +17904,7 @@
         <v>161</v>
       </c>
       <c r="AB40" s="12" t="s">
-        <v>2780</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="41">
@@ -17966,7 +17990,7 @@
         <v>161</v>
       </c>
       <c r="AB41" s="12" t="s">
-        <v>2781</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="42">
@@ -18057,88 +18081,88 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2782</v>
+        <v>2790</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2783</v>
+        <v>2791</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2784</v>
+        <v>2792</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>2785</v>
+        <v>2793</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>2786</v>
+        <v>2794</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>2787</v>
+        <v>2795</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>2788</v>
+        <v>2796</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>2789</v>
+        <v>2797</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>2790</v>
+        <v>2798</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>2791</v>
+        <v>2799</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>2792</v>
+        <v>2800</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>2793</v>
+        <v>2801</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>2794</v>
+        <v>2802</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>2795</v>
+        <v>2803</v>
       </c>
       <c r="O43" s="11" t="s">
-        <v>2796</v>
+        <v>2804</v>
       </c>
       <c r="P43" s="9" t="s">
-        <v>2797</v>
+        <v>2805</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>2798</v>
+        <v>2806</v>
       </c>
       <c r="R43" s="9" t="s">
-        <v>2799</v>
+        <v>2807</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>2800</v>
+        <v>2808</v>
       </c>
       <c r="T43" s="9" t="s">
-        <v>2801</v>
+        <v>2809</v>
       </c>
       <c r="U43" s="9" t="s">
-        <v>2802</v>
+        <v>2810</v>
       </c>
       <c r="V43" s="9" t="s">
-        <v>2803</v>
+        <v>2811</v>
       </c>
       <c r="W43" s="9" t="s">
-        <v>2804</v>
+        <v>2812</v>
       </c>
       <c r="X43" s="9" t="s">
-        <v>2805</v>
+        <v>2813</v>
       </c>
       <c r="Y43" s="9" t="s">
-        <v>2806</v>
+        <v>2814</v>
       </c>
       <c r="Z43" s="9" t="s">
-        <v>2807</v>
+        <v>2815</v>
       </c>
       <c r="AA43" s="9" t="s">
-        <v>2808</v>
+        <v>2816</v>
       </c>
       <c r="AB43" s="12" t="s">
-        <v>2329</v>
+        <v>2337</v>
       </c>
     </row>
   </sheetData>
@@ -18164,7 +18188,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2809</v>
+        <v>2817</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -18178,16 +18202,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2810</v>
+        <v>2818</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2811</v>
+        <v>2819</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2812</v>
+        <v>2820</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>2813</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="3">
@@ -18195,10 +18219,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2814</v>
+        <v>2822</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2815</v>
+        <v>2823</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>19</v>
@@ -18209,10 +18233,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2816</v>
+        <v>2824</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>2817</v>
+        <v>2825</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>19</v>
@@ -18223,10 +18247,10 @@
         <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2818</v>
+        <v>2826</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2819</v>
+        <v>2827</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>19</v>
@@ -18237,10 +18261,10 @@
         <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2820</v>
+        <v>2828</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>2821</v>
+        <v>2829</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>19</v>
@@ -18251,10 +18275,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>2822</v>
+        <v>2830</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2823</v>
+        <v>2831</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>19</v>
@@ -18265,10 +18289,10 @@
         <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>2824</v>
+        <v>2832</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2825</v>
+        <v>2833</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>19</v>
@@ -18279,10 +18303,10 @@
         <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>2826</v>
+        <v>2834</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>2827</v>
+        <v>2835</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>19</v>
@@ -18293,10 +18317,10 @@
         <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2828</v>
+        <v>2836</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>2829</v>
+        <v>2837</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>19</v>
@@ -18307,10 +18331,10 @@
         <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>2830</v>
+        <v>2838</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>2831</v>
+        <v>2839</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>19</v>
@@ -18321,10 +18345,10 @@
         <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>2832</v>
+        <v>2840</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>2833</v>
+        <v>2841</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>19</v>
@@ -18335,10 +18359,10 @@
         <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2834</v>
+        <v>2842</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>2835</v>
+        <v>2843</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>19</v>
@@ -18349,10 +18373,10 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2836</v>
+        <v>2844</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>2837</v>
+        <v>2845</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>19</v>
@@ -18363,10 +18387,10 @@
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>2838</v>
+        <v>2846</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>2839</v>
+        <v>2847</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>19</v>
@@ -18377,10 +18401,10 @@
         <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>2840</v>
+        <v>2848</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>2841</v>
+        <v>2849</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>19</v>
@@ -18391,10 +18415,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>2842</v>
+        <v>2850</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>2843</v>
+        <v>2851</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>19</v>
@@ -18405,10 +18429,10 @@
         <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>2844</v>
+        <v>2852</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>2845</v>
+        <v>2853</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>19</v>
@@ -18419,10 +18443,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>2846</v>
+        <v>2854</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>2847</v>
+        <v>2855</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>19</v>
@@ -18433,10 +18457,10 @@
         <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>2848</v>
+        <v>2856</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>2849</v>
+        <v>2857</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>19</v>
@@ -18447,10 +18471,10 @@
         <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>2850</v>
+        <v>2858</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>2851</v>
+        <v>2859</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>19</v>
@@ -18461,10 +18485,10 @@
         <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>2852</v>
+        <v>2860</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>2853</v>
+        <v>2861</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>19</v>
@@ -18475,10 +18499,10 @@
         <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>2854</v>
+        <v>2862</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>2855</v>
+        <v>2863</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>19</v>
@@ -18489,10 +18513,10 @@
         <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>2856</v>
+        <v>2864</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>2857</v>
+        <v>2865</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>19</v>
@@ -18503,10 +18527,10 @@
         <v>41</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>2858</v>
+        <v>2866</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>2859</v>
+        <v>2867</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>19</v>
@@ -18517,10 +18541,10 @@
         <v>42</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>2860</v>
+        <v>2868</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>2861</v>
+        <v>2869</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>19</v>
@@ -18531,10 +18555,10 @@
         <v>43</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>2862</v>
+        <v>2870</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>2863</v>
+        <v>2871</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>19</v>
@@ -18545,10 +18569,10 @@
         <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>2864</v>
+        <v>2872</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>2865</v>
+        <v>2873</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>19</v>
@@ -18559,13 +18583,13 @@
         <v>45</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>2866</v>
+        <v>2874</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>2867</v>
+        <v>2875</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>2868</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="30">
@@ -18573,13 +18597,13 @@
         <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>2869</v>
+        <v>2877</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>2870</v>
+        <v>2878</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>2871</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="31">
@@ -18587,13 +18611,13 @@
         <v>62</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>2872</v>
+        <v>2880</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>2873</v>
+        <v>2881</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>2874</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="32">
@@ -18601,13 +18625,13 @@
         <v>63</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>2875</v>
+        <v>2883</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>2876</v>
+        <v>2884</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>2877</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="33">
@@ -18615,13 +18639,13 @@
         <v>64</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>2878</v>
+        <v>2886</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>2879</v>
+        <v>2887</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>2880</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="34">
@@ -18629,13 +18653,13 @@
         <v>65</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>2881</v>
+        <v>2889</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>2882</v>
+        <v>2890</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>2883</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="35">
@@ -18649,7 +18673,7 @@
         <v>56</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>2884</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="36">
@@ -18657,13 +18681,13 @@
         <v>67</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>2885</v>
+        <v>2893</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>2886</v>
+        <v>2894</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>2887</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="37">
@@ -18671,13 +18695,13 @@
         <v>76</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>2888</v>
+        <v>2896</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>2889</v>
+        <v>2897</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>2890</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="38">
@@ -18685,13 +18709,13 @@
         <v>77</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>2891</v>
+        <v>2899</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>2892</v>
+        <v>2900</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>2893</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="39">
@@ -18705,7 +18729,7 @@
         <v>56</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>2894</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="40">
@@ -18719,7 +18743,7 @@
         <v>56</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>2895</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="41">
@@ -18727,10 +18751,10 @@
         <v>80</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>2896</v>
+        <v>2904</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>2897</v>
+        <v>2905</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>295</v>
@@ -18752,16 +18776,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2898</v>
+        <v>2906</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2899</v>
+        <v>2907</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2900</v>
+        <v>2908</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>2901</v>
+        <v>2909</v>
       </c>
     </row>
   </sheetData>

--- a/iceKnives32/Offline Documents (Periodic)/iceKnives32.xlsx
+++ b/iceKnives32/Offline Documents (Periodic)/iceKnives32.xlsx
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="2910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="2920">
   <si>
     <t>[]</t>
   </si>
@@ -5337,31 +5337,61 @@
     <t>smoke</t>
   </si>
   <si>
+    <t>cylinders</t>
+  </si>
+  <si>
     <t>quartz</t>
   </si>
   <si>
+    <t>exchanges</t>
+  </si>
+  <si>
     <t>crystal</t>
   </si>
   <si>
+    <t>mediums</t>
+  </si>
+  <si>
     <t>steam</t>
   </si>
   <si>
+    <t>averages</t>
+  </si>
+  <si>
     <t>rainbow</t>
   </si>
   <si>
+    <t>micros</t>
+  </si>
+  <si>
     <t>magma</t>
   </si>
   <si>
+    <t>levels</t>
+  </si>
+  <si>
     <t>water</t>
   </si>
   <si>
+    <t>tunnels</t>
+  </si>
+  <si>
     <t>soil</t>
   </si>
   <si>
+    <t>layers</t>
+  </si>
+  <si>
     <t>fire</t>
   </si>
   <si>
+    <t>brackets</t>
+  </si>
+  <si>
     <t>sky</t>
+  </si>
+  <si>
+    <t>sets</t>
   </si>
   <si>
     <t>[set/packet/cosy/];</t>
@@ -11202,7 +11232,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>18</v>
+        <v>1674</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>18</v>
@@ -11216,7 +11246,7 @@
         <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>18</v>
@@ -11231,7 +11261,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>18</v>
+        <v>1676</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>18</v>
@@ -11245,7 +11275,7 @@
         <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>18</v>
@@ -11260,7 +11290,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>18</v>
+        <v>1678</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>18</v>
@@ -11274,7 +11304,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1676</v>
+        <v>1679</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>18</v>
@@ -11289,7 +11319,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>18</v>
+        <v>1680</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>18</v>
@@ -11303,7 +11333,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1677</v>
+        <v>1681</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>18</v>
@@ -11318,7 +11348,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>18</v>
+        <v>1682</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>18</v>
@@ -11332,7 +11362,7 @@
         <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1678</v>
+        <v>1683</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>18</v>
@@ -11347,7 +11377,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>18</v>
+        <v>1684</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>18</v>
@@ -11361,7 +11391,7 @@
         <v>41</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1679</v>
+        <v>1685</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>18</v>
@@ -11376,7 +11406,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>18</v>
+        <v>1686</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>18</v>
@@ -11390,7 +11420,7 @@
         <v>42</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1680</v>
+        <v>1687</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>18</v>
@@ -11405,7 +11435,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>18</v>
+        <v>1688</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>18</v>
@@ -11419,7 +11449,7 @@
         <v>43</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>18</v>
@@ -11434,7 +11464,7 @@
         <v>18</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>18</v>
+        <v>1690</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>18</v>
@@ -11448,7 +11478,7 @@
         <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1682</v>
+        <v>1691</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>18</v>
@@ -11463,7 +11493,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>18</v>
+        <v>1692</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>18</v>
@@ -11880,7 +11910,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1683</v>
+        <v>1693</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>91</v>
@@ -11904,7 +11934,7 @@
         <v>97</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1684</v>
+        <v>1694</v>
       </c>
     </row>
   </sheetData>
@@ -11933,7 +11963,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>1685</v>
+        <v>1695</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -11962,28 +11992,28 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>1686</v>
+        <v>1696</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1687</v>
+        <v>1697</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1688</v>
+        <v>1698</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1689</v>
+        <v>1699</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1690</v>
+        <v>1700</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1691</v>
+        <v>1701</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1692</v>
+        <v>1702</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>1693</v>
+        <v>1703</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>303</v>
@@ -11994,25 +12024,25 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1694</v>
+        <v>1704</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1695</v>
+        <v>1705</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1696</v>
+        <v>1706</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1697</v>
+        <v>1707</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>1698</v>
+        <v>1708</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>1699</v>
+        <v>1709</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>1700</v>
+        <v>1710</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>19</v>
@@ -12023,25 +12053,25 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1701</v>
+        <v>1711</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1702</v>
+        <v>1712</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>1012</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1703</v>
+        <v>1713</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>1704</v>
+        <v>1714</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>19</v>
@@ -12052,25 +12082,25 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1707</v>
+        <v>1717</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1708</v>
+        <v>1718</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>1027</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1709</v>
+        <v>1719</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>1711</v>
+        <v>1721</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>1712</v>
+        <v>1722</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>19</v>
@@ -12081,25 +12111,25 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1714</v>
+        <v>1724</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>747</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>1716</v>
+        <v>1726</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1717</v>
+        <v>1727</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>1718</v>
+        <v>1728</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>19</v>
@@ -12110,25 +12140,25 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1719</v>
+        <v>1729</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1720</v>
+        <v>1730</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>456</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1721</v>
+        <v>1731</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1722</v>
+        <v>1732</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>1723</v>
+        <v>1733</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>1724</v>
+        <v>1734</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>19</v>
@@ -12139,25 +12169,25 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1725</v>
+        <v>1735</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1726</v>
+        <v>1736</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>124</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1727</v>
+        <v>1737</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1728</v>
+        <v>1738</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1729</v>
+        <v>1739</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>1730</v>
+        <v>1740</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>19</v>
@@ -12168,25 +12198,25 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1731</v>
+        <v>1741</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1732</v>
+        <v>1742</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>360</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1733</v>
+        <v>1743</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>1734</v>
+        <v>1744</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1735</v>
+        <v>1745</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>1736</v>
+        <v>1746</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>19</v>
@@ -12197,25 +12227,25 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1737</v>
+        <v>1747</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1738</v>
+        <v>1748</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1739</v>
+        <v>1749</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1740</v>
+        <v>1750</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>1741</v>
+        <v>1751</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1742</v>
+        <v>1752</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>1743</v>
+        <v>1753</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>19</v>
@@ -12226,25 +12256,25 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1744</v>
+        <v>1754</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1745</v>
+        <v>1755</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>488</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1746</v>
+        <v>1756</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>1747</v>
+        <v>1757</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1748</v>
+        <v>1758</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>1749</v>
+        <v>1759</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>19</v>
@@ -12255,25 +12285,25 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1750</v>
+        <v>1760</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1751</v>
+        <v>1761</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1119</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1752</v>
+        <v>1762</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1753</v>
+        <v>1763</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>1755</v>
+        <v>1765</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>19</v>
@@ -12284,25 +12314,25 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1756</v>
+        <v>1766</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1757</v>
+        <v>1767</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>470</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1758</v>
+        <v>1768</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1759</v>
+        <v>1769</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1760</v>
+        <v>1770</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>1761</v>
+        <v>1771</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>19</v>
@@ -12313,25 +12343,25 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1762</v>
+        <v>1772</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1763</v>
+        <v>1773</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>211</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1764</v>
+        <v>1774</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1765</v>
+        <v>1775</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1766</v>
+        <v>1776</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>1767</v>
+        <v>1777</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>19</v>
@@ -12342,25 +12372,25 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1768</v>
+        <v>1778</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1769</v>
+        <v>1779</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1770</v>
+        <v>1780</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1771</v>
+        <v>1781</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1772</v>
+        <v>1782</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1773</v>
+        <v>1783</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>1774</v>
+        <v>1784</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>19</v>
@@ -12371,25 +12401,25 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1775</v>
+        <v>1785</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1776</v>
+        <v>1786</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>625</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1777</v>
+        <v>1787</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1778</v>
+        <v>1788</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>1779</v>
+        <v>1789</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>1780</v>
+        <v>1790</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>19</v>
@@ -12400,25 +12430,25 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1781</v>
+        <v>1791</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1782</v>
+        <v>1792</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>768</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1783</v>
+        <v>1793</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>1784</v>
+        <v>1794</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1785</v>
+        <v>1795</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>1786</v>
+        <v>1796</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>19</v>
@@ -12429,25 +12459,25 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1787</v>
+        <v>1797</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1788</v>
+        <v>1798</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>845</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1789</v>
+        <v>1799</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1790</v>
+        <v>1800</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>1791</v>
+        <v>1801</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>1792</v>
+        <v>1802</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>19</v>
@@ -12458,25 +12488,25 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1793</v>
+        <v>1803</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1794</v>
+        <v>1804</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>1311</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1795</v>
+        <v>1805</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>1796</v>
+        <v>1806</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>1797</v>
+        <v>1807</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>1798</v>
+        <v>1808</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>19</v>
@@ -12487,25 +12517,25 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1799</v>
+        <v>1809</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1800</v>
+        <v>1810</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1801</v>
+        <v>1811</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1802</v>
+        <v>1812</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>1803</v>
+        <v>1813</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1804</v>
+        <v>1814</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>1805</v>
+        <v>1815</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>19</v>
@@ -12516,25 +12546,25 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1806</v>
+        <v>1816</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1807</v>
+        <v>1817</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1808</v>
+        <v>1818</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1809</v>
+        <v>1819</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>1810</v>
+        <v>1820</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1811</v>
+        <v>1821</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>1812</v>
+        <v>1822</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>19</v>
@@ -12545,25 +12575,25 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1813</v>
+        <v>1823</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1814</v>
+        <v>1824</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>932</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1815</v>
+        <v>1825</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>1816</v>
+        <v>1826</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>1817</v>
+        <v>1827</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>1818</v>
+        <v>1828</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>19</v>
@@ -12574,25 +12604,25 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1819</v>
+        <v>1829</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1820</v>
+        <v>1830</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1821</v>
+        <v>1831</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1822</v>
+        <v>1832</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>1823</v>
+        <v>1833</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1824</v>
+        <v>1834</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>1825</v>
+        <v>1835</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>19</v>
@@ -12603,25 +12633,25 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1826</v>
+        <v>1836</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1827</v>
+        <v>1837</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>472</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1828</v>
+        <v>1838</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>1829</v>
+        <v>1839</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>1830</v>
+        <v>1840</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>1831</v>
+        <v>1841</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>19</v>
@@ -12632,25 +12662,25 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1832</v>
+        <v>1842</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1833</v>
+        <v>1843</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>424</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1834</v>
+        <v>1844</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>1835</v>
+        <v>1845</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>1836</v>
+        <v>1846</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>1837</v>
+        <v>1847</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>19</v>
@@ -12661,25 +12691,25 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1838</v>
+        <v>1848</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1839</v>
+        <v>1849</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>925</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1840</v>
+        <v>1850</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>1841</v>
+        <v>1851</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1842</v>
+        <v>1852</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>1843</v>
+        <v>1853</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>19</v>
@@ -12690,25 +12720,25 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1844</v>
+        <v>1854</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1845</v>
+        <v>1855</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>1383</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1846</v>
+        <v>1856</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>1847</v>
+        <v>1857</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>1848</v>
+        <v>1858</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>1849</v>
+        <v>1859</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>19</v>
@@ -12719,25 +12749,25 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1850</v>
+        <v>1860</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1851</v>
+        <v>1861</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>429</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1852</v>
+        <v>1862</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>1853</v>
+        <v>1863</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>1854</v>
+        <v>1864</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>1855</v>
+        <v>1865</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>19</v>
@@ -12748,25 +12778,25 @@
         <v>45</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1856</v>
+        <v>1866</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1857</v>
+        <v>1867</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>373</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1858</v>
+        <v>1868</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>1859</v>
+        <v>1869</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1860</v>
+        <v>1870</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>1861</v>
+        <v>1871</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>335</v>
@@ -12777,28 +12807,28 @@
         <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1862</v>
+        <v>1872</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1863</v>
+        <v>1873</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1864</v>
+        <v>1874</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>1865</v>
+        <v>1875</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1866</v>
+        <v>1876</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>1867</v>
+        <v>1877</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>1868</v>
+        <v>1878</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>1869</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="31">
@@ -12806,28 +12836,28 @@
         <v>62</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1870</v>
+        <v>1880</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1871</v>
+        <v>1881</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1872</v>
+        <v>1882</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>1873</v>
+        <v>1883</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>1874</v>
+        <v>1884</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>1875</v>
+        <v>1885</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>1876</v>
+        <v>1886</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>1877</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="32">
@@ -12856,7 +12886,7 @@
         <v>61</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>1878</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="33">
@@ -12885,7 +12915,7 @@
         <v>61</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>1879</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="34">
@@ -12914,7 +12944,7 @@
         <v>61</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>1880</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="35">
@@ -12943,7 +12973,7 @@
         <v>61</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="36">
@@ -12951,28 +12981,28 @@
         <v>67</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1882</v>
+        <v>1892</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1883</v>
+        <v>1893</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1884</v>
+        <v>1894</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>1885</v>
+        <v>1895</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>1886</v>
+        <v>1896</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>1887</v>
+        <v>1897</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>1888</v>
+        <v>1898</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>1889</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="37">
@@ -13001,7 +13031,7 @@
         <v>61</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>1890</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="38">
@@ -13030,7 +13060,7 @@
         <v>61</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>1891</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="39">
@@ -13059,7 +13089,7 @@
         <v>61</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>1892</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="40">
@@ -13088,7 +13118,7 @@
         <v>61</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>1893</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="41">
@@ -13117,7 +13147,7 @@
         <v>61</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>1894</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="42">
@@ -13151,31 +13181,31 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1895</v>
+        <v>1905</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1896</v>
+        <v>1906</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1897</v>
+        <v>1907</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1898</v>
+        <v>1908</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>1899</v>
+        <v>1909</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>1900</v>
+        <v>1910</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>1901</v>
+        <v>1911</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>1902</v>
+        <v>1912</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1903</v>
+        <v>1913</v>
       </c>
     </row>
   </sheetData>
@@ -13202,7 +13232,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1904</v>
+        <v>1914</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -13231,28 +13261,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1905</v>
+        <v>1915</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1906</v>
+        <v>1916</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1907</v>
+        <v>1917</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1908</v>
+        <v>1918</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1909</v>
+        <v>1919</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1910</v>
+        <v>1920</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1911</v>
+        <v>1921</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>1912</v>
+        <v>1922</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>19</v>
@@ -13263,13 +13293,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1913</v>
+        <v>1923</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1914</v>
+        <v>1924</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1915</v>
+        <v>1925</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>18</v>
@@ -13292,13 +13322,13 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1916</v>
+        <v>1926</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1917</v>
+        <v>1927</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1918</v>
+        <v>1928</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -13321,13 +13351,13 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1919</v>
+        <v>1929</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1920</v>
+        <v>1930</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1921</v>
+        <v>1931</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>18</v>
@@ -13350,13 +13380,13 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1922</v>
+        <v>1932</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1923</v>
+        <v>1933</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1924</v>
+        <v>1934</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>18</v>
@@ -13379,13 +13409,13 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1925</v>
+        <v>1935</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1926</v>
+        <v>1936</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1927</v>
+        <v>1937</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>18</v>
@@ -13408,13 +13438,13 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1928</v>
+        <v>1938</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1929</v>
+        <v>1939</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1930</v>
+        <v>1940</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>18</v>
@@ -13437,13 +13467,13 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1931</v>
+        <v>1941</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1932</v>
+        <v>1942</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1933</v>
+        <v>1943</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>18</v>
@@ -13466,13 +13496,13 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1934</v>
+        <v>1944</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1935</v>
+        <v>1945</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1936</v>
+        <v>1946</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>18</v>
@@ -13495,13 +13525,13 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1937</v>
+        <v>1947</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1938</v>
+        <v>1948</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1939</v>
+        <v>1949</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>18</v>
@@ -13524,13 +13554,13 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1941</v>
+        <v>1951</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1942</v>
+        <v>1952</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>18</v>
@@ -13553,13 +13583,13 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1943</v>
+        <v>1953</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1944</v>
+        <v>1954</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1945</v>
+        <v>1955</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>18</v>
@@ -13582,13 +13612,13 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1946</v>
+        <v>1956</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1947</v>
+        <v>1957</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1948</v>
+        <v>1958</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>18</v>
@@ -13611,13 +13641,13 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1949</v>
+        <v>1959</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1950</v>
+        <v>1960</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1951</v>
+        <v>1961</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>18</v>
@@ -13640,13 +13670,13 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1952</v>
+        <v>1962</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1953</v>
+        <v>1963</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1954</v>
+        <v>1964</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>18</v>
@@ -13669,13 +13699,13 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1955</v>
+        <v>1965</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1956</v>
+        <v>1966</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1957</v>
+        <v>1967</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>18</v>
@@ -13698,13 +13728,13 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1958</v>
+        <v>1968</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1959</v>
+        <v>1969</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>18</v>
@@ -13727,13 +13757,13 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1961</v>
+        <v>1971</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1962</v>
+        <v>1972</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1963</v>
+        <v>1973</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>18</v>
@@ -13756,13 +13786,13 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1964</v>
+        <v>1974</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1965</v>
+        <v>1975</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1966</v>
+        <v>1976</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>18</v>
@@ -13785,13 +13815,13 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1967</v>
+        <v>1977</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1968</v>
+        <v>1978</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1969</v>
+        <v>1979</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>18</v>
@@ -13814,13 +13844,13 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1971</v>
+        <v>1981</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1972</v>
+        <v>1982</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>18</v>
@@ -13843,13 +13873,13 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1973</v>
+        <v>1983</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1974</v>
+        <v>1984</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1975</v>
+        <v>1985</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>18</v>
@@ -13872,13 +13902,13 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1976</v>
+        <v>1986</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1977</v>
+        <v>1987</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>1978</v>
+        <v>1988</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>18</v>
@@ -13901,13 +13931,13 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1979</v>
+        <v>1989</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>1981</v>
+        <v>1991</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>18</v>
@@ -13930,13 +13960,13 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1982</v>
+        <v>1992</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1983</v>
+        <v>1993</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>1984</v>
+        <v>1994</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>18</v>
@@ -13959,13 +13989,13 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1985</v>
+        <v>1995</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1986</v>
+        <v>1996</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>1987</v>
+        <v>1997</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>18</v>
@@ -13988,13 +14018,13 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1988</v>
+        <v>1998</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1989</v>
+        <v>1999</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>18</v>
@@ -14017,25 +14047,25 @@
         <v>45</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1991</v>
+        <v>2001</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1992</v>
+        <v>2002</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>1993</v>
+        <v>2003</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1994</v>
+        <v>2004</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>1995</v>
+        <v>2005</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1996</v>
+        <v>2006</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>1997</v>
+        <v>2007</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>19</v>
@@ -14420,31 +14450,31 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1999</v>
+        <v>2009</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>2003</v>
+        <v>2013</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>2004</v>
+        <v>2014</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>2006</v>
+        <v>2016</v>
       </c>
     </row>
   </sheetData>
@@ -14469,7 +14499,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -14493,61 +14523,61 @@
         <v>7</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>2014</v>
+        <v>2024</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>2015</v>
+        <v>2025</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>2016</v>
+        <v>2026</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>2017</v>
+        <v>2027</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>2018</v>
+        <v>2028</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>2019</v>
+        <v>2029</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>2021</v>
+        <v>2031</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>2022</v>
+        <v>2032</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>2023</v>
+        <v>2033</v>
       </c>
       <c r="Y1" s="9" t="s">
-        <v>2024</v>
+        <v>2034</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>2025</v>
+        <v>2035</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>2026</v>
+        <v>2036</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>8</v>
@@ -14555,88 +14585,88 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1904</v>
+        <v>1914</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2027</v>
+        <v>2037</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>2028</v>
+        <v>2038</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>2029</v>
+        <v>2039</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>2031</v>
+        <v>2041</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>2032</v>
+        <v>2042</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>2033</v>
+        <v>2043</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>2034</v>
+        <v>2044</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>2035</v>
+        <v>2045</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>2036</v>
+        <v>2046</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>2037</v>
+        <v>2047</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>2038</v>
+        <v>2048</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>2039</v>
+        <v>2049</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>2040</v>
+        <v>2050</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>2041</v>
+        <v>2051</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>2042</v>
+        <v>2052</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>2043</v>
+        <v>2053</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>2044</v>
+        <v>2054</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>1825</v>
+        <v>1835</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>2045</v>
+        <v>2055</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>2046</v>
+        <v>2056</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>2047</v>
+        <v>2057</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>2048</v>
+        <v>2058</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>2049</v>
+        <v>2059</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>2050</v>
+        <v>2060</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>2051</v>
+        <v>2061</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>2052</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="3">
@@ -14644,85 +14674,85 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2053</v>
+        <v>2063</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>2054</v>
+        <v>2064</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>2055</v>
+        <v>2065</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>2056</v>
+        <v>2066</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>2057</v>
+        <v>2067</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>2058</v>
+        <v>2068</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>2059</v>
+        <v>2069</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>2060</v>
+        <v>2070</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>1764</v>
+        <v>1774</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>2061</v>
+        <v>2071</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>2062</v>
+        <v>2072</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>2063</v>
+        <v>2073</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>2064</v>
+        <v>2074</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>1750</v>
+        <v>1760</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>1827</v>
+        <v>1837</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>2065</v>
+        <v>2075</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>2066</v>
+        <v>2076</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>2067</v>
+        <v>2077</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>2068</v>
+        <v>2078</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>2069</v>
+        <v>2079</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>2070</v>
+        <v>2080</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>2071</v>
+        <v>2081</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>2072</v>
+        <v>2082</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>1782</v>
+        <v>1792</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>2073</v>
+        <v>2083</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>1857</v>
+        <v>1867</v>
       </c>
       <c r="AB3" s="12" t="s">
-        <v>2074</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="4">
@@ -14730,85 +14760,85 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2075</v>
+        <v>2085</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>2076</v>
+        <v>2086</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>2077</v>
+        <v>2087</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>2078</v>
+        <v>2088</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>2079</v>
+        <v>2089</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1735</v>
+        <v>1745</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>2080</v>
+        <v>2090</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>2081</v>
+        <v>2091</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>1790</v>
+        <v>1800</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>2082</v>
+        <v>2092</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>2083</v>
+        <v>2093</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>2084</v>
+        <v>2094</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>2085</v>
+        <v>2095</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>2086</v>
+        <v>2096</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>2087</v>
+        <v>2097</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>2088</v>
+        <v>2098</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>1777</v>
+        <v>1787</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>2089</v>
+        <v>2099</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>2090</v>
+        <v>2100</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>2091</v>
+        <v>2101</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>2092</v>
+        <v>2102</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>2093</v>
+        <v>2103</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>2094</v>
+        <v>2104</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>2095</v>
+        <v>2105</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>2096</v>
+        <v>2106</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>2097</v>
+        <v>2107</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>2098</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="5">
@@ -14816,85 +14846,85 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2099</v>
+        <v>2109</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>2100</v>
+        <v>2110</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>2101</v>
+        <v>2111</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>2102</v>
+        <v>2112</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>2103</v>
+        <v>2113</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>2104</v>
+        <v>2114</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>1834</v>
+        <v>1844</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>2105</v>
+        <v>2115</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>2106</v>
+        <v>2116</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>2107</v>
+        <v>2117</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>1842</v>
+        <v>1852</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>1697</v>
+        <v>1707</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>2108</v>
+        <v>2118</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>2111</v>
+        <v>2121</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>2112</v>
+        <v>2122</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>2113</v>
+        <v>2123</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>2114</v>
+        <v>2124</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>2115</v>
+        <v>2125</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>2116</v>
+        <v>2126</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>2117</v>
+        <v>2127</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>2118</v>
+        <v>2128</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>2119</v>
+        <v>2129</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>2120</v>
+        <v>2130</v>
       </c>
       <c r="AB5" s="12" t="s">
-        <v>2121</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="6">
@@ -14902,85 +14932,85 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>2122</v>
+        <v>2132</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>2123</v>
+        <v>2133</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>2124</v>
+        <v>2134</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>2125</v>
+        <v>2135</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>2126</v>
+        <v>2136</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>2127</v>
+        <v>2137</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>2128</v>
+        <v>2138</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>2129</v>
+        <v>2139</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>2130</v>
+        <v>2140</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>2131</v>
+        <v>2141</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>2132</v>
+        <v>2142</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>2133</v>
+        <v>2143</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>2134</v>
+        <v>2144</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>1775</v>
+        <v>1785</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>2135</v>
+        <v>2145</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>2136</v>
+        <v>2146</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>2137</v>
+        <v>2147</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>2138</v>
+        <v>2148</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>2139</v>
+        <v>2149</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>2140</v>
+        <v>2150</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>2141</v>
+        <v>2151</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>2142</v>
+        <v>2152</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>2143</v>
+        <v>2153</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>2144</v>
+        <v>2154</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>2145</v>
+        <v>2155</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>1779</v>
+        <v>1789</v>
       </c>
       <c r="AB6" s="12" t="s">
-        <v>2146</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="7">
@@ -14988,85 +15018,85 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>2147</v>
+        <v>2157</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>2148</v>
+        <v>2158</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>2149</v>
+        <v>2159</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>2150</v>
+        <v>2160</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>2151</v>
+        <v>2161</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>2152</v>
+        <v>2162</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>1826</v>
+        <v>1836</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>2153</v>
+        <v>2163</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>2154</v>
+        <v>2164</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>1760</v>
+        <v>1770</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>2155</v>
+        <v>2165</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>1753</v>
+        <v>1763</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>1847</v>
+        <v>1857</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>2156</v>
+        <v>2166</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>2157</v>
+        <v>2167</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>1851</v>
+        <v>1861</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>2158</v>
+        <v>2168</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>2159</v>
+        <v>2169</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>2161</v>
+        <v>2171</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>2162</v>
+        <v>2172</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>2163</v>
+        <v>2173</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>2164</v>
+        <v>2174</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>2165</v>
+        <v>2175</v>
       </c>
       <c r="AB7" s="12" t="s">
-        <v>2166</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="8">
@@ -15074,85 +15104,85 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>2167</v>
+        <v>2177</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2168</v>
+        <v>2178</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>2169</v>
+        <v>2179</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>2170</v>
+        <v>2180</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>2171</v>
+        <v>2181</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>2172</v>
+        <v>2182</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>2173</v>
+        <v>2183</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>1730</v>
+        <v>1740</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>2174</v>
+        <v>2184</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>1747</v>
+        <v>1757</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>2175</v>
+        <v>2185</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>2176</v>
+        <v>2186</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>1806</v>
+        <v>1816</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>2177</v>
+        <v>2187</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>2178</v>
+        <v>2188</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>1734</v>
+        <v>1744</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>2179</v>
+        <v>2189</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>2180</v>
+        <v>2190</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>2181</v>
+        <v>2191</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>2182</v>
+        <v>2192</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>2183</v>
+        <v>2193</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>2184</v>
+        <v>2194</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>2185</v>
+        <v>2195</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>2186</v>
+        <v>2196</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>2187</v>
+        <v>2197</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>2188</v>
+        <v>2198</v>
       </c>
       <c r="AB8" s="12" t="s">
-        <v>2189</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="9">
@@ -15160,85 +15190,85 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>2190</v>
+        <v>2200</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>2191</v>
+        <v>2201</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>2192</v>
+        <v>2202</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>2193</v>
+        <v>2203</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>2194</v>
+        <v>2204</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>2195</v>
+        <v>2205</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>2196</v>
+        <v>2206</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>2197</v>
+        <v>2207</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>2198</v>
+        <v>2208</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>2199</v>
+        <v>2209</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>2200</v>
+        <v>2210</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>2201</v>
+        <v>2211</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>2202</v>
+        <v>2212</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>2203</v>
+        <v>2213</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>2204</v>
+        <v>2214</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>1752</v>
+        <v>1762</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>2205</v>
+        <v>2215</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>2206</v>
+        <v>2216</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>2207</v>
+        <v>2217</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>2208</v>
+        <v>2218</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>2209</v>
+        <v>2219</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>2210</v>
+        <v>2220</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>2211</v>
+        <v>2221</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>2212</v>
+        <v>2222</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>2213</v>
+        <v>2223</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>2214</v>
+        <v>2224</v>
       </c>
       <c r="AB9" s="12" t="s">
-        <v>2215</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="10">
@@ -15246,85 +15276,85 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>2216</v>
+        <v>2226</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>2217</v>
+        <v>2227</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>2218</v>
+        <v>2228</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>2219</v>
+        <v>2229</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>2220</v>
+        <v>2230</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>2221</v>
+        <v>2231</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>2222</v>
+        <v>2232</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>2223</v>
+        <v>2233</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>2224</v>
+        <v>2234</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>2225</v>
+        <v>2235</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>2226</v>
+        <v>2236</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>2227</v>
+        <v>2237</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>2228</v>
+        <v>2238</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>2229</v>
+        <v>2239</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>2230</v>
+        <v>2240</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>2231</v>
+        <v>2241</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>2232</v>
+        <v>2242</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>2233</v>
+        <v>2243</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>1816</v>
+        <v>1826</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>2234</v>
+        <v>2244</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>2235</v>
+        <v>2245</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>2236</v>
+        <v>2246</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>2237</v>
+        <v>2247</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>2238</v>
+        <v>2248</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>2239</v>
+        <v>2249</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>2240</v>
+        <v>2250</v>
       </c>
       <c r="AB10" s="12" t="s">
-        <v>2074</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="11">
@@ -15332,85 +15362,85 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>2241</v>
+        <v>2251</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>2242</v>
+        <v>2252</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>2243</v>
+        <v>2253</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>2244</v>
+        <v>2254</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>2245</v>
+        <v>2255</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>2246</v>
+        <v>2256</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>2247</v>
+        <v>2257</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>2248</v>
+        <v>2258</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>2249</v>
+        <v>2259</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>2250</v>
+        <v>2260</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>1815</v>
+        <v>1825</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>2251</v>
+        <v>2261</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>2252</v>
+        <v>2262</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>2253</v>
+        <v>2263</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>2254</v>
+        <v>2264</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>2255</v>
+        <v>2265</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>2256</v>
+        <v>2266</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>2257</v>
+        <v>2267</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>2258</v>
+        <v>2268</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>2259</v>
+        <v>2269</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>2260</v>
+        <v>2270</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>2261</v>
+        <v>2271</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>2262</v>
+        <v>2272</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>2263</v>
+        <v>2273</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>2264</v>
+        <v>2274</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>2265</v>
+        <v>2275</v>
       </c>
       <c r="AB11" s="12" t="s">
-        <v>2098</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="12">
@@ -15418,85 +15448,85 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>2266</v>
+        <v>2276</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>2267</v>
+        <v>2277</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>2268</v>
+        <v>2278</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>2269</v>
+        <v>2279</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>2270</v>
+        <v>2280</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>2271</v>
+        <v>2281</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>2272</v>
+        <v>2282</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>2273</v>
+        <v>2283</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>2274</v>
+        <v>2284</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>1848</v>
+        <v>1858</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>2275</v>
+        <v>2285</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>2276</v>
+        <v>2286</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>1721</v>
+        <v>1731</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>2277</v>
+        <v>2287</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>2278</v>
+        <v>2288</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>1854</v>
+        <v>1864</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>2279</v>
+        <v>2289</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>2280</v>
+        <v>2290</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>2281</v>
+        <v>2291</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>2282</v>
+        <v>2292</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>2283</v>
+        <v>2293</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>2284</v>
+        <v>2294</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>2285</v>
+        <v>2295</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>2286</v>
+        <v>2296</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>2287</v>
+        <v>2297</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>2288</v>
+        <v>2298</v>
       </c>
       <c r="AB12" s="12" t="s">
-        <v>2289</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="13">
@@ -15504,85 +15534,85 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>2290</v>
+        <v>2300</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>2291</v>
+        <v>2301</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>2292</v>
+        <v>2302</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>2293</v>
+        <v>2303</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>2294</v>
+        <v>2304</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>2295</v>
+        <v>2305</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>2296</v>
+        <v>2306</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>2297</v>
+        <v>2307</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>2298</v>
+        <v>2308</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>1783</v>
+        <v>1793</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>2299</v>
+        <v>2309</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>2300</v>
+        <v>2310</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>2301</v>
+        <v>2311</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>2302</v>
+        <v>2312</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>2303</v>
+        <v>2313</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>2304</v>
+        <v>2314</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>2305</v>
+        <v>2315</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>1737</v>
+        <v>1747</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>2306</v>
+        <v>2316</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>2307</v>
+        <v>2317</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>2308</v>
+        <v>2318</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>2309</v>
+        <v>2319</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>2310</v>
+        <v>2320</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>2311</v>
+        <v>2321</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>2312</v>
+        <v>2322</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>2313</v>
+        <v>2323</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>2314</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="14">
@@ -15590,85 +15620,85 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>2315</v>
+        <v>2325</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>2316</v>
+        <v>2326</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>2317</v>
+        <v>2327</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>2318</v>
+        <v>2328</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>2319</v>
+        <v>2329</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>2320</v>
+        <v>2330</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>2321</v>
+        <v>2331</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>1797</v>
+        <v>1807</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>1844</v>
+        <v>1854</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>2322</v>
+        <v>2332</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>2323</v>
+        <v>2333</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>2324</v>
+        <v>2334</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>2325</v>
+        <v>2335</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>1781</v>
+        <v>1791</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>1850</v>
+        <v>1860</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>2326</v>
+        <v>2336</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>2327</v>
+        <v>2337</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>2328</v>
+        <v>2338</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>2329</v>
+        <v>2339</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>2330</v>
+        <v>2340</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>2331</v>
+        <v>2341</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>2332</v>
+        <v>2342</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>2333</v>
+        <v>2343</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>2334</v>
+        <v>2344</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>2335</v>
+        <v>2345</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>2336</v>
+        <v>2346</v>
       </c>
       <c r="AB14" s="12" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="15">
@@ -15676,85 +15706,85 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>2338</v>
+        <v>2348</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>2339</v>
+        <v>2349</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>2340</v>
+        <v>2350</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>2341</v>
+        <v>2351</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1699</v>
+        <v>1709</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>2342</v>
+        <v>2352</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>2343</v>
+        <v>2353</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>1716</v>
+        <v>1726</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>2344</v>
+        <v>2354</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>1796</v>
+        <v>1806</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>2345</v>
+        <v>2355</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>2346</v>
+        <v>2356</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>1800</v>
+        <v>1810</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>2347</v>
+        <v>2357</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>1778</v>
+        <v>1788</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>2348</v>
+        <v>2358</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>2349</v>
+        <v>2359</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>1725</v>
+        <v>1735</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>2350</v>
+        <v>2360</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>2351</v>
+        <v>2361</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>2352</v>
+        <v>2362</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>2353</v>
+        <v>2363</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>2354</v>
+        <v>2364</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>2355</v>
+        <v>2365</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>2356</v>
+        <v>2366</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>1788</v>
+        <v>1798</v>
       </c>
       <c r="AB15" s="12" t="s">
-        <v>2357</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="16">
@@ -15762,85 +15792,85 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>2358</v>
+        <v>2368</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>2359</v>
+        <v>2369</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>2360</v>
+        <v>2370</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>2361</v>
+        <v>2371</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>2362</v>
+        <v>2372</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>2363</v>
+        <v>2373</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>2364</v>
+        <v>2374</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>2365</v>
+        <v>2375</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>2366</v>
+        <v>2376</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>2367</v>
+        <v>2377</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>2368</v>
+        <v>2378</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>2369</v>
+        <v>2379</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>2370</v>
+        <v>2380</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>1729</v>
+        <v>1739</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>2371</v>
+        <v>2381</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>2372</v>
+        <v>2382</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>2373</v>
+        <v>2383</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>2374</v>
+        <v>2384</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>2375</v>
+        <v>2385</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>2376</v>
+        <v>2386</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>2377</v>
+        <v>2387</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>2378</v>
+        <v>2388</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>2379</v>
+        <v>2389</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>2380</v>
+        <v>2390</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>2381</v>
+        <v>2391</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>2382</v>
+        <v>2392</v>
       </c>
       <c r="AB16" s="12" t="s">
-        <v>2383</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="17">
@@ -15848,85 +15878,85 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>2384</v>
+        <v>2394</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>2385</v>
+        <v>2395</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>2386</v>
+        <v>2396</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>2387</v>
+        <v>2397</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>2388</v>
+        <v>2398</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>2389</v>
+        <v>2399</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>2390</v>
+        <v>2400</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>2391</v>
+        <v>2401</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>1772</v>
+        <v>1782</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>1817</v>
+        <v>1827</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>2392</v>
+        <v>2402</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>2393</v>
+        <v>2403</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>2394</v>
+        <v>2404</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>2395</v>
+        <v>2405</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>2396</v>
+        <v>2406</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>2397</v>
+        <v>2407</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>1846</v>
+        <v>1856</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>2398</v>
+        <v>2408</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>2399</v>
+        <v>2409</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>2400</v>
+        <v>2410</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>2401</v>
+        <v>2411</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>2402</v>
+        <v>2412</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>2403</v>
+        <v>2413</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>1830</v>
+        <v>1840</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>2404</v>
+        <v>2414</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>2405</v>
+        <v>2415</v>
       </c>
       <c r="AB17" s="12" t="s">
-        <v>2406</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="18">
@@ -15934,85 +15964,85 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>2407</v>
+        <v>2417</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>2408</v>
+        <v>2418</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>2409</v>
+        <v>2419</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>2410</v>
+        <v>2420</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1811</v>
+        <v>1821</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>1759</v>
+        <v>1769</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>2411</v>
+        <v>2421</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>2412</v>
+        <v>2422</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>2413</v>
+        <v>2423</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>2414</v>
+        <v>2424</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>2415</v>
+        <v>2425</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>1762</v>
+        <v>1772</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>2416</v>
+        <v>2426</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>2417</v>
+        <v>2427</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>2418</v>
+        <v>2428</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>2419</v>
+        <v>2429</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>2420</v>
+        <v>2430</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>1820</v>
+        <v>1830</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>2421</v>
+        <v>2431</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>2422</v>
+        <v>2432</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>2423</v>
+        <v>2433</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>2424</v>
+        <v>2434</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>2425</v>
+        <v>2435</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>2426</v>
+        <v>2436</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>2427</v>
+        <v>2437</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>2428</v>
+        <v>2438</v>
       </c>
       <c r="AB18" s="12" t="s">
-        <v>2166</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="19">
@@ -16020,85 +16050,85 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>2429</v>
+        <v>2439</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>2430</v>
+        <v>2440</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>2431</v>
+        <v>2441</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>2432</v>
+        <v>2442</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>2433</v>
+        <v>2443</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>2434</v>
+        <v>2444</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>2435</v>
+        <v>2445</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>1787</v>
+        <v>1797</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>2436</v>
+        <v>2446</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>1773</v>
+        <v>1783</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>1744</v>
+        <v>1754</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>2437</v>
+        <v>2447</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>1766</v>
+        <v>1776</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>2438</v>
+        <v>2448</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>2439</v>
+        <v>2449</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>2440</v>
+        <v>2450</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>2441</v>
+        <v>2451</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>2442</v>
+        <v>2452</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>2443</v>
+        <v>2453</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>2444</v>
+        <v>2454</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>2445</v>
+        <v>2455</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>2446</v>
+        <v>2456</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>2447</v>
+        <v>2457</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>2448</v>
+        <v>2458</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>2449</v>
+        <v>2459</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>2450</v>
+        <v>2460</v>
       </c>
       <c r="AB19" s="12" t="s">
-        <v>2451</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="20">
@@ -16106,85 +16136,85 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>2452</v>
+        <v>2462</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>2453</v>
+        <v>2463</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>2454</v>
+        <v>2464</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>2455</v>
+        <v>2465</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>2456</v>
+        <v>2466</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>2457</v>
+        <v>2467</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>2458</v>
+        <v>2468</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>1805</v>
+        <v>1815</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>1853</v>
+        <v>1863</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>1732</v>
+        <v>1742</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>2459</v>
+        <v>2469</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>2460</v>
+        <v>2470</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>2461</v>
+        <v>2471</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>2462</v>
+        <v>2472</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>2463</v>
+        <v>2473</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>2464</v>
+        <v>2474</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>2465</v>
+        <v>2475</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>2466</v>
+        <v>2476</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>2467</v>
+        <v>2477</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>2468</v>
+        <v>2478</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>2469</v>
+        <v>2479</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>2470</v>
+        <v>2480</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>1711</v>
+        <v>1721</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>2471</v>
+        <v>2481</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>2472</v>
+        <v>2482</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>2473</v>
+        <v>2483</v>
       </c>
       <c r="AB20" s="12" t="s">
-        <v>2474</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="21">
@@ -16192,85 +16222,85 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>2475</v>
+        <v>2485</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>2476</v>
+        <v>2486</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>2477</v>
+        <v>2487</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>2478</v>
+        <v>2488</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>2479</v>
+        <v>2489</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1833</v>
+        <v>1843</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>2480</v>
+        <v>2490</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>2481</v>
+        <v>2491</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>2482</v>
+        <v>2492</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>2483</v>
+        <v>2493</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>2484</v>
+        <v>2494</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>1858</v>
+        <v>1868</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>2485</v>
+        <v>2495</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>2486</v>
+        <v>2496</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>2487</v>
+        <v>2497</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>2488</v>
+        <v>2498</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>2489</v>
+        <v>2499</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>2490</v>
+        <v>2500</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>2491</v>
+        <v>2501</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>2492</v>
+        <v>2502</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>2493</v>
+        <v>2503</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>2494</v>
+        <v>2504</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>2495</v>
+        <v>2505</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>2496</v>
+        <v>2506</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>2497</v>
+        <v>2507</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>1687</v>
+        <v>1697</v>
       </c>
       <c r="AB21" s="12" t="s">
-        <v>2498</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="22">
@@ -16278,85 +16308,85 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>2499</v>
+        <v>2509</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>2500</v>
+        <v>2510</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>2501</v>
+        <v>2511</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>2502</v>
+        <v>2512</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>2503</v>
+        <v>2513</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>2504</v>
+        <v>2514</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>2505</v>
+        <v>2515</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>2506</v>
+        <v>2516</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>2507</v>
+        <v>2517</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>2508</v>
+        <v>2518</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>2509</v>
+        <v>2519</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>2510</v>
+        <v>2520</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>1835</v>
+        <v>1845</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>2511</v>
+        <v>2521</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>2512</v>
+        <v>2522</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>2513</v>
+        <v>2523</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>2514</v>
+        <v>2524</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>2515</v>
+        <v>2525</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>2516</v>
+        <v>2526</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>2517</v>
+        <v>2527</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>2518</v>
+        <v>2528</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>2519</v>
+        <v>2529</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>2520</v>
+        <v>2530</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>1839</v>
+        <v>1849</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>2521</v>
+        <v>2531</v>
       </c>
       <c r="AB22" s="12" t="s">
-        <v>2522</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="23">
@@ -16364,85 +16394,85 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>2523</v>
+        <v>2533</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>2524</v>
+        <v>2534</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>2525</v>
+        <v>2535</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>2526</v>
+        <v>2536</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>2527</v>
+        <v>2537</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>2528</v>
+        <v>2538</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>2529</v>
+        <v>2539</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>2530</v>
+        <v>2540</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>2531</v>
+        <v>2541</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>2532</v>
+        <v>2542</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>2533</v>
+        <v>2543</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>2534</v>
+        <v>2544</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>2535</v>
+        <v>2545</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>2536</v>
+        <v>2546</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>2537</v>
+        <v>2547</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>2538</v>
+        <v>2548</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>2539</v>
+        <v>2549</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>2540</v>
+        <v>2550</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>2541</v>
+        <v>2551</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>2542</v>
+        <v>2552</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>1840</v>
+        <v>1850</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>2543</v>
+        <v>2553</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>2544</v>
+        <v>2554</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>2545</v>
+        <v>2555</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>2546</v>
+        <v>2556</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>2547</v>
+        <v>2557</v>
       </c>
       <c r="AB23" s="12" t="s">
-        <v>2548</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="24">
@@ -16450,85 +16480,85 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>2549</v>
+        <v>2559</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>2550</v>
+        <v>2560</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>2551</v>
+        <v>2561</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>2552</v>
+        <v>2562</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>2553</v>
+        <v>2563</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>2554</v>
+        <v>2564</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>1791</v>
+        <v>1801</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>2555</v>
+        <v>2565</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>2556</v>
+        <v>2566</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>2557</v>
+        <v>2567</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>2558</v>
+        <v>2568</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>2559</v>
+        <v>2569</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>2560</v>
+        <v>2570</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>2561</v>
+        <v>2571</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>2562</v>
+        <v>2572</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>2563</v>
+        <v>2573</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>2564</v>
+        <v>2574</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>2565</v>
+        <v>2575</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>2566</v>
+        <v>2576</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>2567</v>
+        <v>2577</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>2568</v>
+        <v>2578</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>2569</v>
+        <v>2579</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>2570</v>
+        <v>2580</v>
       </c>
       <c r="Y24" s="5" t="s">
-        <v>2571</v>
+        <v>2581</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>2572</v>
+        <v>2582</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>2573</v>
+        <v>2583</v>
       </c>
       <c r="AB24" s="12" t="s">
-        <v>2574</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="25">
@@ -16536,85 +16566,85 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>2575</v>
+        <v>2585</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>2576</v>
+        <v>2586</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>2577</v>
+        <v>2587</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>2578</v>
+        <v>2588</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>2579</v>
+        <v>2589</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>2580</v>
+        <v>2590</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>2581</v>
+        <v>2591</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>2582</v>
+        <v>2592</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>2583</v>
+        <v>2593</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>2584</v>
+        <v>2594</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>2585</v>
+        <v>2595</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>2586</v>
+        <v>2596</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>2587</v>
+        <v>2597</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>2588</v>
+        <v>2598</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>2589</v>
+        <v>2599</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>1785</v>
+        <v>1795</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>2590</v>
+        <v>2600</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>2591</v>
+        <v>2601</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>1746</v>
+        <v>1756</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>2592</v>
+        <v>2602</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>2593</v>
+        <v>2603</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>2594</v>
+        <v>2604</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>2595</v>
+        <v>2605</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>2596</v>
+        <v>2606</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>2597</v>
+        <v>2607</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>2598</v>
+        <v>2608</v>
       </c>
       <c r="AB25" s="12" t="s">
-        <v>2215</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="26">
@@ -16622,85 +16652,85 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>2599</v>
+        <v>2609</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>2600</v>
+        <v>2610</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>2601</v>
+        <v>2611</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>2602</v>
+        <v>2612</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>2603</v>
+        <v>2613</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>2604</v>
+        <v>2614</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>2605</v>
+        <v>2615</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>2606</v>
+        <v>2616</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>2607</v>
+        <v>2617</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>2608</v>
+        <v>2618</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>2609</v>
+        <v>2619</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>1720</v>
+        <v>1730</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>2610</v>
+        <v>2620</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>1823</v>
+        <v>1833</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>2611</v>
+        <v>2621</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>1859</v>
+        <v>1869</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>2612</v>
+        <v>2622</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>2613</v>
+        <v>2623</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>2614</v>
+        <v>2624</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>2615</v>
+        <v>2625</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>2616</v>
+        <v>2626</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>2617</v>
+        <v>2627</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>2618</v>
+        <v>2628</v>
       </c>
       <c r="Y26" s="5" t="s">
-        <v>2619</v>
+        <v>2629</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>2620</v>
+        <v>2630</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>2621</v>
+        <v>2631</v>
       </c>
       <c r="AB26" s="12" t="s">
-        <v>2622</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="27">
@@ -16708,85 +16738,85 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>2623</v>
+        <v>2633</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>2624</v>
+        <v>2634</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>2625</v>
+        <v>2635</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>2626</v>
+        <v>2636</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>2627</v>
+        <v>2637</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>2628</v>
+        <v>2638</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>2629</v>
+        <v>2639</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>2630</v>
+        <v>2640</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>2631</v>
+        <v>2641</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>2632</v>
+        <v>2642</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>2633</v>
+        <v>2643</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>2634</v>
+        <v>2644</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>2635</v>
+        <v>2645</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>2636</v>
+        <v>2646</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>2637</v>
+        <v>2647</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>2638</v>
+        <v>2648</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>2639</v>
+        <v>2649</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>2640</v>
+        <v>2650</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>2641</v>
+        <v>2651</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>2642</v>
+        <v>2652</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>1701</v>
+        <v>1711</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>2643</v>
+        <v>2653</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>2644</v>
+        <v>2654</v>
       </c>
       <c r="Y27" s="5" t="s">
-        <v>2645</v>
+        <v>2655</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>2646</v>
+        <v>2656</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>2647</v>
+        <v>2657</v>
       </c>
       <c r="AB27" s="12" t="s">
-        <v>2648</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="28">
@@ -16794,85 +16824,85 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>2649</v>
+        <v>2659</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>2650</v>
+        <v>2660</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>2651</v>
+        <v>2661</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>2652</v>
+        <v>2662</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>2653</v>
+        <v>2663</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>2654</v>
+        <v>2664</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>1813</v>
+        <v>1823</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>2655</v>
+        <v>2665</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>2656</v>
+        <v>2666</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>2657</v>
+        <v>2667</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>2658</v>
+        <v>2668</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>2659</v>
+        <v>2669</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>2660</v>
+        <v>2670</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>2661</v>
+        <v>2671</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>2662</v>
+        <v>2672</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>2663</v>
+        <v>2673</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>2664</v>
+        <v>2674</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>2665</v>
+        <v>2675</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>2666</v>
+        <v>2676</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>2667</v>
+        <v>2677</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>2668</v>
+        <v>2678</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>2669</v>
+        <v>2679</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>2670</v>
+        <v>2680</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>2671</v>
+        <v>2681</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>2672</v>
+        <v>2682</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>2673</v>
+        <v>2683</v>
       </c>
       <c r="AB28" s="12" t="s">
-        <v>2674</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="29">
@@ -16880,85 +16910,85 @@
         <v>45</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>2675</v>
+        <v>2685</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>2676</v>
+        <v>2686</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>2677</v>
+        <v>2687</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>2678</v>
+        <v>2688</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>2679</v>
+        <v>2689</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>2680</v>
+        <v>2690</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>2681</v>
+        <v>2691</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>2682</v>
+        <v>2692</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>2683</v>
+        <v>2693</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>2684</v>
+        <v>2694</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>2685</v>
+        <v>2695</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>2686</v>
+        <v>2696</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>2687</v>
+        <v>2697</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>2688</v>
+        <v>2698</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>2689</v>
+        <v>2699</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>2690</v>
+        <v>2700</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>2691</v>
+        <v>2701</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>2692</v>
+        <v>2702</v>
       </c>
       <c r="T29" s="9" t="s">
-        <v>2693</v>
+        <v>2703</v>
       </c>
       <c r="U29" s="9" t="s">
-        <v>2694</v>
+        <v>2704</v>
       </c>
       <c r="V29" s="9" t="s">
-        <v>2695</v>
+        <v>2705</v>
       </c>
       <c r="W29" s="9" t="s">
-        <v>2696</v>
+        <v>2706</v>
       </c>
       <c r="X29" s="9" t="s">
-        <v>2460</v>
+        <v>2470</v>
       </c>
       <c r="Y29" s="9" t="s">
-        <v>2697</v>
+        <v>2707</v>
       </c>
       <c r="Z29" s="9" t="s">
-        <v>2698</v>
+        <v>2708</v>
       </c>
       <c r="AA29" s="9" t="s">
-        <v>2699</v>
+        <v>2709</v>
       </c>
       <c r="AB29" s="12" t="s">
-        <v>2700</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="30">
@@ -16966,85 +16996,85 @@
         <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>2701</v>
+        <v>2711</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>2702</v>
+        <v>2712</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>2703</v>
+        <v>2713</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>2704</v>
+        <v>2714</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>2705</v>
+        <v>2715</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>2706</v>
+        <v>2716</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>2707</v>
+        <v>2717</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>2708</v>
+        <v>2718</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>2709</v>
+        <v>2719</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>2710</v>
+        <v>2720</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>2711</v>
+        <v>2721</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>2712</v>
+        <v>2722</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>2713</v>
+        <v>2723</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>2714</v>
+        <v>2724</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>2715</v>
+        <v>2725</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>2716</v>
+        <v>2726</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>2717</v>
+        <v>2727</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>2718</v>
+        <v>2728</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>2719</v>
+        <v>2729</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>2720</v>
+        <v>2730</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>2721</v>
+        <v>2731</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>2722</v>
+        <v>2732</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>2723</v>
+        <v>2733</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>2724</v>
+        <v>2734</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>2725</v>
+        <v>2735</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>2726</v>
+        <v>2736</v>
       </c>
       <c r="AB30" s="3" t="s">
-        <v>2727</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="31">
@@ -17052,85 +17082,85 @@
         <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2728</v>
+        <v>2738</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>2729</v>
+        <v>2739</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>2730</v>
+        <v>2740</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>2731</v>
+        <v>2741</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>2732</v>
+        <v>2742</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>2733</v>
+        <v>2743</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>2734</v>
+        <v>2744</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>2735</v>
+        <v>2745</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>2736</v>
+        <v>2746</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>2737</v>
+        <v>2747</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>2738</v>
+        <v>2748</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>2739</v>
+        <v>2749</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>2740</v>
+        <v>2750</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>2741</v>
+        <v>2751</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>2742</v>
+        <v>2752</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>2743</v>
+        <v>2753</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>2744</v>
+        <v>2754</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>2745</v>
+        <v>2755</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>2746</v>
+        <v>2756</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>2747</v>
+        <v>2757</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>2748</v>
+        <v>2758</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>2749</v>
+        <v>2759</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>2750</v>
+        <v>2760</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>2751</v>
+        <v>2761</v>
       </c>
       <c r="Z31" s="2" t="s">
-        <v>2752</v>
+        <v>2762</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>2753</v>
+        <v>2763</v>
       </c>
       <c r="AB31" s="3" t="s">
-        <v>2754</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="32">
@@ -17216,7 +17246,7 @@
         <v>161</v>
       </c>
       <c r="AB32" s="12" t="s">
-        <v>2755</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="33">
@@ -17302,7 +17332,7 @@
         <v>161</v>
       </c>
       <c r="AB33" s="12" t="s">
-        <v>2756</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="34">
@@ -17388,7 +17418,7 @@
         <v>161</v>
       </c>
       <c r="AB34" s="12" t="s">
-        <v>2757</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="35">
@@ -17474,7 +17504,7 @@
         <v>161</v>
       </c>
       <c r="AB35" s="12" t="s">
-        <v>2758</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="36">
@@ -17482,85 +17512,85 @@
         <v>67</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>2759</v>
+        <v>2769</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>2760</v>
+        <v>2770</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2761</v>
+        <v>2771</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1885</v>
+        <v>1895</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>2762</v>
+        <v>2772</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>2763</v>
+        <v>2773</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>2764</v>
+        <v>2774</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>2765</v>
+        <v>2775</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>2766</v>
+        <v>2776</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>2767</v>
+        <v>2777</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>2768</v>
+        <v>2778</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>2769</v>
+        <v>2779</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>2770</v>
+        <v>2780</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>2771</v>
+        <v>2781</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>2772</v>
+        <v>2782</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>2773</v>
+        <v>2783</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>2774</v>
+        <v>2784</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>2775</v>
+        <v>2785</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>2776</v>
+        <v>2786</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>2777</v>
+        <v>2787</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>2778</v>
+        <v>2788</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>2779</v>
+        <v>2789</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>2780</v>
+        <v>2790</v>
       </c>
       <c r="Y36" s="2" t="s">
-        <v>2781</v>
+        <v>2791</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>2782</v>
+        <v>2792</v>
       </c>
       <c r="AA36" s="2" t="s">
-        <v>2783</v>
+        <v>2793</v>
       </c>
       <c r="AB36" s="3" t="s">
-        <v>2784</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="37">
@@ -17646,7 +17676,7 @@
         <v>161</v>
       </c>
       <c r="AB37" s="12" t="s">
-        <v>2785</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="38">
@@ -17732,7 +17762,7 @@
         <v>161</v>
       </c>
       <c r="AB38" s="12" t="s">
-        <v>2786</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="39">
@@ -17818,7 +17848,7 @@
         <v>161</v>
       </c>
       <c r="AB39" s="12" t="s">
-        <v>2787</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="40">
@@ -17904,7 +17934,7 @@
         <v>161</v>
       </c>
       <c r="AB40" s="12" t="s">
-        <v>2788</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="41">
@@ -17990,7 +18020,7 @@
         <v>161</v>
       </c>
       <c r="AB41" s="12" t="s">
-        <v>2789</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="42">
@@ -18081,88 +18111,88 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2790</v>
+        <v>2800</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2791</v>
+        <v>2801</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2792</v>
+        <v>2802</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>2793</v>
+        <v>2803</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>2794</v>
+        <v>2804</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>2795</v>
+        <v>2805</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>2796</v>
+        <v>2806</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>2797</v>
+        <v>2807</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>2798</v>
+        <v>2808</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>2799</v>
+        <v>2809</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>2800</v>
+        <v>2810</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>2801</v>
+        <v>2811</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>2802</v>
+        <v>2812</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>2803</v>
+        <v>2813</v>
       </c>
       <c r="O43" s="11" t="s">
-        <v>2804</v>
+        <v>2814</v>
       </c>
       <c r="P43" s="9" t="s">
-        <v>2805</v>
+        <v>2815</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>2806</v>
+        <v>2816</v>
       </c>
       <c r="R43" s="9" t="s">
-        <v>2807</v>
+        <v>2817</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>2808</v>
+        <v>2818</v>
       </c>
       <c r="T43" s="9" t="s">
-        <v>2809</v>
+        <v>2819</v>
       </c>
       <c r="U43" s="9" t="s">
-        <v>2810</v>
+        <v>2820</v>
       </c>
       <c r="V43" s="9" t="s">
-        <v>2811</v>
+        <v>2821</v>
       </c>
       <c r="W43" s="9" t="s">
-        <v>2812</v>
+        <v>2822</v>
       </c>
       <c r="X43" s="9" t="s">
-        <v>2813</v>
+        <v>2823</v>
       </c>
       <c r="Y43" s="9" t="s">
-        <v>2814</v>
+        <v>2824</v>
       </c>
       <c r="Z43" s="9" t="s">
-        <v>2815</v>
+        <v>2825</v>
       </c>
       <c r="AA43" s="9" t="s">
-        <v>2816</v>
+        <v>2826</v>
       </c>
       <c r="AB43" s="12" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
     </row>
   </sheetData>
@@ -18188,7 +18218,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2817</v>
+        <v>2827</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -18202,16 +18232,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2818</v>
+        <v>2828</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2819</v>
+        <v>2829</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2820</v>
+        <v>2830</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>2821</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="3">
@@ -18219,10 +18249,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2822</v>
+        <v>2832</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2823</v>
+        <v>2833</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>19</v>
@@ -18233,10 +18263,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2824</v>
+        <v>2834</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>2825</v>
+        <v>2835</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>19</v>
@@ -18247,10 +18277,10 @@
         <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2826</v>
+        <v>2836</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2827</v>
+        <v>2837</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>19</v>
@@ -18261,10 +18291,10 @@
         <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2828</v>
+        <v>2838</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>2829</v>
+        <v>2839</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>19</v>
@@ -18275,10 +18305,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>2830</v>
+        <v>2840</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2831</v>
+        <v>2841</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>19</v>
@@ -18289,10 +18319,10 @@
         <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>2832</v>
+        <v>2842</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2833</v>
+        <v>2843</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>19</v>
@@ -18303,10 +18333,10 @@
         <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>2834</v>
+        <v>2844</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>2835</v>
+        <v>2845</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>19</v>
@@ -18317,10 +18347,10 @@
         <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2836</v>
+        <v>2846</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>2837</v>
+        <v>2847</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>19</v>
@@ -18331,10 +18361,10 @@
         <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>2838</v>
+        <v>2848</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>2839</v>
+        <v>2849</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>19</v>
@@ -18345,10 +18375,10 @@
         <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>2840</v>
+        <v>2850</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>2841</v>
+        <v>2851</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>19</v>
@@ -18359,10 +18389,10 @@
         <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2842</v>
+        <v>2852</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>2843</v>
+        <v>2853</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>19</v>
@@ -18373,10 +18403,10 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2844</v>
+        <v>2854</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>2845</v>
+        <v>2855</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>19</v>
@@ -18387,10 +18417,10 @@
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>2846</v>
+        <v>2856</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>2847</v>
+        <v>2857</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>19</v>
@@ -18401,10 +18431,10 @@
         <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>2848</v>
+        <v>2858</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>2849</v>
+        <v>2859</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>19</v>
@@ -18415,10 +18445,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>2850</v>
+        <v>2860</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>2851</v>
+        <v>2861</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>19</v>
@@ -18429,10 +18459,10 @@
         <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>2852</v>
+        <v>2862</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>2853</v>
+        <v>2863</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>19</v>
@@ -18443,10 +18473,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>2854</v>
+        <v>2864</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>2855</v>
+        <v>2865</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>19</v>
@@ -18457,10 +18487,10 @@
         <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>2856</v>
+        <v>2866</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>2857</v>
+        <v>2867</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>19</v>
@@ -18471,10 +18501,10 @@
         <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>2858</v>
+        <v>2868</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>2859</v>
+        <v>2869</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>19</v>
@@ -18485,10 +18515,10 @@
         <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>2860</v>
+        <v>2870</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>2861</v>
+        <v>2871</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>19</v>
@@ -18499,10 +18529,10 @@
         <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>2862</v>
+        <v>2872</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>2863</v>
+        <v>2873</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>19</v>
@@ -18513,10 +18543,10 @@
         <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>2864</v>
+        <v>2874</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>2865</v>
+        <v>2875</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>19</v>
@@ -18527,10 +18557,10 @@
         <v>41</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>2866</v>
+        <v>2876</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>2867</v>
+        <v>2877</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>19</v>
@@ -18541,10 +18571,10 @@
         <v>42</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>2868</v>
+        <v>2878</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>2869</v>
+        <v>2879</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>19</v>
@@ -18555,10 +18585,10 @@
         <v>43</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>2870</v>
+        <v>2880</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>2871</v>
+        <v>2881</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>19</v>
@@ -18569,10 +18599,10 @@
         <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>2872</v>
+        <v>2882</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>2873</v>
+        <v>2883</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>19</v>
@@ -18583,13 +18613,13 @@
         <v>45</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>2874</v>
+        <v>2884</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>2875</v>
+        <v>2885</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>2876</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="30">
@@ -18597,13 +18627,13 @@
         <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>2877</v>
+        <v>2887</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>2878</v>
+        <v>2888</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>2879</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="31">
@@ -18611,13 +18641,13 @@
         <v>62</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>2880</v>
+        <v>2890</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>2881</v>
+        <v>2891</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>2882</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="32">
@@ -18625,13 +18655,13 @@
         <v>63</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>2883</v>
+        <v>2893</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>2884</v>
+        <v>2894</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>2885</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="33">
@@ -18639,13 +18669,13 @@
         <v>64</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>2886</v>
+        <v>2896</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>2887</v>
+        <v>2897</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>2888</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="34">
@@ -18653,13 +18683,13 @@
         <v>65</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>2889</v>
+        <v>2899</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>2890</v>
+        <v>2900</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>2891</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="35">
@@ -18673,7 +18703,7 @@
         <v>56</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>2892</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="36">
@@ -18681,13 +18711,13 @@
         <v>67</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>2893</v>
+        <v>2903</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>2894</v>
+        <v>2904</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>2895</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="37">
@@ -18695,13 +18725,13 @@
         <v>76</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>2896</v>
+        <v>2906</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>2897</v>
+        <v>2907</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>2898</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="38">
@@ -18709,13 +18739,13 @@
         <v>77</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>2899</v>
+        <v>2909</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>2900</v>
+        <v>2910</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>2901</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="39">
@@ -18729,7 +18759,7 @@
         <v>56</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>2902</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="40">
@@ -18743,7 +18773,7 @@
         <v>56</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>2903</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="41">
@@ -18751,10 +18781,10 @@
         <v>80</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>2904</v>
+        <v>2914</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>2905</v>
+        <v>2915</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>295</v>
@@ -18776,16 +18806,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2906</v>
+        <v>2916</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2907</v>
+        <v>2917</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2908</v>
+        <v>2918</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>2909</v>
+        <v>2919</v>
       </c>
     </row>
   </sheetData>

--- a/iceKnives32/Offline Documents (Periodic)/iceKnives32.xlsx
+++ b/iceKnives32/Offline Documents (Periodic)/iceKnives32.xlsx
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="2920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="2927">
   <si>
     <t>[]</t>
   </si>
@@ -5358,40 +5358,61 @@
     <t>averages</t>
   </si>
   <si>
+    <t>may.it</t>
+  </si>
+  <si>
     <t>rainbow</t>
   </si>
   <si>
     <t>micros</t>
   </si>
   <si>
+    <t>diy.dt</t>
+  </si>
+  <si>
     <t>magma</t>
   </si>
   <si>
     <t>levels</t>
   </si>
   <si>
+    <t>lib.bl</t>
+  </si>
+  <si>
     <t>water</t>
   </si>
   <si>
     <t>tunnels</t>
   </si>
   <si>
+    <t>pop.co</t>
+  </si>
+  <si>
     <t>soil</t>
   </si>
   <si>
     <t>layers</t>
   </si>
   <si>
+    <t>for.hq</t>
+  </si>
+  <si>
     <t>fire</t>
   </si>
   <si>
     <t>brackets</t>
   </si>
   <si>
+    <t>seh.me</t>
+  </si>
+  <si>
     <t>sky</t>
   </si>
   <si>
     <t>sets</t>
+  </si>
+  <si>
+    <t>fil.lf</t>
   </si>
   <si>
     <t>[set/packet/cosy/];</t>
@@ -11321,8 +11342,8 @@
       <c r="G22" s="4" t="s">
         <v>1680</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>18</v>
+      <c r="H22" s="7" t="s">
+        <v>1681</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>19</v>
@@ -11333,7 +11354,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>18</v>
@@ -11348,10 +11369,10 @@
         <v>18</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>18</v>
+        <v>1684</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>19</v>
@@ -11362,7 +11383,7 @@
         <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>18</v>
@@ -11377,10 +11398,10 @@
         <v>18</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>1684</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>18</v>
+        <v>1686</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>1687</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>19</v>
@@ -11391,7 +11412,7 @@
         <v>41</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1685</v>
+        <v>1688</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>18</v>
@@ -11406,10 +11427,10 @@
         <v>18</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>1686</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>18</v>
+        <v>1689</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>1690</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>19</v>
@@ -11420,7 +11441,7 @@
         <v>42</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1687</v>
+        <v>1691</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>18</v>
@@ -11435,10 +11456,10 @@
         <v>18</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>1688</v>
+        <v>1692</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>18</v>
+        <v>1693</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>19</v>
@@ -11449,7 +11470,7 @@
         <v>43</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1689</v>
+        <v>1694</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>18</v>
@@ -11464,10 +11485,10 @@
         <v>18</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>1690</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>18</v>
+        <v>1695</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>1696</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>19</v>
@@ -11478,7 +11499,7 @@
         <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1691</v>
+        <v>1697</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>18</v>
@@ -11493,10 +11514,10 @@
         <v>18</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>1692</v>
+        <v>1698</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>18</v>
+        <v>1699</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>19</v>
@@ -11910,7 +11931,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1693</v>
+        <v>1700</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>91</v>
@@ -11934,7 +11955,7 @@
         <v>97</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1694</v>
+        <v>1701</v>
       </c>
     </row>
   </sheetData>
@@ -11963,7 +11984,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>1695</v>
+        <v>1702</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -11992,28 +12013,28 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>1696</v>
+        <v>1703</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1697</v>
+        <v>1704</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1698</v>
+        <v>1705</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1699</v>
+        <v>1706</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1701</v>
+        <v>1708</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1702</v>
+        <v>1709</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>1703</v>
+        <v>1710</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>303</v>
@@ -12024,25 +12045,25 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1704</v>
+        <v>1711</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1705</v>
+        <v>1712</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1706</v>
+        <v>1713</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1707</v>
+        <v>1714</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>1708</v>
+        <v>1715</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>1709</v>
+        <v>1716</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>1710</v>
+        <v>1717</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>19</v>
@@ -12053,25 +12074,25 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1711</v>
+        <v>1718</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1712</v>
+        <v>1719</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>1012</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1713</v>
+        <v>1720</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>1714</v>
+        <v>1721</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1715</v>
+        <v>1722</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>1716</v>
+        <v>1723</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>19</v>
@@ -12082,25 +12103,25 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1717</v>
+        <v>1724</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1718</v>
+        <v>1725</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>1027</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1719</v>
+        <v>1726</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1720</v>
+        <v>1727</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>1721</v>
+        <v>1728</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>1722</v>
+        <v>1729</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>19</v>
@@ -12111,25 +12132,25 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1723</v>
+        <v>1730</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1724</v>
+        <v>1731</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>747</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1725</v>
+        <v>1732</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>1726</v>
+        <v>1733</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>1728</v>
+        <v>1735</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>19</v>
@@ -12140,25 +12161,25 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1729</v>
+        <v>1736</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>456</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>1734</v>
+        <v>1741</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>19</v>
@@ -12169,25 +12190,25 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1736</v>
+        <v>1743</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>124</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1737</v>
+        <v>1744</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1738</v>
+        <v>1745</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1739</v>
+        <v>1746</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>1740</v>
+        <v>1747</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>19</v>
@@ -12198,25 +12219,25 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1741</v>
+        <v>1748</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1742</v>
+        <v>1749</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>360</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1743</v>
+        <v>1750</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>1744</v>
+        <v>1751</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1745</v>
+        <v>1752</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>1746</v>
+        <v>1753</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>19</v>
@@ -12227,25 +12248,25 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1747</v>
+        <v>1754</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1748</v>
+        <v>1755</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1749</v>
+        <v>1756</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1750</v>
+        <v>1757</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>1751</v>
+        <v>1758</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1752</v>
+        <v>1759</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>1753</v>
+        <v>1760</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>19</v>
@@ -12256,25 +12277,25 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1754</v>
+        <v>1761</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1755</v>
+        <v>1762</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>488</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1756</v>
+        <v>1763</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>1757</v>
+        <v>1764</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1758</v>
+        <v>1765</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>1759</v>
+        <v>1766</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>19</v>
@@ -12285,25 +12306,25 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1760</v>
+        <v>1767</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1761</v>
+        <v>1768</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1119</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1762</v>
+        <v>1769</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1763</v>
+        <v>1770</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>1764</v>
+        <v>1771</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>1765</v>
+        <v>1772</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>19</v>
@@ -12314,25 +12335,25 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1766</v>
+        <v>1773</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1767</v>
+        <v>1774</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>470</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1768</v>
+        <v>1775</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1769</v>
+        <v>1776</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1770</v>
+        <v>1777</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>19</v>
@@ -12343,25 +12364,25 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>211</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1775</v>
+        <v>1782</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1776</v>
+        <v>1783</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>1777</v>
+        <v>1784</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>19</v>
@@ -12372,25 +12393,25 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1778</v>
+        <v>1785</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1779</v>
+        <v>1786</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1780</v>
+        <v>1787</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1781</v>
+        <v>1788</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1782</v>
+        <v>1789</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1783</v>
+        <v>1790</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>1784</v>
+        <v>1791</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>19</v>
@@ -12401,25 +12422,25 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1785</v>
+        <v>1792</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1786</v>
+        <v>1793</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>625</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1787</v>
+        <v>1794</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1788</v>
+        <v>1795</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>1789</v>
+        <v>1796</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>1790</v>
+        <v>1797</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>19</v>
@@ -12430,25 +12451,25 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1791</v>
+        <v>1798</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1792</v>
+        <v>1799</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>768</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1793</v>
+        <v>1800</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>1794</v>
+        <v>1801</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1795</v>
+        <v>1802</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>1796</v>
+        <v>1803</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>19</v>
@@ -12459,25 +12480,25 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1797</v>
+        <v>1804</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1798</v>
+        <v>1805</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>845</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1799</v>
+        <v>1806</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1800</v>
+        <v>1807</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>1801</v>
+        <v>1808</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>1802</v>
+        <v>1809</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>19</v>
@@ -12488,25 +12509,25 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1803</v>
+        <v>1810</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1804</v>
+        <v>1811</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>1311</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1805</v>
+        <v>1812</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>1806</v>
+        <v>1813</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>1807</v>
+        <v>1814</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>1808</v>
+        <v>1815</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>19</v>
@@ -12517,25 +12538,25 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1809</v>
+        <v>1816</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1810</v>
+        <v>1817</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1811</v>
+        <v>1818</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1812</v>
+        <v>1819</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>1813</v>
+        <v>1820</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1814</v>
+        <v>1821</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>1815</v>
+        <v>1822</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>19</v>
@@ -12546,25 +12567,25 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1816</v>
+        <v>1823</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1817</v>
+        <v>1824</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1818</v>
+        <v>1825</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1819</v>
+        <v>1826</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>1820</v>
+        <v>1827</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1821</v>
+        <v>1828</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>1822</v>
+        <v>1829</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>19</v>
@@ -12575,25 +12596,25 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1823</v>
+        <v>1830</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1824</v>
+        <v>1831</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>932</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1825</v>
+        <v>1832</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>1826</v>
+        <v>1833</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>1827</v>
+        <v>1834</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>1828</v>
+        <v>1835</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>19</v>
@@ -12604,25 +12625,25 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1829</v>
+        <v>1836</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1830</v>
+        <v>1837</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1831</v>
+        <v>1838</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1832</v>
+        <v>1839</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>1833</v>
+        <v>1840</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1834</v>
+        <v>1841</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>1835</v>
+        <v>1842</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>19</v>
@@ -12633,25 +12654,25 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1836</v>
+        <v>1843</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1837</v>
+        <v>1844</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>472</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1838</v>
+        <v>1845</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>1839</v>
+        <v>1846</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>1840</v>
+        <v>1847</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>1841</v>
+        <v>1848</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>19</v>
@@ -12662,25 +12683,25 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1842</v>
+        <v>1849</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1843</v>
+        <v>1850</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>424</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1844</v>
+        <v>1851</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>1845</v>
+        <v>1852</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>1846</v>
+        <v>1853</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>1847</v>
+        <v>1854</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>19</v>
@@ -12691,25 +12712,25 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1848</v>
+        <v>1855</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1849</v>
+        <v>1856</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>925</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1850</v>
+        <v>1857</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>1851</v>
+        <v>1858</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1852</v>
+        <v>1859</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>1853</v>
+        <v>1860</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>19</v>
@@ -12720,25 +12741,25 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1854</v>
+        <v>1861</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1855</v>
+        <v>1862</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>1383</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1856</v>
+        <v>1863</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>1857</v>
+        <v>1864</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>1858</v>
+        <v>1865</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>1859</v>
+        <v>1866</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>19</v>
@@ -12749,25 +12770,25 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1860</v>
+        <v>1867</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1861</v>
+        <v>1868</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>429</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1862</v>
+        <v>1869</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>1863</v>
+        <v>1870</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>1864</v>
+        <v>1871</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>1865</v>
+        <v>1872</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>19</v>
@@ -12778,25 +12799,25 @@
         <v>45</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1866</v>
+        <v>1873</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1867</v>
+        <v>1874</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>373</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1868</v>
+        <v>1875</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>1869</v>
+        <v>1876</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1870</v>
+        <v>1877</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>1871</v>
+        <v>1878</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>335</v>
@@ -12807,28 +12828,28 @@
         <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1872</v>
+        <v>1879</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1873</v>
+        <v>1880</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1874</v>
+        <v>1881</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>1875</v>
+        <v>1882</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1876</v>
+        <v>1883</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>1877</v>
+        <v>1884</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>1878</v>
+        <v>1885</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>1879</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="31">
@@ -12836,28 +12857,28 @@
         <v>62</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1880</v>
+        <v>1887</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1881</v>
+        <v>1888</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1882</v>
+        <v>1889</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>1883</v>
+        <v>1890</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>1884</v>
+        <v>1891</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>1885</v>
+        <v>1892</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>1886</v>
+        <v>1893</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>1887</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="32">
@@ -12886,7 +12907,7 @@
         <v>61</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>1888</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="33">
@@ -12915,7 +12936,7 @@
         <v>61</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>1889</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="34">
@@ -12944,7 +12965,7 @@
         <v>61</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>1890</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="35">
@@ -12973,7 +12994,7 @@
         <v>61</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>1891</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="36">
@@ -12981,28 +13002,28 @@
         <v>67</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1892</v>
+        <v>1899</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1893</v>
+        <v>1900</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1894</v>
+        <v>1901</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>1895</v>
+        <v>1902</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>1896</v>
+        <v>1903</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>1897</v>
+        <v>1904</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>1898</v>
+        <v>1905</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>1899</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="37">
@@ -13031,7 +13052,7 @@
         <v>61</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>1900</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="38">
@@ -13060,7 +13081,7 @@
         <v>61</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>1901</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="39">
@@ -13089,7 +13110,7 @@
         <v>61</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>1902</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="40">
@@ -13118,7 +13139,7 @@
         <v>61</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>1903</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="41">
@@ -13147,7 +13168,7 @@
         <v>61</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>1904</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="42">
@@ -13181,31 +13202,31 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1905</v>
+        <v>1912</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1906</v>
+        <v>1913</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1907</v>
+        <v>1914</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1908</v>
+        <v>1915</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>1909</v>
+        <v>1916</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>1910</v>
+        <v>1917</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>1911</v>
+        <v>1918</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>1912</v>
+        <v>1919</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1913</v>
+        <v>1920</v>
       </c>
     </row>
   </sheetData>
@@ -13232,7 +13253,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1914</v>
+        <v>1921</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -13261,28 +13282,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1915</v>
+        <v>1922</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1916</v>
+        <v>1923</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1917</v>
+        <v>1924</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1918</v>
+        <v>1925</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1919</v>
+        <v>1926</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1920</v>
+        <v>1927</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1921</v>
+        <v>1928</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>1922</v>
+        <v>1929</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>19</v>
@@ -13293,13 +13314,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1923</v>
+        <v>1930</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1924</v>
+        <v>1931</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1925</v>
+        <v>1932</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>18</v>
@@ -13322,13 +13343,13 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1926</v>
+        <v>1933</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1927</v>
+        <v>1934</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1928</v>
+        <v>1935</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -13351,13 +13372,13 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1929</v>
+        <v>1936</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1930</v>
+        <v>1937</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1931</v>
+        <v>1938</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>18</v>
@@ -13380,13 +13401,13 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1932</v>
+        <v>1939</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1933</v>
+        <v>1940</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1934</v>
+        <v>1941</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>18</v>
@@ -13409,13 +13430,13 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1935</v>
+        <v>1942</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1936</v>
+        <v>1943</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1937</v>
+        <v>1944</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>18</v>
@@ -13438,13 +13459,13 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1938</v>
+        <v>1945</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1939</v>
+        <v>1946</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1940</v>
+        <v>1947</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>18</v>
@@ -13467,13 +13488,13 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1941</v>
+        <v>1948</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1942</v>
+        <v>1949</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1943</v>
+        <v>1950</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>18</v>
@@ -13496,13 +13517,13 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1944</v>
+        <v>1951</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1945</v>
+        <v>1952</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1946</v>
+        <v>1953</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>18</v>
@@ -13525,13 +13546,13 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1947</v>
+        <v>1954</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1948</v>
+        <v>1955</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1949</v>
+        <v>1956</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>18</v>
@@ -13554,13 +13575,13 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1950</v>
+        <v>1957</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1951</v>
+        <v>1958</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1952</v>
+        <v>1959</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>18</v>
@@ -13583,13 +13604,13 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1953</v>
+        <v>1960</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1954</v>
+        <v>1961</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1955</v>
+        <v>1962</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>18</v>
@@ -13612,13 +13633,13 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1956</v>
+        <v>1963</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1957</v>
+        <v>1964</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1958</v>
+        <v>1965</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>18</v>
@@ -13641,13 +13662,13 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1959</v>
+        <v>1966</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1960</v>
+        <v>1967</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1961</v>
+        <v>1968</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>18</v>
@@ -13670,13 +13691,13 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1962</v>
+        <v>1969</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1963</v>
+        <v>1970</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1964</v>
+        <v>1971</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>18</v>
@@ -13699,13 +13720,13 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1965</v>
+        <v>1972</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1966</v>
+        <v>1973</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1967</v>
+        <v>1974</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>18</v>
@@ -13728,13 +13749,13 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1968</v>
+        <v>1975</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1969</v>
+        <v>1976</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1970</v>
+        <v>1977</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>18</v>
@@ -13757,13 +13778,13 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1971</v>
+        <v>1978</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1972</v>
+        <v>1979</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1973</v>
+        <v>1980</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>18</v>
@@ -13786,13 +13807,13 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1974</v>
+        <v>1981</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1975</v>
+        <v>1982</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1976</v>
+        <v>1983</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>18</v>
@@ -13815,13 +13836,13 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1977</v>
+        <v>1984</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1978</v>
+        <v>1985</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1979</v>
+        <v>1986</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>18</v>
@@ -13844,13 +13865,13 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1980</v>
+        <v>1987</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1981</v>
+        <v>1988</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1982</v>
+        <v>1989</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>18</v>
@@ -13873,13 +13894,13 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1983</v>
+        <v>1990</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1984</v>
+        <v>1991</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1985</v>
+        <v>1992</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>18</v>
@@ -13902,13 +13923,13 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1986</v>
+        <v>1993</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1987</v>
+        <v>1994</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>1988</v>
+        <v>1995</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>18</v>
@@ -13931,13 +13952,13 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1989</v>
+        <v>1996</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1990</v>
+        <v>1997</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>1991</v>
+        <v>1998</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>18</v>
@@ -13960,13 +13981,13 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1992</v>
+        <v>1999</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1993</v>
+        <v>2000</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>1994</v>
+        <v>2001</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>18</v>
@@ -13989,13 +14010,13 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1995</v>
+        <v>2002</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1996</v>
+        <v>2003</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>1997</v>
+        <v>2004</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>18</v>
@@ -14018,13 +14039,13 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>18</v>
@@ -14047,25 +14068,25 @@
         <v>45</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>19</v>
@@ -14450,31 +14471,31 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>2016</v>
+        <v>2023</v>
       </c>
     </row>
   </sheetData>
@@ -14499,7 +14520,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -14523,61 +14544,61 @@
         <v>7</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>2019</v>
+        <v>2026</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>2020</v>
+        <v>2027</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>2021</v>
+        <v>2028</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>2022</v>
+        <v>2029</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>2023</v>
+        <v>2030</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>2024</v>
+        <v>2031</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>2025</v>
+        <v>2032</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>2026</v>
+        <v>2033</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>2027</v>
+        <v>2034</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>2028</v>
+        <v>2035</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>2029</v>
+        <v>2036</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>2030</v>
+        <v>2037</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>2031</v>
+        <v>2038</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>2032</v>
+        <v>2039</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>2033</v>
+        <v>2040</v>
       </c>
       <c r="Y1" s="9" t="s">
-        <v>2034</v>
+        <v>2041</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>2035</v>
+        <v>2042</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>2036</v>
+        <v>2043</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>8</v>
@@ -14585,88 +14606,88 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1914</v>
+        <v>1921</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2037</v>
+        <v>2044</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>2038</v>
+        <v>2045</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>2039</v>
+        <v>2046</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>2040</v>
+        <v>2047</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>2041</v>
+        <v>2048</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>2042</v>
+        <v>2049</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>2044</v>
+        <v>2051</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>2045</v>
+        <v>2052</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>2046</v>
+        <v>2053</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>2047</v>
+        <v>2054</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>2048</v>
+        <v>2055</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>2049</v>
+        <v>2056</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>2050</v>
+        <v>2057</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>2051</v>
+        <v>2058</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>2052</v>
+        <v>2059</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>2053</v>
+        <v>2060</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>2054</v>
+        <v>2061</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>1835</v>
+        <v>1842</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>2055</v>
+        <v>2062</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>2056</v>
+        <v>2063</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>2057</v>
+        <v>2064</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>2058</v>
+        <v>2065</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>2059</v>
+        <v>2066</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>2060</v>
+        <v>2067</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>2061</v>
+        <v>2068</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>2062</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="3">
@@ -14674,85 +14695,85 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2063</v>
+        <v>2070</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>2064</v>
+        <v>2071</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>2065</v>
+        <v>2072</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>2066</v>
+        <v>2073</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>2067</v>
+        <v>2074</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>2068</v>
+        <v>2075</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>2069</v>
+        <v>2076</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>2070</v>
+        <v>2077</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>2071</v>
+        <v>2078</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>2072</v>
+        <v>2079</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>2073</v>
+        <v>2080</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>2074</v>
+        <v>2081</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>1760</v>
+        <v>1767</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>1837</v>
+        <v>1844</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>2075</v>
+        <v>2082</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>2076</v>
+        <v>2083</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>2077</v>
+        <v>2084</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>2078</v>
+        <v>2085</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>2079</v>
+        <v>2086</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>2080</v>
+        <v>2087</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>2081</v>
+        <v>2088</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>2082</v>
+        <v>2089</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>1792</v>
+        <v>1799</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>2083</v>
+        <v>2090</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>1867</v>
+        <v>1874</v>
       </c>
       <c r="AB3" s="12" t="s">
-        <v>2084</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="4">
@@ -14760,85 +14781,85 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2085</v>
+        <v>2092</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>2086</v>
+        <v>2093</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>2087</v>
+        <v>2094</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>2088</v>
+        <v>2095</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>2089</v>
+        <v>2096</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1745</v>
+        <v>1752</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>2090</v>
+        <v>2097</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>2091</v>
+        <v>2098</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>1800</v>
+        <v>1807</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>2092</v>
+        <v>2099</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>2093</v>
+        <v>2100</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>2094</v>
+        <v>2101</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>2095</v>
+        <v>2102</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>2096</v>
+        <v>2103</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>2097</v>
+        <v>2104</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>2098</v>
+        <v>2105</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>1787</v>
+        <v>1794</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>2099</v>
+        <v>2106</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>2100</v>
+        <v>2107</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>2101</v>
+        <v>2108</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>2102</v>
+        <v>2109</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>2103</v>
+        <v>2110</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>2104</v>
+        <v>2111</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>2105</v>
+        <v>2112</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>2106</v>
+        <v>2113</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>2107</v>
+        <v>2114</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>2108</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="5">
@@ -14846,85 +14867,85 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>2110</v>
+        <v>2117</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>2111</v>
+        <v>2118</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>2112</v>
+        <v>2119</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>2113</v>
+        <v>2120</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>2114</v>
+        <v>2121</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>1844</v>
+        <v>1851</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>2115</v>
+        <v>2122</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>2116</v>
+        <v>2123</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>2117</v>
+        <v>2124</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>1852</v>
+        <v>1859</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>1707</v>
+        <v>1714</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>2118</v>
+        <v>2125</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>2119</v>
+        <v>2126</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>2120</v>
+        <v>2127</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>2121</v>
+        <v>2128</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>2122</v>
+        <v>2129</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>2123</v>
+        <v>2130</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>2124</v>
+        <v>2131</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>2125</v>
+        <v>2132</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>1723</v>
+        <v>1730</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>2126</v>
+        <v>2133</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>2127</v>
+        <v>2134</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>2128</v>
+        <v>2135</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>2129</v>
+        <v>2136</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>2130</v>
+        <v>2137</v>
       </c>
       <c r="AB5" s="12" t="s">
-        <v>2131</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="6">
@@ -14932,85 +14953,85 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>2132</v>
+        <v>2139</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>2133</v>
+        <v>2140</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>2134</v>
+        <v>2141</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>2135</v>
+        <v>2142</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>2136</v>
+        <v>2143</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>2137</v>
+        <v>2144</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>2138</v>
+        <v>2145</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>2139</v>
+        <v>2146</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>2140</v>
+        <v>2147</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>2141</v>
+        <v>2148</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>2142</v>
+        <v>2149</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>2143</v>
+        <v>2150</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>2144</v>
+        <v>2151</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>1785</v>
+        <v>1792</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>2145</v>
+        <v>2152</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>2146</v>
+        <v>2153</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>2147</v>
+        <v>2154</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>2148</v>
+        <v>2155</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>2149</v>
+        <v>2156</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>2150</v>
+        <v>2157</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>2151</v>
+        <v>2158</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>2152</v>
+        <v>2159</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>2153</v>
+        <v>2160</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>2154</v>
+        <v>2161</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>2155</v>
+        <v>2162</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>1789</v>
+        <v>1796</v>
       </c>
       <c r="AB6" s="12" t="s">
-        <v>2156</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="7">
@@ -15018,85 +15039,85 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>2157</v>
+        <v>2164</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>2158</v>
+        <v>2165</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>2159</v>
+        <v>2166</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>2160</v>
+        <v>2167</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>2161</v>
+        <v>2168</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>2162</v>
+        <v>2169</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>1836</v>
+        <v>1843</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>2163</v>
+        <v>2170</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>2164</v>
+        <v>2171</v>
       </c>
       <c r="K7" s="5" t="s">
+        <v>1777</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>2172</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>1770</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>2165</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>1763</v>
-      </c>
       <c r="N7" s="5" t="s">
-        <v>1857</v>
+        <v>1864</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>2166</v>
+        <v>2173</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>2167</v>
+        <v>2174</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>1861</v>
+        <v>1868</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>2168</v>
+        <v>2175</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>2169</v>
+        <v>2176</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>1720</v>
+        <v>1727</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>2170</v>
+        <v>2177</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>2171</v>
+        <v>2178</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>2172</v>
+        <v>2179</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>1715</v>
+        <v>1722</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>2173</v>
+        <v>2180</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>2174</v>
+        <v>2181</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>2175</v>
+        <v>2182</v>
       </c>
       <c r="AB7" s="12" t="s">
-        <v>2176</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="8">
@@ -15104,85 +15125,85 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>2177</v>
+        <v>2184</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2178</v>
+        <v>2185</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>2179</v>
+        <v>2186</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>2180</v>
+        <v>2187</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>2181</v>
+        <v>2188</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>2182</v>
+        <v>2189</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>2183</v>
+        <v>2190</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>1740</v>
+        <v>1747</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>2184</v>
+        <v>2191</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>1757</v>
+        <v>1764</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>2185</v>
+        <v>2192</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>2186</v>
+        <v>2193</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>1816</v>
+        <v>1823</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>2187</v>
+        <v>2194</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>2188</v>
+        <v>2195</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>1744</v>
+        <v>1751</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>2189</v>
+        <v>2196</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>2190</v>
+        <v>2197</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>2191</v>
+        <v>2198</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>2192</v>
+        <v>2199</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>2193</v>
+        <v>2200</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>2194</v>
+        <v>2201</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>2195</v>
+        <v>2202</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>2196</v>
+        <v>2203</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>2197</v>
+        <v>2204</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>2198</v>
+        <v>2205</v>
       </c>
       <c r="AB8" s="12" t="s">
-        <v>2199</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="9">
@@ -15190,85 +15211,85 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>2200</v>
+        <v>2207</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>2201</v>
+        <v>2208</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>2202</v>
+        <v>2209</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>2203</v>
+        <v>2210</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>2204</v>
+        <v>2211</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>2205</v>
+        <v>2212</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>2206</v>
+        <v>2213</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>2207</v>
+        <v>2214</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>2208</v>
+        <v>2215</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>2209</v>
+        <v>2216</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>2210</v>
+        <v>2217</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>2211</v>
+        <v>2218</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>2212</v>
+        <v>2219</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>2213</v>
+        <v>2220</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>2214</v>
+        <v>2221</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>1762</v>
+        <v>1769</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>2215</v>
+        <v>2222</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>2216</v>
+        <v>2223</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>2217</v>
+        <v>2224</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>2218</v>
+        <v>2225</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>2219</v>
+        <v>2226</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>2220</v>
+        <v>2227</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>2221</v>
+        <v>2228</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>2222</v>
+        <v>2229</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>2223</v>
+        <v>2230</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>2224</v>
+        <v>2231</v>
       </c>
       <c r="AB9" s="12" t="s">
-        <v>2225</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="10">
@@ -15276,85 +15297,85 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>2226</v>
+        <v>2233</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>2227</v>
+        <v>2234</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>2228</v>
+        <v>2235</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>2229</v>
+        <v>2236</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>2230</v>
+        <v>2237</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>2231</v>
+        <v>2238</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>2232</v>
+        <v>2239</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>2233</v>
+        <v>2240</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>2234</v>
+        <v>2241</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>2235</v>
+        <v>2242</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>2236</v>
+        <v>2243</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>2237</v>
+        <v>2244</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>2238</v>
+        <v>2245</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>2239</v>
+        <v>2246</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>2240</v>
+        <v>2247</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>2241</v>
+        <v>2248</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>2242</v>
+        <v>2249</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>2243</v>
+        <v>2250</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>1826</v>
+        <v>1833</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>2244</v>
+        <v>2251</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>2245</v>
+        <v>2252</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>2246</v>
+        <v>2253</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>2247</v>
+        <v>2254</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>2248</v>
+        <v>2255</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>2249</v>
+        <v>2256</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>2250</v>
+        <v>2257</v>
       </c>
       <c r="AB10" s="12" t="s">
-        <v>2084</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="11">
@@ -15362,85 +15383,85 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>2251</v>
+        <v>2258</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>2252</v>
+        <v>2259</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>2253</v>
+        <v>2260</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>2254</v>
+        <v>2261</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>2255</v>
+        <v>2262</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>2256</v>
+        <v>2263</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>2257</v>
+        <v>2264</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>2258</v>
+        <v>2265</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>2259</v>
+        <v>2266</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>2260</v>
+        <v>2267</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>1825</v>
+        <v>1832</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>2261</v>
+        <v>2268</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>2262</v>
+        <v>2269</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>2263</v>
+        <v>2270</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>2264</v>
+        <v>2271</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>2265</v>
+        <v>2272</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>2266</v>
+        <v>2273</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>2267</v>
+        <v>2274</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>2268</v>
+        <v>2275</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>2269</v>
+        <v>2276</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>2270</v>
+        <v>2277</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>2271</v>
+        <v>2278</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>2272</v>
+        <v>2279</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>2273</v>
+        <v>2280</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>2274</v>
+        <v>2281</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>2275</v>
+        <v>2282</v>
       </c>
       <c r="AB11" s="12" t="s">
-        <v>2108</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="12">
@@ -15448,85 +15469,85 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>2276</v>
+        <v>2283</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>2277</v>
+        <v>2284</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>2278</v>
+        <v>2285</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>2279</v>
+        <v>2286</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>2280</v>
+        <v>2287</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>2281</v>
+        <v>2288</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>2282</v>
+        <v>2289</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>2283</v>
+        <v>2290</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>2284</v>
+        <v>2291</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>1858</v>
+        <v>1865</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>2285</v>
+        <v>2292</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>2286</v>
+        <v>2293</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>2287</v>
+        <v>2294</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>2288</v>
+        <v>2295</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>1864</v>
+        <v>1871</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>2289</v>
+        <v>2296</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>2290</v>
+        <v>2297</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>2291</v>
+        <v>2298</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>2292</v>
+        <v>2299</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>2293</v>
+        <v>2300</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>2294</v>
+        <v>2301</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>2295</v>
+        <v>2302</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>2296</v>
+        <v>2303</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>2297</v>
+        <v>2304</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>2298</v>
+        <v>2305</v>
       </c>
       <c r="AB12" s="12" t="s">
-        <v>2299</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="13">
@@ -15534,85 +15555,85 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>2300</v>
+        <v>2307</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>2301</v>
+        <v>2308</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>2302</v>
+        <v>2309</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>2303</v>
+        <v>2310</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>2304</v>
+        <v>2311</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>2305</v>
+        <v>2312</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>2306</v>
+        <v>2313</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>2307</v>
+        <v>2314</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>2308</v>
+        <v>2315</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>1793</v>
+        <v>1800</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>2309</v>
+        <v>2316</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>2310</v>
+        <v>2317</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>2311</v>
+        <v>2318</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>2312</v>
+        <v>2319</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>2313</v>
+        <v>2320</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>2314</v>
+        <v>2321</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>2315</v>
+        <v>2322</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>1747</v>
+        <v>1754</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>2316</v>
+        <v>2323</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>2317</v>
+        <v>2324</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>2318</v>
+        <v>2325</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>2319</v>
+        <v>2326</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>2320</v>
+        <v>2327</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>2321</v>
+        <v>2328</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>2322</v>
+        <v>2329</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>2323</v>
+        <v>2330</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>2324</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="14">
@@ -15620,85 +15641,85 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>2325</v>
+        <v>2332</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>2326</v>
+        <v>2333</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>2327</v>
+        <v>2334</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>2328</v>
+        <v>2335</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>2329</v>
+        <v>2336</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>2330</v>
+        <v>2337</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>2331</v>
+        <v>2338</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>1807</v>
+        <v>1814</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>1854</v>
+        <v>1861</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>2332</v>
+        <v>2339</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>2333</v>
+        <v>2340</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>2334</v>
+        <v>2341</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>2335</v>
+        <v>2342</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>1791</v>
+        <v>1798</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>1860</v>
+        <v>1867</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>2336</v>
+        <v>2343</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>2337</v>
+        <v>2344</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>2338</v>
+        <v>2345</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>2339</v>
+        <v>2346</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>2340</v>
+        <v>2347</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>2341</v>
+        <v>2348</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>2342</v>
+        <v>2349</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>2343</v>
+        <v>2350</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>2344</v>
+        <v>2351</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>2345</v>
+        <v>2352</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>2346</v>
+        <v>2353</v>
       </c>
       <c r="AB14" s="12" t="s">
-        <v>2347</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="15">
@@ -15706,85 +15727,85 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>2348</v>
+        <v>2355</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>2349</v>
+        <v>2356</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>2350</v>
+        <v>2357</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>2351</v>
+        <v>2358</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1709</v>
+        <v>1716</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>2352</v>
+        <v>2359</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>2353</v>
+        <v>2360</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>1726</v>
+        <v>1733</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>2354</v>
+        <v>2361</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>1806</v>
+        <v>1813</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>2355</v>
+        <v>2362</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>2356</v>
+        <v>2363</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>1810</v>
+        <v>1817</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>2357</v>
+        <v>2364</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>1788</v>
+        <v>1795</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>2358</v>
+        <v>2365</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>2359</v>
+        <v>2366</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>2360</v>
+        <v>2367</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>2361</v>
+        <v>2368</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>2362</v>
+        <v>2369</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>2363</v>
+        <v>2370</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>2364</v>
+        <v>2371</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>2365</v>
+        <v>2372</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>2366</v>
+        <v>2373</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>1798</v>
+        <v>1805</v>
       </c>
       <c r="AB15" s="12" t="s">
-        <v>2367</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="16">
@@ -15792,85 +15813,85 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>2368</v>
+        <v>2375</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>2369</v>
+        <v>2376</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>2370</v>
+        <v>2377</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>2371</v>
+        <v>2378</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>2372</v>
+        <v>2379</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>2373</v>
+        <v>2380</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>2374</v>
+        <v>2381</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>2375</v>
+        <v>2382</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>2376</v>
+        <v>2383</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>2377</v>
+        <v>2384</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>2378</v>
+        <v>2385</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>2379</v>
+        <v>2386</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>2380</v>
+        <v>2387</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>1739</v>
+        <v>1746</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>2381</v>
+        <v>2388</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>2382</v>
+        <v>2389</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>2383</v>
+        <v>2390</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>2384</v>
+        <v>2391</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>2385</v>
+        <v>2392</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>2386</v>
+        <v>2393</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>2387</v>
+        <v>2394</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>2388</v>
+        <v>2395</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>2389</v>
+        <v>2396</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>2390</v>
+        <v>2397</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>2391</v>
+        <v>2398</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>2392</v>
+        <v>2399</v>
       </c>
       <c r="AB16" s="12" t="s">
-        <v>2393</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="17">
@@ -15878,85 +15899,85 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>2394</v>
+        <v>2401</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>2395</v>
+        <v>2402</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>2396</v>
+        <v>2403</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>2397</v>
+        <v>2404</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>2398</v>
+        <v>2405</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>2399</v>
+        <v>2406</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>2400</v>
+        <v>2407</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>2401</v>
+        <v>2408</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>1782</v>
+        <v>1789</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>1827</v>
+        <v>1834</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>2402</v>
+        <v>2409</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>2403</v>
+        <v>2410</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>2404</v>
+        <v>2411</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>2405</v>
+        <v>2412</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>2406</v>
+        <v>2413</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>2407</v>
+        <v>2414</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>1856</v>
+        <v>1863</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>2408</v>
+        <v>2415</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>2409</v>
+        <v>2416</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>2410</v>
+        <v>2417</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>2411</v>
+        <v>2418</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>2412</v>
+        <v>2419</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>2413</v>
+        <v>2420</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>1840</v>
+        <v>1847</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>2414</v>
+        <v>2421</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>2415</v>
+        <v>2422</v>
       </c>
       <c r="AB17" s="12" t="s">
-        <v>2416</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="18">
@@ -15964,85 +15985,85 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>2417</v>
+        <v>2424</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>2418</v>
+        <v>2425</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>2419</v>
+        <v>2426</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>2420</v>
+        <v>2427</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1821</v>
+        <v>1828</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>1769</v>
+        <v>1776</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>2421</v>
+        <v>2428</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>2422</v>
+        <v>2429</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>2423</v>
+        <v>2430</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>2424</v>
+        <v>2431</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>2425</v>
+        <v>2432</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>2426</v>
+        <v>2433</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>2427</v>
+        <v>2434</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>2428</v>
+        <v>2435</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>2429</v>
+        <v>2436</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>2430</v>
+        <v>2437</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>1830</v>
+        <v>1837</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>2431</v>
+        <v>2438</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>2432</v>
+        <v>2439</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>2433</v>
+        <v>2440</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>2434</v>
+        <v>2441</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>2435</v>
+        <v>2442</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>2436</v>
+        <v>2443</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>2437</v>
+        <v>2444</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>2438</v>
+        <v>2445</v>
       </c>
       <c r="AB18" s="12" t="s">
-        <v>2176</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="19">
@@ -16050,85 +16071,85 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>2439</v>
+        <v>2446</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>2440</v>
+        <v>2447</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>2441</v>
+        <v>2448</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>2442</v>
+        <v>2449</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>2443</v>
+        <v>2450</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>2444</v>
+        <v>2451</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>2445</v>
+        <v>2452</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>1797</v>
+        <v>1804</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>2446</v>
+        <v>2453</v>
       </c>
       <c r="K19" s="5" t="s">
+        <v>1790</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>1761</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>2454</v>
+      </c>
+      <c r="N19" s="5" t="s">
         <v>1783</v>
       </c>
-      <c r="L19" s="5" t="s">
-        <v>1754</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>2447</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>1776</v>
-      </c>
       <c r="O19" s="5" t="s">
-        <v>2448</v>
+        <v>2455</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>2449</v>
+        <v>2456</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>2450</v>
+        <v>2457</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>2451</v>
+        <v>2458</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>2452</v>
+        <v>2459</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>2453</v>
+        <v>2460</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>2454</v>
+        <v>2461</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>2455</v>
+        <v>2462</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>2456</v>
+        <v>2463</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>2457</v>
+        <v>2464</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>2458</v>
+        <v>2465</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>2459</v>
+        <v>2466</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>2460</v>
+        <v>2467</v>
       </c>
       <c r="AB19" s="12" t="s">
-        <v>2461</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="20">
@@ -16136,85 +16157,85 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>2462</v>
+        <v>2469</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>2463</v>
+        <v>2470</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>2464</v>
+        <v>2471</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>2465</v>
+        <v>2472</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>2466</v>
+        <v>2473</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>2467</v>
+        <v>2474</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>2468</v>
+        <v>2475</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>1815</v>
+        <v>1822</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>1863</v>
+        <v>1870</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>1742</v>
+        <v>1749</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>2469</v>
+        <v>2476</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>2470</v>
+        <v>2477</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>2471</v>
+        <v>2478</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>2472</v>
+        <v>2479</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>2473</v>
+        <v>2480</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>2474</v>
+        <v>2481</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>2475</v>
+        <v>2482</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>2476</v>
+        <v>2483</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>2477</v>
+        <v>2484</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>2478</v>
+        <v>2485</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>2479</v>
+        <v>2486</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>2480</v>
+        <v>2487</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>1721</v>
+        <v>1728</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>2481</v>
+        <v>2488</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>2482</v>
+        <v>2489</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>2483</v>
+        <v>2490</v>
       </c>
       <c r="AB20" s="12" t="s">
-        <v>2484</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="21">
@@ -16222,85 +16243,85 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>2485</v>
+        <v>2492</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>2486</v>
+        <v>2493</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>2487</v>
+        <v>2494</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>2488</v>
+        <v>2495</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>2489</v>
+        <v>2496</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1843</v>
+        <v>1850</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>2490</v>
+        <v>2497</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>2491</v>
+        <v>2498</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>2492</v>
+        <v>2499</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>2493</v>
+        <v>2500</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>2494</v>
+        <v>2501</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>1868</v>
+        <v>1875</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>2495</v>
+        <v>2502</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>2496</v>
+        <v>2503</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>2497</v>
+        <v>2504</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>2498</v>
+        <v>2505</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>2499</v>
+        <v>2506</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>2500</v>
+        <v>2507</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>2501</v>
+        <v>2508</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>2502</v>
+        <v>2509</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>2503</v>
+        <v>2510</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>2504</v>
+        <v>2511</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>2505</v>
+        <v>2512</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>2506</v>
+        <v>2513</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>2507</v>
+        <v>2514</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>1697</v>
+        <v>1704</v>
       </c>
       <c r="AB21" s="12" t="s">
-        <v>2508</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="22">
@@ -16308,85 +16329,85 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>2509</v>
+        <v>2516</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>2510</v>
+        <v>2517</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>2511</v>
+        <v>2518</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>2512</v>
+        <v>2519</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>2513</v>
+        <v>2520</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>2514</v>
+        <v>2521</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>2515</v>
+        <v>2522</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>2516</v>
+        <v>2523</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>2517</v>
+        <v>2524</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>2518</v>
+        <v>2525</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>2519</v>
+        <v>2526</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>2520</v>
+        <v>2527</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>1845</v>
+        <v>1852</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>1725</v>
+        <v>1732</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>2521</v>
+        <v>2528</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>2522</v>
+        <v>2529</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>2523</v>
+        <v>2530</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>2525</v>
+        <v>2532</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>2526</v>
+        <v>2533</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>2527</v>
+        <v>2534</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>2528</v>
+        <v>2535</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>2529</v>
+        <v>2536</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>2530</v>
+        <v>2537</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>1849</v>
+        <v>1856</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>2531</v>
+        <v>2538</v>
       </c>
       <c r="AB22" s="12" t="s">
-        <v>2532</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="23">
@@ -16394,85 +16415,85 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>2533</v>
+        <v>2540</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>2534</v>
+        <v>2541</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>2535</v>
+        <v>2542</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>2536</v>
+        <v>2543</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>2537</v>
+        <v>2544</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>2538</v>
+        <v>2545</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>2539</v>
+        <v>2546</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>2540</v>
+        <v>2547</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>2541</v>
+        <v>2548</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>2542</v>
+        <v>2549</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>2543</v>
+        <v>2550</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>2544</v>
+        <v>2551</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>2545</v>
+        <v>2552</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>2546</v>
+        <v>2553</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>2547</v>
+        <v>2554</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>2548</v>
+        <v>2555</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>2549</v>
+        <v>2556</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>2550</v>
+        <v>2557</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>2551</v>
+        <v>2558</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>2552</v>
+        <v>2559</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>1850</v>
+        <v>1857</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>2553</v>
+        <v>2560</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>2554</v>
+        <v>2561</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>2555</v>
+        <v>2562</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>2556</v>
+        <v>2563</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>2557</v>
+        <v>2564</v>
       </c>
       <c r="AB23" s="12" t="s">
-        <v>2558</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="24">
@@ -16480,85 +16501,85 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>2559</v>
+        <v>2566</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>2560</v>
+        <v>2567</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>2561</v>
+        <v>2568</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>2562</v>
+        <v>2569</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>2563</v>
+        <v>2570</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>2564</v>
+        <v>2571</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>1801</v>
+        <v>1808</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>2565</v>
+        <v>2572</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>2566</v>
+        <v>2573</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>2567</v>
+        <v>2574</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>2568</v>
+        <v>2575</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>2569</v>
+        <v>2576</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>2570</v>
+        <v>2577</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>2571</v>
+        <v>2578</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>2572</v>
+        <v>2579</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>2573</v>
+        <v>2580</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>2574</v>
+        <v>2581</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>2575</v>
+        <v>2582</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>2576</v>
+        <v>2583</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>2577</v>
+        <v>2584</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>2578</v>
+        <v>2585</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>2579</v>
+        <v>2586</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>2580</v>
+        <v>2587</v>
       </c>
       <c r="Y24" s="5" t="s">
-        <v>2581</v>
+        <v>2588</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>2582</v>
+        <v>2589</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>2583</v>
+        <v>2590</v>
       </c>
       <c r="AB24" s="12" t="s">
-        <v>2584</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="25">
@@ -16566,85 +16587,85 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>2585</v>
+        <v>2592</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>2586</v>
+        <v>2593</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>2587</v>
+        <v>2594</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>2588</v>
+        <v>2595</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>2589</v>
+        <v>2596</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>2590</v>
+        <v>2597</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>2591</v>
+        <v>2598</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>2592</v>
+        <v>2599</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>2593</v>
+        <v>2600</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>2594</v>
+        <v>2601</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>2595</v>
+        <v>2602</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>2596</v>
+        <v>2603</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>2597</v>
+        <v>2604</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>2598</v>
+        <v>2605</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>2599</v>
+        <v>2606</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>1795</v>
+        <v>1802</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>2600</v>
+        <v>2607</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>2601</v>
+        <v>2608</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>1756</v>
+        <v>1763</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>2602</v>
+        <v>2609</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>2603</v>
+        <v>2610</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>2604</v>
+        <v>2611</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>2605</v>
+        <v>2612</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>2606</v>
+        <v>2613</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>2607</v>
+        <v>2614</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>2608</v>
+        <v>2615</v>
       </c>
       <c r="AB25" s="12" t="s">
-        <v>2225</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="26">
@@ -16652,85 +16673,85 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>2609</v>
+        <v>2616</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>2610</v>
+        <v>2617</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>2611</v>
+        <v>2618</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>2612</v>
+        <v>2619</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>2613</v>
+        <v>2620</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>2614</v>
+        <v>2621</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>2615</v>
+        <v>2622</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>2616</v>
+        <v>2623</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>2617</v>
+        <v>2624</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>2618</v>
+        <v>2625</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>2619</v>
+        <v>2626</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>2620</v>
+        <v>2627</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>1833</v>
+        <v>1840</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>2621</v>
+        <v>2628</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>1869</v>
+        <v>1876</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>2622</v>
+        <v>2629</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>2623</v>
+        <v>2630</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>2624</v>
+        <v>2631</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>2625</v>
+        <v>2632</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>2626</v>
+        <v>2633</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>2627</v>
+        <v>2634</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>2628</v>
+        <v>2635</v>
       </c>
       <c r="Y26" s="5" t="s">
-        <v>2629</v>
+        <v>2636</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>2630</v>
+        <v>2637</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>2631</v>
+        <v>2638</v>
       </c>
       <c r="AB26" s="12" t="s">
-        <v>2632</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="27">
@@ -16738,85 +16759,85 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>2633</v>
+        <v>2640</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>2634</v>
+        <v>2641</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>2635</v>
+        <v>2642</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>2636</v>
+        <v>2643</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>2637</v>
+        <v>2644</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>2638</v>
+        <v>2645</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>2639</v>
+        <v>2646</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>2640</v>
+        <v>2647</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>2641</v>
+        <v>2648</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>2642</v>
+        <v>2649</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>2643</v>
+        <v>2650</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>2644</v>
+        <v>2651</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>2645</v>
+        <v>2652</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>2646</v>
+        <v>2653</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>2647</v>
+        <v>2654</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>2648</v>
+        <v>2655</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>2649</v>
+        <v>2656</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>2650</v>
+        <v>2657</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>2651</v>
+        <v>2658</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>2652</v>
+        <v>2659</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>1711</v>
+        <v>1718</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>2653</v>
+        <v>2660</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>2654</v>
+        <v>2661</v>
       </c>
       <c r="Y27" s="5" t="s">
-        <v>2655</v>
+        <v>2662</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>2656</v>
+        <v>2663</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>2657</v>
+        <v>2664</v>
       </c>
       <c r="AB27" s="12" t="s">
-        <v>2658</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="28">
@@ -16824,85 +16845,85 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>2659</v>
+        <v>2666</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>2660</v>
+        <v>2667</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>2661</v>
+        <v>2668</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>2662</v>
+        <v>2669</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>2663</v>
+        <v>2670</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>2664</v>
+        <v>2671</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>1823</v>
+        <v>1830</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>2665</v>
+        <v>2672</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>2666</v>
+        <v>2673</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>2667</v>
+        <v>2674</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>2668</v>
+        <v>2675</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>2669</v>
+        <v>2676</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>2670</v>
+        <v>2677</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>2671</v>
+        <v>2678</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>2672</v>
+        <v>2679</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>2673</v>
+        <v>2680</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>2674</v>
+        <v>2681</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>2675</v>
+        <v>2682</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>2676</v>
+        <v>2683</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>2677</v>
+        <v>2684</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>2678</v>
+        <v>2685</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>2679</v>
+        <v>2686</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>2680</v>
+        <v>2687</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>2681</v>
+        <v>2688</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>2682</v>
+        <v>2689</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>2683</v>
+        <v>2690</v>
       </c>
       <c r="AB28" s="12" t="s">
-        <v>2684</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="29">
@@ -16910,85 +16931,85 @@
         <v>45</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>2685</v>
+        <v>2692</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>2686</v>
+        <v>2693</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>2687</v>
+        <v>2694</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>2688</v>
+        <v>2695</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>2689</v>
+        <v>2696</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>2690</v>
+        <v>2697</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>2691</v>
+        <v>2698</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>2692</v>
+        <v>2699</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>2693</v>
+        <v>2700</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>2694</v>
+        <v>2701</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>2695</v>
+        <v>2702</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>2696</v>
+        <v>2703</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>2697</v>
+        <v>2704</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>2698</v>
+        <v>2705</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>2699</v>
+        <v>2706</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>2700</v>
+        <v>2707</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>2701</v>
+        <v>2708</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>2702</v>
+        <v>2709</v>
       </c>
       <c r="T29" s="9" t="s">
-        <v>2703</v>
+        <v>2710</v>
       </c>
       <c r="U29" s="9" t="s">
-        <v>2704</v>
+        <v>2711</v>
       </c>
       <c r="V29" s="9" t="s">
-        <v>2705</v>
+        <v>2712</v>
       </c>
       <c r="W29" s="9" t="s">
-        <v>2706</v>
+        <v>2713</v>
       </c>
       <c r="X29" s="9" t="s">
-        <v>2470</v>
+        <v>2477</v>
       </c>
       <c r="Y29" s="9" t="s">
-        <v>2707</v>
+        <v>2714</v>
       </c>
       <c r="Z29" s="9" t="s">
-        <v>2708</v>
+        <v>2715</v>
       </c>
       <c r="AA29" s="9" t="s">
-        <v>2709</v>
+        <v>2716</v>
       </c>
       <c r="AB29" s="12" t="s">
-        <v>2710</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="30">
@@ -16996,85 +17017,85 @@
         <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>2711</v>
+        <v>2718</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>2712</v>
+        <v>2719</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>2713</v>
+        <v>2720</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>2714</v>
+        <v>2721</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>2715</v>
+        <v>2722</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>2716</v>
+        <v>2723</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>2717</v>
+        <v>2724</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>2718</v>
+        <v>2725</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>2719</v>
+        <v>2726</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>2720</v>
+        <v>2727</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>2721</v>
+        <v>2728</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>2722</v>
+        <v>2729</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>2723</v>
+        <v>2730</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>2724</v>
+        <v>2731</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>2725</v>
+        <v>2732</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>2726</v>
+        <v>2733</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>2727</v>
+        <v>2734</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>2728</v>
+        <v>2735</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>2729</v>
+        <v>2736</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>2730</v>
+        <v>2737</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>2731</v>
+        <v>2738</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>2732</v>
+        <v>2739</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>2733</v>
+        <v>2740</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>2734</v>
+        <v>2741</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>2735</v>
+        <v>2742</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>2736</v>
+        <v>2743</v>
       </c>
       <c r="AB30" s="3" t="s">
-        <v>2737</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="31">
@@ -17082,85 +17103,85 @@
         <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2738</v>
+        <v>2745</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>2739</v>
+        <v>2746</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>2740</v>
+        <v>2747</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>2741</v>
+        <v>2748</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>2742</v>
+        <v>2749</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>2743</v>
+        <v>2750</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>2744</v>
+        <v>2751</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>2745</v>
+        <v>2752</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>2746</v>
+        <v>2753</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>2747</v>
+        <v>2754</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>2748</v>
+        <v>2755</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>2749</v>
+        <v>2756</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>2750</v>
+        <v>2757</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>2751</v>
+        <v>2758</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>2752</v>
+        <v>2759</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>2753</v>
+        <v>2760</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>2754</v>
+        <v>2761</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>2755</v>
+        <v>2762</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>2756</v>
+        <v>2763</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>2757</v>
+        <v>2764</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>2758</v>
+        <v>2765</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>2759</v>
+        <v>2766</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>2760</v>
+        <v>2767</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>2761</v>
+        <v>2768</v>
       </c>
       <c r="Z31" s="2" t="s">
-        <v>2762</v>
+        <v>2769</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>2763</v>
+        <v>2770</v>
       </c>
       <c r="AB31" s="3" t="s">
-        <v>2764</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="32">
@@ -17246,7 +17267,7 @@
         <v>161</v>
       </c>
       <c r="AB32" s="12" t="s">
-        <v>2765</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="33">
@@ -17332,7 +17353,7 @@
         <v>161</v>
       </c>
       <c r="AB33" s="12" t="s">
-        <v>2766</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="34">
@@ -17418,7 +17439,7 @@
         <v>161</v>
       </c>
       <c r="AB34" s="12" t="s">
-        <v>2767</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="35">
@@ -17504,7 +17525,7 @@
         <v>161</v>
       </c>
       <c r="AB35" s="12" t="s">
-        <v>2768</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="36">
@@ -17512,85 +17533,85 @@
         <v>67</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>2769</v>
+        <v>2776</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>2770</v>
+        <v>2777</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2771</v>
+        <v>2778</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1895</v>
+        <v>1902</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>2772</v>
+        <v>2779</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>2773</v>
+        <v>2780</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>2774</v>
+        <v>2781</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>2775</v>
+        <v>2782</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>2776</v>
+        <v>2783</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>2777</v>
+        <v>2784</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>2778</v>
+        <v>2785</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>2779</v>
+        <v>2786</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>2780</v>
+        <v>2787</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>2781</v>
+        <v>2788</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>2782</v>
+        <v>2789</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>2783</v>
+        <v>2790</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>2784</v>
+        <v>2791</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>2785</v>
+        <v>2792</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>2786</v>
+        <v>2793</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>2787</v>
+        <v>2794</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>2788</v>
+        <v>2795</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>2789</v>
+        <v>2796</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>2790</v>
+        <v>2797</v>
       </c>
       <c r="Y36" s="2" t="s">
-        <v>2791</v>
+        <v>2798</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>2792</v>
+        <v>2799</v>
       </c>
       <c r="AA36" s="2" t="s">
-        <v>2793</v>
+        <v>2800</v>
       </c>
       <c r="AB36" s="3" t="s">
-        <v>2794</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="37">
@@ -17676,7 +17697,7 @@
         <v>161</v>
       </c>
       <c r="AB37" s="12" t="s">
-        <v>2795</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="38">
@@ -17762,7 +17783,7 @@
         <v>161</v>
       </c>
       <c r="AB38" s="12" t="s">
-        <v>2796</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="39">
@@ -17848,7 +17869,7 @@
         <v>161</v>
       </c>
       <c r="AB39" s="12" t="s">
-        <v>2797</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="40">
@@ -17934,7 +17955,7 @@
         <v>161</v>
       </c>
       <c r="AB40" s="12" t="s">
-        <v>2798</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="41">
@@ -18020,7 +18041,7 @@
         <v>161</v>
       </c>
       <c r="AB41" s="12" t="s">
-        <v>2799</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="42">
@@ -18111,88 +18132,88 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2800</v>
+        <v>2807</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2801</v>
+        <v>2808</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2802</v>
+        <v>2809</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>2803</v>
+        <v>2810</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>2804</v>
+        <v>2811</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>2805</v>
+        <v>2812</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>2806</v>
+        <v>2813</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>2807</v>
+        <v>2814</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>2808</v>
+        <v>2815</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>2809</v>
+        <v>2816</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>2810</v>
+        <v>2817</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>2811</v>
+        <v>2818</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>2812</v>
+        <v>2819</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>2813</v>
+        <v>2820</v>
       </c>
       <c r="O43" s="11" t="s">
-        <v>2814</v>
+        <v>2821</v>
       </c>
       <c r="P43" s="9" t="s">
-        <v>2815</v>
+        <v>2822</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>2816</v>
+        <v>2823</v>
       </c>
       <c r="R43" s="9" t="s">
-        <v>2817</v>
+        <v>2824</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>2818</v>
+        <v>2825</v>
       </c>
       <c r="T43" s="9" t="s">
-        <v>2819</v>
+        <v>2826</v>
       </c>
       <c r="U43" s="9" t="s">
-        <v>2820</v>
+        <v>2827</v>
       </c>
       <c r="V43" s="9" t="s">
-        <v>2821</v>
+        <v>2828</v>
       </c>
       <c r="W43" s="9" t="s">
-        <v>2822</v>
+        <v>2829</v>
       </c>
       <c r="X43" s="9" t="s">
-        <v>2823</v>
+        <v>2830</v>
       </c>
       <c r="Y43" s="9" t="s">
-        <v>2824</v>
+        <v>2831</v>
       </c>
       <c r="Z43" s="9" t="s">
-        <v>2825</v>
+        <v>2832</v>
       </c>
       <c r="AA43" s="9" t="s">
-        <v>2826</v>
+        <v>2833</v>
       </c>
       <c r="AB43" s="12" t="s">
-        <v>2347</v>
+        <v>2354</v>
       </c>
     </row>
   </sheetData>
@@ -18218,7 +18239,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2827</v>
+        <v>2834</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -18232,16 +18253,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2828</v>
+        <v>2835</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2829</v>
+        <v>2836</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2830</v>
+        <v>2837</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>2831</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="3">
@@ -18249,10 +18270,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2832</v>
+        <v>2839</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2833</v>
+        <v>2840</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>19</v>
@@ -18263,10 +18284,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2834</v>
+        <v>2841</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>2835</v>
+        <v>2842</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>19</v>
@@ -18277,10 +18298,10 @@
         <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2836</v>
+        <v>2843</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2837</v>
+        <v>2844</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>19</v>
@@ -18291,10 +18312,10 @@
         <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2838</v>
+        <v>2845</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>2839</v>
+        <v>2846</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>19</v>
@@ -18305,10 +18326,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>2840</v>
+        <v>2847</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2841</v>
+        <v>2848</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>19</v>
@@ -18319,10 +18340,10 @@
         <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>2842</v>
+        <v>2849</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2843</v>
+        <v>2850</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>19</v>
@@ -18333,10 +18354,10 @@
         <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>2844</v>
+        <v>2851</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>2845</v>
+        <v>2852</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>19</v>
@@ -18347,10 +18368,10 @@
         <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2846</v>
+        <v>2853</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>2847</v>
+        <v>2854</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>19</v>
@@ -18361,10 +18382,10 @@
         <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>2848</v>
+        <v>2855</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>2849</v>
+        <v>2856</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>19</v>
@@ -18375,10 +18396,10 @@
         <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>2850</v>
+        <v>2857</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>2851</v>
+        <v>2858</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>19</v>
@@ -18389,10 +18410,10 @@
         <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2852</v>
+        <v>2859</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>2853</v>
+        <v>2860</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>19</v>
@@ -18403,10 +18424,10 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>2855</v>
+        <v>2862</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>19</v>
@@ -18417,10 +18438,10 @@
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>2856</v>
+        <v>2863</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>2857</v>
+        <v>2864</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>19</v>
@@ -18431,10 +18452,10 @@
         <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>2858</v>
+        <v>2865</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>2859</v>
+        <v>2866</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>19</v>
@@ -18445,10 +18466,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>2860</v>
+        <v>2867</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>2861</v>
+        <v>2868</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>19</v>
@@ -18459,10 +18480,10 @@
         <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>2862</v>
+        <v>2869</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>2863</v>
+        <v>2870</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>19</v>
@@ -18473,10 +18494,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>2864</v>
+        <v>2871</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>2865</v>
+        <v>2872</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>19</v>
@@ -18487,10 +18508,10 @@
         <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>2866</v>
+        <v>2873</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>2867</v>
+        <v>2874</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>19</v>
@@ -18501,10 +18522,10 @@
         <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>2868</v>
+        <v>2875</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>2869</v>
+        <v>2876</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>19</v>
@@ -18515,10 +18536,10 @@
         <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>2870</v>
+        <v>2877</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>2871</v>
+        <v>2878</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>19</v>
@@ -18529,10 +18550,10 @@
         <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>2872</v>
+        <v>2879</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>2873</v>
+        <v>2880</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>19</v>
@@ -18543,10 +18564,10 @@
         <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>2874</v>
+        <v>2881</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>2875</v>
+        <v>2882</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>19</v>
@@ -18557,10 +18578,10 @@
         <v>41</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>2876</v>
+        <v>2883</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>2877</v>
+        <v>2884</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>19</v>
@@ -18571,10 +18592,10 @@
         <v>42</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>2878</v>
+        <v>2885</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>2879</v>
+        <v>2886</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>19</v>
@@ -18585,10 +18606,10 @@
         <v>43</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>2880</v>
+        <v>2887</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>2881</v>
+        <v>2888</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>19</v>
@@ -18599,10 +18620,10 @@
         <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>2882</v>
+        <v>2889</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>2883</v>
+        <v>2890</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>19</v>
@@ -18613,13 +18634,13 @@
         <v>45</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>2884</v>
+        <v>2891</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>2885</v>
+        <v>2892</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>2886</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="30">
@@ -18627,13 +18648,13 @@
         <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>2887</v>
+        <v>2894</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>2888</v>
+        <v>2895</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>2889</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="31">
@@ -18641,13 +18662,13 @@
         <v>62</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>2890</v>
+        <v>2897</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>2891</v>
+        <v>2898</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>2892</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="32">
@@ -18655,13 +18676,13 @@
         <v>63</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>2893</v>
+        <v>2900</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>2894</v>
+        <v>2901</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>2895</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="33">
@@ -18669,13 +18690,13 @@
         <v>64</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>2896</v>
+        <v>2903</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>2897</v>
+        <v>2904</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>2898</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="34">
@@ -18683,13 +18704,13 @@
         <v>65</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>2899</v>
+        <v>2906</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>2900</v>
+        <v>2907</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>2901</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="35">
@@ -18703,7 +18724,7 @@
         <v>56</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>2902</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="36">
@@ -18711,13 +18732,13 @@
         <v>67</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>2903</v>
+        <v>2910</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>2904</v>
+        <v>2911</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>2905</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="37">
@@ -18725,13 +18746,13 @@
         <v>76</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>2906</v>
+        <v>2913</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>2907</v>
+        <v>2914</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>2908</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="38">
@@ -18739,13 +18760,13 @@
         <v>77</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>2909</v>
+        <v>2916</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>2910</v>
+        <v>2917</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>2911</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="39">
@@ -18759,7 +18780,7 @@
         <v>56</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>2912</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="40">
@@ -18773,7 +18794,7 @@
         <v>56</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>2913</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="41">
@@ -18781,10 +18802,10 @@
         <v>80</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>2914</v>
+        <v>2921</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>2915</v>
+        <v>2922</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>295</v>
@@ -18806,16 +18827,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2916</v>
+        <v>2923</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2917</v>
+        <v>2924</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2918</v>
+        <v>2925</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>2919</v>
+        <v>2926</v>
       </c>
     </row>
   </sheetData>

--- a/iceKnives32/Offline Documents (Periodic)/iceKnives32.xlsx
+++ b/iceKnives32/Offline Documents (Periodic)/iceKnives32.xlsx
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="2927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="2929">
   <si>
     <t>[]</t>
   </si>
@@ -5346,12 +5346,18 @@
     <t>exchanges</t>
   </si>
   <si>
+    <t>ekt.uw</t>
+  </si>
+  <si>
     <t>crystal</t>
   </si>
   <si>
     <t>mediums</t>
   </si>
   <si>
+    <t>cer.ql</t>
+  </si>
+  <si>
     <t>steam</t>
   </si>
   <si>
@@ -5385,7 +5391,7 @@
     <t>tunnels</t>
   </si>
   <si>
-    <t>pop.co</t>
+    <t>nop.co</t>
   </si>
   <si>
     <t>soil</t>
@@ -5403,7 +5409,7 @@
     <t>brackets</t>
   </si>
   <si>
-    <t>seh.me</t>
+    <t>seh.mi</t>
   </si>
   <si>
     <t>sky</t>
@@ -11285,7 +11291,7 @@
         <v>1676</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>18</v>
+        <v>1677</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>19</v>
@@ -11296,7 +11302,7 @@
         <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>18</v>
@@ -11311,10 +11317,10 @@
         <v>18</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>18</v>
+        <v>1680</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>19</v>
@@ -11325,7 +11331,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>18</v>
@@ -11340,10 +11346,10 @@
         <v>18</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>19</v>
@@ -11354,7 +11360,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>18</v>
@@ -11369,10 +11375,10 @@
         <v>18</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>19</v>
@@ -11383,7 +11389,7 @@
         <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>18</v>
@@ -11398,10 +11404,10 @@
         <v>18</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>19</v>
@@ -11412,7 +11418,7 @@
         <v>41</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>18</v>
@@ -11427,10 +11433,10 @@
         <v>18</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>19</v>
@@ -11441,7 +11447,7 @@
         <v>42</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>18</v>
@@ -11456,10 +11462,10 @@
         <v>18</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>19</v>
@@ -11470,7 +11476,7 @@
         <v>43</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>18</v>
@@ -11485,10 +11491,10 @@
         <v>18</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>19</v>
@@ -11499,7 +11505,7 @@
         <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>18</v>
@@ -11514,10 +11520,10 @@
         <v>18</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>19</v>
@@ -11931,7 +11937,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>91</v>
@@ -11955,7 +11961,7 @@
         <v>97</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
     </row>
   </sheetData>
@@ -11984,7 +11990,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -12013,28 +12019,28 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>303</v>
@@ -12045,25 +12051,25 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>19</v>
@@ -12074,25 +12080,25 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>1012</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>19</v>
@@ -12103,25 +12109,25 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>1027</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>19</v>
@@ -12132,25 +12138,25 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>747</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>19</v>
@@ -12161,25 +12167,25 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>456</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>19</v>
@@ -12190,25 +12196,25 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>124</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>19</v>
@@ -12219,25 +12225,25 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>360</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>19</v>
@@ -12248,25 +12254,25 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>19</v>
@@ -12277,25 +12283,25 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>488</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>19</v>
@@ -12306,25 +12312,25 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1767</v>
+        <v>1769</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1119</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>19</v>
@@ -12335,25 +12341,25 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>470</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>19</v>
@@ -12364,25 +12370,25 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>211</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>1784</v>
+        <v>1786</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>19</v>
@@ -12393,25 +12399,25 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1787</v>
+        <v>1789</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>19</v>
@@ -12422,25 +12428,25 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1793</v>
+        <v>1795</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>625</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1794</v>
+        <v>1796</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1795</v>
+        <v>1797</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>1797</v>
+        <v>1799</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>19</v>
@@ -12451,25 +12457,25 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1798</v>
+        <v>1800</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1799</v>
+        <v>1801</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>768</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>1803</v>
+        <v>1805</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>19</v>
@@ -12480,25 +12486,25 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1805</v>
+        <v>1807</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>845</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1806</v>
+        <v>1808</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1807</v>
+        <v>1809</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>1808</v>
+        <v>1810</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>1809</v>
+        <v>1811</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>19</v>
@@ -12509,25 +12515,25 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1810</v>
+        <v>1812</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>1311</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>1813</v>
+        <v>1815</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>1815</v>
+        <v>1817</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>19</v>
@@ -12538,25 +12544,25 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1816</v>
+        <v>1818</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>1822</v>
+        <v>1824</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>19</v>
@@ -12567,25 +12573,25 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1823</v>
+        <v>1825</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1824</v>
+        <v>1826</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1828</v>
+        <v>1830</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>1829</v>
+        <v>1831</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>19</v>
@@ -12596,25 +12602,25 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1830</v>
+        <v>1832</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1831</v>
+        <v>1833</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>932</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>1834</v>
+        <v>1836</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>19</v>
@@ -12625,25 +12631,25 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1837</v>
+        <v>1839</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>19</v>
@@ -12654,25 +12660,25 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1843</v>
+        <v>1845</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>472</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1845</v>
+        <v>1847</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>19</v>
@@ -12683,25 +12689,25 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1850</v>
+        <v>1852</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>424</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>1852</v>
+        <v>1854</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>1853</v>
+        <v>1855</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>1854</v>
+        <v>1856</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>19</v>
@@ -12712,25 +12718,25 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1855</v>
+        <v>1857</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>925</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1857</v>
+        <v>1859</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1859</v>
+        <v>1861</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>1860</v>
+        <v>1862</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>19</v>
@@ -12741,25 +12747,25 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1861</v>
+        <v>1863</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1862</v>
+        <v>1864</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>1383</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1863</v>
+        <v>1865</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>1864</v>
+        <v>1866</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>19</v>
@@ -12770,25 +12776,25 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1867</v>
+        <v>1869</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1868</v>
+        <v>1870</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>429</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1869</v>
+        <v>1871</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>1871</v>
+        <v>1873</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>19</v>
@@ -12799,25 +12805,25 @@
         <v>45</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1873</v>
+        <v>1875</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1874</v>
+        <v>1876</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>373</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>1876</v>
+        <v>1878</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1877</v>
+        <v>1879</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>1878</v>
+        <v>1880</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>335</v>
@@ -12828,28 +12834,28 @@
         <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1880</v>
+        <v>1882</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>1882</v>
+        <v>1884</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1883</v>
+        <v>1885</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>1884</v>
+        <v>1886</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>1885</v>
+        <v>1887</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>1886</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="31">
@@ -12857,28 +12863,28 @@
         <v>62</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1887</v>
+        <v>1889</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1888</v>
+        <v>1890</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1889</v>
+        <v>1891</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>1890</v>
+        <v>1892</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>1891</v>
+        <v>1893</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>1892</v>
+        <v>1894</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="32">
@@ -12907,7 +12913,7 @@
         <v>61</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="33">
@@ -12936,7 +12942,7 @@
         <v>61</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>1896</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="34">
@@ -12965,7 +12971,7 @@
         <v>61</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>1897</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="35">
@@ -12994,7 +13000,7 @@
         <v>61</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>1898</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="36">
@@ -13002,28 +13008,28 @@
         <v>67</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1899</v>
+        <v>1901</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1900</v>
+        <v>1902</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>1902</v>
+        <v>1904</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>1903</v>
+        <v>1905</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>1904</v>
+        <v>1906</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>1905</v>
+        <v>1907</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>1906</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="37">
@@ -13052,7 +13058,7 @@
         <v>61</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>1907</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="38">
@@ -13081,7 +13087,7 @@
         <v>61</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>1908</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="39">
@@ -13110,7 +13116,7 @@
         <v>61</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>1909</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="40">
@@ -13139,7 +13145,7 @@
         <v>61</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>1910</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="41">
@@ -13168,7 +13174,7 @@
         <v>61</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>1911</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="42">
@@ -13202,31 +13208,31 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1912</v>
+        <v>1914</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1913</v>
+        <v>1915</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1914</v>
+        <v>1916</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1915</v>
+        <v>1917</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>1917</v>
+        <v>1919</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>1918</v>
+        <v>1920</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>1919</v>
+        <v>1921</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1920</v>
+        <v>1922</v>
       </c>
     </row>
   </sheetData>
@@ -13253,7 +13259,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1921</v>
+        <v>1923</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -13282,28 +13288,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1922</v>
+        <v>1924</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1923</v>
+        <v>1925</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1925</v>
+        <v>1927</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1928</v>
+        <v>1930</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>1929</v>
+        <v>1931</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>19</v>
@@ -13314,13 +13320,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1931</v>
+        <v>1933</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>18</v>
@@ -13343,13 +13349,13 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1934</v>
+        <v>1936</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -13372,13 +13378,13 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1936</v>
+        <v>1938</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1938</v>
+        <v>1940</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>18</v>
@@ -13401,13 +13407,13 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1939</v>
+        <v>1941</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1940</v>
+        <v>1942</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1941</v>
+        <v>1943</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>18</v>
@@ -13430,13 +13436,13 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1942</v>
+        <v>1944</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1943</v>
+        <v>1945</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1944</v>
+        <v>1946</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>18</v>
@@ -13459,13 +13465,13 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1945</v>
+        <v>1947</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1946</v>
+        <v>1948</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1947</v>
+        <v>1949</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>18</v>
@@ -13488,13 +13494,13 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1948</v>
+        <v>1950</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1950</v>
+        <v>1952</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>18</v>
@@ -13517,13 +13523,13 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1951</v>
+        <v>1953</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1952</v>
+        <v>1954</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>18</v>
@@ -13546,13 +13552,13 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1954</v>
+        <v>1956</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>18</v>
@@ -13575,13 +13581,13 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1959</v>
+        <v>1961</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>18</v>
@@ -13604,13 +13610,13 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1960</v>
+        <v>1962</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1961</v>
+        <v>1963</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1962</v>
+        <v>1964</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>18</v>
@@ -13633,13 +13639,13 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1963</v>
+        <v>1965</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1964</v>
+        <v>1966</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>18</v>
@@ -13662,13 +13668,13 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1967</v>
+        <v>1969</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1968</v>
+        <v>1970</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>18</v>
@@ -13691,13 +13697,13 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1969</v>
+        <v>1971</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1970</v>
+        <v>1972</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1971</v>
+        <v>1973</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>18</v>
@@ -13720,13 +13726,13 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1972</v>
+        <v>1974</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1973</v>
+        <v>1975</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1974</v>
+        <v>1976</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>18</v>
@@ -13749,13 +13755,13 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1975</v>
+        <v>1977</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1976</v>
+        <v>1978</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1977</v>
+        <v>1979</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>18</v>
@@ -13778,13 +13784,13 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1978</v>
+        <v>1980</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1979</v>
+        <v>1981</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1980</v>
+        <v>1982</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>18</v>
@@ -13807,13 +13813,13 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1982</v>
+        <v>1984</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>18</v>
@@ -13836,13 +13842,13 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1984</v>
+        <v>1986</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>18</v>
@@ -13865,13 +13871,13 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1987</v>
+        <v>1989</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1988</v>
+        <v>1990</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1989</v>
+        <v>1991</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>18</v>
@@ -13894,13 +13900,13 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>18</v>
@@ -13923,13 +13929,13 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>18</v>
@@ -13952,13 +13958,13 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>18</v>
@@ -13981,13 +13987,13 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>18</v>
@@ -14010,13 +14016,13 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>18</v>
@@ -14039,13 +14045,13 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>18</v>
@@ -14068,25 +14074,25 @@
         <v>45</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>19</v>
@@ -14471,31 +14477,31 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>2023</v>
+        <v>2025</v>
       </c>
     </row>
   </sheetData>
@@ -14520,7 +14526,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -14544,61 +14550,61 @@
         <v>7</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>2027</v>
+        <v>2029</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>2029</v>
+        <v>2031</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>2030</v>
+        <v>2032</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>2031</v>
+        <v>2033</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>2032</v>
+        <v>2034</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>2033</v>
+        <v>2035</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>2034</v>
+        <v>2036</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>2035</v>
+        <v>2037</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>2036</v>
+        <v>2038</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>2037</v>
+        <v>2039</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>2038</v>
+        <v>2040</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>2039</v>
+        <v>2041</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>2040</v>
+        <v>2042</v>
       </c>
       <c r="Y1" s="9" t="s">
-        <v>2041</v>
+        <v>2043</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>2042</v>
+        <v>2044</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>8</v>
@@ -14606,88 +14612,88 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1921</v>
+        <v>1923</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2044</v>
+        <v>2046</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>2045</v>
+        <v>2047</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>2046</v>
+        <v>2048</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>2047</v>
+        <v>2049</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>2048</v>
+        <v>2050</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>2049</v>
+        <v>2051</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>2050</v>
+        <v>2052</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>2052</v>
+        <v>2054</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>2054</v>
+        <v>2056</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>2055</v>
+        <v>2057</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>2056</v>
+        <v>2058</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>2057</v>
+        <v>2059</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>2058</v>
+        <v>2060</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>2059</v>
+        <v>2061</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>2060</v>
+        <v>2062</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>2061</v>
+        <v>2063</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>2062</v>
+        <v>2064</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>2063</v>
+        <v>2065</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>2064</v>
+        <v>2066</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>2065</v>
+        <v>2067</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>2067</v>
+        <v>2069</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>2068</v>
+        <v>2070</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>2069</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="3">
@@ -14695,85 +14701,85 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2070</v>
+        <v>2072</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>2071</v>
+        <v>2073</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>2072</v>
+        <v>2074</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>2073</v>
+        <v>2075</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>2074</v>
+        <v>2076</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>2075</v>
+        <v>2077</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>2076</v>
+        <v>2078</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>2077</v>
+        <v>2079</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>2078</v>
+        <v>2080</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>2079</v>
+        <v>2081</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>2080</v>
+        <v>2082</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>2081</v>
+        <v>2083</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>1767</v>
+        <v>1769</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>2082</v>
+        <v>2084</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>2083</v>
+        <v>2085</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>2085</v>
+        <v>2087</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>2086</v>
+        <v>2088</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>2087</v>
+        <v>2089</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>2088</v>
+        <v>2090</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>2089</v>
+        <v>2091</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>1799</v>
+        <v>1801</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>2090</v>
+        <v>2092</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>1874</v>
+        <v>1876</v>
       </c>
       <c r="AB3" s="12" t="s">
-        <v>2091</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="4">
@@ -14781,85 +14787,85 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2092</v>
+        <v>2094</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>2093</v>
+        <v>2095</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>2094</v>
+        <v>2096</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>2096</v>
+        <v>2098</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>2097</v>
+        <v>2099</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>2098</v>
+        <v>2100</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>1807</v>
+        <v>1809</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>2099</v>
+        <v>2101</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>2100</v>
+        <v>2102</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>2101</v>
+        <v>2103</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>2102</v>
+        <v>2104</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>2103</v>
+        <v>2105</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>2104</v>
+        <v>2106</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>2105</v>
+        <v>2107</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>1794</v>
+        <v>1796</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>2106</v>
+        <v>2108</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>2107</v>
+        <v>2109</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>2108</v>
+        <v>2110</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>2109</v>
+        <v>2111</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>2110</v>
+        <v>2112</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>2111</v>
+        <v>2113</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>2112</v>
+        <v>2114</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>2113</v>
+        <v>2115</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>2114</v>
+        <v>2116</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>2115</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="5">
@@ -14867,85 +14873,85 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2116</v>
+        <v>2118</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>2117</v>
+        <v>2119</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>2118</v>
+        <v>2120</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>2119</v>
+        <v>2121</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>2120</v>
+        <v>2122</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>2121</v>
+        <v>2123</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>2122</v>
+        <v>2124</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>2123</v>
+        <v>2125</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>2124</v>
+        <v>2126</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>1859</v>
+        <v>1861</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>2125</v>
+        <v>2127</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>2126</v>
+        <v>2128</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>2127</v>
+        <v>2129</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>2128</v>
+        <v>2130</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>2129</v>
+        <v>2131</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>2130</v>
+        <v>2132</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>2131</v>
+        <v>2133</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>2132</v>
+        <v>2134</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>2133</v>
+        <v>2135</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>2134</v>
+        <v>2136</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>2135</v>
+        <v>2137</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>2136</v>
+        <v>2138</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>2137</v>
+        <v>2139</v>
       </c>
       <c r="AB5" s="12" t="s">
-        <v>2138</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="6">
@@ -14953,85 +14959,85 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>2139</v>
+        <v>2141</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>2140</v>
+        <v>2142</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>2141</v>
+        <v>2143</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>2142</v>
+        <v>2144</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>2143</v>
+        <v>2145</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>2144</v>
+        <v>2146</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>2145</v>
+        <v>2147</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>2146</v>
+        <v>2148</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>2147</v>
+        <v>2149</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>2148</v>
+        <v>2150</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>2149</v>
+        <v>2151</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>2150</v>
+        <v>2152</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>2151</v>
+        <v>2153</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>2152</v>
+        <v>2154</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>2153</v>
+        <v>2155</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>2154</v>
+        <v>2156</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>2155</v>
+        <v>2157</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>2156</v>
+        <v>2158</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>2157</v>
+        <v>2159</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>2158</v>
+        <v>2160</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>2159</v>
+        <v>2161</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>2160</v>
+        <v>2162</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>2161</v>
+        <v>2163</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>2162</v>
+        <v>2164</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="AB6" s="12" t="s">
-        <v>2163</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="7">
@@ -15039,85 +15045,85 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>2164</v>
+        <v>2166</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>2165</v>
+        <v>2167</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>2166</v>
+        <v>2168</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>2167</v>
+        <v>2169</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>2168</v>
+        <v>2170</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>2169</v>
+        <v>2171</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>1843</v>
+        <v>1845</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>2170</v>
+        <v>2172</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>2171</v>
+        <v>2173</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>2172</v>
+        <v>2174</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>1864</v>
+        <v>1866</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>2173</v>
+        <v>2175</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>2174</v>
+        <v>2176</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>1868</v>
+        <v>1870</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>2175</v>
+        <v>2177</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>2176</v>
+        <v>2178</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>2177</v>
+        <v>2179</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>2178</v>
+        <v>2180</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>2179</v>
+        <v>2181</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>2180</v>
+        <v>2182</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>2181</v>
+        <v>2183</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>2182</v>
+        <v>2184</v>
       </c>
       <c r="AB7" s="12" t="s">
-        <v>2183</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="8">
@@ -15125,85 +15131,85 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>2184</v>
+        <v>2186</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2185</v>
+        <v>2187</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>2186</v>
+        <v>2188</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>2187</v>
+        <v>2189</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>2188</v>
+        <v>2190</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>2189</v>
+        <v>2191</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>2190</v>
+        <v>2192</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>2191</v>
+        <v>2193</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>2192</v>
+        <v>2194</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>2193</v>
+        <v>2195</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>1823</v>
+        <v>1825</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>2194</v>
+        <v>2196</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>2195</v>
+        <v>2197</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>2196</v>
+        <v>2198</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>2197</v>
+        <v>2199</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>2198</v>
+        <v>2200</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>2199</v>
+        <v>2201</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>2200</v>
+        <v>2202</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>2201</v>
+        <v>2203</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>2202</v>
+        <v>2204</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>2203</v>
+        <v>2205</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>2204</v>
+        <v>2206</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>2205</v>
+        <v>2207</v>
       </c>
       <c r="AB8" s="12" t="s">
-        <v>2206</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="9">
@@ -15211,85 +15217,85 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>2207</v>
+        <v>2209</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>2208</v>
+        <v>2210</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>2209</v>
+        <v>2211</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>2210</v>
+        <v>2212</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>2211</v>
+        <v>2213</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>2213</v>
+        <v>2215</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>2214</v>
+        <v>2216</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>2218</v>
+        <v>2220</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>2219</v>
+        <v>2221</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>2220</v>
+        <v>2222</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>2221</v>
+        <v>2223</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>2222</v>
+        <v>2224</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>2223</v>
+        <v>2225</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>2224</v>
+        <v>2226</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>2225</v>
+        <v>2227</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>2227</v>
+        <v>2229</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>2228</v>
+        <v>2230</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>2229</v>
+        <v>2231</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>2230</v>
+        <v>2232</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>2231</v>
+        <v>2233</v>
       </c>
       <c r="AB9" s="12" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="10">
@@ -15297,85 +15303,85 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>2233</v>
+        <v>2235</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>2234</v>
+        <v>2236</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>2235</v>
+        <v>2237</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>2236</v>
+        <v>2238</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>2237</v>
+        <v>2239</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>2238</v>
+        <v>2240</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>2239</v>
+        <v>2241</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>2240</v>
+        <v>2242</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>2241</v>
+        <v>2243</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>2242</v>
+        <v>2244</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>2243</v>
+        <v>2245</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>2244</v>
+        <v>2246</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>2245</v>
+        <v>2247</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>2246</v>
+        <v>2248</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>2247</v>
+        <v>2249</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>2248</v>
+        <v>2250</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>2250</v>
+        <v>2252</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>2251</v>
+        <v>2253</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>2252</v>
+        <v>2254</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>2253</v>
+        <v>2255</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>2254</v>
+        <v>2256</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>2255</v>
+        <v>2257</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>2256</v>
+        <v>2258</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>2257</v>
+        <v>2259</v>
       </c>
       <c r="AB10" s="12" t="s">
-        <v>2091</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="11">
@@ -15383,85 +15389,85 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>2258</v>
+        <v>2260</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>2259</v>
+        <v>2261</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>2260</v>
+        <v>2262</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>2261</v>
+        <v>2263</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>2262</v>
+        <v>2264</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>2263</v>
+        <v>2265</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>2264</v>
+        <v>2266</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>2265</v>
+        <v>2267</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>2266</v>
+        <v>2268</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>2267</v>
+        <v>2269</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>2268</v>
+        <v>2270</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>2269</v>
+        <v>2271</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>2270</v>
+        <v>2272</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>2271</v>
+        <v>2273</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>2272</v>
+        <v>2274</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>2273</v>
+        <v>2275</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>2274</v>
+        <v>2276</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>2275</v>
+        <v>2277</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>2277</v>
+        <v>2279</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>2279</v>
+        <v>2281</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>2280</v>
+        <v>2282</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>2281</v>
+        <v>2283</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>2282</v>
+        <v>2284</v>
       </c>
       <c r="AB11" s="12" t="s">
-        <v>2115</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="12">
@@ -15469,85 +15475,85 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>2283</v>
+        <v>2285</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>2284</v>
+        <v>2286</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>2285</v>
+        <v>2287</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>2286</v>
+        <v>2288</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>2287</v>
+        <v>2289</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>2288</v>
+        <v>2290</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>2289</v>
+        <v>2291</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>2290</v>
+        <v>2292</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>2291</v>
+        <v>2293</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>2292</v>
+        <v>2294</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>2293</v>
+        <v>2295</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>2294</v>
+        <v>2296</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>2295</v>
+        <v>2297</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>1871</v>
+        <v>1873</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>2296</v>
+        <v>2298</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>2297</v>
+        <v>2299</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>2298</v>
+        <v>2300</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>2299</v>
+        <v>2301</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>2300</v>
+        <v>2302</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>2301</v>
+        <v>2303</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>2302</v>
+        <v>2304</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>2303</v>
+        <v>2305</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>2304</v>
+        <v>2306</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>2305</v>
+        <v>2307</v>
       </c>
       <c r="AB12" s="12" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="13">
@@ -15555,85 +15561,85 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>2307</v>
+        <v>2309</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>2308</v>
+        <v>2310</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>2309</v>
+        <v>2311</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>2310</v>
+        <v>2312</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>2312</v>
+        <v>2314</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>2313</v>
+        <v>2315</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>2314</v>
+        <v>2316</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>2317</v>
+        <v>2319</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>2319</v>
+        <v>2321</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>2323</v>
+        <v>2325</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>2324</v>
+        <v>2326</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>2325</v>
+        <v>2327</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>2326</v>
+        <v>2328</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>2327</v>
+        <v>2329</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>2328</v>
+        <v>2330</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>2329</v>
+        <v>2331</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="14">
@@ -15641,85 +15647,85 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>2332</v>
+        <v>2334</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>2333</v>
+        <v>2335</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>2334</v>
+        <v>2336</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>2335</v>
+        <v>2337</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>2336</v>
+        <v>2338</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>2337</v>
+        <v>2339</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>2338</v>
+        <v>2340</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>1861</v>
+        <v>1863</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>2339</v>
+        <v>2341</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>2340</v>
+        <v>2342</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>2341</v>
+        <v>2343</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>2342</v>
+        <v>2344</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>1798</v>
+        <v>1800</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>1867</v>
+        <v>1869</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>2343</v>
+        <v>2345</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>2344</v>
+        <v>2346</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>2345</v>
+        <v>2347</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>2346</v>
+        <v>2348</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>2347</v>
+        <v>2349</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>2348</v>
+        <v>2350</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>2349</v>
+        <v>2351</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>2350</v>
+        <v>2352</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>2351</v>
+        <v>2353</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>2352</v>
+        <v>2354</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>2353</v>
+        <v>2355</v>
       </c>
       <c r="AB14" s="12" t="s">
-        <v>2354</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="15">
@@ -15727,85 +15733,85 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>2355</v>
+        <v>2357</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>2356</v>
+        <v>2358</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>2357</v>
+        <v>2359</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>2358</v>
+        <v>2360</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>2359</v>
+        <v>2361</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>2360</v>
+        <v>2362</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>2361</v>
+        <v>2363</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>1813</v>
+        <v>1815</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>2362</v>
+        <v>2364</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>2363</v>
+        <v>2365</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>2364</v>
+        <v>2366</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>1795</v>
+        <v>1797</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>2365</v>
+        <v>2367</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>2367</v>
+        <v>2369</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>2368</v>
+        <v>2370</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>2369</v>
+        <v>2371</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>2370</v>
+        <v>2372</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>2371</v>
+        <v>2373</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>2372</v>
+        <v>2374</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>2373</v>
+        <v>2375</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>1805</v>
+        <v>1807</v>
       </c>
       <c r="AB15" s="12" t="s">
-        <v>2374</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="16">
@@ -15813,85 +15819,85 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>2375</v>
+        <v>2377</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>2377</v>
+        <v>2379</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>2378</v>
+        <v>2380</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>2379</v>
+        <v>2381</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>2380</v>
+        <v>2382</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>2381</v>
+        <v>2383</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>2382</v>
+        <v>2384</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>2383</v>
+        <v>2385</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>2384</v>
+        <v>2386</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>2385</v>
+        <v>2387</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>2386</v>
+        <v>2388</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>2387</v>
+        <v>2389</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>2389</v>
+        <v>2391</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>2390</v>
+        <v>2392</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>2391</v>
+        <v>2393</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>2392</v>
+        <v>2394</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>2393</v>
+        <v>2395</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>2394</v>
+        <v>2396</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>2396</v>
+        <v>2398</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>2397</v>
+        <v>2399</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>2398</v>
+        <v>2400</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>2399</v>
+        <v>2401</v>
       </c>
       <c r="AB16" s="12" t="s">
-        <v>2400</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="17">
@@ -15899,85 +15905,85 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>2401</v>
+        <v>2403</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>2402</v>
+        <v>2404</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>2403</v>
+        <v>2405</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>2404</v>
+        <v>2406</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>2405</v>
+        <v>2407</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>2406</v>
+        <v>2408</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>2407</v>
+        <v>2409</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>2408</v>
+        <v>2410</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>1834</v>
+        <v>1836</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>2409</v>
+        <v>2411</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>2410</v>
+        <v>2412</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>2411</v>
+        <v>2413</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>2412</v>
+        <v>2414</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>2413</v>
+        <v>2415</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>2414</v>
+        <v>2416</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>1863</v>
+        <v>1865</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>2415</v>
+        <v>2417</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>2416</v>
+        <v>2418</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>2417</v>
+        <v>2419</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>2418</v>
+        <v>2420</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>2419</v>
+        <v>2421</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>2420</v>
+        <v>2422</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>2422</v>
+        <v>2424</v>
       </c>
       <c r="AB17" s="12" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="18">
@@ -15985,85 +15991,85 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>2426</v>
+        <v>2428</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>2427</v>
+        <v>2429</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1828</v>
+        <v>1830</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>2429</v>
+        <v>2431</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>2430</v>
+        <v>2432</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>2431</v>
+        <v>2433</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>2432</v>
+        <v>2434</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>2433</v>
+        <v>2435</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>2434</v>
+        <v>2436</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>2435</v>
+        <v>2437</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>2437</v>
+        <v>2439</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>1837</v>
+        <v>1839</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>2438</v>
+        <v>2440</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>2439</v>
+        <v>2441</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>2440</v>
+        <v>2442</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>2441</v>
+        <v>2443</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>2442</v>
+        <v>2444</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>2443</v>
+        <v>2445</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>2444</v>
+        <v>2446</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>2445</v>
+        <v>2447</v>
       </c>
       <c r="AB18" s="12" t="s">
-        <v>2183</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="19">
@@ -16071,85 +16077,85 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>2446</v>
+        <v>2448</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>2447</v>
+        <v>2449</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>2450</v>
+        <v>2452</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>2451</v>
+        <v>2453</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>2452</v>
+        <v>2454</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>2453</v>
+        <v>2455</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>2454</v>
+        <v>2456</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>2455</v>
+        <v>2457</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>2456</v>
+        <v>2458</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>2457</v>
+        <v>2459</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>2459</v>
+        <v>2461</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>2460</v>
+        <v>2462</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>2461</v>
+        <v>2463</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>2462</v>
+        <v>2464</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>2463</v>
+        <v>2465</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>2464</v>
+        <v>2466</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>2465</v>
+        <v>2467</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>2466</v>
+        <v>2468</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>2467</v>
+        <v>2469</v>
       </c>
       <c r="AB19" s="12" t="s">
-        <v>2468</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="20">
@@ -16157,85 +16163,85 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>2469</v>
+        <v>2471</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>2471</v>
+        <v>2473</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>2472</v>
+        <v>2474</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>2473</v>
+        <v>2475</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>2474</v>
+        <v>2476</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>2475</v>
+        <v>2477</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>1822</v>
+        <v>1824</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>2476</v>
+        <v>2478</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>2477</v>
+        <v>2479</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>2478</v>
+        <v>2480</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>2479</v>
+        <v>2481</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>2480</v>
+        <v>2482</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>2481</v>
+        <v>2483</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>2482</v>
+        <v>2484</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>2484</v>
+        <v>2486</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>2485</v>
+        <v>2487</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>2486</v>
+        <v>2488</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>2487</v>
+        <v>2489</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>2488</v>
+        <v>2490</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>2489</v>
+        <v>2491</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>2490</v>
+        <v>2492</v>
       </c>
       <c r="AB20" s="12" t="s">
-        <v>2491</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="21">
@@ -16243,85 +16249,85 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>2492</v>
+        <v>2494</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>2493</v>
+        <v>2495</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>2494</v>
+        <v>2496</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>2495</v>
+        <v>2497</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>2496</v>
+        <v>2498</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1850</v>
+        <v>1852</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>2497</v>
+        <v>2499</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>2499</v>
+        <v>2501</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>2500</v>
+        <v>2502</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>2501</v>
+        <v>2503</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>2502</v>
+        <v>2504</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>2503</v>
+        <v>2505</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>2504</v>
+        <v>2506</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>2505</v>
+        <v>2507</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>2506</v>
+        <v>2508</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>2507</v>
+        <v>2509</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>2508</v>
+        <v>2510</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>2509</v>
+        <v>2511</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>2510</v>
+        <v>2512</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>2511</v>
+        <v>2513</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>2512</v>
+        <v>2514</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>2513</v>
+        <v>2515</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>2514</v>
+        <v>2516</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="AB21" s="12" t="s">
-        <v>2515</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="22">
@@ -16329,85 +16335,85 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>2516</v>
+        <v>2518</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>2517</v>
+        <v>2519</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>2518</v>
+        <v>2520</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>2519</v>
+        <v>2521</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>2520</v>
+        <v>2522</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>2521</v>
+        <v>2523</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>2522</v>
+        <v>2524</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>2523</v>
+        <v>2525</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>2524</v>
+        <v>2526</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>2525</v>
+        <v>2527</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>2526</v>
+        <v>2528</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>2527</v>
+        <v>2529</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>1852</v>
+        <v>1854</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>2528</v>
+        <v>2530</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>2529</v>
+        <v>2531</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>2530</v>
+        <v>2532</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>2531</v>
+        <v>2533</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>2532</v>
+        <v>2534</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>2533</v>
+        <v>2535</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>2534</v>
+        <v>2536</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>2535</v>
+        <v>2537</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>2536</v>
+        <v>2538</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>2537</v>
+        <v>2539</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>2538</v>
+        <v>2540</v>
       </c>
       <c r="AB22" s="12" t="s">
-        <v>2539</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="23">
@@ -16415,85 +16421,85 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>2540</v>
+        <v>2542</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>2541</v>
+        <v>2543</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>2542</v>
+        <v>2544</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>2543</v>
+        <v>2545</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>2544</v>
+        <v>2546</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>2545</v>
+        <v>2547</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>2546</v>
+        <v>2548</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>2547</v>
+        <v>2549</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>2548</v>
+        <v>2550</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>2549</v>
+        <v>2551</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>2550</v>
+        <v>2552</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>2552</v>
+        <v>2554</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>2553</v>
+        <v>2555</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>2554</v>
+        <v>2556</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>2555</v>
+        <v>2557</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>2557</v>
+        <v>2559</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>2558</v>
+        <v>2560</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>2559</v>
+        <v>2561</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>1857</v>
+        <v>1859</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>2560</v>
+        <v>2562</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>2561</v>
+        <v>2563</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>2562</v>
+        <v>2564</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>2563</v>
+        <v>2565</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>2564</v>
+        <v>2566</v>
       </c>
       <c r="AB23" s="12" t="s">
-        <v>2565</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="24">
@@ -16501,85 +16507,85 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>2566</v>
+        <v>2568</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>2567</v>
+        <v>2569</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>2568</v>
+        <v>2570</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>2569</v>
+        <v>2571</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>2570</v>
+        <v>2572</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>2571</v>
+        <v>2573</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>1808</v>
+        <v>1810</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>2572</v>
+        <v>2574</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>2573</v>
+        <v>2575</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>2574</v>
+        <v>2576</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>2575</v>
+        <v>2577</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>2576</v>
+        <v>2578</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>2577</v>
+        <v>2579</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>2578</v>
+        <v>2580</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>2579</v>
+        <v>2581</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>2580</v>
+        <v>2582</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>2581</v>
+        <v>2583</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>2582</v>
+        <v>2584</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>2583</v>
+        <v>2585</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>2584</v>
+        <v>2586</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>2585</v>
+        <v>2587</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>2586</v>
+        <v>2588</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>2587</v>
+        <v>2589</v>
       </c>
       <c r="Y24" s="5" t="s">
-        <v>2588</v>
+        <v>2590</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>2589</v>
+        <v>2591</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>2590</v>
+        <v>2592</v>
       </c>
       <c r="AB24" s="12" t="s">
-        <v>2591</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="25">
@@ -16587,85 +16593,85 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>2592</v>
+        <v>2594</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>2593</v>
+        <v>2595</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>2594</v>
+        <v>2596</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>2595</v>
+        <v>2597</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>2596</v>
+        <v>2598</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>2597</v>
+        <v>2599</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>2598</v>
+        <v>2600</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>2599</v>
+        <v>2601</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>2600</v>
+        <v>2602</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>2601</v>
+        <v>2603</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>2602</v>
+        <v>2604</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>2603</v>
+        <v>2605</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>2604</v>
+        <v>2606</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>2605</v>
+        <v>2607</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>2606</v>
+        <v>2608</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>2607</v>
+        <v>2609</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>2608</v>
+        <v>2610</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>2609</v>
+        <v>2611</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>2610</v>
+        <v>2612</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>2611</v>
+        <v>2613</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>2612</v>
+        <v>2614</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>2613</v>
+        <v>2615</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>2614</v>
+        <v>2616</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>2615</v>
+        <v>2617</v>
       </c>
       <c r="AB25" s="12" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="26">
@@ -16673,85 +16679,85 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>2616</v>
+        <v>2618</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>2617</v>
+        <v>2619</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>2618</v>
+        <v>2620</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>2619</v>
+        <v>2621</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>2620</v>
+        <v>2622</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>2621</v>
+        <v>2623</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>2622</v>
+        <v>2624</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>2623</v>
+        <v>2625</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>2624</v>
+        <v>2626</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>2625</v>
+        <v>2627</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>2626</v>
+        <v>2628</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>2627</v>
+        <v>2629</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>2628</v>
+        <v>2630</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>1876</v>
+        <v>1878</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>2629</v>
+        <v>2631</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>2630</v>
+        <v>2632</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>2631</v>
+        <v>2633</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>2633</v>
+        <v>2635</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>2634</v>
+        <v>2636</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>2635</v>
+        <v>2637</v>
       </c>
       <c r="Y26" s="5" t="s">
-        <v>2636</v>
+        <v>2638</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>2637</v>
+        <v>2639</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>2638</v>
+        <v>2640</v>
       </c>
       <c r="AB26" s="12" t="s">
-        <v>2639</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="27">
@@ -16759,85 +16765,85 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>2640</v>
+        <v>2642</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>2641</v>
+        <v>2643</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>2642</v>
+        <v>2644</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>2643</v>
+        <v>2645</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>2644</v>
+        <v>2646</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>2645</v>
+        <v>2647</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>2646</v>
+        <v>2648</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>2647</v>
+        <v>2649</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>2648</v>
+        <v>2650</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>2649</v>
+        <v>2651</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>2650</v>
+        <v>2652</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>2651</v>
+        <v>2653</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>2652</v>
+        <v>2654</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>2653</v>
+        <v>2655</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>2654</v>
+        <v>2656</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>2655</v>
+        <v>2657</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>2656</v>
+        <v>2658</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>2657</v>
+        <v>2659</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>2658</v>
+        <v>2660</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>2659</v>
+        <v>2661</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>2660</v>
+        <v>2662</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>2661</v>
+        <v>2663</v>
       </c>
       <c r="Y27" s="5" t="s">
-        <v>2662</v>
+        <v>2664</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>2663</v>
+        <v>2665</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>2664</v>
+        <v>2666</v>
       </c>
       <c r="AB27" s="12" t="s">
-        <v>2665</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="28">
@@ -16845,85 +16851,85 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>2666</v>
+        <v>2668</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>2667</v>
+        <v>2669</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>2668</v>
+        <v>2670</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>2669</v>
+        <v>2671</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>2670</v>
+        <v>2672</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>2671</v>
+        <v>2673</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>1830</v>
+        <v>1832</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>2672</v>
+        <v>2674</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>2673</v>
+        <v>2675</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>2674</v>
+        <v>2676</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>2675</v>
+        <v>2677</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>2676</v>
+        <v>2678</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>2677</v>
+        <v>2679</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>2678</v>
+        <v>2680</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>2679</v>
+        <v>2681</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>2681</v>
+        <v>2683</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>2682</v>
+        <v>2684</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>2683</v>
+        <v>2685</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>2684</v>
+        <v>2686</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>2685</v>
+        <v>2687</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>2686</v>
+        <v>2688</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>2687</v>
+        <v>2689</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>2688</v>
+        <v>2690</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>2689</v>
+        <v>2691</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>2690</v>
+        <v>2692</v>
       </c>
       <c r="AB28" s="12" t="s">
-        <v>2691</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="29">
@@ -16931,85 +16937,85 @@
         <v>45</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>2692</v>
+        <v>2694</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>2693</v>
+        <v>2695</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>2694</v>
+        <v>2696</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>2695</v>
+        <v>2697</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>2696</v>
+        <v>2698</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>2697</v>
+        <v>2699</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>2698</v>
+        <v>2700</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>2699</v>
+        <v>2701</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>2701</v>
+        <v>2703</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>2702</v>
+        <v>2704</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>2703</v>
+        <v>2705</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>2704</v>
+        <v>2706</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>2705</v>
+        <v>2707</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>2706</v>
+        <v>2708</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>2707</v>
+        <v>2709</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>2708</v>
+        <v>2710</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>2709</v>
+        <v>2711</v>
       </c>
       <c r="T29" s="9" t="s">
-        <v>2710</v>
+        <v>2712</v>
       </c>
       <c r="U29" s="9" t="s">
-        <v>2711</v>
+        <v>2713</v>
       </c>
       <c r="V29" s="9" t="s">
-        <v>2712</v>
+        <v>2714</v>
       </c>
       <c r="W29" s="9" t="s">
-        <v>2713</v>
+        <v>2715</v>
       </c>
       <c r="X29" s="9" t="s">
-        <v>2477</v>
+        <v>2479</v>
       </c>
       <c r="Y29" s="9" t="s">
-        <v>2714</v>
+        <v>2716</v>
       </c>
       <c r="Z29" s="9" t="s">
-        <v>2715</v>
+        <v>2717</v>
       </c>
       <c r="AA29" s="9" t="s">
-        <v>2716</v>
+        <v>2718</v>
       </c>
       <c r="AB29" s="12" t="s">
-        <v>2717</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="30">
@@ -17017,85 +17023,85 @@
         <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>2718</v>
+        <v>2720</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>2719</v>
+        <v>2721</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>2720</v>
+        <v>2722</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>2721</v>
+        <v>2723</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>2722</v>
+        <v>2724</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>2723</v>
+        <v>2725</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>2724</v>
+        <v>2726</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>2725</v>
+        <v>2727</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>2726</v>
+        <v>2728</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>2727</v>
+        <v>2729</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>2728</v>
+        <v>2730</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>2729</v>
+        <v>2731</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>2730</v>
+        <v>2732</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>2731</v>
+        <v>2733</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>2732</v>
+        <v>2734</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>2733</v>
+        <v>2735</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>2734</v>
+        <v>2736</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>2735</v>
+        <v>2737</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>2736</v>
+        <v>2738</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>2737</v>
+        <v>2739</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>2738</v>
+        <v>2740</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>2739</v>
+        <v>2741</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>2740</v>
+        <v>2742</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>2741</v>
+        <v>2743</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>2742</v>
+        <v>2744</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>2743</v>
+        <v>2745</v>
       </c>
       <c r="AB30" s="3" t="s">
-        <v>2744</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="31">
@@ -17103,85 +17109,85 @@
         <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2745</v>
+        <v>2747</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>2746</v>
+        <v>2748</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>2747</v>
+        <v>2749</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>2748</v>
+        <v>2750</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>2749</v>
+        <v>2751</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>2750</v>
+        <v>2752</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>2751</v>
+        <v>2753</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>2752</v>
+        <v>2754</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>2753</v>
+        <v>2755</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>2754</v>
+        <v>2756</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>2755</v>
+        <v>2757</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>2756</v>
+        <v>2758</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>2757</v>
+        <v>2759</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>2758</v>
+        <v>2760</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>2759</v>
+        <v>2761</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>2760</v>
+        <v>2762</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>2761</v>
+        <v>2763</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>2762</v>
+        <v>2764</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>2763</v>
+        <v>2765</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>2765</v>
+        <v>2767</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>2766</v>
+        <v>2768</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>2767</v>
+        <v>2769</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>2768</v>
+        <v>2770</v>
       </c>
       <c r="Z31" s="2" t="s">
-        <v>2769</v>
+        <v>2771</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>2770</v>
+        <v>2772</v>
       </c>
       <c r="AB31" s="3" t="s">
-        <v>2771</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="32">
@@ -17267,7 +17273,7 @@
         <v>161</v>
       </c>
       <c r="AB32" s="12" t="s">
-        <v>2772</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="33">
@@ -17353,7 +17359,7 @@
         <v>161</v>
       </c>
       <c r="AB33" s="12" t="s">
-        <v>2773</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="34">
@@ -17439,7 +17445,7 @@
         <v>161</v>
       </c>
       <c r="AB34" s="12" t="s">
-        <v>2774</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="35">
@@ -17525,7 +17531,7 @@
         <v>161</v>
       </c>
       <c r="AB35" s="12" t="s">
-        <v>2775</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="36">
@@ -17533,85 +17539,85 @@
         <v>67</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>2776</v>
+        <v>2778</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>2777</v>
+        <v>2779</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2778</v>
+        <v>2780</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1902</v>
+        <v>1904</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>2779</v>
+        <v>2781</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>2780</v>
+        <v>2782</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>2781</v>
+        <v>2783</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>2783</v>
+        <v>2785</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>2784</v>
+        <v>2786</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>2785</v>
+        <v>2787</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>2786</v>
+        <v>2788</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>2787</v>
+        <v>2789</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>2788</v>
+        <v>2790</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>2789</v>
+        <v>2791</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>2790</v>
+        <v>2792</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>2791</v>
+        <v>2793</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>2792</v>
+        <v>2794</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>2793</v>
+        <v>2795</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>2794</v>
+        <v>2796</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>2795</v>
+        <v>2797</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>2796</v>
+        <v>2798</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>2797</v>
+        <v>2799</v>
       </c>
       <c r="Y36" s="2" t="s">
-        <v>2798</v>
+        <v>2800</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>2799</v>
+        <v>2801</v>
       </c>
       <c r="AA36" s="2" t="s">
-        <v>2800</v>
+        <v>2802</v>
       </c>
       <c r="AB36" s="3" t="s">
-        <v>2801</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="37">
@@ -17697,7 +17703,7 @@
         <v>161</v>
       </c>
       <c r="AB37" s="12" t="s">
-        <v>2802</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="38">
@@ -17783,7 +17789,7 @@
         <v>161</v>
       </c>
       <c r="AB38" s="12" t="s">
-        <v>2803</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="39">
@@ -17869,7 +17875,7 @@
         <v>161</v>
       </c>
       <c r="AB39" s="12" t="s">
-        <v>2804</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="40">
@@ -17955,7 +17961,7 @@
         <v>161</v>
       </c>
       <c r="AB40" s="12" t="s">
-        <v>2805</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="41">
@@ -18041,7 +18047,7 @@
         <v>161</v>
       </c>
       <c r="AB41" s="12" t="s">
-        <v>2806</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="42">
@@ -18132,88 +18138,88 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2807</v>
+        <v>2809</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2808</v>
+        <v>2810</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2809</v>
+        <v>2811</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>2810</v>
+        <v>2812</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>2811</v>
+        <v>2813</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>2812</v>
+        <v>2814</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>2813</v>
+        <v>2815</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>2814</v>
+        <v>2816</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>2815</v>
+        <v>2817</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>2816</v>
+        <v>2818</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>2817</v>
+        <v>2819</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>2818</v>
+        <v>2820</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>2819</v>
+        <v>2821</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>2820</v>
+        <v>2822</v>
       </c>
       <c r="O43" s="11" t="s">
-        <v>2821</v>
+        <v>2823</v>
       </c>
       <c r="P43" s="9" t="s">
-        <v>2822</v>
+        <v>2824</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>2823</v>
+        <v>2825</v>
       </c>
       <c r="R43" s="9" t="s">
-        <v>2824</v>
+        <v>2826</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>2825</v>
+        <v>2827</v>
       </c>
       <c r="T43" s="9" t="s">
-        <v>2826</v>
+        <v>2828</v>
       </c>
       <c r="U43" s="9" t="s">
-        <v>2827</v>
+        <v>2829</v>
       </c>
       <c r="V43" s="9" t="s">
-        <v>2828</v>
+        <v>2830</v>
       </c>
       <c r="W43" s="9" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="X43" s="9" t="s">
-        <v>2830</v>
+        <v>2832</v>
       </c>
       <c r="Y43" s="9" t="s">
-        <v>2831</v>
+        <v>2833</v>
       </c>
       <c r="Z43" s="9" t="s">
-        <v>2832</v>
+        <v>2834</v>
       </c>
       <c r="AA43" s="9" t="s">
-        <v>2833</v>
+        <v>2835</v>
       </c>
       <c r="AB43" s="12" t="s">
-        <v>2354</v>
+        <v>2356</v>
       </c>
     </row>
   </sheetData>
@@ -18239,7 +18245,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2834</v>
+        <v>2836</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -18253,16 +18259,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2835</v>
+        <v>2837</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2836</v>
+        <v>2838</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2837</v>
+        <v>2839</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>2838</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="3">
@@ -18270,10 +18276,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2839</v>
+        <v>2841</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2840</v>
+        <v>2842</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>19</v>
@@ -18284,10 +18290,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2841</v>
+        <v>2843</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>2842</v>
+        <v>2844</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>19</v>
@@ -18298,10 +18304,10 @@
         <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2843</v>
+        <v>2845</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2844</v>
+        <v>2846</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>19</v>
@@ -18312,10 +18318,10 @@
         <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2845</v>
+        <v>2847</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>2846</v>
+        <v>2848</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>19</v>
@@ -18326,10 +18332,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>2847</v>
+        <v>2849</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2848</v>
+        <v>2850</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>19</v>
@@ -18340,10 +18346,10 @@
         <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>2849</v>
+        <v>2851</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2850</v>
+        <v>2852</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>19</v>
@@ -18354,10 +18360,10 @@
         <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>2851</v>
+        <v>2853</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>2852</v>
+        <v>2854</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>19</v>
@@ -18368,10 +18374,10 @@
         <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2853</v>
+        <v>2855</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>2854</v>
+        <v>2856</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>19</v>
@@ -18382,10 +18388,10 @@
         <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>2855</v>
+        <v>2857</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>2856</v>
+        <v>2858</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>19</v>
@@ -18396,10 +18402,10 @@
         <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>2857</v>
+        <v>2859</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>2858</v>
+        <v>2860</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>19</v>
@@ -18410,10 +18416,10 @@
         <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2859</v>
+        <v>2861</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>2860</v>
+        <v>2862</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>19</v>
@@ -18424,10 +18430,10 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2861</v>
+        <v>2863</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>2862</v>
+        <v>2864</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>19</v>
@@ -18438,10 +18444,10 @@
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>2863</v>
+        <v>2865</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>2864</v>
+        <v>2866</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>19</v>
@@ -18452,10 +18458,10 @@
         <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>2865</v>
+        <v>2867</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>2866</v>
+        <v>2868</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>19</v>
@@ -18466,10 +18472,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>2867</v>
+        <v>2869</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>2868</v>
+        <v>2870</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>19</v>
@@ -18480,10 +18486,10 @@
         <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>2869</v>
+        <v>2871</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>2870</v>
+        <v>2872</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>19</v>
@@ -18494,10 +18500,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>2871</v>
+        <v>2873</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>2872</v>
+        <v>2874</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>19</v>
@@ -18508,10 +18514,10 @@
         <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>2873</v>
+        <v>2875</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>2874</v>
+        <v>2876</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>19</v>
@@ -18522,10 +18528,10 @@
         <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>2875</v>
+        <v>2877</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>2876</v>
+        <v>2878</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>19</v>
@@ -18536,10 +18542,10 @@
         <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>2877</v>
+        <v>2879</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>2878</v>
+        <v>2880</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>19</v>
@@ -18550,10 +18556,10 @@
         <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>2879</v>
+        <v>2881</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>2880</v>
+        <v>2882</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>19</v>
@@ -18564,10 +18570,10 @@
         <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>2881</v>
+        <v>2883</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>2882</v>
+        <v>2884</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>19</v>
@@ -18578,10 +18584,10 @@
         <v>41</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>2883</v>
+        <v>2885</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>2884</v>
+        <v>2886</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>19</v>
@@ -18592,10 +18598,10 @@
         <v>42</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>2885</v>
+        <v>2887</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>2886</v>
+        <v>2888</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>19</v>
@@ -18606,10 +18612,10 @@
         <v>43</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>2887</v>
+        <v>2889</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>2888</v>
+        <v>2890</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>19</v>
@@ -18620,10 +18626,10 @@
         <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>2889</v>
+        <v>2891</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>2890</v>
+        <v>2892</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>19</v>
@@ -18634,13 +18640,13 @@
         <v>45</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>2891</v>
+        <v>2893</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>2892</v>
+        <v>2894</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>2893</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="30">
@@ -18648,13 +18654,13 @@
         <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>2894</v>
+        <v>2896</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>2895</v>
+        <v>2897</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>2896</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="31">
@@ -18662,13 +18668,13 @@
         <v>62</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>2897</v>
+        <v>2899</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>2898</v>
+        <v>2900</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>2899</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="32">
@@ -18676,13 +18682,13 @@
         <v>63</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>2900</v>
+        <v>2902</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>2901</v>
+        <v>2903</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>2902</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="33">
@@ -18690,13 +18696,13 @@
         <v>64</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>2903</v>
+        <v>2905</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>2904</v>
+        <v>2906</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>2905</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="34">
@@ -18704,13 +18710,13 @@
         <v>65</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>2906</v>
+        <v>2908</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>2907</v>
+        <v>2909</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>2908</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="35">
@@ -18724,7 +18730,7 @@
         <v>56</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>2909</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="36">
@@ -18732,13 +18738,13 @@
         <v>67</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>2910</v>
+        <v>2912</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>2911</v>
+        <v>2913</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>2912</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="37">
@@ -18746,13 +18752,13 @@
         <v>76</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>2913</v>
+        <v>2915</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>2914</v>
+        <v>2916</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>2915</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="38">
@@ -18760,13 +18766,13 @@
         <v>77</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>2916</v>
+        <v>2918</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>2917</v>
+        <v>2919</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>2918</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="39">
@@ -18780,7 +18786,7 @@
         <v>56</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>2919</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="40">
@@ -18794,7 +18800,7 @@
         <v>56</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>2920</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="41">
@@ -18802,10 +18808,10 @@
         <v>80</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>2921</v>
+        <v>2923</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>2922</v>
+        <v>2924</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>295</v>
@@ -18827,16 +18833,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2923</v>
+        <v>2925</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2924</v>
+        <v>2926</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2925</v>
+        <v>2927</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>2926</v>
+        <v>2928</v>
       </c>
     </row>
   </sheetData>

--- a/iceKnives32/Offline Documents (Periodic)/iceKnives32.xlsx
+++ b/iceKnives32/Offline Documents (Periodic)/iceKnives32.xlsx
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="2929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="2930">
   <si>
     <t>[]</t>
   </si>
@@ -5338,6 +5338,9 @@
   </si>
   <si>
     <t>cylinders</t>
+  </si>
+  <si>
+    <t>sta.gr</t>
   </si>
   <si>
     <t>quartz</t>
@@ -11261,8 +11264,8 @@
       <c r="G19" s="4" t="s">
         <v>1674</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>18</v>
+      <c r="H19" s="7" t="s">
+        <v>1675</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>19</v>
@@ -11273,7 +11276,7 @@
         <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>18</v>
@@ -11288,10 +11291,10 @@
         <v>18</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>19</v>
@@ -11302,7 +11305,7 @@
         <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>18</v>
@@ -11317,10 +11320,10 @@
         <v>18</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>19</v>
@@ -11331,7 +11334,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>18</v>
@@ -11346,10 +11349,10 @@
         <v>18</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>19</v>
@@ -11360,7 +11363,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>18</v>
@@ -11375,10 +11378,10 @@
         <v>18</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>19</v>
@@ -11389,7 +11392,7 @@
         <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>18</v>
@@ -11404,10 +11407,10 @@
         <v>18</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>19</v>
@@ -11418,7 +11421,7 @@
         <v>41</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>18</v>
@@ -11433,10 +11436,10 @@
         <v>18</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>19</v>
@@ -11447,7 +11450,7 @@
         <v>42</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>18</v>
@@ -11462,10 +11465,10 @@
         <v>18</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>19</v>
@@ -11476,7 +11479,7 @@
         <v>43</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>18</v>
@@ -11491,10 +11494,10 @@
         <v>18</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>19</v>
@@ -11505,7 +11508,7 @@
         <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>18</v>
@@ -11520,10 +11523,10 @@
         <v>18</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>19</v>
@@ -11937,7 +11940,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>91</v>
@@ -11961,7 +11964,7 @@
         <v>97</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
     </row>
   </sheetData>
@@ -11990,7 +11993,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -12019,28 +12022,28 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>303</v>
@@ -12051,25 +12054,25 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>19</v>
@@ -12080,25 +12083,25 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>1012</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>19</v>
@@ -12109,25 +12112,25 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>1027</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>19</v>
@@ -12138,25 +12141,25 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>747</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>19</v>
@@ -12167,25 +12170,25 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>456</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>19</v>
@@ -12196,25 +12199,25 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>124</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>19</v>
@@ -12225,25 +12228,25 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>360</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>19</v>
@@ -12254,25 +12257,25 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>19</v>
@@ -12283,25 +12286,25 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>488</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>19</v>
@@ -12312,25 +12315,25 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1119</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>19</v>
@@ -12341,25 +12344,25 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>470</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>19</v>
@@ -12370,25 +12373,25 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>211</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>19</v>
@@ -12399,25 +12402,25 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>19</v>
@@ -12428,25 +12431,25 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>625</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>19</v>
@@ -12457,25 +12460,25 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>768</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>19</v>
@@ -12486,25 +12489,25 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>845</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>19</v>
@@ -12515,25 +12518,25 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>1311</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>19</v>
@@ -12544,25 +12547,25 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>19</v>
@@ -12573,25 +12576,25 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>19</v>
@@ -12602,25 +12605,25 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>932</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>19</v>
@@ -12631,25 +12634,25 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>19</v>
@@ -12660,25 +12663,25 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>472</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>19</v>
@@ -12689,25 +12692,25 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>424</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>19</v>
@@ -12718,25 +12721,25 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>925</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>19</v>
@@ -12747,25 +12750,25 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>1383</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>19</v>
@@ -12776,25 +12779,25 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>429</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>19</v>
@@ -12805,25 +12808,25 @@
         <v>45</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>373</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>335</v>
@@ -12834,28 +12837,28 @@
         <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="31">
@@ -12863,28 +12866,28 @@
         <v>62</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="32">
@@ -12913,7 +12916,7 @@
         <v>61</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="33">
@@ -12942,7 +12945,7 @@
         <v>61</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="34">
@@ -12971,7 +12974,7 @@
         <v>61</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="35">
@@ -13000,7 +13003,7 @@
         <v>61</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="36">
@@ -13008,28 +13011,28 @@
         <v>67</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="37">
@@ -13058,7 +13061,7 @@
         <v>61</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="38">
@@ -13087,7 +13090,7 @@
         <v>61</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="39">
@@ -13116,7 +13119,7 @@
         <v>61</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="40">
@@ -13145,7 +13148,7 @@
         <v>61</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="41">
@@ -13174,7 +13177,7 @@
         <v>61</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="42">
@@ -13208,31 +13211,31 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
     </row>
   </sheetData>
@@ -13259,7 +13262,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -13288,28 +13291,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>19</v>
@@ -13320,13 +13323,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>18</v>
@@ -13349,13 +13352,13 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -13378,13 +13381,13 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>18</v>
@@ -13407,13 +13410,13 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>18</v>
@@ -13436,13 +13439,13 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>18</v>
@@ -13465,13 +13468,13 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>18</v>
@@ -13494,13 +13497,13 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>18</v>
@@ -13523,13 +13526,13 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>18</v>
@@ -13552,13 +13555,13 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>18</v>
@@ -13581,13 +13584,13 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>18</v>
@@ -13610,13 +13613,13 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>18</v>
@@ -13639,13 +13642,13 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>18</v>
@@ -13668,13 +13671,13 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>18</v>
@@ -13697,13 +13700,13 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>18</v>
@@ -13726,13 +13729,13 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>18</v>
@@ -13755,13 +13758,13 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>18</v>
@@ -13784,13 +13787,13 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>18</v>
@@ -13813,13 +13816,13 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>18</v>
@@ -13842,13 +13845,13 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>18</v>
@@ -13871,13 +13874,13 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>18</v>
@@ -13900,13 +13903,13 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>18</v>
@@ -13929,13 +13932,13 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>18</v>
@@ -13958,13 +13961,13 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>18</v>
@@ -13987,13 +13990,13 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>18</v>
@@ -14016,13 +14019,13 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>18</v>
@@ -14045,13 +14048,13 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>18</v>
@@ -14074,25 +14077,25 @@
         <v>45</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>19</v>
@@ -14477,31 +14480,31 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
     </row>
   </sheetData>
@@ -14526,7 +14529,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -14550,61 +14553,61 @@
         <v>7</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="Y1" s="9" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>8</v>
@@ -14612,88 +14615,88 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="3">
@@ -14701,85 +14704,85 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="AB3" s="12" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="4">
@@ -14787,85 +14790,85 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="5">
@@ -14873,85 +14876,85 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="AB5" s="12" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="6">
@@ -14959,85 +14962,85 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="AB6" s="12" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="7">
@@ -15045,85 +15048,85 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="AB7" s="12" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="8">
@@ -15131,85 +15134,85 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="AB8" s="12" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="9">
@@ -15217,85 +15220,85 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="AB9" s="12" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="10">
@@ -15303,85 +15306,85 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="AB10" s="12" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="11">
@@ -15389,85 +15392,85 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="AB11" s="12" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="12">
@@ -15475,85 +15478,85 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="AB12" s="12" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="13">
@@ -15561,85 +15564,85 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="14">
@@ -15647,85 +15650,85 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="AB14" s="12" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="15">
@@ -15733,85 +15736,85 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>2362</v>
+        <v>2363</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="AB15" s="12" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="16">
@@ -15819,85 +15822,85 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="AB16" s="12" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="17">
@@ -15905,85 +15908,85 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
       <c r="AB17" s="12" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="18">
@@ -15991,85 +15994,85 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>2432</v>
+        <v>2433</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>2435</v>
+        <v>2436</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>2437</v>
+        <v>2438</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>2439</v>
+        <v>2440</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="AB18" s="12" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="19">
@@ -16077,85 +16080,85 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>2453</v>
+        <v>2454</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>2455</v>
+        <v>2456</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>2460</v>
+        <v>2461</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>2466</v>
+        <v>2467</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>2467</v>
+        <v>2468</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="AB19" s="12" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="20">
@@ -16163,85 +16166,85 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>2475</v>
+        <v>2476</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>2476</v>
+        <v>2477</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>2477</v>
+        <v>2478</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>2481</v>
+        <v>2482</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>2482</v>
+        <v>2483</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>2483</v>
+        <v>2484</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>2484</v>
+        <v>2485</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>2485</v>
+        <v>2486</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>2486</v>
+        <v>2487</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>2487</v>
+        <v>2488</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>2488</v>
+        <v>2489</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>2490</v>
+        <v>2491</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>2491</v>
+        <v>2492</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>2492</v>
+        <v>2493</v>
       </c>
       <c r="AB20" s="12" t="s">
-        <v>2493</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="21">
@@ -16249,85 +16252,85 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>2494</v>
+        <v>2495</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>2495</v>
+        <v>2496</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>2496</v>
+        <v>2497</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>2499</v>
+        <v>2500</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>2501</v>
+        <v>2502</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>2508</v>
+        <v>2509</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>2509</v>
+        <v>2510</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>2510</v>
+        <v>2511</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>2512</v>
+        <v>2513</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>2513</v>
+        <v>2514</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>2514</v>
+        <v>2515</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>2515</v>
+        <v>2516</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>2516</v>
+        <v>2517</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="AB21" s="12" t="s">
-        <v>2517</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="22">
@@ -16335,85 +16338,85 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>2518</v>
+        <v>2519</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>2519</v>
+        <v>2520</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>2521</v>
+        <v>2522</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>2523</v>
+        <v>2524</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>2524</v>
+        <v>2525</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>2525</v>
+        <v>2526</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>2526</v>
+        <v>2527</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>2527</v>
+        <v>2528</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>2529</v>
+        <v>2530</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>2531</v>
+        <v>2532</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>2532</v>
+        <v>2533</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>2533</v>
+        <v>2534</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>2534</v>
+        <v>2535</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>2535</v>
+        <v>2536</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>2536</v>
+        <v>2537</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>2537</v>
+        <v>2538</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>2538</v>
+        <v>2539</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>2539</v>
+        <v>2540</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>2540</v>
+        <v>2541</v>
       </c>
       <c r="AB22" s="12" t="s">
-        <v>2541</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="23">
@@ -16421,85 +16424,85 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>2542</v>
+        <v>2543</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>2543</v>
+        <v>2544</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>2544</v>
+        <v>2545</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>2545</v>
+        <v>2546</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>2546</v>
+        <v>2547</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>2547</v>
+        <v>2548</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>2548</v>
+        <v>2549</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>2549</v>
+        <v>2550</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>2550</v>
+        <v>2551</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>2551</v>
+        <v>2552</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>2553</v>
+        <v>2554</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>2554</v>
+        <v>2555</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>2555</v>
+        <v>2556</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>2557</v>
+        <v>2558</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>2558</v>
+        <v>2559</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>2559</v>
+        <v>2560</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>2560</v>
+        <v>2561</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>2561</v>
+        <v>2562</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>2562</v>
+        <v>2563</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>2563</v>
+        <v>2564</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>2564</v>
+        <v>2565</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>2565</v>
+        <v>2566</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>2566</v>
+        <v>2567</v>
       </c>
       <c r="AB23" s="12" t="s">
-        <v>2567</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="24">
@@ -16507,85 +16510,85 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>2568</v>
+        <v>2569</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>2569</v>
+        <v>2570</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>2570</v>
+        <v>2571</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>2571</v>
+        <v>2572</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>2573</v>
+        <v>2574</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>2574</v>
+        <v>2575</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>2575</v>
+        <v>2576</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>2577</v>
+        <v>2578</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>2578</v>
+        <v>2579</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>2579</v>
+        <v>2580</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>2581</v>
+        <v>2582</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>2583</v>
+        <v>2584</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>2584</v>
+        <v>2585</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>2585</v>
+        <v>2586</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>2586</v>
+        <v>2587</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>2587</v>
+        <v>2588</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>2588</v>
+        <v>2589</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>2589</v>
+        <v>2590</v>
       </c>
       <c r="Y24" s="5" t="s">
-        <v>2590</v>
+        <v>2591</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>2591</v>
+        <v>2592</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>2592</v>
+        <v>2593</v>
       </c>
       <c r="AB24" s="12" t="s">
-        <v>2593</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="25">
@@ -16593,85 +16596,85 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>2594</v>
+        <v>2595</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>2595</v>
+        <v>2596</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>2596</v>
+        <v>2597</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>2597</v>
+        <v>2598</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>2598</v>
+        <v>2599</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>2599</v>
+        <v>2600</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>2600</v>
+        <v>2601</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>2601</v>
+        <v>2602</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>2602</v>
+        <v>2603</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="AB25" s="12" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="26">
@@ -16679,85 +16682,85 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
       <c r="Y26" s="5" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
       <c r="AB26" s="12" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="27">
@@ -16765,85 +16768,85 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>2654</v>
+        <v>2655</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="Y27" s="5" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="AB27" s="12" t="s">
-        <v>2667</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="28">
@@ -16851,85 +16854,85 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>2668</v>
+        <v>2669</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>2669</v>
+        <v>2670</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>2670</v>
+        <v>2671</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>2671</v>
+        <v>2672</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>2672</v>
+        <v>2673</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>2673</v>
+        <v>2674</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>2674</v>
+        <v>2675</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>2675</v>
+        <v>2676</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>2676</v>
+        <v>2677</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>2677</v>
+        <v>2678</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>2678</v>
+        <v>2679</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>2679</v>
+        <v>2680</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>2680</v>
+        <v>2681</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>2681</v>
+        <v>2682</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>2682</v>
+        <v>2683</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>2683</v>
+        <v>2684</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>2684</v>
+        <v>2685</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>2685</v>
+        <v>2686</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>2686</v>
+        <v>2687</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>2687</v>
+        <v>2688</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>2688</v>
+        <v>2689</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>2689</v>
+        <v>2690</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>2690</v>
+        <v>2691</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>2691</v>
+        <v>2692</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>2692</v>
+        <v>2693</v>
       </c>
       <c r="AB28" s="12" t="s">
-        <v>2693</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="29">
@@ -16937,85 +16940,85 @@
         <v>45</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>2694</v>
+        <v>2695</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>2696</v>
+        <v>2697</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>2698</v>
+        <v>2699</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>2699</v>
+        <v>2700</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>2700</v>
+        <v>2701</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>2701</v>
+        <v>2702</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>2702</v>
+        <v>2703</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>2703</v>
+        <v>2704</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>2704</v>
+        <v>2705</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>2705</v>
+        <v>2706</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>2706</v>
+        <v>2707</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>2707</v>
+        <v>2708</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>2708</v>
+        <v>2709</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>2709</v>
+        <v>2710</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>2711</v>
+        <v>2712</v>
       </c>
       <c r="T29" s="9" t="s">
-        <v>2712</v>
+        <v>2713</v>
       </c>
       <c r="U29" s="9" t="s">
-        <v>2713</v>
+        <v>2714</v>
       </c>
       <c r="V29" s="9" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
       <c r="W29" s="9" t="s">
-        <v>2715</v>
+        <v>2716</v>
       </c>
       <c r="X29" s="9" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
       <c r="Y29" s="9" t="s">
-        <v>2716</v>
+        <v>2717</v>
       </c>
       <c r="Z29" s="9" t="s">
-        <v>2717</v>
+        <v>2718</v>
       </c>
       <c r="AA29" s="9" t="s">
-        <v>2718</v>
+        <v>2719</v>
       </c>
       <c r="AB29" s="12" t="s">
-        <v>2719</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="30">
@@ -17023,85 +17026,85 @@
         <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>2720</v>
+        <v>2721</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>2721</v>
+        <v>2722</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>2723</v>
+        <v>2724</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>2725</v>
+        <v>2726</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>2726</v>
+        <v>2727</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>2728</v>
+        <v>2729</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>2729</v>
+        <v>2730</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>2730</v>
+        <v>2731</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>2731</v>
+        <v>2732</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>2732</v>
+        <v>2733</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>2734</v>
+        <v>2735</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>2735</v>
+        <v>2736</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>2736</v>
+        <v>2737</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>2737</v>
+        <v>2738</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>2738</v>
+        <v>2739</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>2739</v>
+        <v>2740</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>2740</v>
+        <v>2741</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>2741</v>
+        <v>2742</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>2742</v>
+        <v>2743</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>2743</v>
+        <v>2744</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>2744</v>
+        <v>2745</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>2745</v>
+        <v>2746</v>
       </c>
       <c r="AB30" s="3" t="s">
-        <v>2746</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="31">
@@ -17109,85 +17112,85 @@
         <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2747</v>
+        <v>2748</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>2748</v>
+        <v>2749</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>2749</v>
+        <v>2750</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>2750</v>
+        <v>2751</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>2751</v>
+        <v>2752</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>2752</v>
+        <v>2753</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>2753</v>
+        <v>2754</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>2754</v>
+        <v>2755</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>2755</v>
+        <v>2756</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>2757</v>
+        <v>2758</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>2758</v>
+        <v>2759</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>2759</v>
+        <v>2760</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>2760</v>
+        <v>2761</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>2761</v>
+        <v>2762</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>2762</v>
+        <v>2763</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>2763</v>
+        <v>2764</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>2764</v>
+        <v>2765</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>2765</v>
+        <v>2766</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>2766</v>
+        <v>2767</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>2767</v>
+        <v>2768</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>2768</v>
+        <v>2769</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>2769</v>
+        <v>2770</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>2770</v>
+        <v>2771</v>
       </c>
       <c r="Z31" s="2" t="s">
-        <v>2771</v>
+        <v>2772</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>2772</v>
+        <v>2773</v>
       </c>
       <c r="AB31" s="3" t="s">
-        <v>2773</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="32">
@@ -17273,7 +17276,7 @@
         <v>161</v>
       </c>
       <c r="AB32" s="12" t="s">
-        <v>2774</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="33">
@@ -17359,7 +17362,7 @@
         <v>161</v>
       </c>
       <c r="AB33" s="12" t="s">
-        <v>2775</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="34">
@@ -17445,7 +17448,7 @@
         <v>161</v>
       </c>
       <c r="AB34" s="12" t="s">
-        <v>2776</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="35">
@@ -17531,7 +17534,7 @@
         <v>161</v>
       </c>
       <c r="AB35" s="12" t="s">
-        <v>2777</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="36">
@@ -17539,85 +17542,85 @@
         <v>67</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>2778</v>
+        <v>2779</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>2779</v>
+        <v>2780</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2780</v>
+        <v>2781</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>2781</v>
+        <v>2782</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>2782</v>
+        <v>2783</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>2783</v>
+        <v>2784</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>2785</v>
+        <v>2786</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>2786</v>
+        <v>2787</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>2787</v>
+        <v>2788</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>2788</v>
+        <v>2789</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>2789</v>
+        <v>2790</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>2790</v>
+        <v>2791</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>2791</v>
+        <v>2792</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>2792</v>
+        <v>2793</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>2794</v>
+        <v>2795</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>2795</v>
+        <v>2796</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>2796</v>
+        <v>2797</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>2797</v>
+        <v>2798</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>2798</v>
+        <v>2799</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>2799</v>
+        <v>2800</v>
       </c>
       <c r="Y36" s="2" t="s">
-        <v>2800</v>
+        <v>2801</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>2801</v>
+        <v>2802</v>
       </c>
       <c r="AA36" s="2" t="s">
-        <v>2802</v>
+        <v>2803</v>
       </c>
       <c r="AB36" s="3" t="s">
-        <v>2803</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="37">
@@ -17703,7 +17706,7 @@
         <v>161</v>
       </c>
       <c r="AB37" s="12" t="s">
-        <v>2804</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="38">
@@ -17789,7 +17792,7 @@
         <v>161</v>
       </c>
       <c r="AB38" s="12" t="s">
-        <v>2805</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="39">
@@ -17875,7 +17878,7 @@
         <v>161</v>
       </c>
       <c r="AB39" s="12" t="s">
-        <v>2806</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="40">
@@ -17961,7 +17964,7 @@
         <v>161</v>
       </c>
       <c r="AB40" s="12" t="s">
-        <v>2807</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="41">
@@ -18047,7 +18050,7 @@
         <v>161</v>
       </c>
       <c r="AB41" s="12" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="42">
@@ -18138,88 +18141,88 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2809</v>
+        <v>2810</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2810</v>
+        <v>2811</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2811</v>
+        <v>2812</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>2812</v>
+        <v>2813</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>2813</v>
+        <v>2814</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>2814</v>
+        <v>2815</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>2815</v>
+        <v>2816</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>2816</v>
+        <v>2817</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>2818</v>
+        <v>2819</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>2819</v>
+        <v>2820</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>2820</v>
+        <v>2821</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>2821</v>
+        <v>2822</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>2822</v>
+        <v>2823</v>
       </c>
       <c r="O43" s="11" t="s">
-        <v>2823</v>
+        <v>2824</v>
       </c>
       <c r="P43" s="9" t="s">
-        <v>2824</v>
+        <v>2825</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>2825</v>
+        <v>2826</v>
       </c>
       <c r="R43" s="9" t="s">
-        <v>2826</v>
+        <v>2827</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>2827</v>
+        <v>2828</v>
       </c>
       <c r="T43" s="9" t="s">
-        <v>2828</v>
+        <v>2829</v>
       </c>
       <c r="U43" s="9" t="s">
-        <v>2829</v>
+        <v>2830</v>
       </c>
       <c r="V43" s="9" t="s">
-        <v>2830</v>
+        <v>2831</v>
       </c>
       <c r="W43" s="9" t="s">
-        <v>2831</v>
+        <v>2832</v>
       </c>
       <c r="X43" s="9" t="s">
-        <v>2832</v>
+        <v>2833</v>
       </c>
       <c r="Y43" s="9" t="s">
-        <v>2833</v>
+        <v>2834</v>
       </c>
       <c r="Z43" s="9" t="s">
-        <v>2834</v>
+        <v>2835</v>
       </c>
       <c r="AA43" s="9" t="s">
-        <v>2835</v>
+        <v>2836</v>
       </c>
       <c r="AB43" s="12" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
     </row>
   </sheetData>
@@ -18245,7 +18248,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2836</v>
+        <v>2837</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -18259,16 +18262,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2837</v>
+        <v>2838</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2838</v>
+        <v>2839</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2839</v>
+        <v>2840</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>2840</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="3">
@@ -18276,10 +18279,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2841</v>
+        <v>2842</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2842</v>
+        <v>2843</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>19</v>
@@ -18290,10 +18293,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2843</v>
+        <v>2844</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>2844</v>
+        <v>2845</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>19</v>
@@ -18304,10 +18307,10 @@
         <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2845</v>
+        <v>2846</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2846</v>
+        <v>2847</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>19</v>
@@ -18318,10 +18321,10 @@
         <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2847</v>
+        <v>2848</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>2848</v>
+        <v>2849</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>19</v>
@@ -18332,10 +18335,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2850</v>
+        <v>2851</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>19</v>
@@ -18346,10 +18349,10 @@
         <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>2851</v>
+        <v>2852</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2852</v>
+        <v>2853</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>19</v>
@@ -18360,10 +18363,10 @@
         <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>2853</v>
+        <v>2854</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>2854</v>
+        <v>2855</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>19</v>
@@ -18374,10 +18377,10 @@
         <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2855</v>
+        <v>2856</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>2856</v>
+        <v>2857</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>19</v>
@@ -18388,10 +18391,10 @@
         <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>2857</v>
+        <v>2858</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>2858</v>
+        <v>2859</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>19</v>
@@ -18402,10 +18405,10 @@
         <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>2859</v>
+        <v>2860</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>19</v>
@@ -18416,10 +18419,10 @@
         <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>2862</v>
+        <v>2863</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>19</v>
@@ -18430,10 +18433,10 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>19</v>
@@ -18444,10 +18447,10 @@
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>2865</v>
+        <v>2866</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>2866</v>
+        <v>2867</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>19</v>
@@ -18458,10 +18461,10 @@
         <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>19</v>
@@ -18472,10 +18475,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>2869</v>
+        <v>2870</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>19</v>
@@ -18486,10 +18489,10 @@
         <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>2872</v>
+        <v>2873</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>19</v>
@@ -18500,10 +18503,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>19</v>
@@ -18514,10 +18517,10 @@
         <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>2876</v>
+        <v>2877</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>19</v>
@@ -18528,10 +18531,10 @@
         <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>2877</v>
+        <v>2878</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>2878</v>
+        <v>2879</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>19</v>
@@ -18542,10 +18545,10 @@
         <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>2879</v>
+        <v>2880</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>19</v>
@@ -18556,10 +18559,10 @@
         <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>2881</v>
+        <v>2882</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>2882</v>
+        <v>2883</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>19</v>
@@ -18570,10 +18573,10 @@
         <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>2884</v>
+        <v>2885</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>19</v>
@@ -18584,10 +18587,10 @@
         <v>41</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>2885</v>
+        <v>2886</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>2886</v>
+        <v>2887</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>19</v>
@@ -18598,10 +18601,10 @@
         <v>42</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>2887</v>
+        <v>2888</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>2888</v>
+        <v>2889</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>19</v>
@@ -18612,10 +18615,10 @@
         <v>43</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>2889</v>
+        <v>2890</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>2890</v>
+        <v>2891</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>19</v>
@@ -18626,10 +18629,10 @@
         <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>2891</v>
+        <v>2892</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>2892</v>
+        <v>2893</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>19</v>
@@ -18640,13 +18643,13 @@
         <v>45</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>2893</v>
+        <v>2894</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>2894</v>
+        <v>2895</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>2895</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="30">
@@ -18654,13 +18657,13 @@
         <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>2896</v>
+        <v>2897</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>2897</v>
+        <v>2898</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>2898</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="31">
@@ -18668,13 +18671,13 @@
         <v>62</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>2899</v>
+        <v>2900</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>2900</v>
+        <v>2901</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>2901</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="32">
@@ -18682,13 +18685,13 @@
         <v>63</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>2903</v>
+        <v>2904</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>2904</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="33">
@@ -18696,13 +18699,13 @@
         <v>64</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>2905</v>
+        <v>2906</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>2906</v>
+        <v>2907</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>2907</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="34">
@@ -18710,13 +18713,13 @@
         <v>65</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>2908</v>
+        <v>2909</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>2909</v>
+        <v>2910</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>2910</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="35">
@@ -18730,7 +18733,7 @@
         <v>56</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>2911</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="36">
@@ -18738,13 +18741,13 @@
         <v>67</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>2912</v>
+        <v>2913</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>2913</v>
+        <v>2914</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>2914</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="37">
@@ -18752,13 +18755,13 @@
         <v>76</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>2915</v>
+        <v>2916</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>2916</v>
+        <v>2917</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>2917</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="38">
@@ -18766,13 +18769,13 @@
         <v>77</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>2918</v>
+        <v>2919</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>2919</v>
+        <v>2920</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>2920</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="39">
@@ -18786,7 +18789,7 @@
         <v>56</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>2921</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="40">
@@ -18800,7 +18803,7 @@
         <v>56</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>2922</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="41">
@@ -18808,10 +18811,10 @@
         <v>80</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>2923</v>
+        <v>2924</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>2924</v>
+        <v>2925</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>295</v>
@@ -18833,16 +18836,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2925</v>
+        <v>2926</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2926</v>
+        <v>2927</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2927</v>
+        <v>2928</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>2928</v>
+        <v>2929</v>
       </c>
     </row>
   </sheetData>

--- a/iceKnives32/Offline Documents (Periodic)/iceKnives32.xlsx
+++ b/iceKnives32/Offline Documents (Periodic)/iceKnives32.xlsx
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="2930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="2933">
   <si>
     <t>[]</t>
   </si>
@@ -5322,16 +5322,25 @@
     <t>appendices</t>
   </si>
   <si>
+    <t>wyb.vr</t>
+  </si>
+  <si>
     <t>oxide</t>
   </si>
   <si>
     <t>chambers</t>
   </si>
   <si>
+    <t>pre.nt</t>
+  </si>
+  <si>
     <t>acid</t>
   </si>
   <si>
     <t>slides</t>
+  </si>
+  <si>
+    <t>pri.xr</t>
   </si>
   <si>
     <t>smoke</t>
@@ -11178,7 +11187,7 @@
         <v>1668</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>18</v>
+        <v>1669</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>19</v>
@@ -11189,7 +11198,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
@@ -11204,10 +11213,10 @@
         <v>18</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>1670</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>18</v>
+        <v>1671</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>1672</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>19</v>
@@ -11218,7 +11227,7 @@
         <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>18</v>
@@ -11233,10 +11242,10 @@
         <v>18</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>18</v>
+        <v>1675</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>19</v>
@@ -11247,7 +11256,7 @@
         <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1673</v>
+        <v>1676</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>18</v>
@@ -11262,10 +11271,10 @@
         <v>18</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>1674</v>
+        <v>1677</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>1675</v>
+        <v>1678</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>19</v>
@@ -11276,7 +11285,7 @@
         <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1676</v>
+        <v>1679</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>18</v>
@@ -11291,10 +11300,10 @@
         <v>18</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>1677</v>
+        <v>1680</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>1678</v>
+        <v>1681</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>19</v>
@@ -11305,7 +11314,7 @@
         <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1679</v>
+        <v>1682</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>18</v>
@@ -11320,10 +11329,10 @@
         <v>18</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>1680</v>
+        <v>1683</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>1681</v>
+        <v>1684</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>19</v>
@@ -11334,7 +11343,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1682</v>
+        <v>1685</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>18</v>
@@ -11349,10 +11358,10 @@
         <v>18</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>1683</v>
+        <v>1686</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>1684</v>
+        <v>1687</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>19</v>
@@ -11363,7 +11372,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1685</v>
+        <v>1688</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>18</v>
@@ -11378,10 +11387,10 @@
         <v>18</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>1686</v>
+        <v>1689</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>1687</v>
+        <v>1690</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>19</v>
@@ -11392,7 +11401,7 @@
         <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1688</v>
+        <v>1691</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>18</v>
@@ -11407,10 +11416,10 @@
         <v>18</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>1689</v>
+        <v>1692</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>1690</v>
+        <v>1693</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>19</v>
@@ -11421,7 +11430,7 @@
         <v>41</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>18</v>
@@ -11436,10 +11445,10 @@
         <v>18</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>1692</v>
+        <v>1695</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>1693</v>
+        <v>1696</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>19</v>
@@ -11450,7 +11459,7 @@
         <v>42</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1694</v>
+        <v>1697</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>18</v>
@@ -11465,10 +11474,10 @@
         <v>18</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>1695</v>
+        <v>1698</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>1696</v>
+        <v>1699</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>19</v>
@@ -11479,7 +11488,7 @@
         <v>43</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1697</v>
+        <v>1700</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>18</v>
@@ -11494,10 +11503,10 @@
         <v>18</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>1698</v>
+        <v>1701</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>1699</v>
+        <v>1702</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>19</v>
@@ -11508,7 +11517,7 @@
         <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1700</v>
+        <v>1703</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>18</v>
@@ -11523,10 +11532,10 @@
         <v>18</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>1701</v>
+        <v>1704</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>1702</v>
+        <v>1705</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>19</v>
@@ -11940,7 +11949,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1703</v>
+        <v>1706</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>91</v>
@@ -11964,7 +11973,7 @@
         <v>97</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1704</v>
+        <v>1707</v>
       </c>
     </row>
   </sheetData>
@@ -11993,7 +12002,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>1705</v>
+        <v>1708</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -12022,28 +12031,28 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>1706</v>
+        <v>1709</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1707</v>
+        <v>1710</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1708</v>
+        <v>1711</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1709</v>
+        <v>1712</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1710</v>
+        <v>1713</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1711</v>
+        <v>1714</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1712</v>
+        <v>1715</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>1713</v>
+        <v>1716</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>303</v>
@@ -12054,25 +12063,25 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1714</v>
+        <v>1717</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1715</v>
+        <v>1718</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1716</v>
+        <v>1719</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>1718</v>
+        <v>1721</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>1719</v>
+        <v>1722</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>1720</v>
+        <v>1723</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>19</v>
@@ -12083,25 +12092,25 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1721</v>
+        <v>1724</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1722</v>
+        <v>1725</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>1012</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1723</v>
+        <v>1726</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>1724</v>
+        <v>1727</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1725</v>
+        <v>1728</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>1726</v>
+        <v>1729</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>19</v>
@@ -12112,25 +12121,25 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1728</v>
+        <v>1731</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>1027</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1729</v>
+        <v>1732</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1730</v>
+        <v>1733</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>1731</v>
+        <v>1734</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>1732</v>
+        <v>1735</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>19</v>
@@ -12141,25 +12150,25 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1733</v>
+        <v>1736</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1734</v>
+        <v>1737</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>747</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1735</v>
+        <v>1738</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>1736</v>
+        <v>1739</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1737</v>
+        <v>1740</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>1738</v>
+        <v>1741</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>19</v>
@@ -12170,25 +12179,25 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>456</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>19</v>
@@ -12199,25 +12208,25 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>124</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1747</v>
+        <v>1750</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>19</v>
@@ -12228,25 +12237,25 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>360</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>19</v>
@@ -12257,25 +12266,25 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1758</v>
+        <v>1761</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1760</v>
+        <v>1763</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>1763</v>
+        <v>1766</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>19</v>
@@ -12286,25 +12295,25 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1765</v>
+        <v>1768</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>488</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1766</v>
+        <v>1769</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1768</v>
+        <v>1771</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>1769</v>
+        <v>1772</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>19</v>
@@ -12315,25 +12324,25 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1771</v>
+        <v>1774</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1119</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1772</v>
+        <v>1775</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1773</v>
+        <v>1776</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>1774</v>
+        <v>1777</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>1775</v>
+        <v>1778</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>19</v>
@@ -12344,25 +12353,25 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1776</v>
+        <v>1779</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1777</v>
+        <v>1780</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>470</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1778</v>
+        <v>1781</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1779</v>
+        <v>1782</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1780</v>
+        <v>1783</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>1781</v>
+        <v>1784</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>19</v>
@@ -12373,25 +12382,25 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1782</v>
+        <v>1785</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1783</v>
+        <v>1786</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>211</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1784</v>
+        <v>1787</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1786</v>
+        <v>1789</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>1787</v>
+        <v>1790</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>19</v>
@@ -12402,25 +12411,25 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1788</v>
+        <v>1791</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1789</v>
+        <v>1792</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1790</v>
+        <v>1793</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1791</v>
+        <v>1794</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1792</v>
+        <v>1795</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1793</v>
+        <v>1796</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>1794</v>
+        <v>1797</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>19</v>
@@ -12431,25 +12440,25 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1795</v>
+        <v>1798</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>625</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>19</v>
@@ -12460,25 +12469,25 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1801</v>
+        <v>1804</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>768</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1803</v>
+        <v>1806</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1805</v>
+        <v>1808</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>19</v>
@@ -12489,25 +12498,25 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1807</v>
+        <v>1810</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1808</v>
+        <v>1811</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>845</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1809</v>
+        <v>1812</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1810</v>
+        <v>1813</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>1811</v>
+        <v>1814</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>19</v>
@@ -12518,25 +12527,25 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1813</v>
+        <v>1816</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1814</v>
+        <v>1817</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>1311</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1815</v>
+        <v>1818</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>1816</v>
+        <v>1819</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>1817</v>
+        <v>1820</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>1818</v>
+        <v>1821</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>19</v>
@@ -12547,25 +12556,25 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1819</v>
+        <v>1822</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1820</v>
+        <v>1823</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1821</v>
+        <v>1824</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1822</v>
+        <v>1825</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>1823</v>
+        <v>1826</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1824</v>
+        <v>1827</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>1825</v>
+        <v>1828</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>19</v>
@@ -12576,25 +12585,25 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1826</v>
+        <v>1829</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1827</v>
+        <v>1830</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1828</v>
+        <v>1831</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1829</v>
+        <v>1832</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>1830</v>
+        <v>1833</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1831</v>
+        <v>1834</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>1832</v>
+        <v>1835</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>19</v>
@@ -12605,25 +12614,25 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1833</v>
+        <v>1836</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1834</v>
+        <v>1837</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>932</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1835</v>
+        <v>1838</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>1836</v>
+        <v>1839</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>1837</v>
+        <v>1840</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>1838</v>
+        <v>1841</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>19</v>
@@ -12634,25 +12643,25 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1839</v>
+        <v>1842</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1840</v>
+        <v>1843</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1841</v>
+        <v>1844</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1842</v>
+        <v>1845</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>1843</v>
+        <v>1846</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1844</v>
+        <v>1847</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>1845</v>
+        <v>1848</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>19</v>
@@ -12663,25 +12672,25 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1846</v>
+        <v>1849</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1847</v>
+        <v>1850</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>472</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1848</v>
+        <v>1851</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>1849</v>
+        <v>1852</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>1850</v>
+        <v>1853</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>1851</v>
+        <v>1854</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>19</v>
@@ -12692,25 +12701,25 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1853</v>
+        <v>1856</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>424</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1854</v>
+        <v>1857</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>1855</v>
+        <v>1858</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>1856</v>
+        <v>1859</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>1857</v>
+        <v>1860</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>19</v>
@@ -12721,25 +12730,25 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1858</v>
+        <v>1861</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1859</v>
+        <v>1862</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>925</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1860</v>
+        <v>1863</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>1861</v>
+        <v>1864</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1862</v>
+        <v>1865</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>1863</v>
+        <v>1866</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>19</v>
@@ -12750,25 +12759,25 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1864</v>
+        <v>1867</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1865</v>
+        <v>1868</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>1383</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1866</v>
+        <v>1869</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>1867</v>
+        <v>1870</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>1868</v>
+        <v>1871</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>1869</v>
+        <v>1872</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>19</v>
@@ -12779,25 +12788,25 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1870</v>
+        <v>1873</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1871</v>
+        <v>1874</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>429</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1872</v>
+        <v>1875</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>1873</v>
+        <v>1876</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>1874</v>
+        <v>1877</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>19</v>
@@ -12808,25 +12817,25 @@
         <v>45</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1876</v>
+        <v>1879</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1877</v>
+        <v>1880</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>373</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1878</v>
+        <v>1881</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>1879</v>
+        <v>1882</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1880</v>
+        <v>1883</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>1881</v>
+        <v>1884</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>335</v>
@@ -12837,28 +12846,28 @@
         <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1882</v>
+        <v>1885</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1883</v>
+        <v>1886</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1884</v>
+        <v>1887</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>1885</v>
+        <v>1888</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1886</v>
+        <v>1889</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>1887</v>
+        <v>1890</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>1888</v>
+        <v>1891</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>1889</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="31">
@@ -12866,28 +12875,28 @@
         <v>62</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1890</v>
+        <v>1893</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1891</v>
+        <v>1894</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1892</v>
+        <v>1895</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>1893</v>
+        <v>1896</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>1894</v>
+        <v>1897</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>1895</v>
+        <v>1898</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>1896</v>
+        <v>1899</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="32">
@@ -12916,7 +12925,7 @@
         <v>61</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>1898</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="33">
@@ -12945,7 +12954,7 @@
         <v>61</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>1899</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="34">
@@ -12974,7 +12983,7 @@
         <v>61</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="35">
@@ -13003,7 +13012,7 @@
         <v>61</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>1901</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="36">
@@ -13011,28 +13020,28 @@
         <v>67</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1902</v>
+        <v>1905</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1903</v>
+        <v>1906</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1904</v>
+        <v>1907</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>1905</v>
+        <v>1908</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>1906</v>
+        <v>1909</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>1909</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="37">
@@ -13061,7 +13070,7 @@
         <v>61</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>1910</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="38">
@@ -13090,7 +13099,7 @@
         <v>61</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>1911</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="39">
@@ -13119,7 +13128,7 @@
         <v>61</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>1912</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="40">
@@ -13148,7 +13157,7 @@
         <v>61</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>1913</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="41">
@@ -13177,7 +13186,7 @@
         <v>61</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>1914</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="42">
@@ -13211,31 +13220,31 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1915</v>
+        <v>1918</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1917</v>
+        <v>1920</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1918</v>
+        <v>1921</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>1919</v>
+        <v>1922</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>1920</v>
+        <v>1923</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>1921</v>
+        <v>1924</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>1922</v>
+        <v>1925</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1923</v>
+        <v>1926</v>
       </c>
     </row>
   </sheetData>
@@ -13262,7 +13271,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1924</v>
+        <v>1927</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -13291,28 +13300,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1925</v>
+        <v>1928</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1926</v>
+        <v>1929</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1927</v>
+        <v>1930</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1928</v>
+        <v>1931</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1929</v>
+        <v>1932</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1930</v>
+        <v>1933</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1931</v>
+        <v>1934</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>1932</v>
+        <v>1935</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>19</v>
@@ -13323,13 +13332,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1933</v>
+        <v>1936</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1934</v>
+        <v>1937</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1935</v>
+        <v>1938</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>18</v>
@@ -13352,13 +13361,13 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1936</v>
+        <v>1939</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1937</v>
+        <v>1940</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1938</v>
+        <v>1941</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -13381,13 +13390,13 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1939</v>
+        <v>1942</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1940</v>
+        <v>1943</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1941</v>
+        <v>1944</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>18</v>
@@ -13410,13 +13419,13 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1942</v>
+        <v>1945</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1943</v>
+        <v>1946</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1944</v>
+        <v>1947</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>18</v>
@@ -13439,13 +13448,13 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1945</v>
+        <v>1948</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1946</v>
+        <v>1949</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1947</v>
+        <v>1950</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>18</v>
@@ -13468,13 +13477,13 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1948</v>
+        <v>1951</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1949</v>
+        <v>1952</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1950</v>
+        <v>1953</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>18</v>
@@ -13497,13 +13506,13 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1951</v>
+        <v>1954</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1952</v>
+        <v>1955</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1953</v>
+        <v>1956</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>18</v>
@@ -13526,13 +13535,13 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1954</v>
+        <v>1957</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1955</v>
+        <v>1958</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1956</v>
+        <v>1959</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>18</v>
@@ -13555,13 +13564,13 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1957</v>
+        <v>1960</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1958</v>
+        <v>1961</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1959</v>
+        <v>1962</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>18</v>
@@ -13584,13 +13593,13 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1960</v>
+        <v>1963</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1961</v>
+        <v>1964</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>18</v>
@@ -13613,13 +13622,13 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1963</v>
+        <v>1966</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1964</v>
+        <v>1967</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1965</v>
+        <v>1968</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>18</v>
@@ -13642,13 +13651,13 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1966</v>
+        <v>1969</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1968</v>
+        <v>1971</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>18</v>
@@ -13671,13 +13680,13 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1969</v>
+        <v>1972</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1970</v>
+        <v>1973</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>18</v>
@@ -13700,13 +13709,13 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1974</v>
+        <v>1977</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>18</v>
@@ -13729,13 +13738,13 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1975</v>
+        <v>1978</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1976</v>
+        <v>1979</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1977</v>
+        <v>1980</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>18</v>
@@ -13758,13 +13767,13 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1978</v>
+        <v>1981</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1979</v>
+        <v>1982</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1980</v>
+        <v>1983</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>18</v>
@@ -13787,13 +13796,13 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1981</v>
+        <v>1984</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1982</v>
+        <v>1985</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1983</v>
+        <v>1986</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>18</v>
@@ -13816,13 +13825,13 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1984</v>
+        <v>1987</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1985</v>
+        <v>1988</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1986</v>
+        <v>1989</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>18</v>
@@ -13845,13 +13854,13 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1987</v>
+        <v>1990</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1989</v>
+        <v>1992</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>18</v>
@@ -13874,13 +13883,13 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1990</v>
+        <v>1993</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1991</v>
+        <v>1994</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1992</v>
+        <v>1995</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>18</v>
@@ -13903,13 +13912,13 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1993</v>
+        <v>1996</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1995</v>
+        <v>1998</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>18</v>
@@ -13932,13 +13941,13 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>18</v>
@@ -13961,13 +13970,13 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>18</v>
@@ -13990,13 +13999,13 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>18</v>
@@ -14019,13 +14028,13 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>18</v>
@@ -14048,13 +14057,13 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>18</v>
@@ -14077,25 +14086,25 @@
         <v>45</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>19</v>
@@ -14480,31 +14489,31 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>2023</v>
+        <v>2026</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>2024</v>
+        <v>2027</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>2025</v>
+        <v>2028</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>2026</v>
+        <v>2029</v>
       </c>
     </row>
   </sheetData>
@@ -14529,7 +14538,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2027</v>
+        <v>2030</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -14553,61 +14562,61 @@
         <v>7</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>2028</v>
+        <v>2031</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>2029</v>
+        <v>2032</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>2030</v>
+        <v>2033</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>2031</v>
+        <v>2034</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>2032</v>
+        <v>2035</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>2033</v>
+        <v>2036</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>2034</v>
+        <v>2037</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>2035</v>
+        <v>2038</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>2036</v>
+        <v>2039</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>2037</v>
+        <v>2040</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>2038</v>
+        <v>2041</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>2039</v>
+        <v>2042</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>2040</v>
+        <v>2043</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>2041</v>
+        <v>2044</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>2042</v>
+        <v>2045</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>2043</v>
+        <v>2046</v>
       </c>
       <c r="Y1" s="9" t="s">
-        <v>2044</v>
+        <v>2047</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>2045</v>
+        <v>2048</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>2046</v>
+        <v>2049</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>8</v>
@@ -14615,88 +14624,88 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1924</v>
+        <v>1927</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2047</v>
+        <v>2050</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>2048</v>
+        <v>2051</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>2049</v>
+        <v>2052</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>2051</v>
+        <v>2054</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>2052</v>
+        <v>2055</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>2053</v>
+        <v>2056</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>2054</v>
+        <v>2057</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>2056</v>
+        <v>2059</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>2057</v>
+        <v>2060</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>2058</v>
+        <v>2061</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>2059</v>
+        <v>2062</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>2060</v>
+        <v>2063</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>2061</v>
+        <v>2064</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>2062</v>
+        <v>2065</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>2063</v>
+        <v>2066</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>2064</v>
+        <v>2067</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>1845</v>
+        <v>1848</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>2065</v>
+        <v>2068</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>2066</v>
+        <v>2069</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>2067</v>
+        <v>2070</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>2068</v>
+        <v>2071</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>2069</v>
+        <v>2072</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>2070</v>
+        <v>2073</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>2071</v>
+        <v>2074</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>2072</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="3">
@@ -14704,85 +14713,85 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>2074</v>
+        <v>2077</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>2075</v>
+        <v>2078</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>2077</v>
+        <v>2080</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>2078</v>
+        <v>2081</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>2079</v>
+        <v>2082</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>2080</v>
+        <v>2083</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>1784</v>
+        <v>1787</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>2081</v>
+        <v>2084</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>2082</v>
+        <v>2085</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>2083</v>
+        <v>2086</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>2084</v>
+        <v>2087</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>1847</v>
+        <v>1850</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>2085</v>
+        <v>2088</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>2086</v>
+        <v>2089</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>2087</v>
+        <v>2090</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>2088</v>
+        <v>2091</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>2089</v>
+        <v>2092</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>2090</v>
+        <v>2093</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>2091</v>
+        <v>2094</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>2092</v>
+        <v>2095</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>2093</v>
+        <v>2096</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>1877</v>
+        <v>1880</v>
       </c>
       <c r="AB3" s="12" t="s">
-        <v>2094</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="4">
@@ -14790,85 +14799,85 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2095</v>
+        <v>2098</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>2096</v>
+        <v>2099</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>2097</v>
+        <v>2100</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>2098</v>
+        <v>2101</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>2099</v>
+        <v>2102</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>2100</v>
+        <v>2103</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>2101</v>
+        <v>2104</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>1810</v>
+        <v>1813</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>2102</v>
+        <v>2105</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>2103</v>
+        <v>2106</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>2104</v>
+        <v>2107</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>2105</v>
+        <v>2108</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>2106</v>
+        <v>2109</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>2107</v>
+        <v>2110</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>2108</v>
+        <v>2111</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>2109</v>
+        <v>2112</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>2110</v>
+        <v>2113</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>2111</v>
+        <v>2114</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>2116</v>
+        <v>2119</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="5">
@@ -14876,85 +14885,85 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>2121</v>
+        <v>2124</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>2123</v>
+        <v>2126</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>1854</v>
+        <v>1857</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>2126</v>
+        <v>2129</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>1862</v>
+        <v>1865</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>2130</v>
+        <v>2133</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>2132</v>
+        <v>2135</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>2134</v>
+        <v>2137</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>2135</v>
+        <v>2138</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>1733</v>
+        <v>1736</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>2136</v>
+        <v>2139</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>2137</v>
+        <v>2140</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>2138</v>
+        <v>2141</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>2139</v>
+        <v>2142</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>2140</v>
+        <v>2143</v>
       </c>
       <c r="AB5" s="12" t="s">
-        <v>2141</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="6">
@@ -14962,85 +14971,85 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>2142</v>
+        <v>2145</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>2143</v>
+        <v>2146</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>2144</v>
+        <v>2147</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>2145</v>
+        <v>2148</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>2146</v>
+        <v>2149</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>2147</v>
+        <v>2150</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>2148</v>
+        <v>2151</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>2149</v>
+        <v>2152</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>2150</v>
+        <v>2153</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>2151</v>
+        <v>2154</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>2152</v>
+        <v>2155</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>2153</v>
+        <v>2156</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>2154</v>
+        <v>2157</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>1795</v>
+        <v>1798</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>2155</v>
+        <v>2158</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>2156</v>
+        <v>2159</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>2157</v>
+        <v>2160</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>2158</v>
+        <v>2161</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>2159</v>
+        <v>2162</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>2160</v>
+        <v>2163</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>2161</v>
+        <v>2164</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>2162</v>
+        <v>2165</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>2163</v>
+        <v>2166</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>2164</v>
+        <v>2167</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>2165</v>
+        <v>2168</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
       <c r="AB6" s="12" t="s">
-        <v>2166</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="7">
@@ -15048,85 +15057,85 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>2167</v>
+        <v>2170</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>2168</v>
+        <v>2171</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>2169</v>
+        <v>2172</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>2170</v>
+        <v>2173</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>2171</v>
+        <v>2174</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>2172</v>
+        <v>2175</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>1846</v>
+        <v>1849</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>2173</v>
+        <v>2176</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>2174</v>
+        <v>2177</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>1780</v>
+        <v>1783</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>2175</v>
+        <v>2178</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>1773</v>
+        <v>1776</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>1867</v>
+        <v>1870</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>2176</v>
+        <v>2179</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>2177</v>
+        <v>2180</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>1871</v>
+        <v>1874</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>2178</v>
+        <v>2181</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>2179</v>
+        <v>2182</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>1730</v>
+        <v>1733</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>2180</v>
+        <v>2183</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>2181</v>
+        <v>2184</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>2182</v>
+        <v>2185</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>1725</v>
+        <v>1728</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>2183</v>
+        <v>2186</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>2184</v>
+        <v>2187</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>2185</v>
+        <v>2188</v>
       </c>
       <c r="AB7" s="12" t="s">
-        <v>2186</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="8">
@@ -15134,85 +15143,85 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>2187</v>
+        <v>2190</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2188</v>
+        <v>2191</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>2189</v>
+        <v>2192</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>2190</v>
+        <v>2193</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>2191</v>
+        <v>2194</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>2192</v>
+        <v>2195</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>2193</v>
+        <v>2196</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>2194</v>
+        <v>2197</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>2195</v>
+        <v>2198</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>2196</v>
+        <v>2199</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>1826</v>
+        <v>1829</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>2197</v>
+        <v>2200</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>2198</v>
+        <v>2201</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>2199</v>
+        <v>2202</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>2200</v>
+        <v>2203</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>2201</v>
+        <v>2204</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>2202</v>
+        <v>2205</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>2203</v>
+        <v>2206</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>2204</v>
+        <v>2207</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>2205</v>
+        <v>2208</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>2206</v>
+        <v>2209</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>2207</v>
+        <v>2210</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>2208</v>
+        <v>2211</v>
       </c>
       <c r="AB8" s="12" t="s">
-        <v>2209</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="9">
@@ -15220,85 +15229,85 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>2210</v>
+        <v>2213</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>2211</v>
+        <v>2214</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>2212</v>
+        <v>2215</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>2213</v>
+        <v>2216</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>2214</v>
+        <v>2217</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>2215</v>
+        <v>2218</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>2216</v>
+        <v>2219</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>2217</v>
+        <v>2220</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>2218</v>
+        <v>2221</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>2219</v>
+        <v>2222</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>2220</v>
+        <v>2223</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>2221</v>
+        <v>2224</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>2222</v>
+        <v>2225</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>2223</v>
+        <v>2226</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>2224</v>
+        <v>2227</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>1772</v>
+        <v>1775</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>2225</v>
+        <v>2228</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>2226</v>
+        <v>2229</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>2227</v>
+        <v>2230</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>2228</v>
+        <v>2231</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>2229</v>
+        <v>2232</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>2230</v>
+        <v>2233</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>2231</v>
+        <v>2234</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>2232</v>
+        <v>2235</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>2233</v>
+        <v>2236</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>2234</v>
+        <v>2237</v>
       </c>
       <c r="AB9" s="12" t="s">
-        <v>2235</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="10">
@@ -15306,85 +15315,85 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>2236</v>
+        <v>2239</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>2237</v>
+        <v>2240</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>2238</v>
+        <v>2241</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>2239</v>
+        <v>2242</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>2240</v>
+        <v>2243</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>2241</v>
+        <v>2244</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>2242</v>
+        <v>2245</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>2243</v>
+        <v>2246</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>2244</v>
+        <v>2247</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>2245</v>
+        <v>2248</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>2246</v>
+        <v>2249</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>2247</v>
+        <v>2250</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>2248</v>
+        <v>2251</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>2249</v>
+        <v>2252</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>2250</v>
+        <v>2253</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>2251</v>
+        <v>2254</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>2252</v>
+        <v>2255</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>2253</v>
+        <v>2256</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>1836</v>
+        <v>1839</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>2254</v>
+        <v>2257</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>2255</v>
+        <v>2258</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>2256</v>
+        <v>2259</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>2257</v>
+        <v>2260</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>2258</v>
+        <v>2261</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>2259</v>
+        <v>2262</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>2260</v>
+        <v>2263</v>
       </c>
       <c r="AB10" s="12" t="s">
-        <v>2094</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="11">
@@ -15392,85 +15401,85 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>2261</v>
+        <v>2264</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>2262</v>
+        <v>2265</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>2263</v>
+        <v>2266</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>2264</v>
+        <v>2267</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>2265</v>
+        <v>2268</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>2266</v>
+        <v>2269</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>2267</v>
+        <v>2270</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>2268</v>
+        <v>2271</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>2269</v>
+        <v>2272</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>2270</v>
+        <v>2273</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>1835</v>
+        <v>1838</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>2271</v>
+        <v>2274</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>2272</v>
+        <v>2275</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>2273</v>
+        <v>2276</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>2274</v>
+        <v>2277</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>2275</v>
+        <v>2278</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>2276</v>
+        <v>2279</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>2277</v>
+        <v>2280</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>2278</v>
+        <v>2281</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>2279</v>
+        <v>2282</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>2280</v>
+        <v>2283</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>2281</v>
+        <v>2284</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>2282</v>
+        <v>2285</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>2283</v>
+        <v>2286</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>2284</v>
+        <v>2287</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>2285</v>
+        <v>2288</v>
       </c>
       <c r="AB11" s="12" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="12">
@@ -15478,85 +15487,85 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>2286</v>
+        <v>2289</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>2287</v>
+        <v>2290</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>2289</v>
+        <v>2292</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>2290</v>
+        <v>2293</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>2291</v>
+        <v>2294</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>2292</v>
+        <v>2295</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>2293</v>
+        <v>2296</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>2294</v>
+        <v>2297</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>1868</v>
+        <v>1871</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>2295</v>
+        <v>2298</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>2296</v>
+        <v>2299</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>2297</v>
+        <v>2300</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>2298</v>
+        <v>2301</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>1874</v>
+        <v>1877</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>2299</v>
+        <v>2302</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>2300</v>
+        <v>2303</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>2301</v>
+        <v>2304</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>2302</v>
+        <v>2305</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>2303</v>
+        <v>2306</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>2304</v>
+        <v>2307</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>2305</v>
+        <v>2308</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>2306</v>
+        <v>2309</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>2307</v>
+        <v>2310</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>2308</v>
+        <v>2311</v>
       </c>
       <c r="AB12" s="12" t="s">
-        <v>2309</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="13">
@@ -15564,85 +15573,85 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>2310</v>
+        <v>2313</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>2312</v>
+        <v>2315</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>2313</v>
+        <v>2316</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>2314</v>
+        <v>2317</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>2315</v>
+        <v>2318</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>2316</v>
+        <v>2319</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>2317</v>
+        <v>2320</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>2318</v>
+        <v>2321</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>1803</v>
+        <v>1806</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>2319</v>
+        <v>2322</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>2320</v>
+        <v>2323</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>2321</v>
+        <v>2324</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>2322</v>
+        <v>2325</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>2323</v>
+        <v>2326</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>2324</v>
+        <v>2327</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>2325</v>
+        <v>2328</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>2326</v>
+        <v>2329</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>2327</v>
+        <v>2330</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>2328</v>
+        <v>2331</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>2329</v>
+        <v>2332</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>2330</v>
+        <v>2333</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>2331</v>
+        <v>2334</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>2332</v>
+        <v>2335</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>2333</v>
+        <v>2336</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>2334</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="14">
@@ -15650,85 +15659,85 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>2335</v>
+        <v>2338</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>2336</v>
+        <v>2339</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>2337</v>
+        <v>2340</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>2338</v>
+        <v>2341</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>2339</v>
+        <v>2342</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>2340</v>
+        <v>2343</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>2341</v>
+        <v>2344</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>1817</v>
+        <v>1820</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>1864</v>
+        <v>1867</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>2342</v>
+        <v>2345</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>2343</v>
+        <v>2346</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>2344</v>
+        <v>2347</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>2345</v>
+        <v>2348</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>1801</v>
+        <v>1804</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>1870</v>
+        <v>1873</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>2346</v>
+        <v>2349</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>2347</v>
+        <v>2350</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>2348</v>
+        <v>2351</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>2349</v>
+        <v>2352</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>2350</v>
+        <v>2353</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>2351</v>
+        <v>2354</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>2352</v>
+        <v>2355</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>2353</v>
+        <v>2356</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>2354</v>
+        <v>2357</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>2355</v>
+        <v>2358</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>2356</v>
+        <v>2359</v>
       </c>
       <c r="AB14" s="12" t="s">
-        <v>2357</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="15">
@@ -15736,85 +15745,85 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>2358</v>
+        <v>2361</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>2359</v>
+        <v>2362</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>2360</v>
+        <v>2363</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>2361</v>
+        <v>2364</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1719</v>
+        <v>1722</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>2362</v>
+        <v>2365</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>2363</v>
+        <v>2366</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>1736</v>
+        <v>1739</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>2364</v>
+        <v>2367</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>1816</v>
+        <v>1819</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>2365</v>
+        <v>2368</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>2366</v>
+        <v>2369</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>1820</v>
+        <v>1823</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>2367</v>
+        <v>2370</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>2368</v>
+        <v>2371</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>2369</v>
+        <v>2372</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>2370</v>
+        <v>2373</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>2371</v>
+        <v>2374</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>2372</v>
+        <v>2375</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>2373</v>
+        <v>2376</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>2374</v>
+        <v>2377</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>2375</v>
+        <v>2378</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>2376</v>
+        <v>2379</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>1808</v>
+        <v>1811</v>
       </c>
       <c r="AB15" s="12" t="s">
-        <v>2377</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="16">
@@ -15822,85 +15831,85 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>2378</v>
+        <v>2381</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>2379</v>
+        <v>2382</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>2380</v>
+        <v>2383</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>2381</v>
+        <v>2384</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>2382</v>
+        <v>2385</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>2383</v>
+        <v>2386</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>2384</v>
+        <v>2387</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>2385</v>
+        <v>2388</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>2386</v>
+        <v>2389</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>2387</v>
+        <v>2390</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>2388</v>
+        <v>2391</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>2389</v>
+        <v>2392</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>2390</v>
+        <v>2393</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>2391</v>
+        <v>2394</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>2392</v>
+        <v>2395</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>2393</v>
+        <v>2396</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>2394</v>
+        <v>2397</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>2395</v>
+        <v>2398</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>2396</v>
+        <v>2399</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>2397</v>
+        <v>2400</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>2398</v>
+        <v>2401</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>2399</v>
+        <v>2402</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>2400</v>
+        <v>2403</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>2401</v>
+        <v>2404</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>2402</v>
+        <v>2405</v>
       </c>
       <c r="AB16" s="12" t="s">
-        <v>2403</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="17">
@@ -15908,85 +15917,85 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>2404</v>
+        <v>2407</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>2405</v>
+        <v>2408</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>2406</v>
+        <v>2409</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>2407</v>
+        <v>2410</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>2408</v>
+        <v>2411</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>2409</v>
+        <v>2412</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>2410</v>
+        <v>2413</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>2411</v>
+        <v>2414</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>1792</v>
+        <v>1795</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>1837</v>
+        <v>1840</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>2412</v>
+        <v>2415</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>2413</v>
+        <v>2416</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>2414</v>
+        <v>2417</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>2415</v>
+        <v>2418</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>2416</v>
+        <v>2419</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>2417</v>
+        <v>2420</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>1866</v>
+        <v>1869</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>2418</v>
+        <v>2421</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>2419</v>
+        <v>2422</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>2420</v>
+        <v>2423</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>2421</v>
+        <v>2424</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>2422</v>
+        <v>2425</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>2423</v>
+        <v>2426</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>1850</v>
+        <v>1853</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>2424</v>
+        <v>2427</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>2425</v>
+        <v>2428</v>
       </c>
       <c r="AB17" s="12" t="s">
-        <v>2426</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="18">
@@ -15994,85 +16003,85 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>2427</v>
+        <v>2430</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>2428</v>
+        <v>2431</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>2429</v>
+        <v>2432</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>2430</v>
+        <v>2433</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1831</v>
+        <v>1834</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>1779</v>
+        <v>1782</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>2431</v>
+        <v>2434</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>2432</v>
+        <v>2435</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>2433</v>
+        <v>2436</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>2434</v>
+        <v>2437</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>2435</v>
+        <v>2438</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>1782</v>
+        <v>1785</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>2436</v>
+        <v>2439</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>2437</v>
+        <v>2440</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>2438</v>
+        <v>2441</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>2439</v>
+        <v>2442</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>2440</v>
+        <v>2443</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>1840</v>
+        <v>1843</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>2441</v>
+        <v>2444</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>2442</v>
+        <v>2445</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>2443</v>
+        <v>2446</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>2444</v>
+        <v>2447</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>2445</v>
+        <v>2448</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>2446</v>
+        <v>2449</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>2447</v>
+        <v>2450</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>2448</v>
+        <v>2451</v>
       </c>
       <c r="AB18" s="12" t="s">
-        <v>2186</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="19">
@@ -16080,85 +16089,85 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>2449</v>
+        <v>2452</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>2450</v>
+        <v>2453</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>2451</v>
+        <v>2454</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>2452</v>
+        <v>2455</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>2453</v>
+        <v>2456</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>2454</v>
+        <v>2457</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>2455</v>
+        <v>2458</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>1807</v>
+        <v>1810</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>2456</v>
+        <v>2459</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>1793</v>
+        <v>1796</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>2457</v>
+        <v>2460</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>1786</v>
+        <v>1789</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>2458</v>
+        <v>2461</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>2459</v>
+        <v>2462</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>2460</v>
+        <v>2463</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>2461</v>
+        <v>2464</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>2462</v>
+        <v>2465</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>2463</v>
+        <v>2466</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>2464</v>
+        <v>2467</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>2465</v>
+        <v>2468</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>2466</v>
+        <v>2469</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>2468</v>
+        <v>2471</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>2469</v>
+        <v>2472</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>2470</v>
+        <v>2473</v>
       </c>
       <c r="AB19" s="12" t="s">
-        <v>2471</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="20">
@@ -16166,85 +16175,85 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>2472</v>
+        <v>2475</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>2473</v>
+        <v>2476</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>2474</v>
+        <v>2477</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>2475</v>
+        <v>2478</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>2476</v>
+        <v>2479</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>2477</v>
+        <v>2480</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>2478</v>
+        <v>2481</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>1825</v>
+        <v>1828</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>1873</v>
+        <v>1876</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>2479</v>
+        <v>2482</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>2480</v>
+        <v>2483</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>2481</v>
+        <v>2484</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>2482</v>
+        <v>2485</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>2483</v>
+        <v>2486</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>2484</v>
+        <v>2487</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>2485</v>
+        <v>2488</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>2486</v>
+        <v>2489</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>2487</v>
+        <v>2490</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>2488</v>
+        <v>2491</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>2489</v>
+        <v>2492</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>2490</v>
+        <v>2493</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>1731</v>
+        <v>1734</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>2491</v>
+        <v>2494</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>2492</v>
+        <v>2495</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>2493</v>
+        <v>2496</v>
       </c>
       <c r="AB20" s="12" t="s">
-        <v>2494</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="21">
@@ -16252,85 +16261,85 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>2495</v>
+        <v>2498</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>2496</v>
+        <v>2499</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>2497</v>
+        <v>2500</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>2498</v>
+        <v>2501</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>2499</v>
+        <v>2502</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1853</v>
+        <v>1856</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>2500</v>
+        <v>2503</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>2501</v>
+        <v>2504</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>2502</v>
+        <v>2505</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>2503</v>
+        <v>2506</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>2504</v>
+        <v>2507</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>1878</v>
+        <v>1881</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>2505</v>
+        <v>2508</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>2506</v>
+        <v>2509</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>2507</v>
+        <v>2510</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>2508</v>
+        <v>2511</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>2509</v>
+        <v>2512</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>2510</v>
+        <v>2513</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>2511</v>
+        <v>2514</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>2512</v>
+        <v>2515</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>2513</v>
+        <v>2516</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>2514</v>
+        <v>2517</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>2515</v>
+        <v>2518</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>2516</v>
+        <v>2519</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>2517</v>
+        <v>2520</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>1707</v>
+        <v>1710</v>
       </c>
       <c r="AB21" s="12" t="s">
-        <v>2518</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="22">
@@ -16338,85 +16347,85 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>2519</v>
+        <v>2522</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>2520</v>
+        <v>2523</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>2521</v>
+        <v>2524</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>2522</v>
+        <v>2525</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>2523</v>
+        <v>2526</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>2524</v>
+        <v>2527</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>2525</v>
+        <v>2528</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>2526</v>
+        <v>2529</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>2527</v>
+        <v>2530</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>2528</v>
+        <v>2531</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>2529</v>
+        <v>2532</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>2530</v>
+        <v>2533</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>1855</v>
+        <v>1858</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>1735</v>
+        <v>1738</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>2531</v>
+        <v>2534</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>2532</v>
+        <v>2535</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>2533</v>
+        <v>2536</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>2534</v>
+        <v>2537</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>2535</v>
+        <v>2538</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>2537</v>
+        <v>2540</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>2538</v>
+        <v>2541</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>2539</v>
+        <v>2542</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>2540</v>
+        <v>2543</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>1859</v>
+        <v>1862</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>2541</v>
+        <v>2544</v>
       </c>
       <c r="AB22" s="12" t="s">
-        <v>2542</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="23">
@@ -16424,85 +16433,85 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>2543</v>
+        <v>2546</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>2544</v>
+        <v>2547</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>2545</v>
+        <v>2548</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>2546</v>
+        <v>2549</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>2547</v>
+        <v>2550</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>2548</v>
+        <v>2551</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>2549</v>
+        <v>2552</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>2550</v>
+        <v>2553</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>2551</v>
+        <v>2554</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>2552</v>
+        <v>2555</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>2553</v>
+        <v>2556</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>2554</v>
+        <v>2557</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>2555</v>
+        <v>2558</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>2556</v>
+        <v>2559</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>2557</v>
+        <v>2560</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>2558</v>
+        <v>2561</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>2559</v>
+        <v>2562</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>2560</v>
+        <v>2563</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>2561</v>
+        <v>2564</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>2562</v>
+        <v>2565</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>1860</v>
+        <v>1863</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>2563</v>
+        <v>2566</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>2564</v>
+        <v>2567</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>2565</v>
+        <v>2568</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>2566</v>
+        <v>2569</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>2567</v>
+        <v>2570</v>
       </c>
       <c r="AB23" s="12" t="s">
-        <v>2568</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="24">
@@ -16510,85 +16519,85 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>2569</v>
+        <v>2572</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>2570</v>
+        <v>2573</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>2571</v>
+        <v>2574</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>2572</v>
+        <v>2575</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>2573</v>
+        <v>2576</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>2574</v>
+        <v>2577</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>1811</v>
+        <v>1814</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>2575</v>
+        <v>2578</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>2576</v>
+        <v>2579</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>2577</v>
+        <v>2580</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>2578</v>
+        <v>2581</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>2579</v>
+        <v>2582</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>2580</v>
+        <v>2583</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>2581</v>
+        <v>2584</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>2582</v>
+        <v>2585</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>2583</v>
+        <v>2586</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>2584</v>
+        <v>2587</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>2585</v>
+        <v>2588</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>2586</v>
+        <v>2589</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>2587</v>
+        <v>2590</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>2588</v>
+        <v>2591</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>2589</v>
+        <v>2592</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>2590</v>
+        <v>2593</v>
       </c>
       <c r="Y24" s="5" t="s">
-        <v>2591</v>
+        <v>2594</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>2592</v>
+        <v>2595</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>2593</v>
+        <v>2596</v>
       </c>
       <c r="AB24" s="12" t="s">
-        <v>2594</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="25">
@@ -16596,85 +16605,85 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>2595</v>
+        <v>2598</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>2596</v>
+        <v>2599</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>2597</v>
+        <v>2600</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>2598</v>
+        <v>2601</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>2599</v>
+        <v>2602</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>2600</v>
+        <v>2603</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>2601</v>
+        <v>2604</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>2603</v>
+        <v>2606</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>2604</v>
+        <v>2607</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>2605</v>
+        <v>2608</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>2606</v>
+        <v>2609</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>2607</v>
+        <v>2610</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>2608</v>
+        <v>2611</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>2609</v>
+        <v>2612</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>1805</v>
+        <v>1808</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>2610</v>
+        <v>2613</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>2611</v>
+        <v>2614</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>1766</v>
+        <v>1769</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>2612</v>
+        <v>2615</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>2613</v>
+        <v>2616</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>2614</v>
+        <v>2617</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>2615</v>
+        <v>2618</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>2616</v>
+        <v>2619</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>2617</v>
+        <v>2620</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>2618</v>
+        <v>2621</v>
       </c>
       <c r="AB25" s="12" t="s">
-        <v>2235</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="26">
@@ -16682,85 +16691,85 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>2619</v>
+        <v>2622</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>2620</v>
+        <v>2623</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>2621</v>
+        <v>2624</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>2622</v>
+        <v>2625</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>2623</v>
+        <v>2626</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>2624</v>
+        <v>2627</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>2625</v>
+        <v>2628</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>2626</v>
+        <v>2629</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>2627</v>
+        <v>2630</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>2628</v>
+        <v>2631</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>2629</v>
+        <v>2632</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>2630</v>
+        <v>2633</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>1843</v>
+        <v>1846</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>2631</v>
+        <v>2634</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>1879</v>
+        <v>1882</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>2632</v>
+        <v>2635</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>2633</v>
+        <v>2636</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>2634</v>
+        <v>2637</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>2635</v>
+        <v>2638</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>2636</v>
+        <v>2639</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>2637</v>
+        <v>2640</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>2638</v>
+        <v>2641</v>
       </c>
       <c r="Y26" s="5" t="s">
-        <v>2639</v>
+        <v>2642</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>2640</v>
+        <v>2643</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>2641</v>
+        <v>2644</v>
       </c>
       <c r="AB26" s="12" t="s">
-        <v>2642</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="27">
@@ -16768,85 +16777,85 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>2643</v>
+        <v>2646</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>2644</v>
+        <v>2647</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>2645</v>
+        <v>2648</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>2646</v>
+        <v>2649</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>2647</v>
+        <v>2650</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>2648</v>
+        <v>2651</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>2649</v>
+        <v>2652</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>2650</v>
+        <v>2653</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>2651</v>
+        <v>2654</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>2652</v>
+        <v>2655</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>2653</v>
+        <v>2656</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>2654</v>
+        <v>2657</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>2655</v>
+        <v>2658</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>2656</v>
+        <v>2659</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>2657</v>
+        <v>2660</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>2658</v>
+        <v>2661</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>2659</v>
+        <v>2662</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>2660</v>
+        <v>2663</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>2661</v>
+        <v>2664</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>2662</v>
+        <v>2665</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>1721</v>
+        <v>1724</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>2663</v>
+        <v>2666</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>2664</v>
+        <v>2667</v>
       </c>
       <c r="Y27" s="5" t="s">
-        <v>2665</v>
+        <v>2668</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>2666</v>
+        <v>2669</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>2667</v>
+        <v>2670</v>
       </c>
       <c r="AB27" s="12" t="s">
-        <v>2668</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="28">
@@ -16854,85 +16863,85 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>2669</v>
+        <v>2672</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>2670</v>
+        <v>2673</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>2671</v>
+        <v>2674</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>2672</v>
+        <v>2675</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>2673</v>
+        <v>2676</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>2674</v>
+        <v>2677</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>1833</v>
+        <v>1836</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>2675</v>
+        <v>2678</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>2676</v>
+        <v>2679</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>2677</v>
+        <v>2680</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>2678</v>
+        <v>2681</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>2679</v>
+        <v>2682</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>2680</v>
+        <v>2683</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>2681</v>
+        <v>2684</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>2682</v>
+        <v>2685</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>2683</v>
+        <v>2686</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>2684</v>
+        <v>2687</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>2685</v>
+        <v>2688</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>2686</v>
+        <v>2689</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>2687</v>
+        <v>2690</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>2688</v>
+        <v>2691</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>2689</v>
+        <v>2692</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>2690</v>
+        <v>2693</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>2691</v>
+        <v>2694</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>2692</v>
+        <v>2695</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>2693</v>
+        <v>2696</v>
       </c>
       <c r="AB28" s="12" t="s">
-        <v>2694</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="29">
@@ -16940,85 +16949,85 @@
         <v>45</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>2695</v>
+        <v>2698</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>2696</v>
+        <v>2699</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>2697</v>
+        <v>2700</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>2698</v>
+        <v>2701</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>2699</v>
+        <v>2702</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>2700</v>
+        <v>2703</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>2701</v>
+        <v>2704</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>2702</v>
+        <v>2705</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>2703</v>
+        <v>2706</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>2704</v>
+        <v>2707</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>2705</v>
+        <v>2708</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>2706</v>
+        <v>2709</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>2707</v>
+        <v>2710</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>2708</v>
+        <v>2711</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>2709</v>
+        <v>2712</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>2710</v>
+        <v>2713</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>2711</v>
+        <v>2714</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>2712</v>
+        <v>2715</v>
       </c>
       <c r="T29" s="9" t="s">
-        <v>2713</v>
+        <v>2716</v>
       </c>
       <c r="U29" s="9" t="s">
-        <v>2714</v>
+        <v>2717</v>
       </c>
       <c r="V29" s="9" t="s">
-        <v>2715</v>
+        <v>2718</v>
       </c>
       <c r="W29" s="9" t="s">
-        <v>2716</v>
+        <v>2719</v>
       </c>
       <c r="X29" s="9" t="s">
-        <v>2480</v>
+        <v>2483</v>
       </c>
       <c r="Y29" s="9" t="s">
-        <v>2717</v>
+        <v>2720</v>
       </c>
       <c r="Z29" s="9" t="s">
-        <v>2718</v>
+        <v>2721</v>
       </c>
       <c r="AA29" s="9" t="s">
-        <v>2719</v>
+        <v>2722</v>
       </c>
       <c r="AB29" s="12" t="s">
-        <v>2720</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="30">
@@ -17026,85 +17035,85 @@
         <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>2721</v>
+        <v>2724</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>2722</v>
+        <v>2725</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>2723</v>
+        <v>2726</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>2724</v>
+        <v>2727</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>2725</v>
+        <v>2728</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>2726</v>
+        <v>2729</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>2727</v>
+        <v>2730</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>2728</v>
+        <v>2731</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>2729</v>
+        <v>2732</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>2730</v>
+        <v>2733</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>2731</v>
+        <v>2734</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>2732</v>
+        <v>2735</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>2733</v>
+        <v>2736</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>2734</v>
+        <v>2737</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>2735</v>
+        <v>2738</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>2736</v>
+        <v>2739</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>2737</v>
+        <v>2740</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>2738</v>
+        <v>2741</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>2739</v>
+        <v>2742</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>2740</v>
+        <v>2743</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>2741</v>
+        <v>2744</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>2742</v>
+        <v>2745</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>2743</v>
+        <v>2746</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>2744</v>
+        <v>2747</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>2745</v>
+        <v>2748</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>2746</v>
+        <v>2749</v>
       </c>
       <c r="AB30" s="3" t="s">
-        <v>2747</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="31">
@@ -17112,85 +17121,85 @@
         <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2748</v>
+        <v>2751</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>2749</v>
+        <v>2752</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>2750</v>
+        <v>2753</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>2751</v>
+        <v>2754</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>2752</v>
+        <v>2755</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>2753</v>
+        <v>2756</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>2754</v>
+        <v>2757</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>2755</v>
+        <v>2758</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>2756</v>
+        <v>2759</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>2757</v>
+        <v>2760</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>2758</v>
+        <v>2761</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>2759</v>
+        <v>2762</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>2760</v>
+        <v>2763</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>2761</v>
+        <v>2764</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>2762</v>
+        <v>2765</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>2763</v>
+        <v>2766</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>2764</v>
+        <v>2767</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>2765</v>
+        <v>2768</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>2766</v>
+        <v>2769</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>2767</v>
+        <v>2770</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>2768</v>
+        <v>2771</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>2769</v>
+        <v>2772</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>2770</v>
+        <v>2773</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>2771</v>
+        <v>2774</v>
       </c>
       <c r="Z31" s="2" t="s">
-        <v>2772</v>
+        <v>2775</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>2773</v>
+        <v>2776</v>
       </c>
       <c r="AB31" s="3" t="s">
-        <v>2774</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="32">
@@ -17276,7 +17285,7 @@
         <v>161</v>
       </c>
       <c r="AB32" s="12" t="s">
-        <v>2775</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="33">
@@ -17362,7 +17371,7 @@
         <v>161</v>
       </c>
       <c r="AB33" s="12" t="s">
-        <v>2776</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="34">
@@ -17448,7 +17457,7 @@
         <v>161</v>
       </c>
       <c r="AB34" s="12" t="s">
-        <v>2777</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="35">
@@ -17534,7 +17543,7 @@
         <v>161</v>
       </c>
       <c r="AB35" s="12" t="s">
-        <v>2778</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="36">
@@ -17542,85 +17551,85 @@
         <v>67</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>2779</v>
+        <v>2782</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>2780</v>
+        <v>2783</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1905</v>
+        <v>1908</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>2782</v>
+        <v>2785</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>2783</v>
+        <v>2786</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>2786</v>
+        <v>2789</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>2787</v>
+        <v>2790</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>2788</v>
+        <v>2791</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>2789</v>
+        <v>2792</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>2790</v>
+        <v>2793</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>2791</v>
+        <v>2794</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>2792</v>
+        <v>2795</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>2793</v>
+        <v>2796</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>2794</v>
+        <v>2797</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>2795</v>
+        <v>2798</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>2796</v>
+        <v>2799</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>2797</v>
+        <v>2800</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>2798</v>
+        <v>2801</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>2799</v>
+        <v>2802</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>2800</v>
+        <v>2803</v>
       </c>
       <c r="Y36" s="2" t="s">
-        <v>2801</v>
+        <v>2804</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>2802</v>
+        <v>2805</v>
       </c>
       <c r="AA36" s="2" t="s">
-        <v>2803</v>
+        <v>2806</v>
       </c>
       <c r="AB36" s="3" t="s">
-        <v>2804</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="37">
@@ -17706,7 +17715,7 @@
         <v>161</v>
       </c>
       <c r="AB37" s="12" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="38">
@@ -17792,7 +17801,7 @@
         <v>161</v>
       </c>
       <c r="AB38" s="12" t="s">
-        <v>2806</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="39">
@@ -17878,7 +17887,7 @@
         <v>161</v>
       </c>
       <c r="AB39" s="12" t="s">
-        <v>2807</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="40">
@@ -17964,7 +17973,7 @@
         <v>161</v>
       </c>
       <c r="AB40" s="12" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="41">
@@ -18050,7 +18059,7 @@
         <v>161</v>
       </c>
       <c r="AB41" s="12" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="42">
@@ -18141,88 +18150,88 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2810</v>
+        <v>2813</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2811</v>
+        <v>2814</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2812</v>
+        <v>2815</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>2813</v>
+        <v>2816</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>2814</v>
+        <v>2817</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>2815</v>
+        <v>2818</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>2816</v>
+        <v>2819</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>2817</v>
+        <v>2820</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>2819</v>
+        <v>2822</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>2820</v>
+        <v>2823</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>2821</v>
+        <v>2824</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>2822</v>
+        <v>2825</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>2823</v>
+        <v>2826</v>
       </c>
       <c r="O43" s="11" t="s">
-        <v>2824</v>
+        <v>2827</v>
       </c>
       <c r="P43" s="9" t="s">
-        <v>2825</v>
+        <v>2828</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>2826</v>
+        <v>2829</v>
       </c>
       <c r="R43" s="9" t="s">
-        <v>2827</v>
+        <v>2830</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>2828</v>
+        <v>2831</v>
       </c>
       <c r="T43" s="9" t="s">
-        <v>2829</v>
+        <v>2832</v>
       </c>
       <c r="U43" s="9" t="s">
-        <v>2830</v>
+        <v>2833</v>
       </c>
       <c r="V43" s="9" t="s">
-        <v>2831</v>
+        <v>2834</v>
       </c>
       <c r="W43" s="9" t="s">
-        <v>2832</v>
+        <v>2835</v>
       </c>
       <c r="X43" s="9" t="s">
-        <v>2833</v>
+        <v>2836</v>
       </c>
       <c r="Y43" s="9" t="s">
-        <v>2834</v>
+        <v>2837</v>
       </c>
       <c r="Z43" s="9" t="s">
-        <v>2835</v>
+        <v>2838</v>
       </c>
       <c r="AA43" s="9" t="s">
-        <v>2836</v>
+        <v>2839</v>
       </c>
       <c r="AB43" s="12" t="s">
-        <v>2357</v>
+        <v>2360</v>
       </c>
     </row>
   </sheetData>
@@ -18248,7 +18257,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2837</v>
+        <v>2840</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -18262,16 +18271,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2838</v>
+        <v>2841</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2839</v>
+        <v>2842</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2840</v>
+        <v>2843</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>2841</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="3">
@@ -18279,10 +18288,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2842</v>
+        <v>2845</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2843</v>
+        <v>2846</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>19</v>
@@ -18293,10 +18302,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2844</v>
+        <v>2847</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>2845</v>
+        <v>2848</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>19</v>
@@ -18307,10 +18316,10 @@
         <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2846</v>
+        <v>2849</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2847</v>
+        <v>2850</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>19</v>
@@ -18321,10 +18330,10 @@
         <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2848</v>
+        <v>2851</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>2849</v>
+        <v>2852</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>19</v>
@@ -18335,10 +18344,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>2850</v>
+        <v>2853</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2851</v>
+        <v>2854</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>19</v>
@@ -18349,10 +18358,10 @@
         <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>2852</v>
+        <v>2855</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2853</v>
+        <v>2856</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>19</v>
@@ -18363,10 +18372,10 @@
         <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>2854</v>
+        <v>2857</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>2855</v>
+        <v>2858</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>19</v>
@@ -18377,10 +18386,10 @@
         <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2856</v>
+        <v>2859</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>2857</v>
+        <v>2860</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>19</v>
@@ -18391,10 +18400,10 @@
         <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>2858</v>
+        <v>2861</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>2859</v>
+        <v>2862</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>19</v>
@@ -18405,10 +18414,10 @@
         <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>2860</v>
+        <v>2863</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>2861</v>
+        <v>2864</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>19</v>
@@ -18419,10 +18428,10 @@
         <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2862</v>
+        <v>2865</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>2863</v>
+        <v>2866</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>19</v>
@@ -18433,10 +18442,10 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2864</v>
+        <v>2867</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>2865</v>
+        <v>2868</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>19</v>
@@ -18447,10 +18456,10 @@
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>2866</v>
+        <v>2869</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>2867</v>
+        <v>2870</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>19</v>
@@ -18461,10 +18470,10 @@
         <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>2868</v>
+        <v>2871</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>2869</v>
+        <v>2872</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>19</v>
@@ -18475,10 +18484,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>2870</v>
+        <v>2873</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>2871</v>
+        <v>2874</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>19</v>
@@ -18489,10 +18498,10 @@
         <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>2872</v>
+        <v>2875</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>2873</v>
+        <v>2876</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>19</v>
@@ -18503,10 +18512,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>2874</v>
+        <v>2877</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>2875</v>
+        <v>2878</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>19</v>
@@ -18517,10 +18526,10 @@
         <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>2876</v>
+        <v>2879</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>2877</v>
+        <v>2880</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>19</v>
@@ -18531,10 +18540,10 @@
         <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>2878</v>
+        <v>2881</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>2879</v>
+        <v>2882</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>19</v>
@@ -18545,10 +18554,10 @@
         <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>2880</v>
+        <v>2883</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>2881</v>
+        <v>2884</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>19</v>
@@ -18559,10 +18568,10 @@
         <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>2882</v>
+        <v>2885</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>2883</v>
+        <v>2886</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>19</v>
@@ -18573,10 +18582,10 @@
         <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>2884</v>
+        <v>2887</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>2885</v>
+        <v>2888</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>19</v>
@@ -18587,10 +18596,10 @@
         <v>41</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>2886</v>
+        <v>2889</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>2887</v>
+        <v>2890</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>19</v>
@@ -18601,10 +18610,10 @@
         <v>42</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>2888</v>
+        <v>2891</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>2889</v>
+        <v>2892</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>19</v>
@@ -18615,10 +18624,10 @@
         <v>43</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>2890</v>
+        <v>2893</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>2891</v>
+        <v>2894</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>19</v>
@@ -18629,10 +18638,10 @@
         <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>2892</v>
+        <v>2895</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>2893</v>
+        <v>2896</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>19</v>
@@ -18643,13 +18652,13 @@
         <v>45</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>2894</v>
+        <v>2897</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>2895</v>
+        <v>2898</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>2896</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="30">
@@ -18657,13 +18666,13 @@
         <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>2897</v>
+        <v>2900</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>2898</v>
+        <v>2901</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>2899</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="31">
@@ -18671,13 +18680,13 @@
         <v>62</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>2900</v>
+        <v>2903</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>2901</v>
+        <v>2904</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>2902</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="32">
@@ -18685,13 +18694,13 @@
         <v>63</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>2903</v>
+        <v>2906</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>2904</v>
+        <v>2907</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>2905</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="33">
@@ -18699,13 +18708,13 @@
         <v>64</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>2906</v>
+        <v>2909</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>2907</v>
+        <v>2910</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>2908</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="34">
@@ -18713,13 +18722,13 @@
         <v>65</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>2909</v>
+        <v>2912</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>2910</v>
+        <v>2913</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>2911</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="35">
@@ -18733,7 +18742,7 @@
         <v>56</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>2912</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="36">
@@ -18741,13 +18750,13 @@
         <v>67</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>2913</v>
+        <v>2916</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>2914</v>
+        <v>2917</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>2915</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="37">
@@ -18755,13 +18764,13 @@
         <v>76</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>2916</v>
+        <v>2919</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>2917</v>
+        <v>2920</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>2918</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="38">
@@ -18769,13 +18778,13 @@
         <v>77</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>2919</v>
+        <v>2922</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>2920</v>
+        <v>2923</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>2921</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="39">
@@ -18789,7 +18798,7 @@
         <v>56</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>2922</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="40">
@@ -18803,7 +18812,7 @@
         <v>56</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>2923</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="41">
@@ -18811,10 +18820,10 @@
         <v>80</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>2924</v>
+        <v>2927</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>2925</v>
+        <v>2928</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>295</v>
@@ -18836,16 +18845,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2926</v>
+        <v>2929</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2927</v>
+        <v>2930</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2928</v>
+        <v>2931</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>2929</v>
+        <v>2932</v>
       </c>
     </row>
   </sheetData>

--- a/iceKnives32/Offline Documents (Periodic)/iceKnives32.xlsx
+++ b/iceKnives32/Offline Documents (Periodic)/iceKnives32.xlsx
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="2933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="2937">
   <si>
     <t>[]</t>
   </si>
@@ -5425,6 +5425,18 @@
   </si>
   <si>
     <t>sky</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>tropical</t>
+  </si>
+  <si>
+    <t>nation</t>
+  </si>
+  <si>
+    <t>recursion</t>
   </si>
   <si>
     <t>sets</t>
@@ -11520,25 +11532,25 @@
         <v>1703</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>18</v>
+        <v>1704</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>18</v>
+        <v>1705</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>18</v>
+        <v>1706</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>18</v>
+        <v>1707</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>1704</v>
+        <v>1708</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>1705</v>
+        <v>1709</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>19</v>
+        <v>756</v>
       </c>
     </row>
     <row r="29">
@@ -11949,7 +11961,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1706</v>
+        <v>1710</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>91</v>
@@ -11973,7 +11985,7 @@
         <v>97</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1707</v>
+        <v>1711</v>
       </c>
     </row>
   </sheetData>
@@ -12002,7 +12014,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>1708</v>
+        <v>1712</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -12031,28 +12043,28 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>1709</v>
+        <v>1713</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1710</v>
+        <v>1714</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1712</v>
+        <v>1716</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1713</v>
+        <v>1717</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1715</v>
+        <v>1719</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>1716</v>
+        <v>1720</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>303</v>
@@ -12063,25 +12075,25 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1717</v>
+        <v>1721</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1718</v>
+        <v>1722</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1719</v>
+        <v>1723</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1720</v>
+        <v>1724</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>1721</v>
+        <v>1725</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>1722</v>
+        <v>1726</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>1723</v>
+        <v>1727</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>19</v>
@@ -12092,25 +12104,25 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1724</v>
+        <v>1728</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1725</v>
+        <v>1729</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>1012</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1726</v>
+        <v>1730</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>1727</v>
+        <v>1731</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1728</v>
+        <v>1732</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>1729</v>
+        <v>1733</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>19</v>
@@ -12121,25 +12133,25 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1730</v>
+        <v>1734</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1731</v>
+        <v>1735</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>1027</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1732</v>
+        <v>1736</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1733</v>
+        <v>1737</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>1734</v>
+        <v>1738</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>1735</v>
+        <v>1739</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>19</v>
@@ -12150,25 +12162,25 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1736</v>
+        <v>1740</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1737</v>
+        <v>1741</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>747</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1738</v>
+        <v>1742</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>1739</v>
+        <v>1743</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1740</v>
+        <v>1744</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>1741</v>
+        <v>1745</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>19</v>
@@ -12179,25 +12191,25 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1742</v>
+        <v>1746</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1743</v>
+        <v>1747</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>456</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1744</v>
+        <v>1748</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1745</v>
+        <v>1749</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>1746</v>
+        <v>1750</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>1747</v>
+        <v>1751</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>19</v>
@@ -12208,25 +12220,25 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1748</v>
+        <v>1752</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1749</v>
+        <v>1753</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>124</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1750</v>
+        <v>1754</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1751</v>
+        <v>1755</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1752</v>
+        <v>1756</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>1753</v>
+        <v>1757</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>19</v>
@@ -12237,25 +12249,25 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1754</v>
+        <v>1758</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1755</v>
+        <v>1759</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>360</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1756</v>
+        <v>1760</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>1757</v>
+        <v>1761</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1758</v>
+        <v>1762</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>1759</v>
+        <v>1763</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>19</v>
@@ -12266,25 +12278,25 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1760</v>
+        <v>1764</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1761</v>
+        <v>1765</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1762</v>
+        <v>1766</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1763</v>
+        <v>1767</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>1764</v>
+        <v>1768</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1765</v>
+        <v>1769</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>1766</v>
+        <v>1770</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>19</v>
@@ -12295,25 +12307,25 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1767</v>
+        <v>1771</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1768</v>
+        <v>1772</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>488</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1769</v>
+        <v>1773</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>1770</v>
+        <v>1774</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1771</v>
+        <v>1775</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>19</v>
@@ -12324,25 +12336,25 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1773</v>
+        <v>1777</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1119</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1775</v>
+        <v>1779</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>19</v>
@@ -12353,25 +12365,25 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1779</v>
+        <v>1783</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1780</v>
+        <v>1784</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>470</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1782</v>
+        <v>1786</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1783</v>
+        <v>1787</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>1784</v>
+        <v>1788</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>19</v>
@@ -12382,25 +12394,25 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1785</v>
+        <v>1789</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1786</v>
+        <v>1790</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>211</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1787</v>
+        <v>1791</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1788</v>
+        <v>1792</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1789</v>
+        <v>1793</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>1790</v>
+        <v>1794</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>19</v>
@@ -12411,25 +12423,25 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1791</v>
+        <v>1795</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1792</v>
+        <v>1796</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1793</v>
+        <v>1797</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1794</v>
+        <v>1798</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1795</v>
+        <v>1799</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1796</v>
+        <v>1800</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>1797</v>
+        <v>1801</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>19</v>
@@ -12440,25 +12452,25 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1798</v>
+        <v>1802</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1799</v>
+        <v>1803</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>625</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1800</v>
+        <v>1804</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1801</v>
+        <v>1805</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>1802</v>
+        <v>1806</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>1803</v>
+        <v>1807</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>19</v>
@@ -12469,25 +12481,25 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1804</v>
+        <v>1808</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1805</v>
+        <v>1809</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>768</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1806</v>
+        <v>1810</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>1807</v>
+        <v>1811</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1808</v>
+        <v>1812</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>1809</v>
+        <v>1813</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>19</v>
@@ -12498,25 +12510,25 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1810</v>
+        <v>1814</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1811</v>
+        <v>1815</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>845</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1812</v>
+        <v>1816</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1813</v>
+        <v>1817</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>1814</v>
+        <v>1818</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>1815</v>
+        <v>1819</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>19</v>
@@ -12527,25 +12539,25 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1816</v>
+        <v>1820</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1817</v>
+        <v>1821</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>1311</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1818</v>
+        <v>1822</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>1819</v>
+        <v>1823</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>1820</v>
+        <v>1824</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>1821</v>
+        <v>1825</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>19</v>
@@ -12556,25 +12568,25 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1822</v>
+        <v>1826</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1823</v>
+        <v>1827</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1824</v>
+        <v>1828</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1825</v>
+        <v>1829</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>1826</v>
+        <v>1830</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1827</v>
+        <v>1831</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>1828</v>
+        <v>1832</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>19</v>
@@ -12585,25 +12597,25 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1829</v>
+        <v>1833</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1830</v>
+        <v>1834</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1831</v>
+        <v>1835</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1832</v>
+        <v>1836</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>1833</v>
+        <v>1837</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1834</v>
+        <v>1838</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>1835</v>
+        <v>1839</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>19</v>
@@ -12614,25 +12626,25 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1836</v>
+        <v>1840</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1837</v>
+        <v>1841</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>932</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1838</v>
+        <v>1842</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>1839</v>
+        <v>1843</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>1840</v>
+        <v>1844</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>1841</v>
+        <v>1845</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>19</v>
@@ -12643,25 +12655,25 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1842</v>
+        <v>1846</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1843</v>
+        <v>1847</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1844</v>
+        <v>1848</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1845</v>
+        <v>1849</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>1846</v>
+        <v>1850</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1847</v>
+        <v>1851</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>1848</v>
+        <v>1852</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>19</v>
@@ -12672,25 +12684,25 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1849</v>
+        <v>1853</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1850</v>
+        <v>1854</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>472</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1851</v>
+        <v>1855</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>1852</v>
+        <v>1856</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>1853</v>
+        <v>1857</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>1854</v>
+        <v>1858</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>19</v>
@@ -12701,25 +12713,25 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1855</v>
+        <v>1859</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1856</v>
+        <v>1860</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>424</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1857</v>
+        <v>1861</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>1858</v>
+        <v>1862</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>1859</v>
+        <v>1863</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>1860</v>
+        <v>1864</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>19</v>
@@ -12730,25 +12742,25 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1861</v>
+        <v>1865</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1862</v>
+        <v>1866</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>925</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1863</v>
+        <v>1867</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>1864</v>
+        <v>1868</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1865</v>
+        <v>1869</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>1866</v>
+        <v>1870</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>19</v>
@@ -12759,25 +12771,25 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1867</v>
+        <v>1871</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1868</v>
+        <v>1872</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>1383</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1869</v>
+        <v>1873</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>1870</v>
+        <v>1874</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>1871</v>
+        <v>1875</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>1872</v>
+        <v>1876</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>19</v>
@@ -12788,25 +12800,25 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1873</v>
+        <v>1877</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1874</v>
+        <v>1878</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>429</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1875</v>
+        <v>1879</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>1876</v>
+        <v>1880</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>1877</v>
+        <v>1881</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>1878</v>
+        <v>1882</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>19</v>
@@ -12817,25 +12829,25 @@
         <v>45</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1879</v>
+        <v>1883</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1880</v>
+        <v>1884</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>373</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1881</v>
+        <v>1885</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>1882</v>
+        <v>1886</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1883</v>
+        <v>1887</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>1884</v>
+        <v>1888</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>335</v>
@@ -12846,28 +12858,28 @@
         <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1885</v>
+        <v>1889</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1886</v>
+        <v>1890</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1887</v>
+        <v>1891</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>1888</v>
+        <v>1892</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1889</v>
+        <v>1893</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>1890</v>
+        <v>1894</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>1891</v>
+        <v>1895</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>1892</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="31">
@@ -12875,28 +12887,28 @@
         <v>62</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1893</v>
+        <v>1897</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1894</v>
+        <v>1898</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1895</v>
+        <v>1899</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>1896</v>
+        <v>1900</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>1897</v>
+        <v>1901</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>1898</v>
+        <v>1902</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>1899</v>
+        <v>1903</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>1900</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="32">
@@ -12925,7 +12937,7 @@
         <v>61</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>1901</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="33">
@@ -12954,7 +12966,7 @@
         <v>61</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>1902</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="34">
@@ -12983,7 +12995,7 @@
         <v>61</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>1903</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="35">
@@ -13012,7 +13024,7 @@
         <v>61</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>1904</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="36">
@@ -13020,28 +13032,28 @@
         <v>67</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1905</v>
+        <v>1909</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1906</v>
+        <v>1910</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1907</v>
+        <v>1911</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>1908</v>
+        <v>1912</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>1910</v>
+        <v>1914</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>1911</v>
+        <v>1915</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>1912</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="37">
@@ -13070,7 +13082,7 @@
         <v>61</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>1913</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="38">
@@ -13099,7 +13111,7 @@
         <v>61</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>1914</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="39">
@@ -13128,7 +13140,7 @@
         <v>61</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>1915</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="40">
@@ -13157,7 +13169,7 @@
         <v>61</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>1916</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="41">
@@ -13186,7 +13198,7 @@
         <v>61</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>1917</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="42">
@@ -13220,31 +13232,31 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1918</v>
+        <v>1922</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1919</v>
+        <v>1923</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1920</v>
+        <v>1924</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1921</v>
+        <v>1925</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>1922</v>
+        <v>1926</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>1923</v>
+        <v>1927</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>1924</v>
+        <v>1928</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>1925</v>
+        <v>1929</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1926</v>
+        <v>1930</v>
       </c>
     </row>
   </sheetData>
@@ -13271,7 +13283,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1927</v>
+        <v>1931</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -13300,28 +13312,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1928</v>
+        <v>1932</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1929</v>
+        <v>1933</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1930</v>
+        <v>1934</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1931</v>
+        <v>1935</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1932</v>
+        <v>1936</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1933</v>
+        <v>1937</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1934</v>
+        <v>1938</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>1935</v>
+        <v>1939</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>19</v>
@@ -13332,13 +13344,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1936</v>
+        <v>1940</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1937</v>
+        <v>1941</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1938</v>
+        <v>1942</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>18</v>
@@ -13361,13 +13373,13 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1939</v>
+        <v>1943</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1940</v>
+        <v>1944</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1941</v>
+        <v>1945</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -13390,13 +13402,13 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1942</v>
+        <v>1946</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1943</v>
+        <v>1947</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1944</v>
+        <v>1948</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>18</v>
@@ -13419,13 +13431,13 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1945</v>
+        <v>1949</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1946</v>
+        <v>1950</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>18</v>
@@ -13448,13 +13460,13 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1948</v>
+        <v>1952</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1949</v>
+        <v>1953</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1950</v>
+        <v>1954</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>18</v>
@@ -13477,13 +13489,13 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1951</v>
+        <v>1955</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1952</v>
+        <v>1956</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1953</v>
+        <v>1957</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>18</v>
@@ -13506,13 +13518,13 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1954</v>
+        <v>1958</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1955</v>
+        <v>1959</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1956</v>
+        <v>1960</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>18</v>
@@ -13535,13 +13547,13 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1957</v>
+        <v>1961</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1958</v>
+        <v>1962</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1959</v>
+        <v>1963</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>18</v>
@@ -13564,13 +13576,13 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1960</v>
+        <v>1964</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1961</v>
+        <v>1965</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1962</v>
+        <v>1966</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>18</v>
@@ -13593,13 +13605,13 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1963</v>
+        <v>1967</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1964</v>
+        <v>1968</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1965</v>
+        <v>1969</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>18</v>
@@ -13622,13 +13634,13 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1966</v>
+        <v>1970</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1967</v>
+        <v>1971</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>18</v>
@@ -13651,13 +13663,13 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1969</v>
+        <v>1973</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1970</v>
+        <v>1974</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1971</v>
+        <v>1975</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>18</v>
@@ -13680,13 +13692,13 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1972</v>
+        <v>1976</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1973</v>
+        <v>1977</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1974</v>
+        <v>1978</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>18</v>
@@ -13709,13 +13721,13 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1975</v>
+        <v>1979</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1976</v>
+        <v>1980</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1977</v>
+        <v>1981</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>18</v>
@@ -13738,13 +13750,13 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1978</v>
+        <v>1982</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1979</v>
+        <v>1983</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1980</v>
+        <v>1984</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>18</v>
@@ -13767,13 +13779,13 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1981</v>
+        <v>1985</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1982</v>
+        <v>1986</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1983</v>
+        <v>1987</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>18</v>
@@ -13796,13 +13808,13 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>18</v>
@@ -13825,13 +13837,13 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>18</v>
@@ -13854,13 +13866,13 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>18</v>
@@ -13883,13 +13895,13 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>18</v>
@@ -13912,13 +13924,13 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>18</v>
@@ -13941,13 +13953,13 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>18</v>
@@ -13970,13 +13982,13 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>18</v>
@@ -13999,13 +14011,13 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>18</v>
@@ -14028,13 +14040,13 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>18</v>
@@ -14057,13 +14069,13 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>18</v>
@@ -14086,25 +14098,25 @@
         <v>45</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>19</v>
@@ -14489,31 +14501,31 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2022</v>
+        <v>2026</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2023</v>
+        <v>2027</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>2024</v>
+        <v>2028</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>2025</v>
+        <v>2029</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>2026</v>
+        <v>2030</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>2027</v>
+        <v>2031</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>2028</v>
+        <v>2032</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>2029</v>
+        <v>2033</v>
       </c>
     </row>
   </sheetData>
@@ -14538,7 +14550,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2030</v>
+        <v>2034</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -14562,61 +14574,61 @@
         <v>7</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>2031</v>
+        <v>2035</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>2032</v>
+        <v>2036</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>2033</v>
+        <v>2037</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>2034</v>
+        <v>2038</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>2035</v>
+        <v>2039</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>2036</v>
+        <v>2040</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>2037</v>
+        <v>2041</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>2038</v>
+        <v>2042</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>2039</v>
+        <v>2043</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>2040</v>
+        <v>2044</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>2041</v>
+        <v>2045</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>2042</v>
+        <v>2046</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>2043</v>
+        <v>2047</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>2044</v>
+        <v>2048</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>2045</v>
+        <v>2049</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>2046</v>
+        <v>2050</v>
       </c>
       <c r="Y1" s="9" t="s">
-        <v>2047</v>
+        <v>2051</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>2048</v>
+        <v>2052</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>2049</v>
+        <v>2053</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>8</v>
@@ -14624,88 +14636,88 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1927</v>
+        <v>1931</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>2051</v>
+        <v>2055</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>2052</v>
+        <v>2056</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>2053</v>
+        <v>2057</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>2054</v>
+        <v>2058</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>2055</v>
+        <v>2059</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>2056</v>
+        <v>2060</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>2057</v>
+        <v>2061</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>2058</v>
+        <v>2062</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>2059</v>
+        <v>2063</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>2060</v>
+        <v>2064</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>2061</v>
+        <v>2065</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>2062</v>
+        <v>2066</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>2063</v>
+        <v>2067</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>2064</v>
+        <v>2068</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>2065</v>
+        <v>2069</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>2066</v>
+        <v>2070</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>2067</v>
+        <v>2071</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>1848</v>
+        <v>1852</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>2068</v>
+        <v>2072</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>2069</v>
+        <v>2073</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>2070</v>
+        <v>2074</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>2071</v>
+        <v>2075</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>2072</v>
+        <v>2076</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>2073</v>
+        <v>2077</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>2074</v>
+        <v>2078</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>2075</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="3">
@@ -14713,85 +14725,85 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2076</v>
+        <v>2080</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>2077</v>
+        <v>2081</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>2078</v>
+        <v>2082</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>2079</v>
+        <v>2083</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>2080</v>
+        <v>2084</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>2081</v>
+        <v>2085</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>2082</v>
+        <v>2086</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>2083</v>
+        <v>2087</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>1787</v>
+        <v>1791</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>2084</v>
+        <v>2088</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>2085</v>
+        <v>2089</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>2086</v>
+        <v>2090</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>2087</v>
+        <v>2091</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>1773</v>
+        <v>1777</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>1850</v>
+        <v>1854</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>2088</v>
+        <v>2092</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>2089</v>
+        <v>2093</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>2090</v>
+        <v>2094</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>2091</v>
+        <v>2095</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>2092</v>
+        <v>2096</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>2093</v>
+        <v>2097</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>2094</v>
+        <v>2098</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>2095</v>
+        <v>2099</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>1805</v>
+        <v>1809</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>2096</v>
+        <v>2100</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>1880</v>
+        <v>1884</v>
       </c>
       <c r="AB3" s="12" t="s">
-        <v>2097</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="4">
@@ -14799,85 +14811,85 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2098</v>
+        <v>2102</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>2099</v>
+        <v>2103</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>2100</v>
+        <v>2104</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>2101</v>
+        <v>2105</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>2102</v>
+        <v>2106</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1758</v>
+        <v>1762</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>2103</v>
+        <v>2107</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>2104</v>
+        <v>2108</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>1813</v>
+        <v>1817</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>2105</v>
+        <v>2109</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>2106</v>
+        <v>2110</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>2107</v>
+        <v>2111</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>2108</v>
+        <v>2112</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>2109</v>
+        <v>2113</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>2110</v>
+        <v>2114</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>2111</v>
+        <v>2115</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>1800</v>
+        <v>1804</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>2112</v>
+        <v>2116</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>2113</v>
+        <v>2117</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>2114</v>
+        <v>2118</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>2115</v>
+        <v>2119</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>2116</v>
+        <v>2120</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>2117</v>
+        <v>2121</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>2118</v>
+        <v>2122</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>2119</v>
+        <v>2123</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>2120</v>
+        <v>2124</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>2121</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="5">
@@ -14885,85 +14897,85 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2122</v>
+        <v>2126</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>2123</v>
+        <v>2127</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>2124</v>
+        <v>2128</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>2125</v>
+        <v>2129</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>2126</v>
+        <v>2130</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>2127</v>
+        <v>2131</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>1857</v>
+        <v>1861</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>2128</v>
+        <v>2132</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>2129</v>
+        <v>2133</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>2130</v>
+        <v>2134</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>1865</v>
+        <v>1869</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>1720</v>
+        <v>1724</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>2131</v>
+        <v>2135</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>2132</v>
+        <v>2136</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>2133</v>
+        <v>2137</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>2134</v>
+        <v>2138</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>2135</v>
+        <v>2139</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>2136</v>
+        <v>2140</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>2137</v>
+        <v>2141</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>2138</v>
+        <v>2142</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>1736</v>
+        <v>1740</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>2139</v>
+        <v>2143</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>2140</v>
+        <v>2144</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>2141</v>
+        <v>2145</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>2142</v>
+        <v>2146</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>2143</v>
+        <v>2147</v>
       </c>
       <c r="AB5" s="12" t="s">
-        <v>2144</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="6">
@@ -14971,85 +14983,85 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>2145</v>
+        <v>2149</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>2146</v>
+        <v>2150</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>2147</v>
+        <v>2151</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>2148</v>
+        <v>2152</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>2149</v>
+        <v>2153</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>2150</v>
+        <v>2154</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>2151</v>
+        <v>2155</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>2152</v>
+        <v>2156</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>2153</v>
+        <v>2157</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>2154</v>
+        <v>2158</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>2155</v>
+        <v>2159</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>2157</v>
+        <v>2161</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>1798</v>
+        <v>1802</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>2158</v>
+        <v>2162</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>2159</v>
+        <v>2163</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>2160</v>
+        <v>2164</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>2161</v>
+        <v>2165</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>2162</v>
+        <v>2166</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>2163</v>
+        <v>2167</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>2164</v>
+        <v>2168</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>2165</v>
+        <v>2169</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>2166</v>
+        <v>2170</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>2167</v>
+        <v>2171</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>2168</v>
+        <v>2172</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>1802</v>
+        <v>1806</v>
       </c>
       <c r="AB6" s="12" t="s">
-        <v>2169</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="7">
@@ -15057,85 +15069,85 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>2170</v>
+        <v>2174</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>2171</v>
+        <v>2175</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>2172</v>
+        <v>2176</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>2173</v>
+        <v>2177</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>2174</v>
+        <v>2178</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>2175</v>
+        <v>2179</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>1849</v>
+        <v>1853</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>2177</v>
+        <v>2181</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>1783</v>
+        <v>1787</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>2178</v>
+        <v>2182</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>1870</v>
+        <v>1874</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>2179</v>
+        <v>2183</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>2180</v>
+        <v>2184</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>1874</v>
+        <v>1878</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>2181</v>
+        <v>2185</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>2182</v>
+        <v>2186</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>1733</v>
+        <v>1737</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>2183</v>
+        <v>2187</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>2184</v>
+        <v>2188</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>2185</v>
+        <v>2189</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>1728</v>
+        <v>1732</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>2186</v>
+        <v>2190</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>2187</v>
+        <v>2191</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>2188</v>
+        <v>2192</v>
       </c>
       <c r="AB7" s="12" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="8">
@@ -15143,85 +15155,85 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>2192</v>
+        <v>2196</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>2193</v>
+        <v>2197</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>2194</v>
+        <v>2198</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>2195</v>
+        <v>2199</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>2196</v>
+        <v>2200</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>1753</v>
+        <v>1757</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>2197</v>
+        <v>2201</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>1770</v>
+        <v>1774</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>2198</v>
+        <v>2202</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>2199</v>
+        <v>2203</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>1829</v>
+        <v>1833</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>2200</v>
+        <v>2204</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>2201</v>
+        <v>2205</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>1757</v>
+        <v>1761</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>2202</v>
+        <v>2206</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>2203</v>
+        <v>2207</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>2204</v>
+        <v>2208</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>2205</v>
+        <v>2209</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>2206</v>
+        <v>2210</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>2207</v>
+        <v>2211</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>2208</v>
+        <v>2212</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>2209</v>
+        <v>2213</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>2210</v>
+        <v>2214</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>2211</v>
+        <v>2215</v>
       </c>
       <c r="AB8" s="12" t="s">
-        <v>2212</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="9">
@@ -15229,85 +15241,85 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>2213</v>
+        <v>2217</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>2214</v>
+        <v>2218</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>2215</v>
+        <v>2219</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>2216</v>
+        <v>2220</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>2217</v>
+        <v>2221</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>2218</v>
+        <v>2222</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>2219</v>
+        <v>2223</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>2220</v>
+        <v>2224</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>2221</v>
+        <v>2225</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>2222</v>
+        <v>2226</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>2223</v>
+        <v>2227</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>2224</v>
+        <v>2228</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>2225</v>
+        <v>2229</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>2226</v>
+        <v>2230</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>2227</v>
+        <v>2231</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>1775</v>
+        <v>1779</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>2228</v>
+        <v>2232</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>2229</v>
+        <v>2233</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>2230</v>
+        <v>2234</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>2231</v>
+        <v>2235</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>2232</v>
+        <v>2236</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>2233</v>
+        <v>2237</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>2234</v>
+        <v>2238</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>2235</v>
+        <v>2239</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>2236</v>
+        <v>2240</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>2237</v>
+        <v>2241</v>
       </c>
       <c r="AB9" s="12" t="s">
-        <v>2238</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="10">
@@ -15315,85 +15327,85 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>2239</v>
+        <v>2243</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>2240</v>
+        <v>2244</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>2241</v>
+        <v>2245</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>2242</v>
+        <v>2246</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>2243</v>
+        <v>2247</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>2244</v>
+        <v>2248</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>2245</v>
+        <v>2249</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>2246</v>
+        <v>2250</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>2247</v>
+        <v>2251</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>2248</v>
+        <v>2252</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>2249</v>
+        <v>2253</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>2250</v>
+        <v>2254</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>2251</v>
+        <v>2255</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>2252</v>
+        <v>2256</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>2253</v>
+        <v>2257</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>2254</v>
+        <v>2258</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>2255</v>
+        <v>2259</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>2256</v>
+        <v>2260</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>1839</v>
+        <v>1843</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>2257</v>
+        <v>2261</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>2258</v>
+        <v>2262</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>2259</v>
+        <v>2263</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>2260</v>
+        <v>2264</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>2261</v>
+        <v>2265</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>2262</v>
+        <v>2266</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>2263</v>
+        <v>2267</v>
       </c>
       <c r="AB10" s="12" t="s">
-        <v>2097</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="11">
@@ -15401,85 +15413,85 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>2264</v>
+        <v>2268</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>2265</v>
+        <v>2269</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>2266</v>
+        <v>2270</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>2267</v>
+        <v>2271</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>2268</v>
+        <v>2272</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>2269</v>
+        <v>2273</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>2270</v>
+        <v>2274</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>2271</v>
+        <v>2275</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>2272</v>
+        <v>2276</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>2273</v>
+        <v>2277</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>1838</v>
+        <v>1842</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>2274</v>
+        <v>2278</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>2275</v>
+        <v>2279</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>2276</v>
+        <v>2280</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>2277</v>
+        <v>2281</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>2278</v>
+        <v>2282</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>2279</v>
+        <v>2283</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>2280</v>
+        <v>2284</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>2281</v>
+        <v>2285</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>2282</v>
+        <v>2286</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>2283</v>
+        <v>2287</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>2284</v>
+        <v>2288</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>2285</v>
+        <v>2289</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>2286</v>
+        <v>2290</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>2287</v>
+        <v>2291</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>2288</v>
+        <v>2292</v>
       </c>
       <c r="AB11" s="12" t="s">
-        <v>2121</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="12">
@@ -15487,85 +15499,85 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>2289</v>
+        <v>2293</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>2290</v>
+        <v>2294</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>2291</v>
+        <v>2295</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>2292</v>
+        <v>2296</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>2293</v>
+        <v>2297</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>2294</v>
+        <v>2298</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>2295</v>
+        <v>2299</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>2296</v>
+        <v>2300</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>2297</v>
+        <v>2301</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>1871</v>
+        <v>1875</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>2298</v>
+        <v>2302</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>2299</v>
+        <v>2303</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>1744</v>
+        <v>1748</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>2300</v>
+        <v>2304</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>2301</v>
+        <v>2305</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>1877</v>
+        <v>1881</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>2302</v>
+        <v>2306</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>2303</v>
+        <v>2307</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>2304</v>
+        <v>2308</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>2305</v>
+        <v>2309</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>2306</v>
+        <v>2310</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>2307</v>
+        <v>2311</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>2308</v>
+        <v>2312</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>2309</v>
+        <v>2313</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>2310</v>
+        <v>2314</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>2311</v>
+        <v>2315</v>
       </c>
       <c r="AB12" s="12" t="s">
-        <v>2312</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="13">
@@ -15573,85 +15585,85 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>2313</v>
+        <v>2317</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>2314</v>
+        <v>2318</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>2315</v>
+        <v>2319</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>2316</v>
+        <v>2320</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>2317</v>
+        <v>2321</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>2318</v>
+        <v>2322</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>2319</v>
+        <v>2323</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>2320</v>
+        <v>2324</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>2321</v>
+        <v>2325</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>1806</v>
+        <v>1810</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>2322</v>
+        <v>2326</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>2323</v>
+        <v>2327</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>2324</v>
+        <v>2328</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>2325</v>
+        <v>2329</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>2326</v>
+        <v>2330</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>2327</v>
+        <v>2331</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>2328</v>
+        <v>2332</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>1760</v>
+        <v>1764</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>2329</v>
+        <v>2333</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>2330</v>
+        <v>2334</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>2331</v>
+        <v>2335</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>2332</v>
+        <v>2336</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>2333</v>
+        <v>2337</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>2334</v>
+        <v>2338</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>2335</v>
+        <v>2339</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>2336</v>
+        <v>2340</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>2337</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="14">
@@ -15659,85 +15671,85 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>2338</v>
+        <v>2342</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>2339</v>
+        <v>2343</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>2340</v>
+        <v>2344</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>2341</v>
+        <v>2345</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>2342</v>
+        <v>2346</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>2343</v>
+        <v>2347</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>2344</v>
+        <v>2348</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>1820</v>
+        <v>1824</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>1867</v>
+        <v>1871</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>2345</v>
+        <v>2349</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>2346</v>
+        <v>2350</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>2347</v>
+        <v>2351</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>2348</v>
+        <v>2352</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>1804</v>
+        <v>1808</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>1873</v>
+        <v>1877</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>2349</v>
+        <v>2353</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>2350</v>
+        <v>2354</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>2352</v>
+        <v>2356</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>2353</v>
+        <v>2357</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>2354</v>
+        <v>2358</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>2355</v>
+        <v>2359</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>2356</v>
+        <v>2360</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>2357</v>
+        <v>2361</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>2358</v>
+        <v>2362</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>2359</v>
+        <v>2363</v>
       </c>
       <c r="AB14" s="12" t="s">
-        <v>2360</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="15">
@@ -15745,85 +15757,85 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>2361</v>
+        <v>2365</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>2362</v>
+        <v>2366</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>2363</v>
+        <v>2367</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>2364</v>
+        <v>2368</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1722</v>
+        <v>1726</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>2365</v>
+        <v>2369</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>2366</v>
+        <v>2370</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>1739</v>
+        <v>1743</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>2367</v>
+        <v>2371</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>1819</v>
+        <v>1823</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>2368</v>
+        <v>2372</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>2369</v>
+        <v>2373</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>1823</v>
+        <v>1827</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>2370</v>
+        <v>2374</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>1801</v>
+        <v>1805</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>2371</v>
+        <v>2375</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>2372</v>
+        <v>2376</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>1748</v>
+        <v>1752</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>2373</v>
+        <v>2377</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>2374</v>
+        <v>2378</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>2375</v>
+        <v>2379</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>2376</v>
+        <v>2380</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>2377</v>
+        <v>2381</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>2378</v>
+        <v>2382</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>2379</v>
+        <v>2383</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>1811</v>
+        <v>1815</v>
       </c>
       <c r="AB15" s="12" t="s">
-        <v>2380</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="16">
@@ -15831,85 +15843,85 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>2381</v>
+        <v>2385</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>2382</v>
+        <v>2386</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>2383</v>
+        <v>2387</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>2384</v>
+        <v>2388</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>2385</v>
+        <v>2389</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>2386</v>
+        <v>2390</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>2387</v>
+        <v>2391</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>2388</v>
+        <v>2392</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>2389</v>
+        <v>2393</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>2390</v>
+        <v>2394</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>2391</v>
+        <v>2395</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>2392</v>
+        <v>2396</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>2393</v>
+        <v>2397</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>1752</v>
+        <v>1756</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>2394</v>
+        <v>2398</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>2395</v>
+        <v>2399</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>2396</v>
+        <v>2400</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>2397</v>
+        <v>2401</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>2398</v>
+        <v>2402</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>2399</v>
+        <v>2403</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>2400</v>
+        <v>2404</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>2401</v>
+        <v>2405</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>2402</v>
+        <v>2406</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>2403</v>
+        <v>2407</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>2404</v>
+        <v>2408</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>2405</v>
+        <v>2409</v>
       </c>
       <c r="AB16" s="12" t="s">
-        <v>2406</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="17">
@@ -15917,85 +15929,85 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>2407</v>
+        <v>2411</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>2408</v>
+        <v>2412</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>2409</v>
+        <v>2413</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>2410</v>
+        <v>2414</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>2411</v>
+        <v>2415</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>2412</v>
+        <v>2416</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>2413</v>
+        <v>2417</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>2414</v>
+        <v>2418</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>1795</v>
+        <v>1799</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>1840</v>
+        <v>1844</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>2415</v>
+        <v>2419</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>2416</v>
+        <v>2420</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>2417</v>
+        <v>2421</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>2418</v>
+        <v>2422</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>2419</v>
+        <v>2423</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>2420</v>
+        <v>2424</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>1869</v>
+        <v>1873</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>2421</v>
+        <v>2425</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>2422</v>
+        <v>2426</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>2423</v>
+        <v>2427</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>2424</v>
+        <v>2428</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>2425</v>
+        <v>2429</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>2426</v>
+        <v>2430</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>1853</v>
+        <v>1857</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>2427</v>
+        <v>2431</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>2428</v>
+        <v>2432</v>
       </c>
       <c r="AB17" s="12" t="s">
-        <v>2429</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="18">
@@ -16003,85 +16015,85 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>2430</v>
+        <v>2434</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>2431</v>
+        <v>2435</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>2432</v>
+        <v>2436</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>2433</v>
+        <v>2437</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1834</v>
+        <v>1838</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>1782</v>
+        <v>1786</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>2434</v>
+        <v>2438</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>2435</v>
+        <v>2439</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>2436</v>
+        <v>2440</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>2437</v>
+        <v>2441</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>2438</v>
+        <v>2442</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>1785</v>
+        <v>1789</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>2439</v>
+        <v>2443</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>2440</v>
+        <v>2444</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>2441</v>
+        <v>2445</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>2442</v>
+        <v>2446</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>2443</v>
+        <v>2447</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>1843</v>
+        <v>1847</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>2444</v>
+        <v>2448</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>2445</v>
+        <v>2449</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>2446</v>
+        <v>2450</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>2447</v>
+        <v>2451</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>2448</v>
+        <v>2452</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>2449</v>
+        <v>2453</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>2450</v>
+        <v>2454</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>2451</v>
+        <v>2455</v>
       </c>
       <c r="AB18" s="12" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="19">
@@ -16089,85 +16101,85 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>2452</v>
+        <v>2456</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>2453</v>
+        <v>2457</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>2454</v>
+        <v>2458</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>2455</v>
+        <v>2459</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>2456</v>
+        <v>2460</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>2457</v>
+        <v>2461</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>2458</v>
+        <v>2462</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>1810</v>
+        <v>1814</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>2459</v>
+        <v>2463</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>1796</v>
+        <v>1800</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>1767</v>
+        <v>1771</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>2460</v>
+        <v>2464</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>1789</v>
+        <v>1793</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>2461</v>
+        <v>2465</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>2462</v>
+        <v>2466</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>2463</v>
+        <v>2467</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>2464</v>
+        <v>2468</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>2465</v>
+        <v>2469</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>2466</v>
+        <v>2470</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>2467</v>
+        <v>2471</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>2468</v>
+        <v>2472</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>2469</v>
+        <v>2473</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>2470</v>
+        <v>2474</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>2471</v>
+        <v>2475</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>2472</v>
+        <v>2476</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>2473</v>
+        <v>2477</v>
       </c>
       <c r="AB19" s="12" t="s">
-        <v>2474</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="20">
@@ -16175,85 +16187,85 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>2475</v>
+        <v>2479</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>2476</v>
+        <v>2480</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>2477</v>
+        <v>2481</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>2478</v>
+        <v>2482</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>2479</v>
+        <v>2483</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>2480</v>
+        <v>2484</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>2481</v>
+        <v>2485</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>1828</v>
+        <v>1832</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>1876</v>
+        <v>1880</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>1755</v>
+        <v>1759</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>2482</v>
+        <v>2486</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>2483</v>
+        <v>2487</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>2484</v>
+        <v>2488</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>2485</v>
+        <v>2489</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>2486</v>
+        <v>2490</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>2487</v>
+        <v>2491</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>2488</v>
+        <v>2492</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>2489</v>
+        <v>2493</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>2490</v>
+        <v>2494</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>2491</v>
+        <v>2495</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>2492</v>
+        <v>2496</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>2493</v>
+        <v>2497</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>1734</v>
+        <v>1738</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>2494</v>
+        <v>2498</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>2495</v>
+        <v>2499</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>2496</v>
+        <v>2500</v>
       </c>
       <c r="AB20" s="12" t="s">
-        <v>2497</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="21">
@@ -16261,85 +16273,85 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>2498</v>
+        <v>2502</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>2499</v>
+        <v>2503</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>2500</v>
+        <v>2504</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>2501</v>
+        <v>2505</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>2502</v>
+        <v>2506</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1856</v>
+        <v>1860</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>2503</v>
+        <v>2507</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>2504</v>
+        <v>2508</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>2505</v>
+        <v>2509</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>2506</v>
+        <v>2510</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>2507</v>
+        <v>2511</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>1881</v>
+        <v>1885</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>2508</v>
+        <v>2512</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>2509</v>
+        <v>2513</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>2510</v>
+        <v>2514</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>2511</v>
+        <v>2515</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>2512</v>
+        <v>2516</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>2513</v>
+        <v>2517</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>2514</v>
+        <v>2518</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>2515</v>
+        <v>2519</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>2516</v>
+        <v>2520</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>2517</v>
+        <v>2521</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>2518</v>
+        <v>2522</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>2519</v>
+        <v>2523</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>2520</v>
+        <v>2524</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>1710</v>
+        <v>1714</v>
       </c>
       <c r="AB21" s="12" t="s">
-        <v>2521</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="22">
@@ -16347,85 +16359,85 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>2522</v>
+        <v>2526</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>2523</v>
+        <v>2527</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>2524</v>
+        <v>2528</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>2525</v>
+        <v>2529</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>2526</v>
+        <v>2530</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>2527</v>
+        <v>2531</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>2528</v>
+        <v>2532</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>2529</v>
+        <v>2533</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>2530</v>
+        <v>2534</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>2531</v>
+        <v>2535</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>2532</v>
+        <v>2536</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>2533</v>
+        <v>2537</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>1858</v>
+        <v>1862</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>1738</v>
+        <v>1742</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>2534</v>
+        <v>2538</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>2535</v>
+        <v>2539</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>2536</v>
+        <v>2540</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>2537</v>
+        <v>2541</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>2538</v>
+        <v>2542</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>2539</v>
+        <v>2543</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>2540</v>
+        <v>2544</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>2541</v>
+        <v>2545</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>2542</v>
+        <v>2546</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>2543</v>
+        <v>2547</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>1862</v>
+        <v>1866</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>2544</v>
+        <v>2548</v>
       </c>
       <c r="AB22" s="12" t="s">
-        <v>2545</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="23">
@@ -16433,85 +16445,85 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>2546</v>
+        <v>2550</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>2547</v>
+        <v>2551</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>2548</v>
+        <v>2552</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>2549</v>
+        <v>2553</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>2550</v>
+        <v>2554</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>2551</v>
+        <v>2555</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>2552</v>
+        <v>2556</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>2553</v>
+        <v>2557</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>2554</v>
+        <v>2558</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>2555</v>
+        <v>2559</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>2556</v>
+        <v>2560</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>2557</v>
+        <v>2561</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>2558</v>
+        <v>2562</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>2559</v>
+        <v>2563</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>2560</v>
+        <v>2564</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>2561</v>
+        <v>2565</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>2562</v>
+        <v>2566</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>2563</v>
+        <v>2567</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>2564</v>
+        <v>2568</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>2565</v>
+        <v>2569</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>1863</v>
+        <v>1867</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>2566</v>
+        <v>2570</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>2567</v>
+        <v>2571</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>2568</v>
+        <v>2572</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>2569</v>
+        <v>2573</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>2570</v>
+        <v>2574</v>
       </c>
       <c r="AB23" s="12" t="s">
-        <v>2571</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="24">
@@ -16519,85 +16531,85 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>2572</v>
+        <v>2576</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>2573</v>
+        <v>2577</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>2574</v>
+        <v>2578</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>2575</v>
+        <v>2579</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>2576</v>
+        <v>2580</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>2577</v>
+        <v>2581</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>1814</v>
+        <v>1818</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>2578</v>
+        <v>2582</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>2579</v>
+        <v>2583</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>2580</v>
+        <v>2584</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>2581</v>
+        <v>2585</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>2582</v>
+        <v>2586</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>2583</v>
+        <v>2587</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>2584</v>
+        <v>2588</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>2585</v>
+        <v>2589</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>2586</v>
+        <v>2590</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>2587</v>
+        <v>2591</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>2588</v>
+        <v>2592</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>2589</v>
+        <v>2593</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>2590</v>
+        <v>2594</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>2591</v>
+        <v>2595</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>2592</v>
+        <v>2596</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>2593</v>
+        <v>2597</v>
       </c>
       <c r="Y24" s="5" t="s">
-        <v>2594</v>
+        <v>2598</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>2595</v>
+        <v>2599</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>2596</v>
+        <v>2600</v>
       </c>
       <c r="AB24" s="12" t="s">
-        <v>2597</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="25">
@@ -16605,85 +16617,85 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>2598</v>
+        <v>2602</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>2599</v>
+        <v>2603</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>2600</v>
+        <v>2604</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>2601</v>
+        <v>2605</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>2602</v>
+        <v>2606</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>2603</v>
+        <v>2607</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>2604</v>
+        <v>2608</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>2605</v>
+        <v>2609</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>2606</v>
+        <v>2610</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>2607</v>
+        <v>2611</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>2608</v>
+        <v>2612</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>2609</v>
+        <v>2613</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>2610</v>
+        <v>2614</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>2611</v>
+        <v>2615</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>2612</v>
+        <v>2616</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>1808</v>
+        <v>1812</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>2613</v>
+        <v>2617</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>2614</v>
+        <v>2618</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>1769</v>
+        <v>1773</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>2615</v>
+        <v>2619</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>2616</v>
+        <v>2620</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>2617</v>
+        <v>2621</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>2618</v>
+        <v>2622</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>2619</v>
+        <v>2623</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>2620</v>
+        <v>2624</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>2621</v>
+        <v>2625</v>
       </c>
       <c r="AB25" s="12" t="s">
-        <v>2238</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="26">
@@ -16691,85 +16703,85 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>2622</v>
+        <v>2626</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>2623</v>
+        <v>2627</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>2624</v>
+        <v>2628</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>2625</v>
+        <v>2629</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>2626</v>
+        <v>2630</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>2627</v>
+        <v>2631</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>2628</v>
+        <v>2632</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>2629</v>
+        <v>2633</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>2630</v>
+        <v>2634</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>2631</v>
+        <v>2635</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>2632</v>
+        <v>2636</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>1743</v>
+        <v>1747</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>2633</v>
+        <v>2637</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>1846</v>
+        <v>1850</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>2634</v>
+        <v>2638</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>1882</v>
+        <v>1886</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>2635</v>
+        <v>2639</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>2636</v>
+        <v>2640</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>2637</v>
+        <v>2641</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>2638</v>
+        <v>2642</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>2639</v>
+        <v>2643</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>2640</v>
+        <v>2644</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>2641</v>
+        <v>2645</v>
       </c>
       <c r="Y26" s="5" t="s">
-        <v>2642</v>
+        <v>2646</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>2643</v>
+        <v>2647</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>2644</v>
+        <v>2648</v>
       </c>
       <c r="AB26" s="12" t="s">
-        <v>2645</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="27">
@@ -16777,85 +16789,85 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>2646</v>
+        <v>2650</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>2647</v>
+        <v>2651</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>2648</v>
+        <v>2652</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>2649</v>
+        <v>2653</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>2650</v>
+        <v>2654</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>2651</v>
+        <v>2655</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>2652</v>
+        <v>2656</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>2653</v>
+        <v>2657</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>2654</v>
+        <v>2658</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>2655</v>
+        <v>2659</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>2656</v>
+        <v>2660</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>2657</v>
+        <v>2661</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>2658</v>
+        <v>2662</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>2659</v>
+        <v>2663</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>2660</v>
+        <v>2664</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>2661</v>
+        <v>2665</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>2662</v>
+        <v>2666</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>2663</v>
+        <v>2667</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>2664</v>
+        <v>2668</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>2665</v>
+        <v>2669</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>1724</v>
+        <v>1728</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>2666</v>
+        <v>2670</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>2667</v>
+        <v>2671</v>
       </c>
       <c r="Y27" s="5" t="s">
-        <v>2668</v>
+        <v>2672</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>2669</v>
+        <v>2673</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>2670</v>
+        <v>2674</v>
       </c>
       <c r="AB27" s="12" t="s">
-        <v>2671</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="28">
@@ -16863,85 +16875,85 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>2672</v>
+        <v>2676</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>2673</v>
+        <v>2677</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>2674</v>
+        <v>2678</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>2675</v>
+        <v>2679</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>2676</v>
+        <v>2680</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>2677</v>
+        <v>2681</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>1836</v>
+        <v>1840</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>2678</v>
+        <v>2682</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>2679</v>
+        <v>2683</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>2680</v>
+        <v>2684</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>2681</v>
+        <v>2685</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>2682</v>
+        <v>2686</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>2683</v>
+        <v>2687</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>2684</v>
+        <v>2688</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>2685</v>
+        <v>2689</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>2686</v>
+        <v>2690</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>2687</v>
+        <v>2691</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>2688</v>
+        <v>2692</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>2689</v>
+        <v>2693</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>2690</v>
+        <v>2694</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>2691</v>
+        <v>2695</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>2692</v>
+        <v>2696</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>2693</v>
+        <v>2697</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>2694</v>
+        <v>2698</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>2695</v>
+        <v>2699</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>2696</v>
+        <v>2700</v>
       </c>
       <c r="AB28" s="12" t="s">
-        <v>2697</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="29">
@@ -16949,85 +16961,85 @@
         <v>45</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>2698</v>
+        <v>2702</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>2699</v>
+        <v>2703</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>2700</v>
+        <v>2704</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>2701</v>
+        <v>2705</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>2702</v>
+        <v>2706</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>2703</v>
+        <v>2707</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>2704</v>
+        <v>2708</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>2705</v>
+        <v>2709</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>2706</v>
+        <v>2710</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>2707</v>
+        <v>2711</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>2708</v>
+        <v>2712</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>2709</v>
+        <v>2713</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>2710</v>
+        <v>2714</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>2711</v>
+        <v>2715</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>2712</v>
+        <v>2716</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>2713</v>
+        <v>2717</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>2714</v>
+        <v>2718</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>2715</v>
+        <v>2719</v>
       </c>
       <c r="T29" s="9" t="s">
-        <v>2716</v>
+        <v>2720</v>
       </c>
       <c r="U29" s="9" t="s">
-        <v>2717</v>
+        <v>2721</v>
       </c>
       <c r="V29" s="9" t="s">
-        <v>2718</v>
+        <v>2722</v>
       </c>
       <c r="W29" s="9" t="s">
-        <v>2719</v>
+        <v>2723</v>
       </c>
       <c r="X29" s="9" t="s">
-        <v>2483</v>
+        <v>2487</v>
       </c>
       <c r="Y29" s="9" t="s">
-        <v>2720</v>
+        <v>2724</v>
       </c>
       <c r="Z29" s="9" t="s">
-        <v>2721</v>
+        <v>2725</v>
       </c>
       <c r="AA29" s="9" t="s">
-        <v>2722</v>
+        <v>2726</v>
       </c>
       <c r="AB29" s="12" t="s">
-        <v>2723</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="30">
@@ -17035,85 +17047,85 @@
         <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>2724</v>
+        <v>2728</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>2725</v>
+        <v>2729</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>2726</v>
+        <v>2730</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>2727</v>
+        <v>2731</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>2728</v>
+        <v>2732</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>2729</v>
+        <v>2733</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>2730</v>
+        <v>2734</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>2731</v>
+        <v>2735</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>2732</v>
+        <v>2736</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>2733</v>
+        <v>2737</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>2734</v>
+        <v>2738</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>2735</v>
+        <v>2739</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>2736</v>
+        <v>2740</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>2737</v>
+        <v>2741</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>2738</v>
+        <v>2742</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>2739</v>
+        <v>2743</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>2740</v>
+        <v>2744</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>2741</v>
+        <v>2745</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>2742</v>
+        <v>2746</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>2743</v>
+        <v>2747</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>2744</v>
+        <v>2748</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>2745</v>
+        <v>2749</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>2746</v>
+        <v>2750</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>2747</v>
+        <v>2751</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>2748</v>
+        <v>2752</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>2749</v>
+        <v>2753</v>
       </c>
       <c r="AB30" s="3" t="s">
-        <v>2750</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="31">
@@ -17121,85 +17133,85 @@
         <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2751</v>
+        <v>2755</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>2752</v>
+        <v>2756</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>2753</v>
+        <v>2757</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>2754</v>
+        <v>2758</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>2755</v>
+        <v>2759</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>2756</v>
+        <v>2760</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>2757</v>
+        <v>2761</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>2758</v>
+        <v>2762</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>2759</v>
+        <v>2763</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>2760</v>
+        <v>2764</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>2761</v>
+        <v>2765</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>2762</v>
+        <v>2766</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>2763</v>
+        <v>2767</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>2764</v>
+        <v>2768</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>2765</v>
+        <v>2769</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>2767</v>
+        <v>2771</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>2768</v>
+        <v>2772</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>2769</v>
+        <v>2773</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>2770</v>
+        <v>2774</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>2771</v>
+        <v>2775</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>2772</v>
+        <v>2776</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>2773</v>
+        <v>2777</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>2774</v>
+        <v>2778</v>
       </c>
       <c r="Z31" s="2" t="s">
-        <v>2775</v>
+        <v>2779</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>2776</v>
+        <v>2780</v>
       </c>
       <c r="AB31" s="3" t="s">
-        <v>2777</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="32">
@@ -17285,7 +17297,7 @@
         <v>161</v>
       </c>
       <c r="AB32" s="12" t="s">
-        <v>2778</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="33">
@@ -17371,7 +17383,7 @@
         <v>161</v>
       </c>
       <c r="AB33" s="12" t="s">
-        <v>2779</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="34">
@@ -17457,7 +17469,7 @@
         <v>161</v>
       </c>
       <c r="AB34" s="12" t="s">
-        <v>2780</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="35">
@@ -17543,7 +17555,7 @@
         <v>161</v>
       </c>
       <c r="AB35" s="12" t="s">
-        <v>2781</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="36">
@@ -17551,85 +17563,85 @@
         <v>67</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>2782</v>
+        <v>2786</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>2783</v>
+        <v>2787</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2784</v>
+        <v>2788</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1908</v>
+        <v>1912</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>2785</v>
+        <v>2789</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>2786</v>
+        <v>2790</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>2787</v>
+        <v>2791</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>2788</v>
+        <v>2792</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>2789</v>
+        <v>2793</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>2790</v>
+        <v>2794</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>2791</v>
+        <v>2795</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>2792</v>
+        <v>2796</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>2793</v>
+        <v>2797</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>2794</v>
+        <v>2798</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>2795</v>
+        <v>2799</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>2796</v>
+        <v>2800</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>2797</v>
+        <v>2801</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>2798</v>
+        <v>2802</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>2799</v>
+        <v>2803</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>2800</v>
+        <v>2804</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>2801</v>
+        <v>2805</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>2802</v>
+        <v>2806</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>2803</v>
+        <v>2807</v>
       </c>
       <c r="Y36" s="2" t="s">
-        <v>2804</v>
+        <v>2808</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>2805</v>
+        <v>2809</v>
       </c>
       <c r="AA36" s="2" t="s">
-        <v>2806</v>
+        <v>2810</v>
       </c>
       <c r="AB36" s="3" t="s">
-        <v>2807</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="37">
@@ -17715,7 +17727,7 @@
         <v>161</v>
       </c>
       <c r="AB37" s="12" t="s">
-        <v>2808</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="38">
@@ -17801,7 +17813,7 @@
         <v>161</v>
       </c>
       <c r="AB38" s="12" t="s">
-        <v>2809</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="39">
@@ -17887,7 +17899,7 @@
         <v>161</v>
       </c>
       <c r="AB39" s="12" t="s">
-        <v>2810</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="40">
@@ -17973,7 +17985,7 @@
         <v>161</v>
       </c>
       <c r="AB40" s="12" t="s">
-        <v>2811</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="41">
@@ -18059,7 +18071,7 @@
         <v>161</v>
       </c>
       <c r="AB41" s="12" t="s">
-        <v>2812</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="42">
@@ -18150,88 +18162,88 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2813</v>
+        <v>2817</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2814</v>
+        <v>2818</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2815</v>
+        <v>2819</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>2816</v>
+        <v>2820</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>2817</v>
+        <v>2821</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>2819</v>
+        <v>2823</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>2820</v>
+        <v>2824</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>2821</v>
+        <v>2825</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>2822</v>
+        <v>2826</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>2823</v>
+        <v>2827</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>2824</v>
+        <v>2828</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>2825</v>
+        <v>2829</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>2826</v>
+        <v>2830</v>
       </c>
       <c r="O43" s="11" t="s">
-        <v>2827</v>
+        <v>2831</v>
       </c>
       <c r="P43" s="9" t="s">
-        <v>2828</v>
+        <v>2832</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>2829</v>
+        <v>2833</v>
       </c>
       <c r="R43" s="9" t="s">
-        <v>2830</v>
+        <v>2834</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>2831</v>
+        <v>2835</v>
       </c>
       <c r="T43" s="9" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="U43" s="9" t="s">
-        <v>2833</v>
+        <v>2837</v>
       </c>
       <c r="V43" s="9" t="s">
-        <v>2834</v>
+        <v>2838</v>
       </c>
       <c r="W43" s="9" t="s">
-        <v>2835</v>
+        <v>2839</v>
       </c>
       <c r="X43" s="9" t="s">
-        <v>2836</v>
+        <v>2840</v>
       </c>
       <c r="Y43" s="9" t="s">
-        <v>2837</v>
+        <v>2841</v>
       </c>
       <c r="Z43" s="9" t="s">
-        <v>2838</v>
+        <v>2842</v>
       </c>
       <c r="AA43" s="9" t="s">
-        <v>2839</v>
+        <v>2843</v>
       </c>
       <c r="AB43" s="12" t="s">
-        <v>2360</v>
+        <v>2364</v>
       </c>
     </row>
   </sheetData>
@@ -18257,7 +18269,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2840</v>
+        <v>2844</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -18271,16 +18283,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2841</v>
+        <v>2845</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2842</v>
+        <v>2846</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2843</v>
+        <v>2847</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>2844</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="3">
@@ -18288,10 +18300,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2845</v>
+        <v>2849</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2846</v>
+        <v>2850</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>19</v>
@@ -18302,10 +18314,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2847</v>
+        <v>2851</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>2848</v>
+        <v>2852</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>19</v>
@@ -18316,10 +18328,10 @@
         <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2849</v>
+        <v>2853</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2850</v>
+        <v>2854</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>19</v>
@@ -18330,10 +18342,10 @@
         <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2851</v>
+        <v>2855</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>2852</v>
+        <v>2856</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>19</v>
@@ -18344,10 +18356,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>2853</v>
+        <v>2857</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2854</v>
+        <v>2858</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>19</v>
@@ -18358,10 +18370,10 @@
         <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>2855</v>
+        <v>2859</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2856</v>
+        <v>2860</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>19</v>
@@ -18372,10 +18384,10 @@
         <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>2857</v>
+        <v>2861</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>19</v>
@@ -18386,10 +18398,10 @@
         <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2859</v>
+        <v>2863</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>2860</v>
+        <v>2864</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>19</v>
@@ -18400,10 +18412,10 @@
         <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>2861</v>
+        <v>2865</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>2862</v>
+        <v>2866</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>19</v>
@@ -18414,10 +18426,10 @@
         <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>2863</v>
+        <v>2867</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>2864</v>
+        <v>2868</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>19</v>
@@ -18428,10 +18440,10 @@
         <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2865</v>
+        <v>2869</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>2866</v>
+        <v>2870</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>19</v>
@@ -18442,10 +18454,10 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2867</v>
+        <v>2871</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>2868</v>
+        <v>2872</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>19</v>
@@ -18456,10 +18468,10 @@
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>2869</v>
+        <v>2873</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>2870</v>
+        <v>2874</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>19</v>
@@ -18470,10 +18482,10 @@
         <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>2871</v>
+        <v>2875</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>2872</v>
+        <v>2876</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>19</v>
@@ -18484,10 +18496,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>2873</v>
+        <v>2877</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>2874</v>
+        <v>2878</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>19</v>
@@ -18498,10 +18510,10 @@
         <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>2875</v>
+        <v>2879</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>2876</v>
+        <v>2880</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>19</v>
@@ -18512,10 +18524,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>2877</v>
+        <v>2881</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>2878</v>
+        <v>2882</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>19</v>
@@ -18526,10 +18538,10 @@
         <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>2880</v>
+        <v>2884</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>19</v>
@@ -18540,10 +18552,10 @@
         <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>2881</v>
+        <v>2885</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>2882</v>
+        <v>2886</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>19</v>
@@ -18554,10 +18566,10 @@
         <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>2883</v>
+        <v>2887</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>2884</v>
+        <v>2888</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>19</v>
@@ -18568,10 +18580,10 @@
         <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>2885</v>
+        <v>2889</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>2886</v>
+        <v>2890</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>19</v>
@@ -18582,10 +18594,10 @@
         <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>2887</v>
+        <v>2891</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>2888</v>
+        <v>2892</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>19</v>
@@ -18596,10 +18608,10 @@
         <v>41</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>2889</v>
+        <v>2893</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>2890</v>
+        <v>2894</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>19</v>
@@ -18610,10 +18622,10 @@
         <v>42</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>2891</v>
+        <v>2895</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>2892</v>
+        <v>2896</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>19</v>
@@ -18624,10 +18636,10 @@
         <v>43</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>2893</v>
+        <v>2897</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>2894</v>
+        <v>2898</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>19</v>
@@ -18638,10 +18650,10 @@
         <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>2895</v>
+        <v>2899</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>2896</v>
+        <v>2900</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>19</v>
@@ -18652,13 +18664,13 @@
         <v>45</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>2897</v>
+        <v>2901</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>2898</v>
+        <v>2902</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>2899</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="30">
@@ -18666,13 +18678,13 @@
         <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>2900</v>
+        <v>2904</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>2901</v>
+        <v>2905</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>2902</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="31">
@@ -18680,13 +18692,13 @@
         <v>62</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>2904</v>
+        <v>2908</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>2905</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="32">
@@ -18694,13 +18706,13 @@
         <v>63</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>2906</v>
+        <v>2910</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>2907</v>
+        <v>2911</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>2908</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="33">
@@ -18708,13 +18720,13 @@
         <v>64</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>2909</v>
+        <v>2913</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>2910</v>
+        <v>2914</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>2911</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="34">
@@ -18722,13 +18734,13 @@
         <v>65</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>2912</v>
+        <v>2916</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>2913</v>
+        <v>2917</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>2914</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="35">
@@ -18742,7 +18754,7 @@
         <v>56</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>2915</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="36">
@@ -18750,13 +18762,13 @@
         <v>67</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>2916</v>
+        <v>2920</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>2917</v>
+        <v>2921</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>2918</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="37">
@@ -18764,13 +18776,13 @@
         <v>76</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>2919</v>
+        <v>2923</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>2920</v>
+        <v>2924</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>2921</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="38">
@@ -18778,13 +18790,13 @@
         <v>77</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>2922</v>
+        <v>2926</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>2923</v>
+        <v>2927</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>2924</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="39">
@@ -18798,7 +18810,7 @@
         <v>56</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>2925</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="40">
@@ -18812,7 +18824,7 @@
         <v>56</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>2926</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="41">
@@ -18820,10 +18832,10 @@
         <v>80</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>2927</v>
+        <v>2931</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>2928</v>
+        <v>2932</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>295</v>
@@ -18845,16 +18857,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2929</v>
+        <v>2933</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2930</v>
+        <v>2934</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2931</v>
+        <v>2935</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>2932</v>
+        <v>2936</v>
       </c>
     </row>
   </sheetData>

--- a/iceKnives32/Offline Documents (Periodic)/iceKnives32.xlsx
+++ b/iceKnives32/Offline Documents (Periodic)/iceKnives32.xlsx
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="2937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="2941">
   <si>
     <t>[]</t>
   </si>
@@ -5416,6 +5416,18 @@
   </si>
   <si>
     <t>fire</t>
+  </si>
+  <si>
+    <t>premium</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
+    <t>parity</t>
   </si>
   <si>
     <t>brackets</t>
@@ -11503,25 +11515,25 @@
         <v>1700</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>18</v>
+        <v>1701</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>18</v>
+        <v>1702</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>18</v>
+        <v>1703</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>18</v>
+        <v>1704</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>1701</v>
+        <v>1705</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>1702</v>
+        <v>1706</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
@@ -11529,25 +11541,25 @@
         <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1703</v>
+        <v>1707</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1704</v>
+        <v>1708</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1705</v>
+        <v>1709</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>1706</v>
+        <v>1710</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>1707</v>
+        <v>1711</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>1708</v>
+        <v>1712</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>1709</v>
+        <v>1713</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>756</v>
@@ -11961,7 +11973,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1710</v>
+        <v>1714</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>91</v>
@@ -11985,7 +11997,7 @@
         <v>97</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
     </row>
   </sheetData>
@@ -12014,7 +12026,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>1712</v>
+        <v>1716</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -12043,28 +12055,28 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>1713</v>
+        <v>1717</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1715</v>
+        <v>1719</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1716</v>
+        <v>1720</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1717</v>
+        <v>1721</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1718</v>
+        <v>1722</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1719</v>
+        <v>1723</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>1720</v>
+        <v>1724</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>303</v>
@@ -12075,25 +12087,25 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1721</v>
+        <v>1725</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1722</v>
+        <v>1726</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1723</v>
+        <v>1727</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1724</v>
+        <v>1728</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>1725</v>
+        <v>1729</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>1726</v>
+        <v>1730</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>1727</v>
+        <v>1731</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>19</v>
@@ -12104,25 +12116,25 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1728</v>
+        <v>1732</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1729</v>
+        <v>1733</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>1012</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1730</v>
+        <v>1734</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>1731</v>
+        <v>1735</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1732</v>
+        <v>1736</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>1733</v>
+        <v>1737</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>19</v>
@@ -12133,25 +12145,25 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1734</v>
+        <v>1738</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1735</v>
+        <v>1739</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>1027</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1736</v>
+        <v>1740</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1737</v>
+        <v>1741</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>1738</v>
+        <v>1742</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>1739</v>
+        <v>1743</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>19</v>
@@ -12162,25 +12174,25 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1740</v>
+        <v>1744</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1741</v>
+        <v>1745</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>747</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1742</v>
+        <v>1746</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>1743</v>
+        <v>1747</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1744</v>
+        <v>1748</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>1745</v>
+        <v>1749</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>19</v>
@@ -12191,25 +12203,25 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1746</v>
+        <v>1750</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1747</v>
+        <v>1751</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>456</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1748</v>
+        <v>1752</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1749</v>
+        <v>1753</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>1750</v>
+        <v>1754</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>1751</v>
+        <v>1755</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>19</v>
@@ -12220,25 +12232,25 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1752</v>
+        <v>1756</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1753</v>
+        <v>1757</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>124</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1754</v>
+        <v>1758</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1755</v>
+        <v>1759</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1756</v>
+        <v>1760</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>1757</v>
+        <v>1761</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>19</v>
@@ -12249,25 +12261,25 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1758</v>
+        <v>1762</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1759</v>
+        <v>1763</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>360</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1760</v>
+        <v>1764</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>1761</v>
+        <v>1765</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1762</v>
+        <v>1766</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>1763</v>
+        <v>1767</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>19</v>
@@ -12278,25 +12290,25 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1764</v>
+        <v>1768</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1765</v>
+        <v>1769</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1766</v>
+        <v>1770</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1767</v>
+        <v>1771</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>1768</v>
+        <v>1772</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1769</v>
+        <v>1773</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>1770</v>
+        <v>1774</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>19</v>
@@ -12307,25 +12319,25 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1771</v>
+        <v>1775</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>488</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1773</v>
+        <v>1777</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1775</v>
+        <v>1779</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>19</v>
@@ -12336,25 +12348,25 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1119</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1779</v>
+        <v>1783</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1780</v>
+        <v>1784</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>1782</v>
+        <v>1786</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>19</v>
@@ -12365,25 +12377,25 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1783</v>
+        <v>1787</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1784</v>
+        <v>1788</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>470</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1785</v>
+        <v>1789</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1786</v>
+        <v>1790</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1787</v>
+        <v>1791</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>1788</v>
+        <v>1792</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>19</v>
@@ -12394,25 +12406,25 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1789</v>
+        <v>1793</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1790</v>
+        <v>1794</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>211</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1791</v>
+        <v>1795</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1792</v>
+        <v>1796</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1793</v>
+        <v>1797</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>1794</v>
+        <v>1798</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>19</v>
@@ -12423,25 +12435,25 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1795</v>
+        <v>1799</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1796</v>
+        <v>1800</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1797</v>
+        <v>1801</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1798</v>
+        <v>1802</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1799</v>
+        <v>1803</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1800</v>
+        <v>1804</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>1801</v>
+        <v>1805</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>19</v>
@@ -12452,25 +12464,25 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1802</v>
+        <v>1806</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1803</v>
+        <v>1807</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>625</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1804</v>
+        <v>1808</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1805</v>
+        <v>1809</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>1806</v>
+        <v>1810</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>1807</v>
+        <v>1811</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>19</v>
@@ -12481,25 +12493,25 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1808</v>
+        <v>1812</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1809</v>
+        <v>1813</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>768</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1810</v>
+        <v>1814</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>1811</v>
+        <v>1815</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1812</v>
+        <v>1816</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>1813</v>
+        <v>1817</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>19</v>
@@ -12510,25 +12522,25 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1814</v>
+        <v>1818</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1815</v>
+        <v>1819</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>845</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1816</v>
+        <v>1820</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1817</v>
+        <v>1821</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>1818</v>
+        <v>1822</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>1819</v>
+        <v>1823</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>19</v>
@@ -12539,25 +12551,25 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1820</v>
+        <v>1824</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1821</v>
+        <v>1825</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>1311</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1822</v>
+        <v>1826</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>1823</v>
+        <v>1827</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>1824</v>
+        <v>1828</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>1825</v>
+        <v>1829</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>19</v>
@@ -12568,25 +12580,25 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1826</v>
+        <v>1830</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1827</v>
+        <v>1831</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1828</v>
+        <v>1832</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1829</v>
+        <v>1833</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>1830</v>
+        <v>1834</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1831</v>
+        <v>1835</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>1832</v>
+        <v>1836</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>19</v>
@@ -12597,25 +12609,25 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1833</v>
+        <v>1837</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1834</v>
+        <v>1838</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1835</v>
+        <v>1839</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1836</v>
+        <v>1840</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>1837</v>
+        <v>1841</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1838</v>
+        <v>1842</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>1839</v>
+        <v>1843</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>19</v>
@@ -12626,25 +12638,25 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1840</v>
+        <v>1844</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1841</v>
+        <v>1845</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>932</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1842</v>
+        <v>1846</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>1843</v>
+        <v>1847</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>1844</v>
+        <v>1848</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>1845</v>
+        <v>1849</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>19</v>
@@ -12655,25 +12667,25 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1846</v>
+        <v>1850</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1847</v>
+        <v>1851</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1848</v>
+        <v>1852</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1849</v>
+        <v>1853</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>1850</v>
+        <v>1854</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1851</v>
+        <v>1855</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>1852</v>
+        <v>1856</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>19</v>
@@ -12684,25 +12696,25 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1853</v>
+        <v>1857</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1854</v>
+        <v>1858</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>472</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1855</v>
+        <v>1859</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>1856</v>
+        <v>1860</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>1857</v>
+        <v>1861</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>1858</v>
+        <v>1862</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>19</v>
@@ -12713,25 +12725,25 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1859</v>
+        <v>1863</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1860</v>
+        <v>1864</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>424</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1861</v>
+        <v>1865</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>1862</v>
+        <v>1866</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>1863</v>
+        <v>1867</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>1864</v>
+        <v>1868</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>19</v>
@@ -12742,25 +12754,25 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1865</v>
+        <v>1869</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1866</v>
+        <v>1870</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>925</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1867</v>
+        <v>1871</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>1868</v>
+        <v>1872</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1869</v>
+        <v>1873</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>1870</v>
+        <v>1874</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>19</v>
@@ -12771,25 +12783,25 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1871</v>
+        <v>1875</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1872</v>
+        <v>1876</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>1383</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1873</v>
+        <v>1877</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>1874</v>
+        <v>1878</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>1875</v>
+        <v>1879</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>1876</v>
+        <v>1880</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>19</v>
@@ -12800,25 +12812,25 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1877</v>
+        <v>1881</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1878</v>
+        <v>1882</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>429</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1879</v>
+        <v>1883</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>1880</v>
+        <v>1884</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>1881</v>
+        <v>1885</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>1882</v>
+        <v>1886</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>19</v>
@@ -12829,25 +12841,25 @@
         <v>45</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1883</v>
+        <v>1887</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1884</v>
+        <v>1888</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>373</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1885</v>
+        <v>1889</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>1886</v>
+        <v>1890</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1887</v>
+        <v>1891</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>1888</v>
+        <v>1892</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>335</v>
@@ -12858,28 +12870,28 @@
         <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1889</v>
+        <v>1893</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1890</v>
+        <v>1894</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1891</v>
+        <v>1895</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>1892</v>
+        <v>1896</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1893</v>
+        <v>1897</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>1894</v>
+        <v>1898</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>1895</v>
+        <v>1899</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>1896</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="31">
@@ -12887,28 +12899,28 @@
         <v>62</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1897</v>
+        <v>1901</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1898</v>
+        <v>1902</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1899</v>
+        <v>1903</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>1900</v>
+        <v>1904</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>1901</v>
+        <v>1905</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>1902</v>
+        <v>1906</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>1903</v>
+        <v>1907</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>1904</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="32">
@@ -12937,7 +12949,7 @@
         <v>61</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>1905</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="33">
@@ -12966,7 +12978,7 @@
         <v>61</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>1906</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="34">
@@ -12995,7 +13007,7 @@
         <v>61</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>1907</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="35">
@@ -13024,7 +13036,7 @@
         <v>61</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>1908</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="36">
@@ -13032,28 +13044,28 @@
         <v>67</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1910</v>
+        <v>1914</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1911</v>
+        <v>1915</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>1912</v>
+        <v>1916</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>1913</v>
+        <v>1917</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>1914</v>
+        <v>1918</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>1915</v>
+        <v>1919</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>1916</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="37">
@@ -13082,7 +13094,7 @@
         <v>61</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>1917</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="38">
@@ -13111,7 +13123,7 @@
         <v>61</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>1918</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="39">
@@ -13140,7 +13152,7 @@
         <v>61</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>1919</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="40">
@@ -13169,7 +13181,7 @@
         <v>61</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>1920</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="41">
@@ -13198,7 +13210,7 @@
         <v>61</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>1921</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="42">
@@ -13232,31 +13244,31 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1922</v>
+        <v>1926</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1923</v>
+        <v>1927</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1924</v>
+        <v>1928</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1925</v>
+        <v>1929</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>1926</v>
+        <v>1930</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>1927</v>
+        <v>1931</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>1928</v>
+        <v>1932</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>1929</v>
+        <v>1933</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1930</v>
+        <v>1934</v>
       </c>
     </row>
   </sheetData>
@@ -13283,7 +13295,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1931</v>
+        <v>1935</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -13312,28 +13324,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1932</v>
+        <v>1936</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1933</v>
+        <v>1937</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1934</v>
+        <v>1938</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1935</v>
+        <v>1939</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1936</v>
+        <v>1940</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1937</v>
+        <v>1941</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1938</v>
+        <v>1942</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>1939</v>
+        <v>1943</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>19</v>
@@ -13344,13 +13356,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1940</v>
+        <v>1944</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1941</v>
+        <v>1945</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1942</v>
+        <v>1946</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>18</v>
@@ -13373,13 +13385,13 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1943</v>
+        <v>1947</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1944</v>
+        <v>1948</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1945</v>
+        <v>1949</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -13402,13 +13414,13 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1946</v>
+        <v>1950</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1948</v>
+        <v>1952</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>18</v>
@@ -13431,13 +13443,13 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1949</v>
+        <v>1953</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1950</v>
+        <v>1954</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1951</v>
+        <v>1955</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>18</v>
@@ -13460,13 +13472,13 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1952</v>
+        <v>1956</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1953</v>
+        <v>1957</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1954</v>
+        <v>1958</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>18</v>
@@ -13489,13 +13501,13 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1955</v>
+        <v>1959</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1956</v>
+        <v>1960</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1957</v>
+        <v>1961</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>18</v>
@@ -13518,13 +13530,13 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1958</v>
+        <v>1962</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1959</v>
+        <v>1963</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1960</v>
+        <v>1964</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>18</v>
@@ -13547,13 +13559,13 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1961</v>
+        <v>1965</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1962</v>
+        <v>1966</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1963</v>
+        <v>1967</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>18</v>
@@ -13576,13 +13588,13 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1964</v>
+        <v>1968</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1965</v>
+        <v>1969</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1966</v>
+        <v>1970</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>18</v>
@@ -13605,13 +13617,13 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1967</v>
+        <v>1971</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1969</v>
+        <v>1973</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>18</v>
@@ -13634,13 +13646,13 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1970</v>
+        <v>1974</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1971</v>
+        <v>1975</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1972</v>
+        <v>1976</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>18</v>
@@ -13663,13 +13675,13 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1973</v>
+        <v>1977</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1974</v>
+        <v>1978</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1975</v>
+        <v>1979</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>18</v>
@@ -13692,13 +13704,13 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1976</v>
+        <v>1980</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1977</v>
+        <v>1981</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1978</v>
+        <v>1982</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>18</v>
@@ -13721,13 +13733,13 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1979</v>
+        <v>1983</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1980</v>
+        <v>1984</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1981</v>
+        <v>1985</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>18</v>
@@ -13750,13 +13762,13 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1982</v>
+        <v>1986</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1983</v>
+        <v>1987</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>18</v>
@@ -13779,13 +13791,13 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>18</v>
@@ -13808,13 +13820,13 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>18</v>
@@ -13837,13 +13849,13 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>18</v>
@@ -13866,13 +13878,13 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>18</v>
@@ -13895,13 +13907,13 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>18</v>
@@ -13924,13 +13936,13 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>18</v>
@@ -13953,13 +13965,13 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>18</v>
@@ -13982,13 +13994,13 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>18</v>
@@ -14011,13 +14023,13 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>18</v>
@@ -14040,13 +14052,13 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>18</v>
@@ -14069,13 +14081,13 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>18</v>
@@ -14098,25 +14110,25 @@
         <v>45</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>2022</v>
+        <v>2026</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>2023</v>
+        <v>2027</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>2024</v>
+        <v>2028</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>19</v>
@@ -14501,31 +14513,31 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2025</v>
+        <v>2029</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2026</v>
+        <v>2030</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2027</v>
+        <v>2031</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>2028</v>
+        <v>2032</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>2029</v>
+        <v>2033</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>2030</v>
+        <v>2034</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>2031</v>
+        <v>2035</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>2032</v>
+        <v>2036</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>2033</v>
+        <v>2037</v>
       </c>
     </row>
   </sheetData>
@@ -14550,7 +14562,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2034</v>
+        <v>2038</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -14574,61 +14586,61 @@
         <v>7</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>2035</v>
+        <v>2039</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>2036</v>
+        <v>2040</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>2037</v>
+        <v>2041</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>2038</v>
+        <v>2042</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>2039</v>
+        <v>2043</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>2040</v>
+        <v>2044</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>2041</v>
+        <v>2045</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>2042</v>
+        <v>2046</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>2043</v>
+        <v>2047</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>2044</v>
+        <v>2048</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>2045</v>
+        <v>2049</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>2046</v>
+        <v>2050</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>2047</v>
+        <v>2051</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>2048</v>
+        <v>2052</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>2049</v>
+        <v>2053</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="Y1" s="9" t="s">
-        <v>2051</v>
+        <v>2055</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>2052</v>
+        <v>2056</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>2053</v>
+        <v>2057</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>8</v>
@@ -14636,88 +14648,88 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1931</v>
+        <v>1935</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2054</v>
+        <v>2058</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>2055</v>
+        <v>2059</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>2056</v>
+        <v>2060</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>2057</v>
+        <v>2061</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>2058</v>
+        <v>2062</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>2059</v>
+        <v>2063</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>2060</v>
+        <v>2064</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>2061</v>
+        <v>2065</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>2062</v>
+        <v>2066</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>2063</v>
+        <v>2067</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>2064</v>
+        <v>2068</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>2065</v>
+        <v>2069</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>2066</v>
+        <v>2070</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>2067</v>
+        <v>2071</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>2068</v>
+        <v>2072</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>2069</v>
+        <v>2073</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>2070</v>
+        <v>2074</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>2071</v>
+        <v>2075</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>1852</v>
+        <v>1856</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>2072</v>
+        <v>2076</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>2073</v>
+        <v>2077</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>2074</v>
+        <v>2078</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>2075</v>
+        <v>2079</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>2076</v>
+        <v>2080</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>2077</v>
+        <v>2081</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>2078</v>
+        <v>2082</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>2079</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="3">
@@ -14725,85 +14737,85 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2080</v>
+        <v>2084</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>2081</v>
+        <v>2085</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>2082</v>
+        <v>2086</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>2083</v>
+        <v>2087</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>2084</v>
+        <v>2088</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>2085</v>
+        <v>2089</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>2086</v>
+        <v>2090</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>2087</v>
+        <v>2091</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>1791</v>
+        <v>1795</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>2088</v>
+        <v>2092</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>2089</v>
+        <v>2093</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>2090</v>
+        <v>2094</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>2091</v>
+        <v>2095</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>1854</v>
+        <v>1858</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>2092</v>
+        <v>2096</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>2093</v>
+        <v>2097</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>2094</v>
+        <v>2098</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>2095</v>
+        <v>2099</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>2096</v>
+        <v>2100</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>2097</v>
+        <v>2101</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>2098</v>
+        <v>2102</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>2099</v>
+        <v>2103</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>1809</v>
+        <v>1813</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>2100</v>
+        <v>2104</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>1884</v>
+        <v>1888</v>
       </c>
       <c r="AB3" s="12" t="s">
-        <v>2101</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="4">
@@ -14811,85 +14823,85 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2102</v>
+        <v>2106</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>2103</v>
+        <v>2107</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>2104</v>
+        <v>2108</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>2105</v>
+        <v>2109</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>2106</v>
+        <v>2110</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1762</v>
+        <v>1766</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>2107</v>
+        <v>2111</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>2108</v>
+        <v>2112</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>1817</v>
+        <v>1821</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>2109</v>
+        <v>2113</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>2110</v>
+        <v>2114</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>2111</v>
+        <v>2115</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>2112</v>
+        <v>2116</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>2113</v>
+        <v>2117</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>2114</v>
+        <v>2118</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>2115</v>
+        <v>2119</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>1804</v>
+        <v>1808</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>2116</v>
+        <v>2120</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>2117</v>
+        <v>2121</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>2118</v>
+        <v>2122</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>2119</v>
+        <v>2123</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>2120</v>
+        <v>2124</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>2121</v>
+        <v>2125</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>2122</v>
+        <v>2126</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>2123</v>
+        <v>2127</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>2124</v>
+        <v>2128</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>2125</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="5">
@@ -14897,85 +14909,85 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2126</v>
+        <v>2130</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>2127</v>
+        <v>2131</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>2128</v>
+        <v>2132</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>2129</v>
+        <v>2133</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>2130</v>
+        <v>2134</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>2131</v>
+        <v>2135</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>1861</v>
+        <v>1865</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>2132</v>
+        <v>2136</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>2133</v>
+        <v>2137</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>2134</v>
+        <v>2138</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>1869</v>
+        <v>1873</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>1724</v>
+        <v>1728</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>2135</v>
+        <v>2139</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>2136</v>
+        <v>2140</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>2137</v>
+        <v>2141</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>2138</v>
+        <v>2142</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>2139</v>
+        <v>2143</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>2140</v>
+        <v>2144</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>2141</v>
+        <v>2145</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>2142</v>
+        <v>2146</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>1740</v>
+        <v>1744</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>2143</v>
+        <v>2147</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>2144</v>
+        <v>2148</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>2145</v>
+        <v>2149</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>2146</v>
+        <v>2150</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>2147</v>
+        <v>2151</v>
       </c>
       <c r="AB5" s="12" t="s">
-        <v>2148</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="6">
@@ -14983,85 +14995,85 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>2149</v>
+        <v>2153</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>2150</v>
+        <v>2154</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>2151</v>
+        <v>2155</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>2152</v>
+        <v>2156</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>2153</v>
+        <v>2157</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>2154</v>
+        <v>2158</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>2155</v>
+        <v>2159</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>2157</v>
+        <v>2161</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>2158</v>
+        <v>2162</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>2159</v>
+        <v>2163</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>2160</v>
+        <v>2164</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>2161</v>
+        <v>2165</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>1802</v>
+        <v>1806</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>2162</v>
+        <v>2166</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>2163</v>
+        <v>2167</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>2164</v>
+        <v>2168</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>2165</v>
+        <v>2169</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>2166</v>
+        <v>2170</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>2167</v>
+        <v>2171</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>2168</v>
+        <v>2172</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>2169</v>
+        <v>2173</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>2170</v>
+        <v>2174</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>2171</v>
+        <v>2175</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>2172</v>
+        <v>2176</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>1806</v>
+        <v>1810</v>
       </c>
       <c r="AB6" s="12" t="s">
-        <v>2173</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="7">
@@ -15069,85 +15081,85 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>2174</v>
+        <v>2178</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>2175</v>
+        <v>2179</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>2177</v>
+        <v>2181</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>2178</v>
+        <v>2182</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>2179</v>
+        <v>2183</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>1853</v>
+        <v>1857</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>2180</v>
+        <v>2184</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>2181</v>
+        <v>2185</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>1787</v>
+        <v>1791</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>2182</v>
+        <v>2186</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>1780</v>
+        <v>1784</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>1874</v>
+        <v>1878</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>2183</v>
+        <v>2187</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>2184</v>
+        <v>2188</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>1878</v>
+        <v>1882</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>2185</v>
+        <v>2189</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>2186</v>
+        <v>2190</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>1737</v>
+        <v>1741</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>2187</v>
+        <v>2191</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>2188</v>
+        <v>2192</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>1732</v>
+        <v>1736</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>2192</v>
+        <v>2196</v>
       </c>
       <c r="AB7" s="12" t="s">
-        <v>2193</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="8">
@@ -15155,85 +15167,85 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>2194</v>
+        <v>2198</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2195</v>
+        <v>2199</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>2196</v>
+        <v>2200</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>2197</v>
+        <v>2201</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>2198</v>
+        <v>2202</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>2199</v>
+        <v>2203</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>2200</v>
+        <v>2204</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>1757</v>
+        <v>1761</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>2201</v>
+        <v>2205</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>2202</v>
+        <v>2206</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>2203</v>
+        <v>2207</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>1833</v>
+        <v>1837</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>2204</v>
+        <v>2208</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>2205</v>
+        <v>2209</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>1761</v>
+        <v>1765</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>2206</v>
+        <v>2210</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>2207</v>
+        <v>2211</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>2208</v>
+        <v>2212</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>2209</v>
+        <v>2213</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>2210</v>
+        <v>2214</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>2211</v>
+        <v>2215</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>2212</v>
+        <v>2216</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>2213</v>
+        <v>2217</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>2214</v>
+        <v>2218</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>2215</v>
+        <v>2219</v>
       </c>
       <c r="AB8" s="12" t="s">
-        <v>2216</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="9">
@@ -15241,85 +15253,85 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>2217</v>
+        <v>2221</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>2218</v>
+        <v>2222</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>2219</v>
+        <v>2223</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>2220</v>
+        <v>2224</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>2221</v>
+        <v>2225</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>2222</v>
+        <v>2226</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>2223</v>
+        <v>2227</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>2224</v>
+        <v>2228</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>2225</v>
+        <v>2229</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>2226</v>
+        <v>2230</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>2227</v>
+        <v>2231</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>2228</v>
+        <v>2232</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>2229</v>
+        <v>2233</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>2230</v>
+        <v>2234</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>2231</v>
+        <v>2235</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>1779</v>
+        <v>1783</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>2232</v>
+        <v>2236</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>2233</v>
+        <v>2237</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>2234</v>
+        <v>2238</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>2235</v>
+        <v>2239</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>2236</v>
+        <v>2240</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>2237</v>
+        <v>2241</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>2238</v>
+        <v>2242</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>2239</v>
+        <v>2243</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>2240</v>
+        <v>2244</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>2241</v>
+        <v>2245</v>
       </c>
       <c r="AB9" s="12" t="s">
-        <v>2242</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="10">
@@ -15327,85 +15339,85 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>2243</v>
+        <v>2247</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>2244</v>
+        <v>2248</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>2245</v>
+        <v>2249</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>2246</v>
+        <v>2250</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>2247</v>
+        <v>2251</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>2248</v>
+        <v>2252</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>2249</v>
+        <v>2253</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>2250</v>
+        <v>2254</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>2251</v>
+        <v>2255</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>2252</v>
+        <v>2256</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>2253</v>
+        <v>2257</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>2254</v>
+        <v>2258</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>2255</v>
+        <v>2259</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>2256</v>
+        <v>2260</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>2257</v>
+        <v>2261</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>2258</v>
+        <v>2262</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>2259</v>
+        <v>2263</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>2260</v>
+        <v>2264</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>1843</v>
+        <v>1847</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>2261</v>
+        <v>2265</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>2262</v>
+        <v>2266</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>2263</v>
+        <v>2267</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>2264</v>
+        <v>2268</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>2265</v>
+        <v>2269</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>2266</v>
+        <v>2270</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>2267</v>
+        <v>2271</v>
       </c>
       <c r="AB10" s="12" t="s">
-        <v>2101</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="11">
@@ -15413,85 +15425,85 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>2268</v>
+        <v>2272</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>2269</v>
+        <v>2273</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>2270</v>
+        <v>2274</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>2271</v>
+        <v>2275</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>2272</v>
+        <v>2276</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>2273</v>
+        <v>2277</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>2274</v>
+        <v>2278</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>2275</v>
+        <v>2279</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>2276</v>
+        <v>2280</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>2277</v>
+        <v>2281</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>1842</v>
+        <v>1846</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>2278</v>
+        <v>2282</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>2279</v>
+        <v>2283</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>2280</v>
+        <v>2284</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>2281</v>
+        <v>2285</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>2282</v>
+        <v>2286</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>2283</v>
+        <v>2287</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>2284</v>
+        <v>2288</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>2285</v>
+        <v>2289</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>2286</v>
+        <v>2290</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>2287</v>
+        <v>2291</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>2288</v>
+        <v>2292</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>2289</v>
+        <v>2293</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>2290</v>
+        <v>2294</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>2291</v>
+        <v>2295</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>2292</v>
+        <v>2296</v>
       </c>
       <c r="AB11" s="12" t="s">
-        <v>2125</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="12">
@@ -15499,85 +15511,85 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>2293</v>
+        <v>2297</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>2294</v>
+        <v>2298</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>2295</v>
+        <v>2299</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>2296</v>
+        <v>2300</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>2297</v>
+        <v>2301</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>2298</v>
+        <v>2302</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>2299</v>
+        <v>2303</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>2300</v>
+        <v>2304</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>2301</v>
+        <v>2305</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>1875</v>
+        <v>1879</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>2302</v>
+        <v>2306</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>2303</v>
+        <v>2307</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>1748</v>
+        <v>1752</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>2304</v>
+        <v>2308</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>2305</v>
+        <v>2309</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>1881</v>
+        <v>1885</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>2306</v>
+        <v>2310</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>2307</v>
+        <v>2311</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>2308</v>
+        <v>2312</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>2309</v>
+        <v>2313</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>2310</v>
+        <v>2314</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>2311</v>
+        <v>2315</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>2312</v>
+        <v>2316</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>2313</v>
+        <v>2317</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>2314</v>
+        <v>2318</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>2315</v>
+        <v>2319</v>
       </c>
       <c r="AB12" s="12" t="s">
-        <v>2316</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="13">
@@ -15585,85 +15597,85 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>2317</v>
+        <v>2321</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>2318</v>
+        <v>2322</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>2319</v>
+        <v>2323</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>2320</v>
+        <v>2324</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>2321</v>
+        <v>2325</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>2322</v>
+        <v>2326</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>2323</v>
+        <v>2327</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>2324</v>
+        <v>2328</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>2325</v>
+        <v>2329</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>1810</v>
+        <v>1814</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>2326</v>
+        <v>2330</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>2327</v>
+        <v>2331</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>2328</v>
+        <v>2332</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>2329</v>
+        <v>2333</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>2330</v>
+        <v>2334</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>2331</v>
+        <v>2335</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>2332</v>
+        <v>2336</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>1764</v>
+        <v>1768</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>2333</v>
+        <v>2337</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>2334</v>
+        <v>2338</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>2335</v>
+        <v>2339</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>2336</v>
+        <v>2340</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>2337</v>
+        <v>2341</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>2338</v>
+        <v>2342</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>2339</v>
+        <v>2343</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>2340</v>
+        <v>2344</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>2341</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="14">
@@ -15671,85 +15683,85 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>2342</v>
+        <v>2346</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>2343</v>
+        <v>2347</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>2344</v>
+        <v>2348</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>2345</v>
+        <v>2349</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>2346</v>
+        <v>2350</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>2347</v>
+        <v>2351</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>2348</v>
+        <v>2352</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>1824</v>
+        <v>1828</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>1871</v>
+        <v>1875</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>2349</v>
+        <v>2353</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>2350</v>
+        <v>2354</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>2352</v>
+        <v>2356</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>1808</v>
+        <v>1812</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>1877</v>
+        <v>1881</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>2353</v>
+        <v>2357</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>2354</v>
+        <v>2358</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>2355</v>
+        <v>2359</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>2356</v>
+        <v>2360</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>2357</v>
+        <v>2361</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>2358</v>
+        <v>2362</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>2359</v>
+        <v>2363</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>2360</v>
+        <v>2364</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>2361</v>
+        <v>2365</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>2362</v>
+        <v>2366</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>2363</v>
+        <v>2367</v>
       </c>
       <c r="AB14" s="12" t="s">
-        <v>2364</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="15">
@@ -15757,85 +15769,85 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>2365</v>
+        <v>2369</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>2366</v>
+        <v>2370</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>2367</v>
+        <v>2371</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>2368</v>
+        <v>2372</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1726</v>
+        <v>1730</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>2369</v>
+        <v>2373</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>2370</v>
+        <v>2374</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>1743</v>
+        <v>1747</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>2371</v>
+        <v>2375</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>1823</v>
+        <v>1827</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>2372</v>
+        <v>2376</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>2373</v>
+        <v>2377</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>1827</v>
+        <v>1831</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>2374</v>
+        <v>2378</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>1805</v>
+        <v>1809</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>2375</v>
+        <v>2379</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>2376</v>
+        <v>2380</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>1752</v>
+        <v>1756</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>2377</v>
+        <v>2381</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>2378</v>
+        <v>2382</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>2379</v>
+        <v>2383</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>2380</v>
+        <v>2384</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>2381</v>
+        <v>2385</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>2382</v>
+        <v>2386</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>2383</v>
+        <v>2387</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>1815</v>
+        <v>1819</v>
       </c>
       <c r="AB15" s="12" t="s">
-        <v>2384</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="16">
@@ -15843,85 +15855,85 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>2385</v>
+        <v>2389</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>2386</v>
+        <v>2390</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>2387</v>
+        <v>2391</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>2388</v>
+        <v>2392</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>2389</v>
+        <v>2393</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>2390</v>
+        <v>2394</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>2391</v>
+        <v>2395</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>2392</v>
+        <v>2396</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>2393</v>
+        <v>2397</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>2394</v>
+        <v>2398</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>2395</v>
+        <v>2399</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>2396</v>
+        <v>2400</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>2397</v>
+        <v>2401</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>1756</v>
+        <v>1760</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>2398</v>
+        <v>2402</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>2399</v>
+        <v>2403</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>2400</v>
+        <v>2404</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>2401</v>
+        <v>2405</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>2402</v>
+        <v>2406</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>2403</v>
+        <v>2407</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>2404</v>
+        <v>2408</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>2405</v>
+        <v>2409</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>2406</v>
+        <v>2410</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>2407</v>
+        <v>2411</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>2408</v>
+        <v>2412</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>2409</v>
+        <v>2413</v>
       </c>
       <c r="AB16" s="12" t="s">
-        <v>2410</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="17">
@@ -15929,85 +15941,85 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>2411</v>
+        <v>2415</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>2412</v>
+        <v>2416</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>2413</v>
+        <v>2417</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>2414</v>
+        <v>2418</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>2415</v>
+        <v>2419</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>2416</v>
+        <v>2420</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>2417</v>
+        <v>2421</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>2418</v>
+        <v>2422</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>1799</v>
+        <v>1803</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>1844</v>
+        <v>1848</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>2419</v>
+        <v>2423</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>2420</v>
+        <v>2424</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>2421</v>
+        <v>2425</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>2422</v>
+        <v>2426</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>2423</v>
+        <v>2427</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>2424</v>
+        <v>2428</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>1873</v>
+        <v>1877</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>2425</v>
+        <v>2429</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>2426</v>
+        <v>2430</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>2427</v>
+        <v>2431</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>2428</v>
+        <v>2432</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>2429</v>
+        <v>2433</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>2430</v>
+        <v>2434</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>1857</v>
+        <v>1861</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>2431</v>
+        <v>2435</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>2432</v>
+        <v>2436</v>
       </c>
       <c r="AB17" s="12" t="s">
-        <v>2433</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="18">
@@ -16015,85 +16027,85 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>2434</v>
+        <v>2438</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>2435</v>
+        <v>2439</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>2436</v>
+        <v>2440</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>2437</v>
+        <v>2441</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1838</v>
+        <v>1842</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>1786</v>
+        <v>1790</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>2438</v>
+        <v>2442</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>2439</v>
+        <v>2443</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>2440</v>
+        <v>2444</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>2441</v>
+        <v>2445</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>2442</v>
+        <v>2446</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>1789</v>
+        <v>1793</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>2443</v>
+        <v>2447</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>2444</v>
+        <v>2448</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>2445</v>
+        <v>2449</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>2446</v>
+        <v>2450</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>2447</v>
+        <v>2451</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>1847</v>
+        <v>1851</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>2448</v>
+        <v>2452</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>2449</v>
+        <v>2453</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>2450</v>
+        <v>2454</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>2451</v>
+        <v>2455</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>2452</v>
+        <v>2456</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>2453</v>
+        <v>2457</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>2454</v>
+        <v>2458</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>2455</v>
+        <v>2459</v>
       </c>
       <c r="AB18" s="12" t="s">
-        <v>2193</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="19">
@@ -16101,85 +16113,85 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>2456</v>
+        <v>2460</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>2457</v>
+        <v>2461</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>2458</v>
+        <v>2462</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>2459</v>
+        <v>2463</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>2460</v>
+        <v>2464</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>2461</v>
+        <v>2465</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>2462</v>
+        <v>2466</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>1814</v>
+        <v>1818</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>2463</v>
+        <v>2467</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>1800</v>
+        <v>1804</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>1771</v>
+        <v>1775</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>2464</v>
+        <v>2468</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>1793</v>
+        <v>1797</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>2465</v>
+        <v>2469</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>2466</v>
+        <v>2470</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>2467</v>
+        <v>2471</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>2468</v>
+        <v>2472</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>2469</v>
+        <v>2473</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>2470</v>
+        <v>2474</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>2471</v>
+        <v>2475</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>2472</v>
+        <v>2476</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>2473</v>
+        <v>2477</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>2474</v>
+        <v>2478</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>2475</v>
+        <v>2479</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>2476</v>
+        <v>2480</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>2477</v>
+        <v>2481</v>
       </c>
       <c r="AB19" s="12" t="s">
-        <v>2478</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="20">
@@ -16187,85 +16199,85 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>2479</v>
+        <v>2483</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>2480</v>
+        <v>2484</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>2481</v>
+        <v>2485</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>2482</v>
+        <v>2486</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>2483</v>
+        <v>2487</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>2484</v>
+        <v>2488</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>2485</v>
+        <v>2489</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>1832</v>
+        <v>1836</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>1880</v>
+        <v>1884</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>1759</v>
+        <v>1763</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>2486</v>
+        <v>2490</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>2487</v>
+        <v>2491</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>2488</v>
+        <v>2492</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>2489</v>
+        <v>2493</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>2490</v>
+        <v>2494</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>2491</v>
+        <v>2495</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>2492</v>
+        <v>2496</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>2493</v>
+        <v>2497</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>2494</v>
+        <v>2498</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>2495</v>
+        <v>2499</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>2496</v>
+        <v>2500</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>2497</v>
+        <v>2501</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>1738</v>
+        <v>1742</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>2498</v>
+        <v>2502</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>2499</v>
+        <v>2503</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>2500</v>
+        <v>2504</v>
       </c>
       <c r="AB20" s="12" t="s">
-        <v>2501</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="21">
@@ -16273,85 +16285,85 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>2502</v>
+        <v>2506</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>2503</v>
+        <v>2507</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>2504</v>
+        <v>2508</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>2505</v>
+        <v>2509</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>2506</v>
+        <v>2510</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1860</v>
+        <v>1864</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>2507</v>
+        <v>2511</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>2508</v>
+        <v>2512</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>2509</v>
+        <v>2513</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>2510</v>
+        <v>2514</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>2511</v>
+        <v>2515</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>1885</v>
+        <v>1889</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>2512</v>
+        <v>2516</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>2513</v>
+        <v>2517</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>2514</v>
+        <v>2518</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>2515</v>
+        <v>2519</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>2516</v>
+        <v>2520</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>2517</v>
+        <v>2521</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>2518</v>
+        <v>2522</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>2519</v>
+        <v>2523</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>2520</v>
+        <v>2524</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>2521</v>
+        <v>2525</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>2522</v>
+        <v>2526</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>2523</v>
+        <v>2527</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>2524</v>
+        <v>2528</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="AB21" s="12" t="s">
-        <v>2525</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="22">
@@ -16359,85 +16371,85 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>2526</v>
+        <v>2530</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>2527</v>
+        <v>2531</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>2528</v>
+        <v>2532</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>2529</v>
+        <v>2533</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>2530</v>
+        <v>2534</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>2531</v>
+        <v>2535</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>2532</v>
+        <v>2536</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>2533</v>
+        <v>2537</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>2534</v>
+        <v>2538</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>2535</v>
+        <v>2539</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>2536</v>
+        <v>2540</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>2537</v>
+        <v>2541</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>1862</v>
+        <v>1866</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>1742</v>
+        <v>1746</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>2538</v>
+        <v>2542</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>2539</v>
+        <v>2543</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>2540</v>
+        <v>2544</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>2541</v>
+        <v>2545</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>2542</v>
+        <v>2546</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>2543</v>
+        <v>2547</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>2544</v>
+        <v>2548</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>2545</v>
+        <v>2549</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>2546</v>
+        <v>2550</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>2547</v>
+        <v>2551</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>1866</v>
+        <v>1870</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>2548</v>
+        <v>2552</v>
       </c>
       <c r="AB22" s="12" t="s">
-        <v>2549</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="23">
@@ -16445,85 +16457,85 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>2550</v>
+        <v>2554</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>2551</v>
+        <v>2555</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>2552</v>
+        <v>2556</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>2553</v>
+        <v>2557</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>2554</v>
+        <v>2558</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>2555</v>
+        <v>2559</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>2556</v>
+        <v>2560</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>2557</v>
+        <v>2561</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>2558</v>
+        <v>2562</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>2559</v>
+        <v>2563</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>2560</v>
+        <v>2564</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>2561</v>
+        <v>2565</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>2562</v>
+        <v>2566</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>2563</v>
+        <v>2567</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>2564</v>
+        <v>2568</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>2565</v>
+        <v>2569</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>2566</v>
+        <v>2570</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>2567</v>
+        <v>2571</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>2568</v>
+        <v>2572</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>2569</v>
+        <v>2573</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>1867</v>
+        <v>1871</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>2570</v>
+        <v>2574</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>2571</v>
+        <v>2575</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>2572</v>
+        <v>2576</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>2573</v>
+        <v>2577</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>2574</v>
+        <v>2578</v>
       </c>
       <c r="AB23" s="12" t="s">
-        <v>2575</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="24">
@@ -16531,85 +16543,85 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>2576</v>
+        <v>2580</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>2577</v>
+        <v>2581</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>2578</v>
+        <v>2582</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>2579</v>
+        <v>2583</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>2580</v>
+        <v>2584</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>2581</v>
+        <v>2585</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>1818</v>
+        <v>1822</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>2582</v>
+        <v>2586</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>2583</v>
+        <v>2587</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>2584</v>
+        <v>2588</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>2585</v>
+        <v>2589</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>2586</v>
+        <v>2590</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>2587</v>
+        <v>2591</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>2588</v>
+        <v>2592</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>2589</v>
+        <v>2593</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>2590</v>
+        <v>2594</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>2591</v>
+        <v>2595</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>2592</v>
+        <v>2596</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>2593</v>
+        <v>2597</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>2594</v>
+        <v>2598</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>2595</v>
+        <v>2599</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>2596</v>
+        <v>2600</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>2597</v>
+        <v>2601</v>
       </c>
       <c r="Y24" s="5" t="s">
-        <v>2598</v>
+        <v>2602</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>2599</v>
+        <v>2603</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>2600</v>
+        <v>2604</v>
       </c>
       <c r="AB24" s="12" t="s">
-        <v>2601</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="25">
@@ -16617,85 +16629,85 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>2602</v>
+        <v>2606</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>2603</v>
+        <v>2607</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>2604</v>
+        <v>2608</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>2605</v>
+        <v>2609</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>2606</v>
+        <v>2610</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>2607</v>
+        <v>2611</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>2608</v>
+        <v>2612</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>2609</v>
+        <v>2613</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>2610</v>
+        <v>2614</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>2611</v>
+        <v>2615</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>2612</v>
+        <v>2616</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>2613</v>
+        <v>2617</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>2614</v>
+        <v>2618</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>2615</v>
+        <v>2619</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>2616</v>
+        <v>2620</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>1812</v>
+        <v>1816</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>2617</v>
+        <v>2621</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>2618</v>
+        <v>2622</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>1773</v>
+        <v>1777</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>2619</v>
+        <v>2623</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>2620</v>
+        <v>2624</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>2621</v>
+        <v>2625</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>2622</v>
+        <v>2626</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>2623</v>
+        <v>2627</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>2624</v>
+        <v>2628</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>2625</v>
+        <v>2629</v>
       </c>
       <c r="AB25" s="12" t="s">
-        <v>2242</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="26">
@@ -16703,85 +16715,85 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>2626</v>
+        <v>2630</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>2627</v>
+        <v>2631</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>2628</v>
+        <v>2632</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>2629</v>
+        <v>2633</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>2630</v>
+        <v>2634</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>2631</v>
+        <v>2635</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>2632</v>
+        <v>2636</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>2633</v>
+        <v>2637</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>2634</v>
+        <v>2638</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>2635</v>
+        <v>2639</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>2636</v>
+        <v>2640</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>1747</v>
+        <v>1751</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>2637</v>
+        <v>2641</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>1850</v>
+        <v>1854</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>2638</v>
+        <v>2642</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>1886</v>
+        <v>1890</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>2639</v>
+        <v>2643</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>2640</v>
+        <v>2644</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>2641</v>
+        <v>2645</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>2642</v>
+        <v>2646</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>2643</v>
+        <v>2647</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>2644</v>
+        <v>2648</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>2645</v>
+        <v>2649</v>
       </c>
       <c r="Y26" s="5" t="s">
-        <v>2646</v>
+        <v>2650</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>2647</v>
+        <v>2651</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>2648</v>
+        <v>2652</v>
       </c>
       <c r="AB26" s="12" t="s">
-        <v>2649</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="27">
@@ -16789,85 +16801,85 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>2650</v>
+        <v>2654</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>2651</v>
+        <v>2655</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>2652</v>
+        <v>2656</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>2653</v>
+        <v>2657</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>2654</v>
+        <v>2658</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>2655</v>
+        <v>2659</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>2656</v>
+        <v>2660</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>2657</v>
+        <v>2661</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>2658</v>
+        <v>2662</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>2659</v>
+        <v>2663</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>2660</v>
+        <v>2664</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>2661</v>
+        <v>2665</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>2662</v>
+        <v>2666</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>2663</v>
+        <v>2667</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>2664</v>
+        <v>2668</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>2665</v>
+        <v>2669</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>2666</v>
+        <v>2670</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>2667</v>
+        <v>2671</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>2668</v>
+        <v>2672</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>2669</v>
+        <v>2673</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>1728</v>
+        <v>1732</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>2670</v>
+        <v>2674</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>2671</v>
+        <v>2675</v>
       </c>
       <c r="Y27" s="5" t="s">
-        <v>2672</v>
+        <v>2676</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>2673</v>
+        <v>2677</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>2674</v>
+        <v>2678</v>
       </c>
       <c r="AB27" s="12" t="s">
-        <v>2675</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="28">
@@ -16875,85 +16887,85 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>2676</v>
+        <v>2680</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>2677</v>
+        <v>2681</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>2678</v>
+        <v>2682</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>2679</v>
+        <v>2683</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>2680</v>
+        <v>2684</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>2681</v>
+        <v>2685</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>1840</v>
+        <v>1844</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>2682</v>
+        <v>2686</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>2683</v>
+        <v>2687</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>2684</v>
+        <v>2688</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>2685</v>
+        <v>2689</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>2686</v>
+        <v>2690</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>2687</v>
+        <v>2691</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>2688</v>
+        <v>2692</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>2689</v>
+        <v>2693</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>2690</v>
+        <v>2694</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>2691</v>
+        <v>2695</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>2692</v>
+        <v>2696</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>2693</v>
+        <v>2697</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>2694</v>
+        <v>2698</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>2695</v>
+        <v>2699</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>2696</v>
+        <v>2700</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>2697</v>
+        <v>2701</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>2698</v>
+        <v>2702</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>2699</v>
+        <v>2703</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>2700</v>
+        <v>2704</v>
       </c>
       <c r="AB28" s="12" t="s">
-        <v>2701</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="29">
@@ -16961,85 +16973,85 @@
         <v>45</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>2702</v>
+        <v>2706</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>2703</v>
+        <v>2707</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>2704</v>
+        <v>2708</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>2705</v>
+        <v>2709</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>2706</v>
+        <v>2710</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>2707</v>
+        <v>2711</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>2708</v>
+        <v>2712</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>2709</v>
+        <v>2713</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>2710</v>
+        <v>2714</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>2711</v>
+        <v>2715</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>2712</v>
+        <v>2716</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>2713</v>
+        <v>2717</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>2714</v>
+        <v>2718</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>2715</v>
+        <v>2719</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>2716</v>
+        <v>2720</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>2717</v>
+        <v>2721</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>2718</v>
+        <v>2722</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>2719</v>
+        <v>2723</v>
       </c>
       <c r="T29" s="9" t="s">
-        <v>2720</v>
+        <v>2724</v>
       </c>
       <c r="U29" s="9" t="s">
-        <v>2721</v>
+        <v>2725</v>
       </c>
       <c r="V29" s="9" t="s">
-        <v>2722</v>
+        <v>2726</v>
       </c>
       <c r="W29" s="9" t="s">
-        <v>2723</v>
+        <v>2727</v>
       </c>
       <c r="X29" s="9" t="s">
-        <v>2487</v>
+        <v>2491</v>
       </c>
       <c r="Y29" s="9" t="s">
-        <v>2724</v>
+        <v>2728</v>
       </c>
       <c r="Z29" s="9" t="s">
-        <v>2725</v>
+        <v>2729</v>
       </c>
       <c r="AA29" s="9" t="s">
-        <v>2726</v>
+        <v>2730</v>
       </c>
       <c r="AB29" s="12" t="s">
-        <v>2727</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="30">
@@ -17047,85 +17059,85 @@
         <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>2728</v>
+        <v>2732</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>2729</v>
+        <v>2733</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>2730</v>
+        <v>2734</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>2731</v>
+        <v>2735</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>2732</v>
+        <v>2736</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>2733</v>
+        <v>2737</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>2734</v>
+        <v>2738</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>2735</v>
+        <v>2739</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>2736</v>
+        <v>2740</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>2737</v>
+        <v>2741</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>2738</v>
+        <v>2742</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>2739</v>
+        <v>2743</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>2740</v>
+        <v>2744</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>2741</v>
+        <v>2745</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>2742</v>
+        <v>2746</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>2743</v>
+        <v>2747</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>2744</v>
+        <v>2748</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>2745</v>
+        <v>2749</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>2746</v>
+        <v>2750</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>2747</v>
+        <v>2751</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>2748</v>
+        <v>2752</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>2749</v>
+        <v>2753</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>2750</v>
+        <v>2754</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>2751</v>
+        <v>2755</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>2752</v>
+        <v>2756</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>2753</v>
+        <v>2757</v>
       </c>
       <c r="AB30" s="3" t="s">
-        <v>2754</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="31">
@@ -17133,85 +17145,85 @@
         <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2755</v>
+        <v>2759</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>2756</v>
+        <v>2760</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>2757</v>
+        <v>2761</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>2758</v>
+        <v>2762</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>2759</v>
+        <v>2763</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>2760</v>
+        <v>2764</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>2761</v>
+        <v>2765</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>2762</v>
+        <v>2766</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>2763</v>
+        <v>2767</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>2764</v>
+        <v>2768</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>2765</v>
+        <v>2769</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>2767</v>
+        <v>2771</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>2768</v>
+        <v>2772</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>2769</v>
+        <v>2773</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>2770</v>
+        <v>2774</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>2771</v>
+        <v>2775</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>2772</v>
+        <v>2776</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>2773</v>
+        <v>2777</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>2774</v>
+        <v>2778</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>2775</v>
+        <v>2779</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>2776</v>
+        <v>2780</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>2777</v>
+        <v>2781</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>2778</v>
+        <v>2782</v>
       </c>
       <c r="Z31" s="2" t="s">
-        <v>2779</v>
+        <v>2783</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>2780</v>
+        <v>2784</v>
       </c>
       <c r="AB31" s="3" t="s">
-        <v>2781</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="32">
@@ -17297,7 +17309,7 @@
         <v>161</v>
       </c>
       <c r="AB32" s="12" t="s">
-        <v>2782</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="33">
@@ -17383,7 +17395,7 @@
         <v>161</v>
       </c>
       <c r="AB33" s="12" t="s">
-        <v>2783</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="34">
@@ -17469,7 +17481,7 @@
         <v>161</v>
       </c>
       <c r="AB34" s="12" t="s">
-        <v>2784</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="35">
@@ -17555,7 +17567,7 @@
         <v>161</v>
       </c>
       <c r="AB35" s="12" t="s">
-        <v>2785</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="36">
@@ -17563,85 +17575,85 @@
         <v>67</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>2786</v>
+        <v>2790</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>2787</v>
+        <v>2791</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2788</v>
+        <v>2792</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1912</v>
+        <v>1916</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>2789</v>
+        <v>2793</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>2790</v>
+        <v>2794</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>2791</v>
+        <v>2795</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>2792</v>
+        <v>2796</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>2793</v>
+        <v>2797</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>2794</v>
+        <v>2798</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>2795</v>
+        <v>2799</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>2796</v>
+        <v>2800</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>2797</v>
+        <v>2801</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>2798</v>
+        <v>2802</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>2799</v>
+        <v>2803</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>2800</v>
+        <v>2804</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>2801</v>
+        <v>2805</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>2802</v>
+        <v>2806</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>2803</v>
+        <v>2807</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>2804</v>
+        <v>2808</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>2805</v>
+        <v>2809</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>2806</v>
+        <v>2810</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>2807</v>
+        <v>2811</v>
       </c>
       <c r="Y36" s="2" t="s">
-        <v>2808</v>
+        <v>2812</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>2809</v>
+        <v>2813</v>
       </c>
       <c r="AA36" s="2" t="s">
-        <v>2810</v>
+        <v>2814</v>
       </c>
       <c r="AB36" s="3" t="s">
-        <v>2811</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="37">
@@ -17727,7 +17739,7 @@
         <v>161</v>
       </c>
       <c r="AB37" s="12" t="s">
-        <v>2812</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="38">
@@ -17813,7 +17825,7 @@
         <v>161</v>
       </c>
       <c r="AB38" s="12" t="s">
-        <v>2813</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="39">
@@ -17899,7 +17911,7 @@
         <v>161</v>
       </c>
       <c r="AB39" s="12" t="s">
-        <v>2814</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="40">
@@ -17985,7 +17997,7 @@
         <v>161</v>
       </c>
       <c r="AB40" s="12" t="s">
-        <v>2815</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="41">
@@ -18071,7 +18083,7 @@
         <v>161</v>
       </c>
       <c r="AB41" s="12" t="s">
-        <v>2816</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="42">
@@ -18162,88 +18174,88 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2817</v>
+        <v>2821</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2819</v>
+        <v>2823</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>2820</v>
+        <v>2824</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>2821</v>
+        <v>2825</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>2822</v>
+        <v>2826</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>2823</v>
+        <v>2827</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>2824</v>
+        <v>2828</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>2825</v>
+        <v>2829</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>2826</v>
+        <v>2830</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>2827</v>
+        <v>2831</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>2828</v>
+        <v>2832</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>2829</v>
+        <v>2833</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>2830</v>
+        <v>2834</v>
       </c>
       <c r="O43" s="11" t="s">
-        <v>2831</v>
+        <v>2835</v>
       </c>
       <c r="P43" s="9" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>2833</v>
+        <v>2837</v>
       </c>
       <c r="R43" s="9" t="s">
-        <v>2834</v>
+        <v>2838</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>2835</v>
+        <v>2839</v>
       </c>
       <c r="T43" s="9" t="s">
-        <v>2836</v>
+        <v>2840</v>
       </c>
       <c r="U43" s="9" t="s">
-        <v>2837</v>
+        <v>2841</v>
       </c>
       <c r="V43" s="9" t="s">
-        <v>2838</v>
+        <v>2842</v>
       </c>
       <c r="W43" s="9" t="s">
-        <v>2839</v>
+        <v>2843</v>
       </c>
       <c r="X43" s="9" t="s">
-        <v>2840</v>
+        <v>2844</v>
       </c>
       <c r="Y43" s="9" t="s">
-        <v>2841</v>
+        <v>2845</v>
       </c>
       <c r="Z43" s="9" t="s">
-        <v>2842</v>
+        <v>2846</v>
       </c>
       <c r="AA43" s="9" t="s">
-        <v>2843</v>
+        <v>2847</v>
       </c>
       <c r="AB43" s="12" t="s">
-        <v>2364</v>
+        <v>2368</v>
       </c>
     </row>
   </sheetData>
@@ -18269,7 +18281,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2844</v>
+        <v>2848</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -18283,16 +18295,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2845</v>
+        <v>2849</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2846</v>
+        <v>2850</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2847</v>
+        <v>2851</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>2848</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="3">
@@ -18300,10 +18312,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2849</v>
+        <v>2853</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2850</v>
+        <v>2854</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>19</v>
@@ -18314,10 +18326,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2851</v>
+        <v>2855</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>2852</v>
+        <v>2856</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>19</v>
@@ -18328,10 +18340,10 @@
         <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2853</v>
+        <v>2857</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2854</v>
+        <v>2858</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>19</v>
@@ -18342,10 +18354,10 @@
         <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2855</v>
+        <v>2859</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>2856</v>
+        <v>2860</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>19</v>
@@ -18356,10 +18368,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>2857</v>
+        <v>2861</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>19</v>
@@ -18370,10 +18382,10 @@
         <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>2859</v>
+        <v>2863</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2860</v>
+        <v>2864</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>19</v>
@@ -18384,10 +18396,10 @@
         <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>2861</v>
+        <v>2865</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>2862</v>
+        <v>2866</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>19</v>
@@ -18398,10 +18410,10 @@
         <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2863</v>
+        <v>2867</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>2864</v>
+        <v>2868</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>19</v>
@@ -18412,10 +18424,10 @@
         <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>2865</v>
+        <v>2869</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>2866</v>
+        <v>2870</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>19</v>
@@ -18426,10 +18438,10 @@
         <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>2867</v>
+        <v>2871</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>2868</v>
+        <v>2872</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>19</v>
@@ -18440,10 +18452,10 @@
         <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2869</v>
+        <v>2873</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>2870</v>
+        <v>2874</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>19</v>
@@ -18454,10 +18466,10 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2871</v>
+        <v>2875</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>2872</v>
+        <v>2876</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>19</v>
@@ -18468,10 +18480,10 @@
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>2873</v>
+        <v>2877</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>2874</v>
+        <v>2878</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>19</v>
@@ -18482,10 +18494,10 @@
         <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>2875</v>
+        <v>2879</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>2876</v>
+        <v>2880</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>19</v>
@@ -18496,10 +18508,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>2877</v>
+        <v>2881</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>2878</v>
+        <v>2882</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>19</v>
@@ -18510,10 +18522,10 @@
         <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>2880</v>
+        <v>2884</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>19</v>
@@ -18524,10 +18536,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>2881</v>
+        <v>2885</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>2882</v>
+        <v>2886</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>19</v>
@@ -18538,10 +18550,10 @@
         <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>2883</v>
+        <v>2887</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>2884</v>
+        <v>2888</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>19</v>
@@ -18552,10 +18564,10 @@
         <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>2885</v>
+        <v>2889</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>2886</v>
+        <v>2890</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>19</v>
@@ -18566,10 +18578,10 @@
         <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>2887</v>
+        <v>2891</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>2888</v>
+        <v>2892</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>19</v>
@@ -18580,10 +18592,10 @@
         <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>2889</v>
+        <v>2893</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>2890</v>
+        <v>2894</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>19</v>
@@ -18594,10 +18606,10 @@
         <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>2891</v>
+        <v>2895</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>2892</v>
+        <v>2896</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>19</v>
@@ -18608,10 +18620,10 @@
         <v>41</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>2893</v>
+        <v>2897</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>2894</v>
+        <v>2898</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>19</v>
@@ -18622,10 +18634,10 @@
         <v>42</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>2895</v>
+        <v>2899</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>2896</v>
+        <v>2900</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>19</v>
@@ -18636,10 +18648,10 @@
         <v>43</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>2897</v>
+        <v>2901</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>2898</v>
+        <v>2902</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>19</v>
@@ -18650,10 +18662,10 @@
         <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>2899</v>
+        <v>2903</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>2900</v>
+        <v>2904</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>19</v>
@@ -18664,13 +18676,13 @@
         <v>45</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>2901</v>
+        <v>2905</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>2902</v>
+        <v>2906</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="30">
@@ -18678,13 +18690,13 @@
         <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>2904</v>
+        <v>2908</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>2905</v>
+        <v>2909</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>2906</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="31">
@@ -18692,13 +18704,13 @@
         <v>62</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>2907</v>
+        <v>2911</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>2908</v>
+        <v>2912</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>2909</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="32">
@@ -18706,13 +18718,13 @@
         <v>63</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>2910</v>
+        <v>2914</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>2911</v>
+        <v>2915</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>2912</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="33">
@@ -18720,13 +18732,13 @@
         <v>64</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>2913</v>
+        <v>2917</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>2914</v>
+        <v>2918</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>2915</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="34">
@@ -18734,13 +18746,13 @@
         <v>65</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>2916</v>
+        <v>2920</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>2917</v>
+        <v>2921</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>2918</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="35">
@@ -18754,7 +18766,7 @@
         <v>56</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>2919</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="36">
@@ -18762,13 +18774,13 @@
         <v>67</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>2920</v>
+        <v>2924</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>2921</v>
+        <v>2925</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>2922</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="37">
@@ -18776,13 +18788,13 @@
         <v>76</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>2923</v>
+        <v>2927</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>2924</v>
+        <v>2928</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>2925</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="38">
@@ -18790,13 +18802,13 @@
         <v>77</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>2926</v>
+        <v>2930</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>2927</v>
+        <v>2931</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>2928</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="39">
@@ -18810,7 +18822,7 @@
         <v>56</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>2929</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="40">
@@ -18824,7 +18836,7 @@
         <v>56</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>2930</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="41">
@@ -18832,10 +18844,10 @@
         <v>80</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>2931</v>
+        <v>2935</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>2932</v>
+        <v>2936</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>295</v>
@@ -18857,16 +18869,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2933</v>
+        <v>2937</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2934</v>
+        <v>2938</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2935</v>
+        <v>2939</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>2936</v>
+        <v>2940</v>
       </c>
     </row>
   </sheetData>

--- a/iceKnives32/Offline Documents (Periodic)/iceKnives32.xlsx
+++ b/iceKnives32/Offline Documents (Periodic)/iceKnives32.xlsx
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="2941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="2945">
   <si>
     <t>[]</t>
   </si>
@@ -5407,6 +5407,18 @@
   </si>
   <si>
     <t>soil</t>
+  </si>
+  <si>
+    <t>moderate</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>reel</t>
+  </si>
+  <si>
+    <t>grey</t>
   </si>
   <si>
     <t>layers</t>
@@ -11486,25 +11498,25 @@
         <v>1697</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>18</v>
+        <v>1698</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>18</v>
+        <v>1699</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>18</v>
+        <v>1700</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>18</v>
+        <v>1701</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>1698</v>
+        <v>1702</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>19</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27">
@@ -11512,25 +11524,25 @@
         <v>43</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1700</v>
+        <v>1704</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1701</v>
+        <v>1705</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>1702</v>
+        <v>1706</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>1703</v>
+        <v>1707</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>1704</v>
+        <v>1708</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>1705</v>
+        <v>1709</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>1706</v>
+        <v>1710</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>16</v>
@@ -11541,25 +11553,25 @@
         <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1707</v>
+        <v>1711</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1708</v>
+        <v>1712</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1709</v>
+        <v>1713</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>1710</v>
+        <v>1714</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>1712</v>
+        <v>1716</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>1713</v>
+        <v>1717</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>756</v>
@@ -11973,7 +11985,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>91</v>
@@ -11997,7 +12009,7 @@
         <v>97</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1715</v>
+        <v>1719</v>
       </c>
     </row>
   </sheetData>
@@ -12026,7 +12038,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>1716</v>
+        <v>1720</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -12055,28 +12067,28 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>1717</v>
+        <v>1721</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1718</v>
+        <v>1722</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1719</v>
+        <v>1723</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1720</v>
+        <v>1724</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1721</v>
+        <v>1725</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1722</v>
+        <v>1726</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1723</v>
+        <v>1727</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>1724</v>
+        <v>1728</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>303</v>
@@ -12087,25 +12099,25 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1725</v>
+        <v>1729</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1726</v>
+        <v>1730</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1727</v>
+        <v>1731</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1728</v>
+        <v>1732</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>1729</v>
+        <v>1733</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>1730</v>
+        <v>1734</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>1731</v>
+        <v>1735</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>19</v>
@@ -12116,25 +12128,25 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1732</v>
+        <v>1736</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1733</v>
+        <v>1737</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>1012</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1734</v>
+        <v>1738</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>1735</v>
+        <v>1739</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1736</v>
+        <v>1740</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>1737</v>
+        <v>1741</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>19</v>
@@ -12145,25 +12157,25 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1738</v>
+        <v>1742</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1739</v>
+        <v>1743</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>1027</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1740</v>
+        <v>1744</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1741</v>
+        <v>1745</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>1742</v>
+        <v>1746</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>1743</v>
+        <v>1747</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>19</v>
@@ -12174,25 +12186,25 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1744</v>
+        <v>1748</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1745</v>
+        <v>1749</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>747</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1746</v>
+        <v>1750</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>1747</v>
+        <v>1751</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1748</v>
+        <v>1752</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>1749</v>
+        <v>1753</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>19</v>
@@ -12203,25 +12215,25 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1750</v>
+        <v>1754</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1751</v>
+        <v>1755</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>456</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1752</v>
+        <v>1756</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1753</v>
+        <v>1757</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>1754</v>
+        <v>1758</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>1755</v>
+        <v>1759</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>19</v>
@@ -12232,25 +12244,25 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1756</v>
+        <v>1760</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1757</v>
+        <v>1761</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>124</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1758</v>
+        <v>1762</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1759</v>
+        <v>1763</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1760</v>
+        <v>1764</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>1761</v>
+        <v>1765</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>19</v>
@@ -12261,25 +12273,25 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1762</v>
+        <v>1766</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1763</v>
+        <v>1767</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>360</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1764</v>
+        <v>1768</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>1765</v>
+        <v>1769</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1766</v>
+        <v>1770</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>1767</v>
+        <v>1771</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>19</v>
@@ -12290,25 +12302,25 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1768</v>
+        <v>1772</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1769</v>
+        <v>1773</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1770</v>
+        <v>1774</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1771</v>
+        <v>1775</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1773</v>
+        <v>1777</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>19</v>
@@ -12319,25 +12331,25 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1775</v>
+        <v>1779</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>488</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1779</v>
+        <v>1783</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>1780</v>
+        <v>1784</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>19</v>
@@ -12348,25 +12360,25 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1782</v>
+        <v>1786</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1119</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1783</v>
+        <v>1787</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1784</v>
+        <v>1788</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>1785</v>
+        <v>1789</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>1786</v>
+        <v>1790</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>19</v>
@@ -12377,25 +12389,25 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1787</v>
+        <v>1791</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1788</v>
+        <v>1792</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>470</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1789</v>
+        <v>1793</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1790</v>
+        <v>1794</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1791</v>
+        <v>1795</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>1792</v>
+        <v>1796</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>19</v>
@@ -12406,25 +12418,25 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1793</v>
+        <v>1797</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1794</v>
+        <v>1798</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>211</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1795</v>
+        <v>1799</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1796</v>
+        <v>1800</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1797</v>
+        <v>1801</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>1798</v>
+        <v>1802</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>19</v>
@@ -12435,25 +12447,25 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1799</v>
+        <v>1803</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1800</v>
+        <v>1804</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1801</v>
+        <v>1805</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1802</v>
+        <v>1806</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1803</v>
+        <v>1807</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1804</v>
+        <v>1808</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>1805</v>
+        <v>1809</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>19</v>
@@ -12464,25 +12476,25 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1806</v>
+        <v>1810</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1807</v>
+        <v>1811</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>625</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1808</v>
+        <v>1812</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1809</v>
+        <v>1813</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>1810</v>
+        <v>1814</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>1811</v>
+        <v>1815</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>19</v>
@@ -12493,25 +12505,25 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1812</v>
+        <v>1816</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1813</v>
+        <v>1817</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>768</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1814</v>
+        <v>1818</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>1815</v>
+        <v>1819</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1816</v>
+        <v>1820</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>1817</v>
+        <v>1821</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>19</v>
@@ -12522,25 +12534,25 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1818</v>
+        <v>1822</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1819</v>
+        <v>1823</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>845</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1820</v>
+        <v>1824</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1821</v>
+        <v>1825</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>1822</v>
+        <v>1826</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>1823</v>
+        <v>1827</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>19</v>
@@ -12551,25 +12563,25 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1824</v>
+        <v>1828</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1825</v>
+        <v>1829</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>1311</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1826</v>
+        <v>1830</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>1827</v>
+        <v>1831</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>1828</v>
+        <v>1832</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>1829</v>
+        <v>1833</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>19</v>
@@ -12580,25 +12592,25 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1830</v>
+        <v>1834</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1831</v>
+        <v>1835</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1832</v>
+        <v>1836</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1833</v>
+        <v>1837</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>1834</v>
+        <v>1838</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1835</v>
+        <v>1839</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>1836</v>
+        <v>1840</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>19</v>
@@ -12609,25 +12621,25 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1837</v>
+        <v>1841</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1838</v>
+        <v>1842</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1839</v>
+        <v>1843</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1840</v>
+        <v>1844</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>1841</v>
+        <v>1845</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1842</v>
+        <v>1846</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>1843</v>
+        <v>1847</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>19</v>
@@ -12638,25 +12650,25 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1844</v>
+        <v>1848</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1845</v>
+        <v>1849</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>932</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1846</v>
+        <v>1850</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>1847</v>
+        <v>1851</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>1848</v>
+        <v>1852</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>1849</v>
+        <v>1853</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>19</v>
@@ -12667,25 +12679,25 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1850</v>
+        <v>1854</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1851</v>
+        <v>1855</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1852</v>
+        <v>1856</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1853</v>
+        <v>1857</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>1854</v>
+        <v>1858</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1855</v>
+        <v>1859</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>1856</v>
+        <v>1860</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>19</v>
@@ -12696,25 +12708,25 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1857</v>
+        <v>1861</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1858</v>
+        <v>1862</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>472</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1859</v>
+        <v>1863</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>1860</v>
+        <v>1864</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>1861</v>
+        <v>1865</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>1862</v>
+        <v>1866</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>19</v>
@@ -12725,25 +12737,25 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1863</v>
+        <v>1867</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1864</v>
+        <v>1868</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>424</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1865</v>
+        <v>1869</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>1866</v>
+        <v>1870</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>1867</v>
+        <v>1871</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>1868</v>
+        <v>1872</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>19</v>
@@ -12754,25 +12766,25 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1869</v>
+        <v>1873</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1870</v>
+        <v>1874</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>925</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1871</v>
+        <v>1875</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>1872</v>
+        <v>1876</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1873</v>
+        <v>1877</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>1874</v>
+        <v>1878</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>19</v>
@@ -12783,25 +12795,25 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1875</v>
+        <v>1879</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1876</v>
+        <v>1880</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>1383</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1877</v>
+        <v>1881</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>1878</v>
+        <v>1882</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>1879</v>
+        <v>1883</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>1880</v>
+        <v>1884</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>19</v>
@@ -12812,25 +12824,25 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1881</v>
+        <v>1885</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1882</v>
+        <v>1886</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>429</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1883</v>
+        <v>1887</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>1884</v>
+        <v>1888</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>1885</v>
+        <v>1889</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>1886</v>
+        <v>1890</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>19</v>
@@ -12841,25 +12853,25 @@
         <v>45</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1887</v>
+        <v>1891</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1888</v>
+        <v>1892</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>373</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1889</v>
+        <v>1893</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>1890</v>
+        <v>1894</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1891</v>
+        <v>1895</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>1892</v>
+        <v>1896</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>335</v>
@@ -12870,28 +12882,28 @@
         <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1893</v>
+        <v>1897</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1894</v>
+        <v>1898</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1895</v>
+        <v>1899</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>1896</v>
+        <v>1900</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1897</v>
+        <v>1901</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>1898</v>
+        <v>1902</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>1899</v>
+        <v>1903</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>1900</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="31">
@@ -12899,28 +12911,28 @@
         <v>62</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1901</v>
+        <v>1905</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1902</v>
+        <v>1906</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1903</v>
+        <v>1907</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>1904</v>
+        <v>1908</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>1905</v>
+        <v>1909</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>1906</v>
+        <v>1910</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>1907</v>
+        <v>1911</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>1908</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="32">
@@ -12949,7 +12961,7 @@
         <v>61</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="33">
@@ -12978,7 +12990,7 @@
         <v>61</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>1910</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="34">
@@ -13007,7 +13019,7 @@
         <v>61</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>1911</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="35">
@@ -13036,7 +13048,7 @@
         <v>61</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>1912</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="36">
@@ -13044,28 +13056,28 @@
         <v>67</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1913</v>
+        <v>1917</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1914</v>
+        <v>1918</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1915</v>
+        <v>1919</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>1916</v>
+        <v>1920</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>1917</v>
+        <v>1921</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>1918</v>
+        <v>1922</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>1919</v>
+        <v>1923</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>1920</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="37">
@@ -13094,7 +13106,7 @@
         <v>61</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>1921</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="38">
@@ -13123,7 +13135,7 @@
         <v>61</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>1922</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="39">
@@ -13152,7 +13164,7 @@
         <v>61</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>1923</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="40">
@@ -13181,7 +13193,7 @@
         <v>61</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>1924</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="41">
@@ -13210,7 +13222,7 @@
         <v>61</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>1925</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="42">
@@ -13244,31 +13256,31 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1926</v>
+        <v>1930</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1927</v>
+        <v>1931</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1928</v>
+        <v>1932</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1929</v>
+        <v>1933</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>1930</v>
+        <v>1934</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>1931</v>
+        <v>1935</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>1932</v>
+        <v>1936</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>1933</v>
+        <v>1937</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1934</v>
+        <v>1938</v>
       </c>
     </row>
   </sheetData>
@@ -13295,7 +13307,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1935</v>
+        <v>1939</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -13324,28 +13336,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1936</v>
+        <v>1940</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1937</v>
+        <v>1941</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1938</v>
+        <v>1942</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1939</v>
+        <v>1943</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1940</v>
+        <v>1944</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1941</v>
+        <v>1945</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1942</v>
+        <v>1946</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>1943</v>
+        <v>1947</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>19</v>
@@ -13356,13 +13368,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1944</v>
+        <v>1948</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1945</v>
+        <v>1949</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1946</v>
+        <v>1950</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>18</v>
@@ -13385,13 +13397,13 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1948</v>
+        <v>1952</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1949</v>
+        <v>1953</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -13414,13 +13426,13 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1950</v>
+        <v>1954</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1951</v>
+        <v>1955</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1952</v>
+        <v>1956</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>18</v>
@@ -13443,13 +13455,13 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1953</v>
+        <v>1957</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1954</v>
+        <v>1958</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1955</v>
+        <v>1959</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>18</v>
@@ -13472,13 +13484,13 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1956</v>
+        <v>1960</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1957</v>
+        <v>1961</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1958</v>
+        <v>1962</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>18</v>
@@ -13501,13 +13513,13 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1959</v>
+        <v>1963</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1960</v>
+        <v>1964</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1961</v>
+        <v>1965</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>18</v>
@@ -13530,13 +13542,13 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1962</v>
+        <v>1966</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1963</v>
+        <v>1967</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1964</v>
+        <v>1968</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>18</v>
@@ -13559,13 +13571,13 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1965</v>
+        <v>1969</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1966</v>
+        <v>1970</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1967</v>
+        <v>1971</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>18</v>
@@ -13588,13 +13600,13 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1969</v>
+        <v>1973</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1970</v>
+        <v>1974</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>18</v>
@@ -13617,13 +13629,13 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1971</v>
+        <v>1975</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1972</v>
+        <v>1976</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1973</v>
+        <v>1977</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>18</v>
@@ -13646,13 +13658,13 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1974</v>
+        <v>1978</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1975</v>
+        <v>1979</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1976</v>
+        <v>1980</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>18</v>
@@ -13675,13 +13687,13 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1977</v>
+        <v>1981</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1978</v>
+        <v>1982</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1979</v>
+        <v>1983</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>18</v>
@@ -13704,13 +13716,13 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1980</v>
+        <v>1984</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1981</v>
+        <v>1985</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1982</v>
+        <v>1986</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>18</v>
@@ -13733,13 +13745,13 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1983</v>
+        <v>1987</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>18</v>
@@ -13762,13 +13774,13 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>18</v>
@@ -13791,13 +13803,13 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>18</v>
@@ -13820,13 +13832,13 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>18</v>
@@ -13849,13 +13861,13 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>18</v>
@@ -13878,13 +13890,13 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>18</v>
@@ -13907,13 +13919,13 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>18</v>
@@ -13936,13 +13948,13 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>18</v>
@@ -13965,13 +13977,13 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>18</v>
@@ -13994,13 +14006,13 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>18</v>
@@ -14023,13 +14035,13 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>18</v>
@@ -14052,13 +14064,13 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>18</v>
@@ -14081,13 +14093,13 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>18</v>
@@ -14110,25 +14122,25 @@
         <v>45</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>2022</v>
+        <v>2026</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>2023</v>
+        <v>2027</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>2024</v>
+        <v>2028</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>2025</v>
+        <v>2029</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>2026</v>
+        <v>2030</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>2027</v>
+        <v>2031</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>2028</v>
+        <v>2032</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>19</v>
@@ -14513,31 +14525,31 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2029</v>
+        <v>2033</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2030</v>
+        <v>2034</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2031</v>
+        <v>2035</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>2032</v>
+        <v>2036</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>2033</v>
+        <v>2037</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>2034</v>
+        <v>2038</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>2035</v>
+        <v>2039</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>2036</v>
+        <v>2040</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>2037</v>
+        <v>2041</v>
       </c>
     </row>
   </sheetData>
@@ -14562,7 +14574,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2038</v>
+        <v>2042</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -14586,61 +14598,61 @@
         <v>7</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>2039</v>
+        <v>2043</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>2040</v>
+        <v>2044</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>2041</v>
+        <v>2045</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>2042</v>
+        <v>2046</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>2043</v>
+        <v>2047</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>2044</v>
+        <v>2048</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>2045</v>
+        <v>2049</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>2046</v>
+        <v>2050</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>2047</v>
+        <v>2051</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>2048</v>
+        <v>2052</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>2049</v>
+        <v>2053</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>2051</v>
+        <v>2055</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>2052</v>
+        <v>2056</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>2053</v>
+        <v>2057</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>2054</v>
+        <v>2058</v>
       </c>
       <c r="Y1" s="9" t="s">
-        <v>2055</v>
+        <v>2059</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>2056</v>
+        <v>2060</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>2057</v>
+        <v>2061</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>8</v>
@@ -14648,88 +14660,88 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1935</v>
+        <v>1939</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2058</v>
+        <v>2062</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>2059</v>
+        <v>2063</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>2060</v>
+        <v>2064</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>2061</v>
+        <v>2065</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>2062</v>
+        <v>2066</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>2063</v>
+        <v>2067</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>2064</v>
+        <v>2068</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>2065</v>
+        <v>2069</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>2066</v>
+        <v>2070</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>2067</v>
+        <v>2071</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>2068</v>
+        <v>2072</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>2069</v>
+        <v>2073</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>2070</v>
+        <v>2074</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>2071</v>
+        <v>2075</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>2072</v>
+        <v>2076</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>2073</v>
+        <v>2077</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>2074</v>
+        <v>2078</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>2075</v>
+        <v>2079</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>1856</v>
+        <v>1860</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>2076</v>
+        <v>2080</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>2077</v>
+        <v>2081</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>2078</v>
+        <v>2082</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>2079</v>
+        <v>2083</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>2080</v>
+        <v>2084</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>2081</v>
+        <v>2085</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>2082</v>
+        <v>2086</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>2083</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="3">
@@ -14737,85 +14749,85 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2084</v>
+        <v>2088</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>2085</v>
+        <v>2089</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>2086</v>
+        <v>2090</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>2087</v>
+        <v>2091</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>2088</v>
+        <v>2092</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>2089</v>
+        <v>2093</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>2090</v>
+        <v>2094</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>2091</v>
+        <v>2095</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>1795</v>
+        <v>1799</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>2092</v>
+        <v>2096</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>2093</v>
+        <v>2097</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>2094</v>
+        <v>2098</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>2095</v>
+        <v>2099</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>1858</v>
+        <v>1862</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>2096</v>
+        <v>2100</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>2097</v>
+        <v>2101</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>2098</v>
+        <v>2102</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>2099</v>
+        <v>2103</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>2100</v>
+        <v>2104</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>2101</v>
+        <v>2105</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>2102</v>
+        <v>2106</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>2103</v>
+        <v>2107</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>1813</v>
+        <v>1817</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>2104</v>
+        <v>2108</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>1888</v>
+        <v>1892</v>
       </c>
       <c r="AB3" s="12" t="s">
-        <v>2105</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="4">
@@ -14823,85 +14835,85 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2106</v>
+        <v>2110</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>2107</v>
+        <v>2111</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>2108</v>
+        <v>2112</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>2109</v>
+        <v>2113</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>2110</v>
+        <v>2114</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1766</v>
+        <v>1770</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>2111</v>
+        <v>2115</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>2112</v>
+        <v>2116</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>1821</v>
+        <v>1825</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>2113</v>
+        <v>2117</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>2114</v>
+        <v>2118</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>2115</v>
+        <v>2119</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>2116</v>
+        <v>2120</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>2117</v>
+        <v>2121</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>2118</v>
+        <v>2122</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>2119</v>
+        <v>2123</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>1808</v>
+        <v>1812</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>2120</v>
+        <v>2124</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>2121</v>
+        <v>2125</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>2122</v>
+        <v>2126</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>2123</v>
+        <v>2127</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>2124</v>
+        <v>2128</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>2125</v>
+        <v>2129</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>2126</v>
+        <v>2130</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>2127</v>
+        <v>2131</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>2128</v>
+        <v>2132</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>2129</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="5">
@@ -14909,85 +14921,85 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2130</v>
+        <v>2134</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>2131</v>
+        <v>2135</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>2132</v>
+        <v>2136</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>2133</v>
+        <v>2137</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>2134</v>
+        <v>2138</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>2135</v>
+        <v>2139</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>1865</v>
+        <v>1869</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>2136</v>
+        <v>2140</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>2137</v>
+        <v>2141</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>2138</v>
+        <v>2142</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>1873</v>
+        <v>1877</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>1728</v>
+        <v>1732</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>2139</v>
+        <v>2143</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>2140</v>
+        <v>2144</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>2141</v>
+        <v>2145</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>2142</v>
+        <v>2146</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>2143</v>
+        <v>2147</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>2144</v>
+        <v>2148</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>2145</v>
+        <v>2149</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>2146</v>
+        <v>2150</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>1744</v>
+        <v>1748</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>2147</v>
+        <v>2151</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>2148</v>
+        <v>2152</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>2149</v>
+        <v>2153</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>2150</v>
+        <v>2154</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>2151</v>
+        <v>2155</v>
       </c>
       <c r="AB5" s="12" t="s">
-        <v>2152</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="6">
@@ -14995,85 +15007,85 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>2153</v>
+        <v>2157</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>2154</v>
+        <v>2158</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>2155</v>
+        <v>2159</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>2157</v>
+        <v>2161</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>2158</v>
+        <v>2162</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>2159</v>
+        <v>2163</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>2160</v>
+        <v>2164</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>2161</v>
+        <v>2165</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>2162</v>
+        <v>2166</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>2163</v>
+        <v>2167</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>2164</v>
+        <v>2168</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>2165</v>
+        <v>2169</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>1806</v>
+        <v>1810</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>2166</v>
+        <v>2170</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>2167</v>
+        <v>2171</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>2168</v>
+        <v>2172</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>2169</v>
+        <v>2173</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>2170</v>
+        <v>2174</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>2171</v>
+        <v>2175</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>2172</v>
+        <v>2176</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>2173</v>
+        <v>2177</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>2174</v>
+        <v>2178</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>2175</v>
+        <v>2179</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>1810</v>
+        <v>1814</v>
       </c>
       <c r="AB6" s="12" t="s">
-        <v>2177</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="7">
@@ -15081,85 +15093,85 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>2178</v>
+        <v>2182</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>2179</v>
+        <v>2183</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>2180</v>
+        <v>2184</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>2181</v>
+        <v>2185</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>2182</v>
+        <v>2186</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>2183</v>
+        <v>2187</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>1857</v>
+        <v>1861</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>2184</v>
+        <v>2188</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>2185</v>
+        <v>2189</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>1791</v>
+        <v>1795</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>2186</v>
+        <v>2190</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>1784</v>
+        <v>1788</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>1878</v>
+        <v>1882</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>2187</v>
+        <v>2191</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>2188</v>
+        <v>2192</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>1882</v>
+        <v>1886</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>1741</v>
+        <v>1745</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>2192</v>
+        <v>2196</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>2193</v>
+        <v>2197</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>1736</v>
+        <v>1740</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>2194</v>
+        <v>2198</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>2195</v>
+        <v>2199</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>2196</v>
+        <v>2200</v>
       </c>
       <c r="AB7" s="12" t="s">
-        <v>2197</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="8">
@@ -15167,85 +15179,85 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>2198</v>
+        <v>2202</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2199</v>
+        <v>2203</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>2200</v>
+        <v>2204</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>2201</v>
+        <v>2205</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>2202</v>
+        <v>2206</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>2203</v>
+        <v>2207</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>2204</v>
+        <v>2208</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>1761</v>
+        <v>1765</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>2205</v>
+        <v>2209</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>2206</v>
+        <v>2210</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>2207</v>
+        <v>2211</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>1837</v>
+        <v>1841</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>2208</v>
+        <v>2212</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>2209</v>
+        <v>2213</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>1765</v>
+        <v>1769</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>2210</v>
+        <v>2214</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>2211</v>
+        <v>2215</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>2212</v>
+        <v>2216</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>2213</v>
+        <v>2217</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>2214</v>
+        <v>2218</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>2215</v>
+        <v>2219</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>2216</v>
+        <v>2220</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>2217</v>
+        <v>2221</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>2218</v>
+        <v>2222</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>2219</v>
+        <v>2223</v>
       </c>
       <c r="AB8" s="12" t="s">
-        <v>2220</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="9">
@@ -15253,85 +15265,85 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>2221</v>
+        <v>2225</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>2222</v>
+        <v>2226</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>2223</v>
+        <v>2227</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>2224</v>
+        <v>2228</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>2225</v>
+        <v>2229</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>2226</v>
+        <v>2230</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>2227</v>
+        <v>2231</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>2228</v>
+        <v>2232</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>2229</v>
+        <v>2233</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>2230</v>
+        <v>2234</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>2231</v>
+        <v>2235</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>2232</v>
+        <v>2236</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>2233</v>
+        <v>2237</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>2234</v>
+        <v>2238</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>2235</v>
+        <v>2239</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>1783</v>
+        <v>1787</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>2236</v>
+        <v>2240</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>2237</v>
+        <v>2241</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>2238</v>
+        <v>2242</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>2239</v>
+        <v>2243</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>2240</v>
+        <v>2244</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>2241</v>
+        <v>2245</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>2242</v>
+        <v>2246</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>2243</v>
+        <v>2247</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>2244</v>
+        <v>2248</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>2245</v>
+        <v>2249</v>
       </c>
       <c r="AB9" s="12" t="s">
-        <v>2246</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="10">
@@ -15339,85 +15351,85 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>2247</v>
+        <v>2251</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>2248</v>
+        <v>2252</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>2249</v>
+        <v>2253</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>2250</v>
+        <v>2254</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>2251</v>
+        <v>2255</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>2252</v>
+        <v>2256</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>2253</v>
+        <v>2257</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>2254</v>
+        <v>2258</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>2255</v>
+        <v>2259</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>2256</v>
+        <v>2260</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>2257</v>
+        <v>2261</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>2258</v>
+        <v>2262</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>2259</v>
+        <v>2263</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>2260</v>
+        <v>2264</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>2261</v>
+        <v>2265</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>2262</v>
+        <v>2266</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>2263</v>
+        <v>2267</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>2264</v>
+        <v>2268</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>1847</v>
+        <v>1851</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>2265</v>
+        <v>2269</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>2266</v>
+        <v>2270</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>2267</v>
+        <v>2271</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>2268</v>
+        <v>2272</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>2269</v>
+        <v>2273</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>2270</v>
+        <v>2274</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>2271</v>
+        <v>2275</v>
       </c>
       <c r="AB10" s="12" t="s">
-        <v>2105</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="11">
@@ -15425,85 +15437,85 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>2272</v>
+        <v>2276</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>2273</v>
+        <v>2277</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>2274</v>
+        <v>2278</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>2275</v>
+        <v>2279</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>2276</v>
+        <v>2280</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>2277</v>
+        <v>2281</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>2278</v>
+        <v>2282</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>2279</v>
+        <v>2283</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>2280</v>
+        <v>2284</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>2281</v>
+        <v>2285</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>1846</v>
+        <v>1850</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>2282</v>
+        <v>2286</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>2283</v>
+        <v>2287</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>2284</v>
+        <v>2288</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>2285</v>
+        <v>2289</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>2286</v>
+        <v>2290</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>2287</v>
+        <v>2291</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>2288</v>
+        <v>2292</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>2289</v>
+        <v>2293</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>2290</v>
+        <v>2294</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>2291</v>
+        <v>2295</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>2292</v>
+        <v>2296</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>2293</v>
+        <v>2297</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>2294</v>
+        <v>2298</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>2295</v>
+        <v>2299</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>2296</v>
+        <v>2300</v>
       </c>
       <c r="AB11" s="12" t="s">
-        <v>2129</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="12">
@@ -15511,85 +15523,85 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>2297</v>
+        <v>2301</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>2298</v>
+        <v>2302</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>2299</v>
+        <v>2303</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>2300</v>
+        <v>2304</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>2301</v>
+        <v>2305</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>2302</v>
+        <v>2306</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>2303</v>
+        <v>2307</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>2304</v>
+        <v>2308</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>2305</v>
+        <v>2309</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>1879</v>
+        <v>1883</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>2306</v>
+        <v>2310</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>2307</v>
+        <v>2311</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>1752</v>
+        <v>1756</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>2308</v>
+        <v>2312</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>2309</v>
+        <v>2313</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>1885</v>
+        <v>1889</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>2310</v>
+        <v>2314</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>2311</v>
+        <v>2315</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>2312</v>
+        <v>2316</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>2313</v>
+        <v>2317</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>2314</v>
+        <v>2318</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>2315</v>
+        <v>2319</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>2316</v>
+        <v>2320</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>2317</v>
+        <v>2321</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>2318</v>
+        <v>2322</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>2319</v>
+        <v>2323</v>
       </c>
       <c r="AB12" s="12" t="s">
-        <v>2320</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="13">
@@ -15597,85 +15609,85 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>2321</v>
+        <v>2325</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>2322</v>
+        <v>2326</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>2323</v>
+        <v>2327</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>2324</v>
+        <v>2328</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>2325</v>
+        <v>2329</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>2326</v>
+        <v>2330</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>2327</v>
+        <v>2331</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>2328</v>
+        <v>2332</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>2329</v>
+        <v>2333</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>1814</v>
+        <v>1818</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>2330</v>
+        <v>2334</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>2331</v>
+        <v>2335</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>2332</v>
+        <v>2336</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>2333</v>
+        <v>2337</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>2334</v>
+        <v>2338</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>2335</v>
+        <v>2339</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>2336</v>
+        <v>2340</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>1768</v>
+        <v>1772</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>2337</v>
+        <v>2341</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>2338</v>
+        <v>2342</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>2339</v>
+        <v>2343</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>2340</v>
+        <v>2344</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>2341</v>
+        <v>2345</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>2342</v>
+        <v>2346</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>2343</v>
+        <v>2347</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>2344</v>
+        <v>2348</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>2345</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="14">
@@ -15683,85 +15695,85 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>2346</v>
+        <v>2350</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>2347</v>
+        <v>2351</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>2348</v>
+        <v>2352</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>2349</v>
+        <v>2353</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>2350</v>
+        <v>2354</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>2352</v>
+        <v>2356</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>1828</v>
+        <v>1832</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>1875</v>
+        <v>1879</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>2353</v>
+        <v>2357</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>2354</v>
+        <v>2358</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>2355</v>
+        <v>2359</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>2356</v>
+        <v>2360</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>1812</v>
+        <v>1816</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>1881</v>
+        <v>1885</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>2357</v>
+        <v>2361</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>2358</v>
+        <v>2362</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>2359</v>
+        <v>2363</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>2360</v>
+        <v>2364</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>2361</v>
+        <v>2365</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>2362</v>
+        <v>2366</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>2363</v>
+        <v>2367</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>2364</v>
+        <v>2368</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>2365</v>
+        <v>2369</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>2366</v>
+        <v>2370</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>2367</v>
+        <v>2371</v>
       </c>
       <c r="AB14" s="12" t="s">
-        <v>2368</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="15">
@@ -15769,85 +15781,85 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>2369</v>
+        <v>2373</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>2370</v>
+        <v>2374</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>2371</v>
+        <v>2375</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>2372</v>
+        <v>2376</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1730</v>
+        <v>1734</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>2373</v>
+        <v>2377</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>2374</v>
+        <v>2378</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>1747</v>
+        <v>1751</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>2375</v>
+        <v>2379</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>1827</v>
+        <v>1831</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>2376</v>
+        <v>2380</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>2377</v>
+        <v>2381</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>1831</v>
+        <v>1835</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>2378</v>
+        <v>2382</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>1809</v>
+        <v>1813</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>2379</v>
+        <v>2383</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>2380</v>
+        <v>2384</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>1756</v>
+        <v>1760</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>2381</v>
+        <v>2385</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>2382</v>
+        <v>2386</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>2383</v>
+        <v>2387</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>2384</v>
+        <v>2388</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>2385</v>
+        <v>2389</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>2386</v>
+        <v>2390</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>2387</v>
+        <v>2391</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>1819</v>
+        <v>1823</v>
       </c>
       <c r="AB15" s="12" t="s">
-        <v>2388</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="16">
@@ -15855,85 +15867,85 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>2389</v>
+        <v>2393</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>2390</v>
+        <v>2394</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>2391</v>
+        <v>2395</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>2392</v>
+        <v>2396</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>2393</v>
+        <v>2397</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>2394</v>
+        <v>2398</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>2395</v>
+        <v>2399</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>2396</v>
+        <v>2400</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>2397</v>
+        <v>2401</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>2398</v>
+        <v>2402</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>2399</v>
+        <v>2403</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>2400</v>
+        <v>2404</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>2401</v>
+        <v>2405</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>1760</v>
+        <v>1764</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>2402</v>
+        <v>2406</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>2403</v>
+        <v>2407</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>2404</v>
+        <v>2408</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>2405</v>
+        <v>2409</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>2406</v>
+        <v>2410</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>2407</v>
+        <v>2411</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>2408</v>
+        <v>2412</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>2409</v>
+        <v>2413</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>2410</v>
+        <v>2414</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>2411</v>
+        <v>2415</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>2412</v>
+        <v>2416</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>2413</v>
+        <v>2417</v>
       </c>
       <c r="AB16" s="12" t="s">
-        <v>2414</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="17">
@@ -15941,85 +15953,85 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>2415</v>
+        <v>2419</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>2416</v>
+        <v>2420</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>2417</v>
+        <v>2421</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>2418</v>
+        <v>2422</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>2419</v>
+        <v>2423</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>2420</v>
+        <v>2424</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>2421</v>
+        <v>2425</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>2422</v>
+        <v>2426</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>1803</v>
+        <v>1807</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>1848</v>
+        <v>1852</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>2423</v>
+        <v>2427</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>2424</v>
+        <v>2428</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>2425</v>
+        <v>2429</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>2426</v>
+        <v>2430</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>2427</v>
+        <v>2431</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>2428</v>
+        <v>2432</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>1877</v>
+        <v>1881</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>2429</v>
+        <v>2433</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>2430</v>
+        <v>2434</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>2431</v>
+        <v>2435</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>2432</v>
+        <v>2436</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>2433</v>
+        <v>2437</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>2434</v>
+        <v>2438</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>1861</v>
+        <v>1865</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>2435</v>
+        <v>2439</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>2436</v>
+        <v>2440</v>
       </c>
       <c r="AB17" s="12" t="s">
-        <v>2437</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="18">
@@ -16027,85 +16039,85 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>2438</v>
+        <v>2442</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>2439</v>
+        <v>2443</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>2440</v>
+        <v>2444</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>2441</v>
+        <v>2445</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1842</v>
+        <v>1846</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>1790</v>
+        <v>1794</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>2442</v>
+        <v>2446</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>2443</v>
+        <v>2447</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>2444</v>
+        <v>2448</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>2445</v>
+        <v>2449</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>2446</v>
+        <v>2450</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>1793</v>
+        <v>1797</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>2447</v>
+        <v>2451</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>2448</v>
+        <v>2452</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>2449</v>
+        <v>2453</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>2450</v>
+        <v>2454</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>2451</v>
+        <v>2455</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>1851</v>
+        <v>1855</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>2452</v>
+        <v>2456</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>2453</v>
+        <v>2457</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>2454</v>
+        <v>2458</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>2455</v>
+        <v>2459</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>2456</v>
+        <v>2460</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>2457</v>
+        <v>2461</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>2458</v>
+        <v>2462</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>2459</v>
+        <v>2463</v>
       </c>
       <c r="AB18" s="12" t="s">
-        <v>2197</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="19">
@@ -16113,85 +16125,85 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>2460</v>
+        <v>2464</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>2461</v>
+        <v>2465</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>2462</v>
+        <v>2466</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>2463</v>
+        <v>2467</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>2464</v>
+        <v>2468</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>2465</v>
+        <v>2469</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>2466</v>
+        <v>2470</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>1818</v>
+        <v>1822</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>2467</v>
+        <v>2471</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>1804</v>
+        <v>1808</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>1775</v>
+        <v>1779</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>2468</v>
+        <v>2472</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>1797</v>
+        <v>1801</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>2469</v>
+        <v>2473</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>2470</v>
+        <v>2474</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>2471</v>
+        <v>2475</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>2472</v>
+        <v>2476</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>2473</v>
+        <v>2477</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>2474</v>
+        <v>2478</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>2475</v>
+        <v>2479</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>2476</v>
+        <v>2480</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>2477</v>
+        <v>2481</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>2478</v>
+        <v>2482</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>2479</v>
+        <v>2483</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>2480</v>
+        <v>2484</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>2481</v>
+        <v>2485</v>
       </c>
       <c r="AB19" s="12" t="s">
-        <v>2482</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="20">
@@ -16199,85 +16211,85 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>2483</v>
+        <v>2487</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>2484</v>
+        <v>2488</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>2485</v>
+        <v>2489</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>2486</v>
+        <v>2490</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>2487</v>
+        <v>2491</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>2488</v>
+        <v>2492</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>2489</v>
+        <v>2493</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>1836</v>
+        <v>1840</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>1884</v>
+        <v>1888</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>1763</v>
+        <v>1767</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>2490</v>
+        <v>2494</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>2491</v>
+        <v>2495</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>2492</v>
+        <v>2496</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>2493</v>
+        <v>2497</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>2494</v>
+        <v>2498</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>2495</v>
+        <v>2499</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>2496</v>
+        <v>2500</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>2497</v>
+        <v>2501</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>2498</v>
+        <v>2502</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>2499</v>
+        <v>2503</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>2500</v>
+        <v>2504</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>2501</v>
+        <v>2505</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>1742</v>
+        <v>1746</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>2502</v>
+        <v>2506</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>2503</v>
+        <v>2507</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>2504</v>
+        <v>2508</v>
       </c>
       <c r="AB20" s="12" t="s">
-        <v>2505</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="21">
@@ -16285,85 +16297,85 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>2506</v>
+        <v>2510</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>2507</v>
+        <v>2511</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>2508</v>
+        <v>2512</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>2509</v>
+        <v>2513</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>2510</v>
+        <v>2514</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1864</v>
+        <v>1868</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>2511</v>
+        <v>2515</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>2512</v>
+        <v>2516</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>2513</v>
+        <v>2517</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>2514</v>
+        <v>2518</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>2515</v>
+        <v>2519</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>1889</v>
+        <v>1893</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>2516</v>
+        <v>2520</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>2517</v>
+        <v>2521</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>2518</v>
+        <v>2522</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>2519</v>
+        <v>2523</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>2520</v>
+        <v>2524</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>2521</v>
+        <v>2525</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>2522</v>
+        <v>2526</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>2523</v>
+        <v>2527</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>2524</v>
+        <v>2528</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>2525</v>
+        <v>2529</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>2526</v>
+        <v>2530</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>2527</v>
+        <v>2531</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>2528</v>
+        <v>2532</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>1718</v>
+        <v>1722</v>
       </c>
       <c r="AB21" s="12" t="s">
-        <v>2529</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="22">
@@ -16371,85 +16383,85 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>2530</v>
+        <v>2534</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>2531</v>
+        <v>2535</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>2532</v>
+        <v>2536</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>2533</v>
+        <v>2537</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>2534</v>
+        <v>2538</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>2535</v>
+        <v>2539</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>2536</v>
+        <v>2540</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>2537</v>
+        <v>2541</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>2538</v>
+        <v>2542</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>2539</v>
+        <v>2543</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>2540</v>
+        <v>2544</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>2541</v>
+        <v>2545</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>1866</v>
+        <v>1870</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>1746</v>
+        <v>1750</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>2542</v>
+        <v>2546</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>2543</v>
+        <v>2547</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>2544</v>
+        <v>2548</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>2545</v>
+        <v>2549</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>2546</v>
+        <v>2550</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>2547</v>
+        <v>2551</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>2548</v>
+        <v>2552</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>2549</v>
+        <v>2553</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>2550</v>
+        <v>2554</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>2551</v>
+        <v>2555</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>1870</v>
+        <v>1874</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>2552</v>
+        <v>2556</v>
       </c>
       <c r="AB22" s="12" t="s">
-        <v>2553</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="23">
@@ -16457,85 +16469,85 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>2554</v>
+        <v>2558</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>2555</v>
+        <v>2559</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>2556</v>
+        <v>2560</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>2557</v>
+        <v>2561</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>2558</v>
+        <v>2562</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>2559</v>
+        <v>2563</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>2560</v>
+        <v>2564</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>2561</v>
+        <v>2565</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>2562</v>
+        <v>2566</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>2563</v>
+        <v>2567</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>2564</v>
+        <v>2568</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>2565</v>
+        <v>2569</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>2566</v>
+        <v>2570</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>2567</v>
+        <v>2571</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>2568</v>
+        <v>2572</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>2569</v>
+        <v>2573</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>2570</v>
+        <v>2574</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>2571</v>
+        <v>2575</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>2572</v>
+        <v>2576</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>2573</v>
+        <v>2577</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>1871</v>
+        <v>1875</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>2574</v>
+        <v>2578</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>2575</v>
+        <v>2579</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>2576</v>
+        <v>2580</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>2577</v>
+        <v>2581</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>2578</v>
+        <v>2582</v>
       </c>
       <c r="AB23" s="12" t="s">
-        <v>2579</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="24">
@@ -16543,85 +16555,85 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>2580</v>
+        <v>2584</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>2581</v>
+        <v>2585</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>2582</v>
+        <v>2586</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>2583</v>
+        <v>2587</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>2584</v>
+        <v>2588</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>2585</v>
+        <v>2589</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>1822</v>
+        <v>1826</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>2586</v>
+        <v>2590</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>2587</v>
+        <v>2591</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>2588</v>
+        <v>2592</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>2589</v>
+        <v>2593</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>2590</v>
+        <v>2594</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>2591</v>
+        <v>2595</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>2592</v>
+        <v>2596</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>2593</v>
+        <v>2597</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>2594</v>
+        <v>2598</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>2595</v>
+        <v>2599</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>2596</v>
+        <v>2600</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>2597</v>
+        <v>2601</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>2598</v>
+        <v>2602</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>2599</v>
+        <v>2603</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>2600</v>
+        <v>2604</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>2601</v>
+        <v>2605</v>
       </c>
       <c r="Y24" s="5" t="s">
-        <v>2602</v>
+        <v>2606</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>2603</v>
+        <v>2607</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>2604</v>
+        <v>2608</v>
       </c>
       <c r="AB24" s="12" t="s">
-        <v>2605</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="25">
@@ -16629,85 +16641,85 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>2606</v>
+        <v>2610</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>2607</v>
+        <v>2611</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>2608</v>
+        <v>2612</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>2609</v>
+        <v>2613</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>2610</v>
+        <v>2614</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>2611</v>
+        <v>2615</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>2612</v>
+        <v>2616</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>2613</v>
+        <v>2617</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>2614</v>
+        <v>2618</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>2615</v>
+        <v>2619</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>2616</v>
+        <v>2620</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>2617</v>
+        <v>2621</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>2618</v>
+        <v>2622</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>2619</v>
+        <v>2623</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>2620</v>
+        <v>2624</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>1816</v>
+        <v>1820</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>2621</v>
+        <v>2625</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>2622</v>
+        <v>2626</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>2623</v>
+        <v>2627</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>2624</v>
+        <v>2628</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>2625</v>
+        <v>2629</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>2626</v>
+        <v>2630</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>2627</v>
+        <v>2631</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>2628</v>
+        <v>2632</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>2629</v>
+        <v>2633</v>
       </c>
       <c r="AB25" s="12" t="s">
-        <v>2246</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="26">
@@ -16715,85 +16727,85 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>2630</v>
+        <v>2634</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>2631</v>
+        <v>2635</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>2632</v>
+        <v>2636</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>2633</v>
+        <v>2637</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>2634</v>
+        <v>2638</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>2635</v>
+        <v>2639</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>2636</v>
+        <v>2640</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>2637</v>
+        <v>2641</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>2638</v>
+        <v>2642</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>2639</v>
+        <v>2643</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>2640</v>
+        <v>2644</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>1751</v>
+        <v>1755</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>2641</v>
+        <v>2645</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>1854</v>
+        <v>1858</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>2642</v>
+        <v>2646</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>1890</v>
+        <v>1894</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>2643</v>
+        <v>2647</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>2644</v>
+        <v>2648</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>2645</v>
+        <v>2649</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>2646</v>
+        <v>2650</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>2647</v>
+        <v>2651</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>2648</v>
+        <v>2652</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>2649</v>
+        <v>2653</v>
       </c>
       <c r="Y26" s="5" t="s">
-        <v>2650</v>
+        <v>2654</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>2651</v>
+        <v>2655</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>2652</v>
+        <v>2656</v>
       </c>
       <c r="AB26" s="12" t="s">
-        <v>2653</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="27">
@@ -16801,85 +16813,85 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>2654</v>
+        <v>2658</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>2655</v>
+        <v>2659</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>2656</v>
+        <v>2660</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>2657</v>
+        <v>2661</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>2658</v>
+        <v>2662</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>2659</v>
+        <v>2663</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>2660</v>
+        <v>2664</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>2661</v>
+        <v>2665</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>2662</v>
+        <v>2666</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>2663</v>
+        <v>2667</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>2664</v>
+        <v>2668</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>2665</v>
+        <v>2669</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>2666</v>
+        <v>2670</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>2667</v>
+        <v>2671</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>2668</v>
+        <v>2672</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>2669</v>
+        <v>2673</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>2670</v>
+        <v>2674</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>2671</v>
+        <v>2675</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>2672</v>
+        <v>2676</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>2673</v>
+        <v>2677</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>1732</v>
+        <v>1736</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>2674</v>
+        <v>2678</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>2675</v>
+        <v>2679</v>
       </c>
       <c r="Y27" s="5" t="s">
-        <v>2676</v>
+        <v>2680</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>2677</v>
+        <v>2681</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>2678</v>
+        <v>2682</v>
       </c>
       <c r="AB27" s="12" t="s">
-        <v>2679</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="28">
@@ -16887,85 +16899,85 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>2680</v>
+        <v>2684</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>2681</v>
+        <v>2685</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>2682</v>
+        <v>2686</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>2683</v>
+        <v>2687</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>2684</v>
+        <v>2688</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>2685</v>
+        <v>2689</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>1844</v>
+        <v>1848</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>2686</v>
+        <v>2690</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>2687</v>
+        <v>2691</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>2688</v>
+        <v>2692</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>2689</v>
+        <v>2693</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>2690</v>
+        <v>2694</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>2691</v>
+        <v>2695</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>2692</v>
+        <v>2696</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>2693</v>
+        <v>2697</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>2694</v>
+        <v>2698</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>2695</v>
+        <v>2699</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>2696</v>
+        <v>2700</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>2697</v>
+        <v>2701</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>2698</v>
+        <v>2702</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>2699</v>
+        <v>2703</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>2700</v>
+        <v>2704</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>2701</v>
+        <v>2705</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>2702</v>
+        <v>2706</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>2703</v>
+        <v>2707</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>2704</v>
+        <v>2708</v>
       </c>
       <c r="AB28" s="12" t="s">
-        <v>2705</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="29">
@@ -16973,85 +16985,85 @@
         <v>45</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>2706</v>
+        <v>2710</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>2707</v>
+        <v>2711</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>2708</v>
+        <v>2712</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>2709</v>
+        <v>2713</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>2710</v>
+        <v>2714</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>2711</v>
+        <v>2715</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>2712</v>
+        <v>2716</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>2713</v>
+        <v>2717</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>2714</v>
+        <v>2718</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>2715</v>
+        <v>2719</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>2716</v>
+        <v>2720</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>2717</v>
+        <v>2721</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>2718</v>
+        <v>2722</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>2719</v>
+        <v>2723</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>2720</v>
+        <v>2724</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>2721</v>
+        <v>2725</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>2722</v>
+        <v>2726</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>2723</v>
+        <v>2727</v>
       </c>
       <c r="T29" s="9" t="s">
-        <v>2724</v>
+        <v>2728</v>
       </c>
       <c r="U29" s="9" t="s">
-        <v>2725</v>
+        <v>2729</v>
       </c>
       <c r="V29" s="9" t="s">
-        <v>2726</v>
+        <v>2730</v>
       </c>
       <c r="W29" s="9" t="s">
-        <v>2727</v>
+        <v>2731</v>
       </c>
       <c r="X29" s="9" t="s">
-        <v>2491</v>
+        <v>2495</v>
       </c>
       <c r="Y29" s="9" t="s">
-        <v>2728</v>
+        <v>2732</v>
       </c>
       <c r="Z29" s="9" t="s">
-        <v>2729</v>
+        <v>2733</v>
       </c>
       <c r="AA29" s="9" t="s">
-        <v>2730</v>
+        <v>2734</v>
       </c>
       <c r="AB29" s="12" t="s">
-        <v>2731</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="30">
@@ -17059,85 +17071,85 @@
         <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>2732</v>
+        <v>2736</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>2733</v>
+        <v>2737</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>2734</v>
+        <v>2738</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>2735</v>
+        <v>2739</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>2736</v>
+        <v>2740</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>2737</v>
+        <v>2741</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>2738</v>
+        <v>2742</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>2739</v>
+        <v>2743</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>2740</v>
+        <v>2744</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>2741</v>
+        <v>2745</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>2742</v>
+        <v>2746</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>2743</v>
+        <v>2747</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>2744</v>
+        <v>2748</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>2745</v>
+        <v>2749</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>2746</v>
+        <v>2750</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>2747</v>
+        <v>2751</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>2748</v>
+        <v>2752</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>2749</v>
+        <v>2753</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>2750</v>
+        <v>2754</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>2751</v>
+        <v>2755</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>2752</v>
+        <v>2756</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>2753</v>
+        <v>2757</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>2754</v>
+        <v>2758</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>2755</v>
+        <v>2759</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>2756</v>
+        <v>2760</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>2757</v>
+        <v>2761</v>
       </c>
       <c r="AB30" s="3" t="s">
-        <v>2758</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="31">
@@ -17145,85 +17157,85 @@
         <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2759</v>
+        <v>2763</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>2760</v>
+        <v>2764</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>2761</v>
+        <v>2765</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>2762</v>
+        <v>2766</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>2763</v>
+        <v>2767</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>2764</v>
+        <v>2768</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>2765</v>
+        <v>2769</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>2767</v>
+        <v>2771</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>2768</v>
+        <v>2772</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>2769</v>
+        <v>2773</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>2770</v>
+        <v>2774</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>2771</v>
+        <v>2775</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>2772</v>
+        <v>2776</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>2773</v>
+        <v>2777</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>2774</v>
+        <v>2778</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>2775</v>
+        <v>2779</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>2776</v>
+        <v>2780</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>2777</v>
+        <v>2781</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>2778</v>
+        <v>2782</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>2779</v>
+        <v>2783</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>2780</v>
+        <v>2784</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>2781</v>
+        <v>2785</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>2782</v>
+        <v>2786</v>
       </c>
       <c r="Z31" s="2" t="s">
-        <v>2783</v>
+        <v>2787</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>2784</v>
+        <v>2788</v>
       </c>
       <c r="AB31" s="3" t="s">
-        <v>2785</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="32">
@@ -17309,7 +17321,7 @@
         <v>161</v>
       </c>
       <c r="AB32" s="12" t="s">
-        <v>2786</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="33">
@@ -17395,7 +17407,7 @@
         <v>161</v>
       </c>
       <c r="AB33" s="12" t="s">
-        <v>2787</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="34">
@@ -17481,7 +17493,7 @@
         <v>161</v>
       </c>
       <c r="AB34" s="12" t="s">
-        <v>2788</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="35">
@@ -17567,7 +17579,7 @@
         <v>161</v>
       </c>
       <c r="AB35" s="12" t="s">
-        <v>2789</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="36">
@@ -17575,85 +17587,85 @@
         <v>67</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>2790</v>
+        <v>2794</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>2791</v>
+        <v>2795</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2792</v>
+        <v>2796</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1916</v>
+        <v>1920</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>2793</v>
+        <v>2797</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>2794</v>
+        <v>2798</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>2795</v>
+        <v>2799</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>2796</v>
+        <v>2800</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>2797</v>
+        <v>2801</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>2798</v>
+        <v>2802</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>2799</v>
+        <v>2803</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>2800</v>
+        <v>2804</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>2801</v>
+        <v>2805</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>2802</v>
+        <v>2806</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>2803</v>
+        <v>2807</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>2804</v>
+        <v>2808</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>2805</v>
+        <v>2809</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>2806</v>
+        <v>2810</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>2807</v>
+        <v>2811</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>2808</v>
+        <v>2812</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>2809</v>
+        <v>2813</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>2810</v>
+        <v>2814</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>2811</v>
+        <v>2815</v>
       </c>
       <c r="Y36" s="2" t="s">
-        <v>2812</v>
+        <v>2816</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>2813</v>
+        <v>2817</v>
       </c>
       <c r="AA36" s="2" t="s">
-        <v>2814</v>
+        <v>2818</v>
       </c>
       <c r="AB36" s="3" t="s">
-        <v>2815</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="37">
@@ -17739,7 +17751,7 @@
         <v>161</v>
       </c>
       <c r="AB37" s="12" t="s">
-        <v>2816</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="38">
@@ -17825,7 +17837,7 @@
         <v>161</v>
       </c>
       <c r="AB38" s="12" t="s">
-        <v>2817</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="39">
@@ -17911,7 +17923,7 @@
         <v>161</v>
       </c>
       <c r="AB39" s="12" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="40">
@@ -17997,7 +18009,7 @@
         <v>161</v>
       </c>
       <c r="AB40" s="12" t="s">
-        <v>2819</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="41">
@@ -18083,7 +18095,7 @@
         <v>161</v>
       </c>
       <c r="AB41" s="12" t="s">
-        <v>2820</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="42">
@@ -18174,88 +18186,88 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2821</v>
+        <v>2825</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2822</v>
+        <v>2826</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2823</v>
+        <v>2827</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>2824</v>
+        <v>2828</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>2825</v>
+        <v>2829</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>2826</v>
+        <v>2830</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>2827</v>
+        <v>2831</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>2828</v>
+        <v>2832</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>2829</v>
+        <v>2833</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>2830</v>
+        <v>2834</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>2831</v>
+        <v>2835</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>2833</v>
+        <v>2837</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>2834</v>
+        <v>2838</v>
       </c>
       <c r="O43" s="11" t="s">
-        <v>2835</v>
+        <v>2839</v>
       </c>
       <c r="P43" s="9" t="s">
-        <v>2836</v>
+        <v>2840</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>2837</v>
+        <v>2841</v>
       </c>
       <c r="R43" s="9" t="s">
-        <v>2838</v>
+        <v>2842</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>2839</v>
+        <v>2843</v>
       </c>
       <c r="T43" s="9" t="s">
-        <v>2840</v>
+        <v>2844</v>
       </c>
       <c r="U43" s="9" t="s">
-        <v>2841</v>
+        <v>2845</v>
       </c>
       <c r="V43" s="9" t="s">
-        <v>2842</v>
+        <v>2846</v>
       </c>
       <c r="W43" s="9" t="s">
-        <v>2843</v>
+        <v>2847</v>
       </c>
       <c r="X43" s="9" t="s">
-        <v>2844</v>
+        <v>2848</v>
       </c>
       <c r="Y43" s="9" t="s">
-        <v>2845</v>
+        <v>2849</v>
       </c>
       <c r="Z43" s="9" t="s">
-        <v>2846</v>
+        <v>2850</v>
       </c>
       <c r="AA43" s="9" t="s">
-        <v>2847</v>
+        <v>2851</v>
       </c>
       <c r="AB43" s="12" t="s">
-        <v>2368</v>
+        <v>2372</v>
       </c>
     </row>
   </sheetData>
@@ -18281,7 +18293,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2848</v>
+        <v>2852</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -18295,16 +18307,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2849</v>
+        <v>2853</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2850</v>
+        <v>2854</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2851</v>
+        <v>2855</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>2852</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="3">
@@ -18312,10 +18324,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2853</v>
+        <v>2857</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2854</v>
+        <v>2858</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>19</v>
@@ -18326,10 +18338,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2855</v>
+        <v>2859</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>2856</v>
+        <v>2860</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>19</v>
@@ -18340,10 +18352,10 @@
         <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2857</v>
+        <v>2861</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>19</v>
@@ -18354,10 +18366,10 @@
         <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2859</v>
+        <v>2863</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>2860</v>
+        <v>2864</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>19</v>
@@ -18368,10 +18380,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>2861</v>
+        <v>2865</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2862</v>
+        <v>2866</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>19</v>
@@ -18382,10 +18394,10 @@
         <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>2863</v>
+        <v>2867</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2864</v>
+        <v>2868</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>19</v>
@@ -18396,10 +18408,10 @@
         <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>2865</v>
+        <v>2869</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>2866</v>
+        <v>2870</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>19</v>
@@ -18410,10 +18422,10 @@
         <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2867</v>
+        <v>2871</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>2868</v>
+        <v>2872</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>19</v>
@@ -18424,10 +18436,10 @@
         <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>2869</v>
+        <v>2873</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>2870</v>
+        <v>2874</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>19</v>
@@ -18438,10 +18450,10 @@
         <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>2871</v>
+        <v>2875</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>2872</v>
+        <v>2876</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>19</v>
@@ -18452,10 +18464,10 @@
         <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2873</v>
+        <v>2877</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>2874</v>
+        <v>2878</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>19</v>
@@ -18466,10 +18478,10 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2875</v>
+        <v>2879</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>2876</v>
+        <v>2880</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>19</v>
@@ -18480,10 +18492,10 @@
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>2877</v>
+        <v>2881</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>2878</v>
+        <v>2882</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>19</v>
@@ -18494,10 +18506,10 @@
         <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>2880</v>
+        <v>2884</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>19</v>
@@ -18508,10 +18520,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>2881</v>
+        <v>2885</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>2882</v>
+        <v>2886</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>19</v>
@@ -18522,10 +18534,10 @@
         <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>2883</v>
+        <v>2887</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>2884</v>
+        <v>2888</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>19</v>
@@ -18536,10 +18548,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>2885</v>
+        <v>2889</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>2886</v>
+        <v>2890</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>19</v>
@@ -18550,10 +18562,10 @@
         <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>2887</v>
+        <v>2891</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>2888</v>
+        <v>2892</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>19</v>
@@ -18564,10 +18576,10 @@
         <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>2889</v>
+        <v>2893</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>2890</v>
+        <v>2894</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>19</v>
@@ -18578,10 +18590,10 @@
         <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>2891</v>
+        <v>2895</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>2892</v>
+        <v>2896</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>19</v>
@@ -18592,10 +18604,10 @@
         <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>2893</v>
+        <v>2897</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>2894</v>
+        <v>2898</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>19</v>
@@ -18606,10 +18618,10 @@
         <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>2895</v>
+        <v>2899</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>2896</v>
+        <v>2900</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>19</v>
@@ -18620,10 +18632,10 @@
         <v>41</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>2897</v>
+        <v>2901</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>2898</v>
+        <v>2902</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>19</v>
@@ -18634,10 +18646,10 @@
         <v>42</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>2899</v>
+        <v>2903</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>2900</v>
+        <v>2904</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>19</v>
@@ -18648,10 +18660,10 @@
         <v>43</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>2901</v>
+        <v>2905</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>2902</v>
+        <v>2906</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>19</v>
@@ -18662,10 +18674,10 @@
         <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>2904</v>
+        <v>2908</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>19</v>
@@ -18676,13 +18688,13 @@
         <v>45</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>2905</v>
+        <v>2909</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>2906</v>
+        <v>2910</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>2907</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="30">
@@ -18690,13 +18702,13 @@
         <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>2908</v>
+        <v>2912</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>2909</v>
+        <v>2913</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>2910</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="31">
@@ -18704,13 +18716,13 @@
         <v>62</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>2911</v>
+        <v>2915</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>2912</v>
+        <v>2916</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>2913</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="32">
@@ -18718,13 +18730,13 @@
         <v>63</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>2914</v>
+        <v>2918</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>2915</v>
+        <v>2919</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>2916</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="33">
@@ -18732,13 +18744,13 @@
         <v>64</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>2917</v>
+        <v>2921</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>2918</v>
+        <v>2922</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>2919</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="34">
@@ -18746,13 +18758,13 @@
         <v>65</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>2920</v>
+        <v>2924</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>2921</v>
+        <v>2925</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>2922</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="35">
@@ -18766,7 +18778,7 @@
         <v>56</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>2923</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="36">
@@ -18774,13 +18786,13 @@
         <v>67</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>2924</v>
+        <v>2928</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>2925</v>
+        <v>2929</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>2926</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="37">
@@ -18788,13 +18800,13 @@
         <v>76</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>2927</v>
+        <v>2931</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>2928</v>
+        <v>2932</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>2929</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="38">
@@ -18802,13 +18814,13 @@
         <v>77</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>2930</v>
+        <v>2934</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>2931</v>
+        <v>2935</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>2932</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="39">
@@ -18822,7 +18834,7 @@
         <v>56</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>2933</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="40">
@@ -18836,7 +18848,7 @@
         <v>56</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>2934</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="41">
@@ -18844,10 +18856,10 @@
         <v>80</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>2935</v>
+        <v>2939</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>2936</v>
+        <v>2940</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>295</v>
@@ -18869,16 +18881,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2937</v>
+        <v>2941</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2938</v>
+        <v>2942</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2939</v>
+        <v>2943</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>2940</v>
+        <v>2944</v>
       </c>
     </row>
   </sheetData>

--- a/iceKnives32/Offline Documents (Periodic)/iceKnives32.xlsx
+++ b/iceKnives32/Offline Documents (Periodic)/iceKnives32.xlsx
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="2945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="2949">
   <si>
     <t>[]</t>
   </si>
@@ -5398,6 +5398,18 @@
   </si>
   <si>
     <t>water</t>
+  </si>
+  <si>
+    <t>decade</t>
+  </si>
+  <si>
+    <t>hint</t>
+  </si>
+  <si>
+    <t>trail</t>
+  </si>
+  <si>
+    <t>concentrate</t>
   </si>
   <si>
     <t>tunnels</t>
@@ -11469,25 +11481,25 @@
         <v>1694</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>18</v>
+        <v>1695</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>18</v>
+        <v>1696</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>18</v>
+        <v>1697</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>18</v>
+        <v>1698</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>1695</v>
+        <v>1699</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>1696</v>
+        <v>1700</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>19</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="26">
@@ -11495,25 +11507,25 @@
         <v>42</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1697</v>
+        <v>1701</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1698</v>
+        <v>1702</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>1700</v>
+        <v>1704</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>1701</v>
+        <v>1705</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>1702</v>
+        <v>1706</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>1703</v>
+        <v>1707</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>374</v>
@@ -11524,25 +11536,25 @@
         <v>43</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1704</v>
+        <v>1708</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1705</v>
+        <v>1709</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>1706</v>
+        <v>1710</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>1707</v>
+        <v>1711</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>1708</v>
+        <v>1712</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>1709</v>
+        <v>1713</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>1710</v>
+        <v>1714</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>16</v>
@@ -11553,25 +11565,25 @@
         <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1712</v>
+        <v>1716</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1713</v>
+        <v>1717</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>1715</v>
+        <v>1719</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>1716</v>
+        <v>1720</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>1717</v>
+        <v>1721</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>756</v>
@@ -11985,7 +11997,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1718</v>
+        <v>1722</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>91</v>
@@ -12009,7 +12021,7 @@
         <v>97</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1719</v>
+        <v>1723</v>
       </c>
     </row>
   </sheetData>
@@ -12038,7 +12050,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>1720</v>
+        <v>1724</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -12067,28 +12079,28 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>1721</v>
+        <v>1725</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1722</v>
+        <v>1726</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1723</v>
+        <v>1727</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1724</v>
+        <v>1728</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1725</v>
+        <v>1729</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1726</v>
+        <v>1730</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1727</v>
+        <v>1731</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>1728</v>
+        <v>1732</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>303</v>
@@ -12099,25 +12111,25 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1729</v>
+        <v>1733</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1730</v>
+        <v>1734</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1731</v>
+        <v>1735</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1732</v>
+        <v>1736</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>1733</v>
+        <v>1737</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>1734</v>
+        <v>1738</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>1735</v>
+        <v>1739</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>19</v>
@@ -12128,25 +12140,25 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1736</v>
+        <v>1740</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1737</v>
+        <v>1741</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>1012</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1738</v>
+        <v>1742</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>1739</v>
+        <v>1743</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1740</v>
+        <v>1744</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>1741</v>
+        <v>1745</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>19</v>
@@ -12157,25 +12169,25 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1742</v>
+        <v>1746</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1743</v>
+        <v>1747</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>1027</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1744</v>
+        <v>1748</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1745</v>
+        <v>1749</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>1746</v>
+        <v>1750</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>1747</v>
+        <v>1751</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>19</v>
@@ -12186,25 +12198,25 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1748</v>
+        <v>1752</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1749</v>
+        <v>1753</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>747</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1750</v>
+        <v>1754</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>1751</v>
+        <v>1755</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1752</v>
+        <v>1756</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>1753</v>
+        <v>1757</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>19</v>
@@ -12215,25 +12227,25 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1754</v>
+        <v>1758</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1755</v>
+        <v>1759</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>456</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1756</v>
+        <v>1760</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1757</v>
+        <v>1761</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>1758</v>
+        <v>1762</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>1759</v>
+        <v>1763</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>19</v>
@@ -12244,25 +12256,25 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1760</v>
+        <v>1764</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1761</v>
+        <v>1765</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>124</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1762</v>
+        <v>1766</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1763</v>
+        <v>1767</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1764</v>
+        <v>1768</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>1765</v>
+        <v>1769</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>19</v>
@@ -12273,25 +12285,25 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1766</v>
+        <v>1770</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1767</v>
+        <v>1771</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>360</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1768</v>
+        <v>1772</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>1769</v>
+        <v>1773</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1770</v>
+        <v>1774</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>1771</v>
+        <v>1775</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>19</v>
@@ -12302,25 +12314,25 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1773</v>
+        <v>1777</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1775</v>
+        <v>1779</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>19</v>
@@ -12331,25 +12343,25 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1779</v>
+        <v>1783</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1780</v>
+        <v>1784</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>488</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>1782</v>
+        <v>1786</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1783</v>
+        <v>1787</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>1784</v>
+        <v>1788</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>19</v>
@@ -12360,25 +12372,25 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1785</v>
+        <v>1789</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1786</v>
+        <v>1790</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1119</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1787</v>
+        <v>1791</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1788</v>
+        <v>1792</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>1789</v>
+        <v>1793</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>1790</v>
+        <v>1794</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>19</v>
@@ -12389,25 +12401,25 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1791</v>
+        <v>1795</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1792</v>
+        <v>1796</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>470</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1793</v>
+        <v>1797</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1794</v>
+        <v>1798</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1795</v>
+        <v>1799</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>1796</v>
+        <v>1800</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>19</v>
@@ -12418,25 +12430,25 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1797</v>
+        <v>1801</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1798</v>
+        <v>1802</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>211</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1799</v>
+        <v>1803</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1800</v>
+        <v>1804</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1801</v>
+        <v>1805</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>1802</v>
+        <v>1806</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>19</v>
@@ -12447,25 +12459,25 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1803</v>
+        <v>1807</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1804</v>
+        <v>1808</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1805</v>
+        <v>1809</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1806</v>
+        <v>1810</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1807</v>
+        <v>1811</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1808</v>
+        <v>1812</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>1809</v>
+        <v>1813</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>19</v>
@@ -12476,25 +12488,25 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1810</v>
+        <v>1814</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1811</v>
+        <v>1815</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>625</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1812</v>
+        <v>1816</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1813</v>
+        <v>1817</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>1814</v>
+        <v>1818</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>1815</v>
+        <v>1819</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>19</v>
@@ -12505,25 +12517,25 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1816</v>
+        <v>1820</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1817</v>
+        <v>1821</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>768</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1818</v>
+        <v>1822</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>1819</v>
+        <v>1823</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1820</v>
+        <v>1824</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>1821</v>
+        <v>1825</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>19</v>
@@ -12534,25 +12546,25 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1822</v>
+        <v>1826</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1823</v>
+        <v>1827</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>845</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1824</v>
+        <v>1828</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1825</v>
+        <v>1829</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>1826</v>
+        <v>1830</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>1827</v>
+        <v>1831</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>19</v>
@@ -12563,25 +12575,25 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1828</v>
+        <v>1832</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1829</v>
+        <v>1833</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>1311</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1830</v>
+        <v>1834</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>1831</v>
+        <v>1835</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>1832</v>
+        <v>1836</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>1833</v>
+        <v>1837</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>19</v>
@@ -12592,25 +12604,25 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1834</v>
+        <v>1838</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1835</v>
+        <v>1839</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1836</v>
+        <v>1840</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1837</v>
+        <v>1841</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>1838</v>
+        <v>1842</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1839</v>
+        <v>1843</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>1840</v>
+        <v>1844</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>19</v>
@@ -12621,25 +12633,25 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1841</v>
+        <v>1845</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1842</v>
+        <v>1846</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1843</v>
+        <v>1847</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1844</v>
+        <v>1848</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>1845</v>
+        <v>1849</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1846</v>
+        <v>1850</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>1847</v>
+        <v>1851</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>19</v>
@@ -12650,25 +12662,25 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1848</v>
+        <v>1852</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1849</v>
+        <v>1853</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>932</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1850</v>
+        <v>1854</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>1851</v>
+        <v>1855</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>1852</v>
+        <v>1856</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>1853</v>
+        <v>1857</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>19</v>
@@ -12679,25 +12691,25 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1854</v>
+        <v>1858</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1855</v>
+        <v>1859</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1856</v>
+        <v>1860</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1857</v>
+        <v>1861</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>1858</v>
+        <v>1862</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1859</v>
+        <v>1863</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>1860</v>
+        <v>1864</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>19</v>
@@ -12708,25 +12720,25 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1861</v>
+        <v>1865</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1862</v>
+        <v>1866</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>472</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1863</v>
+        <v>1867</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>1864</v>
+        <v>1868</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>1865</v>
+        <v>1869</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>1866</v>
+        <v>1870</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>19</v>
@@ -12737,25 +12749,25 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1867</v>
+        <v>1871</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1868</v>
+        <v>1872</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>424</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1869</v>
+        <v>1873</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>1870</v>
+        <v>1874</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>1871</v>
+        <v>1875</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>1872</v>
+        <v>1876</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>19</v>
@@ -12766,25 +12778,25 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1873</v>
+        <v>1877</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1874</v>
+        <v>1878</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>925</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1875</v>
+        <v>1879</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>1876</v>
+        <v>1880</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1877</v>
+        <v>1881</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>1878</v>
+        <v>1882</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>19</v>
@@ -12795,25 +12807,25 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1879</v>
+        <v>1883</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1880</v>
+        <v>1884</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>1383</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1881</v>
+        <v>1885</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>1882</v>
+        <v>1886</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>1883</v>
+        <v>1887</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>1884</v>
+        <v>1888</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>19</v>
@@ -12824,25 +12836,25 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1885</v>
+        <v>1889</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1886</v>
+        <v>1890</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>429</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1887</v>
+        <v>1891</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>1888</v>
+        <v>1892</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>1889</v>
+        <v>1893</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>1890</v>
+        <v>1894</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>19</v>
@@ -12853,25 +12865,25 @@
         <v>45</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1891</v>
+        <v>1895</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1892</v>
+        <v>1896</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>373</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1893</v>
+        <v>1897</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>1894</v>
+        <v>1898</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1895</v>
+        <v>1899</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>1896</v>
+        <v>1900</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>335</v>
@@ -12882,28 +12894,28 @@
         <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1897</v>
+        <v>1901</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1898</v>
+        <v>1902</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1899</v>
+        <v>1903</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>1900</v>
+        <v>1904</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1901</v>
+        <v>1905</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>1902</v>
+        <v>1906</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>1903</v>
+        <v>1907</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>1904</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="31">
@@ -12911,28 +12923,28 @@
         <v>62</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1905</v>
+        <v>1909</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1906</v>
+        <v>1910</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1907</v>
+        <v>1911</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>1908</v>
+        <v>1912</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>1910</v>
+        <v>1914</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>1911</v>
+        <v>1915</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>1912</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="32">
@@ -12961,7 +12973,7 @@
         <v>61</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>1913</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="33">
@@ -12990,7 +13002,7 @@
         <v>61</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>1914</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="34">
@@ -13019,7 +13031,7 @@
         <v>61</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>1915</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="35">
@@ -13048,7 +13060,7 @@
         <v>61</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>1916</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="36">
@@ -13056,28 +13068,28 @@
         <v>67</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1917</v>
+        <v>1921</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1918</v>
+        <v>1922</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1919</v>
+        <v>1923</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>1920</v>
+        <v>1924</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>1921</v>
+        <v>1925</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>1922</v>
+        <v>1926</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>1923</v>
+        <v>1927</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>1924</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="37">
@@ -13106,7 +13118,7 @@
         <v>61</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>1925</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="38">
@@ -13135,7 +13147,7 @@
         <v>61</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>1926</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="39">
@@ -13164,7 +13176,7 @@
         <v>61</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>1927</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="40">
@@ -13193,7 +13205,7 @@
         <v>61</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>1928</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="41">
@@ -13222,7 +13234,7 @@
         <v>61</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>1929</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="42">
@@ -13256,31 +13268,31 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1930</v>
+        <v>1934</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1931</v>
+        <v>1935</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1932</v>
+        <v>1936</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1933</v>
+        <v>1937</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>1934</v>
+        <v>1938</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>1935</v>
+        <v>1939</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>1936</v>
+        <v>1940</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>1937</v>
+        <v>1941</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1938</v>
+        <v>1942</v>
       </c>
     </row>
   </sheetData>
@@ -13307,7 +13319,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1939</v>
+        <v>1943</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -13336,28 +13348,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1940</v>
+        <v>1944</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1941</v>
+        <v>1945</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1942</v>
+        <v>1946</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1943</v>
+        <v>1947</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1944</v>
+        <v>1948</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1945</v>
+        <v>1949</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1946</v>
+        <v>1950</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>19</v>
@@ -13368,13 +13380,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1948</v>
+        <v>1952</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1949</v>
+        <v>1953</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1950</v>
+        <v>1954</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>18</v>
@@ -13397,13 +13409,13 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1951</v>
+        <v>1955</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1952</v>
+        <v>1956</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1953</v>
+        <v>1957</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -13426,13 +13438,13 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1954</v>
+        <v>1958</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1955</v>
+        <v>1959</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1956</v>
+        <v>1960</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>18</v>
@@ -13455,13 +13467,13 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1957</v>
+        <v>1961</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1958</v>
+        <v>1962</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1959</v>
+        <v>1963</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>18</v>
@@ -13484,13 +13496,13 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1960</v>
+        <v>1964</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1961</v>
+        <v>1965</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1962</v>
+        <v>1966</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>18</v>
@@ -13513,13 +13525,13 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1963</v>
+        <v>1967</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1964</v>
+        <v>1968</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1965</v>
+        <v>1969</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>18</v>
@@ -13542,13 +13554,13 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1966</v>
+        <v>1970</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1967</v>
+        <v>1971</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>18</v>
@@ -13571,13 +13583,13 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1969</v>
+        <v>1973</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1970</v>
+        <v>1974</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1971</v>
+        <v>1975</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>18</v>
@@ -13600,13 +13612,13 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1972</v>
+        <v>1976</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1973</v>
+        <v>1977</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1974</v>
+        <v>1978</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>18</v>
@@ -13629,13 +13641,13 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1975</v>
+        <v>1979</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1976</v>
+        <v>1980</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1977</v>
+        <v>1981</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>18</v>
@@ -13658,13 +13670,13 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1978</v>
+        <v>1982</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1979</v>
+        <v>1983</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1980</v>
+        <v>1984</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>18</v>
@@ -13687,13 +13699,13 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1981</v>
+        <v>1985</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1982</v>
+        <v>1986</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1983</v>
+        <v>1987</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>18</v>
@@ -13716,13 +13728,13 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>18</v>
@@ -13745,13 +13757,13 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>18</v>
@@ -13774,13 +13786,13 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>18</v>
@@ -13803,13 +13815,13 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>18</v>
@@ -13832,13 +13844,13 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>18</v>
@@ -13861,13 +13873,13 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>18</v>
@@ -13890,13 +13902,13 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>18</v>
@@ -13919,13 +13931,13 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>18</v>
@@ -13948,13 +13960,13 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>18</v>
@@ -13977,13 +13989,13 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>18</v>
@@ -14006,13 +14018,13 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>18</v>
@@ -14035,13 +14047,13 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>18</v>
@@ -14064,13 +14076,13 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>2022</v>
+        <v>2026</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>18</v>
@@ -14093,13 +14105,13 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>2023</v>
+        <v>2027</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>2024</v>
+        <v>2028</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>2025</v>
+        <v>2029</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>18</v>
@@ -14122,25 +14134,25 @@
         <v>45</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>2026</v>
+        <v>2030</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>2027</v>
+        <v>2031</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>2028</v>
+        <v>2032</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>2029</v>
+        <v>2033</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>2030</v>
+        <v>2034</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>2031</v>
+        <v>2035</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>2032</v>
+        <v>2036</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>19</v>
@@ -14525,31 +14537,31 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2033</v>
+        <v>2037</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2034</v>
+        <v>2038</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2035</v>
+        <v>2039</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>2036</v>
+        <v>2040</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>2037</v>
+        <v>2041</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>2038</v>
+        <v>2042</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>2039</v>
+        <v>2043</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>2040</v>
+        <v>2044</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>2041</v>
+        <v>2045</v>
       </c>
     </row>
   </sheetData>
@@ -14574,7 +14586,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2042</v>
+        <v>2046</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -14598,61 +14610,61 @@
         <v>7</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>2043</v>
+        <v>2047</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>2044</v>
+        <v>2048</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>2045</v>
+        <v>2049</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>2046</v>
+        <v>2050</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>2047</v>
+        <v>2051</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>2048</v>
+        <v>2052</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>2049</v>
+        <v>2053</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>2051</v>
+        <v>2055</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>2052</v>
+        <v>2056</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>2053</v>
+        <v>2057</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>2054</v>
+        <v>2058</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>2055</v>
+        <v>2059</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>2056</v>
+        <v>2060</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>2057</v>
+        <v>2061</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>2058</v>
+        <v>2062</v>
       </c>
       <c r="Y1" s="9" t="s">
-        <v>2059</v>
+        <v>2063</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>2060</v>
+        <v>2064</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>2061</v>
+        <v>2065</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>8</v>
@@ -14660,88 +14672,88 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1939</v>
+        <v>1943</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2062</v>
+        <v>2066</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>2063</v>
+        <v>2067</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>2064</v>
+        <v>2068</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>2065</v>
+        <v>2069</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>2066</v>
+        <v>2070</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>2067</v>
+        <v>2071</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>2068</v>
+        <v>2072</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>2069</v>
+        <v>2073</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>2070</v>
+        <v>2074</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>2071</v>
+        <v>2075</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>2072</v>
+        <v>2076</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>2073</v>
+        <v>2077</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>2074</v>
+        <v>2078</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>2075</v>
+        <v>2079</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>2076</v>
+        <v>2080</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>2077</v>
+        <v>2081</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>2078</v>
+        <v>2082</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>2079</v>
+        <v>2083</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>1860</v>
+        <v>1864</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>2080</v>
+        <v>2084</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>2081</v>
+        <v>2085</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>2082</v>
+        <v>2086</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>2083</v>
+        <v>2087</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>2084</v>
+        <v>2088</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>2085</v>
+        <v>2089</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>2086</v>
+        <v>2090</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>2087</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="3">
@@ -14749,85 +14761,85 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2088</v>
+        <v>2092</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>2089</v>
+        <v>2093</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>2090</v>
+        <v>2094</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>2091</v>
+        <v>2095</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>2092</v>
+        <v>2096</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>2093</v>
+        <v>2097</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>2094</v>
+        <v>2098</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>2095</v>
+        <v>2099</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>1799</v>
+        <v>1803</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>2096</v>
+        <v>2100</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>2097</v>
+        <v>2101</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>2098</v>
+        <v>2102</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>2099</v>
+        <v>2103</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>1785</v>
+        <v>1789</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>1862</v>
+        <v>1866</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>2100</v>
+        <v>2104</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>2101</v>
+        <v>2105</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>2102</v>
+        <v>2106</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>2103</v>
+        <v>2107</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>2104</v>
+        <v>2108</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>2105</v>
+        <v>2109</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>2106</v>
+        <v>2110</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>2107</v>
+        <v>2111</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>1817</v>
+        <v>1821</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>2108</v>
+        <v>2112</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>1892</v>
+        <v>1896</v>
       </c>
       <c r="AB3" s="12" t="s">
-        <v>2109</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="4">
@@ -14835,85 +14847,85 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2110</v>
+        <v>2114</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>2111</v>
+        <v>2115</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>2112</v>
+        <v>2116</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>2113</v>
+        <v>2117</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>2114</v>
+        <v>2118</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1770</v>
+        <v>1774</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>2115</v>
+        <v>2119</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>2116</v>
+        <v>2120</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>1825</v>
+        <v>1829</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>2117</v>
+        <v>2121</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>2118</v>
+        <v>2122</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>2119</v>
+        <v>2123</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>2120</v>
+        <v>2124</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>2121</v>
+        <v>2125</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>2122</v>
+        <v>2126</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>2123</v>
+        <v>2127</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>1812</v>
+        <v>1816</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>2124</v>
+        <v>2128</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>2125</v>
+        <v>2129</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>2126</v>
+        <v>2130</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>2127</v>
+        <v>2131</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>2128</v>
+        <v>2132</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>2129</v>
+        <v>2133</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>2130</v>
+        <v>2134</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>2131</v>
+        <v>2135</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>2132</v>
+        <v>2136</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>2133</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="5">
@@ -14921,85 +14933,85 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2134</v>
+        <v>2138</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>2135</v>
+        <v>2139</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>2136</v>
+        <v>2140</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>2137</v>
+        <v>2141</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>2138</v>
+        <v>2142</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>2139</v>
+        <v>2143</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>1869</v>
+        <v>1873</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>2140</v>
+        <v>2144</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>2141</v>
+        <v>2145</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>2142</v>
+        <v>2146</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>1877</v>
+        <v>1881</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>1732</v>
+        <v>1736</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>2143</v>
+        <v>2147</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>2144</v>
+        <v>2148</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>2145</v>
+        <v>2149</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>2146</v>
+        <v>2150</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>2147</v>
+        <v>2151</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>2148</v>
+        <v>2152</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>2149</v>
+        <v>2153</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>2150</v>
+        <v>2154</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>1748</v>
+        <v>1752</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>2151</v>
+        <v>2155</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>2152</v>
+        <v>2156</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>2153</v>
+        <v>2157</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>2154</v>
+        <v>2158</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>2155</v>
+        <v>2159</v>
       </c>
       <c r="AB5" s="12" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="6">
@@ -15007,85 +15019,85 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>2157</v>
+        <v>2161</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>2158</v>
+        <v>2162</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>2159</v>
+        <v>2163</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>2160</v>
+        <v>2164</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>2161</v>
+        <v>2165</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>2162</v>
+        <v>2166</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>2163</v>
+        <v>2167</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>2164</v>
+        <v>2168</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>2165</v>
+        <v>2169</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>2166</v>
+        <v>2170</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>2167</v>
+        <v>2171</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>2168</v>
+        <v>2172</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>2169</v>
+        <v>2173</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>1810</v>
+        <v>1814</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>2170</v>
+        <v>2174</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>2171</v>
+        <v>2175</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>2172</v>
+        <v>2176</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>2173</v>
+        <v>2177</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>2174</v>
+        <v>2178</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>2175</v>
+        <v>2179</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>2177</v>
+        <v>2181</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>2178</v>
+        <v>2182</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>2179</v>
+        <v>2183</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>2180</v>
+        <v>2184</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>1814</v>
+        <v>1818</v>
       </c>
       <c r="AB6" s="12" t="s">
-        <v>2181</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="7">
@@ -15093,85 +15105,85 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>2182</v>
+        <v>2186</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>2183</v>
+        <v>2187</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>2184</v>
+        <v>2188</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>2185</v>
+        <v>2189</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>2186</v>
+        <v>2190</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>2187</v>
+        <v>2191</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>1861</v>
+        <v>1865</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>2188</v>
+        <v>2192</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>1795</v>
+        <v>1799</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>1788</v>
+        <v>1792</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>1882</v>
+        <v>1886</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>2192</v>
+        <v>2196</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>1886</v>
+        <v>1890</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>2193</v>
+        <v>2197</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>2194</v>
+        <v>2198</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>1745</v>
+        <v>1749</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>2195</v>
+        <v>2199</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>2196</v>
+        <v>2200</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>2197</v>
+        <v>2201</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>1740</v>
+        <v>1744</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>2198</v>
+        <v>2202</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>2199</v>
+        <v>2203</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>2200</v>
+        <v>2204</v>
       </c>
       <c r="AB7" s="12" t="s">
-        <v>2201</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="8">
@@ -15179,85 +15191,85 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>2202</v>
+        <v>2206</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2203</v>
+        <v>2207</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>2204</v>
+        <v>2208</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>2205</v>
+        <v>2209</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>2206</v>
+        <v>2210</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>2207</v>
+        <v>2211</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>2208</v>
+        <v>2212</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>1765</v>
+        <v>1769</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>2209</v>
+        <v>2213</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>1782</v>
+        <v>1786</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>2210</v>
+        <v>2214</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>2211</v>
+        <v>2215</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>1841</v>
+        <v>1845</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>2212</v>
+        <v>2216</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>2213</v>
+        <v>2217</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>1769</v>
+        <v>1773</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>2214</v>
+        <v>2218</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>2215</v>
+        <v>2219</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>2216</v>
+        <v>2220</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>2217</v>
+        <v>2221</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>2218</v>
+        <v>2222</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>2219</v>
+        <v>2223</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>2220</v>
+        <v>2224</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>2221</v>
+        <v>2225</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>2222</v>
+        <v>2226</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>2223</v>
+        <v>2227</v>
       </c>
       <c r="AB8" s="12" t="s">
-        <v>2224</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="9">
@@ -15265,85 +15277,85 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>2225</v>
+        <v>2229</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>2226</v>
+        <v>2230</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>2227</v>
+        <v>2231</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>2228</v>
+        <v>2232</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>2229</v>
+        <v>2233</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>2230</v>
+        <v>2234</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>2231</v>
+        <v>2235</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>2232</v>
+        <v>2236</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>2233</v>
+        <v>2237</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>2234</v>
+        <v>2238</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>2235</v>
+        <v>2239</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>2236</v>
+        <v>2240</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>2237</v>
+        <v>2241</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>2238</v>
+        <v>2242</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>2239</v>
+        <v>2243</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>1787</v>
+        <v>1791</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>2240</v>
+        <v>2244</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>2241</v>
+        <v>2245</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>2242</v>
+        <v>2246</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>2243</v>
+        <v>2247</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>2244</v>
+        <v>2248</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>2245</v>
+        <v>2249</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>2246</v>
+        <v>2250</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>2247</v>
+        <v>2251</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>2248</v>
+        <v>2252</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>2249</v>
+        <v>2253</v>
       </c>
       <c r="AB9" s="12" t="s">
-        <v>2250</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="10">
@@ -15351,85 +15363,85 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>2251</v>
+        <v>2255</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>2252</v>
+        <v>2256</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>2253</v>
+        <v>2257</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>2254</v>
+        <v>2258</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>2255</v>
+        <v>2259</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>2256</v>
+        <v>2260</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>2257</v>
+        <v>2261</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>2258</v>
+        <v>2262</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>2259</v>
+        <v>2263</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>2260</v>
+        <v>2264</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>2261</v>
+        <v>2265</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>2262</v>
+        <v>2266</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>2263</v>
+        <v>2267</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>2264</v>
+        <v>2268</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>2265</v>
+        <v>2269</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>2266</v>
+        <v>2270</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>2267</v>
+        <v>2271</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>2268</v>
+        <v>2272</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>1851</v>
+        <v>1855</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>2269</v>
+        <v>2273</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>2270</v>
+        <v>2274</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>2271</v>
+        <v>2275</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>2272</v>
+        <v>2276</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>2273</v>
+        <v>2277</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>2274</v>
+        <v>2278</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>2275</v>
+        <v>2279</v>
       </c>
       <c r="AB10" s="12" t="s">
-        <v>2109</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="11">
@@ -15437,85 +15449,85 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>2276</v>
+        <v>2280</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>2277</v>
+        <v>2281</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>2278</v>
+        <v>2282</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>2279</v>
+        <v>2283</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>2280</v>
+        <v>2284</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>2281</v>
+        <v>2285</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>2282</v>
+        <v>2286</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>2283</v>
+        <v>2287</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>2284</v>
+        <v>2288</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>2285</v>
+        <v>2289</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>1850</v>
+        <v>1854</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>2286</v>
+        <v>2290</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>2287</v>
+        <v>2291</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>2288</v>
+        <v>2292</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>2289</v>
+        <v>2293</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>2290</v>
+        <v>2294</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>2291</v>
+        <v>2295</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>2292</v>
+        <v>2296</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>2293</v>
+        <v>2297</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>2294</v>
+        <v>2298</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>2295</v>
+        <v>2299</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>2296</v>
+        <v>2300</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>2297</v>
+        <v>2301</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>2298</v>
+        <v>2302</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>2299</v>
+        <v>2303</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>2300</v>
+        <v>2304</v>
       </c>
       <c r="AB11" s="12" t="s">
-        <v>2133</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="12">
@@ -15523,85 +15535,85 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>2301</v>
+        <v>2305</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>2302</v>
+        <v>2306</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>2303</v>
+        <v>2307</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>2304</v>
+        <v>2308</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>2305</v>
+        <v>2309</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>2306</v>
+        <v>2310</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>2307</v>
+        <v>2311</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>2308</v>
+        <v>2312</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>2309</v>
+        <v>2313</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>1883</v>
+        <v>1887</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>2310</v>
+        <v>2314</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>2311</v>
+        <v>2315</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>1756</v>
+        <v>1760</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>2312</v>
+        <v>2316</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>2313</v>
+        <v>2317</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>1889</v>
+        <v>1893</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>2314</v>
+        <v>2318</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>2315</v>
+        <v>2319</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>2316</v>
+        <v>2320</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>2317</v>
+        <v>2321</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>2318</v>
+        <v>2322</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>2319</v>
+        <v>2323</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>2320</v>
+        <v>2324</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>2321</v>
+        <v>2325</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>2322</v>
+        <v>2326</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>2323</v>
+        <v>2327</v>
       </c>
       <c r="AB12" s="12" t="s">
-        <v>2324</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="13">
@@ -15609,85 +15621,85 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>2325</v>
+        <v>2329</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>2326</v>
+        <v>2330</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>2327</v>
+        <v>2331</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>2328</v>
+        <v>2332</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>2329</v>
+        <v>2333</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>2330</v>
+        <v>2334</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>2331</v>
+        <v>2335</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>2332</v>
+        <v>2336</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>2333</v>
+        <v>2337</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>1818</v>
+        <v>1822</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>2334</v>
+        <v>2338</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>2335</v>
+        <v>2339</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>2336</v>
+        <v>2340</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>2337</v>
+        <v>2341</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>2338</v>
+        <v>2342</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>2339</v>
+        <v>2343</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>2340</v>
+        <v>2344</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>2341</v>
+        <v>2345</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>2342</v>
+        <v>2346</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>2343</v>
+        <v>2347</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>2344</v>
+        <v>2348</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>2345</v>
+        <v>2349</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>2346</v>
+        <v>2350</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>2347</v>
+        <v>2351</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>2348</v>
+        <v>2352</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>2349</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="14">
@@ -15695,85 +15707,85 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>2350</v>
+        <v>2354</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>2352</v>
+        <v>2356</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>2353</v>
+        <v>2357</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>2354</v>
+        <v>2358</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>2355</v>
+        <v>2359</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>2356</v>
+        <v>2360</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>1832</v>
+        <v>1836</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>1879</v>
+        <v>1883</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>2357</v>
+        <v>2361</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>2358</v>
+        <v>2362</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>2359</v>
+        <v>2363</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>2360</v>
+        <v>2364</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>1816</v>
+        <v>1820</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>1885</v>
+        <v>1889</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>2361</v>
+        <v>2365</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>2362</v>
+        <v>2366</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>2363</v>
+        <v>2367</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>2364</v>
+        <v>2368</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>2365</v>
+        <v>2369</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>2366</v>
+        <v>2370</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>2367</v>
+        <v>2371</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>2368</v>
+        <v>2372</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>2369</v>
+        <v>2373</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>2370</v>
+        <v>2374</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>2371</v>
+        <v>2375</v>
       </c>
       <c r="AB14" s="12" t="s">
-        <v>2372</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="15">
@@ -15781,85 +15793,85 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>2373</v>
+        <v>2377</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>2374</v>
+        <v>2378</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>2375</v>
+        <v>2379</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>2376</v>
+        <v>2380</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1734</v>
+        <v>1738</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>2377</v>
+        <v>2381</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>2378</v>
+        <v>2382</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>1751</v>
+        <v>1755</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>2379</v>
+        <v>2383</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>1831</v>
+        <v>1835</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>2380</v>
+        <v>2384</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>2381</v>
+        <v>2385</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>1835</v>
+        <v>1839</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>2382</v>
+        <v>2386</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>1813</v>
+        <v>1817</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>2383</v>
+        <v>2387</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>2384</v>
+        <v>2388</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>1760</v>
+        <v>1764</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>2385</v>
+        <v>2389</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>2386</v>
+        <v>2390</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>2387</v>
+        <v>2391</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>2388</v>
+        <v>2392</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>2389</v>
+        <v>2393</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>2390</v>
+        <v>2394</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>2391</v>
+        <v>2395</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>1823</v>
+        <v>1827</v>
       </c>
       <c r="AB15" s="12" t="s">
-        <v>2392</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="16">
@@ -15867,85 +15879,85 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>2393</v>
+        <v>2397</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>2394</v>
+        <v>2398</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>2395</v>
+        <v>2399</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>2396</v>
+        <v>2400</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>2397</v>
+        <v>2401</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>2398</v>
+        <v>2402</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>2399</v>
+        <v>2403</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>2400</v>
+        <v>2404</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>2401</v>
+        <v>2405</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>2402</v>
+        <v>2406</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>2403</v>
+        <v>2407</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>2404</v>
+        <v>2408</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>2405</v>
+        <v>2409</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>1764</v>
+        <v>1768</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>2406</v>
+        <v>2410</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>2407</v>
+        <v>2411</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>2408</v>
+        <v>2412</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>2409</v>
+        <v>2413</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>2410</v>
+        <v>2414</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>2411</v>
+        <v>2415</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>2412</v>
+        <v>2416</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>2413</v>
+        <v>2417</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>2414</v>
+        <v>2418</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>2415</v>
+        <v>2419</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>2416</v>
+        <v>2420</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>2417</v>
+        <v>2421</v>
       </c>
       <c r="AB16" s="12" t="s">
-        <v>2418</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="17">
@@ -15953,85 +15965,85 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>2419</v>
+        <v>2423</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>2420</v>
+        <v>2424</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>2421</v>
+        <v>2425</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>2422</v>
+        <v>2426</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>2423</v>
+        <v>2427</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>2424</v>
+        <v>2428</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>2425</v>
+        <v>2429</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>2426</v>
+        <v>2430</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>1807</v>
+        <v>1811</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>1852</v>
+        <v>1856</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>2427</v>
+        <v>2431</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>2428</v>
+        <v>2432</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>2429</v>
+        <v>2433</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>2430</v>
+        <v>2434</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>2431</v>
+        <v>2435</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>2432</v>
+        <v>2436</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>1881</v>
+        <v>1885</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>2433</v>
+        <v>2437</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>2434</v>
+        <v>2438</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>2435</v>
+        <v>2439</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>2436</v>
+        <v>2440</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>2437</v>
+        <v>2441</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>2438</v>
+        <v>2442</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>1865</v>
+        <v>1869</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>2439</v>
+        <v>2443</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>2440</v>
+        <v>2444</v>
       </c>
       <c r="AB17" s="12" t="s">
-        <v>2441</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="18">
@@ -16039,85 +16051,85 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>2442</v>
+        <v>2446</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>2443</v>
+        <v>2447</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>2444</v>
+        <v>2448</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>2445</v>
+        <v>2449</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1846</v>
+        <v>1850</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>1794</v>
+        <v>1798</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>2446</v>
+        <v>2450</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>2447</v>
+        <v>2451</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>2448</v>
+        <v>2452</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>2449</v>
+        <v>2453</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>2450</v>
+        <v>2454</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>1797</v>
+        <v>1801</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>2451</v>
+        <v>2455</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>2452</v>
+        <v>2456</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>2453</v>
+        <v>2457</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>2454</v>
+        <v>2458</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>2455</v>
+        <v>2459</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>1855</v>
+        <v>1859</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>2456</v>
+        <v>2460</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>2457</v>
+        <v>2461</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>2458</v>
+        <v>2462</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>2459</v>
+        <v>2463</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>2460</v>
+        <v>2464</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>2461</v>
+        <v>2465</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>2462</v>
+        <v>2466</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>2463</v>
+        <v>2467</v>
       </c>
       <c r="AB18" s="12" t="s">
-        <v>2201</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="19">
@@ -16125,85 +16137,85 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>2464</v>
+        <v>2468</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>2465</v>
+        <v>2469</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>2466</v>
+        <v>2470</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>2467</v>
+        <v>2471</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>2468</v>
+        <v>2472</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>2469</v>
+        <v>2473</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>2470</v>
+        <v>2474</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>1822</v>
+        <v>1826</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>2471</v>
+        <v>2475</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>1808</v>
+        <v>1812</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>1779</v>
+        <v>1783</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>2472</v>
+        <v>2476</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>1801</v>
+        <v>1805</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>2473</v>
+        <v>2477</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>2474</v>
+        <v>2478</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>2475</v>
+        <v>2479</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>2476</v>
+        <v>2480</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>2477</v>
+        <v>2481</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>2478</v>
+        <v>2482</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>2479</v>
+        <v>2483</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>2480</v>
+        <v>2484</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>2481</v>
+        <v>2485</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>2482</v>
+        <v>2486</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>2483</v>
+        <v>2487</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>2484</v>
+        <v>2488</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>2485</v>
+        <v>2489</v>
       </c>
       <c r="AB19" s="12" t="s">
-        <v>2486</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="20">
@@ -16211,85 +16223,85 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>2487</v>
+        <v>2491</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>2488</v>
+        <v>2492</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>2489</v>
+        <v>2493</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>2490</v>
+        <v>2494</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>2491</v>
+        <v>2495</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>2492</v>
+        <v>2496</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>2493</v>
+        <v>2497</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>1840</v>
+        <v>1844</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>1888</v>
+        <v>1892</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>1767</v>
+        <v>1771</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>2494</v>
+        <v>2498</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>2495</v>
+        <v>2499</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>2496</v>
+        <v>2500</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>2497</v>
+        <v>2501</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>2498</v>
+        <v>2502</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>2499</v>
+        <v>2503</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>2500</v>
+        <v>2504</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>2501</v>
+        <v>2505</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>2502</v>
+        <v>2506</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>2503</v>
+        <v>2507</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>2504</v>
+        <v>2508</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>2505</v>
+        <v>2509</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>1746</v>
+        <v>1750</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>2506</v>
+        <v>2510</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>2507</v>
+        <v>2511</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>2508</v>
+        <v>2512</v>
       </c>
       <c r="AB20" s="12" t="s">
-        <v>2509</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="21">
@@ -16297,85 +16309,85 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>2510</v>
+        <v>2514</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>2511</v>
+        <v>2515</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>2512</v>
+        <v>2516</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>2513</v>
+        <v>2517</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>2514</v>
+        <v>2518</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1868</v>
+        <v>1872</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>2515</v>
+        <v>2519</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>2516</v>
+        <v>2520</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>2517</v>
+        <v>2521</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>2518</v>
+        <v>2522</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>2519</v>
+        <v>2523</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>1893</v>
+        <v>1897</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>2520</v>
+        <v>2524</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>2521</v>
+        <v>2525</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>2522</v>
+        <v>2526</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>2523</v>
+        <v>2527</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>2524</v>
+        <v>2528</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>2525</v>
+        <v>2529</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>2526</v>
+        <v>2530</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>2527</v>
+        <v>2531</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>2528</v>
+        <v>2532</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>2529</v>
+        <v>2533</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>2530</v>
+        <v>2534</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>2531</v>
+        <v>2535</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>2532</v>
+        <v>2536</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>1722</v>
+        <v>1726</v>
       </c>
       <c r="AB21" s="12" t="s">
-        <v>2533</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="22">
@@ -16383,85 +16395,85 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>2534</v>
+        <v>2538</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>2535</v>
+        <v>2539</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>2536</v>
+        <v>2540</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>2537</v>
+        <v>2541</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>2538</v>
+        <v>2542</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>2539</v>
+        <v>2543</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>2540</v>
+        <v>2544</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>2541</v>
+        <v>2545</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>2542</v>
+        <v>2546</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>2543</v>
+        <v>2547</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>2544</v>
+        <v>2548</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>2545</v>
+        <v>2549</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>1870</v>
+        <v>1874</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>1750</v>
+        <v>1754</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>2546</v>
+        <v>2550</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>2547</v>
+        <v>2551</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>2548</v>
+        <v>2552</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>2549</v>
+        <v>2553</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>2550</v>
+        <v>2554</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>2551</v>
+        <v>2555</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>2552</v>
+        <v>2556</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>2553</v>
+        <v>2557</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>2554</v>
+        <v>2558</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>2555</v>
+        <v>2559</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>1874</v>
+        <v>1878</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>2556</v>
+        <v>2560</v>
       </c>
       <c r="AB22" s="12" t="s">
-        <v>2557</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="23">
@@ -16469,85 +16481,85 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>2558</v>
+        <v>2562</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>2559</v>
+        <v>2563</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>2560</v>
+        <v>2564</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>2561</v>
+        <v>2565</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>2562</v>
+        <v>2566</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>2563</v>
+        <v>2567</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>2564</v>
+        <v>2568</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>2565</v>
+        <v>2569</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>2566</v>
+        <v>2570</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>2567</v>
+        <v>2571</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>2568</v>
+        <v>2572</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>2569</v>
+        <v>2573</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>2570</v>
+        <v>2574</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>2571</v>
+        <v>2575</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>2572</v>
+        <v>2576</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>2573</v>
+        <v>2577</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>2574</v>
+        <v>2578</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>2575</v>
+        <v>2579</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>2576</v>
+        <v>2580</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>2577</v>
+        <v>2581</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>1875</v>
+        <v>1879</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>2578</v>
+        <v>2582</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>2579</v>
+        <v>2583</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>2580</v>
+        <v>2584</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>2581</v>
+        <v>2585</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>2582</v>
+        <v>2586</v>
       </c>
       <c r="AB23" s="12" t="s">
-        <v>2583</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="24">
@@ -16555,85 +16567,85 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>2584</v>
+        <v>2588</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>2585</v>
+        <v>2589</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>2586</v>
+        <v>2590</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>2587</v>
+        <v>2591</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>2588</v>
+        <v>2592</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>2589</v>
+        <v>2593</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>1826</v>
+        <v>1830</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>2590</v>
+        <v>2594</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>2591</v>
+        <v>2595</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>2592</v>
+        <v>2596</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>2593</v>
+        <v>2597</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>2594</v>
+        <v>2598</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>2595</v>
+        <v>2599</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>2596</v>
+        <v>2600</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>2597</v>
+        <v>2601</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>2598</v>
+        <v>2602</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>2599</v>
+        <v>2603</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>2600</v>
+        <v>2604</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>2601</v>
+        <v>2605</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>2602</v>
+        <v>2606</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>2603</v>
+        <v>2607</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>2604</v>
+        <v>2608</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>2605</v>
+        <v>2609</v>
       </c>
       <c r="Y24" s="5" t="s">
-        <v>2606</v>
+        <v>2610</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>2607</v>
+        <v>2611</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>2608</v>
+        <v>2612</v>
       </c>
       <c r="AB24" s="12" t="s">
-        <v>2609</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="25">
@@ -16641,85 +16653,85 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>2610</v>
+        <v>2614</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>2611</v>
+        <v>2615</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>2612</v>
+        <v>2616</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>2613</v>
+        <v>2617</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>2614</v>
+        <v>2618</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>2615</v>
+        <v>2619</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>2616</v>
+        <v>2620</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>2617</v>
+        <v>2621</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>2618</v>
+        <v>2622</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>2619</v>
+        <v>2623</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>2620</v>
+        <v>2624</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>2621</v>
+        <v>2625</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>2622</v>
+        <v>2626</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>2623</v>
+        <v>2627</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>2624</v>
+        <v>2628</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>1820</v>
+        <v>1824</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>2625</v>
+        <v>2629</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>2626</v>
+        <v>2630</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>2627</v>
+        <v>2631</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>2628</v>
+        <v>2632</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>2629</v>
+        <v>2633</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>2630</v>
+        <v>2634</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>2631</v>
+        <v>2635</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>2632</v>
+        <v>2636</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>2633</v>
+        <v>2637</v>
       </c>
       <c r="AB25" s="12" t="s">
-        <v>2250</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="26">
@@ -16727,85 +16739,85 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>2634</v>
+        <v>2638</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>2635</v>
+        <v>2639</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>2636</v>
+        <v>2640</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>2637</v>
+        <v>2641</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>2638</v>
+        <v>2642</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>2639</v>
+        <v>2643</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>2640</v>
+        <v>2644</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>2641</v>
+        <v>2645</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>2642</v>
+        <v>2646</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>2643</v>
+        <v>2647</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>2644</v>
+        <v>2648</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>1755</v>
+        <v>1759</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>2645</v>
+        <v>2649</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>1858</v>
+        <v>1862</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>2646</v>
+        <v>2650</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>1894</v>
+        <v>1898</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>2647</v>
+        <v>2651</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>2648</v>
+        <v>2652</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>2649</v>
+        <v>2653</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>2650</v>
+        <v>2654</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>2651</v>
+        <v>2655</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>2652</v>
+        <v>2656</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>2653</v>
+        <v>2657</v>
       </c>
       <c r="Y26" s="5" t="s">
-        <v>2654</v>
+        <v>2658</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>2655</v>
+        <v>2659</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>2656</v>
+        <v>2660</v>
       </c>
       <c r="AB26" s="12" t="s">
-        <v>2657</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="27">
@@ -16813,85 +16825,85 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>2658</v>
+        <v>2662</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>2659</v>
+        <v>2663</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>2660</v>
+        <v>2664</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>2661</v>
+        <v>2665</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>2662</v>
+        <v>2666</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>2663</v>
+        <v>2667</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>2664</v>
+        <v>2668</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>2665</v>
+        <v>2669</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>2666</v>
+        <v>2670</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>2667</v>
+        <v>2671</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>2668</v>
+        <v>2672</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>2669</v>
+        <v>2673</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>2670</v>
+        <v>2674</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>2671</v>
+        <v>2675</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>2672</v>
+        <v>2676</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>2673</v>
+        <v>2677</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>2674</v>
+        <v>2678</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>2675</v>
+        <v>2679</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>2676</v>
+        <v>2680</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>2677</v>
+        <v>2681</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>1736</v>
+        <v>1740</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>2678</v>
+        <v>2682</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>2679</v>
+        <v>2683</v>
       </c>
       <c r="Y27" s="5" t="s">
-        <v>2680</v>
+        <v>2684</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>2681</v>
+        <v>2685</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>2682</v>
+        <v>2686</v>
       </c>
       <c r="AB27" s="12" t="s">
-        <v>2683</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="28">
@@ -16899,85 +16911,85 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>2684</v>
+        <v>2688</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>2685</v>
+        <v>2689</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>2686</v>
+        <v>2690</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>2687</v>
+        <v>2691</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>2688</v>
+        <v>2692</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>2689</v>
+        <v>2693</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>1848</v>
+        <v>1852</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>2690</v>
+        <v>2694</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>2691</v>
+        <v>2695</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>2692</v>
+        <v>2696</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>2693</v>
+        <v>2697</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>2694</v>
+        <v>2698</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>2695</v>
+        <v>2699</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>2696</v>
+        <v>2700</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>2697</v>
+        <v>2701</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>2698</v>
+        <v>2702</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>2699</v>
+        <v>2703</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>2700</v>
+        <v>2704</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>2701</v>
+        <v>2705</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>2702</v>
+        <v>2706</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>2703</v>
+        <v>2707</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>2704</v>
+        <v>2708</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>2705</v>
+        <v>2709</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>2706</v>
+        <v>2710</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>2707</v>
+        <v>2711</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>2708</v>
+        <v>2712</v>
       </c>
       <c r="AB28" s="12" t="s">
-        <v>2709</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="29">
@@ -16985,85 +16997,85 @@
         <v>45</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>2710</v>
+        <v>2714</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>2711</v>
+        <v>2715</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>2712</v>
+        <v>2716</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>2713</v>
+        <v>2717</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>2714</v>
+        <v>2718</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>2715</v>
+        <v>2719</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>2716</v>
+        <v>2720</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>2717</v>
+        <v>2721</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>2718</v>
+        <v>2722</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>2719</v>
+        <v>2723</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>2720</v>
+        <v>2724</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>2721</v>
+        <v>2725</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>2722</v>
+        <v>2726</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>2723</v>
+        <v>2727</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>2724</v>
+        <v>2728</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>2725</v>
+        <v>2729</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>2726</v>
+        <v>2730</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>2727</v>
+        <v>2731</v>
       </c>
       <c r="T29" s="9" t="s">
-        <v>2728</v>
+        <v>2732</v>
       </c>
       <c r="U29" s="9" t="s">
-        <v>2729</v>
+        <v>2733</v>
       </c>
       <c r="V29" s="9" t="s">
-        <v>2730</v>
+        <v>2734</v>
       </c>
       <c r="W29" s="9" t="s">
-        <v>2731</v>
+        <v>2735</v>
       </c>
       <c r="X29" s="9" t="s">
-        <v>2495</v>
+        <v>2499</v>
       </c>
       <c r="Y29" s="9" t="s">
-        <v>2732</v>
+        <v>2736</v>
       </c>
       <c r="Z29" s="9" t="s">
-        <v>2733</v>
+        <v>2737</v>
       </c>
       <c r="AA29" s="9" t="s">
-        <v>2734</v>
+        <v>2738</v>
       </c>
       <c r="AB29" s="12" t="s">
-        <v>2735</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="30">
@@ -17071,85 +17083,85 @@
         <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>2736</v>
+        <v>2740</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>2737</v>
+        <v>2741</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>2738</v>
+        <v>2742</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>2739</v>
+        <v>2743</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>2740</v>
+        <v>2744</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>2741</v>
+        <v>2745</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>2742</v>
+        <v>2746</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>2743</v>
+        <v>2747</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>2744</v>
+        <v>2748</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>2745</v>
+        <v>2749</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>2746</v>
+        <v>2750</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>2747</v>
+        <v>2751</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>2748</v>
+        <v>2752</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>2749</v>
+        <v>2753</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>2750</v>
+        <v>2754</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>2751</v>
+        <v>2755</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>2752</v>
+        <v>2756</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>2753</v>
+        <v>2757</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>2754</v>
+        <v>2758</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>2755</v>
+        <v>2759</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>2756</v>
+        <v>2760</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>2757</v>
+        <v>2761</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>2758</v>
+        <v>2762</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>2759</v>
+        <v>2763</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>2760</v>
+        <v>2764</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>2761</v>
+        <v>2765</v>
       </c>
       <c r="AB30" s="3" t="s">
-        <v>2762</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="31">
@@ -17157,85 +17169,85 @@
         <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2763</v>
+        <v>2767</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>2764</v>
+        <v>2768</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>2765</v>
+        <v>2769</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>2767</v>
+        <v>2771</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>2768</v>
+        <v>2772</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>2769</v>
+        <v>2773</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>2770</v>
+        <v>2774</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>2771</v>
+        <v>2775</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>2772</v>
+        <v>2776</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>2773</v>
+        <v>2777</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>2774</v>
+        <v>2778</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>2775</v>
+        <v>2779</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>2776</v>
+        <v>2780</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>2777</v>
+        <v>2781</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>2778</v>
+        <v>2782</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>2779</v>
+        <v>2783</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>2780</v>
+        <v>2784</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>2781</v>
+        <v>2785</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>2782</v>
+        <v>2786</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>2783</v>
+        <v>2787</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>2784</v>
+        <v>2788</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>2785</v>
+        <v>2789</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>2786</v>
+        <v>2790</v>
       </c>
       <c r="Z31" s="2" t="s">
-        <v>2787</v>
+        <v>2791</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>2788</v>
+        <v>2792</v>
       </c>
       <c r="AB31" s="3" t="s">
-        <v>2789</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="32">
@@ -17321,7 +17333,7 @@
         <v>161</v>
       </c>
       <c r="AB32" s="12" t="s">
-        <v>2790</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="33">
@@ -17407,7 +17419,7 @@
         <v>161</v>
       </c>
       <c r="AB33" s="12" t="s">
-        <v>2791</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="34">
@@ -17493,7 +17505,7 @@
         <v>161</v>
       </c>
       <c r="AB34" s="12" t="s">
-        <v>2792</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="35">
@@ -17579,7 +17591,7 @@
         <v>161</v>
       </c>
       <c r="AB35" s="12" t="s">
-        <v>2793</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="36">
@@ -17587,85 +17599,85 @@
         <v>67</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>2794</v>
+        <v>2798</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>2795</v>
+        <v>2799</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2796</v>
+        <v>2800</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1920</v>
+        <v>1924</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>2797</v>
+        <v>2801</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>2798</v>
+        <v>2802</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>2799</v>
+        <v>2803</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>2800</v>
+        <v>2804</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>2801</v>
+        <v>2805</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>2802</v>
+        <v>2806</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>2803</v>
+        <v>2807</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>2804</v>
+        <v>2808</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>2805</v>
+        <v>2809</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>2806</v>
+        <v>2810</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>2807</v>
+        <v>2811</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>2808</v>
+        <v>2812</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>2809</v>
+        <v>2813</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>2810</v>
+        <v>2814</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>2811</v>
+        <v>2815</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>2812</v>
+        <v>2816</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>2813</v>
+        <v>2817</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>2814</v>
+        <v>2818</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>2815</v>
+        <v>2819</v>
       </c>
       <c r="Y36" s="2" t="s">
-        <v>2816</v>
+        <v>2820</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>2817</v>
+        <v>2821</v>
       </c>
       <c r="AA36" s="2" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="AB36" s="3" t="s">
-        <v>2819</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="37">
@@ -17751,7 +17763,7 @@
         <v>161</v>
       </c>
       <c r="AB37" s="12" t="s">
-        <v>2820</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="38">
@@ -17837,7 +17849,7 @@
         <v>161</v>
       </c>
       <c r="AB38" s="12" t="s">
-        <v>2821</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="39">
@@ -17923,7 +17935,7 @@
         <v>161</v>
       </c>
       <c r="AB39" s="12" t="s">
-        <v>2822</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="40">
@@ -18009,7 +18021,7 @@
         <v>161</v>
       </c>
       <c r="AB40" s="12" t="s">
-        <v>2823</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="41">
@@ -18095,7 +18107,7 @@
         <v>161</v>
       </c>
       <c r="AB41" s="12" t="s">
-        <v>2824</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="42">
@@ -18186,88 +18198,88 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2825</v>
+        <v>2829</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2826</v>
+        <v>2830</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2827</v>
+        <v>2831</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>2828</v>
+        <v>2832</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>2829</v>
+        <v>2833</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>2830</v>
+        <v>2834</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>2831</v>
+        <v>2835</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>2833</v>
+        <v>2837</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>2834</v>
+        <v>2838</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>2835</v>
+        <v>2839</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>2836</v>
+        <v>2840</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>2837</v>
+        <v>2841</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>2838</v>
+        <v>2842</v>
       </c>
       <c r="O43" s="11" t="s">
-        <v>2839</v>
+        <v>2843</v>
       </c>
       <c r="P43" s="9" t="s">
-        <v>2840</v>
+        <v>2844</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>2841</v>
+        <v>2845</v>
       </c>
       <c r="R43" s="9" t="s">
-        <v>2842</v>
+        <v>2846</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>2843</v>
+        <v>2847</v>
       </c>
       <c r="T43" s="9" t="s">
-        <v>2844</v>
+        <v>2848</v>
       </c>
       <c r="U43" s="9" t="s">
-        <v>2845</v>
+        <v>2849</v>
       </c>
       <c r="V43" s="9" t="s">
-        <v>2846</v>
+        <v>2850</v>
       </c>
       <c r="W43" s="9" t="s">
-        <v>2847</v>
+        <v>2851</v>
       </c>
       <c r="X43" s="9" t="s">
-        <v>2848</v>
+        <v>2852</v>
       </c>
       <c r="Y43" s="9" t="s">
-        <v>2849</v>
+        <v>2853</v>
       </c>
       <c r="Z43" s="9" t="s">
-        <v>2850</v>
+        <v>2854</v>
       </c>
       <c r="AA43" s="9" t="s">
-        <v>2851</v>
+        <v>2855</v>
       </c>
       <c r="AB43" s="12" t="s">
-        <v>2372</v>
+        <v>2376</v>
       </c>
     </row>
   </sheetData>
@@ -18293,7 +18305,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2852</v>
+        <v>2856</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -18307,16 +18319,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2853</v>
+        <v>2857</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2854</v>
+        <v>2858</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2855</v>
+        <v>2859</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>2856</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="3">
@@ -18324,10 +18336,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2857</v>
+        <v>2861</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>19</v>
@@ -18338,10 +18350,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2859</v>
+        <v>2863</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>2860</v>
+        <v>2864</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>19</v>
@@ -18352,10 +18364,10 @@
         <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2861</v>
+        <v>2865</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2862</v>
+        <v>2866</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>19</v>
@@ -18366,10 +18378,10 @@
         <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2863</v>
+        <v>2867</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>2864</v>
+        <v>2868</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>19</v>
@@ -18380,10 +18392,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>2865</v>
+        <v>2869</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2866</v>
+        <v>2870</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>19</v>
@@ -18394,10 +18406,10 @@
         <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>2867</v>
+        <v>2871</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2868</v>
+        <v>2872</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>19</v>
@@ -18408,10 +18420,10 @@
         <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>2869</v>
+        <v>2873</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>2870</v>
+        <v>2874</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>19</v>
@@ -18422,10 +18434,10 @@
         <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2871</v>
+        <v>2875</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>2872</v>
+        <v>2876</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>19</v>
@@ -18436,10 +18448,10 @@
         <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>2873</v>
+        <v>2877</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>2874</v>
+        <v>2878</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>19</v>
@@ -18450,10 +18462,10 @@
         <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>2875</v>
+        <v>2879</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>2876</v>
+        <v>2880</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>19</v>
@@ -18464,10 +18476,10 @@
         <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2877</v>
+        <v>2881</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>2878</v>
+        <v>2882</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>19</v>
@@ -18478,10 +18490,10 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>2880</v>
+        <v>2884</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>19</v>
@@ -18492,10 +18504,10 @@
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>2881</v>
+        <v>2885</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>2882</v>
+        <v>2886</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>19</v>
@@ -18506,10 +18518,10 @@
         <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>2883</v>
+        <v>2887</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>2884</v>
+        <v>2888</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>19</v>
@@ -18520,10 +18532,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>2885</v>
+        <v>2889</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>2886</v>
+        <v>2890</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>19</v>
@@ -18534,10 +18546,10 @@
         <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>2887</v>
+        <v>2891</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>2888</v>
+        <v>2892</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>19</v>
@@ -18548,10 +18560,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>2889</v>
+        <v>2893</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>2890</v>
+        <v>2894</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>19</v>
@@ -18562,10 +18574,10 @@
         <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>2891</v>
+        <v>2895</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>2892</v>
+        <v>2896</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>19</v>
@@ -18576,10 +18588,10 @@
         <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>2893</v>
+        <v>2897</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>2894</v>
+        <v>2898</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>19</v>
@@ -18590,10 +18602,10 @@
         <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>2895</v>
+        <v>2899</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>2896</v>
+        <v>2900</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>19</v>
@@ -18604,10 +18616,10 @@
         <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>2897</v>
+        <v>2901</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>2898</v>
+        <v>2902</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>19</v>
@@ -18618,10 +18630,10 @@
         <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>2899</v>
+        <v>2903</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>2900</v>
+        <v>2904</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>19</v>
@@ -18632,10 +18644,10 @@
         <v>41</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>2901</v>
+        <v>2905</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>2902</v>
+        <v>2906</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>19</v>
@@ -18646,10 +18658,10 @@
         <v>42</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>2904</v>
+        <v>2908</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>19</v>
@@ -18660,10 +18672,10 @@
         <v>43</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>2905</v>
+        <v>2909</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>2906</v>
+        <v>2910</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>19</v>
@@ -18674,10 +18686,10 @@
         <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>2907</v>
+        <v>2911</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>2908</v>
+        <v>2912</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>19</v>
@@ -18688,13 +18700,13 @@
         <v>45</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>2909</v>
+        <v>2913</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>2910</v>
+        <v>2914</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>2911</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="30">
@@ -18702,13 +18714,13 @@
         <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>2912</v>
+        <v>2916</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>2913</v>
+        <v>2917</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>2914</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="31">
@@ -18716,13 +18728,13 @@
         <v>62</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>2915</v>
+        <v>2919</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>2916</v>
+        <v>2920</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>2917</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="32">
@@ -18730,13 +18742,13 @@
         <v>63</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>2918</v>
+        <v>2922</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>2919</v>
+        <v>2923</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>2920</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="33">
@@ -18744,13 +18756,13 @@
         <v>64</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>2921</v>
+        <v>2925</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>2922</v>
+        <v>2926</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>2923</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="34">
@@ -18758,13 +18770,13 @@
         <v>65</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>2924</v>
+        <v>2928</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>2925</v>
+        <v>2929</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>2926</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="35">
@@ -18778,7 +18790,7 @@
         <v>56</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>2927</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="36">
@@ -18786,13 +18798,13 @@
         <v>67</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>2928</v>
+        <v>2932</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>2929</v>
+        <v>2933</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>2930</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="37">
@@ -18800,13 +18812,13 @@
         <v>76</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>2931</v>
+        <v>2935</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>2932</v>
+        <v>2936</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>2933</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="38">
@@ -18814,13 +18826,13 @@
         <v>77</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>2934</v>
+        <v>2938</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>2935</v>
+        <v>2939</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>2936</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="39">
@@ -18834,7 +18846,7 @@
         <v>56</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>2937</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="40">
@@ -18848,7 +18860,7 @@
         <v>56</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>2938</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="41">
@@ -18856,10 +18868,10 @@
         <v>80</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>2939</v>
+        <v>2943</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>2940</v>
+        <v>2944</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>295</v>
@@ -18881,16 +18893,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2941</v>
+        <v>2945</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2942</v>
+        <v>2946</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2943</v>
+        <v>2947</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>2944</v>
+        <v>2948</v>
       </c>
     </row>
   </sheetData>

--- a/iceKnives32/Offline Documents (Periodic)/iceKnives32.xlsx
+++ b/iceKnives32/Offline Documents (Periodic)/iceKnives32.xlsx
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="2949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="2956">
   <si>
     <t>[]</t>
   </si>
@@ -5382,6 +5382,18 @@
     <t>rainbow</t>
   </si>
   <si>
+    <t>mono</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>drive</t>
+  </si>
+  <si>
     <t>micros</t>
   </si>
   <si>
@@ -5391,6 +5403,18 @@
     <t>magma</t>
   </si>
   <si>
+    <t>texture</t>
+  </si>
+  <si>
+    <t>vivid</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>vibrant</t>
+  </si>
+  <si>
     <t>levels</t>
   </si>
   <si>
@@ -5854,9 +5878,6 @@
   </si>
   <si>
     <t>Root</t>
-  </si>
-  <si>
-    <t>drive</t>
   </si>
   <si>
     <t>Via</t>
@@ -11423,25 +11444,25 @@
         <v>1688</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>18</v>
+        <v>1689</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>18</v>
+        <v>1690</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>18</v>
+        <v>1691</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>18</v>
+        <v>1692</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>1689</v>
+        <v>1693</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>1690</v>
+        <v>1694</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>19</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24">
@@ -11449,28 +11470,28 @@
         <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1691</v>
+        <v>1695</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>18</v>
+        <v>1696</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>18</v>
+        <v>1697</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>18</v>
+        <v>1698</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>18</v>
+        <v>1699</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>1692</v>
+        <v>1700</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>1693</v>
+        <v>1701</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>19</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25">
@@ -11478,25 +11499,25 @@
         <v>41</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1694</v>
+        <v>1702</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1695</v>
+        <v>1703</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>1696</v>
+        <v>1704</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>1697</v>
+        <v>1705</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>1698</v>
+        <v>1706</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>1699</v>
+        <v>1707</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>1700</v>
+        <v>1708</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>1099</v>
@@ -11507,25 +11528,25 @@
         <v>42</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1701</v>
+        <v>1709</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1702</v>
+        <v>1710</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>1703</v>
+        <v>1711</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>1704</v>
+        <v>1712</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>1705</v>
+        <v>1713</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>1706</v>
+        <v>1714</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>1707</v>
+        <v>1715</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>374</v>
@@ -11536,25 +11557,25 @@
         <v>43</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1708</v>
+        <v>1716</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1709</v>
+        <v>1717</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>1710</v>
+        <v>1718</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>1711</v>
+        <v>1719</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>1712</v>
+        <v>1720</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>1713</v>
+        <v>1721</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>1714</v>
+        <v>1722</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>16</v>
@@ -11565,25 +11586,25 @@
         <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1715</v>
+        <v>1723</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1716</v>
+        <v>1724</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1717</v>
+        <v>1725</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>1718</v>
+        <v>1726</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>1719</v>
+        <v>1727</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>1720</v>
+        <v>1728</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>1721</v>
+        <v>1729</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>756</v>
@@ -11997,7 +12018,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1722</v>
+        <v>1730</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>91</v>
@@ -12021,7 +12042,7 @@
         <v>97</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1723</v>
+        <v>1731</v>
       </c>
     </row>
   </sheetData>
@@ -12050,7 +12071,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>1724</v>
+        <v>1732</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -12079,28 +12100,28 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>1725</v>
+        <v>1733</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1726</v>
+        <v>1734</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1727</v>
+        <v>1735</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1728</v>
+        <v>1736</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1729</v>
+        <v>1737</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1730</v>
+        <v>1738</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1731</v>
+        <v>1739</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>303</v>
@@ -12111,25 +12132,25 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1733</v>
+        <v>1741</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1735</v>
+        <v>1743</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>1737</v>
+        <v>1745</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>1738</v>
+        <v>1746</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>1739</v>
+        <v>1747</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>19</v>
@@ -12140,25 +12161,25 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1741</v>
+        <v>1749</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>1012</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1742</v>
+        <v>1750</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>19</v>
@@ -12169,25 +12190,25 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>1027</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>1750</v>
+        <v>1758</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>19</v>
@@ -12198,25 +12219,25 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1752</v>
+        <v>1760</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>747</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>1757</v>
+        <v>1765</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>19</v>
@@ -12227,25 +12248,25 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1758</v>
+        <v>1766</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1759</v>
+        <v>1767</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>456</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1760</v>
+        <v>1768</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1761</v>
+        <v>1769</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>1762</v>
+        <v>1770</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>1763</v>
+        <v>1771</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>19</v>
@@ -12256,25 +12277,25 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1764</v>
+        <v>1772</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1765</v>
+        <v>1773</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>124</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1766</v>
+        <v>1774</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1767</v>
+        <v>1775</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1768</v>
+        <v>1776</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>1769</v>
+        <v>1777</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>19</v>
@@ -12285,25 +12306,25 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1770</v>
+        <v>1778</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1771</v>
+        <v>1779</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>360</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1772</v>
+        <v>1780</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>1773</v>
+        <v>1781</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1774</v>
+        <v>1782</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>1775</v>
+        <v>1783</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>19</v>
@@ -12314,25 +12335,25 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1776</v>
+        <v>1784</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1777</v>
+        <v>1785</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1778</v>
+        <v>1786</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1779</v>
+        <v>1787</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>1780</v>
+        <v>1788</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1781</v>
+        <v>1789</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>1782</v>
+        <v>1790</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>19</v>
@@ -12343,25 +12364,25 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1783</v>
+        <v>1791</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1784</v>
+        <v>1792</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>488</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1785</v>
+        <v>1793</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>1786</v>
+        <v>1794</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1787</v>
+        <v>1795</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>1788</v>
+        <v>1796</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>19</v>
@@ -12372,25 +12393,25 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1789</v>
+        <v>1797</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1790</v>
+        <v>1798</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1119</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1791</v>
+        <v>1799</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1792</v>
+        <v>1800</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>1793</v>
+        <v>1801</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>1794</v>
+        <v>1802</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>19</v>
@@ -12401,25 +12422,25 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1795</v>
+        <v>1803</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1796</v>
+        <v>1804</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>470</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1797</v>
+        <v>1805</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1798</v>
+        <v>1806</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1799</v>
+        <v>1807</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>1800</v>
+        <v>1808</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>19</v>
@@ -12430,25 +12451,25 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1801</v>
+        <v>1809</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>211</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1803</v>
+        <v>1811</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1805</v>
+        <v>1813</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>1806</v>
+        <v>1814</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>19</v>
@@ -12459,25 +12480,25 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1808</v>
+        <v>1816</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1809</v>
+        <v>1817</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1810</v>
+        <v>1818</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1811</v>
+        <v>1819</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1812</v>
+        <v>1820</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>1813</v>
+        <v>1821</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>19</v>
@@ -12488,25 +12509,25 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1814</v>
+        <v>1822</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1815</v>
+        <v>1823</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>625</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1816</v>
+        <v>1824</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1817</v>
+        <v>1825</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>1818</v>
+        <v>1826</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>1819</v>
+        <v>1827</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>19</v>
@@ -12517,25 +12538,25 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1820</v>
+        <v>1828</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1821</v>
+        <v>1829</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>768</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>1823</v>
+        <v>1831</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1824</v>
+        <v>1832</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>1825</v>
+        <v>1833</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>19</v>
@@ -12546,25 +12567,25 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1826</v>
+        <v>1834</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>845</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1828</v>
+        <v>1836</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1829</v>
+        <v>1837</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>1831</v>
+        <v>1839</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>19</v>
@@ -12575,25 +12596,25 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1832</v>
+        <v>1840</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1833</v>
+        <v>1841</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>1311</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1834</v>
+        <v>1842</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>1835</v>
+        <v>1843</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>1836</v>
+        <v>1844</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>1837</v>
+        <v>1845</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>19</v>
@@ -12604,25 +12625,25 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1838</v>
+        <v>1846</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1839</v>
+        <v>1847</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1840</v>
+        <v>1848</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1841</v>
+        <v>1849</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>1842</v>
+        <v>1850</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1843</v>
+        <v>1851</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>1844</v>
+        <v>1852</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>19</v>
@@ -12633,25 +12654,25 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1845</v>
+        <v>1853</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1846</v>
+        <v>1854</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1847</v>
+        <v>1692</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1848</v>
+        <v>1855</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>1849</v>
+        <v>1856</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1850</v>
+        <v>1857</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>1851</v>
+        <v>1858</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>19</v>
@@ -12662,25 +12683,25 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1852</v>
+        <v>1859</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1853</v>
+        <v>1860</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>932</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1854</v>
+        <v>1861</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>1855</v>
+        <v>1862</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>1856</v>
+        <v>1863</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>1857</v>
+        <v>1864</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>19</v>
@@ -12691,25 +12712,25 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1858</v>
+        <v>1865</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1859</v>
+        <v>1866</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1860</v>
+        <v>1867</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1861</v>
+        <v>1868</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>1862</v>
+        <v>1869</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1863</v>
+        <v>1870</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>1864</v>
+        <v>1871</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>19</v>
@@ -12720,25 +12741,25 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1865</v>
+        <v>1872</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1866</v>
+        <v>1873</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>472</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1867</v>
+        <v>1874</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>1868</v>
+        <v>1875</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>1869</v>
+        <v>1876</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>1870</v>
+        <v>1877</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>19</v>
@@ -12749,25 +12770,25 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1871</v>
+        <v>1878</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1872</v>
+        <v>1879</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>424</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1873</v>
+        <v>1880</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>1874</v>
+        <v>1881</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>1875</v>
+        <v>1882</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>1876</v>
+        <v>1883</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>19</v>
@@ -12778,25 +12799,25 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1877</v>
+        <v>1884</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1878</v>
+        <v>1885</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>925</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1879</v>
+        <v>1886</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>1880</v>
+        <v>1887</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1881</v>
+        <v>1888</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>1882</v>
+        <v>1889</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>19</v>
@@ -12807,25 +12828,25 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1883</v>
+        <v>1890</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1884</v>
+        <v>1891</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>1383</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1885</v>
+        <v>1892</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>1886</v>
+        <v>1893</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>1887</v>
+        <v>1894</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>1888</v>
+        <v>1895</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>19</v>
@@ -12836,25 +12857,25 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1889</v>
+        <v>1896</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1890</v>
+        <v>1897</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>429</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1891</v>
+        <v>1898</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>1892</v>
+        <v>1899</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>1893</v>
+        <v>1900</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>1894</v>
+        <v>1901</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>19</v>
@@ -12865,25 +12886,25 @@
         <v>45</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1895</v>
+        <v>1902</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1896</v>
+        <v>1903</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>373</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1897</v>
+        <v>1904</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>1898</v>
+        <v>1905</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1899</v>
+        <v>1906</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>1900</v>
+        <v>1907</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>335</v>
@@ -12894,28 +12915,28 @@
         <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1901</v>
+        <v>1908</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1902</v>
+        <v>1909</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1903</v>
+        <v>1910</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>1904</v>
+        <v>1911</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1905</v>
+        <v>1912</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>1906</v>
+        <v>1913</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>1907</v>
+        <v>1914</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>1908</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="31">
@@ -12923,28 +12944,28 @@
         <v>62</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1909</v>
+        <v>1916</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1910</v>
+        <v>1917</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1911</v>
+        <v>1918</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>1912</v>
+        <v>1919</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>1913</v>
+        <v>1920</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>1914</v>
+        <v>1921</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>1915</v>
+        <v>1922</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>1916</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="32">
@@ -12973,7 +12994,7 @@
         <v>61</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>1917</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="33">
@@ -13002,7 +13023,7 @@
         <v>61</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>1918</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="34">
@@ -13031,7 +13052,7 @@
         <v>61</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>1919</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="35">
@@ -13060,7 +13081,7 @@
         <v>61</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>1920</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="36">
@@ -13068,28 +13089,28 @@
         <v>67</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1921</v>
+        <v>1928</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1922</v>
+        <v>1929</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1923</v>
+        <v>1930</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>1924</v>
+        <v>1931</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>1925</v>
+        <v>1932</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>1926</v>
+        <v>1933</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>1927</v>
+        <v>1934</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>1928</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="37">
@@ -13118,7 +13139,7 @@
         <v>61</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>1929</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="38">
@@ -13147,7 +13168,7 @@
         <v>61</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>1930</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="39">
@@ -13176,7 +13197,7 @@
         <v>61</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>1931</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="40">
@@ -13205,7 +13226,7 @@
         <v>61</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>1932</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="41">
@@ -13234,7 +13255,7 @@
         <v>61</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>1933</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="42">
@@ -13268,31 +13289,31 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1934</v>
+        <v>1941</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1935</v>
+        <v>1942</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1936</v>
+        <v>1943</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1937</v>
+        <v>1944</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>1938</v>
+        <v>1945</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>1939</v>
+        <v>1946</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>1940</v>
+        <v>1947</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>1941</v>
+        <v>1948</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1942</v>
+        <v>1949</v>
       </c>
     </row>
   </sheetData>
@@ -13319,7 +13340,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1943</v>
+        <v>1950</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -13348,28 +13369,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1944</v>
+        <v>1951</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1945</v>
+        <v>1952</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1946</v>
+        <v>1953</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1947</v>
+        <v>1954</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1948</v>
+        <v>1955</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1949</v>
+        <v>1956</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1950</v>
+        <v>1957</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>1951</v>
+        <v>1958</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>19</v>
@@ -13380,13 +13401,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1952</v>
+        <v>1959</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1953</v>
+        <v>1960</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1954</v>
+        <v>1961</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>18</v>
@@ -13409,13 +13430,13 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1955</v>
+        <v>1962</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1956</v>
+        <v>1963</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1957</v>
+        <v>1964</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -13438,13 +13459,13 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1958</v>
+        <v>1965</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1959</v>
+        <v>1966</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1960</v>
+        <v>1967</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>18</v>
@@ -13467,13 +13488,13 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1961</v>
+        <v>1968</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1962</v>
+        <v>1969</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1963</v>
+        <v>1970</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>18</v>
@@ -13496,13 +13517,13 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1964</v>
+        <v>1971</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1965</v>
+        <v>1972</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1966</v>
+        <v>1973</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>18</v>
@@ -13525,13 +13546,13 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1967</v>
+        <v>1974</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1968</v>
+        <v>1975</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1969</v>
+        <v>1976</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>18</v>
@@ -13554,13 +13575,13 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1970</v>
+        <v>1977</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1971</v>
+        <v>1978</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1972</v>
+        <v>1979</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>18</v>
@@ -13583,13 +13604,13 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1973</v>
+        <v>1980</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1974</v>
+        <v>1981</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1975</v>
+        <v>1982</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>18</v>
@@ -13612,13 +13633,13 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1976</v>
+        <v>1983</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1977</v>
+        <v>1984</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1978</v>
+        <v>1985</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>18</v>
@@ -13641,13 +13662,13 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1979</v>
+        <v>1986</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1980</v>
+        <v>1987</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1981</v>
+        <v>1988</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>18</v>
@@ -13670,13 +13691,13 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1982</v>
+        <v>1989</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1983</v>
+        <v>1990</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1984</v>
+        <v>1991</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>18</v>
@@ -13699,13 +13720,13 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1985</v>
+        <v>1992</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1986</v>
+        <v>1993</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1987</v>
+        <v>1994</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>18</v>
@@ -13728,13 +13749,13 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1988</v>
+        <v>1995</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1989</v>
+        <v>1996</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1990</v>
+        <v>1997</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>18</v>
@@ -13757,13 +13778,13 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1991</v>
+        <v>1998</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1992</v>
+        <v>1999</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1993</v>
+        <v>2000</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>18</v>
@@ -13786,13 +13807,13 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1994</v>
+        <v>2001</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1995</v>
+        <v>2002</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1996</v>
+        <v>2003</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>18</v>
@@ -13815,13 +13836,13 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1997</v>
+        <v>2004</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>18</v>
@@ -13844,13 +13865,13 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>18</v>
@@ -13873,13 +13894,13 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>18</v>
@@ -13902,13 +13923,13 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>18</v>
@@ -13931,13 +13952,13 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>18</v>
@@ -13960,13 +13981,13 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>18</v>
@@ -13989,13 +14010,13 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>18</v>
@@ -14018,13 +14039,13 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>2019</v>
+        <v>2026</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>2020</v>
+        <v>2027</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>18</v>
@@ -14047,13 +14068,13 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>2021</v>
+        <v>2028</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>2022</v>
+        <v>2029</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>2023</v>
+        <v>2030</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>18</v>
@@ -14076,13 +14097,13 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>2024</v>
+        <v>2031</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>2025</v>
+        <v>2032</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>2026</v>
+        <v>2033</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>18</v>
@@ -14105,13 +14126,13 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>2027</v>
+        <v>2034</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>2028</v>
+        <v>2035</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>2029</v>
+        <v>2036</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>18</v>
@@ -14134,25 +14155,25 @@
         <v>45</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>2030</v>
+        <v>2037</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>2031</v>
+        <v>2038</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>2032</v>
+        <v>2039</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>2033</v>
+        <v>2040</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>2034</v>
+        <v>2041</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>2035</v>
+        <v>2042</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>2036</v>
+        <v>2043</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>19</v>
@@ -14537,31 +14558,31 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2037</v>
+        <v>2044</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2038</v>
+        <v>2045</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>2039</v>
+        <v>2046</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>2040</v>
+        <v>2047</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>2041</v>
+        <v>2048</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>2042</v>
+        <v>2049</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>2044</v>
+        <v>2051</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>2045</v>
+        <v>2052</v>
       </c>
     </row>
   </sheetData>
@@ -14586,7 +14607,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2046</v>
+        <v>2053</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -14610,61 +14631,61 @@
         <v>7</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>2047</v>
+        <v>2054</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>2048</v>
+        <v>2055</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>2049</v>
+        <v>2056</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>2050</v>
+        <v>2057</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>2051</v>
+        <v>2058</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>2052</v>
+        <v>2059</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>2053</v>
+        <v>2060</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>2054</v>
+        <v>2061</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>2055</v>
+        <v>2062</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>2056</v>
+        <v>2063</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>2057</v>
+        <v>2064</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>2058</v>
+        <v>2065</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>2059</v>
+        <v>2066</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>2060</v>
+        <v>2067</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>2061</v>
+        <v>2068</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>2062</v>
+        <v>2069</v>
       </c>
       <c r="Y1" s="9" t="s">
-        <v>2063</v>
+        <v>2070</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>2064</v>
+        <v>2071</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>2065</v>
+        <v>2072</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>8</v>
@@ -14672,88 +14693,88 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1943</v>
+        <v>1950</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2066</v>
+        <v>2073</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>2067</v>
+        <v>2074</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>2068</v>
+        <v>2075</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>2069</v>
+        <v>2076</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>2070</v>
+        <v>2077</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>2071</v>
+        <v>2078</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>2072</v>
+        <v>2079</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>2073</v>
+        <v>2080</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>2074</v>
+        <v>2081</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>2075</v>
+        <v>2082</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>2076</v>
+        <v>2083</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>2077</v>
+        <v>2084</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>2078</v>
+        <v>2085</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>2079</v>
+        <v>2086</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>2080</v>
+        <v>2087</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>2081</v>
+        <v>2088</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>2082</v>
+        <v>2089</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>2083</v>
+        <v>2090</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>1864</v>
+        <v>1871</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>2084</v>
+        <v>2091</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>2085</v>
+        <v>2092</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>2086</v>
+        <v>2093</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>2087</v>
+        <v>2094</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>2088</v>
+        <v>2095</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>2089</v>
+        <v>2096</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>2090</v>
+        <v>2097</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>2091</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="3">
@@ -14761,85 +14782,85 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2092</v>
+        <v>2099</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>2093</v>
+        <v>2100</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>2094</v>
+        <v>2101</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>2095</v>
+        <v>2102</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>2096</v>
+        <v>2103</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>2097</v>
+        <v>2104</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>2098</v>
+        <v>2105</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>2099</v>
+        <v>2106</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>1803</v>
+        <v>1811</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>2100</v>
+        <v>2107</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>2101</v>
+        <v>2108</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>2102</v>
+        <v>2109</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>2103</v>
+        <v>2110</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>1789</v>
+        <v>1797</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>1866</v>
+        <v>1873</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>2104</v>
+        <v>2111</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>2105</v>
+        <v>2112</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>2106</v>
+        <v>2113</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>2107</v>
+        <v>2114</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>2108</v>
+        <v>2115</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>2110</v>
+        <v>2117</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>2111</v>
+        <v>2118</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>1821</v>
+        <v>1829</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>2112</v>
+        <v>2119</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>1896</v>
+        <v>1903</v>
       </c>
       <c r="AB3" s="12" t="s">
-        <v>2113</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="4">
@@ -14847,85 +14868,85 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2114</v>
+        <v>2121</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>2115</v>
+        <v>2122</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>2116</v>
+        <v>2123</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>2117</v>
+        <v>2124</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>2118</v>
+        <v>2125</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1774</v>
+        <v>1782</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>2119</v>
+        <v>2126</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>2120</v>
+        <v>2127</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>1829</v>
+        <v>1837</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>2121</v>
+        <v>2128</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>2122</v>
+        <v>2129</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>2123</v>
+        <v>2130</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>2124</v>
+        <v>2131</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>2125</v>
+        <v>2132</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>2126</v>
+        <v>2133</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>2127</v>
+        <v>2134</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>1816</v>
+        <v>1824</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>2128</v>
+        <v>2135</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>2129</v>
+        <v>2136</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>2130</v>
+        <v>2137</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>2131</v>
+        <v>2138</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>2132</v>
+        <v>2139</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>2133</v>
+        <v>2140</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>2134</v>
+        <v>2141</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>2135</v>
+        <v>2142</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>2136</v>
+        <v>2143</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>2137</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="5">
@@ -14933,85 +14954,85 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2138</v>
+        <v>2145</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>2139</v>
+        <v>2146</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>2140</v>
+        <v>2147</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>2141</v>
+        <v>2148</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>2142</v>
+        <v>2149</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>2143</v>
+        <v>2150</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>1873</v>
+        <v>1880</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>2144</v>
+        <v>2151</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>2145</v>
+        <v>2152</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>2146</v>
+        <v>2153</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>1881</v>
+        <v>1888</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>2147</v>
+        <v>2154</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>2148</v>
+        <v>2155</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>2149</v>
+        <v>2156</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>2150</v>
+        <v>2157</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>2151</v>
+        <v>2158</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>2152</v>
+        <v>2159</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>2153</v>
+        <v>2160</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>2154</v>
+        <v>2161</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>1752</v>
+        <v>1760</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>2155</v>
+        <v>2162</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>2156</v>
+        <v>2163</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>2157</v>
+        <v>2164</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>2158</v>
+        <v>2165</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>2159</v>
+        <v>2166</v>
       </c>
       <c r="AB5" s="12" t="s">
-        <v>2160</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="6">
@@ -15019,85 +15040,85 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>2161</v>
+        <v>2168</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>2162</v>
+        <v>2169</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>2163</v>
+        <v>2170</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>2164</v>
+        <v>2171</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>2165</v>
+        <v>2172</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>2166</v>
+        <v>2173</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>2167</v>
+        <v>2174</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>2168</v>
+        <v>2175</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>2169</v>
+        <v>2176</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>2170</v>
+        <v>2177</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>2171</v>
+        <v>2178</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>2172</v>
+        <v>2179</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>2173</v>
+        <v>2180</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>1814</v>
+        <v>1822</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>2174</v>
+        <v>2181</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>2175</v>
+        <v>2182</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>2176</v>
+        <v>2183</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>2177</v>
+        <v>2184</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>2178</v>
+        <v>2185</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>2179</v>
+        <v>2186</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>2180</v>
+        <v>2187</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>2181</v>
+        <v>2188</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>2182</v>
+        <v>2189</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>2183</v>
+        <v>2190</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>2184</v>
+        <v>2191</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>1818</v>
+        <v>1826</v>
       </c>
       <c r="AB6" s="12" t="s">
-        <v>2185</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="7">
@@ -15105,85 +15126,85 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>2186</v>
+        <v>2193</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>2187</v>
+        <v>2194</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>2188</v>
+        <v>2195</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>2189</v>
+        <v>2196</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>2190</v>
+        <v>2197</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>2191</v>
+        <v>2198</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>1865</v>
+        <v>1872</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>2192</v>
+        <v>2199</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>2193</v>
+        <v>2200</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>1799</v>
+        <v>1807</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>2194</v>
+        <v>2201</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>1792</v>
+        <v>1800</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>1886</v>
+        <v>1893</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>2195</v>
+        <v>2202</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>2196</v>
+        <v>2203</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>1890</v>
+        <v>1897</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>2197</v>
+        <v>2204</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>2198</v>
+        <v>2205</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>2199</v>
+        <v>2206</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>2200</v>
+        <v>2207</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>2201</v>
+        <v>2208</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>2202</v>
+        <v>2209</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>2203</v>
+        <v>2210</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>2204</v>
+        <v>2211</v>
       </c>
       <c r="AB7" s="12" t="s">
-        <v>2205</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="8">
@@ -15191,85 +15212,85 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>2206</v>
+        <v>2213</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2207</v>
+        <v>2214</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>2208</v>
+        <v>2215</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>2209</v>
+        <v>2216</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>2210</v>
+        <v>2217</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>2211</v>
+        <v>2218</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>2212</v>
+        <v>2219</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>1769</v>
+        <v>1777</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>2213</v>
+        <v>2220</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>1786</v>
+        <v>1794</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>2214</v>
+        <v>2221</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>2215</v>
+        <v>2222</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>1845</v>
+        <v>1853</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>2216</v>
+        <v>2223</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>2217</v>
+        <v>2224</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>1773</v>
+        <v>1781</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>2218</v>
+        <v>2225</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>2219</v>
+        <v>2226</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>2220</v>
+        <v>2227</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>2221</v>
+        <v>2228</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>2222</v>
+        <v>2229</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>2223</v>
+        <v>2230</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>2224</v>
+        <v>2231</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>2225</v>
+        <v>2232</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>2226</v>
+        <v>2233</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>2227</v>
+        <v>2234</v>
       </c>
       <c r="AB8" s="12" t="s">
-        <v>2228</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="9">
@@ -15277,85 +15298,85 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>2229</v>
+        <v>2236</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>2230</v>
+        <v>2237</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>2231</v>
+        <v>2238</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>2232</v>
+        <v>2239</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>2233</v>
+        <v>2240</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>2234</v>
+        <v>2241</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>2235</v>
+        <v>2242</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>2236</v>
+        <v>2243</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>2237</v>
+        <v>2244</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>2238</v>
+        <v>2245</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>2239</v>
+        <v>2246</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>2240</v>
+        <v>2247</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>2241</v>
+        <v>2248</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>2242</v>
+        <v>2249</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>2243</v>
+        <v>2250</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>1791</v>
+        <v>1799</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>2244</v>
+        <v>2251</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>2245</v>
+        <v>2252</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>2246</v>
+        <v>2253</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>2247</v>
+        <v>2254</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>2248</v>
+        <v>2255</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>2249</v>
+        <v>2256</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>2250</v>
+        <v>2257</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>2251</v>
+        <v>2258</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>2252</v>
+        <v>2259</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>2253</v>
+        <v>2260</v>
       </c>
       <c r="AB9" s="12" t="s">
-        <v>2254</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="10">
@@ -15363,85 +15384,85 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>2255</v>
+        <v>2262</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>2256</v>
+        <v>2263</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>2257</v>
+        <v>2264</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>2258</v>
+        <v>2265</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>2259</v>
+        <v>2266</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>2260</v>
+        <v>2267</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>2261</v>
+        <v>2268</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>2262</v>
+        <v>2269</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>2263</v>
+        <v>2270</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>2264</v>
+        <v>2271</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>2265</v>
+        <v>2272</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>2266</v>
+        <v>2273</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>2267</v>
+        <v>2274</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>2268</v>
+        <v>2275</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>2269</v>
+        <v>2276</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>2270</v>
+        <v>2277</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>2271</v>
+        <v>2278</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>2272</v>
+        <v>2279</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>1855</v>
+        <v>1862</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>2273</v>
+        <v>2280</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>2274</v>
+        <v>2281</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>2275</v>
+        <v>2282</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>2276</v>
+        <v>2283</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>2277</v>
+        <v>2284</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>2278</v>
+        <v>2285</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>2279</v>
+        <v>2286</v>
       </c>
       <c r="AB10" s="12" t="s">
-        <v>2113</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="11">
@@ -15449,85 +15470,85 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>2280</v>
+        <v>2287</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>2281</v>
+        <v>2288</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>2282</v>
+        <v>2289</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>2283</v>
+        <v>2290</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>2284</v>
+        <v>2291</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>2285</v>
+        <v>2292</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>2286</v>
+        <v>2293</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>2287</v>
+        <v>2294</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>2288</v>
+        <v>2295</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>2289</v>
+        <v>2296</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>1854</v>
+        <v>1861</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>2290</v>
+        <v>2297</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>2291</v>
+        <v>2298</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>2292</v>
+        <v>2299</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>2293</v>
+        <v>2300</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>2294</v>
+        <v>2301</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>2295</v>
+        <v>2302</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>2296</v>
+        <v>2303</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>2297</v>
+        <v>2304</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>2298</v>
+        <v>2305</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>2299</v>
+        <v>2306</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>2300</v>
+        <v>2307</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>2301</v>
+        <v>2308</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>2302</v>
+        <v>2309</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>2303</v>
+        <v>2310</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>2304</v>
+        <v>2311</v>
       </c>
       <c r="AB11" s="12" t="s">
-        <v>2137</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="12">
@@ -15535,85 +15556,85 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>2305</v>
+        <v>2312</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>2306</v>
+        <v>2313</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>2307</v>
+        <v>2314</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>2308</v>
+        <v>2315</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>2309</v>
+        <v>2316</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>2310</v>
+        <v>2317</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>2311</v>
+        <v>2318</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>2312</v>
+        <v>2319</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>2313</v>
+        <v>2320</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>1887</v>
+        <v>1894</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>2314</v>
+        <v>2321</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>2315</v>
+        <v>2322</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>1760</v>
+        <v>1768</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>2316</v>
+        <v>2323</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>2317</v>
+        <v>2324</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>1893</v>
+        <v>1900</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>2318</v>
+        <v>2325</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>2319</v>
+        <v>2326</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>2320</v>
+        <v>2327</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>2321</v>
+        <v>2328</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>2322</v>
+        <v>2329</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>2323</v>
+        <v>2330</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>2324</v>
+        <v>2331</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>2325</v>
+        <v>2332</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>2326</v>
+        <v>2333</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>2327</v>
+        <v>2334</v>
       </c>
       <c r="AB12" s="12" t="s">
-        <v>2328</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="13">
@@ -15621,85 +15642,85 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>2329</v>
+        <v>2336</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>2330</v>
+        <v>2337</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>2331</v>
+        <v>2338</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>2332</v>
+        <v>2339</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>2333</v>
+        <v>2340</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>2334</v>
+        <v>2341</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>2335</v>
+        <v>2342</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>2336</v>
+        <v>2343</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>2337</v>
+        <v>2344</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>2338</v>
+        <v>2345</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>2339</v>
+        <v>2346</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>2340</v>
+        <v>2347</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>2341</v>
+        <v>2348</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>2342</v>
+        <v>2349</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>2343</v>
+        <v>2350</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>2344</v>
+        <v>2351</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>1776</v>
+        <v>1784</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>2345</v>
+        <v>2352</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>2346</v>
+        <v>2353</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>2347</v>
+        <v>2354</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>2348</v>
+        <v>2355</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>2349</v>
+        <v>2356</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>2350</v>
+        <v>2357</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>2351</v>
+        <v>2358</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>2352</v>
+        <v>2359</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>2353</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="14">
@@ -15707,85 +15728,85 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>2354</v>
+        <v>2361</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>2355</v>
+        <v>2362</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>2356</v>
+        <v>2363</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>2357</v>
+        <v>2364</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>2358</v>
+        <v>2365</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>2359</v>
+        <v>2366</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>2360</v>
+        <v>2367</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>1836</v>
+        <v>1844</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>1883</v>
+        <v>1890</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>2361</v>
+        <v>2368</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>2362</v>
+        <v>2369</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>2363</v>
+        <v>2370</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>2364</v>
+        <v>2371</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>1820</v>
+        <v>1828</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>1889</v>
+        <v>1896</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>2365</v>
+        <v>2372</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>2366</v>
+        <v>2373</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>2367</v>
+        <v>2374</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>2368</v>
+        <v>2375</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>2369</v>
+        <v>2376</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>2370</v>
+        <v>2377</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>2371</v>
+        <v>2378</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>2372</v>
+        <v>2379</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>2373</v>
+        <v>2380</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>2374</v>
+        <v>2381</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>2375</v>
+        <v>2382</v>
       </c>
       <c r="AB14" s="12" t="s">
-        <v>2376</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="15">
@@ -15793,85 +15814,85 @@
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>2377</v>
+        <v>2384</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>2378</v>
+        <v>2385</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>2379</v>
+        <v>2386</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>2380</v>
+        <v>2387</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1738</v>
+        <v>1746</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>2381</v>
+        <v>2388</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>2382</v>
+        <v>2389</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>2383</v>
+        <v>2390</v>
       </c>
       <c r="K15" s="5" t="s">
+        <v>1843</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>2391</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>2392</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>1847</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>2393</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>1825</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>2394</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>2395</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>1772</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>2396</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>2397</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>2398</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>2399</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>2400</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>2401</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>2402</v>
+      </c>
+      <c r="AA15" s="5" t="s">
         <v>1835</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>2384</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>2385</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>1839</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>2386</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>1817</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>2387</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>2388</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>1764</v>
-      </c>
-      <c r="T15" s="5" t="s">
-        <v>2389</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>2390</v>
-      </c>
-      <c r="V15" s="5" t="s">
-        <v>2391</v>
-      </c>
-      <c r="W15" s="5" t="s">
-        <v>2392</v>
-      </c>
-      <c r="X15" s="5" t="s">
-        <v>2393</v>
-      </c>
-      <c r="Y15" s="5" t="s">
-        <v>2394</v>
-      </c>
-      <c r="Z15" s="5" t="s">
-        <v>2395</v>
-      </c>
-      <c r="AA15" s="5" t="s">
-        <v>1827</v>
-      </c>
       <c r="AB15" s="12" t="s">
-        <v>2396</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="16">
@@ -15879,85 +15900,85 @@
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>2397</v>
+        <v>2404</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>2398</v>
+        <v>2405</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>2399</v>
+        <v>2406</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>2400</v>
+        <v>2407</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>2401</v>
+        <v>2408</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>2402</v>
+        <v>2409</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>2403</v>
+        <v>2410</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>2404</v>
+        <v>2411</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>2405</v>
+        <v>2412</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>2406</v>
+        <v>2413</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>2407</v>
+        <v>2414</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>2408</v>
+        <v>2415</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>2409</v>
+        <v>2416</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>1768</v>
+        <v>1776</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>2410</v>
+        <v>2417</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>2411</v>
+        <v>2418</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>2412</v>
+        <v>2419</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>2413</v>
+        <v>2420</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>2414</v>
+        <v>2421</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>2415</v>
+        <v>2422</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>2416</v>
+        <v>2423</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>2417</v>
+        <v>2424</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>2418</v>
+        <v>2425</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>2419</v>
+        <v>2426</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>2420</v>
+        <v>2427</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>2421</v>
+        <v>2428</v>
       </c>
       <c r="AB16" s="12" t="s">
-        <v>2422</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="17">
@@ -15965,85 +15986,85 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>2423</v>
+        <v>2430</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>2424</v>
+        <v>2431</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>2425</v>
+        <v>2432</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>2426</v>
+        <v>2433</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>2427</v>
+        <v>2434</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>2428</v>
+        <v>2435</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>2429</v>
+        <v>2436</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>2430</v>
+        <v>2437</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>1811</v>
+        <v>1819</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>1856</v>
+        <v>1863</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>2431</v>
+        <v>2438</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>2432</v>
+        <v>2439</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>2433</v>
+        <v>2440</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>2434</v>
+        <v>2441</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>2435</v>
+        <v>2442</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>2436</v>
+        <v>2443</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>1885</v>
+        <v>1892</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>2437</v>
+        <v>2444</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>2438</v>
+        <v>2445</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>2439</v>
+        <v>2446</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>2440</v>
+        <v>2447</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>2441</v>
+        <v>2448</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>2442</v>
+        <v>2449</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>1869</v>
+        <v>1876</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>2443</v>
+        <v>2450</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>2444</v>
+        <v>2451</v>
       </c>
       <c r="AB17" s="12" t="s">
-        <v>2445</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="18">
@@ -16051,85 +16072,85 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>2446</v>
+        <v>2453</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>2447</v>
+        <v>2454</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>2448</v>
+        <v>2455</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>2449</v>
+        <v>2456</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1850</v>
+        <v>1857</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>1798</v>
+        <v>1806</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>2450</v>
+        <v>2457</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>2451</v>
+        <v>2458</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>2452</v>
+        <v>2459</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>2453</v>
+        <v>2460</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>2454</v>
+        <v>2461</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>1801</v>
+        <v>1809</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>2455</v>
+        <v>2462</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>2456</v>
+        <v>2463</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>2457</v>
+        <v>2464</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>2458</v>
+        <v>2465</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>2459</v>
+        <v>2466</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>1859</v>
+        <v>1866</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>2460</v>
+        <v>2467</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>2461</v>
+        <v>2468</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>2462</v>
+        <v>2469</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>2463</v>
+        <v>2470</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>2464</v>
+        <v>2471</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>2465</v>
+        <v>2472</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>2466</v>
+        <v>2473</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>2467</v>
+        <v>2474</v>
       </c>
       <c r="AB18" s="12" t="s">
-        <v>2205</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="19">
@@ -16137,85 +16158,85 @@
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>2468</v>
+        <v>2475</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>2469</v>
+        <v>2476</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>2470</v>
+        <v>2477</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>2471</v>
+        <v>2478</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>2472</v>
+        <v>2479</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>2473</v>
+        <v>2480</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>2474</v>
+        <v>2481</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>1826</v>
+        <v>1834</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>2475</v>
+        <v>2482</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>1812</v>
+        <v>1820</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>1783</v>
+        <v>1791</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>2476</v>
+        <v>2483</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>1805</v>
+        <v>1813</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>2477</v>
+        <v>2484</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>2478</v>
+        <v>2485</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>2479</v>
+        <v>2486</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>2480</v>
+        <v>2487</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>2481</v>
+        <v>2488</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>2482</v>
+        <v>2489</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>2483</v>
+        <v>2490</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>2484</v>
+        <v>2491</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>2485</v>
+        <v>2492</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>2486</v>
+        <v>2493</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>2487</v>
+        <v>2494</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>2488</v>
+        <v>2495</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>2489</v>
+        <v>2496</v>
       </c>
       <c r="AB19" s="12" t="s">
-        <v>2490</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="20">
@@ -16223,85 +16244,85 @@
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>2491</v>
+        <v>2498</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>2492</v>
+        <v>2499</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>2493</v>
+        <v>2500</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>2494</v>
+        <v>2501</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>2495</v>
+        <v>2502</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>2496</v>
+        <v>2503</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>2497</v>
+        <v>2504</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>1844</v>
+        <v>1852</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>1892</v>
+        <v>1899</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>1771</v>
+        <v>1779</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>2498</v>
+        <v>2505</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>2499</v>
+        <v>2506</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>2500</v>
+        <v>2507</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>2501</v>
+        <v>2508</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>2502</v>
+        <v>2509</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>2503</v>
+        <v>2510</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>2504</v>
+        <v>2511</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>2505</v>
+        <v>2512</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>2506</v>
+        <v>2513</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>2507</v>
+        <v>2514</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>2508</v>
+        <v>2515</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>2509</v>
+        <v>2516</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>1750</v>
+        <v>1758</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>2510</v>
+        <v>2517</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>2511</v>
+        <v>2518</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>2512</v>
+        <v>2519</v>
       </c>
       <c r="AB20" s="12" t="s">
-        <v>2513</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="21">
@@ -16309,85 +16330,85 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>2514</v>
+        <v>2521</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>2515</v>
+        <v>2522</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>2516</v>
+        <v>2523</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>2517</v>
+        <v>2524</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>2518</v>
+        <v>2525</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1872</v>
+        <v>1879</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>2519</v>
+        <v>2526</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>2520</v>
+        <v>2527</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>2521</v>
+        <v>2528</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>2522</v>
+        <v>2529</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>2523</v>
+        <v>2530</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>1897</v>
+        <v>1904</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>2525</v>
+        <v>2532</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>2526</v>
+        <v>2533</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>2527</v>
+        <v>2534</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>2528</v>
+        <v>2535</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>2529</v>
+        <v>2536</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>2530</v>
+        <v>2537</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>2531</v>
+        <v>2538</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>2532</v>
+        <v>2539</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>2533</v>
+        <v>2540</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>2534</v>
+        <v>2541</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>2535</v>
+        <v>2542</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>2536</v>
+        <v>2543</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>1726</v>
+        <v>1734</v>
       </c>
       <c r="AB21" s="12" t="s">
-        <v>2537</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="22">
@@ -16395,85 +16416,85 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>2538</v>
+        <v>2545</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>2539</v>
+        <v>2546</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>2540</v>
+        <v>2547</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>2541</v>
+        <v>2548</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>2542</v>
+        <v>2549</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>2543</v>
+        <v>2550</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>2544</v>
+        <v>2551</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>2545</v>
+        <v>2552</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>2546</v>
+        <v>2553</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>2547</v>
+        <v>2554</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>2548</v>
+        <v>2555</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>2549</v>
+        <v>2556</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>1874</v>
+        <v>1881</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>2550</v>
+        <v>2557</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>2551</v>
+        <v>2558</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>2552</v>
+        <v>2559</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>2553</v>
+        <v>2560</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>2554</v>
+        <v>2561</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>2555</v>
+        <v>2562</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>2556</v>
+        <v>2563</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>2557</v>
+        <v>2564</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>2558</v>
+        <v>2565</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>2559</v>
+        <v>2566</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>1878</v>
+        <v>1885</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>2560</v>
+        <v>2567</v>
       </c>
       <c r="AB22" s="12" t="s">
-        <v>2561</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="23">
@@ -16481,85 +16502,85 @@
         <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>2562</v>
+        <v>2569</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>2563</v>
+        <v>2570</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>2564</v>
+        <v>2571</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>2565</v>
+        <v>2572</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>2566</v>
+        <v>2573</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>2567</v>
+        <v>2574</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>2568</v>
+        <v>2575</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>2569</v>
+        <v>2576</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>2570</v>
+        <v>2577</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>2571</v>
+        <v>2578</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>2572</v>
+        <v>2579</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>2573</v>
+        <v>2580</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>2574</v>
+        <v>2581</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>2575</v>
+        <v>2582</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>2576</v>
+        <v>2583</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>2577</v>
+        <v>2584</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>2578</v>
+        <v>2585</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>2579</v>
+        <v>2586</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>2580</v>
+        <v>2587</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>2581</v>
+        <v>2588</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>1879</v>
+        <v>1886</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>2582</v>
+        <v>2589</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>2583</v>
+        <v>2590</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>2584</v>
+        <v>2591</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>2585</v>
+        <v>2592</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>2586</v>
+        <v>2593</v>
       </c>
       <c r="AB23" s="12" t="s">
-        <v>2587</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="24">
@@ -16567,85 +16588,85 @@
         <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>2588</v>
+        <v>2595</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>2589</v>
+        <v>2596</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>2590</v>
+        <v>2597</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>2591</v>
+        <v>2598</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>2592</v>
+        <v>2599</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>2593</v>
+        <v>2600</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>2594</v>
+        <v>2601</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>2595</v>
+        <v>2602</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>2596</v>
+        <v>2603</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>2597</v>
+        <v>2604</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>2598</v>
+        <v>2605</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>2599</v>
+        <v>2606</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>2600</v>
+        <v>2607</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>2601</v>
+        <v>2608</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>2602</v>
+        <v>2609</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>2603</v>
+        <v>2610</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>2604</v>
+        <v>2611</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>2605</v>
+        <v>2612</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>2606</v>
+        <v>2613</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>2607</v>
+        <v>2614</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>2608</v>
+        <v>2615</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>2609</v>
+        <v>2616</v>
       </c>
       <c r="Y24" s="5" t="s">
-        <v>2610</v>
+        <v>2617</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>2611</v>
+        <v>2618</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>2612</v>
+        <v>2619</v>
       </c>
       <c r="AB24" s="12" t="s">
-        <v>2613</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="25">
@@ -16653,85 +16674,85 @@
         <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>2614</v>
+        <v>2621</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>2615</v>
+        <v>2622</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>2616</v>
+        <v>2623</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>2617</v>
+        <v>2624</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>2618</v>
+        <v>2625</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>2619</v>
+        <v>2626</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>2620</v>
+        <v>2627</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>2621</v>
+        <v>2628</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>2622</v>
+        <v>2629</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>2623</v>
+        <v>2630</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>2624</v>
+        <v>2631</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>2625</v>
+        <v>2632</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>2626</v>
+        <v>2633</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>2627</v>
+        <v>2634</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>2628</v>
+        <v>2635</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>1824</v>
+        <v>1832</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>2629</v>
+        <v>2636</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>2630</v>
+        <v>2637</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>1785</v>
+        <v>1793</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>2631</v>
+        <v>2638</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>2632</v>
+        <v>2639</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>2633</v>
+        <v>2640</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>2634</v>
+        <v>2641</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>2635</v>
+        <v>2642</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>2636</v>
+        <v>2643</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>2637</v>
+        <v>2644</v>
       </c>
       <c r="AB25" s="12" t="s">
-        <v>2254</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="26">
@@ -16739,85 +16760,85 @@
         <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>2638</v>
+        <v>2645</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>2639</v>
+        <v>2646</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>2640</v>
+        <v>2647</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>2641</v>
+        <v>2648</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>2642</v>
+        <v>2649</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>2643</v>
+        <v>2650</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>2644</v>
+        <v>2651</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>2645</v>
+        <v>2652</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>2646</v>
+        <v>2653</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>2647</v>
+        <v>2654</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>2648</v>
+        <v>2655</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>1759</v>
+        <v>1767</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>2649</v>
+        <v>2656</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>1862</v>
+        <v>1869</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>2650</v>
+        <v>2657</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>1898</v>
+        <v>1905</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>2651</v>
+        <v>2658</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>2652</v>
+        <v>2659</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>2653</v>
+        <v>2660</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>2654</v>
+        <v>2661</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>2655</v>
+        <v>2662</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>2656</v>
+        <v>2663</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>2657</v>
+        <v>2664</v>
       </c>
       <c r="Y26" s="5" t="s">
-        <v>2658</v>
+        <v>2665</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>2659</v>
+        <v>2666</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>2660</v>
+        <v>2667</v>
       </c>
       <c r="AB26" s="12" t="s">
-        <v>2661</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="27">
@@ -16825,85 +16846,85 @@
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>2662</v>
+        <v>2669</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>2663</v>
+        <v>2670</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>2664</v>
+        <v>2671</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>2665</v>
+        <v>2672</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>2666</v>
+        <v>2673</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>2667</v>
+        <v>2674</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>2668</v>
+        <v>2675</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>2669</v>
+        <v>2676</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>2670</v>
+        <v>2677</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>2671</v>
+        <v>2678</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>2672</v>
+        <v>2679</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>2673</v>
+        <v>2680</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>2674</v>
+        <v>2681</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>2675</v>
+        <v>2682</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>2676</v>
+        <v>2683</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>2677</v>
+        <v>2684</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>2678</v>
+        <v>2685</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>2679</v>
+        <v>2686</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>2680</v>
+        <v>2687</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>2681</v>
+        <v>2688</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>2682</v>
+        <v>2689</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>2683</v>
+        <v>2690</v>
       </c>
       <c r="Y27" s="5" t="s">
-        <v>2684</v>
+        <v>2691</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>2685</v>
+        <v>2692</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>2686</v>
+        <v>2693</v>
       </c>
       <c r="AB27" s="12" t="s">
-        <v>2687</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="28">
@@ -16911,85 +16932,85 @@
         <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>2688</v>
+        <v>2695</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>2689</v>
+        <v>2696</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>2690</v>
+        <v>2697</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>2691</v>
+        <v>2698</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>2692</v>
+        <v>2699</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>2693</v>
+        <v>2700</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>1852</v>
+        <v>1859</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>2694</v>
+        <v>2701</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>2695</v>
+        <v>2702</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>2696</v>
+        <v>2703</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>2697</v>
+        <v>2704</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>2698</v>
+        <v>2705</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>2699</v>
+        <v>2706</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>2700</v>
+        <v>2707</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>2701</v>
+        <v>2708</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>2702</v>
+        <v>2709</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>2703</v>
+        <v>2710</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>2704</v>
+        <v>2711</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>2705</v>
+        <v>2712</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>2706</v>
+        <v>2713</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>2707</v>
+        <v>2714</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>2708</v>
+        <v>2715</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>2709</v>
+        <v>2716</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>2710</v>
+        <v>2717</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>2711</v>
+        <v>2718</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>2712</v>
+        <v>2719</v>
       </c>
       <c r="AB28" s="12" t="s">
-        <v>2713</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="29">
@@ -16997,85 +17018,85 @@
         <v>45</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>2714</v>
+        <v>2721</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>2715</v>
+        <v>2722</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>2716</v>
+        <v>2723</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>2717</v>
+        <v>2724</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>2718</v>
+        <v>2725</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>2719</v>
+        <v>2726</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>2720</v>
+        <v>2727</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>2721</v>
+        <v>2728</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>2722</v>
+        <v>2729</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>2723</v>
+        <v>2730</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>2724</v>
+        <v>2731</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>2725</v>
+        <v>2732</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>2726</v>
+        <v>2733</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>2727</v>
+        <v>2734</v>
       </c>
       <c r="P29" s="9